--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,406 +31,370 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>28.04.20251</t>
-  </si>
-  <si>
-    <t>28.04.20252</t>
-  </si>
-  <si>
-    <t>28.04.20253</t>
-  </si>
-  <si>
-    <t>28.04.20254</t>
-  </si>
-  <si>
-    <t>28.04.20255</t>
-  </si>
-  <si>
-    <t>28.04.20256</t>
-  </si>
-  <si>
-    <t>28.04.20257</t>
-  </si>
-  <si>
-    <t>28.04.20258</t>
-  </si>
-  <si>
-    <t>28.04.20259</t>
-  </si>
-  <si>
-    <t>28.04.202510</t>
-  </si>
-  <si>
-    <t>28.04.202511</t>
-  </si>
-  <si>
-    <t>28.04.202512</t>
-  </si>
-  <si>
-    <t>28.04.202513</t>
-  </si>
-  <si>
-    <t>28.04.202514</t>
-  </si>
-  <si>
-    <t>28.04.202515</t>
-  </si>
-  <si>
-    <t>28.04.202516</t>
-  </si>
-  <si>
-    <t>28.04.202517</t>
-  </si>
-  <si>
-    <t>28.04.202518</t>
-  </si>
-  <si>
-    <t>28.04.202519</t>
-  </si>
-  <si>
-    <t>28.04.202520</t>
-  </si>
-  <si>
-    <t>28.04.202521</t>
-  </si>
-  <si>
-    <t>28.04.202522</t>
-  </si>
-  <si>
-    <t>28.04.202523</t>
-  </si>
-  <si>
-    <t>28.04.202524</t>
-  </si>
-  <si>
-    <t>28.04.202525</t>
-  </si>
-  <si>
-    <t>28.04.202526</t>
-  </si>
-  <si>
-    <t>28.04.202527</t>
-  </si>
-  <si>
-    <t>28.04.202528</t>
-  </si>
-  <si>
-    <t>28.04.202529</t>
-  </si>
-  <si>
-    <t>28.04.202530</t>
-  </si>
-  <si>
-    <t>28.04.202531</t>
-  </si>
-  <si>
-    <t>28.04.202532</t>
-  </si>
-  <si>
-    <t>28.04.202533</t>
-  </si>
-  <si>
-    <t>28.04.202534</t>
-  </si>
-  <si>
-    <t>28.04.202535</t>
-  </si>
-  <si>
-    <t>28.04.202536</t>
-  </si>
-  <si>
-    <t>28.04.202537</t>
-  </si>
-  <si>
-    <t>28.04.202538</t>
-  </si>
-  <si>
-    <t>28.04.202539</t>
-  </si>
-  <si>
-    <t>28.04.202540</t>
-  </si>
-  <si>
-    <t>28.04.202541</t>
-  </si>
-  <si>
-    <t>28.04.202542</t>
-  </si>
-  <si>
-    <t>28.04.202543</t>
-  </si>
-  <si>
-    <t>28.04.202544</t>
-  </si>
-  <si>
-    <t>28.04.202545</t>
-  </si>
-  <si>
-    <t>28.04.202546</t>
-  </si>
-  <si>
-    <t>28.04.202547</t>
-  </si>
-  <si>
-    <t>28.04.202548</t>
-  </si>
-  <si>
-    <t>28.04.202549</t>
-  </si>
-  <si>
-    <t>28.04.202550</t>
-  </si>
-  <si>
-    <t>28.04.202551</t>
-  </si>
-  <si>
-    <t>28.04.202552</t>
-  </si>
-  <si>
-    <t>28.04.202553</t>
-  </si>
-  <si>
-    <t>28.04.202554</t>
-  </si>
-  <si>
-    <t>28.04.202555</t>
-  </si>
-  <si>
-    <t>28.04.202556</t>
-  </si>
-  <si>
-    <t>28.04.202557</t>
-  </si>
-  <si>
-    <t>28.04.202558</t>
-  </si>
-  <si>
-    <t>28.04.202559</t>
-  </si>
-  <si>
-    <t>28.04.202560</t>
-  </si>
-  <si>
-    <t>28.04.202561</t>
-  </si>
-  <si>
-    <t>28.04.202562</t>
-  </si>
-  <si>
-    <t>28.04.202563</t>
-  </si>
-  <si>
-    <t>28.04.202564</t>
-  </si>
-  <si>
-    <t>28.04.202565</t>
-  </si>
-  <si>
-    <t>28.04.202566</t>
-  </si>
-  <si>
-    <t>28.04.202567</t>
-  </si>
-  <si>
-    <t>28.04.202568</t>
-  </si>
-  <si>
-    <t>28.04.202569</t>
-  </si>
-  <si>
-    <t>28.04.202570</t>
-  </si>
-  <si>
-    <t>28.04.202571</t>
-  </si>
-  <si>
-    <t>28.04.202572</t>
-  </si>
-  <si>
-    <t>28.04.202573</t>
-  </si>
-  <si>
-    <t>28.04.202574</t>
-  </si>
-  <si>
-    <t>28.04.202575</t>
-  </si>
-  <si>
-    <t>28.04.202576</t>
-  </si>
-  <si>
-    <t>28.04.202577</t>
-  </si>
-  <si>
-    <t>28.04.202578</t>
-  </si>
-  <si>
-    <t>28.04.202579</t>
-  </si>
-  <si>
-    <t>28.04.202580</t>
-  </si>
-  <si>
-    <t>28.04.202581</t>
-  </si>
-  <si>
-    <t>28.04.202582</t>
-  </si>
-  <si>
-    <t>28.04.202583</t>
-  </si>
-  <si>
-    <t>28.04.202584</t>
-  </si>
-  <si>
-    <t>28.04.202585</t>
-  </si>
-  <si>
-    <t>28.04.202586</t>
-  </si>
-  <si>
-    <t>28.04.202587</t>
-  </si>
-  <si>
-    <t>28.04.202588</t>
-  </si>
-  <si>
-    <t>28.04.202589</t>
-  </si>
-  <si>
-    <t>28.04.202590</t>
-  </si>
-  <si>
-    <t>28.04.202591</t>
-  </si>
-  <si>
-    <t>28.04.202592</t>
-  </si>
-  <si>
-    <t>28.04.202593</t>
-  </si>
-  <si>
-    <t>28.04.202594</t>
-  </si>
-  <si>
-    <t>28.04.202595</t>
-  </si>
-  <si>
-    <t>28.04.202596</t>
-  </si>
-  <si>
-    <t>29.04.20251</t>
-  </si>
-  <si>
-    <t>29.04.20252</t>
-  </si>
-  <si>
-    <t>29.04.20253</t>
-  </si>
-  <si>
-    <t>29.04.20254</t>
-  </si>
-  <si>
-    <t>29.04.20255</t>
-  </si>
-  <si>
-    <t>29.04.20256</t>
-  </si>
-  <si>
-    <t>29.04.20257</t>
-  </si>
-  <si>
-    <t>29.04.20258</t>
-  </si>
-  <si>
-    <t>29.04.20259</t>
-  </si>
-  <si>
-    <t>29.04.202510</t>
-  </si>
-  <si>
-    <t>29.04.202511</t>
-  </si>
-  <si>
-    <t>29.04.202512</t>
-  </si>
-  <si>
-    <t>29.04.202513</t>
-  </si>
-  <si>
-    <t>29.04.202514</t>
-  </si>
-  <si>
-    <t>29.04.202515</t>
-  </si>
-  <si>
-    <t>29.04.202516</t>
-  </si>
-  <si>
-    <t>29.04.202517</t>
-  </si>
-  <si>
-    <t>29.04.202518</t>
-  </si>
-  <si>
-    <t>29.04.202519</t>
-  </si>
-  <si>
-    <t>29.04.202520</t>
-  </si>
-  <si>
-    <t>29.04.202521</t>
-  </si>
-  <si>
-    <t>29.04.202522</t>
-  </si>
-  <si>
-    <t>29.04.202523</t>
-  </si>
-  <si>
-    <t>29.04.202524</t>
-  </si>
-  <si>
-    <t>29.04.202525</t>
-  </si>
-  <si>
-    <t>29.04.202526</t>
-  </si>
-  <si>
-    <t>29.04.202527</t>
-  </si>
-  <si>
-    <t>29.04.202528</t>
-  </si>
-  <si>
-    <t>29.04.202529</t>
-  </si>
-  <si>
-    <t>29.04.202530</t>
-  </si>
-  <si>
-    <t>29.04.202531</t>
-  </si>
-  <si>
-    <t>29.04.202532</t>
-  </si>
-  <si>
-    <t>29.04.202533</t>
-  </si>
-  <si>
-    <t>29.04.202534</t>
-  </si>
-  <si>
-    <t>29.04.202535</t>
-  </si>
-  <si>
-    <t>29.04.202536</t>
-  </si>
-  <si>
-    <t>29.04.202537</t>
-  </si>
-  <si>
-    <t>29.04.202538</t>
+    <t>08.05.20251</t>
+  </si>
+  <si>
+    <t>08.05.20252</t>
+  </si>
+  <si>
+    <t>08.05.20253</t>
+  </si>
+  <si>
+    <t>08.05.20254</t>
+  </si>
+  <si>
+    <t>08.05.20255</t>
+  </si>
+  <si>
+    <t>08.05.20256</t>
+  </si>
+  <si>
+    <t>08.05.20257</t>
+  </si>
+  <si>
+    <t>08.05.20258</t>
+  </si>
+  <si>
+    <t>08.05.20259</t>
+  </si>
+  <si>
+    <t>08.05.202510</t>
+  </si>
+  <si>
+    <t>08.05.202511</t>
+  </si>
+  <si>
+    <t>08.05.202512</t>
+  </si>
+  <si>
+    <t>08.05.202513</t>
+  </si>
+  <si>
+    <t>08.05.202514</t>
+  </si>
+  <si>
+    <t>08.05.202515</t>
+  </si>
+  <si>
+    <t>08.05.202516</t>
+  </si>
+  <si>
+    <t>08.05.202517</t>
+  </si>
+  <si>
+    <t>08.05.202518</t>
+  </si>
+  <si>
+    <t>08.05.202519</t>
+  </si>
+  <si>
+    <t>08.05.202520</t>
+  </si>
+  <si>
+    <t>08.05.202521</t>
+  </si>
+  <si>
+    <t>08.05.202522</t>
+  </si>
+  <si>
+    <t>08.05.202523</t>
+  </si>
+  <si>
+    <t>08.05.202524</t>
+  </si>
+  <si>
+    <t>08.05.202525</t>
+  </si>
+  <si>
+    <t>08.05.202526</t>
+  </si>
+  <si>
+    <t>08.05.202527</t>
+  </si>
+  <si>
+    <t>08.05.202528</t>
+  </si>
+  <si>
+    <t>08.05.202529</t>
+  </si>
+  <si>
+    <t>08.05.202530</t>
+  </si>
+  <si>
+    <t>08.05.202531</t>
+  </si>
+  <si>
+    <t>08.05.202532</t>
+  </si>
+  <si>
+    <t>08.05.202533</t>
+  </si>
+  <si>
+    <t>08.05.202534</t>
+  </si>
+  <si>
+    <t>08.05.202535</t>
+  </si>
+  <si>
+    <t>08.05.202536</t>
+  </si>
+  <si>
+    <t>08.05.202537</t>
+  </si>
+  <si>
+    <t>08.05.202538</t>
+  </si>
+  <si>
+    <t>08.05.202539</t>
+  </si>
+  <si>
+    <t>08.05.202540</t>
+  </si>
+  <si>
+    <t>08.05.202541</t>
+  </si>
+  <si>
+    <t>08.05.202542</t>
+  </si>
+  <si>
+    <t>08.05.202543</t>
+  </si>
+  <si>
+    <t>08.05.202544</t>
+  </si>
+  <si>
+    <t>08.05.202545</t>
+  </si>
+  <si>
+    <t>08.05.202546</t>
+  </si>
+  <si>
+    <t>08.05.202547</t>
+  </si>
+  <si>
+    <t>08.05.202548</t>
+  </si>
+  <si>
+    <t>08.05.202549</t>
+  </si>
+  <si>
+    <t>08.05.202550</t>
+  </si>
+  <si>
+    <t>08.05.202551</t>
+  </si>
+  <si>
+    <t>08.05.202552</t>
+  </si>
+  <si>
+    <t>08.05.202553</t>
+  </si>
+  <si>
+    <t>08.05.202554</t>
+  </si>
+  <si>
+    <t>08.05.202555</t>
+  </si>
+  <si>
+    <t>08.05.202556</t>
+  </si>
+  <si>
+    <t>08.05.202557</t>
+  </si>
+  <si>
+    <t>08.05.202558</t>
+  </si>
+  <si>
+    <t>08.05.202559</t>
+  </si>
+  <si>
+    <t>08.05.202560</t>
+  </si>
+  <si>
+    <t>08.05.202561</t>
+  </si>
+  <si>
+    <t>08.05.202562</t>
+  </si>
+  <si>
+    <t>08.05.202563</t>
+  </si>
+  <si>
+    <t>08.05.202564</t>
+  </si>
+  <si>
+    <t>08.05.202565</t>
+  </si>
+  <si>
+    <t>08.05.202566</t>
+  </si>
+  <si>
+    <t>08.05.202567</t>
+  </si>
+  <si>
+    <t>08.05.202568</t>
+  </si>
+  <si>
+    <t>08.05.202569</t>
+  </si>
+  <si>
+    <t>08.05.202570</t>
+  </si>
+  <si>
+    <t>08.05.202571</t>
+  </si>
+  <si>
+    <t>08.05.202572</t>
+  </si>
+  <si>
+    <t>08.05.202573</t>
+  </si>
+  <si>
+    <t>08.05.202574</t>
+  </si>
+  <si>
+    <t>08.05.202575</t>
+  </si>
+  <si>
+    <t>08.05.202576</t>
+  </si>
+  <si>
+    <t>08.05.202577</t>
+  </si>
+  <si>
+    <t>08.05.202578</t>
+  </si>
+  <si>
+    <t>08.05.202579</t>
+  </si>
+  <si>
+    <t>08.05.202580</t>
+  </si>
+  <si>
+    <t>08.05.202581</t>
+  </si>
+  <si>
+    <t>08.05.202582</t>
+  </si>
+  <si>
+    <t>08.05.202583</t>
+  </si>
+  <si>
+    <t>08.05.202584</t>
+  </si>
+  <si>
+    <t>08.05.202585</t>
+  </si>
+  <si>
+    <t>08.05.202586</t>
+  </si>
+  <si>
+    <t>08.05.202587</t>
+  </si>
+  <si>
+    <t>08.05.202588</t>
+  </si>
+  <si>
+    <t>08.05.202589</t>
+  </si>
+  <si>
+    <t>08.05.202590</t>
+  </si>
+  <si>
+    <t>08.05.202591</t>
+  </si>
+  <si>
+    <t>08.05.202592</t>
+  </si>
+  <si>
+    <t>08.05.202593</t>
+  </si>
+  <si>
+    <t>08.05.202594</t>
+  </si>
+  <si>
+    <t>08.05.202595</t>
+  </si>
+  <si>
+    <t>08.05.202596</t>
+  </si>
+  <si>
+    <t>09.05.20251</t>
+  </si>
+  <si>
+    <t>09.05.20252</t>
+  </si>
+  <si>
+    <t>09.05.20253</t>
+  </si>
+  <si>
+    <t>09.05.20254</t>
+  </si>
+  <si>
+    <t>09.05.20255</t>
+  </si>
+  <si>
+    <t>09.05.20256</t>
+  </si>
+  <si>
+    <t>09.05.20257</t>
+  </si>
+  <si>
+    <t>09.05.20258</t>
+  </si>
+  <si>
+    <t>09.05.20259</t>
+  </si>
+  <si>
+    <t>09.05.202510</t>
+  </si>
+  <si>
+    <t>09.05.202511</t>
+  </si>
+  <si>
+    <t>09.05.202512</t>
+  </si>
+  <si>
+    <t>09.05.202513</t>
+  </si>
+  <si>
+    <t>09.05.202514</t>
+  </si>
+  <si>
+    <t>09.05.202515</t>
+  </si>
+  <si>
+    <t>09.05.202516</t>
+  </si>
+  <si>
+    <t>09.05.202517</t>
+  </si>
+  <si>
+    <t>09.05.202518</t>
+  </si>
+  <si>
+    <t>09.05.202519</t>
+  </si>
+  <si>
+    <t>09.05.202520</t>
+  </si>
+  <si>
+    <t>09.05.202521</t>
+  </si>
+  <si>
+    <t>09.05.202522</t>
+  </si>
+  <si>
+    <t>09.05.202523</t>
+  </si>
+  <si>
+    <t>09.05.202524</t>
+  </si>
+  <si>
+    <t>09.05.202525</t>
+  </si>
+  <si>
+    <t>09.05.202526</t>
   </si>
 </sst>
 </file>
@@ -792,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,13 +781,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45775</v>
+        <v>45785</v>
       </c>
       <c r="B2">
-        <v>0.17</v>
+        <v>0.039</v>
       </c>
       <c r="C2">
-        <v>2.524</v>
+        <v>4.771</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -834,13 +798,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45775.01041666666</v>
+        <v>45785.01041666666</v>
       </c>
       <c r="B3">
-        <v>8.395</v>
+        <v>2.497</v>
       </c>
       <c r="C3">
-        <v>0.251</v>
+        <v>1.075</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -851,13 +815,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45775.02083333334</v>
+        <v>45785.02083333334</v>
       </c>
       <c r="B4">
-        <v>6.959</v>
+        <v>0.266</v>
       </c>
       <c r="C4">
-        <v>0.08799999999999999</v>
+        <v>7.314</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -868,13 +832,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45775.03125</v>
+        <v>45785.03125</v>
       </c>
       <c r="B5">
-        <v>9.154999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="C5">
-        <v>0.873</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -885,13 +849,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45775.04166666666</v>
+        <v>45785.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.097</v>
+        <v>0.001</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>12.336</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -902,13 +866,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45775.05208333334</v>
+        <v>45785.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.873</v>
+        <v>0.052</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6.013</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -919,13 +883,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45775.0625</v>
+        <v>45785.0625</v>
       </c>
       <c r="B8">
-        <v>0.906</v>
+        <v>1.574</v>
       </c>
       <c r="C8">
-        <v>0.59</v>
+        <v>5.806</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -936,13 +900,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45775.07291666666</v>
+        <v>45785.07291666666</v>
       </c>
       <c r="B9">
-        <v>5.499</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C9">
-        <v>0.516</v>
+        <v>5.779</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -953,13 +917,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45775.08333333334</v>
+        <v>45785.08333333334</v>
       </c>
       <c r="B10">
-        <v>1.635</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.288</v>
+        <v>18.561</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -970,13 +934,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45775.09375</v>
+        <v>45785.09375</v>
       </c>
       <c r="B11">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.84</v>
+        <v>7.919</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -987,13 +951,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45775.10416666666</v>
+        <v>45785.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.8070000000000001</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.023</v>
+        <v>15.219</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1004,13 +968,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45775.11458333334</v>
+        <v>45785.11458333334</v>
       </c>
       <c r="B13">
-        <v>5.806</v>
+        <v>0.057</v>
       </c>
       <c r="C13">
-        <v>0.099</v>
+        <v>3.103</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1021,13 +985,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45775.125</v>
+        <v>45785.125</v>
       </c>
       <c r="B14">
-        <v>0.347</v>
+        <v>0.091</v>
       </c>
       <c r="C14">
-        <v>7.771</v>
+        <v>8.699</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1038,13 +1002,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45775.13541666666</v>
+        <v>45785.13541666666</v>
       </c>
       <c r="B15">
-        <v>7.126</v>
+        <v>0.38</v>
       </c>
       <c r="C15">
-        <v>0.051</v>
+        <v>3.881</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1055,13 +1019,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45775.14583333334</v>
+        <v>45785.14583333334</v>
       </c>
       <c r="B16">
-        <v>7.978</v>
+        <v>0.036</v>
       </c>
       <c r="C16">
-        <v>0.843</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1072,13 +1036,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45775.15625</v>
+        <v>45785.15625</v>
       </c>
       <c r="B17">
-        <v>13.407</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.541</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1089,13 +1053,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45775.16666666666</v>
+        <v>45785.16666666666</v>
       </c>
       <c r="B18">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>9.189</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1106,13 +1070,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45775.17708333334</v>
+        <v>45785.17708333334</v>
       </c>
       <c r="B19">
-        <v>12.736</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1123,13 +1087,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45775.1875</v>
+        <v>45785.1875</v>
       </c>
       <c r="B20">
-        <v>4.717</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.035</v>
+        <v>2.922</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1140,13 +1104,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45775.19791666666</v>
+        <v>45785.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.6899999999999999</v>
+        <v>0.422</v>
       </c>
       <c r="C21">
-        <v>5.622</v>
+        <v>3.446</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1157,13 +1121,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45775.20833333334</v>
+        <v>45785.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.351</v>
+        <v>33.112</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1174,13 +1138,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45775.21875</v>
+        <v>45785.21875</v>
       </c>
       <c r="B23">
-        <v>0.322</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>5.145</v>
+        <v>27.194</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1191,13 +1155,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45775.22916666666</v>
+        <v>45785.22916666666</v>
       </c>
       <c r="B24">
-        <v>2.508</v>
+        <v>0.063</v>
       </c>
       <c r="C24">
-        <v>2.398</v>
+        <v>17.999</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1208,13 +1172,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45775.23958333334</v>
+        <v>45785.23958333334</v>
       </c>
       <c r="B25">
-        <v>3.513</v>
+        <v>6.083</v>
       </c>
       <c r="C25">
-        <v>1.84</v>
+        <v>0.656</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1225,13 +1189,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45775.25</v>
+        <v>45785.25</v>
       </c>
       <c r="B26">
-        <v>3.738</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2.112</v>
+        <v>26.867</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1242,13 +1206,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45775.26041666666</v>
+        <v>45785.26041666666</v>
       </c>
       <c r="B27">
-        <v>2.243</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.03</v>
+        <v>20.346</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1259,13 +1223,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45775.27083333334</v>
+        <v>45785.27083333334</v>
       </c>
       <c r="B28">
-        <v>2.339</v>
+        <v>1.523</v>
       </c>
       <c r="C28">
-        <v>3.195</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1276,13 +1240,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45775.28125</v>
+        <v>45785.28125</v>
       </c>
       <c r="B29">
-        <v>5.987</v>
+        <v>9.753</v>
       </c>
       <c r="C29">
-        <v>3.635</v>
+        <v>0.19</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1293,13 +1257,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45775.29166666666</v>
+        <v>45785.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.259</v>
+        <v>0.161</v>
       </c>
       <c r="C30">
-        <v>5.074</v>
+        <v>14.177</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1310,13 +1274,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45775.30208333334</v>
+        <v>45785.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.477</v>
+        <v>0.001</v>
       </c>
       <c r="C31">
-        <v>1.566</v>
+        <v>27.289</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1327,13 +1291,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45775.3125</v>
+        <v>45785.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>3.941</v>
+        <v>31.567</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1344,13 +1308,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45775.32291666666</v>
+        <v>45785.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.923</v>
+        <v>37.722</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1361,13 +1325,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45775.33333333334</v>
+        <v>45785.33333333334</v>
       </c>
       <c r="B34">
-        <v>12.346</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.795</v>
+        <v>37.948</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1378,13 +1342,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45775.34375</v>
+        <v>45785.34375</v>
       </c>
       <c r="B35">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1.307</v>
+        <v>26.473</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1395,13 +1359,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45775.35416666666</v>
+        <v>45785.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>3.069</v>
+        <v>17.327</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1412,13 +1376,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45775.36458333334</v>
+        <v>45785.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.965</v>
+        <v>3.042</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1429,13 +1393,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45775.375</v>
+        <v>45785.375</v>
       </c>
       <c r="B38">
-        <v>0.32</v>
+        <v>1.74</v>
       </c>
       <c r="C38">
-        <v>9.679</v>
+        <v>1.209</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1446,13 +1410,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45775.38541666666</v>
+        <v>45785.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.371</v>
       </c>
       <c r="C39">
-        <v>10.685</v>
+        <v>2.193</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1463,13 +1427,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45775.39583333334</v>
+        <v>45785.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1.425</v>
+        <v>5.364</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1480,13 +1444,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45775.40625</v>
+        <v>45785.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="C41">
-        <v>11.764</v>
+        <v>6.423</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1497,13 +1461,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45775.41666666666</v>
+        <v>45785.41666666666</v>
       </c>
       <c r="B42">
-        <v>2.898</v>
+        <v>17.858</v>
       </c>
       <c r="C42">
-        <v>6.656</v>
+        <v>0.003</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1514,13 +1478,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45775.42708333334</v>
+        <v>45785.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2.911</v>
       </c>
       <c r="C43">
-        <v>12.54</v>
+        <v>1.783</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1531,13 +1495,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45775.4375</v>
+        <v>45785.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>17.911</v>
       </c>
       <c r="C44">
-        <v>3.82</v>
+        <v>0.019</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1548,13 +1512,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45775.44791666666</v>
+        <v>45785.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="C45">
-        <v>19.538</v>
+        <v>2.239</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1565,13 +1529,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45775.45833333334</v>
+        <v>45785.45833333334</v>
       </c>
       <c r="B46">
-        <v>8.987</v>
+        <v>1.615</v>
       </c>
       <c r="C46">
-        <v>6.768</v>
+        <v>3.828</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1582,13 +1546,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45775.46875</v>
+        <v>45785.46875</v>
       </c>
       <c r="B47">
-        <v>11.224</v>
+        <v>1.777</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4.287</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1599,13 +1563,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45775.47916666666</v>
+        <v>45785.47916666666</v>
       </c>
       <c r="B48">
-        <v>2.103</v>
+        <v>8.659000000000001</v>
       </c>
       <c r="C48">
-        <v>2.491</v>
+        <v>0.341</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1616,13 +1580,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45775.48958333334</v>
+        <v>45785.48958333334</v>
       </c>
       <c r="B49">
-        <v>1.144</v>
+        <v>8.416</v>
       </c>
       <c r="C49">
-        <v>4.035</v>
+        <v>0.044</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1633,13 +1597,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45775.5</v>
+        <v>45785.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="C50">
-        <v>13.729</v>
+        <v>3.443</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1650,13 +1614,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45775.51041666666</v>
+        <v>45785.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1.472</v>
       </c>
       <c r="C51">
-        <v>11.791</v>
+        <v>1.361</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1667,13 +1631,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45775.52083333334</v>
+        <v>45785.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.555</v>
+        <v>12.507</v>
       </c>
       <c r="C52">
-        <v>5.533</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1684,13 +1648,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45775.53125</v>
+        <v>45785.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>5.217</v>
       </c>
       <c r="C53">
-        <v>9.907</v>
+        <v>0.106</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1701,13 +1665,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45775.54166666666</v>
+        <v>45785.54166666666</v>
       </c>
       <c r="B54">
-        <v>4.561</v>
+        <v>10.348</v>
       </c>
       <c r="C54">
-        <v>3.536</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1718,13 +1682,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45775.55208333334</v>
+        <v>45785.55208333334</v>
       </c>
       <c r="B55">
-        <v>1.133</v>
+        <v>7.908</v>
       </c>
       <c r="C55">
-        <v>1.191</v>
+        <v>0.827</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1735,13 +1699,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45775.5625</v>
+        <v>45785.5625</v>
       </c>
       <c r="B56">
-        <v>1.478</v>
+        <v>0.767</v>
       </c>
       <c r="C56">
-        <v>2.85</v>
+        <v>1.694</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1752,13 +1716,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45775.57291666666</v>
+        <v>45785.57291666666</v>
       </c>
       <c r="B57">
-        <v>3.756</v>
+        <v>1.721</v>
       </c>
       <c r="C57">
-        <v>1.102</v>
+        <v>1.463</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1769,13 +1733,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45775.58333333334</v>
+        <v>45785.58333333334</v>
       </c>
       <c r="B58">
-        <v>1.265</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1.405</v>
+        <v>29.188</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1786,13 +1750,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45775.59375</v>
+        <v>45785.59375</v>
       </c>
       <c r="B59">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>54.314</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1803,13 +1767,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45775.60416666666</v>
+        <v>45785.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>74.446</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1820,13 +1784,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45775.61458333334</v>
+        <v>45785.61458333334</v>
       </c>
       <c r="B61">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.532</v>
+        <v>94.032</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1837,13 +1801,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45775.625</v>
+        <v>45785.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.83</v>
+        <v>42.547</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1854,13 +1818,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45775.63541666666</v>
+        <v>45785.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.483</v>
       </c>
       <c r="C63">
-        <v>1.921</v>
+        <v>22.872</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1871,13 +1835,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45775.64583333334</v>
+        <v>45785.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>4.971</v>
       </c>
       <c r="C64">
-        <v>20.779</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1888,13 +1852,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45775.65625</v>
+        <v>45785.65625</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>10.572</v>
       </c>
       <c r="C65">
-        <v>23.61</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1905,13 +1869,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45775.66666666666</v>
+        <v>45785.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="C66">
-        <v>10.678</v>
+        <v>15.896</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1922,13 +1886,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45775.67708333334</v>
+        <v>45785.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.021</v>
+        <v>0.068</v>
       </c>
       <c r="C67">
-        <v>1.847</v>
+        <v>25.207</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1939,10 +1903,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45775.6875</v>
+        <v>45785.6875</v>
       </c>
       <c r="B68">
-        <v>25.976</v>
+        <v>6.455</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1956,10 +1920,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45775.69791666666</v>
+        <v>45785.69791666666</v>
       </c>
       <c r="B69">
-        <v>48.297</v>
+        <v>2.907</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1973,13 +1937,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45775.70833333334</v>
+        <v>45785.70833333334</v>
       </c>
       <c r="B70">
-        <v>3.563</v>
+        <v>2.102</v>
       </c>
       <c r="C70">
-        <v>0.318</v>
+        <v>2.312</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1990,13 +1954,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45775.71875</v>
+        <v>45785.71875</v>
       </c>
       <c r="B71">
-        <v>5.211</v>
+        <v>2.274</v>
       </c>
       <c r="C71">
-        <v>0.991</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2007,13 +1971,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45775.72916666666</v>
+        <v>45785.72916666666</v>
       </c>
       <c r="B72">
-        <v>6.267</v>
+        <v>1.249</v>
       </c>
       <c r="C72">
-        <v>1.177</v>
+        <v>0.05</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2024,13 +1988,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45775.73958333334</v>
+        <v>45785.73958333334</v>
       </c>
       <c r="B73">
-        <v>24.29</v>
+        <v>0.303</v>
       </c>
       <c r="C73">
-        <v>0.08</v>
+        <v>2.217</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2041,13 +2005,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45775.75</v>
+        <v>45785.75</v>
       </c>
       <c r="B74">
-        <v>3.509</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.365</v>
+        <v>24.954</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2058,13 +2022,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45775.76041666666</v>
+        <v>45785.76041666666</v>
       </c>
       <c r="B75">
-        <v>1.954</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0.6899999999999999</v>
+        <v>16.993</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2075,13 +2039,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45775.77083333334</v>
+        <v>45785.77083333334</v>
       </c>
       <c r="B76">
-        <v>19.133</v>
+        <v>0.006</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>21.148</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2092,13 +2056,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45775.78125</v>
+        <v>45785.78125</v>
       </c>
       <c r="B77">
-        <v>10.251</v>
+        <v>5.185</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2109,13 +2073,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45775.79166666666</v>
+        <v>45785.79166666666</v>
       </c>
       <c r="B78">
-        <v>0.05</v>
+        <v>15.019</v>
       </c>
       <c r="C78">
-        <v>13.369</v>
+        <v>0.007</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2126,13 +2090,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45775.80208333334</v>
+        <v>45785.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>37.529</v>
       </c>
       <c r="C79">
-        <v>27.097</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2143,13 +2107,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45775.8125</v>
+        <v>45785.8125</v>
       </c>
       <c r="B80">
-        <v>0.057</v>
+        <v>9.026</v>
       </c>
       <c r="C80">
-        <v>7.218</v>
+        <v>3.901</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2160,13 +2124,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45775.82291666666</v>
+        <v>45785.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.595</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>1.903</v>
+        <v>21.737</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2177,13 +2141,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45775.83333333334</v>
+        <v>45785.83333333334</v>
       </c>
       <c r="B82">
-        <v>2.134</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>1.025</v>
+        <v>19.702</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2194,13 +2158,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45775.84375</v>
+        <v>45785.84375</v>
       </c>
       <c r="B83">
-        <v>0.665</v>
+        <v>0.232</v>
       </c>
       <c r="C83">
-        <v>0.9429999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2211,13 +2175,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45775.85416666666</v>
+        <v>45785.85416666666</v>
       </c>
       <c r="B84">
-        <v>1.101</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0.004</v>
+        <v>22.202</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2228,13 +2192,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45775.86458333334</v>
+        <v>45785.86458333334</v>
       </c>
       <c r="B85">
-        <v>2.789</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>3.972</v>
+        <v>40.883</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2245,13 +2209,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45775.875</v>
+        <v>45785.875</v>
       </c>
       <c r="B86">
-        <v>35.497</v>
+        <v>0.198</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>5.042</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2262,13 +2226,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45775.88541666666</v>
+        <v>45785.88541666666</v>
       </c>
       <c r="B87">
-        <v>12.682</v>
+        <v>0.024</v>
       </c>
       <c r="C87">
-        <v>0.048</v>
+        <v>13.405</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2279,13 +2243,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45775.89583333334</v>
+        <v>45785.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="C88">
-        <v>1.41</v>
+        <v>4.388</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2296,13 +2260,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45775.90625</v>
+        <v>45785.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1.441</v>
+        <v>10.698</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2313,13 +2277,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45775.91666666666</v>
+        <v>45785.91666666666</v>
       </c>
       <c r="B90">
-        <v>1.908</v>
+        <v>0.444</v>
       </c>
       <c r="C90">
-        <v>2.834</v>
+        <v>1.863</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2330,13 +2294,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45775.92708333334</v>
+        <v>45785.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.021</v>
+        <v>8.404</v>
       </c>
       <c r="C91">
-        <v>0.696</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2347,13 +2311,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45775.9375</v>
+        <v>45785.9375</v>
       </c>
       <c r="B92">
-        <v>0.024</v>
+        <v>14.313</v>
       </c>
       <c r="C92">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2364,13 +2328,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45775.94791666666</v>
+        <v>45785.94791666666</v>
       </c>
       <c r="B93">
-        <v>1.3</v>
+        <v>13.485</v>
       </c>
       <c r="C93">
-        <v>0.508</v>
+        <v>0.104</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2381,13 +2345,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45775.95833333334</v>
+        <v>45785.95833333334</v>
       </c>
       <c r="B94">
-        <v>4.225</v>
+        <v>3.254</v>
       </c>
       <c r="C94">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2398,13 +2362,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B95">
-        <v>5.117</v>
+        <v>0.106</v>
       </c>
       <c r="C95">
-        <v>0.573</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2415,13 +2379,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45775.96875</v>
+        <v>45785.96875</v>
       </c>
       <c r="B96">
-        <v>5.117</v>
+        <v>0.106</v>
       </c>
       <c r="C96">
-        <v>0.573</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2432,13 +2396,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B97">
-        <v>2.426</v>
+        <v>11.773</v>
       </c>
       <c r="C97">
-        <v>1.601</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2449,13 +2413,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45775.97916666666</v>
+        <v>45785.97916666666</v>
       </c>
       <c r="B98">
-        <v>2.426</v>
+        <v>11.773</v>
       </c>
       <c r="C98">
-        <v>1.601</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2466,13 +2430,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B99">
-        <v>22.448</v>
+        <v>1.345</v>
       </c>
       <c r="C99">
-        <v>0.022</v>
+        <v>11.295</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2483,13 +2447,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45775.98958333334</v>
+        <v>45785.98958333334</v>
       </c>
       <c r="B100">
-        <v>22.448</v>
+        <v>1.345</v>
       </c>
       <c r="C100">
-        <v>0.022</v>
+        <v>11.295</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2500,13 +2464,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B101">
-        <v>1.933</v>
+        <v>4.479</v>
       </c>
       <c r="C101">
-        <v>12.903</v>
+        <v>1.174</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2517,13 +2481,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45776</v>
+        <v>45786</v>
       </c>
       <c r="B102">
-        <v>1.933</v>
+        <v>4.479</v>
       </c>
       <c r="C102">
-        <v>12.903</v>
+        <v>1.174</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2534,13 +2498,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B103">
-        <v>0.08400000000000001</v>
+        <v>12.146</v>
       </c>
       <c r="C103">
-        <v>6.527</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2551,13 +2515,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45776.01041666666</v>
+        <v>45786.01041666666</v>
       </c>
       <c r="B104">
-        <v>0.08400000000000001</v>
+        <v>12.146</v>
       </c>
       <c r="C104">
-        <v>6.527</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2568,13 +2532,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B105">
-        <v>0.438</v>
+        <v>3.927</v>
       </c>
       <c r="C105">
-        <v>7.227</v>
+        <v>0.216</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2585,13 +2549,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45776.02083333334</v>
+        <v>45786.02083333334</v>
       </c>
       <c r="B106">
-        <v>0.438</v>
+        <v>3.927</v>
       </c>
       <c r="C106">
-        <v>7.227</v>
+        <v>0.216</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2602,13 +2566,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B107">
-        <v>18.736</v>
+        <v>0.438</v>
       </c>
       <c r="C107">
-        <v>0.023</v>
+        <v>16.108</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2619,13 +2583,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45776.03125</v>
+        <v>45786.03125</v>
       </c>
       <c r="B108">
-        <v>18.736</v>
+        <v>0.438</v>
       </c>
       <c r="C108">
-        <v>0.023</v>
+        <v>16.108</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2636,13 +2600,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45776.04166666666</v>
+        <v>45786.04166666666</v>
       </c>
       <c r="B109">
-        <v>3.617</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>2.869</v>
+        <v>70.155</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2653,13 +2617,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45776.05208333334</v>
+        <v>45786.05208333334</v>
       </c>
       <c r="B110">
-        <v>5.144</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.712</v>
+        <v>62.613</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2670,13 +2634,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45776.0625</v>
+        <v>45786.0625</v>
       </c>
       <c r="B111">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1.93</v>
+        <v>35.32</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2687,13 +2651,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45776.07291666666</v>
+        <v>45786.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.405</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>4.671</v>
+        <v>19.555</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2704,13 +2668,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45776.08333333334</v>
+        <v>45786.08333333334</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.259</v>
       </c>
       <c r="C113">
-        <v>20.145</v>
+        <v>16.731</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2721,13 +2685,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45776.09375</v>
+        <v>45786.09375</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>27.505</v>
       </c>
       <c r="C114">
-        <v>19.962</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2738,13 +2702,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45776.10416666666</v>
+        <v>45786.10416666666</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>16.479</v>
       </c>
       <c r="C115">
-        <v>26.742</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2755,13 +2719,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45776.11458333334</v>
+        <v>45786.11458333334</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>6.513</v>
       </c>
       <c r="C116">
-        <v>14.223</v>
+        <v>0.735</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2772,13 +2736,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45776.125</v>
+        <v>45786.125</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>19.433</v>
+        <v>8.257999999999999</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2789,13 +2753,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45776.13541666666</v>
+        <v>45786.13541666666</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>20.405</v>
+        <v>18.763</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2806,13 +2770,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45776.14583333334</v>
+        <v>45786.14583333334</v>
       </c>
       <c r="B119">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>12.971</v>
+        <v>19.018</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2823,13 +2787,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45776.15625</v>
+        <v>45786.15625</v>
       </c>
       <c r="B120">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>5.442</v>
+        <v>20.37</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2840,13 +2804,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45776.16666666666</v>
+        <v>45786.16666666666</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>18.395</v>
+        <v>16.178</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2857,13 +2821,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45776.17708333334</v>
+        <v>45786.17708333334</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>24.012</v>
+        <v>22.429</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2874,13 +2838,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45776.1875</v>
+        <v>45786.1875</v>
       </c>
       <c r="B123">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>8.302</v>
+        <v>28.596</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2891,13 +2855,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45776.19791666666</v>
+        <v>45786.19791666666</v>
       </c>
       <c r="B124">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>5.43</v>
+        <v>44.248</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2908,13 +2872,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45776.20833333334</v>
+        <v>45786.20833333334</v>
       </c>
       <c r="B125">
-        <v>0.157</v>
+        <v>0.538</v>
       </c>
       <c r="C125">
-        <v>7.199</v>
+        <v>11.246</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2925,13 +2889,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45776.21875</v>
+        <v>45786.21875</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>4.878</v>
+        <v>21.588</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2942,13 +2906,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45776.22916666666</v>
+        <v>45786.22916666666</v>
       </c>
       <c r="B127">
-        <v>1.123</v>
+        <v>0.243</v>
       </c>
       <c r="C127">
-        <v>7.363</v>
+        <v>10.626</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2959,13 +2923,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45776.23958333334</v>
+        <v>45786.23958333334</v>
       </c>
       <c r="B128">
-        <v>0.973</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C128">
-        <v>5.917</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2976,13 +2940,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45776.25</v>
+        <v>45786.25</v>
       </c>
       <c r="B129">
-        <v>0.051</v>
+        <v>2.683</v>
       </c>
       <c r="C129">
-        <v>6.899</v>
+        <v>15.72</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2993,223 +2957,19 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45776.26041666666</v>
+        <v>45786.26041666666</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="C130">
-        <v>10.898</v>
+        <v>1.419</v>
       </c>
       <c r="D130">
         <v>26</v>
       </c>
       <c r="E130" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="2">
-        <v>45776.27083333334</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>8.667</v>
-      </c>
-      <c r="D131">
-        <v>27</v>
-      </c>
-      <c r="E131" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2">
-        <v>45776.28125</v>
-      </c>
-      <c r="B132">
-        <v>0.497</v>
-      </c>
-      <c r="C132">
-        <v>12.906</v>
-      </c>
-      <c r="D132">
-        <v>28</v>
-      </c>
-      <c r="E132" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
-        <v>45776.29166666666</v>
-      </c>
-      <c r="B133">
-        <v>16.085</v>
-      </c>
-      <c r="C133">
-        <v>0.525</v>
-      </c>
-      <c r="D133">
-        <v>29</v>
-      </c>
-      <c r="E133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>45776.30208333334</v>
-      </c>
-      <c r="B134">
-        <v>9.872999999999999</v>
-      </c>
-      <c r="C134">
-        <v>0.237</v>
-      </c>
-      <c r="D134">
-        <v>30</v>
-      </c>
-      <c r="E134" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>45776.3125</v>
-      </c>
-      <c r="B135">
-        <v>0.042</v>
-      </c>
-      <c r="C135">
-        <v>2.977</v>
-      </c>
-      <c r="D135">
-        <v>31</v>
-      </c>
-      <c r="E135" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2">
-        <v>45776.32291666666</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="D136">
-        <v>32</v>
-      </c>
-      <c r="E136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2">
-        <v>45776.33333333334</v>
-      </c>
-      <c r="B137">
-        <v>3.854</v>
-      </c>
-      <c r="C137">
-        <v>3.693</v>
-      </c>
-      <c r="D137">
-        <v>33</v>
-      </c>
-      <c r="E137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2">
-        <v>45776.34375</v>
-      </c>
-      <c r="B138">
-        <v>0.105</v>
-      </c>
-      <c r="C138">
-        <v>9.846</v>
-      </c>
-      <c r="D138">
-        <v>34</v>
-      </c>
-      <c r="E138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2">
-        <v>45776.35416666666</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>14.906</v>
-      </c>
-      <c r="D139">
-        <v>35</v>
-      </c>
-      <c r="E139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2">
-        <v>45776.36458333334</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>21.227</v>
-      </c>
-      <c r="D140">
-        <v>36</v>
-      </c>
-      <c r="E140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2">
-        <v>45776.375</v>
-      </c>
-      <c r="B141">
-        <v>5.207</v>
-      </c>
-      <c r="C141">
-        <v>0.276</v>
-      </c>
-      <c r="D141">
-        <v>37</v>
-      </c>
-      <c r="E141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2">
-        <v>45776.38541666666</v>
-      </c>
-      <c r="B142">
-        <v>0.144</v>
-      </c>
-      <c r="C142">
-        <v>10.087</v>
-      </c>
-      <c r="D142">
-        <v>38</v>
-      </c>
-      <c r="E142" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,370 +31,412 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.05.20251</t>
-  </si>
-  <si>
-    <t>08.05.20252</t>
-  </si>
-  <si>
-    <t>08.05.20253</t>
-  </si>
-  <si>
-    <t>08.05.20254</t>
-  </si>
-  <si>
-    <t>08.05.20255</t>
-  </si>
-  <si>
-    <t>08.05.20256</t>
-  </si>
-  <si>
-    <t>08.05.20257</t>
-  </si>
-  <si>
-    <t>08.05.20258</t>
-  </si>
-  <si>
-    <t>08.05.20259</t>
-  </si>
-  <si>
-    <t>08.05.202510</t>
-  </si>
-  <si>
-    <t>08.05.202511</t>
-  </si>
-  <si>
-    <t>08.05.202512</t>
-  </si>
-  <si>
-    <t>08.05.202513</t>
-  </si>
-  <si>
-    <t>08.05.202514</t>
-  </si>
-  <si>
-    <t>08.05.202515</t>
-  </si>
-  <si>
-    <t>08.05.202516</t>
-  </si>
-  <si>
-    <t>08.05.202517</t>
-  </si>
-  <si>
-    <t>08.05.202518</t>
-  </si>
-  <si>
-    <t>08.05.202519</t>
-  </si>
-  <si>
-    <t>08.05.202520</t>
-  </si>
-  <si>
-    <t>08.05.202521</t>
-  </si>
-  <si>
-    <t>08.05.202522</t>
-  </si>
-  <si>
-    <t>08.05.202523</t>
-  </si>
-  <si>
-    <t>08.05.202524</t>
-  </si>
-  <si>
-    <t>08.05.202525</t>
-  </si>
-  <si>
-    <t>08.05.202526</t>
-  </si>
-  <si>
-    <t>08.05.202527</t>
-  </si>
-  <si>
-    <t>08.05.202528</t>
-  </si>
-  <si>
-    <t>08.05.202529</t>
-  </si>
-  <si>
-    <t>08.05.202530</t>
-  </si>
-  <si>
-    <t>08.05.202531</t>
-  </si>
-  <si>
-    <t>08.05.202532</t>
-  </si>
-  <si>
-    <t>08.05.202533</t>
-  </si>
-  <si>
-    <t>08.05.202534</t>
-  </si>
-  <si>
-    <t>08.05.202535</t>
-  </si>
-  <si>
-    <t>08.05.202536</t>
-  </si>
-  <si>
-    <t>08.05.202537</t>
-  </si>
-  <si>
-    <t>08.05.202538</t>
-  </si>
-  <si>
-    <t>08.05.202539</t>
-  </si>
-  <si>
-    <t>08.05.202540</t>
-  </si>
-  <si>
-    <t>08.05.202541</t>
-  </si>
-  <si>
-    <t>08.05.202542</t>
-  </si>
-  <si>
-    <t>08.05.202543</t>
-  </si>
-  <si>
-    <t>08.05.202544</t>
-  </si>
-  <si>
-    <t>08.05.202545</t>
-  </si>
-  <si>
-    <t>08.05.202546</t>
-  </si>
-  <si>
-    <t>08.05.202547</t>
-  </si>
-  <si>
-    <t>08.05.202548</t>
-  </si>
-  <si>
-    <t>08.05.202549</t>
-  </si>
-  <si>
-    <t>08.05.202550</t>
-  </si>
-  <si>
-    <t>08.05.202551</t>
-  </si>
-  <si>
-    <t>08.05.202552</t>
-  </si>
-  <si>
-    <t>08.05.202553</t>
-  </si>
-  <si>
-    <t>08.05.202554</t>
-  </si>
-  <si>
-    <t>08.05.202555</t>
-  </si>
-  <si>
-    <t>08.05.202556</t>
-  </si>
-  <si>
-    <t>08.05.202557</t>
-  </si>
-  <si>
-    <t>08.05.202558</t>
-  </si>
-  <si>
-    <t>08.05.202559</t>
-  </si>
-  <si>
-    <t>08.05.202560</t>
-  </si>
-  <si>
-    <t>08.05.202561</t>
-  </si>
-  <si>
-    <t>08.05.202562</t>
-  </si>
-  <si>
-    <t>08.05.202563</t>
-  </si>
-  <si>
-    <t>08.05.202564</t>
-  </si>
-  <si>
-    <t>08.05.202565</t>
-  </si>
-  <si>
-    <t>08.05.202566</t>
-  </si>
-  <si>
-    <t>08.05.202567</t>
-  </si>
-  <si>
-    <t>08.05.202568</t>
-  </si>
-  <si>
-    <t>08.05.202569</t>
-  </si>
-  <si>
-    <t>08.05.202570</t>
-  </si>
-  <si>
-    <t>08.05.202571</t>
-  </si>
-  <si>
-    <t>08.05.202572</t>
-  </si>
-  <si>
-    <t>08.05.202573</t>
-  </si>
-  <si>
-    <t>08.05.202574</t>
-  </si>
-  <si>
-    <t>08.05.202575</t>
-  </si>
-  <si>
-    <t>08.05.202576</t>
-  </si>
-  <si>
-    <t>08.05.202577</t>
-  </si>
-  <si>
-    <t>08.05.202578</t>
-  </si>
-  <si>
-    <t>08.05.202579</t>
-  </si>
-  <si>
-    <t>08.05.202580</t>
-  </si>
-  <si>
-    <t>08.05.202581</t>
-  </si>
-  <si>
-    <t>08.05.202582</t>
-  </si>
-  <si>
-    <t>08.05.202583</t>
-  </si>
-  <si>
-    <t>08.05.202584</t>
-  </si>
-  <si>
-    <t>08.05.202585</t>
-  </si>
-  <si>
-    <t>08.05.202586</t>
-  </si>
-  <si>
-    <t>08.05.202587</t>
-  </si>
-  <si>
-    <t>08.05.202588</t>
-  </si>
-  <si>
-    <t>08.05.202589</t>
-  </si>
-  <si>
-    <t>08.05.202590</t>
-  </si>
-  <si>
-    <t>08.05.202591</t>
-  </si>
-  <si>
-    <t>08.05.202592</t>
-  </si>
-  <si>
-    <t>08.05.202593</t>
-  </si>
-  <si>
-    <t>08.05.202594</t>
-  </si>
-  <si>
-    <t>08.05.202595</t>
-  </si>
-  <si>
-    <t>08.05.202596</t>
-  </si>
-  <si>
-    <t>09.05.20251</t>
-  </si>
-  <si>
-    <t>09.05.20252</t>
-  </si>
-  <si>
-    <t>09.05.20253</t>
-  </si>
-  <si>
-    <t>09.05.20254</t>
-  </si>
-  <si>
-    <t>09.05.20255</t>
-  </si>
-  <si>
-    <t>09.05.20256</t>
-  </si>
-  <si>
-    <t>09.05.20257</t>
-  </si>
-  <si>
-    <t>09.05.20258</t>
-  </si>
-  <si>
-    <t>09.05.20259</t>
-  </si>
-  <si>
-    <t>09.05.202510</t>
-  </si>
-  <si>
-    <t>09.05.202511</t>
-  </si>
-  <si>
-    <t>09.05.202512</t>
-  </si>
-  <si>
-    <t>09.05.202513</t>
-  </si>
-  <si>
-    <t>09.05.202514</t>
-  </si>
-  <si>
-    <t>09.05.202515</t>
-  </si>
-  <si>
-    <t>09.05.202516</t>
-  </si>
-  <si>
-    <t>09.05.202517</t>
-  </si>
-  <si>
-    <t>09.05.202518</t>
-  </si>
-  <si>
-    <t>09.05.202519</t>
-  </si>
-  <si>
-    <t>09.05.202520</t>
-  </si>
-  <si>
-    <t>09.05.202521</t>
-  </si>
-  <si>
-    <t>09.05.202522</t>
-  </si>
-  <si>
-    <t>09.05.202523</t>
-  </si>
-  <si>
-    <t>09.05.202524</t>
-  </si>
-  <si>
-    <t>09.05.202525</t>
-  </si>
-  <si>
-    <t>09.05.202526</t>
+    <t>19.05.20251</t>
+  </si>
+  <si>
+    <t>19.05.20252</t>
+  </si>
+  <si>
+    <t>19.05.20253</t>
+  </si>
+  <si>
+    <t>19.05.20254</t>
+  </si>
+  <si>
+    <t>19.05.20255</t>
+  </si>
+  <si>
+    <t>19.05.20256</t>
+  </si>
+  <si>
+    <t>19.05.20257</t>
+  </si>
+  <si>
+    <t>19.05.20258</t>
+  </si>
+  <si>
+    <t>19.05.20259</t>
+  </si>
+  <si>
+    <t>19.05.202510</t>
+  </si>
+  <si>
+    <t>19.05.202511</t>
+  </si>
+  <si>
+    <t>19.05.202512</t>
+  </si>
+  <si>
+    <t>19.05.202513</t>
+  </si>
+  <si>
+    <t>19.05.202514</t>
+  </si>
+  <si>
+    <t>19.05.202515</t>
+  </si>
+  <si>
+    <t>19.05.202516</t>
+  </si>
+  <si>
+    <t>19.05.202517</t>
+  </si>
+  <si>
+    <t>19.05.202518</t>
+  </si>
+  <si>
+    <t>19.05.202519</t>
+  </si>
+  <si>
+    <t>19.05.202520</t>
+  </si>
+  <si>
+    <t>19.05.202521</t>
+  </si>
+  <si>
+    <t>19.05.202522</t>
+  </si>
+  <si>
+    <t>19.05.202523</t>
+  </si>
+  <si>
+    <t>19.05.202524</t>
+  </si>
+  <si>
+    <t>19.05.202525</t>
+  </si>
+  <si>
+    <t>19.05.202526</t>
+  </si>
+  <si>
+    <t>19.05.202527</t>
+  </si>
+  <si>
+    <t>19.05.202528</t>
+  </si>
+  <si>
+    <t>19.05.202529</t>
+  </si>
+  <si>
+    <t>19.05.202530</t>
+  </si>
+  <si>
+    <t>19.05.202531</t>
+  </si>
+  <si>
+    <t>19.05.202532</t>
+  </si>
+  <si>
+    <t>19.05.202533</t>
+  </si>
+  <si>
+    <t>19.05.202534</t>
+  </si>
+  <si>
+    <t>19.05.202535</t>
+  </si>
+  <si>
+    <t>19.05.202536</t>
+  </si>
+  <si>
+    <t>19.05.202537</t>
+  </si>
+  <si>
+    <t>19.05.202538</t>
+  </si>
+  <si>
+    <t>19.05.202539</t>
+  </si>
+  <si>
+    <t>19.05.202540</t>
+  </si>
+  <si>
+    <t>19.05.202541</t>
+  </si>
+  <si>
+    <t>19.05.202542</t>
+  </si>
+  <si>
+    <t>19.05.202543</t>
+  </si>
+  <si>
+    <t>19.05.202544</t>
+  </si>
+  <si>
+    <t>19.05.202545</t>
+  </si>
+  <si>
+    <t>19.05.202546</t>
+  </si>
+  <si>
+    <t>19.05.202547</t>
+  </si>
+  <si>
+    <t>19.05.202548</t>
+  </si>
+  <si>
+    <t>19.05.202549</t>
+  </si>
+  <si>
+    <t>19.05.202550</t>
+  </si>
+  <si>
+    <t>19.05.202551</t>
+  </si>
+  <si>
+    <t>19.05.202552</t>
+  </si>
+  <si>
+    <t>19.05.202553</t>
+  </si>
+  <si>
+    <t>19.05.202554</t>
+  </si>
+  <si>
+    <t>19.05.202555</t>
+  </si>
+  <si>
+    <t>19.05.202556</t>
+  </si>
+  <si>
+    <t>19.05.202557</t>
+  </si>
+  <si>
+    <t>19.05.202558</t>
+  </si>
+  <si>
+    <t>19.05.202559</t>
+  </si>
+  <si>
+    <t>19.05.202560</t>
+  </si>
+  <si>
+    <t>19.05.202561</t>
+  </si>
+  <si>
+    <t>19.05.202562</t>
+  </si>
+  <si>
+    <t>19.05.202563</t>
+  </si>
+  <si>
+    <t>19.05.202564</t>
+  </si>
+  <si>
+    <t>19.05.202565</t>
+  </si>
+  <si>
+    <t>19.05.202566</t>
+  </si>
+  <si>
+    <t>19.05.202567</t>
+  </si>
+  <si>
+    <t>19.05.202568</t>
+  </si>
+  <si>
+    <t>19.05.202569</t>
+  </si>
+  <si>
+    <t>19.05.202570</t>
+  </si>
+  <si>
+    <t>19.05.202571</t>
+  </si>
+  <si>
+    <t>19.05.202572</t>
+  </si>
+  <si>
+    <t>19.05.202573</t>
+  </si>
+  <si>
+    <t>19.05.202574</t>
+  </si>
+  <si>
+    <t>19.05.202575</t>
+  </si>
+  <si>
+    <t>19.05.202576</t>
+  </si>
+  <si>
+    <t>19.05.202577</t>
+  </si>
+  <si>
+    <t>19.05.202578</t>
+  </si>
+  <si>
+    <t>19.05.202579</t>
+  </si>
+  <si>
+    <t>19.05.202580</t>
+  </si>
+  <si>
+    <t>19.05.202581</t>
+  </si>
+  <si>
+    <t>19.05.202582</t>
+  </si>
+  <si>
+    <t>19.05.202583</t>
+  </si>
+  <si>
+    <t>19.05.202584</t>
+  </si>
+  <si>
+    <t>19.05.202585</t>
+  </si>
+  <si>
+    <t>19.05.202586</t>
+  </si>
+  <si>
+    <t>19.05.202587</t>
+  </si>
+  <si>
+    <t>19.05.202588</t>
+  </si>
+  <si>
+    <t>19.05.202589</t>
+  </si>
+  <si>
+    <t>19.05.202590</t>
+  </si>
+  <si>
+    <t>19.05.202591</t>
+  </si>
+  <si>
+    <t>19.05.202592</t>
+  </si>
+  <si>
+    <t>19.05.202593</t>
+  </si>
+  <si>
+    <t>19.05.202594</t>
+  </si>
+  <si>
+    <t>19.05.202595</t>
+  </si>
+  <si>
+    <t>19.05.202596</t>
+  </si>
+  <si>
+    <t>20.05.20251</t>
+  </si>
+  <si>
+    <t>20.05.20252</t>
+  </si>
+  <si>
+    <t>20.05.20253</t>
+  </si>
+  <si>
+    <t>20.05.20254</t>
+  </si>
+  <si>
+    <t>20.05.20255</t>
+  </si>
+  <si>
+    <t>20.05.20256</t>
+  </si>
+  <si>
+    <t>20.05.20257</t>
+  </si>
+  <si>
+    <t>20.05.20258</t>
+  </si>
+  <si>
+    <t>20.05.20259</t>
+  </si>
+  <si>
+    <t>20.05.202510</t>
+  </si>
+  <si>
+    <t>20.05.202511</t>
+  </si>
+  <si>
+    <t>20.05.202512</t>
+  </si>
+  <si>
+    <t>20.05.202513</t>
+  </si>
+  <si>
+    <t>20.05.202514</t>
+  </si>
+  <si>
+    <t>20.05.202515</t>
+  </si>
+  <si>
+    <t>20.05.202516</t>
+  </si>
+  <si>
+    <t>20.05.202517</t>
+  </si>
+  <si>
+    <t>20.05.202518</t>
+  </si>
+  <si>
+    <t>20.05.202519</t>
+  </si>
+  <si>
+    <t>20.05.202520</t>
+  </si>
+  <si>
+    <t>20.05.202521</t>
+  </si>
+  <si>
+    <t>20.05.202522</t>
+  </si>
+  <si>
+    <t>20.05.202523</t>
+  </si>
+  <si>
+    <t>20.05.202524</t>
+  </si>
+  <si>
+    <t>20.05.202525</t>
+  </si>
+  <si>
+    <t>20.05.202526</t>
+  </si>
+  <si>
+    <t>20.05.202527</t>
+  </si>
+  <si>
+    <t>20.05.202528</t>
+  </si>
+  <si>
+    <t>20.05.202529</t>
+  </si>
+  <si>
+    <t>20.05.202530</t>
+  </si>
+  <si>
+    <t>20.05.202531</t>
+  </si>
+  <si>
+    <t>20.05.202532</t>
+  </si>
+  <si>
+    <t>20.05.202533</t>
+  </si>
+  <si>
+    <t>20.05.202534</t>
+  </si>
+  <si>
+    <t>20.05.202535</t>
+  </si>
+  <si>
+    <t>20.05.202536</t>
+  </si>
+  <si>
+    <t>20.05.202537</t>
+  </si>
+  <si>
+    <t>20.05.202538</t>
+  </si>
+  <si>
+    <t>20.05.202539</t>
+  </si>
+  <si>
+    <t>20.05.202540</t>
   </si>
 </sst>
 </file>
@@ -756,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,13 +823,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45785</v>
+        <v>45796</v>
       </c>
       <c r="B2">
-        <v>0.039</v>
+        <v>15.057</v>
       </c>
       <c r="C2">
-        <v>4.771</v>
+        <v>0.276</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -798,13 +840,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45785.01041666666</v>
+        <v>45796.01041666666</v>
       </c>
       <c r="B3">
-        <v>2.497</v>
+        <v>1.914</v>
       </c>
       <c r="C3">
-        <v>1.075</v>
+        <v>4.692</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -815,13 +857,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45785.02083333334</v>
+        <v>45796.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.314</v>
+        <v>26.08</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -832,13 +874,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45785.03125</v>
+        <v>45796.03125</v>
       </c>
       <c r="B5">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.364000000000001</v>
+        <v>37.742</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -849,13 +891,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45785.04166666666</v>
+        <v>45796.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.001</v>
+        <v>0.051</v>
       </c>
       <c r="C6">
-        <v>12.336</v>
+        <v>7.906</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -866,13 +908,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45785.05208333334</v>
+        <v>45796.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>6.013</v>
+        <v>23.54</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -883,13 +925,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45785.0625</v>
+        <v>45796.0625</v>
       </c>
       <c r="B8">
-        <v>1.574</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5.806</v>
+        <v>21.727</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -900,13 +942,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45785.07291666666</v>
+        <v>45796.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5.779</v>
+        <v>32.758</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -917,13 +959,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45785.08333333334</v>
+        <v>45796.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>18.561</v>
+        <v>58.026</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -934,13 +976,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45785.09375</v>
+        <v>45796.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.919</v>
+        <v>11.012</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -951,13 +993,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45785.10416666666</v>
+        <v>45796.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.219</v>
+        <v>10.716</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -968,13 +1010,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45785.11458333334</v>
+        <v>45796.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>3.103</v>
+        <v>7.073</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -985,13 +1027,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45785.125</v>
+        <v>45796.125</v>
       </c>
       <c r="B14">
-        <v>0.091</v>
+        <v>0.949</v>
       </c>
       <c r="C14">
-        <v>8.699</v>
+        <v>2.627</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1002,13 +1044,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45785.13541666666</v>
+        <v>45796.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.38</v>
+        <v>9.125</v>
       </c>
       <c r="C15">
-        <v>3.881</v>
+        <v>0.551</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1019,13 +1061,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45785.14583333334</v>
+        <v>45796.14583333334</v>
       </c>
       <c r="B16">
-        <v>0.036</v>
+        <v>8.428000000000001</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1036,13 +1078,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45785.15625</v>
+        <v>45796.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4.924</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1053,13 +1095,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45785.16666666666</v>
+        <v>45796.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.165</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.305</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1070,13 +1112,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45785.17708333334</v>
+        <v>45796.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2.802</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1087,13 +1129,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45785.1875</v>
+        <v>45796.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="C20">
-        <v>2.922</v>
+        <v>4.84</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1104,13 +1146,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45785.19791666666</v>
+        <v>45796.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.422</v>
+        <v>0.278</v>
       </c>
       <c r="C21">
-        <v>3.446</v>
+        <v>5.854</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1121,13 +1163,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45785.20833333334</v>
+        <v>45796.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>33.112</v>
+        <v>20.061</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1138,13 +1180,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45785.21875</v>
+        <v>45796.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>27.194</v>
+        <v>19.135</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1155,13 +1197,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45785.22916666666</v>
+        <v>45796.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>17.999</v>
+        <v>22.16</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1172,13 +1214,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45785.23958333334</v>
+        <v>45796.23958333334</v>
       </c>
       <c r="B25">
-        <v>6.083</v>
+        <v>0.074</v>
       </c>
       <c r="C25">
-        <v>0.656</v>
+        <v>9.818</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1189,13 +1231,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45785.25</v>
+        <v>45796.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>26.867</v>
+        <v>28.494</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1206,13 +1248,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45785.26041666666</v>
+        <v>45796.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>20.346</v>
+        <v>40.512</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1223,13 +1265,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45785.27083333334</v>
+        <v>45796.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.523</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>8.242000000000001</v>
+        <v>24.632</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1240,13 +1282,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45785.28125</v>
+        <v>45796.28125</v>
       </c>
       <c r="B29">
-        <v>9.753</v>
+        <v>2.034</v>
       </c>
       <c r="C29">
-        <v>0.19</v>
+        <v>5.272</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1257,13 +1299,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45785.29166666666</v>
+        <v>45796.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.161</v>
+        <v>1.237</v>
       </c>
       <c r="C30">
-        <v>14.177</v>
+        <v>6.867</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1274,13 +1316,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45785.30208333334</v>
+        <v>45796.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.001</v>
+        <v>3.646</v>
       </c>
       <c r="C31">
-        <v>27.289</v>
+        <v>0.32</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1291,13 +1333,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45785.3125</v>
+        <v>45796.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3.547</v>
       </c>
       <c r="C32">
-        <v>31.567</v>
+        <v>2.614</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1308,13 +1350,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45785.32291666666</v>
+        <v>45796.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="C33">
-        <v>37.722</v>
+        <v>5.536</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1325,13 +1367,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45785.33333333334</v>
+        <v>45796.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>37.948</v>
+        <v>19.585</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1342,13 +1384,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45785.34375</v>
+        <v>45796.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.159</v>
       </c>
       <c r="C35">
-        <v>26.473</v>
+        <v>3.187</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1359,13 +1401,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45785.35416666666</v>
+        <v>45796.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>17.327</v>
+        <v>21.471</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1376,13 +1418,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45785.36458333334</v>
+        <v>45796.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="C37">
-        <v>3.042</v>
+        <v>5.793</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1393,13 +1435,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45785.375</v>
+        <v>45796.375</v>
       </c>
       <c r="B38">
-        <v>1.74</v>
+        <v>34.094</v>
       </c>
       <c r="C38">
-        <v>1.209</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1410,13 +1452,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45785.38541666666</v>
+        <v>45796.38541666666</v>
       </c>
       <c r="B39">
-        <v>1.371</v>
+        <v>46.18</v>
       </c>
       <c r="C39">
-        <v>2.193</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1427,13 +1469,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45785.39583333334</v>
+        <v>45796.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>45.716</v>
       </c>
       <c r="C40">
-        <v>5.364</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1444,13 +1486,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45785.40625</v>
+        <v>45796.40625</v>
       </c>
       <c r="B41">
-        <v>0.235</v>
+        <v>43.898</v>
       </c>
       <c r="C41">
-        <v>6.423</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1461,13 +1503,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45785.41666666666</v>
+        <v>45796.41666666666</v>
       </c>
       <c r="B42">
-        <v>17.858</v>
+        <v>110.681</v>
       </c>
       <c r="C42">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1478,13 +1520,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45785.42708333334</v>
+        <v>45796.42708333334</v>
       </c>
       <c r="B43">
-        <v>2.911</v>
+        <v>33.564</v>
       </c>
       <c r="C43">
-        <v>1.783</v>
+        <v>0.025</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1495,13 +1537,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45785.4375</v>
+        <v>45796.4375</v>
       </c>
       <c r="B44">
-        <v>17.911</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.019</v>
+        <v>6.858</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1512,13 +1554,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45785.44791666666</v>
+        <v>45796.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>2.239</v>
+        <v>2.75</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1529,13 +1571,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45785.45833333334</v>
+        <v>45796.45833333334</v>
       </c>
       <c r="B46">
-        <v>1.615</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>3.828</v>
+        <v>44.742</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1546,13 +1588,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45785.46875</v>
+        <v>45796.46875</v>
       </c>
       <c r="B47">
-        <v>1.777</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>4.287</v>
+        <v>47.573</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1563,13 +1605,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45785.47916666666</v>
+        <v>45796.47916666666</v>
       </c>
       <c r="B48">
-        <v>8.659000000000001</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.341</v>
+        <v>96.407</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1580,13 +1622,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45785.48958333334</v>
+        <v>45796.48958333334</v>
       </c>
       <c r="B49">
-        <v>8.416</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.044</v>
+        <v>73.2</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1597,13 +1639,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45785.5</v>
+        <v>45796.5</v>
       </c>
       <c r="B50">
-        <v>1.266</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3.443</v>
+        <v>16.267</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1614,13 +1656,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45785.51041666666</v>
+        <v>45796.51041666666</v>
       </c>
       <c r="B51">
-        <v>1.472</v>
+        <v>0.004</v>
       </c>
       <c r="C51">
-        <v>1.361</v>
+        <v>22.953</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1631,13 +1673,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45785.52083333334</v>
+        <v>45796.52083333334</v>
       </c>
       <c r="B52">
-        <v>12.507</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>81.163</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1648,13 +1690,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45785.53125</v>
+        <v>45796.53125</v>
       </c>
       <c r="B53">
-        <v>5.217</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.106</v>
+        <v>49.812</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1665,13 +1707,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45785.54166666666</v>
+        <v>45796.54166666666</v>
       </c>
       <c r="B54">
-        <v>10.348</v>
+        <v>1.701</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>11.666</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1682,13 +1724,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45785.55208333334</v>
+        <v>45796.55208333334</v>
       </c>
       <c r="B55">
-        <v>7.908</v>
+        <v>2.128</v>
       </c>
       <c r="C55">
-        <v>0.827</v>
+        <v>8.178000000000001</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1699,13 +1741,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45785.5625</v>
+        <v>45796.5625</v>
       </c>
       <c r="B56">
-        <v>0.767</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C56">
-        <v>1.694</v>
+        <v>9.02</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1716,13 +1758,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45785.57291666666</v>
+        <v>45796.57291666666</v>
       </c>
       <c r="B57">
-        <v>1.721</v>
+        <v>2.314</v>
       </c>
       <c r="C57">
-        <v>1.463</v>
+        <v>11.265</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1733,13 +1775,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45785.58333333334</v>
+        <v>45796.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>29.188</v>
+        <v>54.926</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1750,13 +1792,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45785.59375</v>
+        <v>45796.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.229</v>
       </c>
       <c r="C59">
-        <v>54.314</v>
+        <v>15.29</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1767,13 +1809,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45785.60416666666</v>
+        <v>45796.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.765</v>
       </c>
       <c r="C60">
-        <v>74.446</v>
+        <v>17.046</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1784,13 +1826,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45785.61458333334</v>
+        <v>45796.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>25.325</v>
       </c>
       <c r="C61">
-        <v>94.032</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1801,13 +1843,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45785.625</v>
+        <v>45796.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>36.236</v>
       </c>
       <c r="C62">
-        <v>42.547</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1818,13 +1860,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45785.63541666666</v>
+        <v>45796.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.483</v>
+        <v>1.258</v>
       </c>
       <c r="C63">
-        <v>22.872</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1835,13 +1877,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45785.64583333334</v>
+        <v>45796.64583333334</v>
       </c>
       <c r="B64">
-        <v>4.971</v>
+        <v>10.141</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.337</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1852,10 +1894,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45785.65625</v>
+        <v>45796.65625</v>
       </c>
       <c r="B65">
-        <v>10.572</v>
+        <v>43.572</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1869,13 +1911,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45785.66666666666</v>
+        <v>45796.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.478</v>
+        <v>0.527</v>
       </c>
       <c r="C66">
-        <v>15.896</v>
+        <v>7.685</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1886,13 +1928,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45785.67708333334</v>
+        <v>45796.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.068</v>
+        <v>12.254</v>
       </c>
       <c r="C67">
-        <v>25.207</v>
+        <v>0.391</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1903,10 +1945,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45785.6875</v>
+        <v>45796.6875</v>
       </c>
       <c r="B68">
-        <v>6.455</v>
+        <v>16.368</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1920,13 +1962,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45785.69791666666</v>
+        <v>45796.69791666666</v>
       </c>
       <c r="B69">
-        <v>2.907</v>
+        <v>8.294</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2.773</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1937,13 +1979,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45785.70833333334</v>
+        <v>45796.70833333334</v>
       </c>
       <c r="B70">
-        <v>2.102</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>2.312</v>
+        <v>27.878</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1954,13 +1996,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45785.71875</v>
+        <v>45796.71875</v>
       </c>
       <c r="B71">
-        <v>2.274</v>
+        <v>0.311</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>12.095</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1971,13 +2013,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45785.72916666666</v>
+        <v>45796.72916666666</v>
       </c>
       <c r="B72">
-        <v>1.249</v>
+        <v>11.468</v>
       </c>
       <c r="C72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1988,13 +2030,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45785.73958333334</v>
+        <v>45796.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.303</v>
+        <v>4.798</v>
       </c>
       <c r="C73">
-        <v>2.217</v>
+        <v>3.923</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2005,13 +2047,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45785.75</v>
+        <v>45796.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>24.954</v>
+        <v>37.569</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2022,13 +2064,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45785.76041666666</v>
+        <v>45796.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>16.993</v>
+        <v>19.498</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2039,13 +2081,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45785.77083333334</v>
+        <v>45796.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.006</v>
+        <v>3.288</v>
       </c>
       <c r="C76">
-        <v>21.148</v>
+        <v>5.638</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2056,13 +2098,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45785.78125</v>
+        <v>45796.78125</v>
       </c>
       <c r="B77">
-        <v>5.185</v>
+        <v>9.106</v>
       </c>
       <c r="C77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2073,13 +2115,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45785.79166666666</v>
+        <v>45796.79166666666</v>
       </c>
       <c r="B78">
-        <v>15.019</v>
+        <v>74.7</v>
       </c>
       <c r="C78">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2090,10 +2132,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45785.80208333334</v>
+        <v>45796.80208333334</v>
       </c>
       <c r="B79">
-        <v>37.529</v>
+        <v>30.871</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2107,13 +2149,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45785.8125</v>
+        <v>45796.8125</v>
       </c>
       <c r="B80">
-        <v>9.026</v>
+        <v>29.477</v>
       </c>
       <c r="C80">
-        <v>3.901</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2124,13 +2166,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45785.82291666666</v>
+        <v>45796.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>2.405</v>
       </c>
       <c r="C81">
-        <v>21.737</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2141,13 +2183,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45785.83333333334</v>
+        <v>45796.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>23.199</v>
       </c>
       <c r="C82">
-        <v>19.702</v>
+        <v>3.803</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2158,13 +2200,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45785.84375</v>
+        <v>45796.84375</v>
       </c>
       <c r="B83">
-        <v>0.232</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>6.81</v>
+        <v>25.816</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2175,13 +2217,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45785.85416666666</v>
+        <v>45796.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>22.202</v>
+        <v>32.963</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2192,13 +2234,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45785.86458333334</v>
+        <v>45796.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>40.883</v>
+        <v>43.689</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2209,13 +2251,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45785.875</v>
+        <v>45796.875</v>
       </c>
       <c r="B86">
-        <v>0.198</v>
+        <v>1.068</v>
       </c>
       <c r="C86">
-        <v>5.042</v>
+        <v>7.533</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2226,13 +2268,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45785.88541666666</v>
+        <v>45796.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.024</v>
+        <v>1.071</v>
       </c>
       <c r="C87">
-        <v>13.405</v>
+        <v>11.742</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2243,13 +2285,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45785.89583333334</v>
+        <v>45796.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.131</v>
+        <v>21.254</v>
       </c>
       <c r="C88">
-        <v>4.388</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2260,13 +2302,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45785.90625</v>
+        <v>45796.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9.561</v>
       </c>
       <c r="C89">
-        <v>10.698</v>
+        <v>0.057</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2277,13 +2319,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45785.91666666666</v>
+        <v>45796.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.444</v>
+        <v>20.488</v>
       </c>
       <c r="C90">
-        <v>1.863</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2294,13 +2336,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45785.92708333334</v>
+        <v>45796.92708333334</v>
       </c>
       <c r="B91">
-        <v>8.404</v>
+        <v>5.76</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.748</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2311,13 +2353,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45785.9375</v>
+        <v>45796.9375</v>
       </c>
       <c r="B92">
-        <v>14.313</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5.011</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2328,13 +2370,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45785.94791666666</v>
+        <v>45796.94791666666</v>
       </c>
       <c r="B93">
-        <v>13.485</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.104</v>
+        <v>16.273</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2345,13 +2387,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45785.95833333334</v>
+        <v>45796.95833333334</v>
       </c>
       <c r="B94">
-        <v>3.254</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>27.051</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2362,13 +2404,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B95">
-        <v>0.106</v>
+        <v>0.062</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>7.495</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2379,13 +2421,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45785.96875</v>
+        <v>45796.96875</v>
       </c>
       <c r="B96">
-        <v>0.106</v>
+        <v>0.062</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>7.495</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2396,13 +2438,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B97">
-        <v>11.773</v>
+        <v>1.432</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2413,13 +2455,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45785.97916666666</v>
+        <v>45796.97916666666</v>
       </c>
       <c r="B98">
-        <v>11.773</v>
+        <v>1.432</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2430,13 +2472,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B99">
-        <v>1.345</v>
+        <v>5.643</v>
       </c>
       <c r="C99">
-        <v>11.295</v>
+        <v>0.245</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2447,13 +2489,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45785.98958333334</v>
+        <v>45796.98958333334</v>
       </c>
       <c r="B100">
-        <v>1.345</v>
+        <v>5.643</v>
       </c>
       <c r="C100">
-        <v>11.295</v>
+        <v>0.245</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2464,13 +2506,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B101">
-        <v>4.479</v>
+        <v>2.589</v>
       </c>
       <c r="C101">
-        <v>1.174</v>
+        <v>3.991</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2481,13 +2523,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45786</v>
+        <v>45797</v>
       </c>
       <c r="B102">
-        <v>4.479</v>
+        <v>2.589</v>
       </c>
       <c r="C102">
-        <v>1.174</v>
+        <v>3.991</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2498,10 +2540,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B103">
-        <v>12.146</v>
+        <v>18.711</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2515,10 +2557,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45786.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B104">
-        <v>12.146</v>
+        <v>18.711</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2532,13 +2574,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B105">
-        <v>3.927</v>
+        <v>11.542</v>
       </c>
       <c r="C105">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2549,13 +2591,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45786.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B106">
-        <v>3.927</v>
+        <v>11.542</v>
       </c>
       <c r="C106">
-        <v>0.216</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2566,13 +2608,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B107">
-        <v>0.438</v>
+        <v>1.028</v>
       </c>
       <c r="C107">
-        <v>16.108</v>
+        <v>20.797</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2583,13 +2625,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45786.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B108">
-        <v>0.438</v>
+        <v>1.028</v>
       </c>
       <c r="C108">
-        <v>16.108</v>
+        <v>20.797</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2600,13 +2642,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45786.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>70.155</v>
+        <v>48.028</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2617,13 +2659,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45786.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>62.613</v>
+        <v>34.269</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2634,13 +2676,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45786.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>35.32</v>
+        <v>45.574</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2651,13 +2693,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45786.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="C112">
-        <v>19.555</v>
+        <v>18.034</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2668,13 +2710,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45786.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B113">
-        <v>0.259</v>
+        <v>0.429</v>
       </c>
       <c r="C113">
-        <v>16.731</v>
+        <v>4.807</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2685,13 +2727,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45786.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B114">
-        <v>27.505</v>
+        <v>4.871</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>3.653</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2702,13 +2744,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45786.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B115">
-        <v>16.479</v>
+        <v>8.83</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1.166</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2719,13 +2761,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45786.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B116">
-        <v>6.513</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0.735</v>
+        <v>18.034</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2736,13 +2778,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45786.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="C117">
-        <v>8.257999999999999</v>
+        <v>19.505</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2753,13 +2795,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45786.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.821</v>
       </c>
       <c r="C118">
-        <v>18.763</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2770,13 +2812,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45786.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>8.507</v>
       </c>
       <c r="C119">
-        <v>19.018</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2787,13 +2829,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45786.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>14.788</v>
       </c>
       <c r="C120">
-        <v>20.37</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2804,13 +2846,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45786.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>26.351</v>
       </c>
       <c r="C121">
-        <v>16.178</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2821,13 +2863,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45786.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>2.519</v>
       </c>
       <c r="C122">
-        <v>22.429</v>
+        <v>3.586</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2838,13 +2880,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45786.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="C123">
-        <v>28.596</v>
+        <v>3.036</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2855,13 +2897,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45786.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="C124">
-        <v>44.248</v>
+        <v>7.374</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2872,13 +2914,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45786.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B125">
-        <v>0.538</v>
+        <v>1.005</v>
       </c>
       <c r="C125">
-        <v>11.246</v>
+        <v>11.425</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2889,13 +2931,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45786.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>8.589</v>
       </c>
       <c r="C126">
-        <v>21.588</v>
+        <v>0.19</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2906,13 +2948,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45786.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B127">
-        <v>0.243</v>
+        <v>26.403</v>
       </c>
       <c r="C127">
-        <v>10.626</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2923,10 +2965,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45786.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B128">
-        <v>8.673999999999999</v>
+        <v>49.013</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2940,13 +2982,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45786.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B129">
-        <v>2.683</v>
+        <v>58.032</v>
       </c>
       <c r="C129">
-        <v>15.72</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2957,19 +2999,257 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45786.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B130">
-        <v>0.611</v>
+        <v>6.559</v>
       </c>
       <c r="C130">
-        <v>1.419</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>26</v>
       </c>
       <c r="E130" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45797.27083333334</v>
+      </c>
+      <c r="B131">
+        <v>6.819</v>
+      </c>
+      <c r="C131">
+        <v>1.213</v>
+      </c>
+      <c r="D131">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45797.28125</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>16.078</v>
+      </c>
+      <c r="D132">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45797.29166666666</v>
+      </c>
+      <c r="B133">
+        <v>4.279</v>
+      </c>
+      <c r="C133">
+        <v>2.9</v>
+      </c>
+      <c r="D133">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45797.30208333334</v>
+      </c>
+      <c r="B134">
+        <v>9.332000000000001</v>
+      </c>
+      <c r="C134">
+        <v>0.017</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45797.3125</v>
+      </c>
+      <c r="B135">
+        <v>0.077</v>
+      </c>
+      <c r="C135">
+        <v>18.348</v>
+      </c>
+      <c r="D135">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45797.32291666666</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>72.069</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45797.33333333334</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>62.473</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45797.34375</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>123.154</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45797.35416666666</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>146.333</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45797.36458333334</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>154.533</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45797.375</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>28.555</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45797.38541666666</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>31.72</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45797.39583333334</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>39.258</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45797.40625</v>
+      </c>
+      <c r="B144">
+        <v>0.611</v>
+      </c>
+      <c r="C144">
+        <v>8.821</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="240">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.05.20251</t>
-  </si>
-  <si>
-    <t>19.05.20252</t>
-  </si>
-  <si>
-    <t>19.05.20253</t>
-  </si>
-  <si>
-    <t>19.05.20254</t>
-  </si>
-  <si>
-    <t>19.05.20255</t>
-  </si>
-  <si>
-    <t>19.05.20256</t>
-  </si>
-  <si>
-    <t>19.05.20257</t>
-  </si>
-  <si>
-    <t>19.05.20258</t>
-  </si>
-  <si>
-    <t>19.05.20259</t>
-  </si>
-  <si>
-    <t>19.05.202510</t>
-  </si>
-  <si>
-    <t>19.05.202511</t>
-  </si>
-  <si>
-    <t>19.05.202512</t>
-  </si>
-  <si>
-    <t>19.05.202513</t>
-  </si>
-  <si>
-    <t>19.05.202514</t>
-  </si>
-  <si>
-    <t>19.05.202515</t>
-  </si>
-  <si>
-    <t>19.05.202516</t>
-  </si>
-  <si>
-    <t>19.05.202517</t>
-  </si>
-  <si>
-    <t>19.05.202518</t>
-  </si>
-  <si>
-    <t>19.05.202519</t>
-  </si>
-  <si>
-    <t>19.05.202520</t>
-  </si>
-  <si>
-    <t>19.05.202521</t>
-  </si>
-  <si>
-    <t>19.05.202522</t>
-  </si>
-  <si>
-    <t>19.05.202523</t>
-  </si>
-  <si>
-    <t>19.05.202524</t>
-  </si>
-  <si>
-    <t>19.05.202525</t>
-  </si>
-  <si>
-    <t>19.05.202526</t>
-  </si>
-  <si>
-    <t>19.05.202527</t>
-  </si>
-  <si>
-    <t>19.05.202528</t>
-  </si>
-  <si>
-    <t>19.05.202529</t>
-  </si>
-  <si>
-    <t>19.05.202530</t>
-  </si>
-  <si>
-    <t>19.05.202531</t>
-  </si>
-  <si>
-    <t>19.05.202532</t>
-  </si>
-  <si>
-    <t>19.05.202533</t>
-  </si>
-  <si>
-    <t>19.05.202534</t>
-  </si>
-  <si>
-    <t>19.05.202535</t>
-  </si>
-  <si>
-    <t>19.05.202536</t>
-  </si>
-  <si>
-    <t>19.05.202537</t>
-  </si>
-  <si>
-    <t>19.05.202538</t>
-  </si>
-  <si>
-    <t>19.05.202539</t>
-  </si>
-  <si>
-    <t>19.05.202540</t>
-  </si>
-  <si>
-    <t>19.05.202541</t>
-  </si>
-  <si>
-    <t>19.05.202542</t>
-  </si>
-  <si>
-    <t>19.05.202543</t>
-  </si>
-  <si>
-    <t>19.05.202544</t>
-  </si>
-  <si>
-    <t>19.05.202545</t>
-  </si>
-  <si>
-    <t>19.05.202546</t>
-  </si>
-  <si>
-    <t>19.05.202547</t>
-  </si>
-  <si>
-    <t>19.05.202548</t>
-  </si>
-  <si>
-    <t>19.05.202549</t>
-  </si>
-  <si>
-    <t>19.05.202550</t>
-  </si>
-  <si>
-    <t>19.05.202551</t>
-  </si>
-  <si>
-    <t>19.05.202552</t>
-  </si>
-  <si>
-    <t>19.05.202553</t>
-  </si>
-  <si>
-    <t>19.05.202554</t>
-  </si>
-  <si>
-    <t>19.05.202555</t>
-  </si>
-  <si>
-    <t>19.05.202556</t>
-  </si>
-  <si>
-    <t>19.05.202557</t>
-  </si>
-  <si>
-    <t>19.05.202558</t>
-  </si>
-  <si>
-    <t>19.05.202559</t>
-  </si>
-  <si>
-    <t>19.05.202560</t>
-  </si>
-  <si>
-    <t>19.05.202561</t>
-  </si>
-  <si>
-    <t>19.05.202562</t>
-  </si>
-  <si>
-    <t>19.05.202563</t>
-  </si>
-  <si>
-    <t>19.05.202564</t>
-  </si>
-  <si>
-    <t>19.05.202565</t>
-  </si>
-  <si>
-    <t>19.05.202566</t>
-  </si>
-  <si>
-    <t>19.05.202567</t>
-  </si>
-  <si>
-    <t>19.05.202568</t>
-  </si>
-  <si>
-    <t>19.05.202569</t>
-  </si>
-  <si>
-    <t>19.05.202570</t>
-  </si>
-  <si>
-    <t>19.05.202571</t>
-  </si>
-  <si>
-    <t>19.05.202572</t>
-  </si>
-  <si>
-    <t>19.05.202573</t>
-  </si>
-  <si>
-    <t>19.05.202574</t>
-  </si>
-  <si>
-    <t>19.05.202575</t>
-  </si>
-  <si>
-    <t>19.05.202576</t>
-  </si>
-  <si>
-    <t>19.05.202577</t>
-  </si>
-  <si>
-    <t>19.05.202578</t>
-  </si>
-  <si>
-    <t>19.05.202579</t>
-  </si>
-  <si>
-    <t>19.05.202580</t>
-  </si>
-  <si>
-    <t>19.05.202581</t>
-  </si>
-  <si>
-    <t>19.05.202582</t>
-  </si>
-  <si>
-    <t>19.05.202583</t>
-  </si>
-  <si>
-    <t>19.05.202584</t>
-  </si>
-  <si>
-    <t>19.05.202585</t>
-  </si>
-  <si>
-    <t>19.05.202586</t>
-  </si>
-  <si>
-    <t>19.05.202587</t>
-  </si>
-  <si>
-    <t>19.05.202588</t>
-  </si>
-  <si>
-    <t>19.05.202589</t>
-  </si>
-  <si>
-    <t>19.05.202590</t>
-  </si>
-  <si>
-    <t>19.05.202591</t>
-  </si>
-  <si>
-    <t>19.05.202592</t>
-  </si>
-  <si>
-    <t>19.05.202593</t>
-  </si>
-  <si>
-    <t>19.05.202594</t>
-  </si>
-  <si>
-    <t>19.05.202595</t>
-  </si>
-  <si>
-    <t>19.05.202596</t>
-  </si>
-  <si>
     <t>20.05.20251</t>
   </si>
   <si>
@@ -437,6 +149,591 @@
   </si>
   <si>
     <t>20.05.202540</t>
+  </si>
+  <si>
+    <t>20.05.202541</t>
+  </si>
+  <si>
+    <t>20.05.202542</t>
+  </si>
+  <si>
+    <t>20.05.202543</t>
+  </si>
+  <si>
+    <t>20.05.202544</t>
+  </si>
+  <si>
+    <t>20.05.202545</t>
+  </si>
+  <si>
+    <t>20.05.202546</t>
+  </si>
+  <si>
+    <t>20.05.202547</t>
+  </si>
+  <si>
+    <t>20.05.202548</t>
+  </si>
+  <si>
+    <t>20.05.202549</t>
+  </si>
+  <si>
+    <t>20.05.202550</t>
+  </si>
+  <si>
+    <t>20.05.202551</t>
+  </si>
+  <si>
+    <t>20.05.202552</t>
+  </si>
+  <si>
+    <t>20.05.202553</t>
+  </si>
+  <si>
+    <t>20.05.202554</t>
+  </si>
+  <si>
+    <t>20.05.202555</t>
+  </si>
+  <si>
+    <t>20.05.202556</t>
+  </si>
+  <si>
+    <t>20.05.202557</t>
+  </si>
+  <si>
+    <t>20.05.202558</t>
+  </si>
+  <si>
+    <t>20.05.202559</t>
+  </si>
+  <si>
+    <t>20.05.202560</t>
+  </si>
+  <si>
+    <t>20.05.202561</t>
+  </si>
+  <si>
+    <t>20.05.202562</t>
+  </si>
+  <si>
+    <t>20.05.202563</t>
+  </si>
+  <si>
+    <t>20.05.202564</t>
+  </si>
+  <si>
+    <t>20.05.202565</t>
+  </si>
+  <si>
+    <t>20.05.202566</t>
+  </si>
+  <si>
+    <t>20.05.202567</t>
+  </si>
+  <si>
+    <t>20.05.202568</t>
+  </si>
+  <si>
+    <t>20.05.202569</t>
+  </si>
+  <si>
+    <t>20.05.202570</t>
+  </si>
+  <si>
+    <t>20.05.202571</t>
+  </si>
+  <si>
+    <t>20.05.202572</t>
+  </si>
+  <si>
+    <t>20.05.202573</t>
+  </si>
+  <si>
+    <t>20.05.202574</t>
+  </si>
+  <si>
+    <t>20.05.202575</t>
+  </si>
+  <si>
+    <t>20.05.202576</t>
+  </si>
+  <si>
+    <t>20.05.202577</t>
+  </si>
+  <si>
+    <t>20.05.202578</t>
+  </si>
+  <si>
+    <t>20.05.202579</t>
+  </si>
+  <si>
+    <t>20.05.202580</t>
+  </si>
+  <si>
+    <t>20.05.202581</t>
+  </si>
+  <si>
+    <t>20.05.202582</t>
+  </si>
+  <si>
+    <t>20.05.202583</t>
+  </si>
+  <si>
+    <t>20.05.202584</t>
+  </si>
+  <si>
+    <t>20.05.202585</t>
+  </si>
+  <si>
+    <t>20.05.202586</t>
+  </si>
+  <si>
+    <t>20.05.202587</t>
+  </si>
+  <si>
+    <t>20.05.202588</t>
+  </si>
+  <si>
+    <t>20.05.202589</t>
+  </si>
+  <si>
+    <t>20.05.202590</t>
+  </si>
+  <si>
+    <t>20.05.202591</t>
+  </si>
+  <si>
+    <t>20.05.202592</t>
+  </si>
+  <si>
+    <t>20.05.202593</t>
+  </si>
+  <si>
+    <t>20.05.202594</t>
+  </si>
+  <si>
+    <t>20.05.202595</t>
+  </si>
+  <si>
+    <t>20.05.202596</t>
+  </si>
+  <si>
+    <t>21.05.20251</t>
+  </si>
+  <si>
+    <t>21.05.20252</t>
+  </si>
+  <si>
+    <t>21.05.20253</t>
+  </si>
+  <si>
+    <t>21.05.20254</t>
+  </si>
+  <si>
+    <t>21.05.20255</t>
+  </si>
+  <si>
+    <t>21.05.20256</t>
+  </si>
+  <si>
+    <t>21.05.20257</t>
+  </si>
+  <si>
+    <t>21.05.20258</t>
+  </si>
+  <si>
+    <t>21.05.20259</t>
+  </si>
+  <si>
+    <t>21.05.202510</t>
+  </si>
+  <si>
+    <t>21.05.202511</t>
+  </si>
+  <si>
+    <t>21.05.202512</t>
+  </si>
+  <si>
+    <t>21.05.202513</t>
+  </si>
+  <si>
+    <t>21.05.202514</t>
+  </si>
+  <si>
+    <t>21.05.202515</t>
+  </si>
+  <si>
+    <t>21.05.202516</t>
+  </si>
+  <si>
+    <t>21.05.202517</t>
+  </si>
+  <si>
+    <t>21.05.202518</t>
+  </si>
+  <si>
+    <t>21.05.202519</t>
+  </si>
+  <si>
+    <t>21.05.202520</t>
+  </si>
+  <si>
+    <t>21.05.202521</t>
+  </si>
+  <si>
+    <t>21.05.202522</t>
+  </si>
+  <si>
+    <t>21.05.202523</t>
+  </si>
+  <si>
+    <t>21.05.202524</t>
+  </si>
+  <si>
+    <t>21.05.202525</t>
+  </si>
+  <si>
+    <t>21.05.202526</t>
+  </si>
+  <si>
+    <t>21.05.202527</t>
+  </si>
+  <si>
+    <t>21.05.202528</t>
+  </si>
+  <si>
+    <t>21.05.202529</t>
+  </si>
+  <si>
+    <t>21.05.202530</t>
+  </si>
+  <si>
+    <t>21.05.202531</t>
+  </si>
+  <si>
+    <t>21.05.202532</t>
+  </si>
+  <si>
+    <t>21.05.202533</t>
+  </si>
+  <si>
+    <t>21.05.202534</t>
+  </si>
+  <si>
+    <t>21.05.202535</t>
+  </si>
+  <si>
+    <t>21.05.202536</t>
+  </si>
+  <si>
+    <t>21.05.202537</t>
+  </si>
+  <si>
+    <t>21.05.202538</t>
+  </si>
+  <si>
+    <t>21.05.202539</t>
+  </si>
+  <si>
+    <t>21.05.202540</t>
+  </si>
+  <si>
+    <t>21.05.202541</t>
+  </si>
+  <si>
+    <t>21.05.202542</t>
+  </si>
+  <si>
+    <t>21.05.202543</t>
+  </si>
+  <si>
+    <t>21.05.202544</t>
+  </si>
+  <si>
+    <t>21.05.202545</t>
+  </si>
+  <si>
+    <t>21.05.202546</t>
+  </si>
+  <si>
+    <t>21.05.202547</t>
+  </si>
+  <si>
+    <t>21.05.202548</t>
+  </si>
+  <si>
+    <t>21.05.202549</t>
+  </si>
+  <si>
+    <t>21.05.202550</t>
+  </si>
+  <si>
+    <t>21.05.202551</t>
+  </si>
+  <si>
+    <t>21.05.202552</t>
+  </si>
+  <si>
+    <t>21.05.202553</t>
+  </si>
+  <si>
+    <t>21.05.202554</t>
+  </si>
+  <si>
+    <t>21.05.202555</t>
+  </si>
+  <si>
+    <t>21.05.202556</t>
+  </si>
+  <si>
+    <t>21.05.202557</t>
+  </si>
+  <si>
+    <t>21.05.202558</t>
+  </si>
+  <si>
+    <t>21.05.202559</t>
+  </si>
+  <si>
+    <t>21.05.202560</t>
+  </si>
+  <si>
+    <t>21.05.202561</t>
+  </si>
+  <si>
+    <t>21.05.202562</t>
+  </si>
+  <si>
+    <t>21.05.202563</t>
+  </si>
+  <si>
+    <t>21.05.202564</t>
+  </si>
+  <si>
+    <t>21.05.202565</t>
+  </si>
+  <si>
+    <t>21.05.202566</t>
+  </si>
+  <si>
+    <t>21.05.202567</t>
+  </si>
+  <si>
+    <t>21.05.202568</t>
+  </si>
+  <si>
+    <t>21.05.202569</t>
+  </si>
+  <si>
+    <t>21.05.202570</t>
+  </si>
+  <si>
+    <t>21.05.202571</t>
+  </si>
+  <si>
+    <t>21.05.202572</t>
+  </si>
+  <si>
+    <t>21.05.202573</t>
+  </si>
+  <si>
+    <t>21.05.202574</t>
+  </si>
+  <si>
+    <t>21.05.202575</t>
+  </si>
+  <si>
+    <t>21.05.202576</t>
+  </si>
+  <si>
+    <t>21.05.202577</t>
+  </si>
+  <si>
+    <t>21.05.202578</t>
+  </si>
+  <si>
+    <t>21.05.202579</t>
+  </si>
+  <si>
+    <t>21.05.202580</t>
+  </si>
+  <si>
+    <t>21.05.202581</t>
+  </si>
+  <si>
+    <t>21.05.202582</t>
+  </si>
+  <si>
+    <t>21.05.202583</t>
+  </si>
+  <si>
+    <t>21.05.202584</t>
+  </si>
+  <si>
+    <t>21.05.202585</t>
+  </si>
+  <si>
+    <t>21.05.202586</t>
+  </si>
+  <si>
+    <t>21.05.202587</t>
+  </si>
+  <si>
+    <t>21.05.202588</t>
+  </si>
+  <si>
+    <t>21.05.202589</t>
+  </si>
+  <si>
+    <t>21.05.202590</t>
+  </si>
+  <si>
+    <t>21.05.202591</t>
+  </si>
+  <si>
+    <t>21.05.202592</t>
+  </si>
+  <si>
+    <t>21.05.202593</t>
+  </si>
+  <si>
+    <t>21.05.202594</t>
+  </si>
+  <si>
+    <t>21.05.202595</t>
+  </si>
+  <si>
+    <t>21.05.202596</t>
+  </si>
+  <si>
+    <t>22.05.20251</t>
+  </si>
+  <si>
+    <t>22.05.20252</t>
+  </si>
+  <si>
+    <t>22.05.20253</t>
+  </si>
+  <si>
+    <t>22.05.20254</t>
+  </si>
+  <si>
+    <t>22.05.20255</t>
+  </si>
+  <si>
+    <t>22.05.20256</t>
+  </si>
+  <si>
+    <t>22.05.20257</t>
+  </si>
+  <si>
+    <t>22.05.20258</t>
+  </si>
+  <si>
+    <t>22.05.20259</t>
+  </si>
+  <si>
+    <t>22.05.202510</t>
+  </si>
+  <si>
+    <t>22.05.202511</t>
+  </si>
+  <si>
+    <t>22.05.202512</t>
+  </si>
+  <si>
+    <t>22.05.202513</t>
+  </si>
+  <si>
+    <t>22.05.202514</t>
+  </si>
+  <si>
+    <t>22.05.202515</t>
+  </si>
+  <si>
+    <t>22.05.202516</t>
+  </si>
+  <si>
+    <t>22.05.202517</t>
+  </si>
+  <si>
+    <t>22.05.202518</t>
+  </si>
+  <si>
+    <t>22.05.202519</t>
+  </si>
+  <si>
+    <t>22.05.202520</t>
+  </si>
+  <si>
+    <t>22.05.202521</t>
+  </si>
+  <si>
+    <t>22.05.202522</t>
+  </si>
+  <si>
+    <t>22.05.202523</t>
+  </si>
+  <si>
+    <t>22.05.202524</t>
+  </si>
+  <si>
+    <t>22.05.202525</t>
+  </si>
+  <si>
+    <t>22.05.202526</t>
+  </si>
+  <si>
+    <t>22.05.202527</t>
+  </si>
+  <si>
+    <t>22.05.202528</t>
+  </si>
+  <si>
+    <t>22.05.202529</t>
+  </si>
+  <si>
+    <t>22.05.202530</t>
+  </si>
+  <si>
+    <t>22.05.202531</t>
+  </si>
+  <si>
+    <t>22.05.202532</t>
+  </si>
+  <si>
+    <t>22.05.202533</t>
+  </si>
+  <si>
+    <t>22.05.202534</t>
+  </si>
+  <si>
+    <t>22.05.202535</t>
+  </si>
+  <si>
+    <t>22.05.202536</t>
+  </si>
+  <si>
+    <t>22.05.202537</t>
+  </si>
+  <si>
+    <t>22.05.202538</t>
+  </si>
+  <si>
+    <t>22.05.202539</t>
+  </si>
+  <si>
+    <t>22.05.202540</t>
+  </si>
+  <si>
+    <t>22.05.202541</t>
+  </si>
+  <si>
+    <t>22.05.202542</t>
+  </si>
+  <si>
+    <t>22.05.202543</t>
   </si>
 </sst>
 </file>
@@ -798,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,13 +1120,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2">
-        <v>15.057</v>
+        <v>2.589</v>
       </c>
       <c r="C2">
-        <v>0.276</v>
+        <v>3.991</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,13 +1137,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45796.01041666666</v>
+        <v>45797.01041666666</v>
       </c>
       <c r="B3">
-        <v>1.914</v>
+        <v>18.711</v>
       </c>
       <c r="C3">
-        <v>4.692</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -857,13 +1154,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45796.02083333334</v>
+        <v>45797.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11.542</v>
       </c>
       <c r="C4">
-        <v>26.08</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -874,13 +1171,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45796.03125</v>
+        <v>45797.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.028</v>
       </c>
       <c r="C5">
-        <v>37.742</v>
+        <v>20.797</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -891,13 +1188,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45796.04166666666</v>
+        <v>45797.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>7.906</v>
+        <v>48.028</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -908,13 +1205,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45796.05208333334</v>
+        <v>45797.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>23.54</v>
+        <v>34.269</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -925,13 +1222,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45796.0625</v>
+        <v>45797.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>21.727</v>
+        <v>45.574</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -942,13 +1239,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45796.07291666666</v>
+        <v>45797.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.346</v>
       </c>
       <c r="C9">
-        <v>32.758</v>
+        <v>18.034</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -959,13 +1256,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45796.08333333334</v>
+        <v>45797.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="C10">
-        <v>58.026</v>
+        <v>4.807</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -976,13 +1273,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45796.09375</v>
+        <v>45797.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.871</v>
       </c>
       <c r="C11">
-        <v>11.012</v>
+        <v>3.653</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -993,13 +1290,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45796.10416666666</v>
+        <v>45797.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>8.83</v>
       </c>
       <c r="C12">
-        <v>10.716</v>
+        <v>1.166</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1010,13 +1307,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45796.11458333334</v>
+        <v>45797.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.073</v>
+        <v>18.034</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1027,13 +1324,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45796.125</v>
+        <v>45797.125</v>
       </c>
       <c r="B14">
-        <v>0.949</v>
+        <v>0.027</v>
       </c>
       <c r="C14">
-        <v>2.627</v>
+        <v>19.505</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1044,13 +1341,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45796.13541666666</v>
+        <v>45797.13541666666</v>
       </c>
       <c r="B15">
-        <v>9.125</v>
+        <v>0.821</v>
       </c>
       <c r="C15">
-        <v>0.551</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1061,13 +1358,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45796.14583333334</v>
+        <v>45797.14583333334</v>
       </c>
       <c r="B16">
-        <v>8.428000000000001</v>
+        <v>8.507</v>
       </c>
       <c r="C16">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1078,13 +1375,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45796.15625</v>
+        <v>45797.15625</v>
       </c>
       <c r="B17">
-        <v>4.924</v>
+        <v>14.788</v>
       </c>
       <c r="C17">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1095,13 +1392,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45796.16666666666</v>
+        <v>45797.16666666666</v>
       </c>
       <c r="B18">
-        <v>1.165</v>
+        <v>26.351</v>
       </c>
       <c r="C18">
-        <v>1.305</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1112,13 +1409,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45796.17708333334</v>
+        <v>45797.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.802</v>
+        <v>2.519</v>
       </c>
       <c r="C19">
-        <v>0.026</v>
+        <v>3.586</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1129,13 +1426,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45796.1875</v>
+        <v>45797.1875</v>
       </c>
       <c r="B20">
-        <v>0.267</v>
+        <v>0.981</v>
       </c>
       <c r="C20">
-        <v>4.84</v>
+        <v>3.036</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1146,13 +1443,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45796.19791666666</v>
+        <v>45797.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.278</v>
+        <v>1.59</v>
       </c>
       <c r="C21">
-        <v>5.854</v>
+        <v>7.374</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1163,13 +1460,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45796.20833333334</v>
+        <v>45797.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.005</v>
       </c>
       <c r="C22">
-        <v>20.061</v>
+        <v>11.425</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1180,13 +1477,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45796.21875</v>
+        <v>45797.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8.589</v>
       </c>
       <c r="C23">
-        <v>19.135</v>
+        <v>0.19</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1197,13 +1494,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45796.22916666666</v>
+        <v>45797.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>26.403</v>
       </c>
       <c r="C24">
-        <v>22.16</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1214,13 +1511,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45796.23958333334</v>
+        <v>45797.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.074</v>
+        <v>49.013</v>
       </c>
       <c r="C25">
-        <v>9.818</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1231,13 +1528,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45796.25</v>
+        <v>45797.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>58.032</v>
       </c>
       <c r="C26">
-        <v>28.494</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1248,13 +1545,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45796.26041666666</v>
+        <v>45797.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>6.559</v>
       </c>
       <c r="C27">
-        <v>40.512</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1265,13 +1562,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45796.27083333334</v>
+        <v>45797.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>6.819</v>
       </c>
       <c r="C28">
-        <v>24.632</v>
+        <v>1.213</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1282,13 +1579,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45796.28125</v>
+        <v>45797.28125</v>
       </c>
       <c r="B29">
-        <v>2.034</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>5.272</v>
+        <v>16.078</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1299,13 +1596,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45796.29166666666</v>
+        <v>45797.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.237</v>
+        <v>4.279</v>
       </c>
       <c r="C30">
-        <v>6.867</v>
+        <v>2.9</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1316,13 +1613,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45796.30208333334</v>
+        <v>45797.30208333334</v>
       </c>
       <c r="B31">
-        <v>3.646</v>
+        <v>9.332000000000001</v>
       </c>
       <c r="C31">
-        <v>0.32</v>
+        <v>0.017</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1333,13 +1630,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45796.3125</v>
+        <v>45797.3125</v>
       </c>
       <c r="B32">
-        <v>3.547</v>
+        <v>0.077</v>
       </c>
       <c r="C32">
-        <v>2.614</v>
+        <v>18.348</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1350,13 +1647,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45796.32291666666</v>
+        <v>45797.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.745</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>5.536</v>
+        <v>72.069</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1367,13 +1664,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45796.33333333334</v>
+        <v>45797.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>19.585</v>
+        <v>62.473</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1384,13 +1681,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45796.34375</v>
+        <v>45797.34375</v>
       </c>
       <c r="B35">
-        <v>1.159</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3.187</v>
+        <v>123.154</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1401,13 +1698,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45796.35416666666</v>
+        <v>45797.35416666666</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>21.471</v>
+        <v>146.333</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1418,13 +1715,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45796.36458333334</v>
+        <v>45797.36458333334</v>
       </c>
       <c r="B37">
-        <v>3.29</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>5.793</v>
+        <v>154.533</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1435,13 +1732,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45796.375</v>
+        <v>45797.375</v>
       </c>
       <c r="B38">
-        <v>34.094</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>28.555</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1452,13 +1749,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45796.38541666666</v>
+        <v>45797.38541666666</v>
       </c>
       <c r="B39">
-        <v>46.18</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>31.72</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1469,13 +1766,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45796.39583333334</v>
+        <v>45797.39583333334</v>
       </c>
       <c r="B40">
-        <v>45.716</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>39.258</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1486,13 +1783,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45796.40625</v>
+        <v>45797.40625</v>
       </c>
       <c r="B41">
-        <v>43.898</v>
+        <v>0.611</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>8.821</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1503,13 +1800,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45796.41666666666</v>
+        <v>45797.41666666666</v>
       </c>
       <c r="B42">
-        <v>110.681</v>
+        <v>0.446</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>8.680999999999999</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1520,13 +1817,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45796.42708333334</v>
+        <v>45797.42708333334</v>
       </c>
       <c r="B43">
-        <v>33.564</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.025</v>
+        <v>3.001</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1537,13 +1834,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45796.4375</v>
+        <v>45797.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>9.919</v>
       </c>
       <c r="C44">
-        <v>6.858</v>
+        <v>0.199</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1554,13 +1851,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45796.44791666666</v>
+        <v>45797.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>6.432</v>
       </c>
       <c r="C45">
-        <v>2.75</v>
+        <v>0.094</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1571,13 +1868,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45796.45833333334</v>
+        <v>45797.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="C46">
-        <v>44.742</v>
+        <v>2.091</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1588,13 +1885,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45796.46875</v>
+        <v>45797.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>47.573</v>
+        <v>1.152</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1605,13 +1902,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45796.47916666666</v>
+        <v>45797.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>5.925</v>
       </c>
       <c r="C48">
-        <v>96.407</v>
+        <v>0.312</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1622,13 +1919,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45796.48958333334</v>
+        <v>45797.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="C49">
-        <v>73.2</v>
+        <v>0.089</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1639,13 +1936,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45796.5</v>
+        <v>45797.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>16.267</v>
+        <v>13.367</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1656,13 +1953,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45796.51041666666</v>
+        <v>45797.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.004</v>
+        <v>0.229</v>
       </c>
       <c r="C51">
-        <v>22.953</v>
+        <v>8.394</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1673,13 +1970,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45796.52083333334</v>
+        <v>45797.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>4.393</v>
       </c>
       <c r="C52">
-        <v>81.163</v>
+        <v>5.891</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1690,13 +1987,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45796.53125</v>
+        <v>45797.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="C53">
-        <v>49.812</v>
+        <v>3.82</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1707,13 +2004,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45796.54166666666</v>
+        <v>45797.54166666666</v>
       </c>
       <c r="B54">
-        <v>1.701</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>11.666</v>
+        <v>21.204</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1724,13 +2021,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45796.55208333334</v>
+        <v>45797.55208333334</v>
       </c>
       <c r="B55">
-        <v>2.128</v>
+        <v>0.161</v>
       </c>
       <c r="C55">
-        <v>8.178000000000001</v>
+        <v>8.680999999999999</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1741,13 +2038,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45796.5625</v>
+        <v>45797.5625</v>
       </c>
       <c r="B56">
-        <v>0.9429999999999999</v>
+        <v>8.670999999999999</v>
       </c>
       <c r="C56">
-        <v>9.02</v>
+        <v>0.053</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1758,13 +2055,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45796.57291666666</v>
+        <v>45797.57291666666</v>
       </c>
       <c r="B57">
-        <v>2.314</v>
+        <v>13.913</v>
       </c>
       <c r="C57">
-        <v>11.265</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1775,13 +2072,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45796.58333333334</v>
+        <v>45797.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="C58">
-        <v>54.926</v>
+        <v>3.788</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1792,13 +2089,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45796.59375</v>
+        <v>45797.59375</v>
       </c>
       <c r="B59">
-        <v>0.229</v>
+        <v>0.017</v>
       </c>
       <c r="C59">
-        <v>15.29</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1809,13 +2106,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45796.60416666666</v>
+        <v>45797.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.765</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="C60">
-        <v>17.046</v>
+        <v>0.41</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1826,13 +2123,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45796.61458333334</v>
+        <v>45797.61458333334</v>
       </c>
       <c r="B61">
-        <v>25.325</v>
+        <v>2.942</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1843,13 +2140,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45796.625</v>
+        <v>45797.625</v>
       </c>
       <c r="B62">
-        <v>36.236</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>36.352</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1860,13 +2157,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45796.63541666666</v>
+        <v>45797.63541666666</v>
       </c>
       <c r="B63">
-        <v>1.258</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>36.342</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1877,13 +2174,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45796.64583333334</v>
+        <v>45797.64583333334</v>
       </c>
       <c r="B64">
-        <v>10.141</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>1.337</v>
+        <v>25.632</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1894,13 +2191,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45796.65625</v>
+        <v>45797.65625</v>
       </c>
       <c r="B65">
-        <v>43.572</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>43.595</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1911,13 +2208,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45796.66666666666</v>
+        <v>45797.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>7.685</v>
+        <v>29.783</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1928,13 +2225,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45796.67708333334</v>
+        <v>45797.67708333334</v>
       </c>
       <c r="B67">
-        <v>12.254</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.391</v>
+        <v>25.844</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1945,13 +2242,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45796.6875</v>
+        <v>45797.6875</v>
       </c>
       <c r="B68">
-        <v>16.368</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>12.245</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1962,13 +2259,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45796.69791666666</v>
+        <v>45797.69791666666</v>
       </c>
       <c r="B69">
-        <v>8.294</v>
+        <v>0.902</v>
       </c>
       <c r="C69">
-        <v>2.773</v>
+        <v>7.499</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1979,13 +2276,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45796.70833333334</v>
+        <v>45797.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>16.731</v>
       </c>
       <c r="C70">
-        <v>27.878</v>
+        <v>0.041</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1996,13 +2293,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45796.71875</v>
+        <v>45797.71875</v>
       </c>
       <c r="B71">
-        <v>0.311</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>12.095</v>
+        <v>15.256</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2013,13 +2310,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45796.72916666666</v>
+        <v>45797.72916666666</v>
       </c>
       <c r="B72">
-        <v>11.468</v>
+        <v>3.314</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2.533</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2030,13 +2327,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45796.73958333334</v>
+        <v>45797.73958333334</v>
       </c>
       <c r="B73">
-        <v>4.798</v>
+        <v>12.729</v>
       </c>
       <c r="C73">
-        <v>3.923</v>
+        <v>1.307</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2047,13 +2344,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45796.75</v>
+        <v>45797.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.096</v>
       </c>
       <c r="C74">
-        <v>37.569</v>
+        <v>3.755</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2064,13 +2361,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45796.76041666666</v>
+        <v>45797.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>7.991</v>
       </c>
       <c r="C75">
-        <v>19.498</v>
+        <v>0.181</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2081,13 +2378,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45796.77083333334</v>
+        <v>45797.77083333334</v>
       </c>
       <c r="B76">
-        <v>3.288</v>
+        <v>20.321</v>
       </c>
       <c r="C76">
-        <v>5.638</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2098,13 +2395,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45796.78125</v>
+        <v>45797.78125</v>
       </c>
       <c r="B77">
-        <v>9.106</v>
+        <v>8.023</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2115,13 +2412,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45796.79166666666</v>
+        <v>45797.79166666666</v>
       </c>
       <c r="B78">
-        <v>74.7</v>
+        <v>7.35</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2132,10 +2429,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45796.80208333334</v>
+        <v>45797.80208333334</v>
       </c>
       <c r="B79">
-        <v>30.871</v>
+        <v>4.243</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2149,10 +2446,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45796.8125</v>
+        <v>45797.8125</v>
       </c>
       <c r="B80">
-        <v>29.477</v>
+        <v>1.624</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2166,10 +2463,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45796.82291666666</v>
+        <v>45797.82291666666</v>
       </c>
       <c r="B81">
-        <v>2.405</v>
+        <v>1.045</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2183,13 +2480,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45796.83333333334</v>
+        <v>45797.83333333334</v>
       </c>
       <c r="B82">
-        <v>23.199</v>
+        <v>27.453</v>
       </c>
       <c r="C82">
-        <v>3.803</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2200,13 +2497,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45796.84375</v>
+        <v>45797.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>26.341</v>
       </c>
       <c r="C83">
-        <v>25.816</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2217,13 +2514,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45796.85416666666</v>
+        <v>45797.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>34.245</v>
       </c>
       <c r="C84">
-        <v>32.963</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2234,13 +2531,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45796.86458333334</v>
+        <v>45797.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>19.132</v>
       </c>
       <c r="C85">
-        <v>43.689</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2251,13 +2548,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45796.875</v>
+        <v>45797.875</v>
       </c>
       <c r="B86">
-        <v>1.068</v>
+        <v>2.966</v>
       </c>
       <c r="C86">
-        <v>7.533</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2268,13 +2565,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45796.88541666666</v>
+        <v>45797.88541666666</v>
       </c>
       <c r="B87">
-        <v>1.071</v>
+        <v>15.568</v>
       </c>
       <c r="C87">
-        <v>11.742</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2285,10 +2582,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45796.89583333334</v>
+        <v>45797.89583333334</v>
       </c>
       <c r="B88">
-        <v>21.254</v>
+        <v>7.475</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2302,13 +2599,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45796.90625</v>
+        <v>45797.90625</v>
       </c>
       <c r="B89">
-        <v>9.561</v>
+        <v>3.36</v>
       </c>
       <c r="C89">
-        <v>0.057</v>
+        <v>1.685</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2319,13 +2616,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45796.91666666666</v>
+        <v>45797.91666666666</v>
       </c>
       <c r="B90">
-        <v>20.488</v>
+        <v>2.14</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2336,13 +2633,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45796.92708333334</v>
+        <v>45797.92708333334</v>
       </c>
       <c r="B91">
-        <v>5.76</v>
+        <v>3.436</v>
       </c>
       <c r="C91">
-        <v>0.748</v>
+        <v>0.838</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2353,13 +2650,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45796.9375</v>
+        <v>45797.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.992</v>
       </c>
       <c r="C92">
-        <v>5.011</v>
+        <v>0.645</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2370,13 +2667,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45796.94791666666</v>
+        <v>45797.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>13.141</v>
       </c>
       <c r="C93">
-        <v>16.273</v>
+        <v>0.062</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2387,13 +2684,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45796.95833333334</v>
+        <v>45797.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>25.775</v>
       </c>
       <c r="C94">
-        <v>27.051</v>
+        <v>0.031</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2404,13 +2701,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B95">
-        <v>0.062</v>
+        <v>21.716</v>
       </c>
       <c r="C95">
-        <v>7.495</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2421,13 +2718,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45796.96875</v>
+        <v>45797.96875</v>
       </c>
       <c r="B96">
-        <v>0.062</v>
+        <v>21.716</v>
       </c>
       <c r="C96">
-        <v>7.495</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2438,13 +2735,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B97">
-        <v>1.432</v>
+        <v>19.493</v>
       </c>
       <c r="C97">
-        <v>9.999000000000001</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2455,13 +2752,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45796.97916666666</v>
+        <v>45797.97916666666</v>
       </c>
       <c r="B98">
-        <v>1.432</v>
+        <v>19.493</v>
       </c>
       <c r="C98">
-        <v>9.999000000000001</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2472,13 +2769,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B99">
-        <v>5.643</v>
+        <v>5.985</v>
       </c>
       <c r="C99">
-        <v>0.245</v>
+        <v>0.54</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2489,13 +2786,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45796.98958333334</v>
+        <v>45797.98958333334</v>
       </c>
       <c r="B100">
-        <v>5.643</v>
+        <v>5.985</v>
       </c>
       <c r="C100">
-        <v>0.245</v>
+        <v>0.54</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2506,13 +2803,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B101">
-        <v>2.589</v>
+        <v>5.536</v>
       </c>
       <c r="C101">
-        <v>3.991</v>
+        <v>5.945</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2523,13 +2820,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B102">
-        <v>2.589</v>
+        <v>5.536</v>
       </c>
       <c r="C102">
-        <v>3.991</v>
+        <v>5.945</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2540,10 +2837,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B103">
-        <v>18.711</v>
+        <v>18.886</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2557,10 +2854,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45797.01041666666</v>
+        <v>45798.01041666666</v>
       </c>
       <c r="B104">
-        <v>18.711</v>
+        <v>18.886</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2574,10 +2871,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B105">
-        <v>11.542</v>
+        <v>12.97</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2591,10 +2888,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45797.02083333334</v>
+        <v>45798.02083333334</v>
       </c>
       <c r="B106">
-        <v>11.542</v>
+        <v>12.97</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2608,13 +2905,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B107">
-        <v>1.028</v>
+        <v>7.679</v>
       </c>
       <c r="C107">
-        <v>20.797</v>
+        <v>0.035</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2625,13 +2922,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45797.03125</v>
+        <v>45798.03125</v>
       </c>
       <c r="B108">
-        <v>1.028</v>
+        <v>7.679</v>
       </c>
       <c r="C108">
-        <v>20.797</v>
+        <v>0.035</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2642,13 +2939,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45797.04166666666</v>
+        <v>45798.04166666666</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="C109">
-        <v>48.028</v>
+        <v>0.843</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2659,13 +2956,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45797.05208333334</v>
+        <v>45798.05208333334</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="C110">
-        <v>34.269</v>
+        <v>0.34</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2676,13 +2973,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45797.0625</v>
+        <v>45798.0625</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>4.036</v>
       </c>
       <c r="C111">
-        <v>45.574</v>
+        <v>0.094</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2693,13 +2990,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45797.07291666666</v>
+        <v>45798.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.346</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C112">
-        <v>18.034</v>
+        <v>1.969</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2710,13 +3007,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45797.08333333334</v>
+        <v>45798.08333333334</v>
       </c>
       <c r="B113">
-        <v>0.429</v>
+        <v>0.035</v>
       </c>
       <c r="C113">
-        <v>4.807</v>
+        <v>10.619</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2727,13 +3024,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45797.09375</v>
+        <v>45798.09375</v>
       </c>
       <c r="B114">
-        <v>4.871</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>3.653</v>
+        <v>10.533</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2744,13 +3041,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45797.10416666666</v>
+        <v>45798.10416666666</v>
       </c>
       <c r="B115">
-        <v>8.83</v>
+        <v>0.242</v>
       </c>
       <c r="C115">
-        <v>1.166</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2761,13 +3058,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45797.11458333334</v>
+        <v>45798.11458333334</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>18.034</v>
+        <v>8.222</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2778,13 +3075,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45797.125</v>
+        <v>45798.125</v>
       </c>
       <c r="B117">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>19.505</v>
+        <v>19.658</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2795,13 +3092,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45797.13541666666</v>
+        <v>45798.13541666666</v>
       </c>
       <c r="B118">
-        <v>0.821</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>8.074999999999999</v>
+        <v>21.354</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2812,13 +3109,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45797.14583333334</v>
+        <v>45798.14583333334</v>
       </c>
       <c r="B119">
-        <v>8.507</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>21.85</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2829,13 +3126,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45797.15625</v>
+        <v>45798.15625</v>
       </c>
       <c r="B120">
-        <v>14.788</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>24.01</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2846,13 +3143,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45797.16666666666</v>
+        <v>45798.16666666666</v>
       </c>
       <c r="B121">
-        <v>26.351</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>30.335</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2863,13 +3160,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45797.17708333334</v>
+        <v>45798.17708333334</v>
       </c>
       <c r="B122">
-        <v>2.519</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>3.586</v>
+        <v>19.597</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2880,13 +3177,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45797.1875</v>
+        <v>45798.1875</v>
       </c>
       <c r="B123">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>3.036</v>
+        <v>35.919</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2897,13 +3194,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45797.19791666666</v>
+        <v>45798.19791666666</v>
       </c>
       <c r="B124">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>7.374</v>
+        <v>45.267</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2914,13 +3211,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45797.20833333334</v>
+        <v>45798.20833333334</v>
       </c>
       <c r="B125">
-        <v>1.005</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>11.425</v>
+        <v>33.917</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2931,13 +3228,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45797.21875</v>
+        <v>45798.21875</v>
       </c>
       <c r="B126">
-        <v>8.589</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0.19</v>
+        <v>29.533</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2948,13 +3245,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45797.22916666666</v>
+        <v>45798.22916666666</v>
       </c>
       <c r="B127">
-        <v>26.403</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>57.842</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2965,13 +3262,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45797.23958333334</v>
+        <v>45798.23958333334</v>
       </c>
       <c r="B128">
-        <v>49.013</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>35.516</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2982,13 +3279,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45797.25</v>
+        <v>45798.25</v>
       </c>
       <c r="B129">
-        <v>58.032</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>25.565</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2999,13 +3296,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45797.26041666666</v>
+        <v>45798.26041666666</v>
       </c>
       <c r="B130">
-        <v>6.559</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>14.789</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -3016,13 +3313,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45797.27083333334</v>
+        <v>45798.27083333334</v>
       </c>
       <c r="B131">
-        <v>6.819</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>1.213</v>
+        <v>44.441</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3033,13 +3330,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45797.28125</v>
+        <v>45798.28125</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>16.078</v>
+        <v>54.874</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3050,13 +3347,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45797.29166666666</v>
+        <v>45798.29166666666</v>
       </c>
       <c r="B133">
-        <v>4.279</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>2.9</v>
+        <v>31.498</v>
       </c>
       <c r="D133">
         <v>29</v>
@@ -3067,13 +3364,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45797.30208333334</v>
+        <v>45798.30208333334</v>
       </c>
       <c r="B134">
-        <v>9.332000000000001</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.017</v>
+        <v>12.594</v>
       </c>
       <c r="D134">
         <v>30</v>
@@ -3084,13 +3381,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45797.3125</v>
+        <v>45798.3125</v>
       </c>
       <c r="B135">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>18.348</v>
+        <v>7.258</v>
       </c>
       <c r="D135">
         <v>31</v>
@@ -3101,13 +3398,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45797.32291666666</v>
+        <v>45798.32291666666</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>72.069</v>
+        <v>12.265</v>
       </c>
       <c r="D136">
         <v>32</v>
@@ -3118,13 +3415,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45797.33333333334</v>
+        <v>45798.33333333334</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>0.424</v>
       </c>
       <c r="C137">
-        <v>62.473</v>
+        <v>3.438</v>
       </c>
       <c r="D137">
         <v>33</v>
@@ -3135,13 +3432,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45797.34375</v>
+        <v>45798.34375</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>123.154</v>
+        <v>12.168</v>
       </c>
       <c r="D138">
         <v>34</v>
@@ -3152,13 +3449,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45797.35416666666</v>
+        <v>45798.35416666666</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>146.333</v>
+        <v>18.597</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3169,13 +3466,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45797.36458333334</v>
+        <v>45798.36458333334</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>154.533</v>
+        <v>22.103</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -3186,13 +3483,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45797.375</v>
+        <v>45798.375</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>28.555</v>
+        <v>16.477</v>
       </c>
       <c r="D141">
         <v>37</v>
@@ -3203,13 +3500,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45797.38541666666</v>
+        <v>45798.38541666666</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>31.72</v>
+        <v>4.378</v>
       </c>
       <c r="D142">
         <v>38</v>
@@ -3220,13 +3517,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45797.39583333334</v>
+        <v>45798.39583333334</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>39.258</v>
+        <v>6.098</v>
       </c>
       <c r="D143">
         <v>39</v>
@@ -3237,19 +3534,1821 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45797.40625</v>
+        <v>45798.40625</v>
       </c>
       <c r="B144">
-        <v>0.611</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>8.821</v>
+        <v>1.64</v>
       </c>
       <c r="D144">
         <v>40</v>
       </c>
       <c r="E144" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45798.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>2.376</v>
+      </c>
+      <c r="C145">
+        <v>6.249</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45798.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>12.959</v>
+      </c>
+      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45798.4375</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>9.025</v>
+      </c>
+      <c r="D147">
+        <v>43</v>
+      </c>
+      <c r="E147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45798.44791666666</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>5.726</v>
+      </c>
+      <c r="D148">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45798.45833333334</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>43.045</v>
+      </c>
+      <c r="D149">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45798.46875</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>40.17</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="E150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>43.661</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45798.48958333334</v>
+      </c>
+      <c r="B152">
+        <v>0.003</v>
+      </c>
+      <c r="C152">
+        <v>19.735</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45798.5</v>
+      </c>
+      <c r="B153">
+        <v>0.011</v>
+      </c>
+      <c r="C153">
+        <v>23.829</v>
+      </c>
+      <c r="D153">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45798.51041666666</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>15.264</v>
+      </c>
+      <c r="D154">
+        <v>50</v>
+      </c>
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45798.52083333334</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>20.985</v>
+      </c>
+      <c r="D155">
+        <v>51</v>
+      </c>
+      <c r="E155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45798.53125</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>34.74</v>
+      </c>
+      <c r="D156">
+        <v>52</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45798.54166666666</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>27.978</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45798.55208333334</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>36.697</v>
+      </c>
+      <c r="D158">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45798.5625</v>
+      </c>
+      <c r="B159">
+        <v>0.053</v>
+      </c>
+      <c r="C159">
+        <v>2.612</v>
+      </c>
+      <c r="D159">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45798.57291666666</v>
+      </c>
+      <c r="B160">
+        <v>12.044</v>
+      </c>
+      <c r="C160">
+        <v>0.144</v>
+      </c>
+      <c r="D160">
+        <v>56</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45798.58333333334</v>
+      </c>
+      <c r="B161">
+        <v>14.413</v>
+      </c>
+      <c r="C161">
+        <v>0.05</v>
+      </c>
+      <c r="D161">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45798.59375</v>
+      </c>
+      <c r="B162">
+        <v>33.788</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45798.60416666666</v>
+      </c>
+      <c r="B163">
+        <v>13.104</v>
+      </c>
+      <c r="C163">
+        <v>0.017</v>
+      </c>
+      <c r="D163">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45798.61458333334</v>
+      </c>
+      <c r="B164">
+        <v>0.983</v>
+      </c>
+      <c r="C164">
+        <v>11.687</v>
+      </c>
+      <c r="D164">
+        <v>60</v>
+      </c>
+      <c r="E164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45798.625</v>
+      </c>
+      <c r="B165">
+        <v>1.124</v>
+      </c>
+      <c r="C165">
+        <v>6.706</v>
+      </c>
+      <c r="D165">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45798.63541666666</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>38.512</v>
+      </c>
+      <c r="D166">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45798.64583333334</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>30.803</v>
+      </c>
+      <c r="D167">
+        <v>63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45798.65625</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>29.942</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45798.66666666666</v>
+      </c>
+      <c r="B169">
+        <v>3.093</v>
+      </c>
+      <c r="C169">
+        <v>2.617</v>
+      </c>
+      <c r="D169">
+        <v>65</v>
+      </c>
+      <c r="E169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45798.67708333334</v>
+      </c>
+      <c r="B170">
+        <v>0.244</v>
+      </c>
+      <c r="C170">
+        <v>25.414</v>
+      </c>
+      <c r="D170">
+        <v>66</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45798.6875</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>36.134</v>
+      </c>
+      <c r="D171">
+        <v>67</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45798.69791666666</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>25.724</v>
+      </c>
+      <c r="D172">
+        <v>68</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45798.70833333334</v>
+      </c>
+      <c r="B173">
+        <v>1.231</v>
+      </c>
+      <c r="C173">
+        <v>9.773999999999999</v>
+      </c>
+      <c r="D173">
+        <v>69</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45798.71875</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>28.898</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45798.72916666666</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>33.035</v>
+      </c>
+      <c r="D175">
+        <v>71</v>
+      </c>
+      <c r="E175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45798.73958333334</v>
+      </c>
+      <c r="B176">
+        <v>0.193</v>
+      </c>
+      <c r="C176">
+        <v>17.36</v>
+      </c>
+      <c r="D176">
+        <v>72</v>
+      </c>
+      <c r="E176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45798.75</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>4.486</v>
+      </c>
+      <c r="D177">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45798.76041666666</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>26.238</v>
+      </c>
+      <c r="D178">
+        <v>74</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45798.77083333334</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>50.862</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45798.78125</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>57.289</v>
+      </c>
+      <c r="D180">
+        <v>76</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45798.79166666666</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>33.66</v>
+      </c>
+      <c r="D181">
+        <v>77</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45798.80208333334</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>34.809</v>
+      </c>
+      <c r="D182">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45798.8125</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>26.864</v>
+      </c>
+      <c r="D183">
+        <v>79</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45798.82291666666</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>28.957</v>
+      </c>
+      <c r="D184">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45798.83333333334</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>4.067</v>
+      </c>
+      <c r="D185">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45798.84375</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>10.575</v>
+      </c>
+      <c r="D186">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45798.85416666666</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>22.506</v>
+      </c>
+      <c r="D187">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45798.86458333334</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>17.16</v>
+      </c>
+      <c r="D188">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45798.875</v>
+      </c>
+      <c r="B189">
+        <v>18.823</v>
+      </c>
+      <c r="C189">
+        <v>0.122</v>
+      </c>
+      <c r="D189">
+        <v>85</v>
+      </c>
+      <c r="E189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45798.88541666666</v>
+      </c>
+      <c r="B190">
+        <v>29.532</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45798.89583333334</v>
+      </c>
+      <c r="B191">
+        <v>0.216</v>
+      </c>
+      <c r="C191">
+        <v>2.263</v>
+      </c>
+      <c r="D191">
+        <v>87</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45798.90625</v>
+      </c>
+      <c r="B192">
+        <v>0.021</v>
+      </c>
+      <c r="C192">
+        <v>5.333</v>
+      </c>
+      <c r="D192">
+        <v>88</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45798.91666666666</v>
+      </c>
+      <c r="B193">
+        <v>4.1</v>
+      </c>
+      <c r="C193">
+        <v>0.243</v>
+      </c>
+      <c r="D193">
+        <v>89</v>
+      </c>
+      <c r="E193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45798.92708333334</v>
+      </c>
+      <c r="B194">
+        <v>21.808</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45798.9375</v>
+      </c>
+      <c r="B195">
+        <v>13.39</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>91</v>
+      </c>
+      <c r="E195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45798.94791666666</v>
+      </c>
+      <c r="B196">
+        <v>3.41</v>
+      </c>
+      <c r="C196">
+        <v>1.155</v>
+      </c>
+      <c r="D196">
+        <v>92</v>
+      </c>
+      <c r="E196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45798.95833333334</v>
+      </c>
+      <c r="B197">
+        <v>12.096</v>
+      </c>
+      <c r="C197">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D197">
+        <v>93</v>
+      </c>
+      <c r="E197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45798.96875</v>
+      </c>
+      <c r="B198">
+        <v>10.604</v>
+      </c>
+      <c r="C198">
+        <v>0.049</v>
+      </c>
+      <c r="D198">
+        <v>94</v>
+      </c>
+      <c r="E198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45798.96875</v>
+      </c>
+      <c r="B199">
+        <v>10.604</v>
+      </c>
+      <c r="C199">
+        <v>0.049</v>
+      </c>
+      <c r="D199">
+        <v>94</v>
+      </c>
+      <c r="E199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45798.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>0.055</v>
+      </c>
+      <c r="C200">
+        <v>8.506</v>
+      </c>
+      <c r="D200">
+        <v>95</v>
+      </c>
+      <c r="E200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45798.97916666666</v>
+      </c>
+      <c r="B201">
+        <v>0.055</v>
+      </c>
+      <c r="C201">
+        <v>8.506</v>
+      </c>
+      <c r="D201">
+        <v>95</v>
+      </c>
+      <c r="E201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45798.98958333334</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>6.853</v>
+      </c>
+      <c r="D202">
+        <v>96</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45798.98958333334</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>6.853</v>
+      </c>
+      <c r="D203">
+        <v>96</v>
+      </c>
+      <c r="E203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>12.453</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>12.453</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B206">
+        <v>1.082</v>
+      </c>
+      <c r="C206">
+        <v>1.91</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45799.01041666666</v>
+      </c>
+      <c r="B207">
+        <v>1.082</v>
+      </c>
+      <c r="C207">
+        <v>1.91</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>12.529</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45799.02083333334</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>12.529</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B210">
+        <v>1.906</v>
+      </c>
+      <c r="C210">
+        <v>6.075</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45799.03125</v>
+      </c>
+      <c r="B211">
+        <v>1.906</v>
+      </c>
+      <c r="C211">
+        <v>6.075</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45799.04166666666</v>
+      </c>
+      <c r="B212">
+        <v>3.135</v>
+      </c>
+      <c r="C212">
+        <v>4.713</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45799.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0.57</v>
+      </c>
+      <c r="C213">
+        <v>2.2</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45799.0625</v>
+      </c>
+      <c r="B214">
+        <v>0.342</v>
+      </c>
+      <c r="C214">
+        <v>5.295</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45799.07291666666</v>
+      </c>
+      <c r="B215">
+        <v>0.015</v>
+      </c>
+      <c r="C215">
+        <v>7.873</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45799.08333333334</v>
+      </c>
+      <c r="B216">
+        <v>2.208</v>
+      </c>
+      <c r="C216">
+        <v>1.982</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45799.09375</v>
+      </c>
+      <c r="B217">
+        <v>25.745</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45799.10416666666</v>
+      </c>
+      <c r="B218">
+        <v>17.831</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45799.11458333334</v>
+      </c>
+      <c r="B219">
+        <v>30.847</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45799.125</v>
+      </c>
+      <c r="B220">
+        <v>30.197</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45799.13541666666</v>
+      </c>
+      <c r="B221">
+        <v>41.48</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45799.14583333334</v>
+      </c>
+      <c r="B222">
+        <v>50.307</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45799.15625</v>
+      </c>
+      <c r="B223">
+        <v>55.676</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45799.16666666666</v>
+      </c>
+      <c r="B224">
+        <v>30.654</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45799.17708333334</v>
+      </c>
+      <c r="B225">
+        <v>33.482</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45799.1875</v>
+      </c>
+      <c r="B226">
+        <v>43.8</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45799.19791666666</v>
+      </c>
+      <c r="B227">
+        <v>43.485</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45799.20833333334</v>
+      </c>
+      <c r="B228">
+        <v>33.025</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45799.21875</v>
+      </c>
+      <c r="B229">
+        <v>55.785</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45799.22916666666</v>
+      </c>
+      <c r="B230">
+        <v>22</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45799.23958333334</v>
+      </c>
+      <c r="B231">
+        <v>21.467</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45799.25</v>
+      </c>
+      <c r="B232">
+        <v>14.287</v>
+      </c>
+      <c r="C232">
+        <v>0.65</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45799.26041666666</v>
+      </c>
+      <c r="B233">
+        <v>46.5</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45799.27083333334</v>
+      </c>
+      <c r="B234">
+        <v>15.996</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45799.28125</v>
+      </c>
+      <c r="B235">
+        <v>18.311</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45799.29166666666</v>
+      </c>
+      <c r="B236">
+        <v>36.791</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45799.30208333334</v>
+      </c>
+      <c r="B237">
+        <v>40.946</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45799.3125</v>
+      </c>
+      <c r="B238">
+        <v>23.144</v>
+      </c>
+      <c r="C238">
+        <v>0.018</v>
+      </c>
+      <c r="D238">
+        <v>31</v>
+      </c>
+      <c r="E238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45799.32291666666</v>
+      </c>
+      <c r="B239">
+        <v>1.389</v>
+      </c>
+      <c r="C239">
+        <v>5.063</v>
+      </c>
+      <c r="D239">
+        <v>32</v>
+      </c>
+      <c r="E239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45799.33333333334</v>
+      </c>
+      <c r="B240">
+        <v>28.534</v>
+      </c>
+      <c r="C240">
+        <v>0.074</v>
+      </c>
+      <c r="D240">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45799.34375</v>
+      </c>
+      <c r="B241">
+        <v>15.688</v>
+      </c>
+      <c r="C241">
+        <v>0.343</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45799.35416666666</v>
+      </c>
+      <c r="B242">
+        <v>0.294</v>
+      </c>
+      <c r="C242">
+        <v>33.59</v>
+      </c>
+      <c r="D242">
+        <v>35</v>
+      </c>
+      <c r="E242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45799.36458333334</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>90.681</v>
+      </c>
+      <c r="D243">
+        <v>36</v>
+      </c>
+      <c r="E243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45799.375</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>67.001</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45799.38541666666</v>
+      </c>
+      <c r="B245">
+        <v>10.153</v>
+      </c>
+      <c r="C245">
+        <v>3.724</v>
+      </c>
+      <c r="D245">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45799.39583333334</v>
+      </c>
+      <c r="B246">
+        <v>0.486</v>
+      </c>
+      <c r="C246">
+        <v>14.185</v>
+      </c>
+      <c r="D246">
+        <v>39</v>
+      </c>
+      <c r="E246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45799.40625</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>17.46</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45799.41666666666</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>57.301</v>
+      </c>
+      <c r="D248">
+        <v>41</v>
+      </c>
+      <c r="E248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45799.42708333334</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>74.40900000000001</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45799.4375</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>28.219</v>
+      </c>
+      <c r="D250">
+        <v>43</v>
+      </c>
+      <c r="E250" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="333">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.05.20251</t>
-  </si>
-  <si>
-    <t>29.05.20252</t>
-  </si>
-  <si>
-    <t>29.05.20253</t>
-  </si>
-  <si>
-    <t>29.05.20254</t>
-  </si>
-  <si>
-    <t>29.05.20255</t>
-  </si>
-  <si>
-    <t>29.05.20256</t>
-  </si>
-  <si>
-    <t>29.05.20257</t>
-  </si>
-  <si>
-    <t>29.05.20258</t>
-  </si>
-  <si>
-    <t>29.05.20259</t>
-  </si>
-  <si>
-    <t>29.05.202510</t>
-  </si>
-  <si>
-    <t>29.05.202511</t>
-  </si>
-  <si>
-    <t>29.05.202512</t>
-  </si>
-  <si>
-    <t>29.05.202513</t>
-  </si>
-  <si>
-    <t>29.05.202514</t>
-  </si>
-  <si>
-    <t>29.05.202515</t>
-  </si>
-  <si>
-    <t>29.05.202516</t>
-  </si>
-  <si>
-    <t>29.05.202517</t>
-  </si>
-  <si>
-    <t>29.05.202518</t>
-  </si>
-  <si>
-    <t>29.05.202519</t>
-  </si>
-  <si>
-    <t>29.05.202520</t>
-  </si>
-  <si>
-    <t>29.05.202521</t>
-  </si>
-  <si>
-    <t>29.05.202522</t>
-  </si>
-  <si>
-    <t>29.05.202523</t>
-  </si>
-  <si>
-    <t>29.05.202524</t>
-  </si>
-  <si>
-    <t>29.05.202525</t>
-  </si>
-  <si>
-    <t>29.05.202526</t>
-  </si>
-  <si>
-    <t>29.05.202527</t>
-  </si>
-  <si>
-    <t>29.05.202528</t>
-  </si>
-  <si>
-    <t>29.05.202529</t>
-  </si>
-  <si>
-    <t>29.05.202530</t>
-  </si>
-  <si>
-    <t>29.05.202531</t>
-  </si>
-  <si>
-    <t>29.05.202532</t>
-  </si>
-  <si>
-    <t>29.05.202533</t>
-  </si>
-  <si>
-    <t>29.05.202534</t>
-  </si>
-  <si>
-    <t>29.05.202535</t>
-  </si>
-  <si>
-    <t>29.05.202536</t>
-  </si>
-  <si>
-    <t>29.05.202537</t>
-  </si>
-  <si>
-    <t>29.05.202538</t>
-  </si>
-  <si>
-    <t>29.05.202539</t>
-  </si>
-  <si>
-    <t>29.05.202540</t>
-  </si>
-  <si>
-    <t>29.05.202541</t>
-  </si>
-  <si>
-    <t>29.05.202542</t>
-  </si>
-  <si>
-    <t>29.05.202543</t>
-  </si>
-  <si>
-    <t>29.05.202544</t>
-  </si>
-  <si>
-    <t>29.05.202545</t>
-  </si>
-  <si>
-    <t>29.05.202546</t>
-  </si>
-  <si>
-    <t>29.05.202547</t>
-  </si>
-  <si>
-    <t>29.05.202548</t>
-  </si>
-  <si>
-    <t>29.05.202549</t>
-  </si>
-  <si>
-    <t>29.05.202550</t>
-  </si>
-  <si>
-    <t>29.05.202551</t>
-  </si>
-  <si>
-    <t>29.05.202552</t>
-  </si>
-  <si>
-    <t>29.05.202553</t>
-  </si>
-  <si>
-    <t>29.05.202554</t>
-  </si>
-  <si>
-    <t>29.05.202555</t>
-  </si>
-  <si>
-    <t>29.05.202556</t>
-  </si>
-  <si>
-    <t>29.05.202557</t>
-  </si>
-  <si>
-    <t>29.05.202558</t>
-  </si>
-  <si>
-    <t>29.05.202559</t>
-  </si>
-  <si>
-    <t>29.05.202560</t>
-  </si>
-  <si>
-    <t>29.05.202561</t>
-  </si>
-  <si>
-    <t>29.05.202562</t>
-  </si>
-  <si>
-    <t>29.05.202563</t>
-  </si>
-  <si>
-    <t>29.05.202564</t>
-  </si>
-  <si>
-    <t>29.05.202565</t>
-  </si>
-  <si>
-    <t>29.05.202566</t>
-  </si>
-  <si>
-    <t>29.05.202567</t>
-  </si>
-  <si>
-    <t>29.05.202568</t>
-  </si>
-  <si>
-    <t>29.05.202569</t>
-  </si>
-  <si>
-    <t>29.05.202570</t>
-  </si>
-  <si>
-    <t>29.05.202571</t>
-  </si>
-  <si>
-    <t>29.05.202572</t>
-  </si>
-  <si>
-    <t>29.05.202573</t>
-  </si>
-  <si>
-    <t>29.05.202574</t>
-  </si>
-  <si>
-    <t>29.05.202575</t>
-  </si>
-  <si>
-    <t>29.05.202576</t>
-  </si>
-  <si>
-    <t>29.05.202577</t>
-  </si>
-  <si>
-    <t>29.05.202578</t>
-  </si>
-  <si>
-    <t>29.05.202579</t>
-  </si>
-  <si>
-    <t>29.05.202580</t>
-  </si>
-  <si>
-    <t>29.05.202581</t>
-  </si>
-  <si>
-    <t>29.05.202582</t>
-  </si>
-  <si>
-    <t>29.05.202583</t>
-  </si>
-  <si>
-    <t>29.05.202584</t>
-  </si>
-  <si>
-    <t>29.05.202585</t>
-  </si>
-  <si>
-    <t>29.05.202586</t>
-  </si>
-  <si>
-    <t>29.05.202587</t>
-  </si>
-  <si>
-    <t>29.05.202588</t>
-  </si>
-  <si>
-    <t>29.05.202589</t>
-  </si>
-  <si>
-    <t>29.05.202590</t>
-  </si>
-  <si>
-    <t>29.05.202591</t>
-  </si>
-  <si>
-    <t>29.05.202592</t>
-  </si>
-  <si>
-    <t>29.05.202593</t>
-  </si>
-  <si>
-    <t>29.05.202594</t>
-  </si>
-  <si>
-    <t>29.05.202595</t>
-  </si>
-  <si>
-    <t>29.05.202596</t>
-  </si>
-  <si>
     <t>30.05.20251</t>
   </si>
   <si>
@@ -398,6 +110,909 @@
   </si>
   <si>
     <t>30.05.202527</t>
+  </si>
+  <si>
+    <t>30.05.202528</t>
+  </si>
+  <si>
+    <t>30.05.202529</t>
+  </si>
+  <si>
+    <t>30.05.202530</t>
+  </si>
+  <si>
+    <t>30.05.202531</t>
+  </si>
+  <si>
+    <t>30.05.202532</t>
+  </si>
+  <si>
+    <t>30.05.202533</t>
+  </si>
+  <si>
+    <t>30.05.202534</t>
+  </si>
+  <si>
+    <t>30.05.202535</t>
+  </si>
+  <si>
+    <t>30.05.202536</t>
+  </si>
+  <si>
+    <t>30.05.202537</t>
+  </si>
+  <si>
+    <t>30.05.202538</t>
+  </si>
+  <si>
+    <t>30.05.202539</t>
+  </si>
+  <si>
+    <t>30.05.202540</t>
+  </si>
+  <si>
+    <t>30.05.202541</t>
+  </si>
+  <si>
+    <t>30.05.202542</t>
+  </si>
+  <si>
+    <t>30.05.202543</t>
+  </si>
+  <si>
+    <t>30.05.202544</t>
+  </si>
+  <si>
+    <t>30.05.202545</t>
+  </si>
+  <si>
+    <t>30.05.202546</t>
+  </si>
+  <si>
+    <t>30.05.202547</t>
+  </si>
+  <si>
+    <t>30.05.202548</t>
+  </si>
+  <si>
+    <t>30.05.202549</t>
+  </si>
+  <si>
+    <t>30.05.202550</t>
+  </si>
+  <si>
+    <t>30.05.202551</t>
+  </si>
+  <si>
+    <t>30.05.202552</t>
+  </si>
+  <si>
+    <t>30.05.202553</t>
+  </si>
+  <si>
+    <t>30.05.202554</t>
+  </si>
+  <si>
+    <t>30.05.202555</t>
+  </si>
+  <si>
+    <t>30.05.202556</t>
+  </si>
+  <si>
+    <t>30.05.202557</t>
+  </si>
+  <si>
+    <t>30.05.202558</t>
+  </si>
+  <si>
+    <t>30.05.202559</t>
+  </si>
+  <si>
+    <t>30.05.202560</t>
+  </si>
+  <si>
+    <t>30.05.202561</t>
+  </si>
+  <si>
+    <t>30.05.202562</t>
+  </si>
+  <si>
+    <t>30.05.202563</t>
+  </si>
+  <si>
+    <t>30.05.202564</t>
+  </si>
+  <si>
+    <t>30.05.202565</t>
+  </si>
+  <si>
+    <t>30.05.202566</t>
+  </si>
+  <si>
+    <t>30.05.202567</t>
+  </si>
+  <si>
+    <t>30.05.202568</t>
+  </si>
+  <si>
+    <t>30.05.202569</t>
+  </si>
+  <si>
+    <t>30.05.202570</t>
+  </si>
+  <si>
+    <t>30.05.202571</t>
+  </si>
+  <si>
+    <t>30.05.202572</t>
+  </si>
+  <si>
+    <t>30.05.202573</t>
+  </si>
+  <si>
+    <t>30.05.202574</t>
+  </si>
+  <si>
+    <t>30.05.202575</t>
+  </si>
+  <si>
+    <t>30.05.202576</t>
+  </si>
+  <si>
+    <t>30.05.202577</t>
+  </si>
+  <si>
+    <t>30.05.202578</t>
+  </si>
+  <si>
+    <t>30.05.202579</t>
+  </si>
+  <si>
+    <t>30.05.202580</t>
+  </si>
+  <si>
+    <t>30.05.202581</t>
+  </si>
+  <si>
+    <t>30.05.202582</t>
+  </si>
+  <si>
+    <t>30.05.202583</t>
+  </si>
+  <si>
+    <t>30.05.202584</t>
+  </si>
+  <si>
+    <t>30.05.202585</t>
+  </si>
+  <si>
+    <t>30.05.202586</t>
+  </si>
+  <si>
+    <t>30.05.202587</t>
+  </si>
+  <si>
+    <t>30.05.202588</t>
+  </si>
+  <si>
+    <t>30.05.202589</t>
+  </si>
+  <si>
+    <t>30.05.202590</t>
+  </si>
+  <si>
+    <t>30.05.202591</t>
+  </si>
+  <si>
+    <t>30.05.202592</t>
+  </si>
+  <si>
+    <t>30.05.202593</t>
+  </si>
+  <si>
+    <t>30.05.202594</t>
+  </si>
+  <si>
+    <t>30.05.202595</t>
+  </si>
+  <si>
+    <t>30.05.202596</t>
+  </si>
+  <si>
+    <t>31.05.20251</t>
+  </si>
+  <si>
+    <t>31.05.20252</t>
+  </si>
+  <si>
+    <t>31.05.20253</t>
+  </si>
+  <si>
+    <t>31.05.20254</t>
+  </si>
+  <si>
+    <t>31.05.20255</t>
+  </si>
+  <si>
+    <t>31.05.20256</t>
+  </si>
+  <si>
+    <t>31.05.20257</t>
+  </si>
+  <si>
+    <t>31.05.20258</t>
+  </si>
+  <si>
+    <t>31.05.20259</t>
+  </si>
+  <si>
+    <t>31.05.202510</t>
+  </si>
+  <si>
+    <t>31.05.202511</t>
+  </si>
+  <si>
+    <t>31.05.202512</t>
+  </si>
+  <si>
+    <t>31.05.202513</t>
+  </si>
+  <si>
+    <t>31.05.202514</t>
+  </si>
+  <si>
+    <t>31.05.202515</t>
+  </si>
+  <si>
+    <t>31.05.202516</t>
+  </si>
+  <si>
+    <t>31.05.202517</t>
+  </si>
+  <si>
+    <t>31.05.202518</t>
+  </si>
+  <si>
+    <t>31.05.202519</t>
+  </si>
+  <si>
+    <t>31.05.202520</t>
+  </si>
+  <si>
+    <t>31.05.202521</t>
+  </si>
+  <si>
+    <t>31.05.202522</t>
+  </si>
+  <si>
+    <t>31.05.202523</t>
+  </si>
+  <si>
+    <t>31.05.202524</t>
+  </si>
+  <si>
+    <t>31.05.202525</t>
+  </si>
+  <si>
+    <t>31.05.202526</t>
+  </si>
+  <si>
+    <t>31.05.202527</t>
+  </si>
+  <si>
+    <t>31.05.202528</t>
+  </si>
+  <si>
+    <t>31.05.202529</t>
+  </si>
+  <si>
+    <t>31.05.202530</t>
+  </si>
+  <si>
+    <t>31.05.202531</t>
+  </si>
+  <si>
+    <t>31.05.202532</t>
+  </si>
+  <si>
+    <t>31.05.202533</t>
+  </si>
+  <si>
+    <t>31.05.202534</t>
+  </si>
+  <si>
+    <t>31.05.202535</t>
+  </si>
+  <si>
+    <t>31.05.202536</t>
+  </si>
+  <si>
+    <t>31.05.202537</t>
+  </si>
+  <si>
+    <t>31.05.202538</t>
+  </si>
+  <si>
+    <t>31.05.202539</t>
+  </si>
+  <si>
+    <t>31.05.202540</t>
+  </si>
+  <si>
+    <t>31.05.202541</t>
+  </si>
+  <si>
+    <t>31.05.202542</t>
+  </si>
+  <si>
+    <t>31.05.202543</t>
+  </si>
+  <si>
+    <t>31.05.202544</t>
+  </si>
+  <si>
+    <t>31.05.202545</t>
+  </si>
+  <si>
+    <t>31.05.202546</t>
+  </si>
+  <si>
+    <t>31.05.202547</t>
+  </si>
+  <si>
+    <t>31.05.202548</t>
+  </si>
+  <si>
+    <t>31.05.202549</t>
+  </si>
+  <si>
+    <t>31.05.202550</t>
+  </si>
+  <si>
+    <t>31.05.202551</t>
+  </si>
+  <si>
+    <t>31.05.202552</t>
+  </si>
+  <si>
+    <t>31.05.202553</t>
+  </si>
+  <si>
+    <t>31.05.202554</t>
+  </si>
+  <si>
+    <t>31.05.202555</t>
+  </si>
+  <si>
+    <t>31.05.202556</t>
+  </si>
+  <si>
+    <t>31.05.202557</t>
+  </si>
+  <si>
+    <t>31.05.202558</t>
+  </si>
+  <si>
+    <t>31.05.202559</t>
+  </si>
+  <si>
+    <t>31.05.202560</t>
+  </si>
+  <si>
+    <t>31.05.202561</t>
+  </si>
+  <si>
+    <t>31.05.202562</t>
+  </si>
+  <si>
+    <t>31.05.202563</t>
+  </si>
+  <si>
+    <t>31.05.202564</t>
+  </si>
+  <si>
+    <t>31.05.202565</t>
+  </si>
+  <si>
+    <t>31.05.202566</t>
+  </si>
+  <si>
+    <t>31.05.202567</t>
+  </si>
+  <si>
+    <t>31.05.202568</t>
+  </si>
+  <si>
+    <t>31.05.202569</t>
+  </si>
+  <si>
+    <t>31.05.202570</t>
+  </si>
+  <si>
+    <t>31.05.202571</t>
+  </si>
+  <si>
+    <t>31.05.202572</t>
+  </si>
+  <si>
+    <t>31.05.202573</t>
+  </si>
+  <si>
+    <t>31.05.202574</t>
+  </si>
+  <si>
+    <t>31.05.202575</t>
+  </si>
+  <si>
+    <t>31.05.202576</t>
+  </si>
+  <si>
+    <t>31.05.202577</t>
+  </si>
+  <si>
+    <t>31.05.202578</t>
+  </si>
+  <si>
+    <t>31.05.202579</t>
+  </si>
+  <si>
+    <t>31.05.202580</t>
+  </si>
+  <si>
+    <t>31.05.202581</t>
+  </si>
+  <si>
+    <t>31.05.202582</t>
+  </si>
+  <si>
+    <t>31.05.202583</t>
+  </si>
+  <si>
+    <t>31.05.202584</t>
+  </si>
+  <si>
+    <t>31.05.202585</t>
+  </si>
+  <si>
+    <t>31.05.202586</t>
+  </si>
+  <si>
+    <t>31.05.202587</t>
+  </si>
+  <si>
+    <t>31.05.202588</t>
+  </si>
+  <si>
+    <t>31.05.202589</t>
+  </si>
+  <si>
+    <t>31.05.202590</t>
+  </si>
+  <si>
+    <t>31.05.202591</t>
+  </si>
+  <si>
+    <t>31.05.202592</t>
+  </si>
+  <si>
+    <t>31.05.202593</t>
+  </si>
+  <si>
+    <t>31.05.202594</t>
+  </si>
+  <si>
+    <t>31.05.202595</t>
+  </si>
+  <si>
+    <t>31.05.202596</t>
+  </si>
+  <si>
+    <t>01.06.20251</t>
+  </si>
+  <si>
+    <t>01.06.20252</t>
+  </si>
+  <si>
+    <t>01.06.20253</t>
+  </si>
+  <si>
+    <t>01.06.20254</t>
+  </si>
+  <si>
+    <t>01.06.20255</t>
+  </si>
+  <si>
+    <t>01.06.20256</t>
+  </si>
+  <si>
+    <t>01.06.20257</t>
+  </si>
+  <si>
+    <t>01.06.20258</t>
+  </si>
+  <si>
+    <t>01.06.20259</t>
+  </si>
+  <si>
+    <t>01.06.202510</t>
+  </si>
+  <si>
+    <t>01.06.202511</t>
+  </si>
+  <si>
+    <t>01.06.202512</t>
+  </si>
+  <si>
+    <t>01.06.202513</t>
+  </si>
+  <si>
+    <t>01.06.202514</t>
+  </si>
+  <si>
+    <t>01.06.202515</t>
+  </si>
+  <si>
+    <t>01.06.202516</t>
+  </si>
+  <si>
+    <t>01.06.202517</t>
+  </si>
+  <si>
+    <t>01.06.202518</t>
+  </si>
+  <si>
+    <t>01.06.202519</t>
+  </si>
+  <si>
+    <t>01.06.202520</t>
+  </si>
+  <si>
+    <t>01.06.202521</t>
+  </si>
+  <si>
+    <t>01.06.202522</t>
+  </si>
+  <si>
+    <t>01.06.202523</t>
+  </si>
+  <si>
+    <t>01.06.202524</t>
+  </si>
+  <si>
+    <t>01.06.202525</t>
+  </si>
+  <si>
+    <t>01.06.202526</t>
+  </si>
+  <si>
+    <t>01.06.202527</t>
+  </si>
+  <si>
+    <t>01.06.202528</t>
+  </si>
+  <si>
+    <t>01.06.202529</t>
+  </si>
+  <si>
+    <t>01.06.202530</t>
+  </si>
+  <si>
+    <t>01.06.202531</t>
+  </si>
+  <si>
+    <t>01.06.202532</t>
+  </si>
+  <si>
+    <t>01.06.202533</t>
+  </si>
+  <si>
+    <t>01.06.202534</t>
+  </si>
+  <si>
+    <t>01.06.202535</t>
+  </si>
+  <si>
+    <t>01.06.202536</t>
+  </si>
+  <si>
+    <t>01.06.202537</t>
+  </si>
+  <si>
+    <t>01.06.202538</t>
+  </si>
+  <si>
+    <t>01.06.202539</t>
+  </si>
+  <si>
+    <t>01.06.202540</t>
+  </si>
+  <si>
+    <t>01.06.202541</t>
+  </si>
+  <si>
+    <t>01.06.202542</t>
+  </si>
+  <si>
+    <t>01.06.202543</t>
+  </si>
+  <si>
+    <t>01.06.202544</t>
+  </si>
+  <si>
+    <t>01.06.202545</t>
+  </si>
+  <si>
+    <t>01.06.202546</t>
+  </si>
+  <si>
+    <t>01.06.202547</t>
+  </si>
+  <si>
+    <t>01.06.202548</t>
+  </si>
+  <si>
+    <t>01.06.202549</t>
+  </si>
+  <si>
+    <t>01.06.202550</t>
+  </si>
+  <si>
+    <t>01.06.202551</t>
+  </si>
+  <si>
+    <t>01.06.202552</t>
+  </si>
+  <si>
+    <t>01.06.202553</t>
+  </si>
+  <si>
+    <t>01.06.202554</t>
+  </si>
+  <si>
+    <t>01.06.202555</t>
+  </si>
+  <si>
+    <t>01.06.202556</t>
+  </si>
+  <si>
+    <t>01.06.202557</t>
+  </si>
+  <si>
+    <t>01.06.202558</t>
+  </si>
+  <si>
+    <t>01.06.202559</t>
+  </si>
+  <si>
+    <t>01.06.202560</t>
+  </si>
+  <si>
+    <t>01.06.202561</t>
+  </si>
+  <si>
+    <t>01.06.202562</t>
+  </si>
+  <si>
+    <t>01.06.202563</t>
+  </si>
+  <si>
+    <t>01.06.202564</t>
+  </si>
+  <si>
+    <t>01.06.202565</t>
+  </si>
+  <si>
+    <t>01.06.202566</t>
+  </si>
+  <si>
+    <t>01.06.202567</t>
+  </si>
+  <si>
+    <t>01.06.202568</t>
+  </si>
+  <si>
+    <t>01.06.202569</t>
+  </si>
+  <si>
+    <t>01.06.202570</t>
+  </si>
+  <si>
+    <t>01.06.202571</t>
+  </si>
+  <si>
+    <t>01.06.202572</t>
+  </si>
+  <si>
+    <t>01.06.202573</t>
+  </si>
+  <si>
+    <t>01.06.202574</t>
+  </si>
+  <si>
+    <t>01.06.202575</t>
+  </si>
+  <si>
+    <t>01.06.202576</t>
+  </si>
+  <si>
+    <t>01.06.202577</t>
+  </si>
+  <si>
+    <t>01.06.202578</t>
+  </si>
+  <si>
+    <t>01.06.202579</t>
+  </si>
+  <si>
+    <t>01.06.202580</t>
+  </si>
+  <si>
+    <t>01.06.202581</t>
+  </si>
+  <si>
+    <t>01.06.202582</t>
+  </si>
+  <si>
+    <t>01.06.202583</t>
+  </si>
+  <si>
+    <t>01.06.202584</t>
+  </si>
+  <si>
+    <t>01.06.202585</t>
+  </si>
+  <si>
+    <t>01.06.202586</t>
+  </si>
+  <si>
+    <t>01.06.202587</t>
+  </si>
+  <si>
+    <t>01.06.202588</t>
+  </si>
+  <si>
+    <t>01.06.202589</t>
+  </si>
+  <si>
+    <t>01.06.202590</t>
+  </si>
+  <si>
+    <t>01.06.202591</t>
+  </si>
+  <si>
+    <t>01.06.202592</t>
+  </si>
+  <si>
+    <t>01.06.202593</t>
+  </si>
+  <si>
+    <t>01.06.202594</t>
+  </si>
+  <si>
+    <t>01.06.202595</t>
+  </si>
+  <si>
+    <t>01.06.202596</t>
+  </si>
+  <si>
+    <t>02.06.20251</t>
+  </si>
+  <si>
+    <t>02.06.20252</t>
+  </si>
+  <si>
+    <t>02.06.20253</t>
+  </si>
+  <si>
+    <t>02.06.20254</t>
+  </si>
+  <si>
+    <t>02.06.20255</t>
+  </si>
+  <si>
+    <t>02.06.20256</t>
+  </si>
+  <si>
+    <t>02.06.20257</t>
+  </si>
+  <si>
+    <t>02.06.20258</t>
+  </si>
+  <si>
+    <t>02.06.20259</t>
+  </si>
+  <si>
+    <t>02.06.202510</t>
+  </si>
+  <si>
+    <t>02.06.202511</t>
+  </si>
+  <si>
+    <t>02.06.202512</t>
+  </si>
+  <si>
+    <t>02.06.202513</t>
+  </si>
+  <si>
+    <t>02.06.202514</t>
+  </si>
+  <si>
+    <t>02.06.202515</t>
+  </si>
+  <si>
+    <t>02.06.202516</t>
+  </si>
+  <si>
+    <t>02.06.202517</t>
+  </si>
+  <si>
+    <t>02.06.202518</t>
+  </si>
+  <si>
+    <t>02.06.202519</t>
+  </si>
+  <si>
+    <t>02.06.202520</t>
+  </si>
+  <si>
+    <t>02.06.202521</t>
+  </si>
+  <si>
+    <t>02.06.202522</t>
+  </si>
+  <si>
+    <t>02.06.202523</t>
+  </si>
+  <si>
+    <t>02.06.202524</t>
+  </si>
+  <si>
+    <t>02.06.202525</t>
+  </si>
+  <si>
+    <t>02.06.202526</t>
+  </si>
+  <si>
+    <t>02.06.202527</t>
+  </si>
+  <si>
+    <t>02.06.202528</t>
+  </si>
+  <si>
+    <t>02.06.202529</t>
+  </si>
+  <si>
+    <t>02.06.202530</t>
+  </si>
+  <si>
+    <t>02.06.202531</t>
+  </si>
+  <si>
+    <t>02.06.202532</t>
+  </si>
+  <si>
+    <t>02.06.202533</t>
+  </si>
+  <si>
+    <t>02.06.202534</t>
+  </si>
+  <si>
+    <t>02.06.202535</t>
+  </si>
+  <si>
+    <t>02.06.202536</t>
+  </si>
+  <si>
+    <t>02.06.202537</t>
+  </si>
+  <si>
+    <t>02.06.202538</t>
+  </si>
+  <si>
+    <t>02.06.202539</t>
+  </si>
+  <si>
+    <t>02.06.202540</t>
   </si>
 </sst>
 </file>
@@ -759,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,13 +1399,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>12.187</v>
       </c>
       <c r="C2">
-        <v>16.596</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -801,13 +1416,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45806.01041666666</v>
+        <v>45807.01041666666</v>
       </c>
       <c r="B3">
-        <v>5.245</v>
+        <v>16.47</v>
       </c>
       <c r="C3">
-        <v>0.8129999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -818,10 +1433,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45806.02083333334</v>
+        <v>45807.02083333334</v>
       </c>
       <c r="B4">
-        <v>15.268</v>
+        <v>14.575</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -835,13 +1450,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45806.03125</v>
+        <v>45807.03125</v>
       </c>
       <c r="B5">
-        <v>13.366</v>
+        <v>3.637</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.129</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -852,13 +1467,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45806.04166666666</v>
+        <v>45807.04166666666</v>
       </c>
       <c r="B6">
-        <v>13.141</v>
+        <v>5.038</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.118</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -869,13 +1484,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45806.05208333334</v>
+        <v>45807.05208333334</v>
       </c>
       <c r="B7">
-        <v>10.799</v>
+        <v>1.29</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -886,13 +1501,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45806.0625</v>
+        <v>45807.0625</v>
       </c>
       <c r="B8">
-        <v>6.326</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.115</v>
+        <v>6.198</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -903,13 +1518,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45806.07291666666</v>
+        <v>45807.07291666666</v>
       </c>
       <c r="B9">
-        <v>3.219</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.723</v>
+        <v>14.092</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -920,13 +1535,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45806.08333333334</v>
+        <v>45807.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.872</v>
+        <v>14.61</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -937,13 +1552,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45806.09375</v>
+        <v>45807.09375</v>
       </c>
       <c r="B11">
-        <v>9.763999999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.464</v>
+        <v>11.589</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -954,13 +1569,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45806.10416666666</v>
+        <v>45807.10416666666</v>
       </c>
       <c r="B12">
-        <v>16.066</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.042</v>
+        <v>4.1</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -971,13 +1586,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45806.11458333334</v>
+        <v>45807.11458333334</v>
       </c>
       <c r="B13">
-        <v>28.424</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11.145</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -988,13 +1603,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45806.125</v>
+        <v>45807.125</v>
       </c>
       <c r="B14">
-        <v>6.822</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.86</v>
+        <v>9.952999999999999</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1005,13 +1620,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45806.13541666666</v>
+        <v>45807.13541666666</v>
       </c>
       <c r="B15">
-        <v>8.356999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.252</v>
+        <v>1.711</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1022,13 +1637,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45806.14583333334</v>
+        <v>45807.14583333334</v>
       </c>
       <c r="B16">
-        <v>19.921</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.234</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1039,13 +1654,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45806.15625</v>
+        <v>45807.15625</v>
       </c>
       <c r="B17">
-        <v>39.577</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.965</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1056,13 +1671,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45806.16666666666</v>
+        <v>45807.16666666666</v>
       </c>
       <c r="B18">
-        <v>13.781</v>
+        <v>0.017</v>
       </c>
       <c r="C18">
-        <v>0.646</v>
+        <v>2.121</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1073,13 +1688,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45806.17708333334</v>
+        <v>45807.17708333334</v>
       </c>
       <c r="B19">
-        <v>20.167</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.379</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1090,13 +1705,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45806.1875</v>
+        <v>45807.1875</v>
       </c>
       <c r="B20">
-        <v>16.654</v>
+        <v>0.02</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5.745</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1107,13 +1722,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45806.19791666666</v>
+        <v>45807.19791666666</v>
       </c>
       <c r="B21">
-        <v>31.978</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4.214</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1124,13 +1739,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45806.20833333334</v>
+        <v>45807.20833333334</v>
       </c>
       <c r="B22">
-        <v>5.857</v>
+        <v>6.28</v>
       </c>
       <c r="C22">
-        <v>1.766</v>
+        <v>0.065</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1141,13 +1756,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45806.21875</v>
+        <v>45807.21875</v>
       </c>
       <c r="B23">
-        <v>2.788</v>
+        <v>8.981</v>
       </c>
       <c r="C23">
-        <v>0.878</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1158,13 +1773,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45806.22916666666</v>
+        <v>45807.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.468</v>
+        <v>1.886</v>
       </c>
       <c r="C24">
-        <v>1.367</v>
+        <v>0.052</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1175,13 +1790,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45806.23958333334</v>
+        <v>45807.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.018</v>
+        <v>13.915</v>
       </c>
       <c r="C25">
-        <v>6.301</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1192,13 +1807,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45806.25</v>
+        <v>45807.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15.104</v>
       </c>
       <c r="C26">
-        <v>13.682</v>
+        <v>0.002</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1209,13 +1824,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45806.26041666666</v>
+        <v>45807.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>18.041</v>
       </c>
       <c r="C27">
-        <v>12.378</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1226,13 +1841,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45806.27083333334</v>
+        <v>45807.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>46.775</v>
       </c>
       <c r="C28">
-        <v>31.726</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1243,13 +1858,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45806.28125</v>
+        <v>45807.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>39.837</v>
       </c>
       <c r="C29">
-        <v>23.263</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1260,13 +1875,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45806.29166666666</v>
+        <v>45807.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>56.227</v>
       </c>
       <c r="C30">
-        <v>31.974</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1277,13 +1892,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45806.30208333334</v>
+        <v>45807.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>53.945</v>
       </c>
       <c r="C31">
-        <v>10.461</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1294,13 +1909,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45806.3125</v>
+        <v>45807.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>13.257</v>
       </c>
       <c r="C32">
-        <v>26.794</v>
+        <v>0.332</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1311,13 +1926,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45806.32291666666</v>
+        <v>45807.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>32.36</v>
+        <v>2.002</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1328,13 +1943,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45806.33333333334</v>
+        <v>45807.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.667</v>
       </c>
       <c r="C34">
-        <v>49.499</v>
+        <v>3.006</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1345,13 +1960,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45806.34375</v>
+        <v>45807.34375</v>
       </c>
       <c r="B35">
-        <v>0.001</v>
+        <v>1.473</v>
       </c>
       <c r="C35">
-        <v>20.732</v>
+        <v>2.399</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1362,13 +1977,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45806.35416666666</v>
+        <v>45807.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>11.628</v>
+        <v>14.027</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1379,13 +1994,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45806.36458333334</v>
+        <v>45807.36458333334</v>
       </c>
       <c r="B37">
-        <v>22.352</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.76</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1396,13 +2011,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45806.375</v>
+        <v>45807.375</v>
       </c>
       <c r="B38">
-        <v>76.205</v>
+        <v>35.035</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1413,13 +2028,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45806.38541666666</v>
+        <v>45807.38541666666</v>
       </c>
       <c r="B39">
-        <v>32.783</v>
+        <v>12.001</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1430,13 +2045,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45806.39583333334</v>
+        <v>45807.39583333334</v>
       </c>
       <c r="B40">
-        <v>1.396</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C40">
-        <v>2.835</v>
+        <v>3.439</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1447,13 +2062,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45806.40625</v>
+        <v>45807.40625</v>
       </c>
       <c r="B41">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>6.713</v>
+        <v>2.605</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1464,13 +2079,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45806.41666666666</v>
+        <v>45807.41666666666</v>
       </c>
       <c r="B42">
-        <v>11.661</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1.376</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1481,13 +2096,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45806.42708333334</v>
+        <v>45807.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>15.307</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1498,13 +2113,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45806.4375</v>
+        <v>45807.4375</v>
       </c>
       <c r="B44">
-        <v>2.564</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1.249</v>
+        <v>4.595</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1515,13 +2130,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45806.44791666666</v>
+        <v>45807.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.674</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1.217</v>
+        <v>5.229</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1532,13 +2147,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45806.45833333334</v>
+        <v>45807.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.115</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>13.685</v>
+        <v>27.561</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1549,13 +2164,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45806.46875</v>
+        <v>45807.46875</v>
       </c>
       <c r="B47">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>10.472</v>
+        <v>15.512</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1566,13 +2181,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45806.47916666666</v>
+        <v>45807.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="C48">
-        <v>51.838</v>
+        <v>2.922</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1583,13 +2198,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45806.48958333334</v>
+        <v>45807.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2.041</v>
       </c>
       <c r="C49">
-        <v>58.819</v>
+        <v>2.215</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1600,13 +2215,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45806.5</v>
+        <v>45807.5</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7.991</v>
       </c>
       <c r="C50">
-        <v>47.566</v>
+        <v>0.544</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1617,13 +2232,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45806.51041666666</v>
+        <v>45807.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>22.721</v>
       </c>
       <c r="C51">
-        <v>64.27800000000001</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1634,13 +2249,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45806.52083333334</v>
+        <v>45807.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>18.343</v>
       </c>
       <c r="C52">
-        <v>68.7</v>
+        <v>0.025</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1651,13 +2266,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45806.53125</v>
+        <v>45807.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>34.811</v>
       </c>
       <c r="C53">
-        <v>33.051</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1668,13 +2283,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45806.54166666666</v>
+        <v>45807.54166666666</v>
       </c>
       <c r="B54">
-        <v>3.395</v>
+        <v>37.258</v>
       </c>
       <c r="C54">
-        <v>0.268</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1685,13 +2300,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45806.55208333334</v>
+        <v>45807.55208333334</v>
       </c>
       <c r="B55">
-        <v>7.73</v>
+        <v>6.272</v>
       </c>
       <c r="C55">
-        <v>0.031</v>
+        <v>0.86</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1702,13 +2317,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45806.5625</v>
+        <v>45807.5625</v>
       </c>
       <c r="B56">
-        <v>0.364</v>
+        <v>9.615</v>
       </c>
       <c r="C56">
-        <v>20.244</v>
+        <v>1.244</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1719,13 +2334,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45806.57291666666</v>
+        <v>45807.57291666666</v>
       </c>
       <c r="B57">
-        <v>1.983</v>
+        <v>17.529</v>
       </c>
       <c r="C57">
-        <v>15.301</v>
+        <v>0.096</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1736,13 +2351,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45806.58333333334</v>
+        <v>45807.58333333334</v>
       </c>
       <c r="B58">
-        <v>14.303</v>
+        <v>12.976</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1753,13 +2368,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45806.59375</v>
+        <v>45807.59375</v>
       </c>
       <c r="B59">
-        <v>6.78</v>
+        <v>4.894</v>
       </c>
       <c r="C59">
-        <v>2.113</v>
+        <v>2.038</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1770,13 +2385,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45806.60416666666</v>
+        <v>45807.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.114</v>
+        <v>20.803</v>
       </c>
       <c r="C60">
-        <v>7.868</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1787,13 +2402,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45806.61458333334</v>
+        <v>45807.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>31.23</v>
       </c>
       <c r="C61">
-        <v>17.112</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1804,13 +2419,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45806.625</v>
+        <v>45807.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>3.309</v>
       </c>
       <c r="C62">
-        <v>30.43</v>
+        <v>9.619</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1821,13 +2436,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45806.63541666666</v>
+        <v>45807.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>12.659</v>
+        <v>22.833</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1838,13 +2453,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45806.64583333334</v>
+        <v>45807.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2.389</v>
       </c>
       <c r="C64">
-        <v>21.394</v>
+        <v>5.601</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1855,13 +2470,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45806.65625</v>
+        <v>45807.65625</v>
       </c>
       <c r="B65">
-        <v>5.52</v>
+        <v>2.739</v>
       </c>
       <c r="C65">
-        <v>16.329</v>
+        <v>11.72</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1872,13 +2487,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45806.66666666666</v>
+        <v>45807.66666666666</v>
       </c>
       <c r="B66">
-        <v>24.113</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0.123</v>
+        <v>84.17700000000001</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1889,13 +2504,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45806.67708333334</v>
+        <v>45807.67708333334</v>
       </c>
       <c r="B67">
-        <v>20.541</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>74.40900000000001</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1906,13 +2521,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45806.6875</v>
+        <v>45807.6875</v>
       </c>
       <c r="B68">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>10.284</v>
+        <v>34.086</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1923,13 +2538,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45806.69791666666</v>
+        <v>45807.69791666666</v>
       </c>
       <c r="B69">
-        <v>3.035</v>
+        <v>3.732</v>
       </c>
       <c r="C69">
-        <v>6.708</v>
+        <v>8.387</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1940,13 +2555,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45806.70833333334</v>
+        <v>45807.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>6.002</v>
+        <v>57.27</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1957,13 +2572,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45806.71875</v>
+        <v>45807.71875</v>
       </c>
       <c r="B71">
-        <v>0.62</v>
+        <v>0.895</v>
       </c>
       <c r="C71">
-        <v>3.498</v>
+        <v>3.104</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1974,13 +2589,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45806.72916666666</v>
+        <v>45807.72916666666</v>
       </c>
       <c r="B72">
-        <v>2.489</v>
+        <v>5.036</v>
       </c>
       <c r="C72">
-        <v>0.395</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1991,13 +2606,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45806.73958333334</v>
+        <v>45807.73958333334</v>
       </c>
       <c r="B73">
-        <v>7.612</v>
+        <v>5.57</v>
       </c>
       <c r="C73">
-        <v>1.375</v>
+        <v>0.592</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2008,13 +2623,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45806.75</v>
+        <v>45807.75</v>
       </c>
       <c r="B74">
-        <v>0.014</v>
+        <v>5.267</v>
       </c>
       <c r="C74">
-        <v>10.368</v>
+        <v>2.889</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2025,13 +2640,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45806.76041666666</v>
+        <v>45807.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.021</v>
+        <v>21.077</v>
       </c>
       <c r="C75">
-        <v>7.611</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2042,13 +2657,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45806.77083333334</v>
+        <v>45807.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.218</v>
+        <v>13.121</v>
       </c>
       <c r="C76">
-        <v>9.499000000000001</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2059,13 +2674,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45806.78125</v>
+        <v>45807.78125</v>
       </c>
       <c r="B77">
-        <v>0.022</v>
+        <v>33.543</v>
       </c>
       <c r="C77">
-        <v>11.884</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2076,13 +2691,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45806.79166666666</v>
+        <v>45807.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>17.122</v>
       </c>
       <c r="C78">
-        <v>25.685</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2093,13 +2708,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45806.80208333334</v>
+        <v>45807.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>17.31</v>
       </c>
       <c r="C79">
-        <v>54.302</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2110,13 +2725,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45806.8125</v>
+        <v>45807.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>20.52</v>
       </c>
       <c r="C80">
-        <v>19.745</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2127,13 +2742,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45806.82291666666</v>
+        <v>45807.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.454</v>
+        <v>8.881</v>
       </c>
       <c r="C81">
-        <v>3.863</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2144,10 +2759,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45806.83333333334</v>
+        <v>45807.83333333334</v>
       </c>
       <c r="B82">
-        <v>17.1</v>
+        <v>23.981</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2161,10 +2776,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45806.84375</v>
+        <v>45807.84375</v>
       </c>
       <c r="B83">
-        <v>5.675</v>
+        <v>36.967</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2178,10 +2793,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45806.85416666666</v>
+        <v>45807.85416666666</v>
       </c>
       <c r="B84">
-        <v>3.7</v>
+        <v>18.32</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2195,13 +2810,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45806.86458333334</v>
+        <v>45807.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.414</v>
+        <v>8.609</v>
       </c>
       <c r="C85">
-        <v>5.115</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2212,10 +2827,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45806.875</v>
+        <v>45807.875</v>
       </c>
       <c r="B86">
-        <v>0.962</v>
+        <v>28.636</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2229,10 +2844,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45806.88541666666</v>
+        <v>45807.88541666666</v>
       </c>
       <c r="B87">
-        <v>6.717</v>
+        <v>52.138</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2246,13 +2861,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45806.89583333334</v>
+        <v>45807.89583333334</v>
       </c>
       <c r="B88">
-        <v>16.792</v>
+        <v>9.997999999999999</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2263,13 +2878,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45806.90625</v>
+        <v>45807.90625</v>
       </c>
       <c r="B89">
-        <v>17.292</v>
+        <v>0.018</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>14.215</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2280,10 +2895,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45806.91666666666</v>
+        <v>45807.91666666666</v>
       </c>
       <c r="B90">
-        <v>5.192</v>
+        <v>11.978</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2297,10 +2912,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45806.92708333334</v>
+        <v>45807.92708333334</v>
       </c>
       <c r="B91">
-        <v>5.707</v>
+        <v>18.718</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2314,13 +2929,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45806.9375</v>
+        <v>45807.9375</v>
       </c>
       <c r="B92">
-        <v>8.426</v>
+        <v>0.341</v>
       </c>
       <c r="C92">
-        <v>0.268</v>
+        <v>13.558</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2331,13 +2946,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45806.94791666666</v>
+        <v>45807.94791666666</v>
       </c>
       <c r="B93">
-        <v>3.629</v>
+        <v>6.875</v>
       </c>
       <c r="C93">
-        <v>0.734</v>
+        <v>1.537</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2348,13 +2963,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45806.95833333334</v>
+        <v>45807.95833333334</v>
       </c>
       <c r="B94">
-        <v>3.153</v>
+        <v>22.68</v>
       </c>
       <c r="C94">
-        <v>1.085</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2365,10 +2980,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B95">
-        <v>14.226</v>
+        <v>32.3</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2382,10 +2997,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45806.96875</v>
+        <v>45807.96875</v>
       </c>
       <c r="B96">
-        <v>14.226</v>
+        <v>32.3</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2399,10 +3014,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B97">
-        <v>12.391</v>
+        <v>9.356</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2416,10 +3031,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45806.97916666666</v>
+        <v>45807.97916666666</v>
       </c>
       <c r="B98">
-        <v>12.391</v>
+        <v>9.356</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2433,10 +3048,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B99">
-        <v>15.816</v>
+        <v>15.843</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2450,10 +3065,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45806.98958333334</v>
+        <v>45807.98958333334</v>
       </c>
       <c r="B100">
-        <v>15.816</v>
+        <v>15.843</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2467,10 +3082,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B101">
-        <v>12.187</v>
+        <v>2.996</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2484,10 +3099,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45807</v>
+        <v>45808</v>
       </c>
       <c r="B102">
-        <v>12.187</v>
+        <v>2.996</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2501,10 +3116,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B103">
-        <v>16.47</v>
+        <v>3.324</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2518,10 +3133,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45807.01041666666</v>
+        <v>45808.01041666666</v>
       </c>
       <c r="B104">
-        <v>16.47</v>
+        <v>3.324</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2535,13 +3150,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B105">
-        <v>14.575</v>
+        <v>8.223000000000001</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2552,13 +3167,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45807.02083333334</v>
+        <v>45808.02083333334</v>
       </c>
       <c r="B106">
-        <v>14.575</v>
+        <v>8.223000000000001</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2569,13 +3184,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B107">
-        <v>3.637</v>
+        <v>20.826</v>
       </c>
       <c r="C107">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2586,13 +3201,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45807.03125</v>
+        <v>45808.03125</v>
       </c>
       <c r="B108">
-        <v>3.637</v>
+        <v>20.826</v>
       </c>
       <c r="C108">
-        <v>1.129</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2603,13 +3218,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45807.04166666666</v>
+        <v>45808.04166666666</v>
       </c>
       <c r="B109">
-        <v>5.038</v>
+        <v>3.074</v>
       </c>
       <c r="C109">
-        <v>1.118</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2620,13 +3235,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45807.05208333334</v>
+        <v>45808.05208333334</v>
       </c>
       <c r="B110">
-        <v>1.29</v>
+        <v>3.891</v>
       </c>
       <c r="C110">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2637,13 +3252,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45807.0625</v>
+        <v>45808.0625</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>10.647</v>
       </c>
       <c r="C111">
-        <v>6.198</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2654,13 +3269,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45807.07291666666</v>
+        <v>45808.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>5.453</v>
       </c>
       <c r="C112">
-        <v>14.092</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2671,13 +3286,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45807.08333333334</v>
+        <v>45808.08333333334</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>7.277</v>
       </c>
       <c r="C113">
-        <v>14.61</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2688,13 +3303,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45807.09375</v>
+        <v>45808.09375</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>8.138999999999999</v>
       </c>
       <c r="C114">
-        <v>11.589</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2705,13 +3320,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45807.10416666666</v>
+        <v>45808.10416666666</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>5.336</v>
       </c>
       <c r="C115">
-        <v>4.1</v>
+        <v>0.254</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2722,13 +3337,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45807.11458333334</v>
+        <v>45808.11458333334</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>0.848</v>
       </c>
       <c r="C116">
-        <v>11.145</v>
+        <v>0.435</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2739,13 +3354,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45807.125</v>
+        <v>45808.125</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>10.582</v>
       </c>
       <c r="C117">
-        <v>9.952999999999999</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2756,13 +3371,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45807.13541666666</v>
+        <v>45808.13541666666</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>14.428</v>
       </c>
       <c r="C118">
-        <v>1.711</v>
+        <v>0.001</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2773,13 +3388,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45807.14583333334</v>
+        <v>45808.14583333334</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="C119">
-        <v>1.234</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2790,13 +3405,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45807.15625</v>
+        <v>45808.15625</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>13.172</v>
       </c>
       <c r="C120">
-        <v>1.965</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2807,13 +3422,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45807.16666666666</v>
+        <v>45808.16666666666</v>
       </c>
       <c r="B121">
-        <v>0.017</v>
+        <v>15.687</v>
       </c>
       <c r="C121">
-        <v>2.121</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2824,13 +3439,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45807.17708333334</v>
+        <v>45808.17708333334</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>3.445</v>
       </c>
       <c r="C122">
-        <v>2.379</v>
+        <v>1.523</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2841,13 +3456,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45807.1875</v>
+        <v>45808.1875</v>
       </c>
       <c r="B123">
-        <v>0.02</v>
+        <v>3.557</v>
       </c>
       <c r="C123">
-        <v>5.745</v>
+        <v>0.373</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2858,13 +3473,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45807.19791666666</v>
+        <v>45808.19791666666</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>3.421</v>
       </c>
       <c r="C124">
-        <v>4.214</v>
+        <v>4.131</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2875,13 +3490,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45807.20833333334</v>
+        <v>45808.20833333334</v>
       </c>
       <c r="B125">
-        <v>6.28</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0.065</v>
+        <v>18.071</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2892,13 +3507,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45807.21875</v>
+        <v>45808.21875</v>
       </c>
       <c r="B126">
-        <v>8.981</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>19.924</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2909,13 +3524,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45807.22916666666</v>
+        <v>45808.22916666666</v>
       </c>
       <c r="B127">
-        <v>1.886</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0.052</v>
+        <v>28.478</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2926,13 +3541,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45807.23958333334</v>
+        <v>45808.23958333334</v>
       </c>
       <c r="B128">
-        <v>13.915</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.08500000000000001</v>
+        <v>37.738</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2943,13 +3558,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45807.25</v>
+        <v>45808.25</v>
       </c>
       <c r="B129">
-        <v>15.104</v>
+        <v>0.256</v>
       </c>
       <c r="C129">
-        <v>0.002</v>
+        <v>4.525</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2960,13 +3575,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45807.26041666666</v>
+        <v>45808.26041666666</v>
       </c>
       <c r="B130">
-        <v>18.041</v>
+        <v>3.321</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -2977,10 +3592,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45807.27083333334</v>
+        <v>45808.27083333334</v>
       </c>
       <c r="B131">
-        <v>46.775</v>
+        <v>18.423</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2990,6 +3605,3729 @@
       </c>
       <c r="E131" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45808.28125</v>
+      </c>
+      <c r="B132">
+        <v>53.847</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="B133">
+        <v>31.221</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45808.30208333334</v>
+      </c>
+      <c r="B134">
+        <v>18.324</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45808.3125</v>
+      </c>
+      <c r="B135">
+        <v>11.235</v>
+      </c>
+      <c r="C135">
+        <v>2.301</v>
+      </c>
+      <c r="D135">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45808.32291666666</v>
+      </c>
+      <c r="B136">
+        <v>0.578</v>
+      </c>
+      <c r="C136">
+        <v>4.459</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45808.33333333334</v>
+      </c>
+      <c r="B137">
+        <v>18.241</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45808.34375</v>
+      </c>
+      <c r="B138">
+        <v>17.233</v>
+      </c>
+      <c r="C138">
+        <v>0.003</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45808.35416666666</v>
+      </c>
+      <c r="B139">
+        <v>7.262</v>
+      </c>
+      <c r="C139">
+        <v>0.062</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45808.36458333334</v>
+      </c>
+      <c r="B140">
+        <v>3.332</v>
+      </c>
+      <c r="C140">
+        <v>4.194</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45808.375</v>
+      </c>
+      <c r="B141">
+        <v>5.007</v>
+      </c>
+      <c r="C141">
+        <v>5.298</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45808.38541666666</v>
+      </c>
+      <c r="B142">
+        <v>0.221</v>
+      </c>
+      <c r="C142">
+        <v>12.463</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45808.39583333334</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>9.249000000000001</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45808.40625</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>12.421</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45808.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>40.493</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45808.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>35.817</v>
+      </c>
+      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45808.4375</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>10.824</v>
+      </c>
+      <c r="D147">
+        <v>43</v>
+      </c>
+      <c r="E147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45808.44791666666</v>
+      </c>
+      <c r="B148">
+        <v>2.163</v>
+      </c>
+      <c r="C148">
+        <v>0.732</v>
+      </c>
+      <c r="D148">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45808.45833333334</v>
+      </c>
+      <c r="B149">
+        <v>8.129</v>
+      </c>
+      <c r="C149">
+        <v>0.023</v>
+      </c>
+      <c r="D149">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45808.46875</v>
+      </c>
+      <c r="B150">
+        <v>7.358</v>
+      </c>
+      <c r="C150">
+        <v>2.27</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="E150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45808.47916666666</v>
+      </c>
+      <c r="B151">
+        <v>7.537</v>
+      </c>
+      <c r="C151">
+        <v>0.028</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45808.48958333334</v>
+      </c>
+      <c r="B152">
+        <v>10.516</v>
+      </c>
+      <c r="C152">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45808.5</v>
+      </c>
+      <c r="B153">
+        <v>20.731</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45808.51041666666</v>
+      </c>
+      <c r="B154">
+        <v>5.189</v>
+      </c>
+      <c r="C154">
+        <v>0.889</v>
+      </c>
+      <c r="D154">
+        <v>50</v>
+      </c>
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45808.52083333334</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>4.502</v>
+      </c>
+      <c r="D155">
+        <v>51</v>
+      </c>
+      <c r="E155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45808.53125</v>
+      </c>
+      <c r="B156">
+        <v>0.281</v>
+      </c>
+      <c r="C156">
+        <v>6.762</v>
+      </c>
+      <c r="D156">
+        <v>52</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45808.54166666666</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>31.814</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45808.55208333334</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>20.86</v>
+      </c>
+      <c r="D158">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45808.5625</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>15.665</v>
+      </c>
+      <c r="D159">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45808.57291666666</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>8.153</v>
+      </c>
+      <c r="D160">
+        <v>56</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45808.58333333334</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>10.32</v>
+      </c>
+      <c r="D161">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45808.59375</v>
+      </c>
+      <c r="B162">
+        <v>0.042</v>
+      </c>
+      <c r="C162">
+        <v>2.543</v>
+      </c>
+      <c r="D162">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45808.60416666666</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>7.603</v>
+      </c>
+      <c r="D163">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45808.61458333334</v>
+      </c>
+      <c r="B164">
+        <v>6.792</v>
+      </c>
+      <c r="C164">
+        <v>1.098</v>
+      </c>
+      <c r="D164">
+        <v>60</v>
+      </c>
+      <c r="E164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45808.625</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>4.003</v>
+      </c>
+      <c r="D165">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45808.63541666666</v>
+      </c>
+      <c r="B166">
+        <v>0.021</v>
+      </c>
+      <c r="C166">
+        <v>8.744</v>
+      </c>
+      <c r="D166">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45808.64583333334</v>
+      </c>
+      <c r="B167">
+        <v>0.005</v>
+      </c>
+      <c r="C167">
+        <v>8.427</v>
+      </c>
+      <c r="D167">
+        <v>63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45808.65625</v>
+      </c>
+      <c r="B168">
+        <v>0.007</v>
+      </c>
+      <c r="C168">
+        <v>10.969</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45808.66666666666</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>44.325</v>
+      </c>
+      <c r="D169">
+        <v>65</v>
+      </c>
+      <c r="E169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45808.67708333334</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>28.674</v>
+      </c>
+      <c r="D170">
+        <v>66</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45808.6875</v>
+      </c>
+      <c r="B171">
+        <v>19.458</v>
+      </c>
+      <c r="C171">
+        <v>1.016</v>
+      </c>
+      <c r="D171">
+        <v>67</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45808.69791666666</v>
+      </c>
+      <c r="B172">
+        <v>6.37</v>
+      </c>
+      <c r="C172">
+        <v>6.515</v>
+      </c>
+      <c r="D172">
+        <v>68</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45808.70833333334</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>42.306</v>
+      </c>
+      <c r="D173">
+        <v>69</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45808.71875</v>
+      </c>
+      <c r="B174">
+        <v>0.045</v>
+      </c>
+      <c r="C174">
+        <v>12.749</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45808.72916666666</v>
+      </c>
+      <c r="B175">
+        <v>6.853</v>
+      </c>
+      <c r="C175">
+        <v>0.179</v>
+      </c>
+      <c r="D175">
+        <v>71</v>
+      </c>
+      <c r="E175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45808.73958333334</v>
+      </c>
+      <c r="B176">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C176">
+        <v>0.293</v>
+      </c>
+      <c r="D176">
+        <v>72</v>
+      </c>
+      <c r="E176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45808.75</v>
+      </c>
+      <c r="B177">
+        <v>0.002</v>
+      </c>
+      <c r="C177">
+        <v>40.344</v>
+      </c>
+      <c r="D177">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45808.76041666666</v>
+      </c>
+      <c r="B178">
+        <v>0.029</v>
+      </c>
+      <c r="C178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D178">
+        <v>74</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45808.77083333334</v>
+      </c>
+      <c r="B179">
+        <v>0.714</v>
+      </c>
+      <c r="C179">
+        <v>1.658</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45808.78125</v>
+      </c>
+      <c r="B180">
+        <v>3.717</v>
+      </c>
+      <c r="C180">
+        <v>0.073</v>
+      </c>
+      <c r="D180">
+        <v>76</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45808.79166666666</v>
+      </c>
+      <c r="B181">
+        <v>0.001</v>
+      </c>
+      <c r="C181">
+        <v>11.6</v>
+      </c>
+      <c r="D181">
+        <v>77</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45808.80208333334</v>
+      </c>
+      <c r="B182">
+        <v>0.016</v>
+      </c>
+      <c r="C182">
+        <v>5.495</v>
+      </c>
+      <c r="D182">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45808.8125</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>4.597</v>
+      </c>
+      <c r="D183">
+        <v>79</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45808.82291666666</v>
+      </c>
+      <c r="B184">
+        <v>1.349</v>
+      </c>
+      <c r="C184">
+        <v>2.921</v>
+      </c>
+      <c r="D184">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45808.83333333334</v>
+      </c>
+      <c r="B185">
+        <v>0.057</v>
+      </c>
+      <c r="C185">
+        <v>9.944000000000001</v>
+      </c>
+      <c r="D185">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45808.84375</v>
+      </c>
+      <c r="B186">
+        <v>0.93</v>
+      </c>
+      <c r="C186">
+        <v>5.375</v>
+      </c>
+      <c r="D186">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45808.85416666666</v>
+      </c>
+      <c r="B187">
+        <v>21.591</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45808.86458333334</v>
+      </c>
+      <c r="B188">
+        <v>28.112</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="B189">
+        <v>9.369</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>85</v>
+      </c>
+      <c r="E189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45808.88541666666</v>
+      </c>
+      <c r="B190">
+        <v>28.321</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45808.89583333334</v>
+      </c>
+      <c r="B191">
+        <v>2.192</v>
+      </c>
+      <c r="C191">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D191">
+        <v>87</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45808.90625</v>
+      </c>
+      <c r="B192">
+        <v>1.272</v>
+      </c>
+      <c r="C192">
+        <v>0.055</v>
+      </c>
+      <c r="D192">
+        <v>88</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45808.91666666666</v>
+      </c>
+      <c r="B193">
+        <v>12.189</v>
+      </c>
+      <c r="C193">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D193">
+        <v>89</v>
+      </c>
+      <c r="E193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45808.92708333334</v>
+      </c>
+      <c r="B194">
+        <v>49.416</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45808.9375</v>
+      </c>
+      <c r="B195">
+        <v>18.83</v>
+      </c>
+      <c r="C195">
+        <v>0.004</v>
+      </c>
+      <c r="D195">
+        <v>91</v>
+      </c>
+      <c r="E195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45808.94791666666</v>
+      </c>
+      <c r="B196">
+        <v>2.588</v>
+      </c>
+      <c r="C196">
+        <v>1.333</v>
+      </c>
+      <c r="D196">
+        <v>92</v>
+      </c>
+      <c r="E196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45808.95833333334</v>
+      </c>
+      <c r="B197">
+        <v>3.415</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>93</v>
+      </c>
+      <c r="E197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45808.96875</v>
+      </c>
+      <c r="B198">
+        <v>5.225</v>
+      </c>
+      <c r="C198">
+        <v>0.985</v>
+      </c>
+      <c r="D198">
+        <v>94</v>
+      </c>
+      <c r="E198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45808.96875</v>
+      </c>
+      <c r="B199">
+        <v>5.225</v>
+      </c>
+      <c r="C199">
+        <v>0.985</v>
+      </c>
+      <c r="D199">
+        <v>94</v>
+      </c>
+      <c r="E199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>1.913</v>
+      </c>
+      <c r="C200">
+        <v>2.361</v>
+      </c>
+      <c r="D200">
+        <v>95</v>
+      </c>
+      <c r="E200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45808.97916666666</v>
+      </c>
+      <c r="B201">
+        <v>1.913</v>
+      </c>
+      <c r="C201">
+        <v>2.361</v>
+      </c>
+      <c r="D201">
+        <v>95</v>
+      </c>
+      <c r="E201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45808.98958333334</v>
+      </c>
+      <c r="B202">
+        <v>0.137</v>
+      </c>
+      <c r="C202">
+        <v>7.084</v>
+      </c>
+      <c r="D202">
+        <v>96</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45808.98958333334</v>
+      </c>
+      <c r="B203">
+        <v>0.137</v>
+      </c>
+      <c r="C203">
+        <v>7.084</v>
+      </c>
+      <c r="D203">
+        <v>96</v>
+      </c>
+      <c r="E203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B204">
+        <v>3.706</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B205">
+        <v>3.706</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B206">
+        <v>1.899</v>
+      </c>
+      <c r="C206">
+        <v>2.023</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45809.01041666666</v>
+      </c>
+      <c r="B207">
+        <v>1.899</v>
+      </c>
+      <c r="C207">
+        <v>2.023</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B208">
+        <v>0.27</v>
+      </c>
+      <c r="C208">
+        <v>1.391</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45809.02083333334</v>
+      </c>
+      <c r="B209">
+        <v>0.27</v>
+      </c>
+      <c r="C209">
+        <v>1.391</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B210">
+        <v>2.97</v>
+      </c>
+      <c r="C210">
+        <v>0.373</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45809.03125</v>
+      </c>
+      <c r="B211">
+        <v>2.97</v>
+      </c>
+      <c r="C211">
+        <v>0.373</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45809.04166666666</v>
+      </c>
+      <c r="B212">
+        <v>11.029</v>
+      </c>
+      <c r="C212">
+        <v>0.015</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45809.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>1.882</v>
+      </c>
+      <c r="C213">
+        <v>0.081</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45809.0625</v>
+      </c>
+      <c r="B214">
+        <v>0.025</v>
+      </c>
+      <c r="C214">
+        <v>1.533</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45809.07291666666</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0.447</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45809.09375</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45809.10416666666</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45809.11458333334</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45809.125</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45809.13541666666</v>
+      </c>
+      <c r="B221">
+        <v>0.188</v>
+      </c>
+      <c r="C221">
+        <v>0.142</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45809.14583333334</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>1.294</v>
+      </c>
+      <c r="D222">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45809.15625</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>1.205</v>
+      </c>
+      <c r="D223">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45809.16666666666</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>20.468</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45809.17708333334</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>18.944</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45809.1875</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>5.349</v>
+      </c>
+      <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45809.19791666666</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1.012</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45809.20833333334</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>7.098</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45809.21875</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>2.477</v>
+      </c>
+      <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45809.22916666666</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0.602</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45809.23958333334</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>13.685</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45809.25</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>45.501</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45809.26041666666</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>22.91</v>
+      </c>
+      <c r="D233">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45809.27083333334</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>10.302</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45809.28125</v>
+      </c>
+      <c r="B235">
+        <v>0.03</v>
+      </c>
+      <c r="C235">
+        <v>0.394</v>
+      </c>
+      <c r="D235">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45809.29166666666</v>
+      </c>
+      <c r="B236">
+        <v>0.001</v>
+      </c>
+      <c r="C236">
+        <v>3.25</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45809.30208333334</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1.943</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45809.3125</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>1.43</v>
+      </c>
+      <c r="D238">
+        <v>31</v>
+      </c>
+      <c r="E238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45809.32291666666</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0.458</v>
+      </c>
+      <c r="D239">
+        <v>32</v>
+      </c>
+      <c r="E239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45809.33333333334</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>12.43</v>
+      </c>
+      <c r="D240">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45809.34375</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>9.891999999999999</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>5.673</v>
+      </c>
+      <c r="D242">
+        <v>35</v>
+      </c>
+      <c r="E242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45809.36458333334</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>8.613</v>
+      </c>
+      <c r="D243">
+        <v>36</v>
+      </c>
+      <c r="E243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45809.375</v>
+      </c>
+      <c r="B244">
+        <v>0.412</v>
+      </c>
+      <c r="C244">
+        <v>11.768</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45809.38541666666</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>20.589</v>
+      </c>
+      <c r="D245">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45809.39583333334</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>15.037</v>
+      </c>
+      <c r="D246">
+        <v>39</v>
+      </c>
+      <c r="E246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45809.40625</v>
+      </c>
+      <c r="B247">
+        <v>2.688</v>
+      </c>
+      <c r="C247">
+        <v>1.808</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B248">
+        <v>15.809</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>41</v>
+      </c>
+      <c r="E248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45809.42708333334</v>
+      </c>
+      <c r="B249">
+        <v>19.927</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45809.4375</v>
+      </c>
+      <c r="B250">
+        <v>35.663</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>43</v>
+      </c>
+      <c r="E250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45809.44791666666</v>
+      </c>
+      <c r="B251">
+        <v>9.891</v>
+      </c>
+      <c r="C251">
+        <v>1.997</v>
+      </c>
+      <c r="D251">
+        <v>44</v>
+      </c>
+      <c r="E251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="B252">
+        <v>0.448</v>
+      </c>
+      <c r="C252">
+        <v>18.932</v>
+      </c>
+      <c r="D252">
+        <v>45</v>
+      </c>
+      <c r="E252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45809.46875</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>28.478</v>
+      </c>
+      <c r="D253">
+        <v>46</v>
+      </c>
+      <c r="E253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45809.47916666666</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>18.133</v>
+      </c>
+      <c r="D254">
+        <v>47</v>
+      </c>
+      <c r="E254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45809.48958333334</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>44.421</v>
+      </c>
+      <c r="D255">
+        <v>48</v>
+      </c>
+      <c r="E255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45809.5</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>62.908</v>
+      </c>
+      <c r="D256">
+        <v>49</v>
+      </c>
+      <c r="E256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45809.51041666666</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>67.5</v>
+      </c>
+      <c r="D257">
+        <v>50</v>
+      </c>
+      <c r="E257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45809.52083333334</v>
+      </c>
+      <c r="B258">
+        <v>1.716</v>
+      </c>
+      <c r="C258">
+        <v>9.875</v>
+      </c>
+      <c r="D258">
+        <v>51</v>
+      </c>
+      <c r="E258" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45809.53125</v>
+      </c>
+      <c r="B259">
+        <v>4.608</v>
+      </c>
+      <c r="C259">
+        <v>0.47</v>
+      </c>
+      <c r="D259">
+        <v>52</v>
+      </c>
+      <c r="E259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45809.54166666666</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>15.064</v>
+      </c>
+      <c r="D260">
+        <v>53</v>
+      </c>
+      <c r="E260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45809.55208333334</v>
+      </c>
+      <c r="B261">
+        <v>24.067</v>
+      </c>
+      <c r="C261">
+        <v>0.103</v>
+      </c>
+      <c r="D261">
+        <v>54</v>
+      </c>
+      <c r="E261" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45809.5625</v>
+      </c>
+      <c r="B262">
+        <v>16.692</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>55</v>
+      </c>
+      <c r="E262" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45809.57291666666</v>
+      </c>
+      <c r="B263">
+        <v>47.283</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>56</v>
+      </c>
+      <c r="E263" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45809.58333333334</v>
+      </c>
+      <c r="B264">
+        <v>1.986</v>
+      </c>
+      <c r="C264">
+        <v>16.298</v>
+      </c>
+      <c r="D264">
+        <v>57</v>
+      </c>
+      <c r="E264" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45809.59375</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>15.376</v>
+      </c>
+      <c r="D265">
+        <v>58</v>
+      </c>
+      <c r="E265" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45809.60416666666</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>25.952</v>
+      </c>
+      <c r="D266">
+        <v>59</v>
+      </c>
+      <c r="E266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45809.61458333334</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>12.909</v>
+      </c>
+      <c r="D267">
+        <v>60</v>
+      </c>
+      <c r="E267" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45809.625</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>12.805</v>
+      </c>
+      <c r="D268">
+        <v>61</v>
+      </c>
+      <c r="E268" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45809.63541666666</v>
+      </c>
+      <c r="B269">
+        <v>0.032</v>
+      </c>
+      <c r="C269">
+        <v>6.569</v>
+      </c>
+      <c r="D269">
+        <v>62</v>
+      </c>
+      <c r="E269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45809.64583333334</v>
+      </c>
+      <c r="B270">
+        <v>7.508</v>
+      </c>
+      <c r="C270">
+        <v>1.666</v>
+      </c>
+      <c r="D270">
+        <v>63</v>
+      </c>
+      <c r="E270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45809.65625</v>
+      </c>
+      <c r="B271">
+        <v>30.541</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>64</v>
+      </c>
+      <c r="E271" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="B272">
+        <v>0.533</v>
+      </c>
+      <c r="C272">
+        <v>22.735</v>
+      </c>
+      <c r="D272">
+        <v>65</v>
+      </c>
+      <c r="E272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45809.67708333334</v>
+      </c>
+      <c r="B273">
+        <v>0.193</v>
+      </c>
+      <c r="C273">
+        <v>7.569</v>
+      </c>
+      <c r="D273">
+        <v>66</v>
+      </c>
+      <c r="E273" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45809.6875</v>
+      </c>
+      <c r="B274">
+        <v>5.849</v>
+      </c>
+      <c r="C274">
+        <v>1.343</v>
+      </c>
+      <c r="D274">
+        <v>67</v>
+      </c>
+      <c r="E274" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45809.69791666666</v>
+      </c>
+      <c r="B275">
+        <v>3.918</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>68</v>
+      </c>
+      <c r="E275" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45809.70833333334</v>
+      </c>
+      <c r="B276">
+        <v>0.981</v>
+      </c>
+      <c r="C276">
+        <v>17.219</v>
+      </c>
+      <c r="D276">
+        <v>69</v>
+      </c>
+      <c r="E276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45809.71875</v>
+      </c>
+      <c r="B277">
+        <v>0.193</v>
+      </c>
+      <c r="C277">
+        <v>6.028</v>
+      </c>
+      <c r="D277">
+        <v>70</v>
+      </c>
+      <c r="E277" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45809.72916666666</v>
+      </c>
+      <c r="B278">
+        <v>0.463</v>
+      </c>
+      <c r="C278">
+        <v>7.134</v>
+      </c>
+      <c r="D278">
+        <v>71</v>
+      </c>
+      <c r="E278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45809.73958333334</v>
+      </c>
+      <c r="B279">
+        <v>0.54</v>
+      </c>
+      <c r="C279">
+        <v>2.98</v>
+      </c>
+      <c r="D279">
+        <v>72</v>
+      </c>
+      <c r="E279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45809.75</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>20.199</v>
+      </c>
+      <c r="D280">
+        <v>73</v>
+      </c>
+      <c r="E280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45809.76041666666</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>36.813</v>
+      </c>
+      <c r="D281">
+        <v>74</v>
+      </c>
+      <c r="E281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>34.038</v>
+      </c>
+      <c r="D282">
+        <v>75</v>
+      </c>
+      <c r="E282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45809.78125</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>12.059</v>
+      </c>
+      <c r="D283">
+        <v>76</v>
+      </c>
+      <c r="E283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45809.79166666666</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>40.933</v>
+      </c>
+      <c r="D284">
+        <v>77</v>
+      </c>
+      <c r="E284" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45809.80208333334</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>51.356</v>
+      </c>
+      <c r="D285">
+        <v>78</v>
+      </c>
+      <c r="E285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>34.366</v>
+      </c>
+      <c r="D286">
+        <v>79</v>
+      </c>
+      <c r="E286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45809.82291666666</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>17.103</v>
+      </c>
+      <c r="D287">
+        <v>80</v>
+      </c>
+      <c r="E287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45809.83333333334</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>30.252</v>
+      </c>
+      <c r="D288">
+        <v>81</v>
+      </c>
+      <c r="E288" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45809.84375</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>32.969</v>
+      </c>
+      <c r="D289">
+        <v>82</v>
+      </c>
+      <c r="E289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>19.758</v>
+      </c>
+      <c r="D290">
+        <v>83</v>
+      </c>
+      <c r="E290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45809.86458333334</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>20.946</v>
+      </c>
+      <c r="D291">
+        <v>84</v>
+      </c>
+      <c r="E291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45809.875</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>30.97</v>
+      </c>
+      <c r="D292">
+        <v>85</v>
+      </c>
+      <c r="E292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45809.88541666666</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>16.799</v>
+      </c>
+      <c r="D293">
+        <v>86</v>
+      </c>
+      <c r="E293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45809.89583333334</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>48.639</v>
+      </c>
+      <c r="D294">
+        <v>87</v>
+      </c>
+      <c r="E294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45809.90625</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>59.241</v>
+      </c>
+      <c r="D295">
+        <v>88</v>
+      </c>
+      <c r="E295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45809.91666666666</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>36.52</v>
+      </c>
+      <c r="D296">
+        <v>89</v>
+      </c>
+      <c r="E296" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45809.92708333334</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>25.612</v>
+      </c>
+      <c r="D297">
+        <v>90</v>
+      </c>
+      <c r="E297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45809.9375</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>26.351</v>
+      </c>
+      <c r="D298">
+        <v>91</v>
+      </c>
+      <c r="E298" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45809.94791666666</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>29.792</v>
+      </c>
+      <c r="D299">
+        <v>92</v>
+      </c>
+      <c r="E299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45809.95833333334</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>38.675</v>
+      </c>
+      <c r="D300">
+        <v>93</v>
+      </c>
+      <c r="E300" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>25.559</v>
+      </c>
+      <c r="D301">
+        <v>94</v>
+      </c>
+      <c r="E301" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45809.96875</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>25.559</v>
+      </c>
+      <c r="D302">
+        <v>94</v>
+      </c>
+      <c r="E302" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>37.939</v>
+      </c>
+      <c r="D303">
+        <v>95</v>
+      </c>
+      <c r="E303" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45809.97916666666</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>37.939</v>
+      </c>
+      <c r="D304">
+        <v>95</v>
+      </c>
+      <c r="E304" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>51.726</v>
+      </c>
+      <c r="D305">
+        <v>96</v>
+      </c>
+      <c r="E305" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>45809.98958333334</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>51.726</v>
+      </c>
+      <c r="D306">
+        <v>96</v>
+      </c>
+      <c r="E306" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>34.413</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>45810</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>34.413</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>50.902</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>45810.01041666666</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>50.902</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>57.209</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>45810.02083333334</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>57.209</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>23.757</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>45810.03125</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>23.757</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>45810.04166666666</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>6.504</v>
+      </c>
+      <c r="D315">
+        <v>5</v>
+      </c>
+      <c r="E315" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>45810.05208333334</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>6.401</v>
+      </c>
+      <c r="D316">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>45810.0625</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>11.211</v>
+      </c>
+      <c r="D317">
+        <v>7</v>
+      </c>
+      <c r="E317" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>45810.07291666666</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D318">
+        <v>8</v>
+      </c>
+      <c r="E318" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>45810.08333333334</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>22.381</v>
+      </c>
+      <c r="D319">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>45810.09375</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>14.747</v>
+      </c>
+      <c r="D320">
+        <v>10</v>
+      </c>
+      <c r="E320" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>45810.10416666666</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>12.737</v>
+      </c>
+      <c r="D321">
+        <v>11</v>
+      </c>
+      <c r="E321" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>45810.11458333334</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>20.68</v>
+      </c>
+      <c r="D322">
+        <v>12</v>
+      </c>
+      <c r="E322" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>45810.125</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>41.6</v>
+      </c>
+      <c r="D323">
+        <v>13</v>
+      </c>
+      <c r="E323" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>45810.13541666666</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>21.94</v>
+      </c>
+      <c r="D324">
+        <v>14</v>
+      </c>
+      <c r="E324" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>45810.14583333334</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>26.557</v>
+      </c>
+      <c r="D325">
+        <v>15</v>
+      </c>
+      <c r="E325" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>45810.15625</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>19.226</v>
+      </c>
+      <c r="D326">
+        <v>16</v>
+      </c>
+      <c r="E326" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>45810.16666666666</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>22.372</v>
+      </c>
+      <c r="D327">
+        <v>17</v>
+      </c>
+      <c r="E327" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>45810.17708333334</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>29.943</v>
+      </c>
+      <c r="D328">
+        <v>18</v>
+      </c>
+      <c r="E328" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>45810.1875</v>
+      </c>
+      <c r="B329">
+        <v>0.119</v>
+      </c>
+      <c r="C329">
+        <v>19.814</v>
+      </c>
+      <c r="D329">
+        <v>19</v>
+      </c>
+      <c r="E329" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>45810.19791666666</v>
+      </c>
+      <c r="B330">
+        <v>2.805</v>
+      </c>
+      <c r="C330">
+        <v>0.303</v>
+      </c>
+      <c r="D330">
+        <v>20</v>
+      </c>
+      <c r="E330" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>45810.20833333334</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>5.452</v>
+      </c>
+      <c r="D331">
+        <v>21</v>
+      </c>
+      <c r="E331" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>45810.21875</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>2.24</v>
+      </c>
+      <c r="D332">
+        <v>22</v>
+      </c>
+      <c r="E332" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>45810.22916666666</v>
+      </c>
+      <c r="B333">
+        <v>0.271</v>
+      </c>
+      <c r="C333">
+        <v>11.16</v>
+      </c>
+      <c r="D333">
+        <v>23</v>
+      </c>
+      <c r="E333" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>45810.23958333334</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>15.883</v>
+      </c>
+      <c r="D334">
+        <v>24</v>
+      </c>
+      <c r="E334" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>45810.25</v>
+      </c>
+      <c r="B335">
+        <v>0.537</v>
+      </c>
+      <c r="C335">
+        <v>6.923</v>
+      </c>
+      <c r="D335">
+        <v>25</v>
+      </c>
+      <c r="E335" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>45810.26041666666</v>
+      </c>
+      <c r="B336">
+        <v>0.423</v>
+      </c>
+      <c r="C336">
+        <v>10.825</v>
+      </c>
+      <c r="D336">
+        <v>26</v>
+      </c>
+      <c r="E336" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>45810.27083333334</v>
+      </c>
+      <c r="B337">
+        <v>3.416</v>
+      </c>
+      <c r="C337">
+        <v>2.885</v>
+      </c>
+      <c r="D337">
+        <v>27</v>
+      </c>
+      <c r="E337" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>45810.28125</v>
+      </c>
+      <c r="B338">
+        <v>1.969</v>
+      </c>
+      <c r="C338">
+        <v>4.705</v>
+      </c>
+      <c r="D338">
+        <v>28</v>
+      </c>
+      <c r="E338" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>45810.29166666666</v>
+      </c>
+      <c r="B339">
+        <v>0.876</v>
+      </c>
+      <c r="C339">
+        <v>6.551</v>
+      </c>
+      <c r="D339">
+        <v>29</v>
+      </c>
+      <c r="E339" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>45810.30208333334</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>14.88</v>
+      </c>
+      <c r="D340">
+        <v>30</v>
+      </c>
+      <c r="E340" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>45810.3125</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>16.592</v>
+      </c>
+      <c r="D341">
+        <v>31</v>
+      </c>
+      <c r="E341" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>45810.32291666666</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>21.985</v>
+      </c>
+      <c r="D342">
+        <v>32</v>
+      </c>
+      <c r="E342" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>45810.33333333334</v>
+      </c>
+      <c r="B343">
+        <v>0.3</v>
+      </c>
+      <c r="C343">
+        <v>5.812</v>
+      </c>
+      <c r="D343">
+        <v>33</v>
+      </c>
+      <c r="E343" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>45810.34375</v>
+      </c>
+      <c r="B344">
+        <v>0.008</v>
+      </c>
+      <c r="C344">
+        <v>9.670999999999999</v>
+      </c>
+      <c r="D344">
+        <v>34</v>
+      </c>
+      <c r="E344" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>45810.35416666666</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>13.18</v>
+      </c>
+      <c r="D345">
+        <v>35</v>
+      </c>
+      <c r="E345" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>45810.36458333334</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>6.472</v>
+      </c>
+      <c r="D346">
+        <v>36</v>
+      </c>
+      <c r="E346" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>45810.375</v>
+      </c>
+      <c r="B347">
+        <v>8.948</v>
+      </c>
+      <c r="C347">
+        <v>0.509</v>
+      </c>
+      <c r="D347">
+        <v>37</v>
+      </c>
+      <c r="E347" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>45810.38541666666</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>15.535</v>
+      </c>
+      <c r="D348">
+        <v>38</v>
+      </c>
+      <c r="E348" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>45810.39583333334</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>14.502</v>
+      </c>
+      <c r="D349">
+        <v>39</v>
+      </c>
+      <c r="E349" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>45810.40625</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>8.679</v>
+      </c>
+      <c r="D350">
+        <v>40</v>
+      </c>
+      <c r="E350" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,367 +31,415 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>12.06.20251</t>
-  </si>
-  <si>
-    <t>12.06.20252</t>
-  </si>
-  <si>
-    <t>12.06.20253</t>
-  </si>
-  <si>
-    <t>12.06.20254</t>
-  </si>
-  <si>
-    <t>12.06.20255</t>
-  </si>
-  <si>
-    <t>12.06.20256</t>
-  </si>
-  <si>
-    <t>12.06.20257</t>
-  </si>
-  <si>
-    <t>12.06.20258</t>
-  </si>
-  <si>
-    <t>12.06.20259</t>
-  </si>
-  <si>
-    <t>12.06.202510</t>
-  </si>
-  <si>
-    <t>12.06.202511</t>
-  </si>
-  <si>
-    <t>12.06.202512</t>
-  </si>
-  <si>
-    <t>12.06.202513</t>
-  </si>
-  <si>
-    <t>12.06.202514</t>
-  </si>
-  <si>
-    <t>12.06.202515</t>
-  </si>
-  <si>
-    <t>12.06.202516</t>
-  </si>
-  <si>
-    <t>12.06.202517</t>
-  </si>
-  <si>
-    <t>12.06.202518</t>
-  </si>
-  <si>
-    <t>12.06.202519</t>
-  </si>
-  <si>
-    <t>12.06.202520</t>
-  </si>
-  <si>
-    <t>12.06.202521</t>
-  </si>
-  <si>
-    <t>12.06.202522</t>
-  </si>
-  <si>
-    <t>12.06.202523</t>
-  </si>
-  <si>
-    <t>12.06.202524</t>
-  </si>
-  <si>
-    <t>12.06.202525</t>
-  </si>
-  <si>
-    <t>12.06.202526</t>
-  </si>
-  <si>
-    <t>12.06.202527</t>
-  </si>
-  <si>
-    <t>12.06.202528</t>
-  </si>
-  <si>
-    <t>12.06.202529</t>
-  </si>
-  <si>
-    <t>12.06.202530</t>
-  </si>
-  <si>
-    <t>12.06.202531</t>
-  </si>
-  <si>
-    <t>12.06.202532</t>
-  </si>
-  <si>
-    <t>12.06.202533</t>
-  </si>
-  <si>
-    <t>12.06.202534</t>
-  </si>
-  <si>
-    <t>12.06.202535</t>
-  </si>
-  <si>
-    <t>12.06.202536</t>
-  </si>
-  <si>
-    <t>12.06.202537</t>
-  </si>
-  <si>
-    <t>12.06.202538</t>
-  </si>
-  <si>
-    <t>12.06.202539</t>
-  </si>
-  <si>
-    <t>12.06.202540</t>
-  </si>
-  <si>
-    <t>12.06.202541</t>
-  </si>
-  <si>
-    <t>12.06.202542</t>
-  </si>
-  <si>
-    <t>12.06.202543</t>
-  </si>
-  <si>
-    <t>12.06.202544</t>
-  </si>
-  <si>
-    <t>12.06.202545</t>
-  </si>
-  <si>
-    <t>12.06.202546</t>
-  </si>
-  <si>
-    <t>12.06.202547</t>
-  </si>
-  <si>
-    <t>12.06.202548</t>
-  </si>
-  <si>
-    <t>12.06.202549</t>
-  </si>
-  <si>
-    <t>12.06.202550</t>
-  </si>
-  <si>
-    <t>12.06.202551</t>
-  </si>
-  <si>
-    <t>12.06.202552</t>
-  </si>
-  <si>
-    <t>12.06.202553</t>
-  </si>
-  <si>
-    <t>12.06.202554</t>
-  </si>
-  <si>
-    <t>12.06.202555</t>
-  </si>
-  <si>
-    <t>12.06.202556</t>
-  </si>
-  <si>
-    <t>12.06.202557</t>
-  </si>
-  <si>
-    <t>12.06.202558</t>
-  </si>
-  <si>
-    <t>12.06.202559</t>
-  </si>
-  <si>
-    <t>12.06.202560</t>
-  </si>
-  <si>
-    <t>12.06.202561</t>
-  </si>
-  <si>
-    <t>12.06.202562</t>
-  </si>
-  <si>
-    <t>12.06.202563</t>
-  </si>
-  <si>
-    <t>12.06.202564</t>
-  </si>
-  <si>
-    <t>12.06.202565</t>
-  </si>
-  <si>
-    <t>12.06.202566</t>
-  </si>
-  <si>
-    <t>12.06.202567</t>
-  </si>
-  <si>
-    <t>12.06.202568</t>
-  </si>
-  <si>
-    <t>12.06.202569</t>
-  </si>
-  <si>
-    <t>12.06.202570</t>
-  </si>
-  <si>
-    <t>12.06.202571</t>
-  </si>
-  <si>
-    <t>12.06.202572</t>
-  </si>
-  <si>
-    <t>12.06.202573</t>
-  </si>
-  <si>
-    <t>12.06.202574</t>
-  </si>
-  <si>
-    <t>12.06.202575</t>
-  </si>
-  <si>
-    <t>12.06.202576</t>
-  </si>
-  <si>
-    <t>12.06.202577</t>
-  </si>
-  <si>
-    <t>12.06.202578</t>
-  </si>
-  <si>
-    <t>12.06.202579</t>
-  </si>
-  <si>
-    <t>12.06.202580</t>
-  </si>
-  <si>
-    <t>12.06.202581</t>
-  </si>
-  <si>
-    <t>12.06.202582</t>
-  </si>
-  <si>
-    <t>12.06.202583</t>
-  </si>
-  <si>
-    <t>12.06.202584</t>
-  </si>
-  <si>
-    <t>12.06.202585</t>
-  </si>
-  <si>
-    <t>12.06.202586</t>
-  </si>
-  <si>
-    <t>12.06.202587</t>
-  </si>
-  <si>
-    <t>12.06.202588</t>
-  </si>
-  <si>
-    <t>12.06.202589</t>
-  </si>
-  <si>
-    <t>12.06.202590</t>
-  </si>
-  <si>
-    <t>12.06.202591</t>
-  </si>
-  <si>
-    <t>12.06.202592</t>
-  </si>
-  <si>
-    <t>12.06.202593</t>
-  </si>
-  <si>
-    <t>12.06.202594</t>
-  </si>
-  <si>
-    <t>12.06.202595</t>
-  </si>
-  <si>
-    <t>12.06.202596</t>
-  </si>
-  <si>
-    <t>13.06.20251</t>
-  </si>
-  <si>
-    <t>13.06.20252</t>
-  </si>
-  <si>
-    <t>13.06.20253</t>
-  </si>
-  <si>
-    <t>13.06.20254</t>
-  </si>
-  <si>
-    <t>13.06.20255</t>
-  </si>
-  <si>
-    <t>13.06.20256</t>
-  </si>
-  <si>
-    <t>13.06.20257</t>
-  </si>
-  <si>
-    <t>13.06.20258</t>
-  </si>
-  <si>
-    <t>13.06.20259</t>
-  </si>
-  <si>
-    <t>13.06.202510</t>
-  </si>
-  <si>
-    <t>13.06.202511</t>
-  </si>
-  <si>
-    <t>13.06.202512</t>
-  </si>
-  <si>
-    <t>13.06.202513</t>
-  </si>
-  <si>
-    <t>13.06.202514</t>
-  </si>
-  <si>
-    <t>13.06.202515</t>
-  </si>
-  <si>
-    <t>13.06.202516</t>
-  </si>
-  <si>
-    <t>13.06.202517</t>
-  </si>
-  <si>
-    <t>13.06.202518</t>
-  </si>
-  <si>
-    <t>13.06.202519</t>
-  </si>
-  <si>
-    <t>13.06.202520</t>
-  </si>
-  <si>
-    <t>13.06.202521</t>
-  </si>
-  <si>
-    <t>13.06.202522</t>
-  </si>
-  <si>
-    <t>13.06.202523</t>
-  </si>
-  <si>
-    <t>13.06.202524</t>
-  </si>
-  <si>
-    <t>13.06.202525</t>
+    <t>16.06.20251</t>
+  </si>
+  <si>
+    <t>16.06.20252</t>
+  </si>
+  <si>
+    <t>16.06.20253</t>
+  </si>
+  <si>
+    <t>16.06.20254</t>
+  </si>
+  <si>
+    <t>16.06.20255</t>
+  </si>
+  <si>
+    <t>16.06.20256</t>
+  </si>
+  <si>
+    <t>16.06.20257</t>
+  </si>
+  <si>
+    <t>16.06.20258</t>
+  </si>
+  <si>
+    <t>16.06.20259</t>
+  </si>
+  <si>
+    <t>16.06.202510</t>
+  </si>
+  <si>
+    <t>16.06.202511</t>
+  </si>
+  <si>
+    <t>16.06.202512</t>
+  </si>
+  <si>
+    <t>16.06.202513</t>
+  </si>
+  <si>
+    <t>16.06.202514</t>
+  </si>
+  <si>
+    <t>16.06.202515</t>
+  </si>
+  <si>
+    <t>16.06.202516</t>
+  </si>
+  <si>
+    <t>16.06.202517</t>
+  </si>
+  <si>
+    <t>16.06.202518</t>
+  </si>
+  <si>
+    <t>16.06.202519</t>
+  </si>
+  <si>
+    <t>16.06.202520</t>
+  </si>
+  <si>
+    <t>16.06.202521</t>
+  </si>
+  <si>
+    <t>16.06.202522</t>
+  </si>
+  <si>
+    <t>16.06.202523</t>
+  </si>
+  <si>
+    <t>16.06.202524</t>
+  </si>
+  <si>
+    <t>16.06.202525</t>
+  </si>
+  <si>
+    <t>16.06.202526</t>
+  </si>
+  <si>
+    <t>16.06.202527</t>
+  </si>
+  <si>
+    <t>16.06.202528</t>
+  </si>
+  <si>
+    <t>16.06.202529</t>
+  </si>
+  <si>
+    <t>16.06.202530</t>
+  </si>
+  <si>
+    <t>16.06.202531</t>
+  </si>
+  <si>
+    <t>16.06.202532</t>
+  </si>
+  <si>
+    <t>16.06.202533</t>
+  </si>
+  <si>
+    <t>16.06.202534</t>
+  </si>
+  <si>
+    <t>16.06.202535</t>
+  </si>
+  <si>
+    <t>16.06.202536</t>
+  </si>
+  <si>
+    <t>16.06.202537</t>
+  </si>
+  <si>
+    <t>16.06.202538</t>
+  </si>
+  <si>
+    <t>16.06.202539</t>
+  </si>
+  <si>
+    <t>16.06.202540</t>
+  </si>
+  <si>
+    <t>16.06.202541</t>
+  </si>
+  <si>
+    <t>16.06.202542</t>
+  </si>
+  <si>
+    <t>16.06.202543</t>
+  </si>
+  <si>
+    <t>16.06.202544</t>
+  </si>
+  <si>
+    <t>16.06.202545</t>
+  </si>
+  <si>
+    <t>16.06.202546</t>
+  </si>
+  <si>
+    <t>16.06.202547</t>
+  </si>
+  <si>
+    <t>16.06.202548</t>
+  </si>
+  <si>
+    <t>16.06.202549</t>
+  </si>
+  <si>
+    <t>16.06.202550</t>
+  </si>
+  <si>
+    <t>16.06.202551</t>
+  </si>
+  <si>
+    <t>16.06.202552</t>
+  </si>
+  <si>
+    <t>16.06.202553</t>
+  </si>
+  <si>
+    <t>16.06.202554</t>
+  </si>
+  <si>
+    <t>16.06.202555</t>
+  </si>
+  <si>
+    <t>16.06.202556</t>
+  </si>
+  <si>
+    <t>16.06.202557</t>
+  </si>
+  <si>
+    <t>16.06.202558</t>
+  </si>
+  <si>
+    <t>16.06.202559</t>
+  </si>
+  <si>
+    <t>16.06.202560</t>
+  </si>
+  <si>
+    <t>16.06.202561</t>
+  </si>
+  <si>
+    <t>16.06.202562</t>
+  </si>
+  <si>
+    <t>16.06.202563</t>
+  </si>
+  <si>
+    <t>16.06.202564</t>
+  </si>
+  <si>
+    <t>16.06.202565</t>
+  </si>
+  <si>
+    <t>16.06.202566</t>
+  </si>
+  <si>
+    <t>16.06.202567</t>
+  </si>
+  <si>
+    <t>16.06.202568</t>
+  </si>
+  <si>
+    <t>16.06.202569</t>
+  </si>
+  <si>
+    <t>16.06.202570</t>
+  </si>
+  <si>
+    <t>16.06.202571</t>
+  </si>
+  <si>
+    <t>16.06.202572</t>
+  </si>
+  <si>
+    <t>16.06.202573</t>
+  </si>
+  <si>
+    <t>16.06.202574</t>
+  </si>
+  <si>
+    <t>16.06.202575</t>
+  </si>
+  <si>
+    <t>16.06.202576</t>
+  </si>
+  <si>
+    <t>16.06.202577</t>
+  </si>
+  <si>
+    <t>16.06.202578</t>
+  </si>
+  <si>
+    <t>16.06.202579</t>
+  </si>
+  <si>
+    <t>16.06.202580</t>
+  </si>
+  <si>
+    <t>16.06.202581</t>
+  </si>
+  <si>
+    <t>16.06.202582</t>
+  </si>
+  <si>
+    <t>16.06.202583</t>
+  </si>
+  <si>
+    <t>16.06.202584</t>
+  </si>
+  <si>
+    <t>16.06.202585</t>
+  </si>
+  <si>
+    <t>16.06.202586</t>
+  </si>
+  <si>
+    <t>16.06.202587</t>
+  </si>
+  <si>
+    <t>16.06.202588</t>
+  </si>
+  <si>
+    <t>16.06.202589</t>
+  </si>
+  <si>
+    <t>16.06.202590</t>
+  </si>
+  <si>
+    <t>16.06.202591</t>
+  </si>
+  <si>
+    <t>16.06.202592</t>
+  </si>
+  <si>
+    <t>16.06.202593</t>
+  </si>
+  <si>
+    <t>16.06.202594</t>
+  </si>
+  <si>
+    <t>16.06.202595</t>
+  </si>
+  <si>
+    <t>16.06.202596</t>
+  </si>
+  <si>
+    <t>17.06.20251</t>
+  </si>
+  <si>
+    <t>17.06.20252</t>
+  </si>
+  <si>
+    <t>17.06.20253</t>
+  </si>
+  <si>
+    <t>17.06.20254</t>
+  </si>
+  <si>
+    <t>17.06.20255</t>
+  </si>
+  <si>
+    <t>17.06.20256</t>
+  </si>
+  <si>
+    <t>17.06.20257</t>
+  </si>
+  <si>
+    <t>17.06.20258</t>
+  </si>
+  <si>
+    <t>17.06.20259</t>
+  </si>
+  <si>
+    <t>17.06.202510</t>
+  </si>
+  <si>
+    <t>17.06.202511</t>
+  </si>
+  <si>
+    <t>17.06.202512</t>
+  </si>
+  <si>
+    <t>17.06.202513</t>
+  </si>
+  <si>
+    <t>17.06.202514</t>
+  </si>
+  <si>
+    <t>17.06.202515</t>
+  </si>
+  <si>
+    <t>17.06.202516</t>
+  </si>
+  <si>
+    <t>17.06.202517</t>
+  </si>
+  <si>
+    <t>17.06.202518</t>
+  </si>
+  <si>
+    <t>17.06.202519</t>
+  </si>
+  <si>
+    <t>17.06.202520</t>
+  </si>
+  <si>
+    <t>17.06.202521</t>
+  </si>
+  <si>
+    <t>17.06.202522</t>
+  </si>
+  <si>
+    <t>17.06.202523</t>
+  </si>
+  <si>
+    <t>17.06.202524</t>
+  </si>
+  <si>
+    <t>17.06.202525</t>
+  </si>
+  <si>
+    <t>17.06.202526</t>
+  </si>
+  <si>
+    <t>17.06.202527</t>
+  </si>
+  <si>
+    <t>17.06.202528</t>
+  </si>
+  <si>
+    <t>17.06.202529</t>
+  </si>
+  <si>
+    <t>17.06.202530</t>
+  </si>
+  <si>
+    <t>17.06.202531</t>
+  </si>
+  <si>
+    <t>17.06.202532</t>
+  </si>
+  <si>
+    <t>17.06.202533</t>
+  </si>
+  <si>
+    <t>17.06.202534</t>
+  </si>
+  <si>
+    <t>17.06.202535</t>
+  </si>
+  <si>
+    <t>17.06.202536</t>
+  </si>
+  <si>
+    <t>17.06.202537</t>
+  </si>
+  <si>
+    <t>17.06.202538</t>
+  </si>
+  <si>
+    <t>17.06.202539</t>
+  </si>
+  <si>
+    <t>17.06.202540</t>
+  </si>
+  <si>
+    <t>17.06.202541</t>
   </si>
 </sst>
 </file>
@@ -753,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +826,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B2">
-        <v>29.893</v>
+        <v>1.173</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -795,13 +843,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45820.01041666666</v>
+        <v>45824.01041666666</v>
       </c>
       <c r="B3">
-        <v>59.296</v>
+        <v>0.432</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.657</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -812,13 +860,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45820.02083333334</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B4">
-        <v>54.329</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002</v>
+        <v>8.454000000000001</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -829,13 +877,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45820.03125</v>
+        <v>45824.03125</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.914</v>
+        <v>15.207</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -846,13 +894,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45820.04166666666</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B6">
-        <v>7.247</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.586</v>
+        <v>11.126</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -863,13 +911,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45820.05208333334</v>
+        <v>45824.05208333334</v>
       </c>
       <c r="B7">
-        <v>5.909</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.214</v>
+        <v>10.597</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -880,13 +928,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45820.0625</v>
+        <v>45824.0625</v>
       </c>
       <c r="B8">
-        <v>0.852</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>10.267</v>
+        <v>4.105</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -897,13 +945,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45820.07291666666</v>
+        <v>45824.07291666666</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.702</v>
+        <v>0.647</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -914,13 +962,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45820.08333333334</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B10">
-        <v>2.594</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.617</v>
+        <v>3.644</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -931,13 +979,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45820.09375</v>
+        <v>45824.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.648</v>
+        <v>2.335</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -948,13 +996,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45820.10416666666</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.152</v>
+        <v>19.482</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -965,13 +1013,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45820.11458333334</v>
+        <v>45824.11458333334</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.471</v>
+        <v>31.171</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -982,13 +1030,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45820.125</v>
+        <v>45824.125</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>31.035</v>
+        <v>50.284</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -999,13 +1047,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45820.13541666666</v>
+        <v>45824.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>45.947</v>
+        <v>41.197</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1016,13 +1064,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45820.14583333334</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>83.751</v>
+        <v>10.153</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1033,13 +1081,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45820.15625</v>
+        <v>45824.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>46.677</v>
+        <v>12.727</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1050,13 +1098,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45820.16666666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>47.394</v>
+        <v>28.38</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1067,13 +1115,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45820.17708333334</v>
+        <v>45824.17708333334</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>49.614</v>
+        <v>28.718</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1084,13 +1132,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45820.1875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>60.045</v>
+        <v>26.4</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1101,13 +1149,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45820.19791666666</v>
+        <v>45824.19791666666</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>50.241</v>
+        <v>15.469</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1118,13 +1166,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45820.20833333334</v>
+        <v>45824.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>43.686</v>
+        <v>32.234</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1135,13 +1183,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45820.21875</v>
+        <v>45824.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.271</v>
+        <v>12.135</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1152,13 +1200,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45820.22916666666</v>
+        <v>45824.22916666666</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.637</v>
       </c>
       <c r="C24">
-        <v>42.641</v>
+        <v>3.988</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1169,13 +1217,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45820.23958333334</v>
+        <v>45824.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.584</v>
+        <v>8.034000000000001</v>
       </c>
       <c r="C25">
-        <v>19.387</v>
+        <v>0.062</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1186,13 +1234,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45820.25</v>
+        <v>45824.25</v>
       </c>
       <c r="B26">
-        <v>1.633</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>4.017</v>
+        <v>11.208</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1203,13 +1251,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45820.26041666666</v>
+        <v>45824.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>5.705</v>
+        <v>21.581</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1220,13 +1268,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45820.27083333334</v>
+        <v>45824.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.555</v>
+        <v>0.211</v>
       </c>
       <c r="C28">
-        <v>6.198</v>
+        <v>6.901</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1237,13 +1285,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45820.28125</v>
+        <v>45824.28125</v>
       </c>
       <c r="B29">
-        <v>0.924</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>15.25</v>
+        <v>6.953</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1254,13 +1302,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45820.29166666666</v>
+        <v>45824.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.741</v>
       </c>
       <c r="C30">
-        <v>36.366</v>
+        <v>1.409</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1271,13 +1319,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45820.30208333334</v>
+        <v>45824.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.584</v>
       </c>
       <c r="C31">
-        <v>19.149</v>
+        <v>13.837</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1288,13 +1336,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45820.3125</v>
+        <v>45824.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>48.781</v>
+        <v>10.306</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1305,13 +1353,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45820.32291666666</v>
+        <v>45824.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>63.924</v>
+        <v>39.997</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1322,13 +1370,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45820.33333333334</v>
+        <v>45824.33333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>18.959</v>
+        <v>50.461</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1339,13 +1387,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45820.34375</v>
+        <v>45824.34375</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>7.313</v>
+        <v>14.338</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1356,13 +1404,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45820.35416666666</v>
+        <v>45824.35416666666</v>
       </c>
       <c r="B36">
-        <v>1.934</v>
+        <v>2.272</v>
       </c>
       <c r="C36">
-        <v>5.494</v>
+        <v>2.408</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1373,13 +1421,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45820.36458333334</v>
+        <v>45824.36458333334</v>
       </c>
       <c r="B37">
-        <v>2.137</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>2.915</v>
+        <v>19.859</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1390,13 +1438,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45820.375</v>
+        <v>45824.375</v>
       </c>
       <c r="B38">
-        <v>9.532</v>
+        <v>2.966</v>
       </c>
       <c r="C38">
-        <v>0.576</v>
+        <v>2.234</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1407,13 +1455,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45820.38541666666</v>
+        <v>45824.38541666666</v>
       </c>
       <c r="B39">
-        <v>3.763</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>2.447</v>
+        <v>11.89</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1424,13 +1472,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45820.39583333334</v>
+        <v>45824.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>8.949</v>
+        <v>3.248</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1441,13 +1489,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45820.40625</v>
+        <v>45824.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.928</v>
+        <v>9.595000000000001</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1458,13 +1506,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45820.41666666666</v>
+        <v>45824.41666666666</v>
       </c>
       <c r="B42">
-        <v>3.622</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.13</v>
+        <v>20.165</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1475,13 +1523,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45820.42708333334</v>
+        <v>45824.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.434</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>3.719</v>
+        <v>23.165</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1492,13 +1540,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45820.4375</v>
+        <v>45824.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>17.045</v>
+        <v>28.328</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1509,13 +1557,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45820.44791666666</v>
+        <v>45824.44791666666</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.243</v>
       </c>
       <c r="C45">
-        <v>11.182</v>
+        <v>5.96</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1526,13 +1574,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45820.45833333334</v>
+        <v>45824.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.491</v>
+        <v>0.593</v>
       </c>
       <c r="C46">
-        <v>6.279</v>
+        <v>0.743</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1543,13 +1591,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45820.46875</v>
+        <v>45824.46875</v>
       </c>
       <c r="B47">
-        <v>0.006</v>
+        <v>7.698</v>
       </c>
       <c r="C47">
-        <v>10.756</v>
+        <v>0.016</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1560,13 +1608,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45820.47916666666</v>
+        <v>45824.47916666666</v>
       </c>
       <c r="B48">
-        <v>4.678</v>
+        <v>3.63</v>
       </c>
       <c r="C48">
-        <v>11.102</v>
+        <v>2.532</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1577,13 +1625,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45820.48958333334</v>
+        <v>45824.48958333334</v>
       </c>
       <c r="B49">
-        <v>7.567</v>
+        <v>13.412</v>
       </c>
       <c r="C49">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1594,13 +1642,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45820.5</v>
+        <v>45824.5</v>
       </c>
       <c r="B50">
-        <v>0.739</v>
+        <v>3.108</v>
       </c>
       <c r="C50">
-        <v>7.252</v>
+        <v>0.704</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1611,13 +1659,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45820.51041666666</v>
+        <v>45824.51041666666</v>
       </c>
       <c r="B51">
-        <v>2.097</v>
+        <v>2.132</v>
       </c>
       <c r="C51">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1628,13 +1676,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45820.52083333334</v>
+        <v>45824.52083333334</v>
       </c>
       <c r="B52">
-        <v>5.544</v>
+        <v>0.316</v>
       </c>
       <c r="C52">
-        <v>1.455</v>
+        <v>14.887</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1645,13 +1693,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45820.53125</v>
+        <v>45824.53125</v>
       </c>
       <c r="B53">
-        <v>5.879</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>4.298</v>
+        <v>27.08</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1662,13 +1710,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45820.54166666666</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>35.067</v>
+        <v>27.619</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1679,13 +1727,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45820.55208333334</v>
+        <v>45824.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>33.971</v>
+        <v>32.298</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1696,13 +1744,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45820.5625</v>
+        <v>45824.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10.042</v>
+        <v>35.978</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1713,13 +1761,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45820.57291666666</v>
+        <v>45824.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="C57">
-        <v>4.769</v>
+        <v>13.652</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1730,13 +1778,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45820.58333333334</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>18.094</v>
       </c>
       <c r="C58">
-        <v>41.547</v>
+        <v>0.093</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1747,13 +1795,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45820.59375</v>
+        <v>45824.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>39.169</v>
       </c>
       <c r="C59">
-        <v>52.371</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1764,13 +1812,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45820.60416666666</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>9.733000000000001</v>
       </c>
       <c r="C60">
-        <v>50.873</v>
+        <v>0.38</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1781,13 +1829,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45820.61458333334</v>
+        <v>45824.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C61">
-        <v>21.382</v>
+        <v>0.003</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1798,13 +1846,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45820.625</v>
+        <v>45824.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.662</v>
       </c>
       <c r="C62">
-        <v>17.256</v>
+        <v>0.09</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1815,13 +1863,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45820.63541666666</v>
+        <v>45824.63541666666</v>
       </c>
       <c r="B63">
-        <v>6.365</v>
+        <v>6.926</v>
       </c>
       <c r="C63">
-        <v>0.709</v>
+        <v>1.99</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1832,13 +1880,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45820.64583333334</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B64">
-        <v>4.296</v>
+        <v>14.21</v>
       </c>
       <c r="C64">
-        <v>1.054</v>
+        <v>0.015</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1849,13 +1897,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45820.65625</v>
+        <v>45824.65625</v>
       </c>
       <c r="B65">
-        <v>23.203</v>
+        <v>8.394</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.426</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1866,13 +1914,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45820.66666666666</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.022</v>
+        <v>4.06</v>
       </c>
       <c r="C66">
-        <v>16.028</v>
+        <v>2.102</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1883,13 +1931,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45820.67708333334</v>
+        <v>45824.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>22.155</v>
+        <v>8.814</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1900,13 +1948,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45820.6875</v>
+        <v>45824.6875</v>
       </c>
       <c r="B68">
-        <v>3.151</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>8.468999999999999</v>
+        <v>7.073</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1917,13 +1965,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45820.69791666666</v>
+        <v>45824.69791666666</v>
       </c>
       <c r="B69">
-        <v>4.738</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>2.787</v>
+        <v>13.42</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1934,13 +1982,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45820.70833333334</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>9.023999999999999</v>
+        <v>19.109</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1951,13 +1999,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45820.71875</v>
+        <v>45824.71875</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>16.949</v>
+        <v>18.755</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1968,13 +2016,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45820.72916666666</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B72">
-        <v>8.180999999999999</v>
+        <v>12.299</v>
       </c>
       <c r="C72">
-        <v>4.599</v>
+        <v>1.531</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1985,13 +2033,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45820.73958333334</v>
+        <v>45824.73958333334</v>
       </c>
       <c r="B73">
-        <v>3.428</v>
+        <v>24.232</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2002,13 +2050,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45820.75</v>
+        <v>45824.75</v>
       </c>
       <c r="B74">
-        <v>0.5639999999999999</v>
+        <v>4.566</v>
       </c>
       <c r="C74">
-        <v>1.501</v>
+        <v>0.613</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2019,13 +2067,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45820.76041666666</v>
+        <v>45824.76041666666</v>
       </c>
       <c r="B75">
-        <v>1.638</v>
+        <v>44.22</v>
       </c>
       <c r="C75">
-        <v>2.056</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2036,10 +2084,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45820.77083333334</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B76">
-        <v>13.847</v>
+        <v>58.649</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2053,13 +2101,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45820.78125</v>
+        <v>45824.78125</v>
       </c>
       <c r="B77">
-        <v>0.41</v>
+        <v>50.256</v>
       </c>
       <c r="C77">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2070,13 +2118,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45820.79166666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B78">
-        <v>0.734</v>
+        <v>1.398</v>
       </c>
       <c r="C78">
-        <v>0.914</v>
+        <v>2.173</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2087,13 +2135,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45820.80208333334</v>
+        <v>45824.80208333334</v>
       </c>
       <c r="B79">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.411</v>
+        <v>0.109</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2104,13 +2152,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45820.8125</v>
+        <v>45824.8125</v>
       </c>
       <c r="B80">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>10.299</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2121,13 +2169,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45820.82291666666</v>
+        <v>45824.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2138,13 +2186,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45820.83333333334</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B82">
-        <v>4.926</v>
+        <v>1.261</v>
       </c>
       <c r="C82">
-        <v>1.328</v>
+        <v>6.281</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2155,13 +2203,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45820.84375</v>
+        <v>45824.84375</v>
       </c>
       <c r="B83">
-        <v>4.503</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>3.874</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2172,13 +2220,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45820.85416666666</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B84">
-        <v>1.419</v>
+        <v>0.025</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8.129</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2189,13 +2237,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45820.86458333334</v>
+        <v>45824.86458333334</v>
       </c>
       <c r="B85">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>5.858</v>
+        <v>15.823</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2206,13 +2254,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45820.875</v>
+        <v>45824.875</v>
       </c>
       <c r="B86">
-        <v>0.042</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="C86">
-        <v>0.036</v>
+        <v>0.007</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2223,10 +2271,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45820.88541666666</v>
+        <v>45824.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.006</v>
+        <v>16.775</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2240,13 +2288,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45820.89583333334</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B88">
-        <v>0.24</v>
+        <v>1.15</v>
       </c>
       <c r="C88">
-        <v>5.879</v>
+        <v>2.819</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2257,13 +2305,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45820.90625</v>
+        <v>45824.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>13.443</v>
+        <v>0.665</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2274,13 +2322,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45820.91666666666</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B90">
-        <v>5.942</v>
+        <v>7.052</v>
       </c>
       <c r="C90">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2291,10 +2339,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45820.92708333334</v>
+        <v>45824.92708333334</v>
       </c>
       <c r="B91">
-        <v>7.158</v>
+        <v>16.111</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2308,13 +2356,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45820.9375</v>
+        <v>45824.9375</v>
       </c>
       <c r="B92">
-        <v>6.06</v>
+        <v>5.336</v>
       </c>
       <c r="C92">
-        <v>0.098</v>
+        <v>0.263</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2325,13 +2373,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45820.94791666666</v>
+        <v>45824.94791666666</v>
       </c>
       <c r="B93">
-        <v>1.444</v>
+        <v>0.004</v>
       </c>
       <c r="C93">
-        <v>1.782</v>
+        <v>3.904</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2342,13 +2390,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45820.95833333334</v>
+        <v>45824.95833333334</v>
       </c>
       <c r="B94">
-        <v>4.684</v>
+        <v>3.155</v>
       </c>
       <c r="C94">
-        <v>0.232</v>
+        <v>0.204</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2359,13 +2407,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B95">
-        <v>1.218</v>
+        <v>7.407</v>
       </c>
       <c r="C95">
-        <v>4.972</v>
+        <v>0.014</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2376,13 +2424,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45820.96875</v>
+        <v>45824.96875</v>
       </c>
       <c r="B96">
-        <v>1.218</v>
+        <v>7.407</v>
       </c>
       <c r="C96">
-        <v>4.972</v>
+        <v>0.014</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2393,13 +2441,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B97">
-        <v>0.008</v>
+        <v>1.25</v>
       </c>
       <c r="C97">
-        <v>1.835</v>
+        <v>1.049</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2410,13 +2458,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45820.97916666666</v>
+        <v>45824.97916666666</v>
       </c>
       <c r="B98">
-        <v>0.008</v>
+        <v>1.25</v>
       </c>
       <c r="C98">
-        <v>1.835</v>
+        <v>1.049</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2427,13 +2475,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1.468</v>
+        <v>4.042</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2444,13 +2492,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45820.98958333334</v>
+        <v>45824.98958333334</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>1.468</v>
+        <v>4.042</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2461,13 +2509,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>5.948</v>
       </c>
       <c r="C101">
-        <v>17.029</v>
+        <v>10.463</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2478,13 +2526,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>5.948</v>
       </c>
       <c r="C102">
-        <v>17.029</v>
+        <v>10.463</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2495,13 +2543,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B103">
-        <v>3.071</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="C103">
-        <v>1.872</v>
+        <v>0.254</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2512,13 +2560,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45821.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B104">
-        <v>3.071</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="C104">
-        <v>1.872</v>
+        <v>0.254</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2529,13 +2577,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B105">
-        <v>5.766</v>
+        <v>0.485</v>
       </c>
       <c r="C105">
-        <v>4.823</v>
+        <v>7.58</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2546,13 +2594,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45821.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B106">
-        <v>5.766</v>
+        <v>0.485</v>
       </c>
       <c r="C106">
-        <v>4.823</v>
+        <v>7.58</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2563,13 +2611,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B107">
-        <v>1.931</v>
+        <v>1.578</v>
       </c>
       <c r="C107">
-        <v>0.21</v>
+        <v>3.483</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2580,13 +2628,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45821.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B108">
-        <v>1.931</v>
+        <v>1.578</v>
       </c>
       <c r="C108">
-        <v>0.21</v>
+        <v>3.483</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2597,10 +2645,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45821.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B109">
-        <v>2.495</v>
+        <v>3.551</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2614,13 +2662,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45821.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B110">
-        <v>8.771000000000001</v>
+        <v>3.374</v>
       </c>
       <c r="C110">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2631,10 +2679,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45821.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B111">
-        <v>31.398</v>
+        <v>7.682</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2648,13 +2696,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45821.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B112">
-        <v>16.82</v>
+        <v>21.438</v>
       </c>
       <c r="C112">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2665,13 +2713,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45821.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B113">
-        <v>13.029</v>
+        <v>21.775</v>
       </c>
       <c r="C113">
-        <v>0.737</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2682,10 +2730,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45821.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B114">
-        <v>32.645</v>
+        <v>13.267</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2699,13 +2747,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45821.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B115">
-        <v>16.655</v>
+        <v>19.599</v>
       </c>
       <c r="C115">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2716,13 +2764,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45821.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B116">
-        <v>13.633</v>
+        <v>34.697</v>
       </c>
       <c r="C116">
-        <v>0.161</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2733,13 +2781,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45821.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B117">
-        <v>6.688</v>
+        <v>34.327</v>
       </c>
       <c r="C117">
-        <v>2.203</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2750,10 +2798,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45821.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B118">
-        <v>39.379</v>
+        <v>20.304</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2767,10 +2815,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45821.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B119">
-        <v>26.741</v>
+        <v>35.943</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2784,10 +2832,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45821.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B120">
-        <v>23.157</v>
+        <v>9.301</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2801,13 +2849,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45821.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B121">
-        <v>16.636</v>
+        <v>1.788</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1.235</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2818,13 +2866,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45821.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B122">
-        <v>22.753</v>
+        <v>0.708</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1.633</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2835,13 +2883,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45821.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B123">
-        <v>36.927</v>
+        <v>0.013</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>4.135</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2852,13 +2900,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45821.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B124">
-        <v>24.143</v>
+        <v>7.906</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2869,10 +2917,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45821.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B125">
-        <v>22.49</v>
+        <v>5.255</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2886,13 +2934,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45821.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B126">
-        <v>3.185</v>
+        <v>3.173</v>
       </c>
       <c r="C126">
-        <v>2.935</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2903,13 +2951,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45821.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B127">
-        <v>5.715</v>
+        <v>7.908</v>
       </c>
       <c r="C127">
-        <v>1.527</v>
+        <v>0.153</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2920,13 +2968,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45821.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B128">
-        <v>10.011</v>
+        <v>8.369</v>
       </c>
       <c r="C128">
-        <v>0.532</v>
+        <v>0.446</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2937,19 +2985,291 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45821.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B129">
-        <v>0.098</v>
+        <v>19.66</v>
       </c>
       <c r="C129">
-        <v>9.128</v>
+        <v>0.019</v>
       </c>
       <c r="D129">
         <v>25</v>
       </c>
       <c r="E129" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45825.26041666666</v>
+      </c>
+      <c r="B130">
+        <v>2.818</v>
+      </c>
+      <c r="C130">
+        <v>4.206</v>
+      </c>
+      <c r="D130">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45825.27083333334</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>8.301</v>
+      </c>
+      <c r="D131">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45825.28125</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>10.119</v>
+      </c>
+      <c r="D132">
+        <v>28</v>
+      </c>
+      <c r="E132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45825.29166666666</v>
+      </c>
+      <c r="B133">
+        <v>15.06</v>
+      </c>
+      <c r="C133">
+        <v>1.412</v>
+      </c>
+      <c r="D133">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45825.30208333334</v>
+      </c>
+      <c r="B134">
+        <v>6.107</v>
+      </c>
+      <c r="C134">
+        <v>2.326</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45825.3125</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>3.164</v>
+      </c>
+      <c r="D135">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45825.32291666666</v>
+      </c>
+      <c r="B136">
+        <v>0.155</v>
+      </c>
+      <c r="C136">
+        <v>1.079</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45825.33333333334</v>
+      </c>
+      <c r="B137">
+        <v>20.104</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45825.34375</v>
+      </c>
+      <c r="B138">
+        <v>0.367</v>
+      </c>
+      <c r="C138">
+        <v>8.58</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45825.35416666666</v>
+      </c>
+      <c r="B139">
+        <v>0.008</v>
+      </c>
+      <c r="C139">
+        <v>6.079</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45825.36458333334</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>13.236</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45825.375</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>8.914</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45825.38541666666</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>10.834</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45825.39583333334</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>3.232</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45825.40625</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0.916</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45825.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>3.231</v>
+      </c>
+      <c r="C145">
+        <v>3.497</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="295">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.06.20251</t>
-  </si>
-  <si>
-    <t>16.06.20252</t>
-  </si>
-  <si>
-    <t>16.06.20253</t>
-  </si>
-  <si>
-    <t>16.06.20254</t>
-  </si>
-  <si>
-    <t>16.06.20255</t>
-  </si>
-  <si>
-    <t>16.06.20256</t>
-  </si>
-  <si>
-    <t>16.06.20257</t>
-  </si>
-  <si>
-    <t>16.06.20258</t>
-  </si>
-  <si>
-    <t>16.06.20259</t>
-  </si>
-  <si>
-    <t>16.06.202510</t>
-  </si>
-  <si>
-    <t>16.06.202511</t>
-  </si>
-  <si>
-    <t>16.06.202512</t>
-  </si>
-  <si>
-    <t>16.06.202513</t>
-  </si>
-  <si>
-    <t>16.06.202514</t>
-  </si>
-  <si>
-    <t>16.06.202515</t>
-  </si>
-  <si>
-    <t>16.06.202516</t>
-  </si>
-  <si>
-    <t>16.06.202517</t>
-  </si>
-  <si>
-    <t>16.06.202518</t>
-  </si>
-  <si>
-    <t>16.06.202519</t>
-  </si>
-  <si>
-    <t>16.06.202520</t>
-  </si>
-  <si>
-    <t>16.06.202521</t>
-  </si>
-  <si>
-    <t>16.06.202522</t>
-  </si>
-  <si>
-    <t>16.06.202523</t>
-  </si>
-  <si>
-    <t>16.06.202524</t>
-  </si>
-  <si>
-    <t>16.06.202525</t>
-  </si>
-  <si>
-    <t>16.06.202526</t>
-  </si>
-  <si>
-    <t>16.06.202527</t>
-  </si>
-  <si>
-    <t>16.06.202528</t>
-  </si>
-  <si>
-    <t>16.06.202529</t>
-  </si>
-  <si>
-    <t>16.06.202530</t>
-  </si>
-  <si>
-    <t>16.06.202531</t>
-  </si>
-  <si>
-    <t>16.06.202532</t>
-  </si>
-  <si>
-    <t>16.06.202533</t>
-  </si>
-  <si>
-    <t>16.06.202534</t>
-  </si>
-  <si>
-    <t>16.06.202535</t>
-  </si>
-  <si>
-    <t>16.06.202536</t>
-  </si>
-  <si>
-    <t>16.06.202537</t>
-  </si>
-  <si>
-    <t>16.06.202538</t>
-  </si>
-  <si>
-    <t>16.06.202539</t>
-  </si>
-  <si>
-    <t>16.06.202540</t>
-  </si>
-  <si>
-    <t>16.06.202541</t>
-  </si>
-  <si>
-    <t>16.06.202542</t>
-  </si>
-  <si>
-    <t>16.06.202543</t>
-  </si>
-  <si>
-    <t>16.06.202544</t>
-  </si>
-  <si>
-    <t>16.06.202545</t>
-  </si>
-  <si>
-    <t>16.06.202546</t>
-  </si>
-  <si>
-    <t>16.06.202547</t>
-  </si>
-  <si>
-    <t>16.06.202548</t>
-  </si>
-  <si>
-    <t>16.06.202549</t>
-  </si>
-  <si>
-    <t>16.06.202550</t>
-  </si>
-  <si>
-    <t>16.06.202551</t>
-  </si>
-  <si>
-    <t>16.06.202552</t>
-  </si>
-  <si>
-    <t>16.06.202553</t>
-  </si>
-  <si>
-    <t>16.06.202554</t>
-  </si>
-  <si>
-    <t>16.06.202555</t>
-  </si>
-  <si>
-    <t>16.06.202556</t>
-  </si>
-  <si>
-    <t>16.06.202557</t>
-  </si>
-  <si>
-    <t>16.06.202558</t>
-  </si>
-  <si>
-    <t>16.06.202559</t>
-  </si>
-  <si>
-    <t>16.06.202560</t>
-  </si>
-  <si>
-    <t>16.06.202561</t>
-  </si>
-  <si>
-    <t>16.06.202562</t>
-  </si>
-  <si>
-    <t>16.06.202563</t>
-  </si>
-  <si>
-    <t>16.06.202564</t>
-  </si>
-  <si>
-    <t>16.06.202565</t>
-  </si>
-  <si>
-    <t>16.06.202566</t>
-  </si>
-  <si>
-    <t>16.06.202567</t>
-  </si>
-  <si>
-    <t>16.06.202568</t>
-  </si>
-  <si>
-    <t>16.06.202569</t>
-  </si>
-  <si>
-    <t>16.06.202570</t>
-  </si>
-  <si>
-    <t>16.06.202571</t>
-  </si>
-  <si>
-    <t>16.06.202572</t>
-  </si>
-  <si>
-    <t>16.06.202573</t>
-  </si>
-  <si>
-    <t>16.06.202574</t>
-  </si>
-  <si>
-    <t>16.06.202575</t>
-  </si>
-  <si>
-    <t>16.06.202576</t>
-  </si>
-  <si>
-    <t>16.06.202577</t>
-  </si>
-  <si>
-    <t>16.06.202578</t>
-  </si>
-  <si>
-    <t>16.06.202579</t>
-  </si>
-  <si>
-    <t>16.06.202580</t>
-  </si>
-  <si>
-    <t>16.06.202581</t>
-  </si>
-  <si>
-    <t>16.06.202582</t>
-  </si>
-  <si>
-    <t>16.06.202583</t>
-  </si>
-  <si>
-    <t>16.06.202584</t>
-  </si>
-  <si>
-    <t>16.06.202585</t>
-  </si>
-  <si>
-    <t>16.06.202586</t>
-  </si>
-  <si>
-    <t>16.06.202587</t>
-  </si>
-  <si>
-    <t>16.06.202588</t>
-  </si>
-  <si>
-    <t>16.06.202589</t>
-  </si>
-  <si>
-    <t>16.06.202590</t>
-  </si>
-  <si>
-    <t>16.06.202591</t>
-  </si>
-  <si>
-    <t>16.06.202592</t>
-  </si>
-  <si>
-    <t>16.06.202593</t>
-  </si>
-  <si>
-    <t>16.06.202594</t>
-  </si>
-  <si>
-    <t>16.06.202595</t>
-  </si>
-  <si>
-    <t>16.06.202596</t>
-  </si>
-  <si>
     <t>17.06.20251</t>
   </si>
   <si>
@@ -440,6 +152,753 @@
   </si>
   <si>
     <t>17.06.202541</t>
+  </si>
+  <si>
+    <t>17.06.202542</t>
+  </si>
+  <si>
+    <t>17.06.202543</t>
+  </si>
+  <si>
+    <t>17.06.202544</t>
+  </si>
+  <si>
+    <t>17.06.202545</t>
+  </si>
+  <si>
+    <t>17.06.202546</t>
+  </si>
+  <si>
+    <t>17.06.202547</t>
+  </si>
+  <si>
+    <t>17.06.202548</t>
+  </si>
+  <si>
+    <t>17.06.202549</t>
+  </si>
+  <si>
+    <t>17.06.202594</t>
+  </si>
+  <si>
+    <t>17.06.202595</t>
+  </si>
+  <si>
+    <t>17.06.202596</t>
+  </si>
+  <si>
+    <t>18.06.20251</t>
+  </si>
+  <si>
+    <t>18.06.20252</t>
+  </si>
+  <si>
+    <t>18.06.20253</t>
+  </si>
+  <si>
+    <t>18.06.20254</t>
+  </si>
+  <si>
+    <t>18.06.20255</t>
+  </si>
+  <si>
+    <t>18.06.20256</t>
+  </si>
+  <si>
+    <t>18.06.20257</t>
+  </si>
+  <si>
+    <t>18.06.20258</t>
+  </si>
+  <si>
+    <t>18.06.20259</t>
+  </si>
+  <si>
+    <t>18.06.202510</t>
+  </si>
+  <si>
+    <t>18.06.202511</t>
+  </si>
+  <si>
+    <t>18.06.202512</t>
+  </si>
+  <si>
+    <t>18.06.202513</t>
+  </si>
+  <si>
+    <t>18.06.202514</t>
+  </si>
+  <si>
+    <t>18.06.202515</t>
+  </si>
+  <si>
+    <t>18.06.202516</t>
+  </si>
+  <si>
+    <t>18.06.202517</t>
+  </si>
+  <si>
+    <t>18.06.202518</t>
+  </si>
+  <si>
+    <t>18.06.202519</t>
+  </si>
+  <si>
+    <t>18.06.202520</t>
+  </si>
+  <si>
+    <t>18.06.202521</t>
+  </si>
+  <si>
+    <t>18.06.202522</t>
+  </si>
+  <si>
+    <t>18.06.202523</t>
+  </si>
+  <si>
+    <t>18.06.202524</t>
+  </si>
+  <si>
+    <t>18.06.202525</t>
+  </si>
+  <si>
+    <t>18.06.202526</t>
+  </si>
+  <si>
+    <t>18.06.202527</t>
+  </si>
+  <si>
+    <t>18.06.202528</t>
+  </si>
+  <si>
+    <t>18.06.202529</t>
+  </si>
+  <si>
+    <t>18.06.202530</t>
+  </si>
+  <si>
+    <t>18.06.202531</t>
+  </si>
+  <si>
+    <t>18.06.202532</t>
+  </si>
+  <si>
+    <t>18.06.202533</t>
+  </si>
+  <si>
+    <t>18.06.202534</t>
+  </si>
+  <si>
+    <t>18.06.202535</t>
+  </si>
+  <si>
+    <t>18.06.202536</t>
+  </si>
+  <si>
+    <t>18.06.202537</t>
+  </si>
+  <si>
+    <t>18.06.202538</t>
+  </si>
+  <si>
+    <t>18.06.202539</t>
+  </si>
+  <si>
+    <t>18.06.202540</t>
+  </si>
+  <si>
+    <t>18.06.202541</t>
+  </si>
+  <si>
+    <t>18.06.202542</t>
+  </si>
+  <si>
+    <t>18.06.202543</t>
+  </si>
+  <si>
+    <t>18.06.202544</t>
+  </si>
+  <si>
+    <t>18.06.202545</t>
+  </si>
+  <si>
+    <t>18.06.202546</t>
+  </si>
+  <si>
+    <t>18.06.202547</t>
+  </si>
+  <si>
+    <t>18.06.202548</t>
+  </si>
+  <si>
+    <t>18.06.202549</t>
+  </si>
+  <si>
+    <t>18.06.202550</t>
+  </si>
+  <si>
+    <t>18.06.202551</t>
+  </si>
+  <si>
+    <t>18.06.202552</t>
+  </si>
+  <si>
+    <t>18.06.202553</t>
+  </si>
+  <si>
+    <t>18.06.202554</t>
+  </si>
+  <si>
+    <t>18.06.202555</t>
+  </si>
+  <si>
+    <t>18.06.202556</t>
+  </si>
+  <si>
+    <t>18.06.202557</t>
+  </si>
+  <si>
+    <t>18.06.202558</t>
+  </si>
+  <si>
+    <t>18.06.202559</t>
+  </si>
+  <si>
+    <t>18.06.202560</t>
+  </si>
+  <si>
+    <t>18.06.202561</t>
+  </si>
+  <si>
+    <t>18.06.202562</t>
+  </si>
+  <si>
+    <t>18.06.202563</t>
+  </si>
+  <si>
+    <t>18.06.202564</t>
+  </si>
+  <si>
+    <t>18.06.202565</t>
+  </si>
+  <si>
+    <t>18.06.202566</t>
+  </si>
+  <si>
+    <t>18.06.202567</t>
+  </si>
+  <si>
+    <t>18.06.202568</t>
+  </si>
+  <si>
+    <t>18.06.202569</t>
+  </si>
+  <si>
+    <t>18.06.202570</t>
+  </si>
+  <si>
+    <t>18.06.202571</t>
+  </si>
+  <si>
+    <t>18.06.202572</t>
+  </si>
+  <si>
+    <t>18.06.202573</t>
+  </si>
+  <si>
+    <t>18.06.202574</t>
+  </si>
+  <si>
+    <t>18.06.202575</t>
+  </si>
+  <si>
+    <t>18.06.202576</t>
+  </si>
+  <si>
+    <t>18.06.202577</t>
+  </si>
+  <si>
+    <t>18.06.202578</t>
+  </si>
+  <si>
+    <t>18.06.202579</t>
+  </si>
+  <si>
+    <t>18.06.202580</t>
+  </si>
+  <si>
+    <t>18.06.202581</t>
+  </si>
+  <si>
+    <t>18.06.202582</t>
+  </si>
+  <si>
+    <t>18.06.202583</t>
+  </si>
+  <si>
+    <t>18.06.202584</t>
+  </si>
+  <si>
+    <t>18.06.202585</t>
+  </si>
+  <si>
+    <t>18.06.202586</t>
+  </si>
+  <si>
+    <t>18.06.202587</t>
+  </si>
+  <si>
+    <t>18.06.202588</t>
+  </si>
+  <si>
+    <t>18.06.202589</t>
+  </si>
+  <si>
+    <t>18.06.202590</t>
+  </si>
+  <si>
+    <t>18.06.202591</t>
+  </si>
+  <si>
+    <t>18.06.202592</t>
+  </si>
+  <si>
+    <t>18.06.202593</t>
+  </si>
+  <si>
+    <t>18.06.202594</t>
+  </si>
+  <si>
+    <t>18.06.202595</t>
+  </si>
+  <si>
+    <t>18.06.202596</t>
+  </si>
+  <si>
+    <t>19.06.20251</t>
+  </si>
+  <si>
+    <t>19.06.20252</t>
+  </si>
+  <si>
+    <t>19.06.20253</t>
+  </si>
+  <si>
+    <t>19.06.20254</t>
+  </si>
+  <si>
+    <t>19.06.20255</t>
+  </si>
+  <si>
+    <t>19.06.20256</t>
+  </si>
+  <si>
+    <t>19.06.20257</t>
+  </si>
+  <si>
+    <t>19.06.20258</t>
+  </si>
+  <si>
+    <t>19.06.20259</t>
+  </si>
+  <si>
+    <t>19.06.202510</t>
+  </si>
+  <si>
+    <t>19.06.202511</t>
+  </si>
+  <si>
+    <t>19.06.202512</t>
+  </si>
+  <si>
+    <t>19.06.202513</t>
+  </si>
+  <si>
+    <t>19.06.202514</t>
+  </si>
+  <si>
+    <t>19.06.202515</t>
+  </si>
+  <si>
+    <t>19.06.202516</t>
+  </si>
+  <si>
+    <t>19.06.202517</t>
+  </si>
+  <si>
+    <t>19.06.202518</t>
+  </si>
+  <si>
+    <t>19.06.202519</t>
+  </si>
+  <si>
+    <t>19.06.202520</t>
+  </si>
+  <si>
+    <t>19.06.202521</t>
+  </si>
+  <si>
+    <t>19.06.202522</t>
+  </si>
+  <si>
+    <t>19.06.202523</t>
+  </si>
+  <si>
+    <t>19.06.202524</t>
+  </si>
+  <si>
+    <t>19.06.202525</t>
+  </si>
+  <si>
+    <t>19.06.202526</t>
+  </si>
+  <si>
+    <t>19.06.202527</t>
+  </si>
+  <si>
+    <t>19.06.202528</t>
+  </si>
+  <si>
+    <t>19.06.202529</t>
+  </si>
+  <si>
+    <t>19.06.202530</t>
+  </si>
+  <si>
+    <t>19.06.202531</t>
+  </si>
+  <si>
+    <t>19.06.202532</t>
+  </si>
+  <si>
+    <t>19.06.202533</t>
+  </si>
+  <si>
+    <t>19.06.202534</t>
+  </si>
+  <si>
+    <t>19.06.202535</t>
+  </si>
+  <si>
+    <t>19.06.202536</t>
+  </si>
+  <si>
+    <t>19.06.202537</t>
+  </si>
+  <si>
+    <t>19.06.202538</t>
+  </si>
+  <si>
+    <t>19.06.202539</t>
+  </si>
+  <si>
+    <t>19.06.202540</t>
+  </si>
+  <si>
+    <t>19.06.202541</t>
+  </si>
+  <si>
+    <t>19.06.202542</t>
+  </si>
+  <si>
+    <t>19.06.202543</t>
+  </si>
+  <si>
+    <t>19.06.202544</t>
+  </si>
+  <si>
+    <t>19.06.202545</t>
+  </si>
+  <si>
+    <t>19.06.202546</t>
+  </si>
+  <si>
+    <t>19.06.202547</t>
+  </si>
+  <si>
+    <t>19.06.202548</t>
+  </si>
+  <si>
+    <t>19.06.202549</t>
+  </si>
+  <si>
+    <t>19.06.202550</t>
+  </si>
+  <si>
+    <t>19.06.202551</t>
+  </si>
+  <si>
+    <t>19.06.202552</t>
+  </si>
+  <si>
+    <t>19.06.202553</t>
+  </si>
+  <si>
+    <t>19.06.202554</t>
+  </si>
+  <si>
+    <t>19.06.202555</t>
+  </si>
+  <si>
+    <t>19.06.202556</t>
+  </si>
+  <si>
+    <t>19.06.202557</t>
+  </si>
+  <si>
+    <t>19.06.202558</t>
+  </si>
+  <si>
+    <t>19.06.202559</t>
+  </si>
+  <si>
+    <t>19.06.202560</t>
+  </si>
+  <si>
+    <t>19.06.202561</t>
+  </si>
+  <si>
+    <t>19.06.202562</t>
+  </si>
+  <si>
+    <t>19.06.202563</t>
+  </si>
+  <si>
+    <t>19.06.202564</t>
+  </si>
+  <si>
+    <t>19.06.202565</t>
+  </si>
+  <si>
+    <t>19.06.202566</t>
+  </si>
+  <si>
+    <t>19.06.202567</t>
+  </si>
+  <si>
+    <t>19.06.202568</t>
+  </si>
+  <si>
+    <t>19.06.202569</t>
+  </si>
+  <si>
+    <t>19.06.202570</t>
+  </si>
+  <si>
+    <t>19.06.202571</t>
+  </si>
+  <si>
+    <t>19.06.202572</t>
+  </si>
+  <si>
+    <t>19.06.202573</t>
+  </si>
+  <si>
+    <t>19.06.202574</t>
+  </si>
+  <si>
+    <t>19.06.202575</t>
+  </si>
+  <si>
+    <t>19.06.202576</t>
+  </si>
+  <si>
+    <t>19.06.202577</t>
+  </si>
+  <si>
+    <t>19.06.202578</t>
+  </si>
+  <si>
+    <t>19.06.202579</t>
+  </si>
+  <si>
+    <t>19.06.202580</t>
+  </si>
+  <si>
+    <t>19.06.202581</t>
+  </si>
+  <si>
+    <t>19.06.202582</t>
+  </si>
+  <si>
+    <t>19.06.202583</t>
+  </si>
+  <si>
+    <t>19.06.202584</t>
+  </si>
+  <si>
+    <t>19.06.202585</t>
+  </si>
+  <si>
+    <t>19.06.202586</t>
+  </si>
+  <si>
+    <t>19.06.202587</t>
+  </si>
+  <si>
+    <t>19.06.202588</t>
+  </si>
+  <si>
+    <t>19.06.202589</t>
+  </si>
+  <si>
+    <t>19.06.202590</t>
+  </si>
+  <si>
+    <t>19.06.202591</t>
+  </si>
+  <si>
+    <t>19.06.202592</t>
+  </si>
+  <si>
+    <t>19.06.202593</t>
+  </si>
+  <si>
+    <t>19.06.202594</t>
+  </si>
+  <si>
+    <t>19.06.202595</t>
+  </si>
+  <si>
+    <t>19.06.202596</t>
+  </si>
+  <si>
+    <t>20.06.20251</t>
+  </si>
+  <si>
+    <t>20.06.20252</t>
+  </si>
+  <si>
+    <t>20.06.20253</t>
+  </si>
+  <si>
+    <t>20.06.20254</t>
+  </si>
+  <si>
+    <t>20.06.20255</t>
+  </si>
+  <si>
+    <t>20.06.20256</t>
+  </si>
+  <si>
+    <t>20.06.20257</t>
+  </si>
+  <si>
+    <t>20.06.20258</t>
+  </si>
+  <si>
+    <t>20.06.20259</t>
+  </si>
+  <si>
+    <t>20.06.202510</t>
+  </si>
+  <si>
+    <t>20.06.202511</t>
+  </si>
+  <si>
+    <t>20.06.202512</t>
+  </si>
+  <si>
+    <t>20.06.202513</t>
+  </si>
+  <si>
+    <t>20.06.202514</t>
+  </si>
+  <si>
+    <t>20.06.202515</t>
+  </si>
+  <si>
+    <t>20.06.202516</t>
+  </si>
+  <si>
+    <t>20.06.202517</t>
+  </si>
+  <si>
+    <t>20.06.202518</t>
+  </si>
+  <si>
+    <t>20.06.202519</t>
+  </si>
+  <si>
+    <t>20.06.202520</t>
+  </si>
+  <si>
+    <t>20.06.202521</t>
+  </si>
+  <si>
+    <t>20.06.202522</t>
+  </si>
+  <si>
+    <t>20.06.202523</t>
+  </si>
+  <si>
+    <t>20.06.202524</t>
+  </si>
+  <si>
+    <t>20.06.202525</t>
+  </si>
+  <si>
+    <t>20.06.202526</t>
+  </si>
+  <si>
+    <t>20.06.202527</t>
+  </si>
+  <si>
+    <t>20.06.202528</t>
+  </si>
+  <si>
+    <t>20.06.202529</t>
+  </si>
+  <si>
+    <t>20.06.202530</t>
+  </si>
+  <si>
+    <t>20.06.202531</t>
+  </si>
+  <si>
+    <t>20.06.202532</t>
+  </si>
+  <si>
+    <t>20.06.202533</t>
+  </si>
+  <si>
+    <t>20.06.202534</t>
+  </si>
+  <si>
+    <t>20.06.202535</t>
+  </si>
+  <si>
+    <t>20.06.202536</t>
+  </si>
+  <si>
+    <t>20.06.202537</t>
+  </si>
+  <si>
+    <t>20.06.202538</t>
+  </si>
+  <si>
+    <t>20.06.202539</t>
+  </si>
+  <si>
+    <t>20.06.202540</t>
+  </si>
+  <si>
+    <t>20.06.202541</t>
+  </si>
+  <si>
+    <t>20.06.202542</t>
+  </si>
+  <si>
+    <t>20.06.202543</t>
+  </si>
+  <si>
+    <t>20.06.202544</t>
+  </si>
+  <si>
+    <t>20.06.202545</t>
+  </si>
+  <si>
+    <t>20.06.202546</t>
   </si>
 </sst>
 </file>
@@ -801,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,13 +1285,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B2">
-        <v>1.173</v>
+        <v>5.948</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10.463</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -843,13 +1302,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45824.01041666666</v>
+        <v>45825.01041666666</v>
       </c>
       <c r="B3">
-        <v>0.432</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="C3">
-        <v>4.657</v>
+        <v>0.254</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -860,13 +1319,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45824.02083333334</v>
+        <v>45825.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.485</v>
       </c>
       <c r="C4">
-        <v>8.454000000000001</v>
+        <v>7.58</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -877,13 +1336,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45824.03125</v>
+        <v>45825.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.578</v>
       </c>
       <c r="C5">
-        <v>15.207</v>
+        <v>3.483</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -894,13 +1353,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45824.04166666666</v>
+        <v>45825.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.551</v>
       </c>
       <c r="C6">
-        <v>11.126</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -911,13 +1370,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45824.05208333334</v>
+        <v>45825.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3.374</v>
       </c>
       <c r="C7">
-        <v>10.597</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -928,13 +1387,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45824.0625</v>
+        <v>45825.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7.682</v>
       </c>
       <c r="C8">
-        <v>4.105</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -945,13 +1404,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45824.07291666666</v>
+        <v>45825.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>21.438</v>
       </c>
       <c r="C9">
-        <v>0.647</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -962,13 +1421,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45824.08333333334</v>
+        <v>45825.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>21.775</v>
       </c>
       <c r="C10">
-        <v>3.644</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -979,13 +1438,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45824.09375</v>
+        <v>45825.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13.267</v>
       </c>
       <c r="C11">
-        <v>2.335</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -996,13 +1455,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45824.10416666666</v>
+        <v>45825.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>19.599</v>
       </c>
       <c r="C12">
-        <v>19.482</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1013,13 +1472,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45824.11458333334</v>
+        <v>45825.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>34.697</v>
       </c>
       <c r="C13">
-        <v>31.171</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1030,13 +1489,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45824.125</v>
+        <v>45825.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>34.327</v>
       </c>
       <c r="C14">
-        <v>50.284</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1047,13 +1506,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45824.13541666666</v>
+        <v>45825.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>20.304</v>
       </c>
       <c r="C15">
-        <v>41.197</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1064,13 +1523,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45824.14583333334</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>35.943</v>
       </c>
       <c r="C16">
-        <v>10.153</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1081,13 +1540,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45824.15625</v>
+        <v>45825.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9.301</v>
       </c>
       <c r="C17">
-        <v>12.727</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1098,13 +1557,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45824.16666666666</v>
+        <v>45825.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.788</v>
       </c>
       <c r="C18">
-        <v>28.38</v>
+        <v>1.235</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1115,13 +1574,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45824.17708333334</v>
+        <v>45825.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="C19">
-        <v>28.718</v>
+        <v>1.633</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1132,13 +1591,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45824.1875</v>
+        <v>45825.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="C20">
-        <v>26.4</v>
+        <v>4.135</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1149,13 +1608,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45824.19791666666</v>
+        <v>45825.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.906</v>
       </c>
       <c r="C21">
-        <v>15.469</v>
+        <v>0.267</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1166,13 +1625,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45824.20833333334</v>
+        <v>45825.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>5.255</v>
       </c>
       <c r="C22">
-        <v>32.234</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1183,13 +1642,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45824.21875</v>
+        <v>45825.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3.173</v>
       </c>
       <c r="C23">
-        <v>12.135</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1200,13 +1659,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45824.22916666666</v>
+        <v>45825.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.637</v>
+        <v>7.908</v>
       </c>
       <c r="C24">
-        <v>3.988</v>
+        <v>0.153</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1217,13 +1676,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45824.23958333334</v>
+        <v>45825.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.034000000000001</v>
+        <v>8.369</v>
       </c>
       <c r="C25">
-        <v>0.062</v>
+        <v>0.446</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1234,13 +1693,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45824.25</v>
+        <v>45825.25</v>
       </c>
       <c r="B26">
-        <v>0.7</v>
+        <v>19.66</v>
       </c>
       <c r="C26">
-        <v>11.208</v>
+        <v>0.019</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1251,13 +1710,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45824.26041666666</v>
+        <v>45825.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2.818</v>
       </c>
       <c r="C27">
-        <v>21.581</v>
+        <v>4.206</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1268,13 +1727,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45824.27083333334</v>
+        <v>45825.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>6.901</v>
+        <v>8.301</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1285,13 +1744,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45824.28125</v>
+        <v>45825.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6.953</v>
+        <v>10.119</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1302,13 +1761,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45824.29166666666</v>
+        <v>45825.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.741</v>
+        <v>15.06</v>
       </c>
       <c r="C30">
-        <v>1.409</v>
+        <v>1.412</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1319,13 +1778,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45824.30208333334</v>
+        <v>45825.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.584</v>
+        <v>6.107</v>
       </c>
       <c r="C31">
-        <v>13.837</v>
+        <v>2.326</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1336,13 +1795,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45824.3125</v>
+        <v>45825.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>10.306</v>
+        <v>3.164</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1353,13 +1812,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45824.32291666666</v>
+        <v>45825.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="C33">
-        <v>39.997</v>
+        <v>1.079</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1370,13 +1829,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45824.33333333334</v>
+        <v>45825.33333333334</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>20.104</v>
       </c>
       <c r="C34">
-        <v>50.461</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1387,13 +1846,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45824.34375</v>
+        <v>45825.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.367</v>
       </c>
       <c r="C35">
-        <v>14.338</v>
+        <v>8.58</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1404,13 +1863,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45824.35416666666</v>
+        <v>45825.35416666666</v>
       </c>
       <c r="B36">
-        <v>2.272</v>
+        <v>0.008</v>
       </c>
       <c r="C36">
-        <v>2.408</v>
+        <v>6.079</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1421,13 +1880,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45824.36458333334</v>
+        <v>45825.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>19.859</v>
+        <v>13.236</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1438,13 +1897,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45824.375</v>
+        <v>45825.375</v>
       </c>
       <c r="B38">
-        <v>2.966</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2.234</v>
+        <v>8.914</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1455,13 +1914,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45824.38541666666</v>
+        <v>45825.38541666666</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>11.89</v>
+        <v>10.834</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1472,13 +1931,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45824.39583333334</v>
+        <v>45825.39583333334</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>3.248</v>
+        <v>3.232</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1489,13 +1948,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45824.40625</v>
+        <v>45825.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>9.595000000000001</v>
+        <v>0.916</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1506,13 +1965,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45824.41666666666</v>
+        <v>45825.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3.231</v>
       </c>
       <c r="C42">
-        <v>20.165</v>
+        <v>3.497</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1523,13 +1982,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45824.42708333334</v>
+        <v>45825.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>23.165</v>
+        <v>3.529</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1540,13 +1999,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45824.4375</v>
+        <v>45825.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>28.328</v>
+        <v>5.856</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1557,13 +2016,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45824.44791666666</v>
+        <v>45825.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>5.96</v>
+        <v>8.411</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1574,13 +2033,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45824.45833333334</v>
+        <v>45825.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.593</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.743</v>
+        <v>6.939</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1591,13 +2050,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45824.46875</v>
+        <v>45825.46875</v>
       </c>
       <c r="B47">
-        <v>7.698</v>
+        <v>1.126</v>
       </c>
       <c r="C47">
-        <v>0.016</v>
+        <v>3.458</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1608,13 +2067,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45824.47916666666</v>
+        <v>45825.47916666666</v>
       </c>
       <c r="B48">
-        <v>3.63</v>
+        <v>5.598</v>
       </c>
       <c r="C48">
-        <v>2.532</v>
+        <v>0.141</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1625,13 +2084,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45824.48958333334</v>
+        <v>45825.48958333334</v>
       </c>
       <c r="B49">
-        <v>13.412</v>
+        <v>1.037</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>6.298</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1642,13 +2101,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45824.5</v>
+        <v>45825.5</v>
       </c>
       <c r="B50">
-        <v>3.108</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.704</v>
+        <v>1.012</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1659,16 +2118,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45824.51041666666</v>
+        <v>45825.96875</v>
       </c>
       <c r="B51">
-        <v>2.132</v>
+        <v>7.605</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
         <v>54</v>
@@ -1676,16 +2135,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45824.52083333334</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B52">
-        <v>0.316</v>
+        <v>8.75</v>
       </c>
       <c r="C52">
-        <v>14.887</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
         <v>55</v>
@@ -1693,16 +2152,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45824.53125</v>
+        <v>45825.98958333334</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="C53">
-        <v>27.08</v>
+        <v>0.064</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
@@ -1710,16 +2169,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45824.54166666666</v>
+        <v>45826</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>33.087</v>
       </c>
       <c r="C54">
-        <v>27.619</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>57</v>
@@ -1727,16 +2186,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45824.55208333334</v>
+        <v>45826.01041666666</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>13.699</v>
       </c>
       <c r="C55">
-        <v>32.298</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>58</v>
@@ -1744,16 +2203,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45824.5625</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1.877</v>
       </c>
       <c r="C56">
-        <v>35.978</v>
+        <v>2.955</v>
       </c>
       <c r="D56">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -1761,16 +2220,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45824.57291666666</v>
+        <v>45826.03125</v>
       </c>
       <c r="B57">
-        <v>0.013</v>
+        <v>2.075</v>
       </c>
       <c r="C57">
-        <v>13.652</v>
+        <v>2.792</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
         <v>60</v>
@@ -1778,16 +2237,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45824.58333333334</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B58">
-        <v>18.094</v>
+        <v>24.954</v>
       </c>
       <c r="C58">
-        <v>0.093</v>
+        <v>0.209</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>61</v>
@@ -1795,16 +2254,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45824.59375</v>
+        <v>45826.05208333334</v>
       </c>
       <c r="B59">
-        <v>39.169</v>
+        <v>6.311</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="D59">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
         <v>62</v>
@@ -1812,16 +2271,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45824.60416666666</v>
+        <v>45826.0625</v>
       </c>
       <c r="B60">
-        <v>9.733000000000001</v>
+        <v>24.797</v>
       </c>
       <c r="C60">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
         <v>63</v>
@@ -1829,16 +2288,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45824.61458333334</v>
+        <v>45826.07291666666</v>
       </c>
       <c r="B61">
-        <v>0.33</v>
+        <v>0.915</v>
       </c>
       <c r="C61">
-        <v>0.003</v>
+        <v>2.633</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
         <v>64</v>
@@ -1846,16 +2305,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45824.625</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B62">
-        <v>0.662</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.09</v>
+        <v>19.83</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>65</v>
@@ -1863,16 +2322,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45824.63541666666</v>
+        <v>45826.09375</v>
       </c>
       <c r="B63">
-        <v>6.926</v>
+        <v>8.763</v>
       </c>
       <c r="C63">
-        <v>1.99</v>
+        <v>3.224</v>
       </c>
       <c r="D63">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
@@ -1880,16 +2339,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45824.64583333334</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B64">
-        <v>14.21</v>
+        <v>16.215</v>
       </c>
       <c r="C64">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
         <v>67</v>
@@ -1897,16 +2356,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45824.65625</v>
+        <v>45826.11458333334</v>
       </c>
       <c r="B65">
-        <v>8.394</v>
+        <v>16.15</v>
       </c>
       <c r="C65">
-        <v>0.426</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>68</v>
@@ -1914,16 +2373,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45824.66666666666</v>
+        <v>45826.125</v>
       </c>
       <c r="B66">
-        <v>4.06</v>
+        <v>0.119</v>
       </c>
       <c r="C66">
-        <v>2.102</v>
+        <v>12.585</v>
       </c>
       <c r="D66">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>69</v>
@@ -1931,16 +2390,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45824.67708333334</v>
+        <v>45826.13541666666</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1.826</v>
       </c>
       <c r="C67">
-        <v>8.814</v>
+        <v>12.232</v>
       </c>
       <c r="D67">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>70</v>
@@ -1948,16 +2407,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45824.6875</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>12.493</v>
       </c>
       <c r="C68">
-        <v>7.073</v>
+        <v>0.005</v>
       </c>
       <c r="D68">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
         <v>71</v>
@@ -1965,16 +2424,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45824.69791666666</v>
+        <v>45826.15625</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>4.513</v>
       </c>
       <c r="C69">
-        <v>13.42</v>
+        <v>3.751</v>
       </c>
       <c r="D69">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>72</v>
@@ -1982,16 +2441,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45824.70833333334</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C70">
-        <v>19.109</v>
+        <v>14.932</v>
       </c>
       <c r="D70">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
         <v>73</v>
@@ -1999,16 +2458,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45824.71875</v>
+        <v>45826.17708333334</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>18.755</v>
+        <v>15.317</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
         <v>74</v>
@@ -2016,16 +2475,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45824.72916666666</v>
+        <v>45826.1875</v>
       </c>
       <c r="B72">
-        <v>12.299</v>
+        <v>0.727</v>
       </c>
       <c r="C72">
-        <v>1.531</v>
+        <v>3.339</v>
       </c>
       <c r="D72">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -2033,16 +2492,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45824.73958333334</v>
+        <v>45826.19791666666</v>
       </c>
       <c r="B73">
-        <v>24.232</v>
+        <v>12.471</v>
       </c>
       <c r="C73">
-        <v>0.133</v>
+        <v>0.125</v>
       </c>
       <c r="D73">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
         <v>76</v>
@@ -2050,16 +2509,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45824.75</v>
+        <v>45826.20833333334</v>
       </c>
       <c r="B74">
-        <v>4.566</v>
+        <v>8.512</v>
       </c>
       <c r="C74">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
@@ -2067,16 +2526,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45824.76041666666</v>
+        <v>45826.21875</v>
       </c>
       <c r="B75">
-        <v>44.22</v>
+        <v>4.024</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="D75">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
         <v>78</v>
@@ -2084,16 +2543,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45824.77083333334</v>
+        <v>45826.22916666666</v>
       </c>
       <c r="B76">
-        <v>58.649</v>
+        <v>11.225</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
         <v>79</v>
@@ -2101,16 +2560,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45824.78125</v>
+        <v>45826.23958333334</v>
       </c>
       <c r="B77">
-        <v>50.256</v>
+        <v>20.484</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
         <v>80</v>
@@ -2118,16 +2577,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45824.79166666666</v>
+        <v>45826.25</v>
       </c>
       <c r="B78">
-        <v>1.398</v>
+        <v>27.751</v>
       </c>
       <c r="C78">
-        <v>2.173</v>
+        <v>0.005</v>
       </c>
       <c r="D78">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
         <v>81</v>
@@ -2135,16 +2594,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45824.80208333334</v>
+        <v>45826.26041666666</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>21.397</v>
       </c>
       <c r="C79">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
         <v>82</v>
@@ -2152,16 +2611,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45824.8125</v>
+        <v>45826.27083333334</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>9.449</v>
       </c>
       <c r="C80">
-        <v>10.299</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
         <v>83</v>
@@ -2169,16 +2628,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45824.82291666666</v>
+        <v>45826.28125</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="C81">
-        <v>11.06</v>
+        <v>10.96</v>
       </c>
       <c r="D81">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
         <v>84</v>
@@ -2186,16 +2645,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45824.83333333334</v>
+        <v>45826.29166666666</v>
       </c>
       <c r="B82">
-        <v>1.261</v>
+        <v>0.035</v>
       </c>
       <c r="C82">
-        <v>6.281</v>
+        <v>11.763</v>
       </c>
       <c r="D82">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E82" t="s">
         <v>85</v>
@@ -2203,16 +2662,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45824.84375</v>
+        <v>45826.30208333334</v>
       </c>
       <c r="B83">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>3.874</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="D83">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
         <v>86</v>
@@ -2220,16 +2679,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45824.85416666666</v>
+        <v>45826.3125</v>
       </c>
       <c r="B84">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>8.129</v>
+        <v>7.412</v>
       </c>
       <c r="D84">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
         <v>87</v>
@@ -2237,16 +2696,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45824.86458333334</v>
+        <v>45826.32291666666</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>15.823</v>
+        <v>7.604</v>
       </c>
       <c r="D85">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
         <v>88</v>
@@ -2254,16 +2713,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45824.875</v>
+        <v>45826.33333333334</v>
       </c>
       <c r="B86">
-        <v>9.500999999999999</v>
+        <v>1.341</v>
       </c>
       <c r="C86">
-        <v>0.007</v>
+        <v>4.925</v>
       </c>
       <c r="D86">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E86" t="s">
         <v>89</v>
@@ -2271,16 +2730,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45824.88541666666</v>
+        <v>45826.34375</v>
       </c>
       <c r="B87">
-        <v>16.775</v>
+        <v>2.597</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.878</v>
       </c>
       <c r="D87">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
         <v>90</v>
@@ -2288,16 +2747,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45824.89583333334</v>
+        <v>45826.35416666666</v>
       </c>
       <c r="B88">
-        <v>1.15</v>
+        <v>6.34</v>
       </c>
       <c r="C88">
-        <v>2.819</v>
+        <v>3.681</v>
       </c>
       <c r="D88">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
         <v>91</v>
@@ -2305,16 +2764,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45824.90625</v>
+        <v>45826.36458333334</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>15.148</v>
       </c>
       <c r="C89">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
         <v>92</v>
@@ -2322,16 +2781,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45824.91666666666</v>
+        <v>45826.375</v>
       </c>
       <c r="B90">
-        <v>7.052</v>
+        <v>1.275</v>
       </c>
       <c r="C90">
-        <v>0.014</v>
+        <v>14.687</v>
       </c>
       <c r="D90">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s">
         <v>93</v>
@@ -2339,16 +2798,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45824.92708333334</v>
+        <v>45826.38541666666</v>
       </c>
       <c r="B91">
-        <v>16.111</v>
+        <v>0.032</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2.078</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
         <v>94</v>
@@ -2356,16 +2815,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45824.9375</v>
+        <v>45826.39583333334</v>
       </c>
       <c r="B92">
-        <v>5.336</v>
+        <v>0.341</v>
       </c>
       <c r="C92">
-        <v>0.263</v>
+        <v>2.753</v>
       </c>
       <c r="D92">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
         <v>95</v>
@@ -2373,16 +2832,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45824.94791666666</v>
+        <v>45826.40625</v>
       </c>
       <c r="B93">
-        <v>0.004</v>
+        <v>1.561</v>
       </c>
       <c r="C93">
-        <v>3.904</v>
+        <v>0.139</v>
       </c>
       <c r="D93">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
         <v>96</v>
@@ -2390,16 +2849,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45824.95833333334</v>
+        <v>45826.41666666666</v>
       </c>
       <c r="B94">
-        <v>3.155</v>
+        <v>1.258</v>
       </c>
       <c r="C94">
-        <v>0.204</v>
+        <v>2.457</v>
       </c>
       <c r="D94">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
         <v>97</v>
@@ -2407,16 +2866,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45824.96875</v>
+        <v>45826.42708333334</v>
       </c>
       <c r="B95">
-        <v>7.407</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.014</v>
+        <v>9.715999999999999</v>
       </c>
       <c r="D95">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
         <v>98</v>
@@ -2424,852 +2883,3572 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45824.96875</v>
+        <v>45826.4375</v>
       </c>
       <c r="B96">
-        <v>7.407</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.014</v>
+        <v>0.909</v>
       </c>
       <c r="D96">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45824.97916666666</v>
+        <v>45826.44791666666</v>
       </c>
       <c r="B97">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>1.049</v>
+        <v>1.627</v>
       </c>
       <c r="D97">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45824.97916666666</v>
+        <v>45826.45833333334</v>
       </c>
       <c r="B98">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>1.049</v>
+        <v>30.021</v>
       </c>
       <c r="D98">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45824.98958333334</v>
+        <v>45826.46875</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>4.042</v>
+        <v>51.981</v>
       </c>
       <c r="D99">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45824.98958333334</v>
+        <v>45826.47916666666</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>4.042</v>
+        <v>50.129</v>
       </c>
       <c r="D100">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45825</v>
+        <v>45826.48958333334</v>
       </c>
       <c r="B101">
-        <v>5.948</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>10.463</v>
+        <v>52.116</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45825</v>
+        <v>45826.5</v>
       </c>
       <c r="B102">
-        <v>5.948</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>10.463</v>
+        <v>35.76</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.51041666666</v>
       </c>
       <c r="B103">
-        <v>8.701000000000001</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.254</v>
+        <v>14.958</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45825.01041666666</v>
+        <v>45826.52083333334</v>
       </c>
       <c r="B104">
-        <v>8.701000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="C104">
-        <v>0.254</v>
+        <v>11.988</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.53125</v>
       </c>
       <c r="B105">
-        <v>0.485</v>
+        <v>0.769</v>
       </c>
       <c r="C105">
-        <v>7.58</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45825.02083333334</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B106">
-        <v>0.485</v>
+        <v>5.344</v>
       </c>
       <c r="C106">
-        <v>7.58</v>
+        <v>0.916</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45825.03125</v>
+        <v>45826.55208333334</v>
       </c>
       <c r="B107">
-        <v>1.578</v>
+        <v>5.928</v>
       </c>
       <c r="C107">
-        <v>3.483</v>
+        <v>0.118</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45825.03125</v>
+        <v>45826.5625</v>
       </c>
       <c r="B108">
-        <v>1.578</v>
+        <v>14.362</v>
       </c>
       <c r="C108">
-        <v>3.483</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45825.04166666666</v>
+        <v>45826.57291666666</v>
       </c>
       <c r="B109">
-        <v>3.551</v>
+        <v>10.065</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>4.663</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45825.05208333334</v>
+        <v>45826.58333333334</v>
       </c>
       <c r="B110">
-        <v>3.374</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>10.417</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45825.0625</v>
+        <v>45826.59375</v>
       </c>
       <c r="B111">
-        <v>7.682</v>
+        <v>0.296</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>7.208</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45825.07291666666</v>
+        <v>45826.60416666666</v>
       </c>
       <c r="B112">
-        <v>21.438</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>15.723</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45825.08333333334</v>
+        <v>45826.61458333334</v>
       </c>
       <c r="B113">
-        <v>21.775</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>15.29</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45825.09375</v>
+        <v>45826.625</v>
       </c>
       <c r="B114">
-        <v>13.267</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>31.213</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45825.10416666666</v>
+        <v>45826.63541666666</v>
       </c>
       <c r="B115">
-        <v>19.599</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>44.739</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45825.11458333334</v>
+        <v>45826.64583333334</v>
       </c>
       <c r="B116">
-        <v>34.697</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>23.752</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45825.125</v>
+        <v>45826.65625</v>
       </c>
       <c r="B117">
-        <v>34.327</v>
+        <v>0.013</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>18.972</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45825.13541666666</v>
+        <v>45826.66666666666</v>
       </c>
       <c r="B118">
-        <v>20.304</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>13.266</v>
       </c>
       <c r="D118">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.67708333334</v>
       </c>
       <c r="B119">
-        <v>35.943</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>31.041</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45825.15625</v>
+        <v>45826.6875</v>
       </c>
       <c r="B120">
-        <v>9.301</v>
+        <v>0.47</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>3.607</v>
       </c>
       <c r="D120">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="E120" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45825.16666666666</v>
+        <v>45826.69791666666</v>
       </c>
       <c r="B121">
-        <v>1.788</v>
+        <v>6.985</v>
       </c>
       <c r="C121">
-        <v>1.235</v>
+        <v>0.135</v>
       </c>
       <c r="D121">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45825.17708333334</v>
+        <v>45826.70833333334</v>
       </c>
       <c r="B122">
-        <v>0.708</v>
+        <v>0.006</v>
       </c>
       <c r="C122">
-        <v>1.633</v>
+        <v>5.115</v>
       </c>
       <c r="D122">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45825.1875</v>
+        <v>45826.71875</v>
       </c>
       <c r="B123">
-        <v>0.013</v>
+        <v>5.661</v>
       </c>
       <c r="C123">
-        <v>4.135</v>
+        <v>3.016</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45825.19791666666</v>
+        <v>45826.72916666666</v>
       </c>
       <c r="B124">
-        <v>7.906</v>
+        <v>15.153</v>
       </c>
       <c r="C124">
-        <v>0.267</v>
+        <v>0.249</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E124" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45825.20833333334</v>
+        <v>45826.73958333334</v>
       </c>
       <c r="B125">
-        <v>5.255</v>
+        <v>5.774</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>2.065</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45825.21875</v>
+        <v>45826.75</v>
       </c>
       <c r="B126">
-        <v>3.173</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>6.79</v>
       </c>
       <c r="D126">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E126" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45825.22916666666</v>
+        <v>45826.76041666666</v>
       </c>
       <c r="B127">
-        <v>7.908</v>
+        <v>1.399</v>
       </c>
       <c r="C127">
-        <v>0.153</v>
+        <v>2.681</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45825.23958333334</v>
+        <v>45826.77083333334</v>
       </c>
       <c r="B128">
-        <v>8.369</v>
+        <v>5.601</v>
       </c>
       <c r="C128">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45825.25</v>
+        <v>45826.78125</v>
       </c>
       <c r="B129">
-        <v>19.66</v>
+        <v>0.105</v>
       </c>
       <c r="C129">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45825.26041666666</v>
+        <v>45826.79166666666</v>
       </c>
       <c r="B130">
-        <v>2.818</v>
+        <v>0.054</v>
       </c>
       <c r="C130">
-        <v>4.206</v>
+        <v>15.246</v>
       </c>
       <c r="D130">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45825.27083333334</v>
+        <v>45826.80208333334</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>0.506</v>
       </c>
       <c r="C131">
-        <v>8.301</v>
+        <v>7.134</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45825.28125</v>
+        <v>45826.8125</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1.659</v>
       </c>
       <c r="C132">
-        <v>10.119</v>
+        <v>0.025</v>
       </c>
       <c r="D132">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E132" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45825.29166666666</v>
+        <v>45826.82291666666</v>
       </c>
       <c r="B133">
-        <v>15.06</v>
+        <v>0.208</v>
       </c>
       <c r="C133">
-        <v>1.412</v>
+        <v>0.184</v>
       </c>
       <c r="D133">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E133" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45825.30208333334</v>
+        <v>45826.83333333334</v>
       </c>
       <c r="B134">
-        <v>6.107</v>
+        <v>0.032</v>
       </c>
       <c r="C134">
-        <v>2.326</v>
+        <v>13.116</v>
       </c>
       <c r="D134">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45825.3125</v>
+        <v>45826.84375</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>0.354</v>
       </c>
       <c r="C135">
-        <v>3.164</v>
+        <v>0.387</v>
       </c>
       <c r="D135">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E135" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45825.32291666666</v>
+        <v>45826.85416666666</v>
       </c>
       <c r="B136">
-        <v>0.155</v>
+        <v>0.26</v>
       </c>
       <c r="C136">
-        <v>1.079</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45825.33333333334</v>
+        <v>45826.86458333334</v>
       </c>
       <c r="B137">
-        <v>20.104</v>
+        <v>0.002</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.704</v>
       </c>
       <c r="D137">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="E137" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45825.34375</v>
+        <v>45826.875</v>
       </c>
       <c r="B138">
-        <v>0.367</v>
+        <v>1.197</v>
       </c>
       <c r="C138">
-        <v>8.58</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45825.35416666666</v>
+        <v>45826.88541666666</v>
       </c>
       <c r="B139">
-        <v>0.008</v>
+        <v>0.324</v>
       </c>
       <c r="C139">
-        <v>6.079</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E139" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45825.36458333334</v>
+        <v>45826.89583333334</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>0.276</v>
       </c>
       <c r="C140">
-        <v>13.236</v>
+        <v>13.995</v>
       </c>
       <c r="D140">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E140" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45825.375</v>
+        <v>45826.90625</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>8.914</v>
+        <v>46.307</v>
       </c>
       <c r="D141">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E141" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45825.38541666666</v>
+        <v>45826.91666666666</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>0.332</v>
       </c>
       <c r="C142">
-        <v>10.834</v>
+        <v>5.839</v>
       </c>
       <c r="D142">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E142" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45825.39583333334</v>
+        <v>45826.92708333334</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>3.232</v>
+        <v>26.892</v>
       </c>
       <c r="D143">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45825.40625</v>
+        <v>45826.9375</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="C144">
-        <v>0.916</v>
+        <v>9.938000000000001</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E144" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45825.41666666666</v>
+        <v>45826.94791666666</v>
       </c>
       <c r="B145">
-        <v>3.231</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>3.497</v>
+        <v>2.477</v>
       </c>
       <c r="D145">
+        <v>92</v>
+      </c>
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45826.95833333334</v>
+      </c>
+      <c r="B146">
+        <v>0.219</v>
+      </c>
+      <c r="C146">
+        <v>6.298</v>
+      </c>
+      <c r="D146">
+        <v>93</v>
+      </c>
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45826.96875</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>22.044</v>
+      </c>
+      <c r="D147">
+        <v>94</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45826.96875</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>22.044</v>
+      </c>
+      <c r="D148">
+        <v>94</v>
+      </c>
+      <c r="E148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45826.97916666666</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>21.965</v>
+      </c>
+      <c r="D149">
+        <v>95</v>
+      </c>
+      <c r="E149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45826.97916666666</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>21.965</v>
+      </c>
+      <c r="D150">
+        <v>95</v>
+      </c>
+      <c r="E150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45826.98958333334</v>
+      </c>
+      <c r="B151">
+        <v>6.926</v>
+      </c>
+      <c r="C151">
+        <v>0.173</v>
+      </c>
+      <c r="D151">
+        <v>96</v>
+      </c>
+      <c r="E151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45826.98958333334</v>
+      </c>
+      <c r="B152">
+        <v>6.926</v>
+      </c>
+      <c r="C152">
+        <v>0.173</v>
+      </c>
+      <c r="D152">
+        <v>96</v>
+      </c>
+      <c r="E152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B153">
+        <v>5.759</v>
+      </c>
+      <c r="C153">
+        <v>4.874</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B154">
+        <v>5.759</v>
+      </c>
+      <c r="C154">
+        <v>4.874</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B155">
+        <v>4.033</v>
+      </c>
+      <c r="C155">
+        <v>1.826</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45827.01041666666</v>
+      </c>
+      <c r="B156">
+        <v>4.033</v>
+      </c>
+      <c r="C156">
+        <v>1.826</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B157">
+        <v>2.262</v>
+      </c>
+      <c r="C157">
+        <v>4.067</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45827.02083333334</v>
+      </c>
+      <c r="B158">
+        <v>2.262</v>
+      </c>
+      <c r="C158">
+        <v>4.067</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B159">
+        <v>0.061</v>
+      </c>
+      <c r="C159">
+        <v>5.196</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45827.03125</v>
+      </c>
+      <c r="B160">
+        <v>0.061</v>
+      </c>
+      <c r="C160">
+        <v>5.196</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45827.04166666666</v>
+      </c>
+      <c r="B161">
+        <v>10.31</v>
+      </c>
+      <c r="C161">
+        <v>3.921</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45827.05208333334</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>21.206</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45827.0625</v>
+      </c>
+      <c r="B163">
+        <v>5.087</v>
+      </c>
+      <c r="C163">
+        <v>0.589</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45827.07291666666</v>
+      </c>
+      <c r="B164">
+        <v>4.826</v>
+      </c>
+      <c r="C164">
+        <v>1.705</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45827.08333333334</v>
+      </c>
+      <c r="B165">
+        <v>0.628</v>
+      </c>
+      <c r="C165">
+        <v>5.523</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45827.09375</v>
+      </c>
+      <c r="B166">
+        <v>6.997</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>10</v>
+      </c>
+      <c r="E166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45827.10416666666</v>
+      </c>
+      <c r="B167">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="C167">
+        <v>4.212</v>
+      </c>
+      <c r="D167">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45827.11458333334</v>
+      </c>
+      <c r="B168">
+        <v>14.398</v>
+      </c>
+      <c r="C168">
+        <v>0.35</v>
+      </c>
+      <c r="D168">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45827.125</v>
+      </c>
+      <c r="B169">
+        <v>2.938</v>
+      </c>
+      <c r="C169">
+        <v>6.468</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45827.13541666666</v>
+      </c>
+      <c r="B170">
+        <v>1.622</v>
+      </c>
+      <c r="C170">
+        <v>2.775</v>
+      </c>
+      <c r="D170">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45827.14583333334</v>
+      </c>
+      <c r="B171">
+        <v>9.749000000000001</v>
+      </c>
+      <c r="C171">
+        <v>0.958</v>
+      </c>
+      <c r="D171">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45827.15625</v>
+      </c>
+      <c r="B172">
+        <v>3.687</v>
+      </c>
+      <c r="C172">
+        <v>3.775</v>
+      </c>
+      <c r="D172">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45827.16666666666</v>
+      </c>
+      <c r="B173">
+        <v>0.155</v>
+      </c>
+      <c r="C173">
+        <v>10.594</v>
+      </c>
+      <c r="D173">
+        <v>17</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45827.17708333334</v>
+      </c>
+      <c r="B174">
+        <v>0.305</v>
+      </c>
+      <c r="C174">
+        <v>4.524</v>
+      </c>
+      <c r="D174">
+        <v>18</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45827.1875</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>5.571</v>
+      </c>
+      <c r="D175">
+        <v>19</v>
+      </c>
+      <c r="E175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45827.19791666666</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>16.333</v>
+      </c>
+      <c r="D176">
+        <v>20</v>
+      </c>
+      <c r="E176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45827.20833333334</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>16.61</v>
+      </c>
+      <c r="D177">
+        <v>21</v>
+      </c>
+      <c r="E177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45827.21875</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>10.522</v>
+      </c>
+      <c r="D178">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45827.22916666666</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>21.229</v>
+      </c>
+      <c r="D179">
+        <v>23</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45827.23958333334</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>12.678</v>
+      </c>
+      <c r="D180">
+        <v>24</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45827.25</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>20.583</v>
+      </c>
+      <c r="D181">
+        <v>25</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45827.26041666666</v>
+      </c>
+      <c r="B182">
+        <v>0.045</v>
+      </c>
+      <c r="C182">
+        <v>6.454</v>
+      </c>
+      <c r="D182">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45827.27083333334</v>
+      </c>
+      <c r="B183">
+        <v>0.019</v>
+      </c>
+      <c r="C183">
+        <v>9.565</v>
+      </c>
+      <c r="D183">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45827.28125</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>18.33</v>
+      </c>
+      <c r="D184">
+        <v>28</v>
+      </c>
+      <c r="E184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45827.29166666666</v>
+      </c>
+      <c r="B185">
+        <v>5.787</v>
+      </c>
+      <c r="C185">
+        <v>7.03</v>
+      </c>
+      <c r="D185">
+        <v>29</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45827.30208333334</v>
+      </c>
+      <c r="B186">
+        <v>14.337</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45827.3125</v>
+      </c>
+      <c r="B187">
+        <v>1.973</v>
+      </c>
+      <c r="C187">
+        <v>1.438</v>
+      </c>
+      <c r="D187">
+        <v>31</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45827.32291666666</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0.538</v>
+      </c>
+      <c r="D188">
+        <v>32</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45827.33333333334</v>
+      </c>
+      <c r="B189">
+        <v>5.747</v>
+      </c>
+      <c r="C189">
+        <v>0.031</v>
+      </c>
+      <c r="D189">
+        <v>33</v>
+      </c>
+      <c r="E189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45827.34375</v>
+      </c>
+      <c r="B190">
+        <v>1.44</v>
+      </c>
+      <c r="C190">
+        <v>1.977</v>
+      </c>
+      <c r="D190">
+        <v>34</v>
+      </c>
+      <c r="E190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45827.35416666666</v>
+      </c>
+      <c r="B191">
+        <v>7.056</v>
+      </c>
+      <c r="C191">
+        <v>0.599</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45827.36458333334</v>
+      </c>
+      <c r="B192">
+        <v>0.769</v>
+      </c>
+      <c r="C192">
+        <v>1.085</v>
+      </c>
+      <c r="D192">
+        <v>36</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45827.375</v>
+      </c>
+      <c r="B193">
+        <v>9.156000000000001</v>
+      </c>
+      <c r="C193">
+        <v>2.623</v>
+      </c>
+      <c r="D193">
+        <v>37</v>
+      </c>
+      <c r="E193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45827.38541666666</v>
+      </c>
+      <c r="B194">
+        <v>18.135</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>38</v>
+      </c>
+      <c r="E194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45827.39583333334</v>
+      </c>
+      <c r="B195">
+        <v>1.073</v>
+      </c>
+      <c r="C195">
+        <v>0.082</v>
+      </c>
+      <c r="D195">
+        <v>39</v>
+      </c>
+      <c r="E195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45827.40625</v>
+      </c>
+      <c r="B196">
+        <v>0.007</v>
+      </c>
+      <c r="C196">
+        <v>1.935</v>
+      </c>
+      <c r="D196">
+        <v>40</v>
+      </c>
+      <c r="E196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45827.41666666666</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>9.962</v>
+      </c>
+      <c r="D197">
         <v>41</v>
       </c>
-      <c r="E145" t="s">
-        <v>141</v>
+      <c r="E197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45827.42708333334</v>
+      </c>
+      <c r="B198">
+        <v>5.462</v>
+      </c>
+      <c r="C198">
+        <v>0.119</v>
+      </c>
+      <c r="D198">
+        <v>42</v>
+      </c>
+      <c r="E198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45827.4375</v>
+      </c>
+      <c r="B199">
+        <v>1.466</v>
+      </c>
+      <c r="C199">
+        <v>5.816</v>
+      </c>
+      <c r="D199">
+        <v>43</v>
+      </c>
+      <c r="E199" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45827.44791666666</v>
+      </c>
+      <c r="B200">
+        <v>4.567</v>
+      </c>
+      <c r="C200">
+        <v>1.186</v>
+      </c>
+      <c r="D200">
+        <v>44</v>
+      </c>
+      <c r="E200" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45827.45833333334</v>
+      </c>
+      <c r="B201">
+        <v>1.844</v>
+      </c>
+      <c r="C201">
+        <v>3.891</v>
+      </c>
+      <c r="D201">
+        <v>45</v>
+      </c>
+      <c r="E201" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45827.46875</v>
+      </c>
+      <c r="B202">
+        <v>0.494</v>
+      </c>
+      <c r="C202">
+        <v>8.381</v>
+      </c>
+      <c r="D202">
+        <v>46</v>
+      </c>
+      <c r="E202" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45827.47916666666</v>
+      </c>
+      <c r="B203">
+        <v>0.168</v>
+      </c>
+      <c r="C203">
+        <v>4.214</v>
+      </c>
+      <c r="D203">
+        <v>47</v>
+      </c>
+      <c r="E203" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45827.48958333334</v>
+      </c>
+      <c r="B204">
+        <v>0.264</v>
+      </c>
+      <c r="C204">
+        <v>1.84</v>
+      </c>
+      <c r="D204">
+        <v>48</v>
+      </c>
+      <c r="E204" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45827.5</v>
+      </c>
+      <c r="B205">
+        <v>0.067</v>
+      </c>
+      <c r="C205">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D205">
+        <v>49</v>
+      </c>
+      <c r="E205" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45827.51041666666</v>
+      </c>
+      <c r="B206">
+        <v>0.01</v>
+      </c>
+      <c r="C206">
+        <v>10.078</v>
+      </c>
+      <c r="D206">
+        <v>50</v>
+      </c>
+      <c r="E206" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45827.52083333334</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>19.437</v>
+      </c>
+      <c r="D207">
+        <v>51</v>
+      </c>
+      <c r="E207" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45827.53125</v>
+      </c>
+      <c r="B208">
+        <v>0.002</v>
+      </c>
+      <c r="C208">
+        <v>18.228</v>
+      </c>
+      <c r="D208">
+        <v>52</v>
+      </c>
+      <c r="E208" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45827.54166666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>31.264</v>
+      </c>
+      <c r="D209">
+        <v>53</v>
+      </c>
+      <c r="E209" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45827.55208333334</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>42.364</v>
+      </c>
+      <c r="D210">
+        <v>54</v>
+      </c>
+      <c r="E210" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45827.5625</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>42.512</v>
+      </c>
+      <c r="D211">
+        <v>55</v>
+      </c>
+      <c r="E211" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45827.57291666666</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>18.742</v>
+      </c>
+      <c r="D212">
+        <v>56</v>
+      </c>
+      <c r="E212" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45827.58333333334</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>31.329</v>
+      </c>
+      <c r="D213">
+        <v>57</v>
+      </c>
+      <c r="E213" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45827.59375</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>41.596</v>
+      </c>
+      <c r="D214">
+        <v>58</v>
+      </c>
+      <c r="E214" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45827.60416666666</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>34.791</v>
+      </c>
+      <c r="D215">
+        <v>59</v>
+      </c>
+      <c r="E215" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45827.61458333334</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>34.778</v>
+      </c>
+      <c r="D216">
+        <v>60</v>
+      </c>
+      <c r="E216" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45827.625</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>34.432</v>
+      </c>
+      <c r="D217">
+        <v>61</v>
+      </c>
+      <c r="E217" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45827.63541666666</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>31.683</v>
+      </c>
+      <c r="D218">
+        <v>62</v>
+      </c>
+      <c r="E218" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45827.64583333334</v>
+      </c>
+      <c r="B219">
+        <v>0.117</v>
+      </c>
+      <c r="C219">
+        <v>8.798</v>
+      </c>
+      <c r="D219">
+        <v>63</v>
+      </c>
+      <c r="E219" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45827.65625</v>
+      </c>
+      <c r="B220">
+        <v>0.01</v>
+      </c>
+      <c r="C220">
+        <v>10.122</v>
+      </c>
+      <c r="D220">
+        <v>64</v>
+      </c>
+      <c r="E220" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45827.66666666666</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>6.362</v>
+      </c>
+      <c r="D221">
+        <v>65</v>
+      </c>
+      <c r="E221" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45827.67708333334</v>
+      </c>
+      <c r="B222">
+        <v>0.963</v>
+      </c>
+      <c r="C222">
+        <v>1.888</v>
+      </c>
+      <c r="D222">
+        <v>66</v>
+      </c>
+      <c r="E222" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45827.6875</v>
+      </c>
+      <c r="B223">
+        <v>3.43</v>
+      </c>
+      <c r="C223">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="D223">
+        <v>67</v>
+      </c>
+      <c r="E223" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45827.69791666666</v>
+      </c>
+      <c r="B224">
+        <v>12</v>
+      </c>
+      <c r="C224">
+        <v>0.038</v>
+      </c>
+      <c r="D224">
+        <v>68</v>
+      </c>
+      <c r="E224" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45827.70833333334</v>
+      </c>
+      <c r="B225">
+        <v>0.13</v>
+      </c>
+      <c r="C225">
+        <v>20.766</v>
+      </c>
+      <c r="D225">
+        <v>69</v>
+      </c>
+      <c r="E225" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45827.71875</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>29.858</v>
+      </c>
+      <c r="D226">
+        <v>70</v>
+      </c>
+      <c r="E226" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45827.72916666666</v>
+      </c>
+      <c r="B227">
+        <v>0.372</v>
+      </c>
+      <c r="C227">
+        <v>9.06</v>
+      </c>
+      <c r="D227">
+        <v>71</v>
+      </c>
+      <c r="E227" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45827.73958333334</v>
+      </c>
+      <c r="B228">
+        <v>13.957</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>72</v>
+      </c>
+      <c r="E228" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45827.75</v>
+      </c>
+      <c r="B229">
+        <v>0.013</v>
+      </c>
+      <c r="C229">
+        <v>5.891</v>
+      </c>
+      <c r="D229">
+        <v>73</v>
+      </c>
+      <c r="E229" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45827.76041666666</v>
+      </c>
+      <c r="B230">
+        <v>0.005</v>
+      </c>
+      <c r="C230">
+        <v>15.493</v>
+      </c>
+      <c r="D230">
+        <v>74</v>
+      </c>
+      <c r="E230" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45827.77083333334</v>
+      </c>
+      <c r="B231">
+        <v>2.41</v>
+      </c>
+      <c r="C231">
+        <v>0.174</v>
+      </c>
+      <c r="D231">
+        <v>75</v>
+      </c>
+      <c r="E231" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45827.78125</v>
+      </c>
+      <c r="B232">
+        <v>0.773</v>
+      </c>
+      <c r="C232">
+        <v>0.028</v>
+      </c>
+      <c r="D232">
+        <v>76</v>
+      </c>
+      <c r="E232" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45827.79166666666</v>
+      </c>
+      <c r="B233">
+        <v>3.563</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>77</v>
+      </c>
+      <c r="E233" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45827.80208333334</v>
+      </c>
+      <c r="B234">
+        <v>2.314</v>
+      </c>
+      <c r="C234">
+        <v>0.002</v>
+      </c>
+      <c r="D234">
+        <v>78</v>
+      </c>
+      <c r="E234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45827.8125</v>
+      </c>
+      <c r="B235">
+        <v>1.688</v>
+      </c>
+      <c r="C235">
+        <v>0.03</v>
+      </c>
+      <c r="D235">
+        <v>79</v>
+      </c>
+      <c r="E235" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45827.82291666666</v>
+      </c>
+      <c r="B236">
+        <v>5.282</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>80</v>
+      </c>
+      <c r="E236" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45827.83333333334</v>
+      </c>
+      <c r="B237">
+        <v>1.338</v>
+      </c>
+      <c r="C237">
+        <v>6.671</v>
+      </c>
+      <c r="D237">
+        <v>81</v>
+      </c>
+      <c r="E237" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45827.84375</v>
+      </c>
+      <c r="B238">
+        <v>0.062</v>
+      </c>
+      <c r="C238">
+        <v>3.029</v>
+      </c>
+      <c r="D238">
+        <v>82</v>
+      </c>
+      <c r="E238" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45827.85416666666</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>18.92</v>
+      </c>
+      <c r="D239">
+        <v>83</v>
+      </c>
+      <c r="E239" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45827.86458333334</v>
+      </c>
+      <c r="B240">
+        <v>0.299</v>
+      </c>
+      <c r="C240">
+        <v>22.243</v>
+      </c>
+      <c r="D240">
+        <v>84</v>
+      </c>
+      <c r="E240" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45827.875</v>
+      </c>
+      <c r="B241">
+        <v>8.753</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>85</v>
+      </c>
+      <c r="E241" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45827.88541666666</v>
+      </c>
+      <c r="B242">
+        <v>0.911</v>
+      </c>
+      <c r="C242">
+        <v>0.054</v>
+      </c>
+      <c r="D242">
+        <v>86</v>
+      </c>
+      <c r="E242" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45827.89583333334</v>
+      </c>
+      <c r="B243">
+        <v>4.838</v>
+      </c>
+      <c r="C243">
+        <v>0.344</v>
+      </c>
+      <c r="D243">
+        <v>87</v>
+      </c>
+      <c r="E243" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45827.90625</v>
+      </c>
+      <c r="B244">
+        <v>1.058</v>
+      </c>
+      <c r="C244">
+        <v>1.159</v>
+      </c>
+      <c r="D244">
+        <v>88</v>
+      </c>
+      <c r="E244" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45827.91666666666</v>
+      </c>
+      <c r="B245">
+        <v>6.839</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>89</v>
+      </c>
+      <c r="E245" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45827.92708333334</v>
+      </c>
+      <c r="B246">
+        <v>17.355</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>90</v>
+      </c>
+      <c r="E246" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45827.9375</v>
+      </c>
+      <c r="B247">
+        <v>11.237</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>91</v>
+      </c>
+      <c r="E247" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45827.94791666666</v>
+      </c>
+      <c r="B248">
+        <v>18.839</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>92</v>
+      </c>
+      <c r="E248" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45827.95833333334</v>
+      </c>
+      <c r="B249">
+        <v>4.882</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>93</v>
+      </c>
+      <c r="E249" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B250">
+        <v>13.448</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>94</v>
+      </c>
+      <c r="E250" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45827.96875</v>
+      </c>
+      <c r="B251">
+        <v>13.448</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>94</v>
+      </c>
+      <c r="E251" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B252">
+        <v>8.728</v>
+      </c>
+      <c r="C252">
+        <v>0.033</v>
+      </c>
+      <c r="D252">
+        <v>95</v>
+      </c>
+      <c r="E252" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45827.97916666666</v>
+      </c>
+      <c r="B253">
+        <v>8.728</v>
+      </c>
+      <c r="C253">
+        <v>0.033</v>
+      </c>
+      <c r="D253">
+        <v>95</v>
+      </c>
+      <c r="E253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>7.284</v>
+      </c>
+      <c r="D254">
+        <v>96</v>
+      </c>
+      <c r="E254" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45827.98958333334</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>7.284</v>
+      </c>
+      <c r="D255">
+        <v>96</v>
+      </c>
+      <c r="E255" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B256">
+        <v>1.741</v>
+      </c>
+      <c r="C256">
+        <v>1.894</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B257">
+        <v>1.741</v>
+      </c>
+      <c r="C257">
+        <v>1.894</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B258">
+        <v>20.577</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>45828.01041666666</v>
+      </c>
+      <c r="B259">
+        <v>20.577</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B260">
+        <v>19.888</v>
+      </c>
+      <c r="C260">
+        <v>0.006</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>45828.02083333334</v>
+      </c>
+      <c r="B261">
+        <v>19.888</v>
+      </c>
+      <c r="C261">
+        <v>0.006</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B262">
+        <v>11.107</v>
+      </c>
+      <c r="C262">
+        <v>0.005</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+      <c r="E262" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>45828.03125</v>
+      </c>
+      <c r="B263">
+        <v>11.107</v>
+      </c>
+      <c r="C263">
+        <v>0.005</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+      <c r="E263" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>45828.04166666666</v>
+      </c>
+      <c r="B264">
+        <v>20.861</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+      <c r="E264" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>45828.05208333334</v>
+      </c>
+      <c r="B265">
+        <v>2.288</v>
+      </c>
+      <c r="C265">
+        <v>14.984</v>
+      </c>
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>45828.0625</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>26.582</v>
+      </c>
+      <c r="D266">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>45828.07291666666</v>
+      </c>
+      <c r="B267">
+        <v>1.578</v>
+      </c>
+      <c r="C267">
+        <v>4.71</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>45828.08333333334</v>
+      </c>
+      <c r="B268">
+        <v>0.375</v>
+      </c>
+      <c r="C268">
+        <v>20.245</v>
+      </c>
+      <c r="D268">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>45828.09375</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>32.981</v>
+      </c>
+      <c r="D269">
+        <v>10</v>
+      </c>
+      <c r="E269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>45828.10416666666</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>88.02</v>
+      </c>
+      <c r="D270">
+        <v>11</v>
+      </c>
+      <c r="E270" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>45828.11458333334</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>50.052</v>
+      </c>
+      <c r="D271">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>45828.125</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>9.516999999999999</v>
+      </c>
+      <c r="D272">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>45828.13541666666</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>12.381</v>
+      </c>
+      <c r="D273">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>45828.14583333334</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>22.014</v>
+      </c>
+      <c r="D274">
+        <v>15</v>
+      </c>
+      <c r="E274" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>45828.15625</v>
+      </c>
+      <c r="B275">
+        <v>1.933</v>
+      </c>
+      <c r="C275">
+        <v>12.755</v>
+      </c>
+      <c r="D275">
+        <v>16</v>
+      </c>
+      <c r="E275" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>45828.16666666666</v>
+      </c>
+      <c r="B276">
+        <v>32.357</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>17</v>
+      </c>
+      <c r="E276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>45828.17708333334</v>
+      </c>
+      <c r="B277">
+        <v>2.4</v>
+      </c>
+      <c r="C277">
+        <v>9.449</v>
+      </c>
+      <c r="D277">
+        <v>18</v>
+      </c>
+      <c r="E277" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>45828.1875</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>43.29</v>
+      </c>
+      <c r="D278">
+        <v>19</v>
+      </c>
+      <c r="E278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>45828.19791666666</v>
+      </c>
+      <c r="B279">
+        <v>12.418</v>
+      </c>
+      <c r="C279">
+        <v>4.165</v>
+      </c>
+      <c r="D279">
+        <v>20</v>
+      </c>
+      <c r="E279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>45828.20833333334</v>
+      </c>
+      <c r="B280">
+        <v>37.803</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>21</v>
+      </c>
+      <c r="E280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>45828.21875</v>
+      </c>
+      <c r="B281">
+        <v>12.373</v>
+      </c>
+      <c r="C281">
+        <v>1.644</v>
+      </c>
+      <c r="D281">
+        <v>22</v>
+      </c>
+      <c r="E281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>45828.22916666666</v>
+      </c>
+      <c r="B282">
+        <v>4.815</v>
+      </c>
+      <c r="C282">
+        <v>3.338</v>
+      </c>
+      <c r="D282">
+        <v>23</v>
+      </c>
+      <c r="E282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>45828.23958333334</v>
+      </c>
+      <c r="B283">
+        <v>8.316000000000001</v>
+      </c>
+      <c r="C283">
+        <v>0.372</v>
+      </c>
+      <c r="D283">
+        <v>24</v>
+      </c>
+      <c r="E283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>45828.25</v>
+      </c>
+      <c r="B284">
+        <v>16.048</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>25</v>
+      </c>
+      <c r="E284" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>45828.26041666666</v>
+      </c>
+      <c r="B285">
+        <v>26.585</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>26</v>
+      </c>
+      <c r="E285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>45828.27083333334</v>
+      </c>
+      <c r="B286">
+        <v>0.229</v>
+      </c>
+      <c r="C286">
+        <v>5.683</v>
+      </c>
+      <c r="D286">
+        <v>27</v>
+      </c>
+      <c r="E286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>45828.28125</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>10.126</v>
+      </c>
+      <c r="D287">
+        <v>28</v>
+      </c>
+      <c r="E287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>45828.29166666666</v>
+      </c>
+      <c r="B288">
+        <v>11.719</v>
+      </c>
+      <c r="C288">
+        <v>0.617</v>
+      </c>
+      <c r="D288">
+        <v>29</v>
+      </c>
+      <c r="E288" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>45828.30208333334</v>
+      </c>
+      <c r="B289">
+        <v>21.521</v>
+      </c>
+      <c r="C289">
+        <v>0.037</v>
+      </c>
+      <c r="D289">
+        <v>30</v>
+      </c>
+      <c r="E289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>45828.3125</v>
+      </c>
+      <c r="B290">
+        <v>1.416</v>
+      </c>
+      <c r="C290">
+        <v>5.532</v>
+      </c>
+      <c r="D290">
+        <v>31</v>
+      </c>
+      <c r="E290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>45828.32291666666</v>
+      </c>
+      <c r="B291">
+        <v>2.158</v>
+      </c>
+      <c r="C291">
+        <v>2.7</v>
+      </c>
+      <c r="D291">
+        <v>32</v>
+      </c>
+      <c r="E291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>45828.33333333334</v>
+      </c>
+      <c r="B292">
+        <v>2.332</v>
+      </c>
+      <c r="C292">
+        <v>8.907</v>
+      </c>
+      <c r="D292">
+        <v>33</v>
+      </c>
+      <c r="E292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>45828.34375</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>7.674</v>
+      </c>
+      <c r="D293">
+        <v>34</v>
+      </c>
+      <c r="E293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>45828.35416666666</v>
+      </c>
+      <c r="B294">
+        <v>0.007</v>
+      </c>
+      <c r="C294">
+        <v>9.305</v>
+      </c>
+      <c r="D294">
+        <v>35</v>
+      </c>
+      <c r="E294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>45828.36458333334</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>8.778</v>
+      </c>
+      <c r="D295">
+        <v>36</v>
+      </c>
+      <c r="E295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>45828.375</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>49.621</v>
+      </c>
+      <c r="D296">
+        <v>37</v>
+      </c>
+      <c r="E296" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>45828.38541666666</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>60.767</v>
+      </c>
+      <c r="D297">
+        <v>38</v>
+      </c>
+      <c r="E297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>45828.39583333334</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>26.779</v>
+      </c>
+      <c r="D298">
+        <v>39</v>
+      </c>
+      <c r="E298" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>45828.40625</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>2.016</v>
+      </c>
+      <c r="D299">
+        <v>40</v>
+      </c>
+      <c r="E299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>45828.41666666666</v>
+      </c>
+      <c r="B300">
+        <v>0.015</v>
+      </c>
+      <c r="C300">
+        <v>14.557</v>
+      </c>
+      <c r="D300">
+        <v>41</v>
+      </c>
+      <c r="E300" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>45828.42708333334</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>19.122</v>
+      </c>
+      <c r="D301">
+        <v>42</v>
+      </c>
+      <c r="E301" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>45828.4375</v>
+      </c>
+      <c r="B302">
+        <v>1.469</v>
+      </c>
+      <c r="C302">
+        <v>1.726</v>
+      </c>
+      <c r="D302">
+        <v>43</v>
+      </c>
+      <c r="E302" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>45828.44791666666</v>
+      </c>
+      <c r="B303">
+        <v>8.16</v>
+      </c>
+      <c r="C303">
+        <v>3.712</v>
+      </c>
+      <c r="D303">
+        <v>44</v>
+      </c>
+      <c r="E303" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>45828.45833333334</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>11.97</v>
+      </c>
+      <c r="D304">
+        <v>45</v>
+      </c>
+      <c r="E304" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>45828.46875</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>7.164</v>
+      </c>
+      <c r="D305">
+        <v>46</v>
+      </c>
+      <c r="E305" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,412 +31,418 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.08.20251</t>
-  </si>
-  <si>
-    <t>20.08.20252</t>
-  </si>
-  <si>
-    <t>20.08.20253</t>
-  </si>
-  <si>
-    <t>20.08.20254</t>
-  </si>
-  <si>
-    <t>20.08.20255</t>
-  </si>
-  <si>
-    <t>20.08.20256</t>
-  </si>
-  <si>
-    <t>20.08.20257</t>
-  </si>
-  <si>
-    <t>20.08.20258</t>
-  </si>
-  <si>
-    <t>20.08.20259</t>
-  </si>
-  <si>
-    <t>20.08.202510</t>
-  </si>
-  <si>
-    <t>20.08.202511</t>
-  </si>
-  <si>
-    <t>20.08.202512</t>
-  </si>
-  <si>
-    <t>20.08.202513</t>
-  </si>
-  <si>
-    <t>20.08.202514</t>
-  </si>
-  <si>
-    <t>20.08.202515</t>
-  </si>
-  <si>
-    <t>20.08.202516</t>
-  </si>
-  <si>
-    <t>20.08.202517</t>
-  </si>
-  <si>
-    <t>20.08.202518</t>
-  </si>
-  <si>
-    <t>20.08.202519</t>
-  </si>
-  <si>
-    <t>20.08.202520</t>
-  </si>
-  <si>
-    <t>20.08.202521</t>
-  </si>
-  <si>
-    <t>20.08.202522</t>
-  </si>
-  <si>
-    <t>20.08.202523</t>
-  </si>
-  <si>
-    <t>20.08.202524</t>
-  </si>
-  <si>
-    <t>20.08.202525</t>
-  </si>
-  <si>
-    <t>20.08.202526</t>
-  </si>
-  <si>
-    <t>20.08.202527</t>
-  </si>
-  <si>
-    <t>20.08.202528</t>
-  </si>
-  <si>
-    <t>20.08.202529</t>
-  </si>
-  <si>
-    <t>20.08.202530</t>
-  </si>
-  <si>
-    <t>20.08.202531</t>
-  </si>
-  <si>
-    <t>20.08.202532</t>
-  </si>
-  <si>
-    <t>20.08.202533</t>
-  </si>
-  <si>
-    <t>20.08.202534</t>
-  </si>
-  <si>
-    <t>20.08.202535</t>
-  </si>
-  <si>
-    <t>20.08.202536</t>
-  </si>
-  <si>
-    <t>20.08.202537</t>
-  </si>
-  <si>
-    <t>20.08.202538</t>
-  </si>
-  <si>
-    <t>20.08.202539</t>
-  </si>
-  <si>
-    <t>20.08.202540</t>
-  </si>
-  <si>
-    <t>20.08.202541</t>
-  </si>
-  <si>
-    <t>20.08.202542</t>
-  </si>
-  <si>
-    <t>20.08.202543</t>
-  </si>
-  <si>
-    <t>20.08.202544</t>
-  </si>
-  <si>
-    <t>20.08.202545</t>
-  </si>
-  <si>
-    <t>20.08.202546</t>
-  </si>
-  <si>
-    <t>20.08.202547</t>
-  </si>
-  <si>
-    <t>20.08.202548</t>
-  </si>
-  <si>
-    <t>20.08.202549</t>
-  </si>
-  <si>
-    <t>20.08.202550</t>
-  </si>
-  <si>
-    <t>20.08.202551</t>
-  </si>
-  <si>
-    <t>20.08.202552</t>
-  </si>
-  <si>
-    <t>20.08.202553</t>
-  </si>
-  <si>
-    <t>20.08.202554</t>
-  </si>
-  <si>
-    <t>20.08.202555</t>
-  </si>
-  <si>
-    <t>20.08.202556</t>
-  </si>
-  <si>
-    <t>20.08.202557</t>
-  </si>
-  <si>
-    <t>20.08.202558</t>
-  </si>
-  <si>
-    <t>20.08.202559</t>
-  </si>
-  <si>
-    <t>20.08.202560</t>
-  </si>
-  <si>
-    <t>20.08.202561</t>
-  </si>
-  <si>
-    <t>20.08.202562</t>
-  </si>
-  <si>
-    <t>20.08.202563</t>
-  </si>
-  <si>
-    <t>20.08.202564</t>
-  </si>
-  <si>
-    <t>20.08.202565</t>
-  </si>
-  <si>
-    <t>20.08.202566</t>
-  </si>
-  <si>
-    <t>20.08.202567</t>
-  </si>
-  <si>
-    <t>20.08.202568</t>
-  </si>
-  <si>
-    <t>20.08.202569</t>
-  </si>
-  <si>
-    <t>20.08.202570</t>
-  </si>
-  <si>
-    <t>20.08.202571</t>
-  </si>
-  <si>
-    <t>20.08.202572</t>
-  </si>
-  <si>
-    <t>20.08.202573</t>
-  </si>
-  <si>
-    <t>20.08.202574</t>
-  </si>
-  <si>
-    <t>20.08.202575</t>
-  </si>
-  <si>
-    <t>20.08.202576</t>
-  </si>
-  <si>
-    <t>20.08.202577</t>
-  </si>
-  <si>
-    <t>20.08.202578</t>
-  </si>
-  <si>
-    <t>20.08.202579</t>
-  </si>
-  <si>
-    <t>20.08.202580</t>
-  </si>
-  <si>
-    <t>20.08.202581</t>
-  </si>
-  <si>
-    <t>20.08.202582</t>
-  </si>
-  <si>
-    <t>20.08.202583</t>
-  </si>
-  <si>
-    <t>20.08.202584</t>
-  </si>
-  <si>
-    <t>20.08.202585</t>
-  </si>
-  <si>
-    <t>20.08.202586</t>
-  </si>
-  <si>
-    <t>20.08.202587</t>
-  </si>
-  <si>
-    <t>20.08.202588</t>
-  </si>
-  <si>
-    <t>20.08.202589</t>
-  </si>
-  <si>
-    <t>20.08.202590</t>
-  </si>
-  <si>
-    <t>20.08.202591</t>
-  </si>
-  <si>
-    <t>20.08.202592</t>
-  </si>
-  <si>
-    <t>20.08.202593</t>
-  </si>
-  <si>
-    <t>20.08.202594</t>
-  </si>
-  <si>
-    <t>20.08.202595</t>
-  </si>
-  <si>
-    <t>20.08.202596</t>
-  </si>
-  <si>
-    <t>21.08.20251</t>
-  </si>
-  <si>
-    <t>21.08.20252</t>
-  </si>
-  <si>
-    <t>21.08.20253</t>
-  </si>
-  <si>
-    <t>21.08.20254</t>
-  </si>
-  <si>
-    <t>21.08.20255</t>
-  </si>
-  <si>
-    <t>21.08.20256</t>
-  </si>
-  <si>
-    <t>21.08.20257</t>
-  </si>
-  <si>
-    <t>21.08.20258</t>
-  </si>
-  <si>
-    <t>21.08.20259</t>
-  </si>
-  <si>
-    <t>21.08.202510</t>
-  </si>
-  <si>
-    <t>21.08.202511</t>
-  </si>
-  <si>
-    <t>21.08.202512</t>
-  </si>
-  <si>
-    <t>21.08.202513</t>
-  </si>
-  <si>
-    <t>21.08.202514</t>
-  </si>
-  <si>
-    <t>21.08.202515</t>
-  </si>
-  <si>
-    <t>21.08.202516</t>
-  </si>
-  <si>
-    <t>21.08.202517</t>
-  </si>
-  <si>
-    <t>21.08.202518</t>
-  </si>
-  <si>
-    <t>21.08.202519</t>
-  </si>
-  <si>
-    <t>21.08.202520</t>
-  </si>
-  <si>
-    <t>21.08.202521</t>
-  </si>
-  <si>
-    <t>21.08.202522</t>
-  </si>
-  <si>
-    <t>21.08.202523</t>
-  </si>
-  <si>
-    <t>21.08.202524</t>
-  </si>
-  <si>
-    <t>21.08.202525</t>
-  </si>
-  <si>
-    <t>21.08.202526</t>
-  </si>
-  <si>
-    <t>21.08.202527</t>
-  </si>
-  <si>
-    <t>21.08.202528</t>
-  </si>
-  <si>
-    <t>21.08.202529</t>
-  </si>
-  <si>
-    <t>21.08.202530</t>
-  </si>
-  <si>
-    <t>21.08.202531</t>
-  </si>
-  <si>
-    <t>21.08.202532</t>
-  </si>
-  <si>
-    <t>21.08.202533</t>
-  </si>
-  <si>
-    <t>21.08.202534</t>
-  </si>
-  <si>
-    <t>21.08.202535</t>
-  </si>
-  <si>
-    <t>21.08.202536</t>
-  </si>
-  <si>
-    <t>21.08.202537</t>
-  </si>
-  <si>
-    <t>21.08.202538</t>
-  </si>
-  <si>
-    <t>21.08.202539</t>
-  </si>
-  <si>
-    <t>21.08.202540</t>
+    <t>17.09.20251</t>
+  </si>
+  <si>
+    <t>17.09.20252</t>
+  </si>
+  <si>
+    <t>17.09.20253</t>
+  </si>
+  <si>
+    <t>17.09.20254</t>
+  </si>
+  <si>
+    <t>17.09.20255</t>
+  </si>
+  <si>
+    <t>17.09.20256</t>
+  </si>
+  <si>
+    <t>17.09.20257</t>
+  </si>
+  <si>
+    <t>17.09.20258</t>
+  </si>
+  <si>
+    <t>17.09.20259</t>
+  </si>
+  <si>
+    <t>17.09.202510</t>
+  </si>
+  <si>
+    <t>17.09.202511</t>
+  </si>
+  <si>
+    <t>17.09.202512</t>
+  </si>
+  <si>
+    <t>17.09.202513</t>
+  </si>
+  <si>
+    <t>17.09.202514</t>
+  </si>
+  <si>
+    <t>17.09.202515</t>
+  </si>
+  <si>
+    <t>17.09.202516</t>
+  </si>
+  <si>
+    <t>17.09.202517</t>
+  </si>
+  <si>
+    <t>17.09.202518</t>
+  </si>
+  <si>
+    <t>17.09.202519</t>
+  </si>
+  <si>
+    <t>17.09.202520</t>
+  </si>
+  <si>
+    <t>17.09.202521</t>
+  </si>
+  <si>
+    <t>17.09.202522</t>
+  </si>
+  <si>
+    <t>17.09.202523</t>
+  </si>
+  <si>
+    <t>17.09.202524</t>
+  </si>
+  <si>
+    <t>17.09.202525</t>
+  </si>
+  <si>
+    <t>17.09.202526</t>
+  </si>
+  <si>
+    <t>17.09.202527</t>
+  </si>
+  <si>
+    <t>17.09.202528</t>
+  </si>
+  <si>
+    <t>17.09.202529</t>
+  </si>
+  <si>
+    <t>17.09.202530</t>
+  </si>
+  <si>
+    <t>17.09.202531</t>
+  </si>
+  <si>
+    <t>17.09.202532</t>
+  </si>
+  <si>
+    <t>17.09.202533</t>
+  </si>
+  <si>
+    <t>17.09.202534</t>
+  </si>
+  <si>
+    <t>17.09.202535</t>
+  </si>
+  <si>
+    <t>17.09.202536</t>
+  </si>
+  <si>
+    <t>17.09.202537</t>
+  </si>
+  <si>
+    <t>17.09.202538</t>
+  </si>
+  <si>
+    <t>17.09.202539</t>
+  </si>
+  <si>
+    <t>17.09.202540</t>
+  </si>
+  <si>
+    <t>17.09.202541</t>
+  </si>
+  <si>
+    <t>17.09.202542</t>
+  </si>
+  <si>
+    <t>17.09.202543</t>
+  </si>
+  <si>
+    <t>17.09.202544</t>
+  </si>
+  <si>
+    <t>17.09.202545</t>
+  </si>
+  <si>
+    <t>17.09.202546</t>
+  </si>
+  <si>
+    <t>17.09.202547</t>
+  </si>
+  <si>
+    <t>17.09.202548</t>
+  </si>
+  <si>
+    <t>17.09.202549</t>
+  </si>
+  <si>
+    <t>17.09.202550</t>
+  </si>
+  <si>
+    <t>17.09.202551</t>
+  </si>
+  <si>
+    <t>17.09.202552</t>
+  </si>
+  <si>
+    <t>17.09.202553</t>
+  </si>
+  <si>
+    <t>17.09.202554</t>
+  </si>
+  <si>
+    <t>17.09.202555</t>
+  </si>
+  <si>
+    <t>17.09.202556</t>
+  </si>
+  <si>
+    <t>17.09.202557</t>
+  </si>
+  <si>
+    <t>17.09.202558</t>
+  </si>
+  <si>
+    <t>17.09.202559</t>
+  </si>
+  <si>
+    <t>17.09.202560</t>
+  </si>
+  <si>
+    <t>17.09.202561</t>
+  </si>
+  <si>
+    <t>17.09.202562</t>
+  </si>
+  <si>
+    <t>17.09.202563</t>
+  </si>
+  <si>
+    <t>17.09.202564</t>
+  </si>
+  <si>
+    <t>17.09.202565</t>
+  </si>
+  <si>
+    <t>17.09.202566</t>
+  </si>
+  <si>
+    <t>17.09.202567</t>
+  </si>
+  <si>
+    <t>17.09.202568</t>
+  </si>
+  <si>
+    <t>17.09.202569</t>
+  </si>
+  <si>
+    <t>17.09.202570</t>
+  </si>
+  <si>
+    <t>17.09.202571</t>
+  </si>
+  <si>
+    <t>17.09.202572</t>
+  </si>
+  <si>
+    <t>17.09.202573</t>
+  </si>
+  <si>
+    <t>17.09.202574</t>
+  </si>
+  <si>
+    <t>17.09.202575</t>
+  </si>
+  <si>
+    <t>17.09.202576</t>
+  </si>
+  <si>
+    <t>17.09.202577</t>
+  </si>
+  <si>
+    <t>17.09.202578</t>
+  </si>
+  <si>
+    <t>17.09.202579</t>
+  </si>
+  <si>
+    <t>17.09.202580</t>
+  </si>
+  <si>
+    <t>17.09.202581</t>
+  </si>
+  <si>
+    <t>17.09.202582</t>
+  </si>
+  <si>
+    <t>17.09.202583</t>
+  </si>
+  <si>
+    <t>17.09.202584</t>
+  </si>
+  <si>
+    <t>17.09.202585</t>
+  </si>
+  <si>
+    <t>17.09.202586</t>
+  </si>
+  <si>
+    <t>17.09.202587</t>
+  </si>
+  <si>
+    <t>17.09.202588</t>
+  </si>
+  <si>
+    <t>17.09.202589</t>
+  </si>
+  <si>
+    <t>17.09.202590</t>
+  </si>
+  <si>
+    <t>17.09.202591</t>
+  </si>
+  <si>
+    <t>17.09.202592</t>
+  </si>
+  <si>
+    <t>17.09.202593</t>
+  </si>
+  <si>
+    <t>17.09.202594</t>
+  </si>
+  <si>
+    <t>17.09.202595</t>
+  </si>
+  <si>
+    <t>17.09.202596</t>
+  </si>
+  <si>
+    <t>18.09.20251</t>
+  </si>
+  <si>
+    <t>18.09.20252</t>
+  </si>
+  <si>
+    <t>18.09.20253</t>
+  </si>
+  <si>
+    <t>18.09.20254</t>
+  </si>
+  <si>
+    <t>18.09.20255</t>
+  </si>
+  <si>
+    <t>18.09.20256</t>
+  </si>
+  <si>
+    <t>18.09.20257</t>
+  </si>
+  <si>
+    <t>18.09.20258</t>
+  </si>
+  <si>
+    <t>18.09.20259</t>
+  </si>
+  <si>
+    <t>18.09.202510</t>
+  </si>
+  <si>
+    <t>18.09.202511</t>
+  </si>
+  <si>
+    <t>18.09.202512</t>
+  </si>
+  <si>
+    <t>18.09.202513</t>
+  </si>
+  <si>
+    <t>18.09.202514</t>
+  </si>
+  <si>
+    <t>18.09.202515</t>
+  </si>
+  <si>
+    <t>18.09.202516</t>
+  </si>
+  <si>
+    <t>18.09.202517</t>
+  </si>
+  <si>
+    <t>18.09.202518</t>
+  </si>
+  <si>
+    <t>18.09.202519</t>
+  </si>
+  <si>
+    <t>18.09.202520</t>
+  </si>
+  <si>
+    <t>18.09.202521</t>
+  </si>
+  <si>
+    <t>18.09.202522</t>
+  </si>
+  <si>
+    <t>18.09.202523</t>
+  </si>
+  <si>
+    <t>18.09.202524</t>
+  </si>
+  <si>
+    <t>18.09.202525</t>
+  </si>
+  <si>
+    <t>18.09.202526</t>
+  </si>
+  <si>
+    <t>18.09.202527</t>
+  </si>
+  <si>
+    <t>18.09.202528</t>
+  </si>
+  <si>
+    <t>18.09.202529</t>
+  </si>
+  <si>
+    <t>18.09.202530</t>
+  </si>
+  <si>
+    <t>18.09.202531</t>
+  </si>
+  <si>
+    <t>18.09.202532</t>
+  </si>
+  <si>
+    <t>18.09.202533</t>
+  </si>
+  <si>
+    <t>18.09.202534</t>
+  </si>
+  <si>
+    <t>18.09.202535</t>
+  </si>
+  <si>
+    <t>18.09.202536</t>
+  </si>
+  <si>
+    <t>18.09.202537</t>
+  </si>
+  <si>
+    <t>18.09.202538</t>
+  </si>
+  <si>
+    <t>18.09.202539</t>
+  </si>
+  <si>
+    <t>18.09.202540</t>
+  </si>
+  <si>
+    <t>18.09.202541</t>
+  </si>
+  <si>
+    <t>18.09.202542</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,13 +829,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45889</v>
+        <v>45917</v>
       </c>
       <c r="B2">
-        <v>0.242</v>
+        <v>1.957</v>
       </c>
       <c r="C2">
-        <v>18.302</v>
+        <v>3.857</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,13 +846,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45889.01041666666</v>
+        <v>45917.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>12.632</v>
       </c>
       <c r="C3">
-        <v>28.622</v>
+        <v>0.001</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -857,13 +863,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45889.02083333334</v>
+        <v>45917.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.943</v>
       </c>
       <c r="C4">
-        <v>36.249</v>
+        <v>1.361</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -874,13 +880,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45889.03125</v>
+        <v>45917.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.597</v>
       </c>
       <c r="C5">
-        <v>24.025</v>
+        <v>3.236</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -891,13 +897,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45889.04166666666</v>
+        <v>45917.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>55.354</v>
+        <v>17.063</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -908,13 +914,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45889.05208333334</v>
+        <v>45917.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="C7">
-        <v>60.823</v>
+        <v>7.235</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -925,13 +931,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45889.0625</v>
+        <v>45917.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>70.39700000000001</v>
+        <v>4.904</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -942,13 +948,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45889.07291666666</v>
+        <v>45917.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C9">
-        <v>52.023</v>
+        <v>0.836</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -959,13 +965,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45889.08333333334</v>
+        <v>45917.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>21.686</v>
+        <v>19.043</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -976,13 +982,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45889.09375</v>
+        <v>45917.09375</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.894</v>
       </c>
       <c r="C11">
-        <v>12.902</v>
+        <v>0.538</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -993,13 +999,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45889.10416666666</v>
+        <v>45917.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>13.875</v>
       </c>
       <c r="C12">
-        <v>10.701</v>
+        <v>0.475</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1010,13 +1016,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45889.11458333334</v>
+        <v>45917.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>8.493</v>
       </c>
       <c r="C13">
-        <v>14.472</v>
+        <v>0.413</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1027,13 +1033,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45889.125</v>
+        <v>45917.125</v>
       </c>
       <c r="B14">
-        <v>2.201</v>
+        <v>6.587</v>
       </c>
       <c r="C14">
-        <v>0.386</v>
+        <v>0.601</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1044,13 +1050,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45889.13541666666</v>
+        <v>45917.13541666666</v>
       </c>
       <c r="B15">
-        <v>5.534</v>
+        <v>3.757</v>
       </c>
       <c r="C15">
-        <v>0.019</v>
+        <v>0.803</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1061,13 +1067,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45889.14583333334</v>
+        <v>45917.14583333334</v>
       </c>
       <c r="B16">
-        <v>13.691</v>
+        <v>4.987</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1078,10 +1084,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45889.15625</v>
+        <v>45917.15625</v>
       </c>
       <c r="B17">
-        <v>19.063</v>
+        <v>27.698</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1095,13 +1101,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45889.16666666666</v>
+        <v>45917.16666666666</v>
       </c>
       <c r="B18">
-        <v>14.3</v>
+        <v>6.091</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1112,13 +1118,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45889.17708333334</v>
+        <v>45917.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.424</v>
+        <v>17.329</v>
       </c>
       <c r="C19">
-        <v>4.863</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1129,13 +1135,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45889.1875</v>
+        <v>45917.1875</v>
       </c>
       <c r="B20">
-        <v>0.305</v>
+        <v>11.91</v>
       </c>
       <c r="C20">
-        <v>3.195</v>
+        <v>0.023</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1146,13 +1152,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45889.19791666666</v>
+        <v>45917.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.164</v>
+        <v>5.023</v>
       </c>
       <c r="C21">
-        <v>2.165</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1163,13 +1169,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45889.20833333334</v>
+        <v>45917.20833333334</v>
       </c>
       <c r="B22">
-        <v>0.049</v>
+        <v>2.083</v>
       </c>
       <c r="C22">
-        <v>3.517</v>
+        <v>0.439</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1180,13 +1186,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45889.21875</v>
+        <v>45917.21875</v>
       </c>
       <c r="B23">
-        <v>0.352</v>
+        <v>7.821</v>
       </c>
       <c r="C23">
-        <v>2.29</v>
+        <v>0.005</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1197,13 +1203,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45889.22916666666</v>
+        <v>45917.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.061</v>
+        <v>5.896</v>
       </c>
       <c r="C24">
-        <v>5.013</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1214,13 +1220,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45889.23958333334</v>
+        <v>45917.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.005</v>
+        <v>8.084</v>
       </c>
       <c r="C25">
-        <v>10.355</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1231,13 +1237,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45889.25</v>
+        <v>45917.25</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>7.731</v>
       </c>
       <c r="C26">
-        <v>20.577</v>
+        <v>0.169</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1248,13 +1254,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45889.26041666666</v>
+        <v>45917.26041666666</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>16.489</v>
       </c>
       <c r="C27">
-        <v>24.493</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1265,13 +1271,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45889.27083333334</v>
+        <v>45917.27083333334</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4.941</v>
       </c>
       <c r="C28">
-        <v>22.957</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1282,13 +1288,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45889.28125</v>
+        <v>45917.28125</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>13.097</v>
       </c>
       <c r="C29">
-        <v>37.779</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1299,13 +1305,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45889.29166666666</v>
+        <v>45917.29166666666</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>16.655</v>
       </c>
       <c r="C30">
-        <v>11.97</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1316,13 +1322,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45889.30208333334</v>
+        <v>45917.30208333334</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>19.618</v>
       </c>
       <c r="C31">
-        <v>19.975</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1333,13 +1339,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45889.3125</v>
+        <v>45917.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>13.683</v>
       </c>
       <c r="C32">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1350,13 +1356,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45889.32291666666</v>
+        <v>45917.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>7.957</v>
       </c>
       <c r="C33">
-        <v>29.869</v>
+        <v>7.927</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1367,13 +1373,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45889.33333333334</v>
+        <v>45917.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.004</v>
+        <v>8.84</v>
       </c>
       <c r="C34">
-        <v>14.529</v>
+        <v>0.845</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1384,13 +1390,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45889.34375</v>
+        <v>45917.34375</v>
       </c>
       <c r="B35">
-        <v>0.021</v>
+        <v>21.737</v>
       </c>
       <c r="C35">
-        <v>8.965999999999999</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1401,13 +1407,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45889.35416666666</v>
+        <v>45917.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.5669999999999999</v>
+        <v>16.338</v>
       </c>
       <c r="C36">
-        <v>8.423999999999999</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1418,13 +1424,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45889.36458333334</v>
+        <v>45917.36458333334</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>5.477</v>
       </c>
       <c r="C37">
-        <v>38.742</v>
+        <v>1.046</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1435,13 +1441,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45889.375</v>
+        <v>45917.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>23.279</v>
+        <v>9.349</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1452,13 +1458,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45889.38541666666</v>
+        <v>45917.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.223</v>
+        <v>0.126</v>
       </c>
       <c r="C39">
-        <v>6.356</v>
+        <v>3.647</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1469,13 +1475,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45889.39583333334</v>
+        <v>45917.39583333334</v>
       </c>
       <c r="B40">
-        <v>1.574</v>
+        <v>0.123</v>
       </c>
       <c r="C40">
-        <v>1.143</v>
+        <v>1.989</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1486,13 +1492,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45889.40625</v>
+        <v>45917.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6.026</v>
+        <v>13.026</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1503,13 +1509,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45889.41666666666</v>
+        <v>45917.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>21.595</v>
+        <v>8.587999999999999</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1520,13 +1526,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45889.42708333334</v>
+        <v>45917.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>27.518</v>
+        <v>5.732</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1537,13 +1543,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45889.4375</v>
+        <v>45917.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>17.129</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1554,13 +1560,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45889.44791666666</v>
+        <v>45917.44791666666</v>
       </c>
       <c r="B45">
-        <v>2.728</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.951</v>
+        <v>1.767</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1571,13 +1577,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45889.45833333334</v>
+        <v>45917.45833333334</v>
       </c>
       <c r="B46">
-        <v>0.875</v>
+        <v>14.243</v>
       </c>
       <c r="C46">
-        <v>0.33</v>
+        <v>0.106</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1588,13 +1594,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45889.46875</v>
+        <v>45917.46875</v>
       </c>
       <c r="B47">
-        <v>12.822</v>
+        <v>1.268</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1605,13 +1611,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45889.47916666666</v>
+        <v>45917.47916666666</v>
       </c>
       <c r="B48">
-        <v>31.74</v>
+        <v>0.005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.716</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1622,13 +1628,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45889.48958333334</v>
+        <v>45917.48958333334</v>
       </c>
       <c r="B49">
-        <v>40.796</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>13.392</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1639,13 +1645,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45889.5</v>
+        <v>45917.5</v>
       </c>
       <c r="B50">
-        <v>55.861</v>
+        <v>8.304</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3.262</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45889.51041666666</v>
+        <v>45917.51041666666</v>
       </c>
       <c r="B51">
-        <v>24.003</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.008</v>
+        <v>72.15300000000001</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45889.52083333334</v>
+        <v>45917.52083333334</v>
       </c>
       <c r="B52">
-        <v>3.227</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>0.107</v>
+        <v>28.241</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1690,13 +1696,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45889.53125</v>
+        <v>45917.53125</v>
       </c>
       <c r="B53">
-        <v>0.549</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>5.844</v>
+        <v>29.174</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1707,13 +1713,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45889.54166666666</v>
+        <v>45917.54166666666</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>38.998</v>
+        <v>20.501</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1724,13 +1730,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45889.55208333334</v>
+        <v>45917.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>27.246</v>
+        <v>21.518</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1741,13 +1747,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45889.5625</v>
+        <v>45917.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>8.355</v>
+        <v>56.693</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1758,13 +1764,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45889.57291666666</v>
+        <v>45917.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>21.743</v>
+        <v>49.965</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1775,13 +1781,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45889.58333333334</v>
+        <v>45917.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>12.607</v>
+        <v>3.766</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1792,13 +1798,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45889.59375</v>
+        <v>45917.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1.344</v>
       </c>
       <c r="C59">
-        <v>0.08500000000000001</v>
+        <v>2.217</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1809,13 +1815,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45889.60416666666</v>
+        <v>45917.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>10.633</v>
       </c>
       <c r="C60">
-        <v>0.281</v>
+        <v>0.32</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1826,13 +1832,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45889.61458333334</v>
+        <v>45917.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>5.091</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>5.341</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1843,13 +1849,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45889.625</v>
+        <v>45917.625</v>
       </c>
       <c r="B62">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>3.155</v>
+        <v>50.101</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1860,13 +1866,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45889.63541666666</v>
+        <v>45917.63541666666</v>
       </c>
       <c r="B63">
-        <v>0.202</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>3.923</v>
+        <v>29.283</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1877,13 +1883,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45889.64583333334</v>
+        <v>45917.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.25</v>
+        <v>2.627</v>
       </c>
       <c r="C64">
-        <v>4.12</v>
+        <v>7.729</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1894,13 +1900,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45889.65625</v>
+        <v>45917.65625</v>
       </c>
       <c r="B65">
-        <v>1.531</v>
+        <v>5.308</v>
       </c>
       <c r="C65">
-        <v>2.815</v>
+        <v>0.441</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1911,13 +1917,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45889.66666666666</v>
+        <v>45917.66666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1.718</v>
       </c>
       <c r="C66">
-        <v>16.778</v>
+        <v>21.692</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1928,13 +1934,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45889.67708333334</v>
+        <v>45917.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="C67">
-        <v>24.24</v>
+        <v>11.2</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1945,13 +1951,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45889.6875</v>
+        <v>45917.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>38.417</v>
+        <v>18.181</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1962,13 +1968,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45889.69791666666</v>
+        <v>45917.69791666666</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>24.932</v>
+        <v>19.081</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45889.70833333334</v>
+        <v>45917.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.572</v>
       </c>
       <c r="C70">
-        <v>23.626</v>
+        <v>11.712</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1996,13 +2002,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45889.71875</v>
+        <v>45917.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>5.703</v>
       </c>
       <c r="C71">
-        <v>37.825</v>
+        <v>3.183</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2013,13 +2019,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45889.72916666666</v>
+        <v>45917.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="C72">
-        <v>38.288</v>
+        <v>14.445</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2030,13 +2036,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45889.73958333334</v>
+        <v>45917.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>27.404</v>
+        <v>30.326</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45889.75</v>
+        <v>45917.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>11.832</v>
+        <v>14.275</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2064,13 +2070,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45889.76041666666</v>
+        <v>45917.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>4.714</v>
+        <v>21.423</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2081,13 +2087,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45889.77083333334</v>
+        <v>45917.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.354</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>3.594</v>
+        <v>28.546</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2098,13 +2104,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45889.78125</v>
+        <v>45917.78125</v>
       </c>
       <c r="B77">
-        <v>0.28</v>
+        <v>0.066</v>
       </c>
       <c r="C77">
-        <v>3.568</v>
+        <v>4.944</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2115,10 +2121,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45889.79166666666</v>
+        <v>45917.79166666666</v>
       </c>
       <c r="B78">
-        <v>10.652</v>
+        <v>11.722</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2132,10 +2138,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45889.80208333334</v>
+        <v>45917.80208333334</v>
       </c>
       <c r="B79">
-        <v>1.882</v>
+        <v>14.248</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2149,13 +2155,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45889.8125</v>
+        <v>45917.8125</v>
       </c>
       <c r="B80">
-        <v>0.308</v>
+        <v>12.749</v>
       </c>
       <c r="C80">
-        <v>5.497</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2166,13 +2172,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45889.82291666666</v>
+        <v>45917.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>22.038</v>
       </c>
       <c r="C81">
-        <v>22.042</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2183,13 +2189,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45889.83333333334</v>
+        <v>45917.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.165</v>
+        <v>51.899</v>
       </c>
       <c r="C82">
-        <v>7.659</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2200,13 +2206,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45889.84375</v>
+        <v>45917.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>22.701</v>
       </c>
       <c r="C83">
-        <v>11.949</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2217,13 +2223,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45889.85416666666</v>
+        <v>45917.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="C84">
-        <v>16.727</v>
+        <v>2.093</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2234,13 +2240,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45889.86458333334</v>
+        <v>45917.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>26.661</v>
+        <v>1.118</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2251,13 +2257,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45889.875</v>
+        <v>45917.875</v>
       </c>
       <c r="B86">
-        <v>0.115</v>
+        <v>0.395</v>
       </c>
       <c r="C86">
-        <v>11.768</v>
+        <v>11.716</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2268,13 +2274,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45889.88541666666</v>
+        <v>45917.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>11.25</v>
+        <v>17.075</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2285,13 +2291,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45889.89583333334</v>
+        <v>45917.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2.894</v>
+        <v>11.823</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2302,13 +2308,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45889.90625</v>
+        <v>45917.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>3.543</v>
+        <v>19.635</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2319,13 +2325,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45889.91666666666</v>
+        <v>45917.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.303</v>
+        <v>0.399</v>
       </c>
       <c r="C90">
-        <v>5.475</v>
+        <v>12.691</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2336,13 +2342,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45889.92708333334</v>
+        <v>45917.92708333334</v>
       </c>
       <c r="B91">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>4.268</v>
+        <v>3.558</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2353,13 +2359,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45889.9375</v>
+        <v>45917.9375</v>
       </c>
       <c r="B92">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>3.279</v>
+        <v>1.449</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2370,13 +2376,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45889.94791666666</v>
+        <v>45917.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>9.961</v>
+        <v>3.509</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2387,13 +2393,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45889.95833333334</v>
+        <v>45917.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>14.539</v>
       </c>
       <c r="C94">
-        <v>14.158</v>
+        <v>0.41</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2404,13 +2410,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B95">
-        <v>0.079</v>
+        <v>5.885</v>
       </c>
       <c r="C95">
-        <v>1.354</v>
+        <v>0.016</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2421,13 +2427,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45889.96875</v>
+        <v>45917.96875</v>
       </c>
       <c r="B96">
-        <v>0.079</v>
+        <v>5.885</v>
       </c>
       <c r="C96">
-        <v>1.354</v>
+        <v>0.016</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2438,13 +2444,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C97">
-        <v>4.619</v>
+        <v>0.962</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2455,13 +2461,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45889.97916666666</v>
+        <v>45917.97916666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C98">
-        <v>4.619</v>
+        <v>0.962</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2472,13 +2478,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B99">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>1.458</v>
+        <v>7.934</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2489,13 +2495,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45889.98958333334</v>
+        <v>45917.98958333334</v>
       </c>
       <c r="B100">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>1.458</v>
+        <v>7.934</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2506,13 +2512,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B101">
-        <v>8.609999999999999</v>
+        <v>1.325</v>
       </c>
       <c r="C101">
-        <v>0.157</v>
+        <v>8.528</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2523,13 +2529,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45890</v>
+        <v>45918</v>
       </c>
       <c r="B102">
-        <v>8.609999999999999</v>
+        <v>1.325</v>
       </c>
       <c r="C102">
-        <v>0.157</v>
+        <v>8.528</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2540,13 +2546,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B103">
-        <v>18.067</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>18.199</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2557,13 +2563,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45890.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B104">
-        <v>18.067</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>18.199</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2574,13 +2580,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B105">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>15.359</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2591,13 +2597,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45890.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B106">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>15.359</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2608,13 +2614,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B107">
-        <v>5.889</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.155</v>
+        <v>15.913</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2625,13 +2631,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45890.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B108">
-        <v>5.889</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0.155</v>
+        <v>15.913</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2642,13 +2648,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45890.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B109">
-        <v>0.676</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>1.479</v>
+        <v>19.142</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2659,13 +2665,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45890.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B110">
-        <v>8.225</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>4.485</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2676,13 +2682,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45890.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B111">
-        <v>11.659</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>4.599</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2693,13 +2699,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45890.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B112">
-        <v>15.023</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>7.912</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2710,13 +2716,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45890.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B113">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>9.766</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2727,13 +2733,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45890.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B114">
-        <v>9.249000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1.088</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2744,13 +2750,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45890.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B115">
-        <v>14.138</v>
+        <v>0.105</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.275</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2761,13 +2767,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45890.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B116">
-        <v>11.272</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2778,13 +2784,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45890.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B117">
-        <v>19.01</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1.061</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2795,13 +2801,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45890.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B118">
-        <v>6.605</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>6.619</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2812,13 +2818,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45890.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B119">
-        <v>8.164999999999999</v>
+        <v>2.712</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.548</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2829,13 +2835,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45890.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B120">
-        <v>5.749</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>5.307</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2846,13 +2852,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45890.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B121">
-        <v>0.8139999999999999</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0.489</v>
+        <v>10.716</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2863,13 +2869,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45890.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B122">
-        <v>0.164</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C122">
-        <v>3.46</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2880,13 +2886,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45890.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1.035</v>
       </c>
       <c r="C123">
-        <v>10.436</v>
+        <v>4.013</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2897,13 +2903,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45890.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B124">
-        <v>0.408</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C124">
-        <v>2.51</v>
+        <v>5.424</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2914,13 +2920,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45890.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B125">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>5.963</v>
+        <v>31.023</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2931,13 +2937,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45890.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B126">
-        <v>0.26</v>
+        <v>0.005</v>
       </c>
       <c r="C126">
-        <v>2.21</v>
+        <v>14.424</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2948,13 +2954,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45890.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B127">
-        <v>0.607</v>
+        <v>3.171</v>
       </c>
       <c r="C127">
-        <v>0.802</v>
+        <v>1.072</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2965,13 +2971,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45890.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B128">
-        <v>8.199999999999999</v>
+        <v>1.638</v>
       </c>
       <c r="C128">
-        <v>0.008999999999999999</v>
+        <v>4.658</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2982,13 +2988,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45890.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B129">
-        <v>8.904999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="C129">
-        <v>0.038</v>
+        <v>3.182</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2999,13 +3005,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45890.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B130">
-        <v>5.483</v>
+        <v>5.116</v>
       </c>
       <c r="C130">
-        <v>0.008999999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -3016,13 +3022,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45890.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B131">
-        <v>2.083</v>
+        <v>1.689</v>
       </c>
       <c r="C131">
-        <v>0.358</v>
+        <v>1.813</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3033,13 +3039,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45890.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B132">
-        <v>10.778</v>
+        <v>3.851</v>
       </c>
       <c r="C132">
-        <v>0.014</v>
+        <v>2.711</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3050,13 +3056,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45890.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B133">
-        <v>3.548</v>
+        <v>11.82</v>
       </c>
       <c r="C133">
-        <v>0.9340000000000001</v>
+        <v>3.572</v>
       </c>
       <c r="D133">
         <v>29</v>
@@ -3067,13 +3073,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45890.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B134">
-        <v>0.574</v>
+        <v>0.001</v>
       </c>
       <c r="C134">
-        <v>0.8149999999999999</v>
+        <v>10.589</v>
       </c>
       <c r="D134">
         <v>30</v>
@@ -3084,13 +3090,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45890.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B135">
-        <v>9.824</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>0.011</v>
+        <v>5.315</v>
       </c>
       <c r="D135">
         <v>31</v>
@@ -3101,13 +3107,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45890.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B136">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>12.754</v>
+        <v>5.804</v>
       </c>
       <c r="D136">
         <v>32</v>
@@ -3118,13 +3124,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45890.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B137">
-        <v>6.006</v>
+        <v>0.301</v>
       </c>
       <c r="C137">
-        <v>6.814</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D137">
         <v>33</v>
@@ -3135,13 +3141,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45890.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B138">
-        <v>11.335</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>9.817</v>
       </c>
       <c r="D138">
         <v>34</v>
@@ -3152,13 +3158,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45890.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B139">
-        <v>14.689</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>4.439</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3169,13 +3175,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45890.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B140">
-        <v>1.621</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>1.315</v>
+        <v>12.629</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -3186,13 +3192,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45890.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B141">
-        <v>33.867</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>37.007</v>
       </c>
       <c r="D141">
         <v>37</v>
@@ -3203,13 +3209,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45890.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B142">
-        <v>36.845</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="D142">
         <v>38</v>
@@ -3220,13 +3226,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45890.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B143">
-        <v>39.953</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="D143">
         <v>39</v>
@@ -3237,19 +3243,53 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45890.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B144">
-        <v>14.36</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>0.021</v>
+        <v>1.739</v>
       </c>
       <c r="D144">
         <v>40</v>
       </c>
       <c r="E144" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45918.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>4.112</v>
+      </c>
+      <c r="C145">
+        <v>0.452</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45918.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0.079</v>
+      </c>
+      <c r="C146">
+        <v>5.33</v>
+      </c>
+      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.09.20251</t>
-  </si>
-  <si>
-    <t>17.09.20252</t>
-  </si>
-  <si>
-    <t>17.09.20253</t>
-  </si>
-  <si>
-    <t>17.09.20254</t>
-  </si>
-  <si>
-    <t>17.09.20255</t>
-  </si>
-  <si>
-    <t>17.09.20256</t>
-  </si>
-  <si>
-    <t>17.09.20257</t>
-  </si>
-  <si>
-    <t>17.09.20258</t>
-  </si>
-  <si>
-    <t>17.09.20259</t>
-  </si>
-  <si>
-    <t>17.09.202510</t>
-  </si>
-  <si>
-    <t>17.09.202511</t>
-  </si>
-  <si>
-    <t>17.09.202512</t>
-  </si>
-  <si>
-    <t>17.09.202513</t>
-  </si>
-  <si>
-    <t>17.09.202514</t>
-  </si>
-  <si>
-    <t>17.09.202515</t>
-  </si>
-  <si>
-    <t>17.09.202516</t>
-  </si>
-  <si>
-    <t>17.09.202517</t>
-  </si>
-  <si>
-    <t>17.09.202518</t>
-  </si>
-  <si>
-    <t>17.09.202519</t>
-  </si>
-  <si>
-    <t>17.09.202520</t>
-  </si>
-  <si>
-    <t>17.09.202521</t>
-  </si>
-  <si>
-    <t>17.09.202522</t>
-  </si>
-  <si>
-    <t>17.09.202523</t>
-  </si>
-  <si>
-    <t>17.09.202524</t>
-  </si>
-  <si>
-    <t>17.09.202525</t>
-  </si>
-  <si>
-    <t>17.09.202526</t>
-  </si>
-  <si>
-    <t>17.09.202527</t>
-  </si>
-  <si>
-    <t>17.09.202528</t>
-  </si>
-  <si>
-    <t>17.09.202529</t>
-  </si>
-  <si>
-    <t>17.09.202530</t>
-  </si>
-  <si>
-    <t>17.09.202531</t>
-  </si>
-  <si>
-    <t>17.09.202532</t>
-  </si>
-  <si>
-    <t>17.09.202533</t>
-  </si>
-  <si>
-    <t>17.09.202534</t>
-  </si>
-  <si>
-    <t>17.09.202535</t>
-  </si>
-  <si>
-    <t>17.09.202536</t>
-  </si>
-  <si>
-    <t>17.09.202537</t>
-  </si>
-  <si>
-    <t>17.09.202538</t>
-  </si>
-  <si>
-    <t>17.09.202539</t>
-  </si>
-  <si>
-    <t>17.09.202540</t>
-  </si>
-  <si>
-    <t>17.09.202541</t>
-  </si>
-  <si>
-    <t>17.09.202542</t>
-  </si>
-  <si>
-    <t>17.09.202543</t>
-  </si>
-  <si>
-    <t>17.09.202544</t>
-  </si>
-  <si>
-    <t>17.09.202545</t>
-  </si>
-  <si>
-    <t>17.09.202546</t>
-  </si>
-  <si>
-    <t>17.09.202547</t>
-  </si>
-  <si>
-    <t>17.09.202548</t>
-  </si>
-  <si>
-    <t>17.09.202549</t>
-  </si>
-  <si>
-    <t>17.09.202550</t>
-  </si>
-  <si>
-    <t>17.09.202551</t>
-  </si>
-  <si>
-    <t>17.09.202552</t>
-  </si>
-  <si>
-    <t>17.09.202553</t>
-  </si>
-  <si>
-    <t>17.09.202554</t>
-  </si>
-  <si>
-    <t>17.09.202555</t>
-  </si>
-  <si>
-    <t>17.09.202556</t>
-  </si>
-  <si>
-    <t>17.09.202557</t>
-  </si>
-  <si>
-    <t>17.09.202558</t>
-  </si>
-  <si>
-    <t>17.09.202559</t>
-  </si>
-  <si>
-    <t>17.09.202560</t>
-  </si>
-  <si>
-    <t>17.09.202561</t>
-  </si>
-  <si>
-    <t>17.09.202562</t>
-  </si>
-  <si>
-    <t>17.09.202563</t>
-  </si>
-  <si>
-    <t>17.09.202564</t>
-  </si>
-  <si>
-    <t>17.09.202565</t>
-  </si>
-  <si>
-    <t>17.09.202566</t>
-  </si>
-  <si>
-    <t>17.09.202567</t>
-  </si>
-  <si>
-    <t>17.09.202568</t>
-  </si>
-  <si>
-    <t>17.09.202569</t>
-  </si>
-  <si>
-    <t>17.09.202570</t>
-  </si>
-  <si>
-    <t>17.09.202571</t>
-  </si>
-  <si>
-    <t>17.09.202572</t>
-  </si>
-  <si>
-    <t>17.09.202573</t>
-  </si>
-  <si>
-    <t>17.09.202574</t>
-  </si>
-  <si>
-    <t>17.09.202575</t>
-  </si>
-  <si>
-    <t>17.09.202576</t>
-  </si>
-  <si>
-    <t>17.09.202577</t>
-  </si>
-  <si>
-    <t>17.09.202578</t>
-  </si>
-  <si>
-    <t>17.09.202579</t>
-  </si>
-  <si>
-    <t>17.09.202580</t>
-  </si>
-  <si>
-    <t>17.09.202581</t>
-  </si>
-  <si>
-    <t>17.09.202582</t>
-  </si>
-  <si>
-    <t>17.09.202583</t>
-  </si>
-  <si>
-    <t>17.09.202584</t>
-  </si>
-  <si>
-    <t>17.09.202585</t>
-  </si>
-  <si>
-    <t>17.09.202586</t>
-  </si>
-  <si>
-    <t>17.09.202587</t>
-  </si>
-  <si>
-    <t>17.09.202588</t>
-  </si>
-  <si>
-    <t>17.09.202589</t>
-  </si>
-  <si>
-    <t>17.09.202590</t>
-  </si>
-  <si>
-    <t>17.09.202591</t>
-  </si>
-  <si>
-    <t>17.09.202592</t>
-  </si>
-  <si>
-    <t>17.09.202593</t>
-  </si>
-  <si>
-    <t>17.09.202594</t>
-  </si>
-  <si>
-    <t>17.09.202595</t>
-  </si>
-  <si>
-    <t>17.09.202596</t>
-  </si>
-  <si>
     <t>18.09.20251</t>
   </si>
   <si>
@@ -443,6 +155,288 @@
   </si>
   <si>
     <t>18.09.202542</t>
+  </si>
+  <si>
+    <t>18.09.202543</t>
+  </si>
+  <si>
+    <t>18.09.202544</t>
+  </si>
+  <si>
+    <t>18.09.202545</t>
+  </si>
+  <si>
+    <t>18.09.202546</t>
+  </si>
+  <si>
+    <t>18.09.202547</t>
+  </si>
+  <si>
+    <t>18.09.202548</t>
+  </si>
+  <si>
+    <t>18.09.202549</t>
+  </si>
+  <si>
+    <t>18.09.202550</t>
+  </si>
+  <si>
+    <t>18.09.202551</t>
+  </si>
+  <si>
+    <t>18.09.202552</t>
+  </si>
+  <si>
+    <t>18.09.202553</t>
+  </si>
+  <si>
+    <t>18.09.202554</t>
+  </si>
+  <si>
+    <t>18.09.202555</t>
+  </si>
+  <si>
+    <t>18.09.202556</t>
+  </si>
+  <si>
+    <t>18.09.202557</t>
+  </si>
+  <si>
+    <t>18.09.202558</t>
+  </si>
+  <si>
+    <t>18.09.202559</t>
+  </si>
+  <si>
+    <t>18.09.202560</t>
+  </si>
+  <si>
+    <t>18.09.202561</t>
+  </si>
+  <si>
+    <t>18.09.202562</t>
+  </si>
+  <si>
+    <t>18.09.202563</t>
+  </si>
+  <si>
+    <t>18.09.202564</t>
+  </si>
+  <si>
+    <t>18.09.202565</t>
+  </si>
+  <si>
+    <t>18.09.202566</t>
+  </si>
+  <si>
+    <t>18.09.202567</t>
+  </si>
+  <si>
+    <t>18.09.202568</t>
+  </si>
+  <si>
+    <t>18.09.202569</t>
+  </si>
+  <si>
+    <t>18.09.202570</t>
+  </si>
+  <si>
+    <t>18.09.202571</t>
+  </si>
+  <si>
+    <t>18.09.202572</t>
+  </si>
+  <si>
+    <t>18.09.202573</t>
+  </si>
+  <si>
+    <t>18.09.202574</t>
+  </si>
+  <si>
+    <t>18.09.202575</t>
+  </si>
+  <si>
+    <t>18.09.202576</t>
+  </si>
+  <si>
+    <t>18.09.202577</t>
+  </si>
+  <si>
+    <t>18.09.202578</t>
+  </si>
+  <si>
+    <t>18.09.202579</t>
+  </si>
+  <si>
+    <t>18.09.202580</t>
+  </si>
+  <si>
+    <t>18.09.202581</t>
+  </si>
+  <si>
+    <t>18.09.202582</t>
+  </si>
+  <si>
+    <t>18.09.202583</t>
+  </si>
+  <si>
+    <t>18.09.202584</t>
+  </si>
+  <si>
+    <t>18.09.202585</t>
+  </si>
+  <si>
+    <t>18.09.202586</t>
+  </si>
+  <si>
+    <t>18.09.202587</t>
+  </si>
+  <si>
+    <t>18.09.202588</t>
+  </si>
+  <si>
+    <t>18.09.202589</t>
+  </si>
+  <si>
+    <t>18.09.202590</t>
+  </si>
+  <si>
+    <t>18.09.202591</t>
+  </si>
+  <si>
+    <t>18.09.202592</t>
+  </si>
+  <si>
+    <t>18.09.202593</t>
+  </si>
+  <si>
+    <t>18.09.202594</t>
+  </si>
+  <si>
+    <t>18.09.202595</t>
+  </si>
+  <si>
+    <t>18.09.202596</t>
+  </si>
+  <si>
+    <t>19.09.20251</t>
+  </si>
+  <si>
+    <t>19.09.20252</t>
+  </si>
+  <si>
+    <t>19.09.20253</t>
+  </si>
+  <si>
+    <t>19.09.20254</t>
+  </si>
+  <si>
+    <t>19.09.20255</t>
+  </si>
+  <si>
+    <t>19.09.20256</t>
+  </si>
+  <si>
+    <t>19.09.20257</t>
+  </si>
+  <si>
+    <t>19.09.20258</t>
+  </si>
+  <si>
+    <t>19.09.20259</t>
+  </si>
+  <si>
+    <t>19.09.202510</t>
+  </si>
+  <si>
+    <t>19.09.202511</t>
+  </si>
+  <si>
+    <t>19.09.202512</t>
+  </si>
+  <si>
+    <t>19.09.202513</t>
+  </si>
+  <si>
+    <t>19.09.202514</t>
+  </si>
+  <si>
+    <t>19.09.202515</t>
+  </si>
+  <si>
+    <t>19.09.202516</t>
+  </si>
+  <si>
+    <t>19.09.202517</t>
+  </si>
+  <si>
+    <t>19.09.202518</t>
+  </si>
+  <si>
+    <t>19.09.202519</t>
+  </si>
+  <si>
+    <t>19.09.202520</t>
+  </si>
+  <si>
+    <t>19.09.202521</t>
+  </si>
+  <si>
+    <t>19.09.202522</t>
+  </si>
+  <si>
+    <t>19.09.202523</t>
+  </si>
+  <si>
+    <t>19.09.202524</t>
+  </si>
+  <si>
+    <t>19.09.202525</t>
+  </si>
+  <si>
+    <t>19.09.202526</t>
+  </si>
+  <si>
+    <t>19.09.202527</t>
+  </si>
+  <si>
+    <t>19.09.202528</t>
+  </si>
+  <si>
+    <t>19.09.202529</t>
+  </si>
+  <si>
+    <t>19.09.202530</t>
+  </si>
+  <si>
+    <t>19.09.202531</t>
+  </si>
+  <si>
+    <t>19.09.202532</t>
+  </si>
+  <si>
+    <t>19.09.202533</t>
+  </si>
+  <si>
+    <t>19.09.202534</t>
+  </si>
+  <si>
+    <t>19.09.202535</t>
+  </si>
+  <si>
+    <t>19.09.202536</t>
+  </si>
+  <si>
+    <t>19.09.202537</t>
+  </si>
+  <si>
+    <t>19.09.202538</t>
+  </si>
+  <si>
+    <t>19.09.202539</t>
+  </si>
+  <si>
+    <t>19.09.202540</t>
   </si>
 </sst>
 </file>
@@ -804,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,13 +823,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B2">
-        <v>1.957</v>
+        <v>1.325</v>
       </c>
       <c r="C2">
-        <v>3.857</v>
+        <v>8.528</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -846,13 +840,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45917.01041666666</v>
+        <v>45918.01041666666</v>
       </c>
       <c r="B3">
-        <v>12.632</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001</v>
+        <v>18.199</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -863,13 +857,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45917.02083333334</v>
+        <v>45918.02083333334</v>
       </c>
       <c r="B4">
-        <v>2.943</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.361</v>
+        <v>15.359</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -880,13 +874,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45917.03125</v>
+        <v>45918.03125</v>
       </c>
       <c r="B5">
-        <v>0.597</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.236</v>
+        <v>15.913</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -897,13 +891,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45917.04166666666</v>
+        <v>45918.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>17.063</v>
+        <v>19.142</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -914,13 +908,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45917.05208333334</v>
+        <v>45918.05208333334</v>
       </c>
       <c r="B7">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>7.235</v>
+        <v>4.485</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -931,13 +925,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45917.0625</v>
+        <v>45918.0625</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.904</v>
+        <v>4.599</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -948,13 +942,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45917.07291666666</v>
+        <v>45918.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.836</v>
+        <v>7.912</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -965,13 +959,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45917.08333333334</v>
+        <v>45918.08333333334</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>19.043</v>
+        <v>9.766</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -982,13 +976,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45917.09375</v>
+        <v>45918.09375</v>
       </c>
       <c r="B11">
-        <v>1.894</v>
+        <v>0.527</v>
       </c>
       <c r="C11">
-        <v>0.538</v>
+        <v>1.088</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -999,13 +993,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45917.10416666666</v>
+        <v>45918.10416666666</v>
       </c>
       <c r="B12">
-        <v>13.875</v>
+        <v>0.105</v>
       </c>
       <c r="C12">
-        <v>0.475</v>
+        <v>0.275</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1016,13 +1010,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45917.11458333334</v>
+        <v>45918.11458333334</v>
       </c>
       <c r="B13">
-        <v>8.493</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.413</v>
+        <v>0.26</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1033,13 +1027,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45917.125</v>
+        <v>45918.125</v>
       </c>
       <c r="B14">
-        <v>6.587</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.601</v>
+        <v>1.061</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1050,13 +1044,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45917.13541666666</v>
+        <v>45918.13541666666</v>
       </c>
       <c r="B15">
-        <v>3.757</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.803</v>
+        <v>6.619</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1067,13 +1061,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45917.14583333334</v>
+        <v>45918.14583333334</v>
       </c>
       <c r="B16">
-        <v>4.987</v>
+        <v>2.712</v>
       </c>
       <c r="C16">
-        <v>0.176</v>
+        <v>0.548</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1084,13 +1078,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45917.15625</v>
+        <v>45918.15625</v>
       </c>
       <c r="B17">
-        <v>27.698</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5.307</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1101,13 +1095,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45917.16666666666</v>
+        <v>45918.16666666666</v>
       </c>
       <c r="B18">
-        <v>6.091</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.002</v>
+        <v>10.716</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1118,13 +1112,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45917.17708333334</v>
+        <v>45918.17708333334</v>
       </c>
       <c r="B19">
-        <v>17.329</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>8.914999999999999</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1135,13 +1129,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45917.1875</v>
+        <v>45918.1875</v>
       </c>
       <c r="B20">
-        <v>11.91</v>
+        <v>1.035</v>
       </c>
       <c r="C20">
-        <v>0.023</v>
+        <v>4.013</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1152,13 +1146,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45917.19791666666</v>
+        <v>45918.19791666666</v>
       </c>
       <c r="B21">
-        <v>5.023</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C21">
-        <v>0.05</v>
+        <v>5.424</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1169,13 +1163,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45917.20833333334</v>
+        <v>45918.20833333334</v>
       </c>
       <c r="B22">
-        <v>2.083</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.439</v>
+        <v>31.023</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1186,13 +1180,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45917.21875</v>
+        <v>45918.21875</v>
       </c>
       <c r="B23">
-        <v>7.821</v>
+        <v>0.005</v>
       </c>
       <c r="C23">
-        <v>0.005</v>
+        <v>14.424</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1203,13 +1197,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45917.22916666666</v>
+        <v>45918.22916666666</v>
       </c>
       <c r="B24">
-        <v>5.896</v>
+        <v>3.171</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.072</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1220,13 +1214,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45917.23958333334</v>
+        <v>45918.23958333334</v>
       </c>
       <c r="B25">
-        <v>8.084</v>
+        <v>1.638</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.658</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1237,13 +1231,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45917.25</v>
+        <v>45918.25</v>
       </c>
       <c r="B26">
-        <v>7.731</v>
+        <v>0.17</v>
       </c>
       <c r="C26">
-        <v>0.169</v>
+        <v>3.182</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1254,13 +1248,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45917.26041666666</v>
+        <v>45918.26041666666</v>
       </c>
       <c r="B27">
-        <v>16.489</v>
+        <v>5.116</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1271,13 +1265,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45917.27083333334</v>
+        <v>45918.27083333334</v>
       </c>
       <c r="B28">
-        <v>4.941</v>
+        <v>1.689</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.813</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1288,13 +1282,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45917.28125</v>
+        <v>45918.28125</v>
       </c>
       <c r="B29">
-        <v>13.097</v>
+        <v>3.851</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.711</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1305,13 +1299,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45917.29166666666</v>
+        <v>45918.29166666666</v>
       </c>
       <c r="B30">
-        <v>16.655</v>
+        <v>11.82</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3.572</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1322,13 +1316,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45917.30208333334</v>
+        <v>45918.30208333334</v>
       </c>
       <c r="B31">
-        <v>19.618</v>
+        <v>0.001</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>10.589</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1339,13 +1333,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45917.3125</v>
+        <v>45918.3125</v>
       </c>
       <c r="B32">
-        <v>13.683</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5.315</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1356,13 +1350,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45917.32291666666</v>
+        <v>45918.32291666666</v>
       </c>
       <c r="B33">
-        <v>7.957</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>7.927</v>
+        <v>5.804</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1373,13 +1367,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45917.33333333334</v>
+        <v>45918.33333333334</v>
       </c>
       <c r="B34">
-        <v>8.84</v>
+        <v>0.301</v>
       </c>
       <c r="C34">
-        <v>0.845</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1390,13 +1384,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45917.34375</v>
+        <v>45918.34375</v>
       </c>
       <c r="B35">
-        <v>21.737</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9.817</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1407,13 +1401,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45917.35416666666</v>
+        <v>45918.35416666666</v>
       </c>
       <c r="B36">
-        <v>16.338</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4.439</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1424,13 +1418,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45917.36458333334</v>
+        <v>45918.36458333334</v>
       </c>
       <c r="B37">
-        <v>5.477</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1.046</v>
+        <v>12.629</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1441,13 +1435,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45917.375</v>
+        <v>45918.375</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>9.349</v>
+        <v>37.007</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1458,13 +1452,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45917.38541666666</v>
+        <v>45918.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>3.647</v>
+        <v>23.5</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1475,13 +1469,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45917.39583333334</v>
+        <v>45918.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.123</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>1.989</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1492,13 +1486,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45917.40625</v>
+        <v>45918.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>13.026</v>
+        <v>1.739</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1509,13 +1503,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45917.41666666666</v>
+        <v>45918.41666666666</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>4.112</v>
       </c>
       <c r="C42">
-        <v>8.587999999999999</v>
+        <v>0.452</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1526,13 +1520,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45917.42708333334</v>
+        <v>45918.42708333334</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.079</v>
       </c>
       <c r="C43">
-        <v>5.732</v>
+        <v>5.33</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1543,13 +1537,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45917.4375</v>
+        <v>45918.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.8080000000000001</v>
+        <v>30.407</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1560,13 +1554,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45917.44791666666</v>
+        <v>45918.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1.767</v>
+        <v>22.065</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1577,13 +1571,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45917.45833333334</v>
+        <v>45918.45833333334</v>
       </c>
       <c r="B46">
-        <v>14.243</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.106</v>
+        <v>25.587</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1594,13 +1588,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45917.46875</v>
+        <v>45918.46875</v>
       </c>
       <c r="B47">
-        <v>1.268</v>
+        <v>4.001</v>
       </c>
       <c r="C47">
-        <v>0.28</v>
+        <v>2.415</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1611,13 +1605,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45917.47916666666</v>
+        <v>45918.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.005</v>
+        <v>18.191</v>
       </c>
       <c r="C48">
-        <v>1.716</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1628,13 +1622,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45917.48958333334</v>
+        <v>45918.48958333334</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="C49">
-        <v>13.392</v>
+        <v>1.15</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1645,13 +1639,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45917.5</v>
+        <v>45918.5</v>
       </c>
       <c r="B50">
-        <v>8.304</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>3.262</v>
+        <v>11.329</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1662,13 +1656,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45917.51041666666</v>
+        <v>45918.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="C51">
-        <v>72.15300000000001</v>
+        <v>3.688</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1679,13 +1673,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45917.52083333334</v>
+        <v>45918.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C52">
-        <v>28.241</v>
+        <v>0.969</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1696,13 +1690,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45917.53125</v>
+        <v>45918.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>13.039</v>
       </c>
       <c r="C53">
-        <v>29.174</v>
+        <v>1.327</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1713,13 +1707,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45917.54166666666</v>
+        <v>45918.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1.158</v>
       </c>
       <c r="C54">
-        <v>20.501</v>
+        <v>8.394</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1730,13 +1724,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45917.55208333334</v>
+        <v>45918.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>21.518</v>
+        <v>19.758</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1747,13 +1741,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45917.5625</v>
+        <v>45918.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C56">
-        <v>56.693</v>
+        <v>5.682</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1764,13 +1758,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45917.57291666666</v>
+        <v>45918.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>49.965</v>
+        <v>1.046</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1781,13 +1775,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45917.58333333334</v>
+        <v>45918.58333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>3.766</v>
+        <v>2.481</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1798,13 +1792,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45917.59375</v>
+        <v>45918.59375</v>
       </c>
       <c r="B59">
-        <v>1.344</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>2.217</v>
+        <v>29.836</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1815,13 +1809,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45917.60416666666</v>
+        <v>45918.60416666666</v>
       </c>
       <c r="B60">
-        <v>10.633</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.32</v>
+        <v>21.085</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1832,13 +1826,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45917.61458333334</v>
+        <v>45918.61458333334</v>
       </c>
       <c r="B61">
-        <v>5.091</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5.341</v>
+        <v>15.868</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1849,13 +1843,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45917.625</v>
+        <v>45918.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>50.101</v>
+        <v>8.811999999999999</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1866,13 +1860,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45917.63541666666</v>
+        <v>45918.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>29.283</v>
+        <v>16.244</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1883,13 +1877,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45917.64583333334</v>
+        <v>45918.64583333334</v>
       </c>
       <c r="B64">
-        <v>2.627</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>7.729</v>
+        <v>22.234</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1900,13 +1894,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45917.65625</v>
+        <v>45918.65625</v>
       </c>
       <c r="B65">
-        <v>5.308</v>
+        <v>0.611</v>
       </c>
       <c r="C65">
-        <v>0.441</v>
+        <v>5.915</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1917,13 +1911,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45917.66666666666</v>
+        <v>45918.66666666666</v>
       </c>
       <c r="B66">
-        <v>1.718</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>21.692</v>
+        <v>1.588</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1934,13 +1928,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45917.67708333334</v>
+        <v>45918.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>11.2</v>
+        <v>21.687</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1951,13 +1945,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45917.6875</v>
+        <v>45918.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>18.181</v>
+        <v>17.415</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1968,13 +1962,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45917.69791666666</v>
+        <v>45918.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>7.653</v>
       </c>
       <c r="C69">
-        <v>19.081</v>
+        <v>1.948</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1985,13 +1979,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45917.70833333334</v>
+        <v>45918.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.572</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>11.712</v>
+        <v>14.048</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -2002,13 +1996,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45917.71875</v>
+        <v>45918.71875</v>
       </c>
       <c r="B71">
-        <v>5.703</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>3.183</v>
+        <v>15.68</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2019,13 +2013,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45917.72916666666</v>
+        <v>45918.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.036</v>
+        <v>0.114</v>
       </c>
       <c r="C72">
-        <v>14.445</v>
+        <v>7.88</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2036,13 +2030,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45917.73958333334</v>
+        <v>45918.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="C73">
-        <v>30.326</v>
+        <v>9.753</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2053,13 +2047,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45917.75</v>
+        <v>45918.75</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>14.275</v>
+        <v>22.108</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2070,13 +2064,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45917.76041666666</v>
+        <v>45918.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>21.423</v>
+        <v>34.357</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2087,13 +2081,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45917.77083333334</v>
+        <v>45918.77083333334</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="C76">
-        <v>28.546</v>
+        <v>9.555</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2104,13 +2098,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45917.78125</v>
+        <v>45918.78125</v>
       </c>
       <c r="B77">
-        <v>0.066</v>
+        <v>0.095</v>
       </c>
       <c r="C77">
-        <v>4.944</v>
+        <v>12.242</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2121,13 +2115,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45917.79166666666</v>
+        <v>45918.79166666666</v>
       </c>
       <c r="B78">
-        <v>11.722</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>14.858</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2138,13 +2132,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45917.80208333334</v>
+        <v>45918.80208333334</v>
       </c>
       <c r="B79">
-        <v>14.248</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>36.206</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2155,13 +2149,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45917.8125</v>
+        <v>45918.8125</v>
       </c>
       <c r="B80">
-        <v>12.749</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>34.575</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2172,13 +2166,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45917.82291666666</v>
+        <v>45918.82291666666</v>
       </c>
       <c r="B81">
-        <v>22.038</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>33.22</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2189,13 +2183,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45917.83333333334</v>
+        <v>45918.83333333334</v>
       </c>
       <c r="B82">
-        <v>51.899</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>16.433</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2206,13 +2200,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45917.84375</v>
+        <v>45918.84375</v>
       </c>
       <c r="B83">
-        <v>22.701</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>11.387</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2223,13 +2217,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45917.85416666666</v>
+        <v>45918.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>2.093</v>
+        <v>8.263999999999999</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2240,13 +2234,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45917.86458333334</v>
+        <v>45918.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1.118</v>
+        <v>0.858</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2257,13 +2251,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45917.875</v>
+        <v>45918.875</v>
       </c>
       <c r="B86">
-        <v>0.395</v>
+        <v>0.007</v>
       </c>
       <c r="C86">
-        <v>11.716</v>
+        <v>12.622</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2274,13 +2268,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45917.88541666666</v>
+        <v>45918.88541666666</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>17.075</v>
+        <v>12.688</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2291,13 +2285,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45917.89583333334</v>
+        <v>45918.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>11.823</v>
+        <v>18.754</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2308,13 +2302,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45917.90625</v>
+        <v>45918.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>19.635</v>
+        <v>18.422</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2325,13 +2319,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45917.91666666666</v>
+        <v>45918.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.399</v>
+        <v>0.074</v>
       </c>
       <c r="C90">
-        <v>12.691</v>
+        <v>16.93</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2342,13 +2336,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45917.92708333334</v>
+        <v>45918.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>3.558</v>
+        <v>20.955</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2359,13 +2353,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45917.9375</v>
+        <v>45918.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1.449</v>
+        <v>16.022</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2376,13 +2370,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45917.94791666666</v>
+        <v>45918.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>3.509</v>
+        <v>10.419</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2393,13 +2387,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45917.95833333334</v>
+        <v>45918.95833333334</v>
       </c>
       <c r="B94">
-        <v>14.539</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0.41</v>
+        <v>9.827</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2410,13 +2404,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B95">
-        <v>5.885</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0.016</v>
+        <v>2.952</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2427,13 +2421,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45917.96875</v>
+        <v>45918.96875</v>
       </c>
       <c r="B96">
-        <v>5.885</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.016</v>
+        <v>2.952</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2444,13 +2438,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B97">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0.962</v>
+        <v>2.891</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2461,13 +2455,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45917.97916666666</v>
+        <v>45918.97916666666</v>
       </c>
       <c r="B98">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.962</v>
+        <v>2.891</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2478,13 +2472,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>7.934</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2495,13 +2489,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45917.98958333334</v>
+        <v>45918.98958333334</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>7.934</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2512,13 +2506,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B101">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>8.528</v>
+        <v>36.348</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2529,13 +2523,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B102">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>8.528</v>
+        <v>36.348</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2546,13 +2540,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>18.199</v>
+        <v>20.838</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2563,13 +2557,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45918.01041666666</v>
+        <v>45919.01041666666</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>18.199</v>
+        <v>20.838</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2580,13 +2574,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>15.359</v>
+        <v>4.661</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2597,13 +2591,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45918.02083333334</v>
+        <v>45919.02083333334</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>15.359</v>
+        <v>4.661</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2614,13 +2608,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>15.913</v>
+        <v>4.753</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2631,13 +2625,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45918.03125</v>
+        <v>45919.03125</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>15.913</v>
+        <v>4.753</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2648,13 +2642,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45918.04166666666</v>
+        <v>45919.04166666666</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>19.142</v>
+        <v>36.567</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2665,13 +2659,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45918.05208333334</v>
+        <v>45919.05208333334</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>4.485</v>
+        <v>4.865</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2682,13 +2676,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45918.0625</v>
+        <v>45919.0625</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4.599</v>
+        <v>4.085</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2699,13 +2693,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45918.07291666666</v>
+        <v>45919.07291666666</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>7.912</v>
+        <v>2.98</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2716,13 +2710,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45918.08333333334</v>
+        <v>45919.08333333334</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>9.766</v>
+        <v>4.714</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2733,13 +2727,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45918.09375</v>
+        <v>45919.09375</v>
       </c>
       <c r="B114">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1.088</v>
+        <v>2.165</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2750,13 +2744,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45918.10416666666</v>
+        <v>45919.10416666666</v>
       </c>
       <c r="B115">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0.275</v>
+        <v>1.711</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2767,13 +2761,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45918.11458333334</v>
+        <v>45919.11458333334</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0.26</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2784,13 +2778,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45918.125</v>
+        <v>45919.125</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>1.061</v>
+        <v>0.216</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2801,13 +2795,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45918.13541666666</v>
+        <v>45919.13541666666</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C118">
-        <v>6.619</v>
+        <v>0.437</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2818,13 +2812,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45918.14583333334</v>
+        <v>45919.14583333334</v>
       </c>
       <c r="B119">
-        <v>2.712</v>
+        <v>1.622</v>
       </c>
       <c r="C119">
-        <v>0.548</v>
+        <v>2.447</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2835,13 +2829,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45918.15625</v>
+        <v>45919.15625</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>2.223</v>
       </c>
       <c r="C120">
-        <v>5.307</v>
+        <v>1.975</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2852,13 +2846,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45918.16666666666</v>
+        <v>45919.16666666666</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>10.716</v>
+        <v>1.592</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2869,13 +2863,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45918.17708333334</v>
+        <v>45919.17708333334</v>
       </c>
       <c r="B122">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>8.914999999999999</v>
+        <v>0.904</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2886,13 +2880,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45918.1875</v>
+        <v>45919.1875</v>
       </c>
       <c r="B123">
-        <v>1.035</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>4.013</v>
+        <v>5.011</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2903,13 +2897,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45918.19791666666</v>
+        <v>45919.19791666666</v>
       </c>
       <c r="B124">
-        <v>0.6919999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="C124">
-        <v>5.424</v>
+        <v>8.311</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2920,13 +2914,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45918.20833333334</v>
+        <v>45919.20833333334</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>31.023</v>
+        <v>3.014</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2937,13 +2931,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45918.21875</v>
+        <v>45919.21875</v>
       </c>
       <c r="B126">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>14.424</v>
+        <v>3.25</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2954,13 +2948,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45918.22916666666</v>
+        <v>45919.22916666666</v>
       </c>
       <c r="B127">
-        <v>3.171</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>1.072</v>
+        <v>13.804</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2971,13 +2965,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45918.23958333334</v>
+        <v>45919.23958333334</v>
       </c>
       <c r="B128">
-        <v>1.638</v>
+        <v>1.149</v>
       </c>
       <c r="C128">
-        <v>4.658</v>
+        <v>4.554</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2988,13 +2982,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45918.25</v>
+        <v>45919.25</v>
       </c>
       <c r="B129">
-        <v>0.17</v>
+        <v>0.006</v>
       </c>
       <c r="C129">
-        <v>3.182</v>
+        <v>6.841</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -3005,13 +2999,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45918.26041666666</v>
+        <v>45919.26041666666</v>
       </c>
       <c r="B130">
-        <v>5.116</v>
+        <v>0.001</v>
       </c>
       <c r="C130">
-        <v>0.108</v>
+        <v>5.123</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -3022,13 +3016,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45918.27083333334</v>
+        <v>45919.27083333334</v>
       </c>
       <c r="B131">
-        <v>1.689</v>
+        <v>0.001</v>
       </c>
       <c r="C131">
-        <v>1.813</v>
+        <v>14.975</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3039,13 +3033,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45918.28125</v>
+        <v>45919.28125</v>
       </c>
       <c r="B132">
-        <v>3.851</v>
+        <v>1.225</v>
       </c>
       <c r="C132">
-        <v>2.711</v>
+        <v>10.858</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3056,13 +3050,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45918.29166666666</v>
+        <v>45919.29166666666</v>
       </c>
       <c r="B133">
-        <v>11.82</v>
+        <v>12.994</v>
       </c>
       <c r="C133">
-        <v>3.572</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>29</v>
@@ -3073,13 +3067,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45918.30208333334</v>
+        <v>45919.30208333334</v>
       </c>
       <c r="B134">
-        <v>0.001</v>
+        <v>23.054</v>
       </c>
       <c r="C134">
-        <v>10.589</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>30</v>
@@ -3090,13 +3084,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45918.3125</v>
+        <v>45919.3125</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>15.669</v>
       </c>
       <c r="C135">
-        <v>5.315</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>31</v>
@@ -3107,13 +3101,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45918.32291666666</v>
+        <v>45919.32291666666</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>14.885</v>
       </c>
       <c r="C136">
-        <v>5.804</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>32</v>
@@ -3124,13 +3118,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45918.33333333334</v>
+        <v>45919.33333333334</v>
       </c>
       <c r="B137">
-        <v>0.301</v>
+        <v>19.995</v>
       </c>
       <c r="C137">
-        <v>9.470000000000001</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>33</v>
@@ -3141,13 +3135,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45918.34375</v>
+        <v>45919.34375</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>52.76</v>
       </c>
       <c r="C138">
-        <v>9.817</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>34</v>
@@ -3158,13 +3152,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45918.35416666666</v>
+        <v>45919.35416666666</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>56.14</v>
       </c>
       <c r="C139">
-        <v>4.439</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3175,13 +3169,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45918.36458333334</v>
+        <v>45919.36458333334</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>26.283</v>
       </c>
       <c r="C140">
-        <v>12.629</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -3192,13 +3186,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45918.375</v>
+        <v>45919.375</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>22.169</v>
       </c>
       <c r="C141">
-        <v>37.007</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>37</v>
@@ -3209,13 +3203,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45918.38541666666</v>
+        <v>45919.38541666666</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="C142">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>38</v>
@@ -3226,13 +3220,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45918.39583333334</v>
+        <v>45919.39583333334</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>4.369</v>
       </c>
       <c r="C143">
-        <v>9.457000000000001</v>
+        <v>3.424</v>
       </c>
       <c r="D143">
         <v>39</v>
@@ -3243,53 +3237,19 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45918.40625</v>
+        <v>45919.40625</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1.739</v>
+        <v>26.476</v>
       </c>
       <c r="D144">
         <v>40</v>
       </c>
       <c r="E144" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="2">
-        <v>45918.41666666666</v>
-      </c>
-      <c r="B145">
-        <v>4.112</v>
-      </c>
-      <c r="C145">
-        <v>0.452</v>
-      </c>
-      <c r="D145">
-        <v>41</v>
-      </c>
-      <c r="E145" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2">
-        <v>45918.42708333334</v>
-      </c>
-      <c r="B146">
-        <v>0.079</v>
-      </c>
-      <c r="C146">
-        <v>5.33</v>
-      </c>
-      <c r="D146">
-        <v>42</v>
-      </c>
-      <c r="E146" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,412 +31,376 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>18.09.20251</t>
-  </si>
-  <si>
-    <t>18.09.20252</t>
-  </si>
-  <si>
-    <t>18.09.20253</t>
-  </si>
-  <si>
-    <t>18.09.20254</t>
-  </si>
-  <si>
-    <t>18.09.20255</t>
-  </si>
-  <si>
-    <t>18.09.20256</t>
-  </si>
-  <si>
-    <t>18.09.20257</t>
-  </si>
-  <si>
-    <t>18.09.20258</t>
-  </si>
-  <si>
-    <t>18.09.20259</t>
-  </si>
-  <si>
-    <t>18.09.202510</t>
-  </si>
-  <si>
-    <t>18.09.202511</t>
-  </si>
-  <si>
-    <t>18.09.202512</t>
-  </si>
-  <si>
-    <t>18.09.202513</t>
-  </si>
-  <si>
-    <t>18.09.202514</t>
-  </si>
-  <si>
-    <t>18.09.202515</t>
-  </si>
-  <si>
-    <t>18.09.202516</t>
-  </si>
-  <si>
-    <t>18.09.202517</t>
-  </si>
-  <si>
-    <t>18.09.202518</t>
-  </si>
-  <si>
-    <t>18.09.202519</t>
-  </si>
-  <si>
-    <t>18.09.202520</t>
-  </si>
-  <si>
-    <t>18.09.202521</t>
-  </si>
-  <si>
-    <t>18.09.202522</t>
-  </si>
-  <si>
-    <t>18.09.202523</t>
-  </si>
-  <si>
-    <t>18.09.202524</t>
-  </si>
-  <si>
-    <t>18.09.202525</t>
-  </si>
-  <si>
-    <t>18.09.202526</t>
-  </si>
-  <si>
-    <t>18.09.202527</t>
-  </si>
-  <si>
-    <t>18.09.202528</t>
-  </si>
-  <si>
-    <t>18.09.202529</t>
-  </si>
-  <si>
-    <t>18.09.202530</t>
-  </si>
-  <si>
-    <t>18.09.202531</t>
-  </si>
-  <si>
-    <t>18.09.202532</t>
-  </si>
-  <si>
-    <t>18.09.202533</t>
-  </si>
-  <si>
-    <t>18.09.202534</t>
-  </si>
-  <si>
-    <t>18.09.202535</t>
-  </si>
-  <si>
-    <t>18.09.202536</t>
-  </si>
-  <si>
-    <t>18.09.202537</t>
-  </si>
-  <si>
-    <t>18.09.202538</t>
-  </si>
-  <si>
-    <t>18.09.202539</t>
-  </si>
-  <si>
-    <t>18.09.202540</t>
-  </si>
-  <si>
-    <t>18.09.202541</t>
-  </si>
-  <si>
-    <t>18.09.202542</t>
-  </si>
-  <si>
-    <t>18.09.202543</t>
-  </si>
-  <si>
-    <t>18.09.202544</t>
-  </si>
-  <si>
-    <t>18.09.202545</t>
-  </si>
-  <si>
-    <t>18.09.202546</t>
-  </si>
-  <si>
-    <t>18.09.202547</t>
-  </si>
-  <si>
-    <t>18.09.202548</t>
-  </si>
-  <si>
-    <t>18.09.202549</t>
-  </si>
-  <si>
-    <t>18.09.202550</t>
-  </si>
-  <si>
-    <t>18.09.202551</t>
-  </si>
-  <si>
-    <t>18.09.202552</t>
-  </si>
-  <si>
-    <t>18.09.202553</t>
-  </si>
-  <si>
-    <t>18.09.202554</t>
-  </si>
-  <si>
-    <t>18.09.202555</t>
-  </si>
-  <si>
-    <t>18.09.202556</t>
-  </si>
-  <si>
-    <t>18.09.202557</t>
-  </si>
-  <si>
-    <t>18.09.202558</t>
-  </si>
-  <si>
-    <t>18.09.202559</t>
-  </si>
-  <si>
-    <t>18.09.202560</t>
-  </si>
-  <si>
-    <t>18.09.202561</t>
-  </si>
-  <si>
-    <t>18.09.202562</t>
-  </si>
-  <si>
-    <t>18.09.202563</t>
-  </si>
-  <si>
-    <t>18.09.202564</t>
-  </si>
-  <si>
-    <t>18.09.202565</t>
-  </si>
-  <si>
-    <t>18.09.202566</t>
-  </si>
-  <si>
-    <t>18.09.202567</t>
-  </si>
-  <si>
-    <t>18.09.202568</t>
-  </si>
-  <si>
-    <t>18.09.202569</t>
-  </si>
-  <si>
-    <t>18.09.202570</t>
-  </si>
-  <si>
-    <t>18.09.202571</t>
-  </si>
-  <si>
-    <t>18.09.202572</t>
-  </si>
-  <si>
-    <t>18.09.202573</t>
-  </si>
-  <si>
-    <t>18.09.202574</t>
-  </si>
-  <si>
-    <t>18.09.202575</t>
-  </si>
-  <si>
-    <t>18.09.202576</t>
-  </si>
-  <si>
-    <t>18.09.202577</t>
-  </si>
-  <si>
-    <t>18.09.202578</t>
-  </si>
-  <si>
-    <t>18.09.202579</t>
-  </si>
-  <si>
-    <t>18.09.202580</t>
-  </si>
-  <si>
-    <t>18.09.202581</t>
-  </si>
-  <si>
-    <t>18.09.202582</t>
-  </si>
-  <si>
-    <t>18.09.202583</t>
-  </si>
-  <si>
-    <t>18.09.202584</t>
-  </si>
-  <si>
-    <t>18.09.202585</t>
-  </si>
-  <si>
-    <t>18.09.202586</t>
-  </si>
-  <si>
-    <t>18.09.202587</t>
-  </si>
-  <si>
-    <t>18.09.202588</t>
-  </si>
-  <si>
-    <t>18.09.202589</t>
-  </si>
-  <si>
-    <t>18.09.202590</t>
-  </si>
-  <si>
-    <t>18.09.202591</t>
-  </si>
-  <si>
-    <t>18.09.202592</t>
-  </si>
-  <si>
-    <t>18.09.202593</t>
-  </si>
-  <si>
-    <t>18.09.202594</t>
-  </si>
-  <si>
-    <t>18.09.202595</t>
-  </si>
-  <si>
-    <t>18.09.202596</t>
-  </si>
-  <si>
-    <t>19.09.20251</t>
-  </si>
-  <si>
-    <t>19.09.20252</t>
-  </si>
-  <si>
-    <t>19.09.20253</t>
-  </si>
-  <si>
-    <t>19.09.20254</t>
-  </si>
-  <si>
-    <t>19.09.20255</t>
-  </si>
-  <si>
-    <t>19.09.20256</t>
-  </si>
-  <si>
-    <t>19.09.20257</t>
-  </si>
-  <si>
-    <t>19.09.20258</t>
-  </si>
-  <si>
-    <t>19.09.20259</t>
-  </si>
-  <si>
-    <t>19.09.202510</t>
-  </si>
-  <si>
-    <t>19.09.202511</t>
-  </si>
-  <si>
-    <t>19.09.202512</t>
-  </si>
-  <si>
-    <t>19.09.202513</t>
-  </si>
-  <si>
-    <t>19.09.202514</t>
-  </si>
-  <si>
-    <t>19.09.202515</t>
-  </si>
-  <si>
-    <t>19.09.202516</t>
-  </si>
-  <si>
-    <t>19.09.202517</t>
-  </si>
-  <si>
-    <t>19.09.202518</t>
-  </si>
-  <si>
-    <t>19.09.202519</t>
-  </si>
-  <si>
-    <t>19.09.202520</t>
-  </si>
-  <si>
-    <t>19.09.202521</t>
-  </si>
-  <si>
-    <t>19.09.202522</t>
-  </si>
-  <si>
-    <t>19.09.202523</t>
-  </si>
-  <si>
-    <t>19.09.202524</t>
-  </si>
-  <si>
-    <t>19.09.202525</t>
-  </si>
-  <si>
-    <t>19.09.202526</t>
-  </si>
-  <si>
-    <t>19.09.202527</t>
-  </si>
-  <si>
-    <t>19.09.202528</t>
-  </si>
-  <si>
-    <t>19.09.202529</t>
-  </si>
-  <si>
-    <t>19.09.202530</t>
-  </si>
-  <si>
-    <t>19.09.202531</t>
-  </si>
-  <si>
-    <t>19.09.202532</t>
-  </si>
-  <si>
-    <t>19.09.202533</t>
-  </si>
-  <si>
-    <t>19.09.202534</t>
-  </si>
-  <si>
-    <t>19.09.202535</t>
-  </si>
-  <si>
-    <t>19.09.202536</t>
-  </si>
-  <si>
-    <t>19.09.202537</t>
-  </si>
-  <si>
-    <t>19.09.202538</t>
-  </si>
-  <si>
-    <t>19.09.202539</t>
-  </si>
-  <si>
-    <t>19.09.202540</t>
+    <t>22.09.20251</t>
+  </si>
+  <si>
+    <t>22.09.20252</t>
+  </si>
+  <si>
+    <t>22.09.20253</t>
+  </si>
+  <si>
+    <t>22.09.20254</t>
+  </si>
+  <si>
+    <t>22.09.20255</t>
+  </si>
+  <si>
+    <t>22.09.20256</t>
+  </si>
+  <si>
+    <t>22.09.20257</t>
+  </si>
+  <si>
+    <t>22.09.20258</t>
+  </si>
+  <si>
+    <t>22.09.20259</t>
+  </si>
+  <si>
+    <t>22.09.202510</t>
+  </si>
+  <si>
+    <t>22.09.202511</t>
+  </si>
+  <si>
+    <t>22.09.202512</t>
+  </si>
+  <si>
+    <t>22.09.202513</t>
+  </si>
+  <si>
+    <t>22.09.202514</t>
+  </si>
+  <si>
+    <t>22.09.202515</t>
+  </si>
+  <si>
+    <t>22.09.202516</t>
+  </si>
+  <si>
+    <t>22.09.202517</t>
+  </si>
+  <si>
+    <t>22.09.202518</t>
+  </si>
+  <si>
+    <t>22.09.202519</t>
+  </si>
+  <si>
+    <t>22.09.202520</t>
+  </si>
+  <si>
+    <t>22.09.202521</t>
+  </si>
+  <si>
+    <t>22.09.202522</t>
+  </si>
+  <si>
+    <t>22.09.202523</t>
+  </si>
+  <si>
+    <t>22.09.202524</t>
+  </si>
+  <si>
+    <t>22.09.202525</t>
+  </si>
+  <si>
+    <t>22.09.202526</t>
+  </si>
+  <si>
+    <t>22.09.202527</t>
+  </si>
+  <si>
+    <t>22.09.202528</t>
+  </si>
+  <si>
+    <t>22.09.202529</t>
+  </si>
+  <si>
+    <t>22.09.202530</t>
+  </si>
+  <si>
+    <t>22.09.202531</t>
+  </si>
+  <si>
+    <t>22.09.202532</t>
+  </si>
+  <si>
+    <t>22.09.202533</t>
+  </si>
+  <si>
+    <t>22.09.202534</t>
+  </si>
+  <si>
+    <t>22.09.202535</t>
+  </si>
+  <si>
+    <t>22.09.202536</t>
+  </si>
+  <si>
+    <t>22.09.202537</t>
+  </si>
+  <si>
+    <t>22.09.202538</t>
+  </si>
+  <si>
+    <t>22.09.202539</t>
+  </si>
+  <si>
+    <t>22.09.202540</t>
+  </si>
+  <si>
+    <t>22.09.202541</t>
+  </si>
+  <si>
+    <t>22.09.202542</t>
+  </si>
+  <si>
+    <t>22.09.202543</t>
+  </si>
+  <si>
+    <t>22.09.202544</t>
+  </si>
+  <si>
+    <t>22.09.202545</t>
+  </si>
+  <si>
+    <t>22.09.202546</t>
+  </si>
+  <si>
+    <t>22.09.202547</t>
+  </si>
+  <si>
+    <t>22.09.202548</t>
+  </si>
+  <si>
+    <t>22.09.202549</t>
+  </si>
+  <si>
+    <t>22.09.202550</t>
+  </si>
+  <si>
+    <t>22.09.202551</t>
+  </si>
+  <si>
+    <t>22.09.202552</t>
+  </si>
+  <si>
+    <t>22.09.202553</t>
+  </si>
+  <si>
+    <t>22.09.202554</t>
+  </si>
+  <si>
+    <t>22.09.202555</t>
+  </si>
+  <si>
+    <t>22.09.202556</t>
+  </si>
+  <si>
+    <t>22.09.202557</t>
+  </si>
+  <si>
+    <t>22.09.202558</t>
+  </si>
+  <si>
+    <t>22.09.202559</t>
+  </si>
+  <si>
+    <t>22.09.202560</t>
+  </si>
+  <si>
+    <t>22.09.202561</t>
+  </si>
+  <si>
+    <t>22.09.202562</t>
+  </si>
+  <si>
+    <t>22.09.202563</t>
+  </si>
+  <si>
+    <t>22.09.202564</t>
+  </si>
+  <si>
+    <t>22.09.202565</t>
+  </si>
+  <si>
+    <t>22.09.202566</t>
+  </si>
+  <si>
+    <t>22.09.202567</t>
+  </si>
+  <si>
+    <t>22.09.202568</t>
+  </si>
+  <si>
+    <t>22.09.202569</t>
+  </si>
+  <si>
+    <t>22.09.202570</t>
+  </si>
+  <si>
+    <t>22.09.202571</t>
+  </si>
+  <si>
+    <t>22.09.202572</t>
+  </si>
+  <si>
+    <t>22.09.202573</t>
+  </si>
+  <si>
+    <t>22.09.202574</t>
+  </si>
+  <si>
+    <t>22.09.202575</t>
+  </si>
+  <si>
+    <t>22.09.202576</t>
+  </si>
+  <si>
+    <t>22.09.202577</t>
+  </si>
+  <si>
+    <t>22.09.202578</t>
+  </si>
+  <si>
+    <t>22.09.202579</t>
+  </si>
+  <si>
+    <t>22.09.202580</t>
+  </si>
+  <si>
+    <t>22.09.202581</t>
+  </si>
+  <si>
+    <t>22.09.202582</t>
+  </si>
+  <si>
+    <t>22.09.202583</t>
+  </si>
+  <si>
+    <t>22.09.202584</t>
+  </si>
+  <si>
+    <t>22.09.202585</t>
+  </si>
+  <si>
+    <t>22.09.202586</t>
+  </si>
+  <si>
+    <t>22.09.202587</t>
+  </si>
+  <si>
+    <t>22.09.202588</t>
+  </si>
+  <si>
+    <t>22.09.202589</t>
+  </si>
+  <si>
+    <t>22.09.202590</t>
+  </si>
+  <si>
+    <t>22.09.202591</t>
+  </si>
+  <si>
+    <t>22.09.202592</t>
+  </si>
+  <si>
+    <t>22.09.202593</t>
+  </si>
+  <si>
+    <t>22.09.202594</t>
+  </si>
+  <si>
+    <t>22.09.202595</t>
+  </si>
+  <si>
+    <t>22.09.202596</t>
+  </si>
+  <si>
+    <t>23.09.20251</t>
+  </si>
+  <si>
+    <t>23.09.20252</t>
+  </si>
+  <si>
+    <t>23.09.20253</t>
+  </si>
+  <si>
+    <t>23.09.20254</t>
+  </si>
+  <si>
+    <t>23.09.20255</t>
+  </si>
+  <si>
+    <t>23.09.20256</t>
+  </si>
+  <si>
+    <t>23.09.20257</t>
+  </si>
+  <si>
+    <t>23.09.20258</t>
+  </si>
+  <si>
+    <t>23.09.20259</t>
+  </si>
+  <si>
+    <t>23.09.202510</t>
+  </si>
+  <si>
+    <t>23.09.202511</t>
+  </si>
+  <si>
+    <t>23.09.202512</t>
+  </si>
+  <si>
+    <t>23.09.202513</t>
+  </si>
+  <si>
+    <t>23.09.202514</t>
+  </si>
+  <si>
+    <t>23.09.202515</t>
+  </si>
+  <si>
+    <t>23.09.202516</t>
+  </si>
+  <si>
+    <t>23.09.202517</t>
+  </si>
+  <si>
+    <t>23.09.202518</t>
+  </si>
+  <si>
+    <t>23.09.202519</t>
+  </si>
+  <si>
+    <t>23.09.202520</t>
+  </si>
+  <si>
+    <t>23.09.202521</t>
+  </si>
+  <si>
+    <t>23.09.202522</t>
+  </si>
+  <si>
+    <t>23.09.202523</t>
+  </si>
+  <si>
+    <t>23.09.202524</t>
+  </si>
+  <si>
+    <t>23.09.202525</t>
+  </si>
+  <si>
+    <t>23.09.202526</t>
+  </si>
+  <si>
+    <t>23.09.202527</t>
+  </si>
+  <si>
+    <t>23.09.202528</t>
   </si>
 </sst>
 </file>
@@ -798,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,13 +787,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B2">
-        <v>1.325</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>8.528</v>
+        <v>35.502</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,13 +804,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45918.01041666666</v>
+        <v>45922.01041666666</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>18.199</v>
+        <v>17.497</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -857,13 +821,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45918.02083333334</v>
+        <v>45922.02083333334</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C4">
-        <v>15.359</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -874,13 +838,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45918.03125</v>
+        <v>45922.03125</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.493</v>
       </c>
       <c r="C5">
-        <v>15.913</v>
+        <v>0.76</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -891,13 +855,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45918.04166666666</v>
+        <v>45922.04166666666</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>19.142</v>
+        <v>18.818</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -908,13 +872,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45918.05208333334</v>
+        <v>45922.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.485</v>
+        <v>11.261</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -925,13 +889,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45918.0625</v>
+        <v>45922.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="C8">
-        <v>4.599</v>
+        <v>6.743</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -942,13 +906,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45918.07291666666</v>
+        <v>45922.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C9">
-        <v>7.912</v>
+        <v>3.692</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -959,13 +923,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45918.08333333334</v>
+        <v>45922.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="C10">
-        <v>9.766</v>
+        <v>3.259</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -976,13 +940,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45918.09375</v>
+        <v>45922.09375</v>
       </c>
       <c r="B11">
-        <v>0.527</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.088</v>
+        <v>0.504</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -993,13 +957,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45918.10416666666</v>
+        <v>45922.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.105</v>
+        <v>0.05</v>
       </c>
       <c r="C12">
-        <v>0.275</v>
+        <v>4.225</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1010,13 +974,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45918.11458333334</v>
+        <v>45922.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C13">
-        <v>0.26</v>
+        <v>6.395</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1027,13 +991,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45918.125</v>
+        <v>45922.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C14">
-        <v>1.061</v>
+        <v>3.818</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1044,13 +1008,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45918.13541666666</v>
+        <v>45922.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.203</v>
       </c>
       <c r="C15">
-        <v>6.619</v>
+        <v>2.988</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1061,13 +1025,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45918.14583333334</v>
+        <v>45922.14583333334</v>
       </c>
       <c r="B16">
-        <v>2.712</v>
+        <v>7.888</v>
       </c>
       <c r="C16">
-        <v>0.548</v>
+        <v>0.464</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1078,13 +1042,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45918.15625</v>
+        <v>45922.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.706</v>
       </c>
       <c r="C17">
-        <v>5.307</v>
+        <v>1.451</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1095,13 +1059,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45918.16666666666</v>
+        <v>45922.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.269</v>
       </c>
       <c r="C18">
-        <v>10.716</v>
+        <v>1.782</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1112,13 +1076,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45918.17708333334</v>
+        <v>45922.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.07000000000000001</v>
+        <v>0.238</v>
       </c>
       <c r="C19">
-        <v>8.914999999999999</v>
+        <v>5.426</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1129,13 +1093,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45918.1875</v>
+        <v>45922.1875</v>
       </c>
       <c r="B20">
-        <v>1.035</v>
+        <v>7.852</v>
       </c>
       <c r="C20">
-        <v>4.013</v>
+        <v>0.252</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1146,13 +1110,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45918.19791666666</v>
+        <v>45922.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.6919999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="C21">
-        <v>5.424</v>
+        <v>0.236</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1163,13 +1127,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45918.20833333334</v>
+        <v>45922.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.369</v>
       </c>
       <c r="C22">
-        <v>31.023</v>
+        <v>0.393</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1180,13 +1144,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45918.21875</v>
+        <v>45922.21875</v>
       </c>
       <c r="B23">
-        <v>0.005</v>
+        <v>8.225</v>
       </c>
       <c r="C23">
-        <v>14.424</v>
+        <v>0.794</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1197,13 +1161,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45918.22916666666</v>
+        <v>45922.22916666666</v>
       </c>
       <c r="B24">
-        <v>3.171</v>
+        <v>21.008</v>
       </c>
       <c r="C24">
-        <v>1.072</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1214,13 +1178,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45918.23958333334</v>
+        <v>45922.23958333334</v>
       </c>
       <c r="B25">
-        <v>1.638</v>
+        <v>59.905</v>
       </c>
       <c r="C25">
-        <v>4.658</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1231,13 +1195,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45918.25</v>
+        <v>45922.25</v>
       </c>
       <c r="B26">
-        <v>0.17</v>
+        <v>32.53</v>
       </c>
       <c r="C26">
-        <v>3.182</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1248,13 +1212,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45918.26041666666</v>
+        <v>45922.26041666666</v>
       </c>
       <c r="B27">
-        <v>5.116</v>
+        <v>3.404</v>
       </c>
       <c r="C27">
-        <v>0.108</v>
+        <v>0.068</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1265,13 +1229,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45918.27083333334</v>
+        <v>45922.27083333334</v>
       </c>
       <c r="B28">
-        <v>1.689</v>
+        <v>5.319</v>
       </c>
       <c r="C28">
-        <v>1.813</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1282,13 +1246,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45918.28125</v>
+        <v>45922.28125</v>
       </c>
       <c r="B29">
-        <v>3.851</v>
+        <v>13.182</v>
       </c>
       <c r="C29">
-        <v>2.711</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1299,13 +1263,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45918.29166666666</v>
+        <v>45922.29166666666</v>
       </c>
       <c r="B30">
-        <v>11.82</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="C30">
-        <v>3.572</v>
+        <v>2.247</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1316,13 +1280,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45918.30208333334</v>
+        <v>45922.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.001</v>
+        <v>1.341</v>
       </c>
       <c r="C31">
-        <v>10.589</v>
+        <v>3.158</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1333,13 +1297,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45918.3125</v>
+        <v>45922.3125</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>5.315</v>
+        <v>12.474</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1350,13 +1314,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45918.32291666666</v>
+        <v>45922.32291666666</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5.804</v>
+        <v>7.56</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1367,13 +1331,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45918.33333333334</v>
+        <v>45922.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.301</v>
+        <v>28.003</v>
       </c>
       <c r="C34">
-        <v>9.470000000000001</v>
+        <v>0.531</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1384,13 +1348,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45918.34375</v>
+        <v>45922.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>11.89</v>
       </c>
       <c r="C35">
-        <v>9.817</v>
+        <v>5.715</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1401,13 +1365,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45918.35416666666</v>
+        <v>45922.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="C36">
-        <v>4.439</v>
+        <v>0.324</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1418,13 +1382,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45918.36458333334</v>
+        <v>45922.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>12.629</v>
+        <v>2.681</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1435,13 +1399,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45918.375</v>
+        <v>45922.375</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="C38">
-        <v>37.007</v>
+        <v>5.431</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1452,13 +1416,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45918.38541666666</v>
+        <v>45922.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="C39">
-        <v>23.5</v>
+        <v>13.899</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1469,13 +1433,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45918.39583333334</v>
+        <v>45922.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="C40">
-        <v>9.457000000000001</v>
+        <v>4.601</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1486,13 +1450,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45918.40625</v>
+        <v>45922.40625</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.093</v>
       </c>
       <c r="C41">
-        <v>1.739</v>
+        <v>0.945</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1503,13 +1467,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45918.41666666666</v>
+        <v>45922.41666666666</v>
       </c>
       <c r="B42">
-        <v>4.112</v>
+        <v>0.701</v>
       </c>
       <c r="C42">
-        <v>0.452</v>
+        <v>1.723</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1520,13 +1484,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45918.42708333334</v>
+        <v>45922.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.079</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C43">
-        <v>5.33</v>
+        <v>2.054</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1537,13 +1501,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45918.4375</v>
+        <v>45922.4375</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C44">
-        <v>30.407</v>
+        <v>4.362</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1554,13 +1518,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45918.44791666666</v>
+        <v>45922.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>22.065</v>
+        <v>8.208</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1571,13 +1535,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45918.45833333334</v>
+        <v>45922.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>25.587</v>
+        <v>4.761</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1588,13 +1552,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45918.46875</v>
+        <v>45922.46875</v>
       </c>
       <c r="B47">
-        <v>4.001</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2.415</v>
+        <v>2.346</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1605,13 +1569,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45918.47916666666</v>
+        <v>45922.47916666666</v>
       </c>
       <c r="B48">
-        <v>18.191</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1622,13 +1586,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45918.48958333334</v>
+        <v>45922.48958333334</v>
       </c>
       <c r="B49">
-        <v>10.26</v>
+        <v>0.006</v>
       </c>
       <c r="C49">
-        <v>1.15</v>
+        <v>5.392</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1639,13 +1603,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45918.5</v>
+        <v>45922.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>11.329</v>
+        <v>15.635</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1656,13 +1620,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45918.51041666666</v>
+        <v>45922.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.27</v>
+        <v>0.75</v>
       </c>
       <c r="C51">
-        <v>3.688</v>
+        <v>2.184</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1673,13 +1637,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45918.52083333334</v>
+        <v>45922.52083333334</v>
       </c>
       <c r="B52">
-        <v>0.08799999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="C52">
-        <v>0.969</v>
+        <v>4.299</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1690,13 +1654,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45918.53125</v>
+        <v>45922.53125</v>
       </c>
       <c r="B53">
-        <v>13.039</v>
+        <v>0.055</v>
       </c>
       <c r="C53">
-        <v>1.327</v>
+        <v>12.845</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1707,13 +1671,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45918.54166666666</v>
+        <v>45922.54166666666</v>
       </c>
       <c r="B54">
-        <v>1.158</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>8.394</v>
+        <v>6.613</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1724,13 +1688,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45918.55208333334</v>
+        <v>45922.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>19.758</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1741,13 +1705,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45918.5625</v>
+        <v>45922.5625</v>
       </c>
       <c r="B56">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>5.682</v>
+        <v>17.273</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1758,13 +1722,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45918.57291666666</v>
+        <v>45922.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1.046</v>
+        <v>7.244</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1775,13 +1739,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45918.58333333334</v>
+        <v>45922.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="C58">
-        <v>2.481</v>
+        <v>1.408</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1792,13 +1756,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45918.59375</v>
+        <v>45922.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.706</v>
       </c>
       <c r="C59">
-        <v>29.836</v>
+        <v>4.2</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1809,13 +1773,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45918.60416666666</v>
+        <v>45922.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.285</v>
       </c>
       <c r="C60">
-        <v>21.085</v>
+        <v>9.973000000000001</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1826,13 +1790,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45918.61458333334</v>
+        <v>45922.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="C61">
-        <v>15.868</v>
+        <v>1.393</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1843,13 +1807,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45918.625</v>
+        <v>45922.625</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>8.811999999999999</v>
+        <v>13.265</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1860,13 +1824,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45918.63541666666</v>
+        <v>45922.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>2.197</v>
       </c>
       <c r="C63">
-        <v>16.244</v>
+        <v>7.631</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1877,13 +1841,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45918.64583333334</v>
+        <v>45922.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6.224</v>
       </c>
       <c r="C64">
-        <v>22.234</v>
+        <v>1.156</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1894,13 +1858,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45918.65625</v>
+        <v>45922.65625</v>
       </c>
       <c r="B65">
-        <v>0.611</v>
+        <v>12.144</v>
       </c>
       <c r="C65">
-        <v>5.915</v>
+        <v>3.408</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1911,13 +1875,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45918.66666666666</v>
+        <v>45922.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1.588</v>
+        <v>8.249000000000001</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1928,13 +1892,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45918.67708333334</v>
+        <v>45922.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>7.187</v>
       </c>
       <c r="C67">
-        <v>21.687</v>
+        <v>4.238</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1945,13 +1909,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45918.6875</v>
+        <v>45922.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>9.412000000000001</v>
       </c>
       <c r="C68">
-        <v>17.415</v>
+        <v>0.031</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1962,13 +1926,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45918.69791666666</v>
+        <v>45922.69791666666</v>
       </c>
       <c r="B69">
-        <v>7.653</v>
+        <v>2.164</v>
       </c>
       <c r="C69">
-        <v>1.948</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1979,13 +1943,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45918.70833333334</v>
+        <v>45922.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="C70">
-        <v>14.048</v>
+        <v>7.048</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1996,13 +1960,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45918.71875</v>
+        <v>45922.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2.092</v>
       </c>
       <c r="C71">
-        <v>15.68</v>
+        <v>1.127</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2013,13 +1977,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45918.72916666666</v>
+        <v>45922.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.114</v>
+        <v>0.533</v>
       </c>
       <c r="C72">
-        <v>7.88</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2030,13 +1994,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45918.73958333334</v>
+        <v>45922.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.171</v>
+        <v>0.581</v>
       </c>
       <c r="C73">
-        <v>9.753</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2047,13 +2011,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45918.75</v>
+        <v>45922.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>7.053</v>
       </c>
       <c r="C74">
-        <v>22.108</v>
+        <v>0.36</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2064,13 +2028,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45918.76041666666</v>
+        <v>45922.76041666666</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>11.171</v>
       </c>
       <c r="C75">
-        <v>34.357</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2081,13 +2045,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45918.77083333334</v>
+        <v>45922.77083333334</v>
       </c>
       <c r="B76">
-        <v>0.044</v>
+        <v>13.574</v>
       </c>
       <c r="C76">
-        <v>9.555</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2098,13 +2062,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45918.78125</v>
+        <v>45922.78125</v>
       </c>
       <c r="B77">
-        <v>0.095</v>
+        <v>9.531000000000001</v>
       </c>
       <c r="C77">
-        <v>12.242</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2115,13 +2079,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45918.79166666666</v>
+        <v>45922.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="C78">
-        <v>14.858</v>
+        <v>8.930999999999999</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2132,13 +2096,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45918.80208333334</v>
+        <v>45922.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="C79">
-        <v>36.206</v>
+        <v>1.562</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2149,13 +2113,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45918.8125</v>
+        <v>45922.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.656</v>
       </c>
       <c r="C80">
-        <v>34.575</v>
+        <v>2.955</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2166,13 +2130,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45918.82291666666</v>
+        <v>45922.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1.124</v>
       </c>
       <c r="C81">
-        <v>33.22</v>
+        <v>1.098</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2183,13 +2147,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45918.83333333334</v>
+        <v>45922.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>3.686</v>
       </c>
       <c r="C82">
-        <v>16.433</v>
+        <v>1.251</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2200,13 +2164,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45918.84375</v>
+        <v>45922.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="C83">
-        <v>11.387</v>
+        <v>1.63</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2217,13 +2181,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45918.85416666666</v>
+        <v>45922.85416666666</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>8.263999999999999</v>
+        <v>4.849</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2234,13 +2198,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45918.86458333334</v>
+        <v>45922.86458333334</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.858</v>
+        <v>8.468999999999999</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2251,13 +2215,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45918.875</v>
+        <v>45922.875</v>
       </c>
       <c r="B86">
-        <v>0.007</v>
+        <v>0.533</v>
       </c>
       <c r="C86">
-        <v>12.622</v>
+        <v>1.692</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2268,13 +2232,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45918.88541666666</v>
+        <v>45922.88541666666</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="C87">
-        <v>12.688</v>
+        <v>4.656</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2285,13 +2249,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45918.89583333334</v>
+        <v>45922.89583333334</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>18.754</v>
+        <v>23.226</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2302,13 +2266,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45918.90625</v>
+        <v>45922.90625</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>18.422</v>
+        <v>9.268000000000001</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2319,13 +2283,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45918.91666666666</v>
+        <v>45922.91666666666</v>
       </c>
       <c r="B90">
-        <v>0.074</v>
+        <v>1.42</v>
       </c>
       <c r="C90">
-        <v>16.93</v>
+        <v>8.782</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2336,13 +2300,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45918.92708333334</v>
+        <v>45922.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>20.955</v>
+        <v>27.475</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2353,13 +2317,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45918.9375</v>
+        <v>45922.9375</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>16.022</v>
+        <v>32.609</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2370,13 +2334,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45918.94791666666</v>
+        <v>45922.94791666666</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>10.419</v>
+        <v>5.136</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2387,13 +2351,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45918.95833333334</v>
+        <v>45922.95833333334</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="C94">
-        <v>9.827</v>
+        <v>2.65</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2404,13 +2368,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="C95">
-        <v>2.952</v>
+        <v>1.395</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2421,13 +2385,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45918.96875</v>
+        <v>45922.96875</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.542</v>
       </c>
       <c r="C96">
-        <v>2.952</v>
+        <v>1.395</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2438,13 +2402,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>2.891</v>
+        <v>13.511</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2455,13 +2419,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45918.97916666666</v>
+        <v>45922.97916666666</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>2.891</v>
+        <v>13.511</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2472,13 +2436,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1.109</v>
       </c>
       <c r="C99">
-        <v>0.8110000000000001</v>
+        <v>3.497</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2489,13 +2453,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45918.98958333334</v>
+        <v>45922.98958333334</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1.109</v>
       </c>
       <c r="C100">
-        <v>0.8110000000000001</v>
+        <v>3.497</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2506,13 +2470,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>10.365</v>
       </c>
       <c r="C101">
-        <v>36.348</v>
+        <v>0.051</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2523,13 +2487,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>10.365</v>
       </c>
       <c r="C102">
-        <v>36.348</v>
+        <v>0.051</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2540,13 +2504,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>27.322</v>
       </c>
       <c r="C103">
-        <v>20.838</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2557,13 +2521,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45919.01041666666</v>
+        <v>45923.01041666666</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>27.322</v>
       </c>
       <c r="C104">
-        <v>20.838</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2574,13 +2538,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>29.356</v>
       </c>
       <c r="C105">
-        <v>4.661</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2591,13 +2555,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45919.02083333334</v>
+        <v>45923.02083333334</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>29.356</v>
       </c>
       <c r="C106">
-        <v>4.661</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2608,13 +2572,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>22.337</v>
       </c>
       <c r="C107">
-        <v>4.753</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2625,13 +2589,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45919.03125</v>
+        <v>45923.03125</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>22.337</v>
       </c>
       <c r="C108">
-        <v>4.753</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2642,13 +2606,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45919.04166666666</v>
+        <v>45923.04166666666</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>6.487</v>
       </c>
       <c r="C109">
-        <v>36.567</v>
+        <v>0.144</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2659,13 +2623,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45919.05208333334</v>
+        <v>45923.05208333334</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>15.016</v>
       </c>
       <c r="C110">
-        <v>4.865</v>
+        <v>0.438</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2676,13 +2640,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45919.0625</v>
+        <v>45923.0625</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>15.059</v>
       </c>
       <c r="C111">
-        <v>4.085</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2693,13 +2657,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45919.07291666666</v>
+        <v>45923.07291666666</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>7.71</v>
       </c>
       <c r="C112">
-        <v>2.98</v>
+        <v>0.045</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2710,13 +2674,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45919.08333333334</v>
+        <v>45923.08333333334</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>2.738</v>
       </c>
       <c r="C113">
-        <v>4.714</v>
+        <v>0.635</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2727,13 +2691,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45919.09375</v>
+        <v>45923.09375</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="C114">
-        <v>2.165</v>
+        <v>4.228</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2744,13 +2708,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45919.10416666666</v>
+        <v>45923.10416666666</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="C115">
-        <v>1.711</v>
+        <v>1.049</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2761,13 +2725,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45919.11458333334</v>
+        <v>45923.11458333334</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>3.885</v>
       </c>
       <c r="C116">
-        <v>0.8129999999999999</v>
+        <v>0.288</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2778,13 +2742,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45919.125</v>
+        <v>45923.125</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>4.566</v>
       </c>
       <c r="C117">
-        <v>0.216</v>
+        <v>0.649</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2795,13 +2759,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45919.13541666666</v>
+        <v>45923.13541666666</v>
       </c>
       <c r="B118">
-        <v>0.008</v>
+        <v>13.783</v>
       </c>
       <c r="C118">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2812,13 +2776,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45919.14583333334</v>
+        <v>45923.14583333334</v>
       </c>
       <c r="B119">
-        <v>1.622</v>
+        <v>36.378</v>
       </c>
       <c r="C119">
-        <v>2.447</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2829,13 +2793,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45919.15625</v>
+        <v>45923.15625</v>
       </c>
       <c r="B120">
-        <v>2.223</v>
+        <v>12.307</v>
       </c>
       <c r="C120">
-        <v>1.975</v>
+        <v>0.047</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2846,13 +2810,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45919.16666666666</v>
+        <v>45923.16666666666</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>5.717</v>
       </c>
       <c r="C121">
-        <v>1.592</v>
+        <v>0.019</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2863,13 +2827,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45919.17708333334</v>
+        <v>45923.17708333334</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>5.318</v>
       </c>
       <c r="C122">
-        <v>0.904</v>
+        <v>0.145</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2880,13 +2844,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45919.1875</v>
+        <v>45923.1875</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>20.199</v>
       </c>
       <c r="C123">
-        <v>5.011</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2897,13 +2861,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45919.19791666666</v>
+        <v>45923.19791666666</v>
       </c>
       <c r="B124">
-        <v>0.018</v>
+        <v>11.381</v>
       </c>
       <c r="C124">
-        <v>8.311</v>
+        <v>0.002</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2914,13 +2878,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45919.20833333334</v>
+        <v>45923.20833333334</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>2.359</v>
       </c>
       <c r="C125">
-        <v>3.014</v>
+        <v>0.113</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2931,13 +2895,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45919.21875</v>
+        <v>45923.21875</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="C126">
-        <v>3.25</v>
+        <v>0.037</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2948,13 +2912,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45919.22916666666</v>
+        <v>45923.22916666666</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>5.917</v>
       </c>
       <c r="C127">
-        <v>13.804</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2965,13 +2929,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45919.23958333334</v>
+        <v>45923.23958333334</v>
       </c>
       <c r="B128">
-        <v>1.149</v>
+        <v>7.482</v>
       </c>
       <c r="C128">
-        <v>4.554</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2982,13 +2946,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45919.25</v>
+        <v>45923.25</v>
       </c>
       <c r="B129">
-        <v>0.006</v>
+        <v>0.738</v>
       </c>
       <c r="C129">
-        <v>6.841</v>
+        <v>2.567</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2999,13 +2963,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45919.26041666666</v>
+        <v>45923.26041666666</v>
       </c>
       <c r="B130">
-        <v>0.001</v>
+        <v>1.362</v>
       </c>
       <c r="C130">
-        <v>5.123</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -3016,13 +2980,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45919.27083333334</v>
+        <v>45923.27083333334</v>
       </c>
       <c r="B131">
-        <v>0.001</v>
+        <v>2.887</v>
       </c>
       <c r="C131">
-        <v>14.975</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3033,223 +2997,19 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45919.28125</v>
+        <v>45923.28125</v>
       </c>
       <c r="B132">
-        <v>1.225</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C132">
-        <v>10.858</v>
+        <v>4.542</v>
       </c>
       <c r="D132">
         <v>28</v>
       </c>
       <c r="E132" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2">
-        <v>45919.29166666666</v>
-      </c>
-      <c r="B133">
-        <v>12.994</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>29</v>
-      </c>
-      <c r="E133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>45919.30208333334</v>
-      </c>
-      <c r="B134">
-        <v>23.054</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>30</v>
-      </c>
-      <c r="E134" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>45919.3125</v>
-      </c>
-      <c r="B135">
-        <v>15.669</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>31</v>
-      </c>
-      <c r="E135" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2">
-        <v>45919.32291666666</v>
-      </c>
-      <c r="B136">
-        <v>14.885</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>32</v>
-      </c>
-      <c r="E136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2">
-        <v>45919.33333333334</v>
-      </c>
-      <c r="B137">
-        <v>19.995</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>33</v>
-      </c>
-      <c r="E137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2">
-        <v>45919.34375</v>
-      </c>
-      <c r="B138">
-        <v>52.76</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>34</v>
-      </c>
-      <c r="E138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2">
-        <v>45919.35416666666</v>
-      </c>
-      <c r="B139">
-        <v>56.14</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>35</v>
-      </c>
-      <c r="E139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2">
-        <v>45919.36458333334</v>
-      </c>
-      <c r="B140">
-        <v>26.283</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>36</v>
-      </c>
-      <c r="E140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2">
-        <v>45919.375</v>
-      </c>
-      <c r="B141">
-        <v>22.169</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>37</v>
-      </c>
-      <c r="E141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="2">
-        <v>45919.38541666666</v>
-      </c>
-      <c r="B142">
-        <v>11.41</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>38</v>
-      </c>
-      <c r="E142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2">
-        <v>45919.39583333334</v>
-      </c>
-      <c r="B143">
-        <v>4.369</v>
-      </c>
-      <c r="C143">
-        <v>3.424</v>
-      </c>
-      <c r="D143">
-        <v>39</v>
-      </c>
-      <c r="E143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2">
-        <v>45919.40625</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>26.476</v>
-      </c>
-      <c r="D144">
-        <v>40</v>
-      </c>
-      <c r="E144" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,376 +31,412 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>22.09.20251</t>
-  </si>
-  <si>
-    <t>22.09.20252</t>
-  </si>
-  <si>
-    <t>22.09.20253</t>
-  </si>
-  <si>
-    <t>22.09.20254</t>
-  </si>
-  <si>
-    <t>22.09.20255</t>
-  </si>
-  <si>
-    <t>22.09.20256</t>
-  </si>
-  <si>
-    <t>22.09.20257</t>
-  </si>
-  <si>
-    <t>22.09.20258</t>
-  </si>
-  <si>
-    <t>22.09.20259</t>
-  </si>
-  <si>
-    <t>22.09.202510</t>
-  </si>
-  <si>
-    <t>22.09.202511</t>
-  </si>
-  <si>
-    <t>22.09.202512</t>
-  </si>
-  <si>
-    <t>22.09.202513</t>
-  </si>
-  <si>
-    <t>22.09.202514</t>
-  </si>
-  <si>
-    <t>22.09.202515</t>
-  </si>
-  <si>
-    <t>22.09.202516</t>
-  </si>
-  <si>
-    <t>22.09.202517</t>
-  </si>
-  <si>
-    <t>22.09.202518</t>
-  </si>
-  <si>
-    <t>22.09.202519</t>
-  </si>
-  <si>
-    <t>22.09.202520</t>
-  </si>
-  <si>
-    <t>22.09.202521</t>
-  </si>
-  <si>
-    <t>22.09.202522</t>
-  </si>
-  <si>
-    <t>22.09.202523</t>
-  </si>
-  <si>
-    <t>22.09.202524</t>
-  </si>
-  <si>
-    <t>22.09.202525</t>
-  </si>
-  <si>
-    <t>22.09.202526</t>
-  </si>
-  <si>
-    <t>22.09.202527</t>
-  </si>
-  <si>
-    <t>22.09.202528</t>
-  </si>
-  <si>
-    <t>22.09.202529</t>
-  </si>
-  <si>
-    <t>22.09.202530</t>
-  </si>
-  <si>
-    <t>22.09.202531</t>
-  </si>
-  <si>
-    <t>22.09.202532</t>
-  </si>
-  <si>
-    <t>22.09.202533</t>
-  </si>
-  <si>
-    <t>22.09.202534</t>
-  </si>
-  <si>
-    <t>22.09.202535</t>
-  </si>
-  <si>
-    <t>22.09.202536</t>
-  </si>
-  <si>
-    <t>22.09.202537</t>
-  </si>
-  <si>
-    <t>22.09.202538</t>
-  </si>
-  <si>
-    <t>22.09.202539</t>
-  </si>
-  <si>
-    <t>22.09.202540</t>
-  </si>
-  <si>
-    <t>22.09.202541</t>
-  </si>
-  <si>
-    <t>22.09.202542</t>
-  </si>
-  <si>
-    <t>22.09.202543</t>
-  </si>
-  <si>
-    <t>22.09.202544</t>
-  </si>
-  <si>
-    <t>22.09.202545</t>
-  </si>
-  <si>
-    <t>22.09.202546</t>
-  </si>
-  <si>
-    <t>22.09.202547</t>
-  </si>
-  <si>
-    <t>22.09.202548</t>
-  </si>
-  <si>
-    <t>22.09.202549</t>
-  </si>
-  <si>
-    <t>22.09.202550</t>
-  </si>
-  <si>
-    <t>22.09.202551</t>
-  </si>
-  <si>
-    <t>22.09.202552</t>
-  </si>
-  <si>
-    <t>22.09.202553</t>
-  </si>
-  <si>
-    <t>22.09.202554</t>
-  </si>
-  <si>
-    <t>22.09.202555</t>
-  </si>
-  <si>
-    <t>22.09.202556</t>
-  </si>
-  <si>
-    <t>22.09.202557</t>
-  </si>
-  <si>
-    <t>22.09.202558</t>
-  </si>
-  <si>
-    <t>22.09.202559</t>
-  </si>
-  <si>
-    <t>22.09.202560</t>
-  </si>
-  <si>
-    <t>22.09.202561</t>
-  </si>
-  <si>
-    <t>22.09.202562</t>
-  </si>
-  <si>
-    <t>22.09.202563</t>
-  </si>
-  <si>
-    <t>22.09.202564</t>
-  </si>
-  <si>
-    <t>22.09.202565</t>
-  </si>
-  <si>
-    <t>22.09.202566</t>
-  </si>
-  <si>
-    <t>22.09.202567</t>
-  </si>
-  <si>
-    <t>22.09.202568</t>
-  </si>
-  <si>
-    <t>22.09.202569</t>
-  </si>
-  <si>
-    <t>22.09.202570</t>
-  </si>
-  <si>
-    <t>22.09.202571</t>
-  </si>
-  <si>
-    <t>22.09.202572</t>
-  </si>
-  <si>
-    <t>22.09.202573</t>
-  </si>
-  <si>
-    <t>22.09.202574</t>
-  </si>
-  <si>
-    <t>22.09.202575</t>
-  </si>
-  <si>
-    <t>22.09.202576</t>
-  </si>
-  <si>
-    <t>22.09.202577</t>
-  </si>
-  <si>
-    <t>22.09.202578</t>
-  </si>
-  <si>
-    <t>22.09.202579</t>
-  </si>
-  <si>
-    <t>22.09.202580</t>
-  </si>
-  <si>
-    <t>22.09.202581</t>
-  </si>
-  <si>
-    <t>22.09.202582</t>
-  </si>
-  <si>
-    <t>22.09.202583</t>
-  </si>
-  <si>
-    <t>22.09.202584</t>
-  </si>
-  <si>
-    <t>22.09.202585</t>
-  </si>
-  <si>
-    <t>22.09.202586</t>
-  </si>
-  <si>
-    <t>22.09.202587</t>
-  </si>
-  <si>
-    <t>22.09.202588</t>
-  </si>
-  <si>
-    <t>22.09.202589</t>
-  </si>
-  <si>
-    <t>22.09.202590</t>
-  </si>
-  <si>
-    <t>22.09.202591</t>
-  </si>
-  <si>
-    <t>22.09.202592</t>
-  </si>
-  <si>
-    <t>22.09.202593</t>
-  </si>
-  <si>
-    <t>22.09.202594</t>
-  </si>
-  <si>
-    <t>22.09.202595</t>
-  </si>
-  <si>
-    <t>22.09.202596</t>
-  </si>
-  <si>
-    <t>23.09.20251</t>
-  </si>
-  <si>
-    <t>23.09.20252</t>
-  </si>
-  <si>
-    <t>23.09.20253</t>
-  </si>
-  <si>
-    <t>23.09.20254</t>
-  </si>
-  <si>
-    <t>23.09.20255</t>
-  </si>
-  <si>
-    <t>23.09.20256</t>
-  </si>
-  <si>
-    <t>23.09.20257</t>
-  </si>
-  <si>
-    <t>23.09.20258</t>
-  </si>
-  <si>
-    <t>23.09.20259</t>
-  </si>
-  <si>
-    <t>23.09.202510</t>
-  </si>
-  <si>
-    <t>23.09.202511</t>
-  </si>
-  <si>
-    <t>23.09.202512</t>
-  </si>
-  <si>
-    <t>23.09.202513</t>
-  </si>
-  <si>
-    <t>23.09.202514</t>
-  </si>
-  <si>
-    <t>23.09.202515</t>
-  </si>
-  <si>
-    <t>23.09.202516</t>
-  </si>
-  <si>
-    <t>23.09.202517</t>
-  </si>
-  <si>
-    <t>23.09.202518</t>
-  </si>
-  <si>
-    <t>23.09.202519</t>
-  </si>
-  <si>
-    <t>23.09.202520</t>
-  </si>
-  <si>
-    <t>23.09.202521</t>
-  </si>
-  <si>
-    <t>23.09.202522</t>
-  </si>
-  <si>
-    <t>23.09.202523</t>
-  </si>
-  <si>
-    <t>23.09.202524</t>
-  </si>
-  <si>
-    <t>23.09.202525</t>
-  </si>
-  <si>
-    <t>23.09.202526</t>
-  </si>
-  <si>
-    <t>23.09.202527</t>
-  </si>
-  <si>
-    <t>23.09.202528</t>
+    <t>01.10.20251</t>
+  </si>
+  <si>
+    <t>01.10.20252</t>
+  </si>
+  <si>
+    <t>01.10.20253</t>
+  </si>
+  <si>
+    <t>01.10.20254</t>
+  </si>
+  <si>
+    <t>01.10.20255</t>
+  </si>
+  <si>
+    <t>01.10.20256</t>
+  </si>
+  <si>
+    <t>01.10.20257</t>
+  </si>
+  <si>
+    <t>01.10.20258</t>
+  </si>
+  <si>
+    <t>01.10.20259</t>
+  </si>
+  <si>
+    <t>01.10.202510</t>
+  </si>
+  <si>
+    <t>01.10.202511</t>
+  </si>
+  <si>
+    <t>01.10.202512</t>
+  </si>
+  <si>
+    <t>01.10.202513</t>
+  </si>
+  <si>
+    <t>01.10.202514</t>
+  </si>
+  <si>
+    <t>01.10.202515</t>
+  </si>
+  <si>
+    <t>01.10.202516</t>
+  </si>
+  <si>
+    <t>01.10.202517</t>
+  </si>
+  <si>
+    <t>01.10.202518</t>
+  </si>
+  <si>
+    <t>01.10.202519</t>
+  </si>
+  <si>
+    <t>01.10.202520</t>
+  </si>
+  <si>
+    <t>01.10.202521</t>
+  </si>
+  <si>
+    <t>01.10.202522</t>
+  </si>
+  <si>
+    <t>01.10.202523</t>
+  </si>
+  <si>
+    <t>01.10.202524</t>
+  </si>
+  <si>
+    <t>01.10.202525</t>
+  </si>
+  <si>
+    <t>01.10.202526</t>
+  </si>
+  <si>
+    <t>01.10.202527</t>
+  </si>
+  <si>
+    <t>01.10.202528</t>
+  </si>
+  <si>
+    <t>01.10.202529</t>
+  </si>
+  <si>
+    <t>01.10.202530</t>
+  </si>
+  <si>
+    <t>01.10.202531</t>
+  </si>
+  <si>
+    <t>01.10.202532</t>
+  </si>
+  <si>
+    <t>01.10.202533</t>
+  </si>
+  <si>
+    <t>01.10.202534</t>
+  </si>
+  <si>
+    <t>01.10.202535</t>
+  </si>
+  <si>
+    <t>01.10.202536</t>
+  </si>
+  <si>
+    <t>01.10.202537</t>
+  </si>
+  <si>
+    <t>01.10.202538</t>
+  </si>
+  <si>
+    <t>01.10.202539</t>
+  </si>
+  <si>
+    <t>01.10.202540</t>
+  </si>
+  <si>
+    <t>01.10.202541</t>
+  </si>
+  <si>
+    <t>01.10.202542</t>
+  </si>
+  <si>
+    <t>01.10.202543</t>
+  </si>
+  <si>
+    <t>01.10.202544</t>
+  </si>
+  <si>
+    <t>01.10.202545</t>
+  </si>
+  <si>
+    <t>01.10.202546</t>
+  </si>
+  <si>
+    <t>01.10.202547</t>
+  </si>
+  <si>
+    <t>01.10.202548</t>
+  </si>
+  <si>
+    <t>01.10.202549</t>
+  </si>
+  <si>
+    <t>01.10.202550</t>
+  </si>
+  <si>
+    <t>01.10.202551</t>
+  </si>
+  <si>
+    <t>01.10.202552</t>
+  </si>
+  <si>
+    <t>01.10.202553</t>
+  </si>
+  <si>
+    <t>01.10.202554</t>
+  </si>
+  <si>
+    <t>01.10.202555</t>
+  </si>
+  <si>
+    <t>01.10.202556</t>
+  </si>
+  <si>
+    <t>01.10.202557</t>
+  </si>
+  <si>
+    <t>01.10.202558</t>
+  </si>
+  <si>
+    <t>01.10.202559</t>
+  </si>
+  <si>
+    <t>01.10.202560</t>
+  </si>
+  <si>
+    <t>01.10.202561</t>
+  </si>
+  <si>
+    <t>01.10.202562</t>
+  </si>
+  <si>
+    <t>01.10.202563</t>
+  </si>
+  <si>
+    <t>01.10.202564</t>
+  </si>
+  <si>
+    <t>01.10.202565</t>
+  </si>
+  <si>
+    <t>01.10.202566</t>
+  </si>
+  <si>
+    <t>01.10.202567</t>
+  </si>
+  <si>
+    <t>01.10.202568</t>
+  </si>
+  <si>
+    <t>01.10.202569</t>
+  </si>
+  <si>
+    <t>01.10.202570</t>
+  </si>
+  <si>
+    <t>01.10.202571</t>
+  </si>
+  <si>
+    <t>01.10.202572</t>
+  </si>
+  <si>
+    <t>01.10.202573</t>
+  </si>
+  <si>
+    <t>01.10.202574</t>
+  </si>
+  <si>
+    <t>01.10.202575</t>
+  </si>
+  <si>
+    <t>01.10.202576</t>
+  </si>
+  <si>
+    <t>01.10.202577</t>
+  </si>
+  <si>
+    <t>01.10.202578</t>
+  </si>
+  <si>
+    <t>01.10.202579</t>
+  </si>
+  <si>
+    <t>01.10.202580</t>
+  </si>
+  <si>
+    <t>01.10.202581</t>
+  </si>
+  <si>
+    <t>01.10.202582</t>
+  </si>
+  <si>
+    <t>01.10.202583</t>
+  </si>
+  <si>
+    <t>01.10.202584</t>
+  </si>
+  <si>
+    <t>01.10.202585</t>
+  </si>
+  <si>
+    <t>01.10.202586</t>
+  </si>
+  <si>
+    <t>01.10.202587</t>
+  </si>
+  <si>
+    <t>01.10.202588</t>
+  </si>
+  <si>
+    <t>01.10.202589</t>
+  </si>
+  <si>
+    <t>01.10.202590</t>
+  </si>
+  <si>
+    <t>01.10.202591</t>
+  </si>
+  <si>
+    <t>01.10.202592</t>
+  </si>
+  <si>
+    <t>01.10.202593</t>
+  </si>
+  <si>
+    <t>01.10.202594</t>
+  </si>
+  <si>
+    <t>01.10.202595</t>
+  </si>
+  <si>
+    <t>01.10.202596</t>
+  </si>
+  <si>
+    <t>02.10.20251</t>
+  </si>
+  <si>
+    <t>02.10.20252</t>
+  </si>
+  <si>
+    <t>02.10.20253</t>
+  </si>
+  <si>
+    <t>02.10.20254</t>
+  </si>
+  <si>
+    <t>02.10.20255</t>
+  </si>
+  <si>
+    <t>02.10.20256</t>
+  </si>
+  <si>
+    <t>02.10.20257</t>
+  </si>
+  <si>
+    <t>02.10.20258</t>
+  </si>
+  <si>
+    <t>02.10.20259</t>
+  </si>
+  <si>
+    <t>02.10.202510</t>
+  </si>
+  <si>
+    <t>02.10.202511</t>
+  </si>
+  <si>
+    <t>02.10.202512</t>
+  </si>
+  <si>
+    <t>02.10.202513</t>
+  </si>
+  <si>
+    <t>02.10.202514</t>
+  </si>
+  <si>
+    <t>02.10.202515</t>
+  </si>
+  <si>
+    <t>02.10.202516</t>
+  </si>
+  <si>
+    <t>02.10.202517</t>
+  </si>
+  <si>
+    <t>02.10.202518</t>
+  </si>
+  <si>
+    <t>02.10.202519</t>
+  </si>
+  <si>
+    <t>02.10.202520</t>
+  </si>
+  <si>
+    <t>02.10.202521</t>
+  </si>
+  <si>
+    <t>02.10.202522</t>
+  </si>
+  <si>
+    <t>02.10.202523</t>
+  </si>
+  <si>
+    <t>02.10.202524</t>
+  </si>
+  <si>
+    <t>02.10.202525</t>
+  </si>
+  <si>
+    <t>02.10.202526</t>
+  </si>
+  <si>
+    <t>02.10.202527</t>
+  </si>
+  <si>
+    <t>02.10.202528</t>
+  </si>
+  <si>
+    <t>02.10.202529</t>
+  </si>
+  <si>
+    <t>02.10.202530</t>
+  </si>
+  <si>
+    <t>02.10.202531</t>
+  </si>
+  <si>
+    <t>02.10.202532</t>
+  </si>
+  <si>
+    <t>02.10.202533</t>
+  </si>
+  <si>
+    <t>02.10.202534</t>
+  </si>
+  <si>
+    <t>02.10.202535</t>
+  </si>
+  <si>
+    <t>02.10.202536</t>
+  </si>
+  <si>
+    <t>02.10.202537</t>
+  </si>
+  <si>
+    <t>02.10.202538</t>
+  </si>
+  <si>
+    <t>02.10.202539</t>
+  </si>
+  <si>
+    <t>02.10.202540</t>
   </si>
 </sst>
 </file>
@@ -762,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,13 +823,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45922</v>
+        <v>45931</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.245</v>
       </c>
       <c r="C2">
-        <v>35.502</v>
+        <v>0.699</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -804,13 +840,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45922.01041666666</v>
+        <v>45931.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8.002000000000001</v>
       </c>
       <c r="C3">
-        <v>17.497</v>
+        <v>0.124</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -821,13 +857,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45922.02083333334</v>
+        <v>45931.02083333334</v>
       </c>
       <c r="B4">
-        <v>0.002</v>
+        <v>1.875</v>
       </c>
       <c r="C4">
-        <v>9.648999999999999</v>
+        <v>10.041</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -838,13 +874,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45922.03125</v>
+        <v>45931.03125</v>
       </c>
       <c r="B5">
-        <v>0.493</v>
+        <v>5.481</v>
       </c>
       <c r="C5">
-        <v>0.76</v>
+        <v>1.593</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -855,13 +891,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45922.04166666666</v>
+        <v>45931.04166666666</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C6">
-        <v>18.818</v>
+        <v>13.576</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -872,13 +908,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45922.05208333334</v>
+        <v>45931.05208333334</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.261</v>
+        <v>17.309</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -889,13 +925,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45922.0625</v>
+        <v>45931.0625</v>
       </c>
       <c r="B8">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.743</v>
+        <v>14.541</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -906,13 +942,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45922.07291666666</v>
+        <v>45931.07291666666</v>
       </c>
       <c r="B9">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.692</v>
+        <v>21.32</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -923,13 +959,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45922.08333333334</v>
+        <v>45931.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.259</v>
+        <v>22.491</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -940,13 +976,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45922.09375</v>
+        <v>45931.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.504</v>
+        <v>11.023</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -957,13 +993,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45922.10416666666</v>
+        <v>45931.10416666666</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.225</v>
+        <v>15.427</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -974,13 +1010,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45922.11458333334</v>
+        <v>45931.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6.395</v>
+        <v>16.463</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -991,13 +1027,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45922.125</v>
+        <v>45931.125</v>
       </c>
       <c r="B14">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3.818</v>
+        <v>22.727</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1008,13 +1044,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45922.13541666666</v>
+        <v>45931.13541666666</v>
       </c>
       <c r="B15">
-        <v>0.203</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.988</v>
+        <v>13.189</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1025,13 +1061,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45922.14583333334</v>
+        <v>45931.14583333334</v>
       </c>
       <c r="B16">
-        <v>7.888</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.464</v>
+        <v>23.344</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1042,13 +1078,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45922.15625</v>
+        <v>45931.15625</v>
       </c>
       <c r="B17">
-        <v>3.706</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.451</v>
+        <v>19.185</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1059,13 +1095,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45922.16666666666</v>
+        <v>45931.16666666666</v>
       </c>
       <c r="B18">
-        <v>1.269</v>
+        <v>2.584</v>
       </c>
       <c r="C18">
-        <v>1.782</v>
+        <v>0.458</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1076,13 +1112,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45922.17708333334</v>
+        <v>45931.17708333334</v>
       </c>
       <c r="B19">
-        <v>0.238</v>
+        <v>3.65</v>
       </c>
       <c r="C19">
-        <v>5.426</v>
+        <v>0.26</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1093,13 +1129,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45922.1875</v>
+        <v>45931.1875</v>
       </c>
       <c r="B20">
-        <v>7.852</v>
+        <v>0.297</v>
       </c>
       <c r="C20">
-        <v>0.252</v>
+        <v>0.604</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1110,13 +1146,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45922.19791666666</v>
+        <v>45931.19791666666</v>
       </c>
       <c r="B21">
-        <v>6.64</v>
+        <v>1.437</v>
       </c>
       <c r="C21">
-        <v>0.236</v>
+        <v>2.276</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1127,13 +1163,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45922.20833333334</v>
+        <v>45931.20833333334</v>
       </c>
       <c r="B22">
-        <v>6.369</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.393</v>
+        <v>26.605</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1144,13 +1180,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45922.21875</v>
+        <v>45931.21875</v>
       </c>
       <c r="B23">
-        <v>8.225</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.794</v>
+        <v>30.381</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1161,13 +1197,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45922.22916666666</v>
+        <v>45931.22916666666</v>
       </c>
       <c r="B24">
-        <v>21.008</v>
+        <v>0.028</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>17.784</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1178,13 +1214,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45922.23958333334</v>
+        <v>45931.23958333334</v>
       </c>
       <c r="B25">
-        <v>59.905</v>
+        <v>0.211</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5.765</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1195,13 +1231,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45922.25</v>
+        <v>45931.25</v>
       </c>
       <c r="B26">
-        <v>32.53</v>
+        <v>0.042</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>17.331</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1212,13 +1248,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45922.26041666666</v>
+        <v>45931.26041666666</v>
       </c>
       <c r="B27">
-        <v>3.404</v>
+        <v>0.06</v>
       </c>
       <c r="C27">
-        <v>0.068</v>
+        <v>9.65</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1229,13 +1265,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45922.27083333334</v>
+        <v>45931.27083333334</v>
       </c>
       <c r="B28">
-        <v>5.319</v>
+        <v>0.149</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5.902</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1246,13 +1282,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45922.28125</v>
+        <v>45931.28125</v>
       </c>
       <c r="B29">
-        <v>13.182</v>
+        <v>0.18</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>5.68</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1263,13 +1299,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45922.29166666666</v>
+        <v>45931.29166666666</v>
       </c>
       <c r="B30">
-        <v>9.686999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="C30">
-        <v>2.247</v>
+        <v>2.188</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1280,13 +1316,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45922.30208333334</v>
+        <v>45931.30208333334</v>
       </c>
       <c r="B31">
-        <v>1.341</v>
+        <v>0.255</v>
       </c>
       <c r="C31">
-        <v>3.158</v>
+        <v>5.102</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1297,13 +1333,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45922.3125</v>
+        <v>45931.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.489</v>
       </c>
       <c r="C32">
-        <v>12.474</v>
+        <v>7.201</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1314,13 +1350,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45922.32291666666</v>
+        <v>45931.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C33">
-        <v>7.56</v>
+        <v>16.089</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1331,13 +1367,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45922.33333333334</v>
+        <v>45931.33333333334</v>
       </c>
       <c r="B34">
-        <v>28.003</v>
+        <v>6.073</v>
       </c>
       <c r="C34">
-        <v>0.531</v>
+        <v>8.074</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1348,13 +1384,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45922.34375</v>
+        <v>45931.34375</v>
       </c>
       <c r="B35">
-        <v>11.89</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>5.715</v>
+        <v>18.616</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1365,13 +1401,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45922.35416666666</v>
+        <v>45931.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.011</v>
+        <v>0.13</v>
       </c>
       <c r="C36">
-        <v>0.324</v>
+        <v>2.751</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1382,13 +1418,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45922.36458333334</v>
+        <v>45931.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.681</v>
+        <v>1.504</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1399,13 +1435,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45922.375</v>
+        <v>45931.375</v>
       </c>
       <c r="B38">
-        <v>0.42</v>
+        <v>2.861</v>
       </c>
       <c r="C38">
-        <v>5.431</v>
+        <v>1.626</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1416,13 +1452,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45922.38541666666</v>
+        <v>45931.38541666666</v>
       </c>
       <c r="B39">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>13.899</v>
+        <v>6.351</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1433,13 +1469,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45922.39583333334</v>
+        <v>45931.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.417</v>
+        <v>0.076</v>
       </c>
       <c r="C40">
-        <v>4.601</v>
+        <v>2.401</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1450,13 +1486,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45922.40625</v>
+        <v>45931.40625</v>
       </c>
       <c r="B41">
-        <v>3.093</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.945</v>
+        <v>14.783</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1467,13 +1503,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45922.41666666666</v>
+        <v>45931.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.701</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1.723</v>
+        <v>17.8</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1484,13 +1520,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45922.42708333334</v>
+        <v>45931.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>2.054</v>
+        <v>17.146</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1501,13 +1537,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45922.4375</v>
+        <v>45931.4375</v>
       </c>
       <c r="B44">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>4.362</v>
+        <v>2.995</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1518,13 +1554,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45922.44791666666</v>
+        <v>45931.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>8.208</v>
+        <v>8.077999999999999</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1535,13 +1571,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45922.45833333334</v>
+        <v>45931.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>4.761</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1552,13 +1588,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45922.46875</v>
+        <v>45931.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2.346</v>
+        <v>26.536</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1569,13 +1605,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45922.47916666666</v>
+        <v>45931.47916666666</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.351</v>
       </c>
       <c r="C48">
-        <v>9.071999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1586,13 +1622,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45922.48958333334</v>
+        <v>45931.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.006</v>
+        <v>0.307</v>
       </c>
       <c r="C49">
-        <v>5.392</v>
+        <v>7.506</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1603,13 +1639,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45922.5</v>
+        <v>45931.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>15.635</v>
+        <v>21.1</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1620,13 +1656,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45922.51041666666</v>
+        <v>45931.51041666666</v>
       </c>
       <c r="B51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>2.184</v>
+        <v>42.629</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1637,13 +1673,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45922.52083333334</v>
+        <v>45931.52083333334</v>
       </c>
       <c r="B52">
-        <v>1.331</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>4.299</v>
+        <v>35.106</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1654,13 +1690,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45922.53125</v>
+        <v>45931.53125</v>
       </c>
       <c r="B53">
-        <v>0.055</v>
+        <v>6.871</v>
       </c>
       <c r="C53">
-        <v>12.845</v>
+        <v>1.358</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1671,13 +1707,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45922.54166666666</v>
+        <v>45931.54166666666</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2.874</v>
       </c>
       <c r="C54">
-        <v>6.613</v>
+        <v>1.481</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1688,13 +1724,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45922.55208333334</v>
+        <v>45931.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>41.252</v>
       </c>
       <c r="C55">
-        <v>8.630000000000001</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1705,13 +1741,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45922.5625</v>
+        <v>45931.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>7.953</v>
       </c>
       <c r="C56">
-        <v>17.273</v>
+        <v>0.218</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1722,13 +1758,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45922.57291666666</v>
+        <v>45931.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>3.291</v>
       </c>
       <c r="C57">
-        <v>7.244</v>
+        <v>2.722</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1739,13 +1775,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45922.58333333334</v>
+        <v>45931.58333333334</v>
       </c>
       <c r="B58">
-        <v>9.412000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="C58">
-        <v>1.408</v>
+        <v>8.869</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1756,13 +1792,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45922.59375</v>
+        <v>45931.59375</v>
       </c>
       <c r="B59">
-        <v>0.706</v>
+        <v>3.637</v>
       </c>
       <c r="C59">
-        <v>4.2</v>
+        <v>1.967</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1773,13 +1809,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45922.60416666666</v>
+        <v>45931.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.285</v>
+        <v>2.33</v>
       </c>
       <c r="C60">
-        <v>9.973000000000001</v>
+        <v>3.471</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1790,13 +1826,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45922.61458333334</v>
+        <v>45931.61458333334</v>
       </c>
       <c r="B61">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1.393</v>
+        <v>21.675</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1807,13 +1843,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45922.625</v>
+        <v>45931.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>3.637</v>
       </c>
       <c r="C62">
-        <v>13.265</v>
+        <v>5.897</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1824,13 +1860,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45922.63541666666</v>
+        <v>45931.63541666666</v>
       </c>
       <c r="B63">
-        <v>2.197</v>
+        <v>17.184</v>
       </c>
       <c r="C63">
-        <v>7.631</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1841,13 +1877,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45922.64583333334</v>
+        <v>45931.64583333334</v>
       </c>
       <c r="B64">
-        <v>6.224</v>
+        <v>3.641</v>
       </c>
       <c r="C64">
-        <v>1.156</v>
+        <v>0.504</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1858,13 +1894,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45922.65625</v>
+        <v>45931.65625</v>
       </c>
       <c r="B65">
-        <v>12.144</v>
+        <v>0.53</v>
       </c>
       <c r="C65">
-        <v>3.408</v>
+        <v>3.204</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1875,13 +1911,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45922.66666666666</v>
+        <v>45931.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>8.249000000000001</v>
+        <v>28.11</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1892,13 +1928,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45922.67708333334</v>
+        <v>45931.67708333334</v>
       </c>
       <c r="B67">
-        <v>7.187</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>4.238</v>
+        <v>39.937</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1909,13 +1945,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45922.6875</v>
+        <v>45931.6875</v>
       </c>
       <c r="B68">
-        <v>9.412000000000001</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.031</v>
+        <v>74.432</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1926,13 +1962,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45922.69791666666</v>
+        <v>45931.69791666666</v>
       </c>
       <c r="B69">
-        <v>2.164</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>93.92100000000001</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1943,13 +1979,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45922.70833333334</v>
+        <v>45931.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>7.048</v>
+        <v>93.343</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1960,13 +1996,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45922.71875</v>
+        <v>45931.71875</v>
       </c>
       <c r="B71">
-        <v>2.092</v>
+        <v>0.02</v>
       </c>
       <c r="C71">
-        <v>1.127</v>
+        <v>8.286</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1977,13 +2013,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45922.72916666666</v>
+        <v>45931.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.533</v>
+        <v>0.115</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>13.312</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1994,13 +2030,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45922.73958333334</v>
+        <v>45931.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.581</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>27.678</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2011,13 +2047,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45922.75</v>
+        <v>45931.75</v>
       </c>
       <c r="B74">
-        <v>7.053</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.36</v>
+        <v>26.632</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2028,13 +2064,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45922.76041666666</v>
+        <v>45931.76041666666</v>
       </c>
       <c r="B75">
-        <v>11.171</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>29.17</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2045,13 +2081,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45922.77083333334</v>
+        <v>45931.77083333334</v>
       </c>
       <c r="B76">
-        <v>13.574</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>15.988</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2062,13 +2098,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45922.78125</v>
+        <v>45931.78125</v>
       </c>
       <c r="B77">
-        <v>9.531000000000001</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>18.409</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2079,13 +2115,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45922.79166666666</v>
+        <v>45931.79166666666</v>
       </c>
       <c r="B78">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>8.930999999999999</v>
+        <v>16.708</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2096,13 +2132,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45922.80208333334</v>
+        <v>45931.80208333334</v>
       </c>
       <c r="B79">
-        <v>0.8149999999999999</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>1.562</v>
+        <v>15.139</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2113,13 +2149,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45922.8125</v>
+        <v>45931.8125</v>
       </c>
       <c r="B80">
-        <v>0.656</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>2.955</v>
+        <v>13.789</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2130,13 +2166,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45922.82291666666</v>
+        <v>45931.82291666666</v>
       </c>
       <c r="B81">
-        <v>1.124</v>
+        <v>0.014</v>
       </c>
       <c r="C81">
-        <v>1.098</v>
+        <v>9.004</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2147,13 +2183,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45922.83333333334</v>
+        <v>45931.83333333334</v>
       </c>
       <c r="B82">
-        <v>3.686</v>
+        <v>0.723</v>
       </c>
       <c r="C82">
-        <v>1.251</v>
+        <v>3.349</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2164,13 +2200,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45922.84375</v>
+        <v>45931.84375</v>
       </c>
       <c r="B83">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>1.63</v>
+        <v>5.55</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2181,13 +2217,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45922.85416666666</v>
+        <v>45931.85416666666</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.112</v>
       </c>
       <c r="C84">
-        <v>4.849</v>
+        <v>3.886</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2198,13 +2234,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45922.86458333334</v>
+        <v>45931.86458333334</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>17.104</v>
       </c>
       <c r="C85">
-        <v>8.468999999999999</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2215,13 +2251,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45922.875</v>
+        <v>45931.875</v>
       </c>
       <c r="B86">
-        <v>0.533</v>
+        <v>20.888</v>
       </c>
       <c r="C86">
-        <v>1.692</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2232,13 +2268,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45922.88541666666</v>
+        <v>45931.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.165</v>
+        <v>3.383</v>
       </c>
       <c r="C87">
-        <v>4.656</v>
+        <v>0.334</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2249,13 +2285,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45922.89583333334</v>
+        <v>45931.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="C88">
-        <v>23.226</v>
+        <v>0.536</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2266,13 +2302,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45922.90625</v>
+        <v>45931.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>7.295</v>
       </c>
       <c r="C89">
-        <v>9.268000000000001</v>
+        <v>0.974</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2283,13 +2319,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45922.91666666666</v>
+        <v>45931.91666666666</v>
       </c>
       <c r="B90">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>8.782</v>
+        <v>6.391</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2300,13 +2336,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45922.92708333334</v>
+        <v>45931.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>27.475</v>
+        <v>0.924</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2317,13 +2353,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45922.9375</v>
+        <v>45931.9375</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.536</v>
       </c>
       <c r="C92">
-        <v>32.609</v>
+        <v>4.658</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2334,13 +2370,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45922.94791666666</v>
+        <v>45931.94791666666</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>2.285</v>
       </c>
       <c r="C93">
-        <v>5.136</v>
+        <v>4.049</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2351,13 +2387,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45922.95833333334</v>
+        <v>45931.95833333334</v>
       </c>
       <c r="B94">
-        <v>0.409</v>
+        <v>7.4</v>
       </c>
       <c r="C94">
-        <v>2.65</v>
+        <v>0.235</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2368,13 +2404,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B95">
-        <v>0.542</v>
+        <v>0.015</v>
       </c>
       <c r="C95">
-        <v>1.395</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2385,13 +2421,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45922.96875</v>
+        <v>45931.96875</v>
       </c>
       <c r="B96">
-        <v>0.542</v>
+        <v>0.015</v>
       </c>
       <c r="C96">
-        <v>1.395</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2402,13 +2438,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C97">
-        <v>13.511</v>
+        <v>5.376</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2419,13 +2455,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45922.97916666666</v>
+        <v>45931.97916666666</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C98">
-        <v>13.511</v>
+        <v>5.376</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2436,13 +2472,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B99">
-        <v>1.109</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>3.497</v>
+        <v>7.944</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2453,13 +2489,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45922.98958333334</v>
+        <v>45931.98958333334</v>
       </c>
       <c r="B100">
-        <v>1.109</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>3.497</v>
+        <v>7.944</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2470,13 +2506,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B101">
-        <v>10.365</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.051</v>
+        <v>1.762</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2487,13 +2523,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45923</v>
+        <v>45932</v>
       </c>
       <c r="B102">
-        <v>10.365</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0.051</v>
+        <v>1.762</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2504,13 +2540,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B103">
-        <v>27.322</v>
+        <v>4.361</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2521,13 +2557,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45923.01041666666</v>
+        <v>45932.01041666666</v>
       </c>
       <c r="B104">
-        <v>27.322</v>
+        <v>4.361</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.661</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2538,13 +2574,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B105">
-        <v>29.356</v>
+        <v>3.014</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.569</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2555,13 +2591,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45923.02083333334</v>
+        <v>45932.02083333334</v>
       </c>
       <c r="B106">
-        <v>29.356</v>
+        <v>3.014</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.569</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2572,13 +2608,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B107">
-        <v>22.337</v>
+        <v>5.926</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2589,13 +2625,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45923.03125</v>
+        <v>45932.03125</v>
       </c>
       <c r="B108">
-        <v>22.337</v>
+        <v>5.926</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.573</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2606,13 +2642,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45923.04166666666</v>
+        <v>45932.04166666666</v>
       </c>
       <c r="B109">
-        <v>6.487</v>
+        <v>15.978</v>
       </c>
       <c r="C109">
-        <v>0.144</v>
+        <v>0.007</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2623,13 +2659,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45923.05208333334</v>
+        <v>45932.05208333334</v>
       </c>
       <c r="B110">
-        <v>15.016</v>
+        <v>12.898</v>
       </c>
       <c r="C110">
-        <v>0.438</v>
+        <v>0</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2640,13 +2676,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45923.0625</v>
+        <v>45932.0625</v>
       </c>
       <c r="B111">
-        <v>15.059</v>
+        <v>0.705</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.888</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2657,13 +2693,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45923.07291666666</v>
+        <v>45932.07291666666</v>
       </c>
       <c r="B112">
-        <v>7.71</v>
+        <v>1.072</v>
       </c>
       <c r="C112">
-        <v>0.045</v>
+        <v>0.322</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2674,13 +2710,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45923.08333333334</v>
+        <v>45932.08333333334</v>
       </c>
       <c r="B113">
-        <v>2.738</v>
+        <v>4.799</v>
       </c>
       <c r="C113">
-        <v>0.635</v>
+        <v>0.248</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2691,13 +2727,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45923.09375</v>
+        <v>45932.09375</v>
       </c>
       <c r="B114">
-        <v>0.464</v>
+        <v>4.531</v>
       </c>
       <c r="C114">
-        <v>4.228</v>
+        <v>0.067</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2708,13 +2744,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45923.10416666666</v>
+        <v>45932.10416666666</v>
       </c>
       <c r="B115">
-        <v>1.03</v>
+        <v>0.66</v>
       </c>
       <c r="C115">
-        <v>1.049</v>
+        <v>1.764</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2725,13 +2761,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45923.11458333334</v>
+        <v>45932.11458333334</v>
       </c>
       <c r="B116">
-        <v>3.885</v>
+        <v>6.036</v>
       </c>
       <c r="C116">
-        <v>0.288</v>
+        <v>0.699</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2742,13 +2778,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45923.125</v>
+        <v>45932.125</v>
       </c>
       <c r="B117">
-        <v>4.566</v>
+        <v>6.054</v>
       </c>
       <c r="C117">
-        <v>0.649</v>
+        <v>0.306</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2759,13 +2795,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45923.13541666666</v>
+        <v>45932.13541666666</v>
       </c>
       <c r="B118">
-        <v>13.783</v>
+        <v>2.5</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>3.468</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2776,13 +2812,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45923.14583333334</v>
+        <v>45932.14583333334</v>
       </c>
       <c r="B119">
-        <v>36.378</v>
+        <v>1.813</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2793,13 +2829,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45923.15625</v>
+        <v>45932.15625</v>
       </c>
       <c r="B120">
-        <v>12.307</v>
+        <v>3.685</v>
       </c>
       <c r="C120">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2810,13 +2846,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45923.16666666666</v>
+        <v>45932.16666666666</v>
       </c>
       <c r="B121">
-        <v>5.717</v>
+        <v>22.477</v>
       </c>
       <c r="C121">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2827,13 +2863,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45923.17708333334</v>
+        <v>45932.17708333334</v>
       </c>
       <c r="B122">
-        <v>5.318</v>
+        <v>33.01</v>
       </c>
       <c r="C122">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2844,10 +2880,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45923.1875</v>
+        <v>45932.1875</v>
       </c>
       <c r="B123">
-        <v>20.199</v>
+        <v>11.529</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2861,13 +2897,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45923.19791666666</v>
+        <v>45932.19791666666</v>
       </c>
       <c r="B124">
-        <v>11.381</v>
+        <v>7.453</v>
       </c>
       <c r="C124">
-        <v>0.002</v>
+        <v>0.274</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2878,13 +2914,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45923.20833333334</v>
+        <v>45932.20833333334</v>
       </c>
       <c r="B125">
-        <v>2.359</v>
+        <v>4.029</v>
       </c>
       <c r="C125">
-        <v>0.113</v>
+        <v>0.044</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2895,13 +2931,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45923.21875</v>
+        <v>45932.21875</v>
       </c>
       <c r="B126">
-        <v>4.97</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C126">
-        <v>0.037</v>
+        <v>19.635</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2912,13 +2948,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45923.22916666666</v>
+        <v>45932.22916666666</v>
       </c>
       <c r="B127">
-        <v>5.917</v>
+        <v>0.206</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>7.348</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2929,13 +2965,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45923.23958333334</v>
+        <v>45932.23958333334</v>
       </c>
       <c r="B128">
-        <v>7.482</v>
+        <v>9.138999999999999</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.819</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2946,13 +2982,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45923.25</v>
+        <v>45932.25</v>
       </c>
       <c r="B129">
-        <v>0.738</v>
+        <v>6.911</v>
       </c>
       <c r="C129">
-        <v>2.567</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2963,10 +2999,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45923.26041666666</v>
+        <v>45932.26041666666</v>
       </c>
       <c r="B130">
-        <v>1.362</v>
+        <v>5.316</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2980,10 +3016,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45923.27083333334</v>
+        <v>45932.27083333334</v>
       </c>
       <c r="B131">
-        <v>2.887</v>
+        <v>14.153</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2997,19 +3033,223 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45923.28125</v>
+        <v>45932.28125</v>
       </c>
       <c r="B132">
-        <v>0.5659999999999999</v>
+        <v>13.879</v>
       </c>
       <c r="C132">
-        <v>4.542</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>28</v>
       </c>
       <c r="E132" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45932.29166666666</v>
+      </c>
+      <c r="B133">
+        <v>5.852</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45932.30208333334</v>
+      </c>
+      <c r="B134">
+        <v>2.184</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45932.3125</v>
+      </c>
+      <c r="B135">
+        <v>2.026</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45932.32291666666</v>
+      </c>
+      <c r="B136">
+        <v>4.929</v>
+      </c>
+      <c r="C136">
+        <v>1.418</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45932.33333333334</v>
+      </c>
+      <c r="B137">
+        <v>3.245</v>
+      </c>
+      <c r="C137">
+        <v>0.52</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45932.34375</v>
+      </c>
+      <c r="B138">
+        <v>6.715</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45932.35416666666</v>
+      </c>
+      <c r="B139">
+        <v>14.267</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45932.36458333334</v>
+      </c>
+      <c r="B140">
+        <v>29.116</v>
+      </c>
+      <c r="C140">
+        <v>0.006</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45932.375</v>
+      </c>
+      <c r="B141">
+        <v>0.171</v>
+      </c>
+      <c r="C141">
+        <v>7.081</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45932.38541666666</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>44.962</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45932.39583333334</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>18.177</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45932.40625</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>43.263</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="239">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,412 +31,706 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>01.10.20251</t>
-  </si>
-  <si>
-    <t>01.10.20252</t>
-  </si>
-  <si>
-    <t>01.10.20253</t>
-  </si>
-  <si>
-    <t>01.10.20254</t>
-  </si>
-  <si>
-    <t>01.10.20255</t>
-  </si>
-  <si>
-    <t>01.10.20256</t>
-  </si>
-  <si>
-    <t>01.10.20257</t>
-  </si>
-  <si>
-    <t>01.10.20258</t>
-  </si>
-  <si>
-    <t>01.10.20259</t>
-  </si>
-  <si>
-    <t>01.10.202510</t>
-  </si>
-  <si>
-    <t>01.10.202511</t>
-  </si>
-  <si>
-    <t>01.10.202512</t>
-  </si>
-  <si>
-    <t>01.10.202513</t>
-  </si>
-  <si>
-    <t>01.10.202514</t>
-  </si>
-  <si>
-    <t>01.10.202515</t>
-  </si>
-  <si>
-    <t>01.10.202516</t>
-  </si>
-  <si>
-    <t>01.10.202517</t>
-  </si>
-  <si>
-    <t>01.10.202518</t>
-  </si>
-  <si>
-    <t>01.10.202519</t>
-  </si>
-  <si>
-    <t>01.10.202520</t>
-  </si>
-  <si>
-    <t>01.10.202521</t>
-  </si>
-  <si>
-    <t>01.10.202522</t>
-  </si>
-  <si>
-    <t>01.10.202523</t>
-  </si>
-  <si>
-    <t>01.10.202524</t>
-  </si>
-  <si>
-    <t>01.10.202525</t>
-  </si>
-  <si>
-    <t>01.10.202526</t>
-  </si>
-  <si>
-    <t>01.10.202527</t>
-  </si>
-  <si>
-    <t>01.10.202528</t>
-  </si>
-  <si>
-    <t>01.10.202529</t>
-  </si>
-  <si>
-    <t>01.10.202530</t>
-  </si>
-  <si>
-    <t>01.10.202531</t>
-  </si>
-  <si>
-    <t>01.10.202532</t>
-  </si>
-  <si>
-    <t>01.10.202533</t>
-  </si>
-  <si>
-    <t>01.10.202534</t>
-  </si>
-  <si>
-    <t>01.10.202535</t>
-  </si>
-  <si>
-    <t>01.10.202536</t>
-  </si>
-  <si>
-    <t>01.10.202537</t>
-  </si>
-  <si>
-    <t>01.10.202538</t>
-  </si>
-  <si>
-    <t>01.10.202539</t>
-  </si>
-  <si>
-    <t>01.10.202540</t>
-  </si>
-  <si>
-    <t>01.10.202541</t>
-  </si>
-  <si>
-    <t>01.10.202542</t>
-  </si>
-  <si>
-    <t>01.10.202543</t>
-  </si>
-  <si>
-    <t>01.10.202544</t>
-  </si>
-  <si>
-    <t>01.10.202545</t>
-  </si>
-  <si>
-    <t>01.10.202546</t>
-  </si>
-  <si>
-    <t>01.10.202547</t>
-  </si>
-  <si>
-    <t>01.10.202548</t>
-  </si>
-  <si>
-    <t>01.10.202549</t>
-  </si>
-  <si>
-    <t>01.10.202550</t>
-  </si>
-  <si>
-    <t>01.10.202551</t>
-  </si>
-  <si>
-    <t>01.10.202552</t>
-  </si>
-  <si>
-    <t>01.10.202553</t>
-  </si>
-  <si>
-    <t>01.10.202554</t>
-  </si>
-  <si>
-    <t>01.10.202555</t>
-  </si>
-  <si>
-    <t>01.10.202556</t>
-  </si>
-  <si>
-    <t>01.10.202557</t>
-  </si>
-  <si>
-    <t>01.10.202558</t>
-  </si>
-  <si>
-    <t>01.10.202559</t>
-  </si>
-  <si>
-    <t>01.10.202560</t>
-  </si>
-  <si>
-    <t>01.10.202561</t>
-  </si>
-  <si>
-    <t>01.10.202562</t>
-  </si>
-  <si>
-    <t>01.10.202563</t>
-  </si>
-  <si>
-    <t>01.10.202564</t>
-  </si>
-  <si>
-    <t>01.10.202565</t>
-  </si>
-  <si>
-    <t>01.10.202566</t>
-  </si>
-  <si>
-    <t>01.10.202567</t>
-  </si>
-  <si>
-    <t>01.10.202568</t>
-  </si>
-  <si>
-    <t>01.10.202569</t>
-  </si>
-  <si>
-    <t>01.10.202570</t>
-  </si>
-  <si>
-    <t>01.10.202571</t>
-  </si>
-  <si>
-    <t>01.10.202572</t>
-  </si>
-  <si>
-    <t>01.10.202573</t>
-  </si>
-  <si>
-    <t>01.10.202574</t>
-  </si>
-  <si>
-    <t>01.10.202575</t>
-  </si>
-  <si>
-    <t>01.10.202576</t>
-  </si>
-  <si>
-    <t>01.10.202577</t>
-  </si>
-  <si>
-    <t>01.10.202578</t>
-  </si>
-  <si>
-    <t>01.10.202579</t>
-  </si>
-  <si>
-    <t>01.10.202580</t>
-  </si>
-  <si>
-    <t>01.10.202581</t>
-  </si>
-  <si>
-    <t>01.10.202582</t>
-  </si>
-  <si>
-    <t>01.10.202583</t>
-  </si>
-  <si>
-    <t>01.10.202584</t>
-  </si>
-  <si>
-    <t>01.10.202585</t>
-  </si>
-  <si>
-    <t>01.10.202586</t>
-  </si>
-  <si>
-    <t>01.10.202587</t>
-  </si>
-  <si>
-    <t>01.10.202588</t>
-  </si>
-  <si>
-    <t>01.10.202589</t>
-  </si>
-  <si>
-    <t>01.10.202590</t>
-  </si>
-  <si>
-    <t>01.10.202591</t>
-  </si>
-  <si>
-    <t>01.10.202592</t>
-  </si>
-  <si>
-    <t>01.10.202593</t>
-  </si>
-  <si>
-    <t>01.10.202594</t>
-  </si>
-  <si>
-    <t>01.10.202595</t>
-  </si>
-  <si>
-    <t>01.10.202596</t>
-  </si>
-  <si>
-    <t>02.10.20251</t>
-  </si>
-  <si>
-    <t>02.10.20252</t>
-  </si>
-  <si>
-    <t>02.10.20253</t>
-  </si>
-  <si>
-    <t>02.10.20254</t>
-  </si>
-  <si>
-    <t>02.10.20255</t>
-  </si>
-  <si>
-    <t>02.10.20256</t>
-  </si>
-  <si>
-    <t>02.10.20257</t>
-  </si>
-  <si>
-    <t>02.10.20258</t>
-  </si>
-  <si>
-    <t>02.10.20259</t>
-  </si>
-  <si>
-    <t>02.10.202510</t>
-  </si>
-  <si>
-    <t>02.10.202511</t>
-  </si>
-  <si>
-    <t>02.10.202512</t>
-  </si>
-  <si>
-    <t>02.10.202513</t>
-  </si>
-  <si>
-    <t>02.10.202514</t>
-  </si>
-  <si>
-    <t>02.10.202515</t>
-  </si>
-  <si>
-    <t>02.10.202516</t>
-  </si>
-  <si>
-    <t>02.10.202517</t>
-  </si>
-  <si>
-    <t>02.10.202518</t>
-  </si>
-  <si>
-    <t>02.10.202519</t>
-  </si>
-  <si>
-    <t>02.10.202520</t>
-  </si>
-  <si>
-    <t>02.10.202521</t>
-  </si>
-  <si>
-    <t>02.10.202522</t>
-  </si>
-  <si>
-    <t>02.10.202523</t>
-  </si>
-  <si>
-    <t>02.10.202524</t>
-  </si>
-  <si>
-    <t>02.10.202525</t>
-  </si>
-  <si>
-    <t>02.10.202526</t>
-  </si>
-  <si>
-    <t>02.10.202527</t>
-  </si>
-  <si>
-    <t>02.10.202528</t>
-  </si>
-  <si>
-    <t>02.10.202529</t>
-  </si>
-  <si>
-    <t>02.10.202530</t>
-  </si>
-  <si>
-    <t>02.10.202531</t>
-  </si>
-  <si>
-    <t>02.10.202532</t>
-  </si>
-  <si>
-    <t>02.10.202533</t>
-  </si>
-  <si>
-    <t>02.10.202534</t>
-  </si>
-  <si>
-    <t>02.10.202535</t>
-  </si>
-  <si>
-    <t>02.10.202536</t>
-  </si>
-  <si>
-    <t>02.10.202537</t>
-  </si>
-  <si>
-    <t>02.10.202538</t>
-  </si>
-  <si>
-    <t>02.10.202539</t>
-  </si>
-  <si>
-    <t>02.10.202540</t>
+    <t>14.10.20251</t>
+  </si>
+  <si>
+    <t>14.10.20252</t>
+  </si>
+  <si>
+    <t>14.10.20253</t>
+  </si>
+  <si>
+    <t>14.10.20254</t>
+  </si>
+  <si>
+    <t>14.10.20255</t>
+  </si>
+  <si>
+    <t>14.10.20256</t>
+  </si>
+  <si>
+    <t>14.10.20257</t>
+  </si>
+  <si>
+    <t>14.10.20258</t>
+  </si>
+  <si>
+    <t>14.10.20259</t>
+  </si>
+  <si>
+    <t>14.10.202510</t>
+  </si>
+  <si>
+    <t>14.10.202511</t>
+  </si>
+  <si>
+    <t>14.10.202512</t>
+  </si>
+  <si>
+    <t>14.10.202513</t>
+  </si>
+  <si>
+    <t>14.10.202514</t>
+  </si>
+  <si>
+    <t>14.10.202515</t>
+  </si>
+  <si>
+    <t>14.10.202516</t>
+  </si>
+  <si>
+    <t>14.10.202517</t>
+  </si>
+  <si>
+    <t>14.10.202518</t>
+  </si>
+  <si>
+    <t>14.10.202519</t>
+  </si>
+  <si>
+    <t>14.10.202520</t>
+  </si>
+  <si>
+    <t>14.10.202521</t>
+  </si>
+  <si>
+    <t>14.10.202522</t>
+  </si>
+  <si>
+    <t>14.10.202523</t>
+  </si>
+  <si>
+    <t>14.10.202524</t>
+  </si>
+  <si>
+    <t>14.10.202525</t>
+  </si>
+  <si>
+    <t>14.10.202526</t>
+  </si>
+  <si>
+    <t>14.10.202527</t>
+  </si>
+  <si>
+    <t>14.10.202528</t>
+  </si>
+  <si>
+    <t>14.10.202529</t>
+  </si>
+  <si>
+    <t>14.10.202530</t>
+  </si>
+  <si>
+    <t>14.10.202531</t>
+  </si>
+  <si>
+    <t>14.10.202532</t>
+  </si>
+  <si>
+    <t>14.10.202533</t>
+  </si>
+  <si>
+    <t>14.10.202534</t>
+  </si>
+  <si>
+    <t>14.10.202535</t>
+  </si>
+  <si>
+    <t>14.10.202536</t>
+  </si>
+  <si>
+    <t>14.10.202537</t>
+  </si>
+  <si>
+    <t>14.10.202538</t>
+  </si>
+  <si>
+    <t>14.10.202539</t>
+  </si>
+  <si>
+    <t>14.10.202540</t>
+  </si>
+  <si>
+    <t>14.10.202541</t>
+  </si>
+  <si>
+    <t>14.10.202542</t>
+  </si>
+  <si>
+    <t>14.10.202543</t>
+  </si>
+  <si>
+    <t>14.10.202544</t>
+  </si>
+  <si>
+    <t>14.10.202545</t>
+  </si>
+  <si>
+    <t>14.10.202546</t>
+  </si>
+  <si>
+    <t>14.10.202547</t>
+  </si>
+  <si>
+    <t>14.10.202548</t>
+  </si>
+  <si>
+    <t>14.10.202549</t>
+  </si>
+  <si>
+    <t>14.10.202550</t>
+  </si>
+  <si>
+    <t>14.10.202551</t>
+  </si>
+  <si>
+    <t>14.10.202552</t>
+  </si>
+  <si>
+    <t>14.10.202553</t>
+  </si>
+  <si>
+    <t>14.10.202554</t>
+  </si>
+  <si>
+    <t>14.10.202555</t>
+  </si>
+  <si>
+    <t>14.10.202556</t>
+  </si>
+  <si>
+    <t>14.10.202557</t>
+  </si>
+  <si>
+    <t>14.10.202558</t>
+  </si>
+  <si>
+    <t>14.10.202559</t>
+  </si>
+  <si>
+    <t>14.10.202560</t>
+  </si>
+  <si>
+    <t>14.10.202561</t>
+  </si>
+  <si>
+    <t>14.10.202562</t>
+  </si>
+  <si>
+    <t>14.10.202563</t>
+  </si>
+  <si>
+    <t>14.10.202564</t>
+  </si>
+  <si>
+    <t>14.10.202565</t>
+  </si>
+  <si>
+    <t>14.10.202566</t>
+  </si>
+  <si>
+    <t>14.10.202567</t>
+  </si>
+  <si>
+    <t>14.10.202568</t>
+  </si>
+  <si>
+    <t>14.10.202569</t>
+  </si>
+  <si>
+    <t>14.10.202570</t>
+  </si>
+  <si>
+    <t>14.10.202571</t>
+  </si>
+  <si>
+    <t>14.10.202572</t>
+  </si>
+  <si>
+    <t>14.10.202573</t>
+  </si>
+  <si>
+    <t>14.10.202574</t>
+  </si>
+  <si>
+    <t>14.10.202575</t>
+  </si>
+  <si>
+    <t>14.10.202576</t>
+  </si>
+  <si>
+    <t>14.10.202577</t>
+  </si>
+  <si>
+    <t>14.10.202578</t>
+  </si>
+  <si>
+    <t>14.10.202579</t>
+  </si>
+  <si>
+    <t>14.10.202580</t>
+  </si>
+  <si>
+    <t>14.10.202581</t>
+  </si>
+  <si>
+    <t>14.10.202582</t>
+  </si>
+  <si>
+    <t>14.10.202583</t>
+  </si>
+  <si>
+    <t>14.10.202584</t>
+  </si>
+  <si>
+    <t>14.10.202585</t>
+  </si>
+  <si>
+    <t>14.10.202586</t>
+  </si>
+  <si>
+    <t>14.10.202587</t>
+  </si>
+  <si>
+    <t>14.10.202588</t>
+  </si>
+  <si>
+    <t>14.10.202589</t>
+  </si>
+  <si>
+    <t>14.10.202590</t>
+  </si>
+  <si>
+    <t>14.10.202591</t>
+  </si>
+  <si>
+    <t>14.10.202592</t>
+  </si>
+  <si>
+    <t>14.10.202593</t>
+  </si>
+  <si>
+    <t>14.10.202594</t>
+  </si>
+  <si>
+    <t>14.10.202595</t>
+  </si>
+  <si>
+    <t>14.10.202596</t>
+  </si>
+  <si>
+    <t>15.10.20251</t>
+  </si>
+  <si>
+    <t>15.10.20252</t>
+  </si>
+  <si>
+    <t>15.10.20253</t>
+  </si>
+  <si>
+    <t>15.10.20254</t>
+  </si>
+  <si>
+    <t>15.10.20255</t>
+  </si>
+  <si>
+    <t>15.10.20256</t>
+  </si>
+  <si>
+    <t>15.10.20257</t>
+  </si>
+  <si>
+    <t>15.10.20258</t>
+  </si>
+  <si>
+    <t>15.10.20259</t>
+  </si>
+  <si>
+    <t>15.10.202510</t>
+  </si>
+  <si>
+    <t>15.10.202511</t>
+  </si>
+  <si>
+    <t>15.10.202512</t>
+  </si>
+  <si>
+    <t>15.10.202513</t>
+  </si>
+  <si>
+    <t>15.10.202514</t>
+  </si>
+  <si>
+    <t>15.10.202515</t>
+  </si>
+  <si>
+    <t>15.10.202516</t>
+  </si>
+  <si>
+    <t>15.10.202517</t>
+  </si>
+  <si>
+    <t>15.10.202518</t>
+  </si>
+  <si>
+    <t>15.10.202519</t>
+  </si>
+  <si>
+    <t>15.10.202520</t>
+  </si>
+  <si>
+    <t>15.10.202521</t>
+  </si>
+  <si>
+    <t>15.10.202522</t>
+  </si>
+  <si>
+    <t>15.10.202523</t>
+  </si>
+  <si>
+    <t>15.10.202524</t>
+  </si>
+  <si>
+    <t>15.10.202525</t>
+  </si>
+  <si>
+    <t>15.10.202526</t>
+  </si>
+  <si>
+    <t>15.10.202527</t>
+  </si>
+  <si>
+    <t>15.10.202528</t>
+  </si>
+  <si>
+    <t>15.10.202529</t>
+  </si>
+  <si>
+    <t>15.10.202530</t>
+  </si>
+  <si>
+    <t>15.10.202531</t>
+  </si>
+  <si>
+    <t>15.10.202532</t>
+  </si>
+  <si>
+    <t>15.10.202533</t>
+  </si>
+  <si>
+    <t>15.10.202534</t>
+  </si>
+  <si>
+    <t>15.10.202535</t>
+  </si>
+  <si>
+    <t>15.10.202536</t>
+  </si>
+  <si>
+    <t>15.10.202537</t>
+  </si>
+  <si>
+    <t>15.10.202538</t>
+  </si>
+  <si>
+    <t>15.10.202539</t>
+  </si>
+  <si>
+    <t>15.10.202540</t>
+  </si>
+  <si>
+    <t>15.10.202541</t>
+  </si>
+  <si>
+    <t>15.10.202542</t>
+  </si>
+  <si>
+    <t>15.10.202543</t>
+  </si>
+  <si>
+    <t>15.10.202544</t>
+  </si>
+  <si>
+    <t>15.10.202545</t>
+  </si>
+  <si>
+    <t>15.10.202546</t>
+  </si>
+  <si>
+    <t>15.10.202547</t>
+  </si>
+  <si>
+    <t>15.10.202548</t>
+  </si>
+  <si>
+    <t>15.10.202549</t>
+  </si>
+  <si>
+    <t>15.10.202550</t>
+  </si>
+  <si>
+    <t>15.10.202551</t>
+  </si>
+  <si>
+    <t>15.10.202552</t>
+  </si>
+  <si>
+    <t>15.10.202553</t>
+  </si>
+  <si>
+    <t>15.10.202554</t>
+  </si>
+  <si>
+    <t>15.10.202555</t>
+  </si>
+  <si>
+    <t>15.10.202556</t>
+  </si>
+  <si>
+    <t>15.10.202557</t>
+  </si>
+  <si>
+    <t>15.10.202558</t>
+  </si>
+  <si>
+    <t>15.10.202559</t>
+  </si>
+  <si>
+    <t>15.10.202560</t>
+  </si>
+  <si>
+    <t>15.10.202561</t>
+  </si>
+  <si>
+    <t>15.10.202562</t>
+  </si>
+  <si>
+    <t>15.10.202563</t>
+  </si>
+  <si>
+    <t>15.10.202564</t>
+  </si>
+  <si>
+    <t>15.10.202565</t>
+  </si>
+  <si>
+    <t>15.10.202566</t>
+  </si>
+  <si>
+    <t>15.10.202567</t>
+  </si>
+  <si>
+    <t>15.10.202568</t>
+  </si>
+  <si>
+    <t>15.10.202569</t>
+  </si>
+  <si>
+    <t>15.10.202570</t>
+  </si>
+  <si>
+    <t>15.10.202571</t>
+  </si>
+  <si>
+    <t>15.10.202572</t>
+  </si>
+  <si>
+    <t>15.10.202573</t>
+  </si>
+  <si>
+    <t>15.10.202574</t>
+  </si>
+  <si>
+    <t>15.10.202575</t>
+  </si>
+  <si>
+    <t>15.10.202576</t>
+  </si>
+  <si>
+    <t>15.10.202577</t>
+  </si>
+  <si>
+    <t>15.10.202578</t>
+  </si>
+  <si>
+    <t>15.10.202579</t>
+  </si>
+  <si>
+    <t>15.10.202580</t>
+  </si>
+  <si>
+    <t>15.10.202581</t>
+  </si>
+  <si>
+    <t>15.10.202582</t>
+  </si>
+  <si>
+    <t>15.10.202583</t>
+  </si>
+  <si>
+    <t>15.10.202584</t>
+  </si>
+  <si>
+    <t>15.10.202585</t>
+  </si>
+  <si>
+    <t>15.10.202586</t>
+  </si>
+  <si>
+    <t>15.10.202587</t>
+  </si>
+  <si>
+    <t>15.10.202588</t>
+  </si>
+  <si>
+    <t>15.10.202589</t>
+  </si>
+  <si>
+    <t>15.10.202590</t>
+  </si>
+  <si>
+    <t>15.10.202591</t>
+  </si>
+  <si>
+    <t>15.10.202592</t>
+  </si>
+  <si>
+    <t>15.10.202593</t>
+  </si>
+  <si>
+    <t>15.10.202594</t>
+  </si>
+  <si>
+    <t>15.10.202595</t>
+  </si>
+  <si>
+    <t>15.10.202596</t>
+  </si>
+  <si>
+    <t>16.10.20251</t>
+  </si>
+  <si>
+    <t>16.10.20252</t>
+  </si>
+  <si>
+    <t>16.10.20253</t>
+  </si>
+  <si>
+    <t>16.10.20254</t>
+  </si>
+  <si>
+    <t>16.10.20255</t>
+  </si>
+  <si>
+    <t>16.10.20256</t>
+  </si>
+  <si>
+    <t>16.10.20257</t>
+  </si>
+  <si>
+    <t>16.10.20258</t>
+  </si>
+  <si>
+    <t>16.10.20259</t>
+  </si>
+  <si>
+    <t>16.10.202510</t>
+  </si>
+  <si>
+    <t>16.10.202511</t>
+  </si>
+  <si>
+    <t>16.10.202512</t>
+  </si>
+  <si>
+    <t>16.10.202513</t>
+  </si>
+  <si>
+    <t>16.10.202514</t>
+  </si>
+  <si>
+    <t>16.10.202515</t>
+  </si>
+  <si>
+    <t>16.10.202516</t>
+  </si>
+  <si>
+    <t>16.10.202517</t>
+  </si>
+  <si>
+    <t>16.10.202518</t>
+  </si>
+  <si>
+    <t>16.10.202519</t>
+  </si>
+  <si>
+    <t>16.10.202520</t>
+  </si>
+  <si>
+    <t>16.10.202521</t>
+  </si>
+  <si>
+    <t>16.10.202522</t>
+  </si>
+  <si>
+    <t>16.10.202523</t>
+  </si>
+  <si>
+    <t>16.10.202524</t>
+  </si>
+  <si>
+    <t>16.10.202525</t>
+  </si>
+  <si>
+    <t>16.10.202526</t>
+  </si>
+  <si>
+    <t>16.10.202527</t>
+  </si>
+  <si>
+    <t>16.10.202528</t>
+  </si>
+  <si>
+    <t>16.10.202529</t>
+  </si>
+  <si>
+    <t>16.10.202530</t>
+  </si>
+  <si>
+    <t>16.10.202531</t>
+  </si>
+  <si>
+    <t>16.10.202532</t>
+  </si>
+  <si>
+    <t>16.10.202533</t>
+  </si>
+  <si>
+    <t>16.10.202534</t>
+  </si>
+  <si>
+    <t>16.10.202535</t>
+  </si>
+  <si>
+    <t>16.10.202536</t>
+  </si>
+  <si>
+    <t>16.10.202537</t>
+  </si>
+  <si>
+    <t>16.10.202538</t>
+  </si>
+  <si>
+    <t>16.10.202539</t>
+  </si>
+  <si>
+    <t>16.10.202540</t>
+  </si>
+  <si>
+    <t>16.10.202541</t>
+  </si>
+  <si>
+    <t>16.10.202542</t>
   </si>
 </sst>
 </file>
@@ -798,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,13 +1117,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45931</v>
+        <v>45944</v>
       </c>
       <c r="B2">
-        <v>2.245</v>
+        <v>1.613</v>
       </c>
       <c r="C2">
-        <v>0.699</v>
+        <v>5.582</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,13 +1134,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45931.01041666666</v>
+        <v>45944.01041666666</v>
       </c>
       <c r="B3">
-        <v>8.002000000000001</v>
+        <v>9.273</v>
       </c>
       <c r="C3">
-        <v>0.124</v>
+        <v>0.102</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -857,13 +1151,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45931.02083333334</v>
+        <v>45944.02083333334</v>
       </c>
       <c r="B4">
-        <v>1.875</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>10.041</v>
+        <v>5.934</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -874,13 +1168,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45931.03125</v>
+        <v>45944.03125</v>
       </c>
       <c r="B5">
-        <v>5.481</v>
+        <v>2.297</v>
       </c>
       <c r="C5">
-        <v>1.593</v>
+        <v>3.881</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -891,13 +1185,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45931.04166666666</v>
+        <v>45944.04166666666</v>
       </c>
       <c r="B6">
-        <v>0.08500000000000001</v>
+        <v>3.174</v>
       </c>
       <c r="C6">
-        <v>13.576</v>
+        <v>0.599</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -908,13 +1202,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45931.05208333334</v>
+        <v>45944.05208333334</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.307</v>
       </c>
       <c r="C7">
-        <v>17.309</v>
+        <v>0.002</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -925,13 +1219,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45931.0625</v>
+        <v>45944.0625</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="C8">
-        <v>14.541</v>
+        <v>0.459</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -942,13 +1236,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45931.07291666666</v>
+        <v>45944.07291666666</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.628</v>
       </c>
       <c r="C9">
-        <v>21.32</v>
+        <v>4.611</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -959,13 +1253,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45931.08333333334</v>
+        <v>45944.08333333334</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.235</v>
       </c>
       <c r="C10">
-        <v>22.491</v>
+        <v>1.354</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -976,13 +1270,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45931.09375</v>
+        <v>45944.09375</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.023</v>
+        <v>13.796</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -993,13 +1287,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45931.10416666666</v>
+        <v>45944.10416666666</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.742</v>
       </c>
       <c r="C12">
-        <v>15.427</v>
+        <v>5.616</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1010,13 +1304,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45931.11458333334</v>
+        <v>45944.11458333334</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.598</v>
       </c>
       <c r="C13">
-        <v>16.463</v>
+        <v>0.096</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1027,13 +1321,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45931.125</v>
+        <v>45944.125</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.572</v>
       </c>
       <c r="C14">
-        <v>22.727</v>
+        <v>4.455</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1044,13 +1338,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45931.13541666666</v>
+        <v>45944.13541666666</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.189</v>
+        <v>14.954</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1061,13 +1355,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45931.14583333334</v>
+        <v>45944.14583333334</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>23.344</v>
+        <v>12.306</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1078,13 +1372,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45931.15625</v>
+        <v>45944.15625</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>19.185</v>
+        <v>14.513</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1095,13 +1389,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45931.16666666666</v>
+        <v>45944.16666666666</v>
       </c>
       <c r="B18">
-        <v>2.584</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.458</v>
+        <v>1.754</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1112,13 +1406,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45931.17708333334</v>
+        <v>45944.17708333334</v>
       </c>
       <c r="B19">
-        <v>3.65</v>
+        <v>0.195</v>
       </c>
       <c r="C19">
-        <v>0.26</v>
+        <v>1.112</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1129,13 +1423,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45931.1875</v>
+        <v>45944.1875</v>
       </c>
       <c r="B20">
-        <v>0.297</v>
+        <v>0.076</v>
       </c>
       <c r="C20">
-        <v>0.604</v>
+        <v>1.607</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1146,13 +1440,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45931.19791666666</v>
+        <v>45944.19791666666</v>
       </c>
       <c r="B21">
-        <v>1.437</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.276</v>
+        <v>2.564</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1163,13 +1457,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45931.20833333334</v>
+        <v>45944.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>26.605</v>
+        <v>22.897</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1180,13 +1474,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45931.21875</v>
+        <v>45944.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="C23">
-        <v>30.381</v>
+        <v>8.913</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1197,13 +1491,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45931.22916666666</v>
+        <v>45944.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.028</v>
+        <v>0.894</v>
       </c>
       <c r="C24">
-        <v>17.784</v>
+        <v>5.072</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1214,13 +1508,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45931.23958333334</v>
+        <v>45944.23958333334</v>
       </c>
       <c r="B25">
-        <v>0.211</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="C25">
-        <v>5.765</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1231,13 +1525,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45931.25</v>
+        <v>45944.25</v>
       </c>
       <c r="B26">
-        <v>0.042</v>
+        <v>4.336</v>
       </c>
       <c r="C26">
-        <v>17.331</v>
+        <v>0.005</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1248,13 +1542,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45931.26041666666</v>
+        <v>45944.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.06</v>
+        <v>5.706</v>
       </c>
       <c r="C27">
-        <v>9.65</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1265,13 +1559,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45931.27083333334</v>
+        <v>45944.27083333334</v>
       </c>
       <c r="B28">
-        <v>0.149</v>
+        <v>6.249</v>
       </c>
       <c r="C28">
-        <v>5.902</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1282,13 +1576,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45931.28125</v>
+        <v>45944.28125</v>
       </c>
       <c r="B29">
-        <v>0.18</v>
+        <v>12.104</v>
       </c>
       <c r="C29">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1299,13 +1593,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45931.29166666666</v>
+        <v>45944.29166666666</v>
       </c>
       <c r="B30">
-        <v>0.443</v>
+        <v>1.099</v>
       </c>
       <c r="C30">
-        <v>2.188</v>
+        <v>3.9</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1316,13 +1610,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45931.30208333334</v>
+        <v>45944.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>5.102</v>
+        <v>9.195</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1333,13 +1627,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45931.3125</v>
+        <v>45944.3125</v>
       </c>
       <c r="B32">
-        <v>1.489</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>7.201</v>
+        <v>17.105</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1350,13 +1644,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45931.32291666666</v>
+        <v>45944.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>16.089</v>
+        <v>32.792</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1367,13 +1661,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45931.33333333334</v>
+        <v>45944.33333333334</v>
       </c>
       <c r="B34">
-        <v>6.073</v>
+        <v>1.203</v>
       </c>
       <c r="C34">
-        <v>8.074</v>
+        <v>2.69</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1384,13 +1678,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45931.34375</v>
+        <v>45944.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C35">
-        <v>18.616</v>
+        <v>7.036</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1401,13 +1695,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45931.35416666666</v>
+        <v>45944.35416666666</v>
       </c>
       <c r="B36">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2.751</v>
+        <v>24.745</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1418,13 +1712,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45931.36458333334</v>
+        <v>45944.36458333334</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.504</v>
+        <v>8.907</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1435,13 +1729,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45931.375</v>
+        <v>45944.375</v>
       </c>
       <c r="B38">
-        <v>2.861</v>
+        <v>0.122</v>
       </c>
       <c r="C38">
-        <v>1.626</v>
+        <v>9.119</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1452,13 +1746,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45931.38541666666</v>
+        <v>45944.38541666666</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C39">
-        <v>6.351</v>
+        <v>8.893000000000001</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1469,13 +1763,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45931.39583333334</v>
+        <v>45944.39583333334</v>
       </c>
       <c r="B40">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2.401</v>
+        <v>10.166</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1486,13 +1780,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45931.40625</v>
+        <v>45944.40625</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>14.783</v>
+        <v>10.995</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1503,13 +1797,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45931.41666666666</v>
+        <v>45944.41666666666</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>17.8</v>
+        <v>3.164</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1520,13 +1814,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45931.42708333334</v>
+        <v>45944.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>17.146</v>
+        <v>1.991</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1537,13 +1831,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45931.4375</v>
+        <v>45944.4375</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2.995</v>
+        <v>5.587</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1554,13 +1848,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45931.44791666666</v>
+        <v>45944.44791666666</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>8.077999999999999</v>
+        <v>2.668</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1571,13 +1865,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45931.45833333334</v>
+        <v>45944.45833333334</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>8.673999999999999</v>
+        <v>5.505</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1588,13 +1882,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45931.46875</v>
+        <v>45944.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>26.536</v>
+        <v>14.719</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1605,13 +1899,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45931.47916666666</v>
+        <v>45944.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>8.44</v>
+        <v>38.975</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1622,13 +1916,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45931.48958333334</v>
+        <v>45944.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>7.506</v>
+        <v>18.819</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1639,13 +1933,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45931.5</v>
+        <v>45944.5</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>21.1</v>
+        <v>44.433</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1656,13 +1950,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45931.51041666666</v>
+        <v>45944.51041666666</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>42.629</v>
+        <v>12.568</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1673,13 +1967,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45931.52083333334</v>
+        <v>45944.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>3.332</v>
       </c>
       <c r="C52">
-        <v>35.106</v>
+        <v>1.196</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1690,13 +1984,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45931.53125</v>
+        <v>45944.53125</v>
       </c>
       <c r="B53">
-        <v>6.871</v>
+        <v>0.048</v>
       </c>
       <c r="C53">
-        <v>1.358</v>
+        <v>0.542</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1707,13 +2001,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45931.54166666666</v>
+        <v>45944.54166666666</v>
       </c>
       <c r="B54">
-        <v>2.874</v>
+        <v>3.868</v>
       </c>
       <c r="C54">
-        <v>1.481</v>
+        <v>3.272</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1724,13 +2018,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45931.55208333334</v>
+        <v>45944.55208333334</v>
       </c>
       <c r="B55">
-        <v>41.252</v>
+        <v>8.856</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1741,13 +2035,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45931.5625</v>
+        <v>45944.5625</v>
       </c>
       <c r="B56">
-        <v>7.953</v>
+        <v>20.301</v>
       </c>
       <c r="C56">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1758,13 +2052,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45931.57291666666</v>
+        <v>45944.57291666666</v>
       </c>
       <c r="B57">
-        <v>3.291</v>
+        <v>32.767</v>
       </c>
       <c r="C57">
-        <v>2.722</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1775,13 +2069,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45931.58333333334</v>
+        <v>45944.58333333334</v>
       </c>
       <c r="B58">
-        <v>0.212</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="C58">
-        <v>8.869</v>
+        <v>1.134</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1792,13 +2086,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45931.59375</v>
+        <v>45944.59375</v>
       </c>
       <c r="B59">
-        <v>3.637</v>
+        <v>13.352</v>
       </c>
       <c r="C59">
-        <v>1.967</v>
+        <v>0.97</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1809,13 +2103,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45931.60416666666</v>
+        <v>45944.60416666666</v>
       </c>
       <c r="B60">
-        <v>2.33</v>
+        <v>0.001</v>
       </c>
       <c r="C60">
-        <v>3.471</v>
+        <v>18.628</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1826,13 +2120,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45931.61458333334</v>
+        <v>45944.61458333334</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>21.675</v>
+        <v>17.839</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1843,13 +2137,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45931.625</v>
+        <v>45944.625</v>
       </c>
       <c r="B62">
-        <v>3.637</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>5.897</v>
+        <v>29.836</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1860,13 +2154,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45931.63541666666</v>
+        <v>45944.63541666666</v>
       </c>
       <c r="B63">
-        <v>17.184</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>39.094</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1877,13 +2171,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45931.64583333334</v>
+        <v>45944.64583333334</v>
       </c>
       <c r="B64">
-        <v>3.641</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.504</v>
+        <v>40.174</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1894,13 +2188,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45931.65625</v>
+        <v>45944.65625</v>
       </c>
       <c r="B65">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>3.204</v>
+        <v>47.645</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1911,13 +2205,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45931.66666666666</v>
+        <v>45944.66666666666</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>28.11</v>
+        <v>43.949</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1928,13 +2222,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45931.67708333334</v>
+        <v>45944.67708333334</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>39.937</v>
+        <v>41.459</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1945,13 +2239,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45931.6875</v>
+        <v>45944.6875</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>74.432</v>
+        <v>23.145</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1962,13 +2256,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45931.69791666666</v>
+        <v>45944.69791666666</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="C69">
-        <v>93.92100000000001</v>
+        <v>5.75</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1979,13 +2273,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45931.70833333334</v>
+        <v>45944.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.589</v>
       </c>
       <c r="C70">
-        <v>93.343</v>
+        <v>5.073</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1996,13 +2290,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45931.71875</v>
+        <v>45944.71875</v>
       </c>
       <c r="B71">
-        <v>0.02</v>
+        <v>0.066</v>
       </c>
       <c r="C71">
-        <v>8.286</v>
+        <v>11.11</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -2013,13 +2307,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45931.72916666666</v>
+        <v>45944.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.115</v>
+        <v>0.005</v>
       </c>
       <c r="C72">
-        <v>13.312</v>
+        <v>6.948</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2030,13 +2324,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45931.73958333334</v>
+        <v>45944.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="C73">
-        <v>27.678</v>
+        <v>2.68</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2047,13 +2341,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45931.75</v>
+        <v>45944.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="C74">
-        <v>26.632</v>
+        <v>22.738</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2064,13 +2358,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45931.76041666666</v>
+        <v>45944.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>29.17</v>
+        <v>26.547</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2081,13 +2375,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45931.77083333334</v>
+        <v>45944.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>15.988</v>
+        <v>8.644</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2098,13 +2392,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45931.78125</v>
+        <v>45944.78125</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>18.409</v>
+        <v>17.81</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2115,13 +2409,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45931.79166666666</v>
+        <v>45944.79166666666</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>16.708</v>
+        <v>19.249</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2132,13 +2426,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45931.80208333334</v>
+        <v>45944.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="C79">
-        <v>15.139</v>
+        <v>6.263</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2149,13 +2443,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45931.8125</v>
+        <v>45944.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.478</v>
       </c>
       <c r="C80">
-        <v>13.789</v>
+        <v>9.173</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2166,13 +2460,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45931.82291666666</v>
+        <v>45944.82291666666</v>
       </c>
       <c r="B81">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>9.004</v>
+        <v>16.949</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2183,13 +2477,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45931.83333333334</v>
+        <v>45944.83333333334</v>
       </c>
       <c r="B82">
-        <v>0.723</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>3.349</v>
+        <v>12.773</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2200,13 +2494,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45931.84375</v>
+        <v>45944.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="C83">
-        <v>5.55</v>
+        <v>4.509</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2217,13 +2511,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45931.85416666666</v>
+        <v>45944.85416666666</v>
       </c>
       <c r="B84">
-        <v>1.112</v>
+        <v>0.008</v>
       </c>
       <c r="C84">
-        <v>3.886</v>
+        <v>7.02</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2234,13 +2528,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45931.86458333334</v>
+        <v>45944.86458333334</v>
       </c>
       <c r="B85">
-        <v>17.104</v>
+        <v>2.124</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>6.762</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2251,13 +2545,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45931.875</v>
+        <v>45944.875</v>
       </c>
       <c r="B86">
-        <v>20.888</v>
+        <v>2.59</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2.015</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2268,13 +2562,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45931.88541666666</v>
+        <v>45944.88541666666</v>
       </c>
       <c r="B87">
-        <v>3.383</v>
+        <v>7.263</v>
       </c>
       <c r="C87">
-        <v>0.334</v>
+        <v>0.19</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2285,13 +2579,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45931.89583333334</v>
+        <v>45944.89583333334</v>
       </c>
       <c r="B88">
-        <v>2.33</v>
+        <v>7.121</v>
       </c>
       <c r="C88">
-        <v>0.536</v>
+        <v>0.787</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2302,13 +2596,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45931.90625</v>
+        <v>45944.90625</v>
       </c>
       <c r="B89">
-        <v>7.295</v>
+        <v>0.981</v>
       </c>
       <c r="C89">
-        <v>0.974</v>
+        <v>2.624</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2319,13 +2613,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45931.91666666666</v>
+        <v>45944.91666666666</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>4.568</v>
       </c>
       <c r="C90">
-        <v>6.391</v>
+        <v>1.85</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2336,13 +2630,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45931.92708333334</v>
+        <v>45944.92708333334</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.924</v>
+        <v>14.495</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2353,13 +2647,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45931.9375</v>
+        <v>45944.9375</v>
       </c>
       <c r="B92">
-        <v>0.536</v>
+        <v>1.196</v>
       </c>
       <c r="C92">
-        <v>4.658</v>
+        <v>2.635</v>
       </c>
       <c r="D92">
         <v>91</v>
@@ -2370,13 +2664,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45931.94791666666</v>
+        <v>45944.94791666666</v>
       </c>
       <c r="B93">
-        <v>2.285</v>
+        <v>0.011</v>
       </c>
       <c r="C93">
-        <v>4.049</v>
+        <v>9.186</v>
       </c>
       <c r="D93">
         <v>92</v>
@@ -2387,13 +2681,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45931.95833333334</v>
+        <v>45944.95833333334</v>
       </c>
       <c r="B94">
-        <v>7.4</v>
+        <v>0.049</v>
       </c>
       <c r="C94">
-        <v>0.235</v>
+        <v>2.591</v>
       </c>
       <c r="D94">
         <v>93</v>
@@ -2404,13 +2698,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B95">
-        <v>0.015</v>
+        <v>0.042</v>
       </c>
       <c r="C95">
-        <v>8.124000000000001</v>
+        <v>14.117</v>
       </c>
       <c r="D95">
         <v>94</v>
@@ -2421,13 +2715,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45931.96875</v>
+        <v>45944.96875</v>
       </c>
       <c r="B96">
-        <v>0.015</v>
+        <v>0.042</v>
       </c>
       <c r="C96">
-        <v>8.124000000000001</v>
+        <v>14.117</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -2438,13 +2732,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B97">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>5.376</v>
+        <v>21.127</v>
       </c>
       <c r="D97">
         <v>95</v>
@@ -2455,13 +2749,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45931.97916666666</v>
+        <v>45944.97916666666</v>
       </c>
       <c r="B98">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>5.376</v>
+        <v>21.127</v>
       </c>
       <c r="D98">
         <v>95</v>
@@ -2472,13 +2766,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>7.944</v>
+        <v>15.051</v>
       </c>
       <c r="D99">
         <v>96</v>
@@ -2489,13 +2783,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45931.98958333334</v>
+        <v>45944.98958333334</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>7.944</v>
+        <v>15.051</v>
       </c>
       <c r="D100">
         <v>96</v>
@@ -2506,13 +2800,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1.762</v>
+        <v>24.245</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2523,13 +2817,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>1.762</v>
+        <v>24.245</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2540,13 +2834,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B103">
-        <v>4.361</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.661</v>
+        <v>21.895</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -2557,13 +2851,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45932.01041666666</v>
+        <v>45945.01041666666</v>
       </c>
       <c r="B104">
-        <v>4.361</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.661</v>
+        <v>21.895</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -2574,13 +2868,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B105">
-        <v>3.014</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.569</v>
+        <v>27.637</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -2591,13 +2885,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45932.02083333334</v>
+        <v>45945.02083333334</v>
       </c>
       <c r="B106">
-        <v>3.014</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.569</v>
+        <v>27.637</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -2608,13 +2902,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B107">
-        <v>5.926</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.573</v>
+        <v>36.357</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -2625,13 +2919,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45932.03125</v>
+        <v>45945.03125</v>
       </c>
       <c r="B108">
-        <v>5.926</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0.573</v>
+        <v>36.357</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2642,13 +2936,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45932.04166666666</v>
+        <v>45945.04166666666</v>
       </c>
       <c r="B109">
-        <v>15.978</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0.007</v>
+        <v>22.429</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2659,13 +2953,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45932.05208333334</v>
+        <v>45945.05208333334</v>
       </c>
       <c r="B110">
-        <v>12.898</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>17.954</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2676,13 +2970,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45932.0625</v>
+        <v>45945.0625</v>
       </c>
       <c r="B111">
-        <v>0.705</v>
+        <v>0.014</v>
       </c>
       <c r="C111">
-        <v>0.888</v>
+        <v>4.848</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2693,13 +2987,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45932.07291666666</v>
+        <v>45945.07291666666</v>
       </c>
       <c r="B112">
-        <v>1.072</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.322</v>
+        <v>15.796</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2710,13 +3004,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45932.08333333334</v>
+        <v>45945.08333333334</v>
       </c>
       <c r="B113">
-        <v>4.799</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.248</v>
+        <v>26.586</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2727,13 +3021,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45932.09375</v>
+        <v>45945.09375</v>
       </c>
       <c r="B114">
-        <v>4.531</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>0.067</v>
+        <v>20.507</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2744,13 +3038,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45932.10416666666</v>
+        <v>45945.10416666666</v>
       </c>
       <c r="B115">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1.764</v>
+        <v>36.989</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2761,13 +3055,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45932.11458333334</v>
+        <v>45945.11458333334</v>
       </c>
       <c r="B116">
-        <v>6.036</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0.699</v>
+        <v>31.543</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2778,13 +3072,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45932.125</v>
+        <v>45945.125</v>
       </c>
       <c r="B117">
-        <v>6.054</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0.306</v>
+        <v>23.668</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2795,13 +3089,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45932.13541666666</v>
+        <v>45945.13541666666</v>
       </c>
       <c r="B118">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>3.468</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2812,13 +3106,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45932.14583333334</v>
+        <v>45945.14583333334</v>
       </c>
       <c r="B119">
-        <v>1.813</v>
+        <v>1.759</v>
       </c>
       <c r="C119">
-        <v>1.125</v>
+        <v>1.077</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2829,13 +3123,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45932.15625</v>
+        <v>45945.15625</v>
       </c>
       <c r="B120">
-        <v>3.685</v>
+        <v>2.424</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2846,13 +3140,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45932.16666666666</v>
+        <v>45945.16666666666</v>
       </c>
       <c r="B121">
-        <v>22.477</v>
+        <v>1.505</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2863,13 +3157,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45932.17708333334</v>
+        <v>45945.17708333334</v>
       </c>
       <c r="B122">
-        <v>33.01</v>
+        <v>0.581</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>4.116</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2880,13 +3174,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45932.1875</v>
+        <v>45945.1875</v>
       </c>
       <c r="B123">
-        <v>11.529</v>
+        <v>0.858</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>2.147</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2897,13 +3191,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45932.19791666666</v>
+        <v>45945.19791666666</v>
       </c>
       <c r="B124">
-        <v>7.453</v>
+        <v>5.194</v>
       </c>
       <c r="C124">
-        <v>0.274</v>
+        <v>0.983</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2914,13 +3208,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45932.20833333334</v>
+        <v>45945.20833333334</v>
       </c>
       <c r="B125">
-        <v>4.029</v>
+        <v>0.883</v>
       </c>
       <c r="C125">
-        <v>0.044</v>
+        <v>3.863</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2931,13 +3225,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45932.21875</v>
+        <v>45945.21875</v>
       </c>
       <c r="B126">
-        <v>0.07000000000000001</v>
+        <v>11.725</v>
       </c>
       <c r="C126">
-        <v>19.635</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2948,13 +3242,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45932.22916666666</v>
+        <v>45945.22916666666</v>
       </c>
       <c r="B127">
-        <v>0.206</v>
+        <v>15.655</v>
       </c>
       <c r="C127">
-        <v>7.348</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2965,13 +3259,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45932.23958333334</v>
+        <v>45945.23958333334</v>
       </c>
       <c r="B128">
-        <v>9.138999999999999</v>
+        <v>7.353</v>
       </c>
       <c r="C128">
-        <v>0.819</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2982,13 +3276,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45932.25</v>
+        <v>45945.25</v>
       </c>
       <c r="B129">
-        <v>6.911</v>
+        <v>2.165</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1.157</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2999,10 +3293,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45932.26041666666</v>
+        <v>45945.26041666666</v>
       </c>
       <c r="B130">
-        <v>5.316</v>
+        <v>14.039</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3016,10 +3310,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45932.27083333334</v>
+        <v>45945.27083333334</v>
       </c>
       <c r="B131">
-        <v>14.153</v>
+        <v>4.322</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3033,10 +3327,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45932.28125</v>
+        <v>45945.28125</v>
       </c>
       <c r="B132">
-        <v>13.879</v>
+        <v>15.727</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3050,10 +3344,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45932.29166666666</v>
+        <v>45945.29166666666</v>
       </c>
       <c r="B133">
-        <v>5.852</v>
+        <v>1.955</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3067,10 +3361,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45932.30208333334</v>
+        <v>45945.30208333334</v>
       </c>
       <c r="B134">
-        <v>2.184</v>
+        <v>0.977</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3084,10 +3378,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45932.3125</v>
+        <v>45945.3125</v>
       </c>
       <c r="B135">
-        <v>2.026</v>
+        <v>5.223</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3101,13 +3395,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45932.32291666666</v>
+        <v>45945.32291666666</v>
       </c>
       <c r="B136">
-        <v>4.929</v>
+        <v>6.534</v>
       </c>
       <c r="C136">
-        <v>1.418</v>
+        <v>0.714</v>
       </c>
       <c r="D136">
         <v>32</v>
@@ -3118,13 +3412,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45932.33333333334</v>
+        <v>45945.33333333334</v>
       </c>
       <c r="B137">
-        <v>3.245</v>
+        <v>10.69</v>
       </c>
       <c r="C137">
-        <v>0.52</v>
+        <v>0.053</v>
       </c>
       <c r="D137">
         <v>33</v>
@@ -3135,13 +3429,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45932.34375</v>
+        <v>45945.34375</v>
       </c>
       <c r="B138">
-        <v>6.715</v>
+        <v>3.103</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="D138">
         <v>34</v>
@@ -3152,13 +3446,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45932.35416666666</v>
+        <v>45945.35416666666</v>
       </c>
       <c r="B139">
-        <v>14.267</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>6.29</v>
       </c>
       <c r="D139">
         <v>35</v>
@@ -3169,13 +3463,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45932.36458333334</v>
+        <v>45945.36458333334</v>
       </c>
       <c r="B140">
-        <v>29.116</v>
+        <v>2.798</v>
       </c>
       <c r="C140">
-        <v>0.006</v>
+        <v>3.144</v>
       </c>
       <c r="D140">
         <v>36</v>
@@ -3186,13 +3480,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45932.375</v>
+        <v>45945.375</v>
       </c>
       <c r="B141">
-        <v>0.171</v>
+        <v>3.441</v>
       </c>
       <c r="C141">
-        <v>7.081</v>
+        <v>3.962</v>
       </c>
       <c r="D141">
         <v>37</v>
@@ -3203,13 +3497,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45932.38541666666</v>
+        <v>45945.38541666666</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1.003</v>
       </c>
       <c r="C142">
-        <v>44.962</v>
+        <v>1.761</v>
       </c>
       <c r="D142">
         <v>38</v>
@@ -3220,13 +3514,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45932.39583333334</v>
+        <v>45945.39583333334</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>4.523</v>
       </c>
       <c r="C143">
-        <v>18.177</v>
+        <v>1.495</v>
       </c>
       <c r="D143">
         <v>39</v>
@@ -3237,19 +3531,1804 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45932.40625</v>
+        <v>45945.40625</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>0.827</v>
       </c>
       <c r="C144">
-        <v>43.263</v>
+        <v>3.56</v>
       </c>
       <c r="D144">
         <v>40</v>
       </c>
       <c r="E144" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45945.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>0.022</v>
+      </c>
+      <c r="C145">
+        <v>7.607</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45945.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0.182</v>
+      </c>
+      <c r="C146">
+        <v>9.702</v>
+      </c>
+      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45945.4375</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>10.77</v>
+      </c>
+      <c r="D147">
+        <v>43</v>
+      </c>
+      <c r="E147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45945.44791666666</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>10.794</v>
+      </c>
+      <c r="D148">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>16.933</v>
+      </c>
+      <c r="D149">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45945.46875</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>20.254</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="E150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45945.47916666666</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>7.874</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45945.48958333334</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>13.331</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45945.5</v>
+      </c>
+      <c r="B153">
+        <v>0.019</v>
+      </c>
+      <c r="C153">
+        <v>17.317</v>
+      </c>
+      <c r="D153">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45945.51041666666</v>
+      </c>
+      <c r="B154">
+        <v>0.714</v>
+      </c>
+      <c r="C154">
+        <v>1.572</v>
+      </c>
+      <c r="D154">
+        <v>50</v>
+      </c>
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45945.52083333334</v>
+      </c>
+      <c r="B155">
+        <v>3.2</v>
+      </c>
+      <c r="C155">
+        <v>2.948</v>
+      </c>
+      <c r="D155">
+        <v>51</v>
+      </c>
+      <c r="E155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45945.53125</v>
+      </c>
+      <c r="B156">
+        <v>4.187</v>
+      </c>
+      <c r="C156">
+        <v>0.681</v>
+      </c>
+      <c r="D156">
+        <v>52</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45945.54166666666</v>
+      </c>
+      <c r="B157">
+        <v>2.572</v>
+      </c>
+      <c r="C157">
+        <v>1.358</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45945.55208333334</v>
+      </c>
+      <c r="B158">
+        <v>0.459</v>
+      </c>
+      <c r="C158">
+        <v>2.364</v>
+      </c>
+      <c r="D158">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45945.5625</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45945.57291666666</v>
+      </c>
+      <c r="B160">
+        <v>0.435</v>
+      </c>
+      <c r="C160">
+        <v>1.158</v>
+      </c>
+      <c r="D160">
+        <v>56</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45945.58333333334</v>
+      </c>
+      <c r="B161">
+        <v>1.773</v>
+      </c>
+      <c r="C161">
+        <v>2.203</v>
+      </c>
+      <c r="D161">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45945.59375</v>
+      </c>
+      <c r="B162">
+        <v>2.264</v>
+      </c>
+      <c r="C162">
+        <v>1.54</v>
+      </c>
+      <c r="D162">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45945.60416666666</v>
+      </c>
+      <c r="B163">
+        <v>4.161</v>
+      </c>
+      <c r="C163">
+        <v>0.924</v>
+      </c>
+      <c r="D163">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45945.61458333334</v>
+      </c>
+      <c r="B164">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="C164">
+        <v>7.884</v>
+      </c>
+      <c r="D164">
+        <v>60</v>
+      </c>
+      <c r="E164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45945.625</v>
+      </c>
+      <c r="B165">
+        <v>0.001</v>
+      </c>
+      <c r="C165">
+        <v>13.852</v>
+      </c>
+      <c r="D165">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45945.63541666666</v>
+      </c>
+      <c r="B166">
+        <v>0.139</v>
+      </c>
+      <c r="C166">
+        <v>8.884</v>
+      </c>
+      <c r="D166">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45945.64583333334</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>22.84</v>
+      </c>
+      <c r="D167">
+        <v>63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45945.65625</v>
+      </c>
+      <c r="B168">
+        <v>8.307</v>
+      </c>
+      <c r="C168">
+        <v>5.17</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45945.66666666666</v>
+      </c>
+      <c r="B169">
+        <v>2.754</v>
+      </c>
+      <c r="C169">
+        <v>2.241</v>
+      </c>
+      <c r="D169">
+        <v>65</v>
+      </c>
+      <c r="E169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45945.67708333334</v>
+      </c>
+      <c r="B170">
+        <v>1.623</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>66</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45945.6875</v>
+      </c>
+      <c r="B171">
+        <v>3.448</v>
+      </c>
+      <c r="C171">
+        <v>0.006</v>
+      </c>
+      <c r="D171">
+        <v>67</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45945.69791666666</v>
+      </c>
+      <c r="B172">
+        <v>0.593</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>68</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45945.70833333334</v>
+      </c>
+      <c r="B173">
+        <v>15.18</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>69</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45945.71875</v>
+      </c>
+      <c r="B174">
+        <v>2.431</v>
+      </c>
+      <c r="C174">
+        <v>0.345</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45945.72916666666</v>
+      </c>
+      <c r="B175">
+        <v>10.616</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>71</v>
+      </c>
+      <c r="E175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45945.73958333334</v>
+      </c>
+      <c r="B176">
+        <v>0.016</v>
+      </c>
+      <c r="C176">
+        <v>26.044</v>
+      </c>
+      <c r="D176">
+        <v>72</v>
+      </c>
+      <c r="E176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45945.75</v>
+      </c>
+      <c r="B177">
+        <v>0.027</v>
+      </c>
+      <c r="C177">
+        <v>3.082</v>
+      </c>
+      <c r="D177">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45945.76041666666</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>17.88</v>
+      </c>
+      <c r="D178">
+        <v>74</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45945.77083333334</v>
+      </c>
+      <c r="B179">
+        <v>0.001</v>
+      </c>
+      <c r="C179">
+        <v>15.161</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45945.78125</v>
+      </c>
+      <c r="B180">
+        <v>0.101</v>
+      </c>
+      <c r="C180">
+        <v>8.843999999999999</v>
+      </c>
+      <c r="D180">
+        <v>76</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45945.79166666666</v>
+      </c>
+      <c r="B181">
+        <v>16.342</v>
+      </c>
+      <c r="C181">
+        <v>0.25</v>
+      </c>
+      <c r="D181">
+        <v>77</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45945.80208333334</v>
+      </c>
+      <c r="B182">
+        <v>5.625</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45945.8125</v>
+      </c>
+      <c r="B183">
+        <v>4.368</v>
+      </c>
+      <c r="C183">
+        <v>0.292</v>
+      </c>
+      <c r="D183">
+        <v>79</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45945.82291666666</v>
+      </c>
+      <c r="B184">
+        <v>7.886</v>
+      </c>
+      <c r="C184">
+        <v>0.829</v>
+      </c>
+      <c r="D184">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45945.83333333334</v>
+      </c>
+      <c r="B185">
+        <v>3.151</v>
+      </c>
+      <c r="C185">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D185">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45945.84375</v>
+      </c>
+      <c r="B186">
+        <v>2.116</v>
+      </c>
+      <c r="C186">
+        <v>0.003</v>
+      </c>
+      <c r="D186">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45945.85416666666</v>
+      </c>
+      <c r="B187">
+        <v>0.615</v>
+      </c>
+      <c r="C187">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D187">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45945.86458333334</v>
+      </c>
+      <c r="B188">
+        <v>0.434</v>
+      </c>
+      <c r="C188">
+        <v>12.142</v>
+      </c>
+      <c r="D188">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45945.875</v>
+      </c>
+      <c r="B189">
+        <v>0.71</v>
+      </c>
+      <c r="C189">
+        <v>5.769</v>
+      </c>
+      <c r="D189">
+        <v>85</v>
+      </c>
+      <c r="E189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45945.88541666666</v>
+      </c>
+      <c r="B190">
+        <v>0.024</v>
+      </c>
+      <c r="C190">
+        <v>5.26</v>
+      </c>
+      <c r="D190">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45945.89583333334</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>34.908</v>
+      </c>
+      <c r="D191">
+        <v>87</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45945.90625</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>19.364</v>
+      </c>
+      <c r="D192">
+        <v>88</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45945.91666666666</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>28.811</v>
+      </c>
+      <c r="D193">
+        <v>89</v>
+      </c>
+      <c r="E193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45945.92708333334</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>30.333</v>
+      </c>
+      <c r="D194">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45945.9375</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>14.379</v>
+      </c>
+      <c r="D195">
+        <v>91</v>
+      </c>
+      <c r="E195" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45945.94791666666</v>
+      </c>
+      <c r="B196">
+        <v>0.003</v>
+      </c>
+      <c r="C196">
+        <v>8.821999999999999</v>
+      </c>
+      <c r="D196">
+        <v>92</v>
+      </c>
+      <c r="E196" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45945.95833333334</v>
+      </c>
+      <c r="B197">
+        <v>3.196</v>
+      </c>
+      <c r="C197">
+        <v>1.594</v>
+      </c>
+      <c r="D197">
+        <v>93</v>
+      </c>
+      <c r="E197" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45945.96875</v>
+      </c>
+      <c r="B198">
+        <v>11.949</v>
+      </c>
+      <c r="C198">
+        <v>0.89</v>
+      </c>
+      <c r="D198">
+        <v>94</v>
+      </c>
+      <c r="E198" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45945.96875</v>
+      </c>
+      <c r="B199">
+        <v>11.949</v>
+      </c>
+      <c r="C199">
+        <v>0.89</v>
+      </c>
+      <c r="D199">
+        <v>94</v>
+      </c>
+      <c r="E199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45945.97916666666</v>
+      </c>
+      <c r="B200">
+        <v>5.509</v>
+      </c>
+      <c r="C200">
+        <v>0.006</v>
+      </c>
+      <c r="D200">
+        <v>95</v>
+      </c>
+      <c r="E200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45945.97916666666</v>
+      </c>
+      <c r="B201">
+        <v>5.509</v>
+      </c>
+      <c r="C201">
+        <v>0.006</v>
+      </c>
+      <c r="D201">
+        <v>95</v>
+      </c>
+      <c r="E201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45945.98958333334</v>
+      </c>
+      <c r="B202">
+        <v>6.259</v>
+      </c>
+      <c r="C202">
+        <v>0.861</v>
+      </c>
+      <c r="D202">
+        <v>96</v>
+      </c>
+      <c r="E202" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45945.98958333334</v>
+      </c>
+      <c r="B203">
+        <v>6.259</v>
+      </c>
+      <c r="C203">
+        <v>0.861</v>
+      </c>
+      <c r="D203">
+        <v>96</v>
+      </c>
+      <c r="E203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B204">
+        <v>25.393</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B205">
+        <v>25.393</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B206">
+        <v>14.787</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45946.01041666666</v>
+      </c>
+      <c r="B207">
+        <v>14.787</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B208">
+        <v>30.835</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45946.02083333334</v>
+      </c>
+      <c r="B209">
+        <v>30.835</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B210">
+        <v>25.214</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45946.03125</v>
+      </c>
+      <c r="B211">
+        <v>25.214</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45946.04166666666</v>
+      </c>
+      <c r="B212">
+        <v>35.583</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45946.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>19.092</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45946.0625</v>
+      </c>
+      <c r="B214">
+        <v>15.876</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45946.07291666666</v>
+      </c>
+      <c r="B215">
+        <v>7.788</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45946.08333333334</v>
+      </c>
+      <c r="B216">
+        <v>2.596</v>
+      </c>
+      <c r="C216">
+        <v>0.001</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45946.09375</v>
+      </c>
+      <c r="B217">
+        <v>7.002</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45946.10416666666</v>
+      </c>
+      <c r="B218">
+        <v>9.906000000000001</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45946.11458333334</v>
+      </c>
+      <c r="B219">
+        <v>10.158</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45946.125</v>
+      </c>
+      <c r="B220">
+        <v>6.627</v>
+      </c>
+      <c r="C220">
+        <v>0.008</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45946.13541666666</v>
+      </c>
+      <c r="B221">
+        <v>16.305</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45946.14583333334</v>
+      </c>
+      <c r="B222">
+        <v>19.06</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45946.15625</v>
+      </c>
+      <c r="B223">
+        <v>25.811</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45946.16666666666</v>
+      </c>
+      <c r="B224">
+        <v>6.711</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45946.17708333334</v>
+      </c>
+      <c r="B225">
+        <v>23.646</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45946.1875</v>
+      </c>
+      <c r="B226">
+        <v>20.109</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45946.19791666666</v>
+      </c>
+      <c r="B227">
+        <v>16.4</v>
+      </c>
+      <c r="C227">
+        <v>0.075</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45946.20833333334</v>
+      </c>
+      <c r="B228">
+        <v>2.242</v>
+      </c>
+      <c r="C228">
+        <v>0.422</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45946.21875</v>
+      </c>
+      <c r="B229">
+        <v>7.629</v>
+      </c>
+      <c r="C229">
+        <v>0.289</v>
+      </c>
+      <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45946.22916666666</v>
+      </c>
+      <c r="B230">
+        <v>3.64</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45946.23958333334</v>
+      </c>
+      <c r="B231">
+        <v>15.13</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45946.25</v>
+      </c>
+      <c r="B232">
+        <v>9.586</v>
+      </c>
+      <c r="C232">
+        <v>0.018</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45946.26041666666</v>
+      </c>
+      <c r="B233">
+        <v>8.657</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45946.27083333334</v>
+      </c>
+      <c r="B234">
+        <v>19.68</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45946.28125</v>
+      </c>
+      <c r="B235">
+        <v>11.485</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45946.29166666666</v>
+      </c>
+      <c r="B236">
+        <v>24.355</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45946.30208333334</v>
+      </c>
+      <c r="B237">
+        <v>11.614</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45946.3125</v>
+      </c>
+      <c r="B238">
+        <v>13.652</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>31</v>
+      </c>
+      <c r="E238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45946.32291666666</v>
+      </c>
+      <c r="B239">
+        <v>7.59</v>
+      </c>
+      <c r="C239">
+        <v>3.015</v>
+      </c>
+      <c r="D239">
+        <v>32</v>
+      </c>
+      <c r="E239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45946.33333333334</v>
+      </c>
+      <c r="B240">
+        <v>25.732</v>
+      </c>
+      <c r="C240">
+        <v>0.224</v>
+      </c>
+      <c r="D240">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45946.34375</v>
+      </c>
+      <c r="B241">
+        <v>6.446</v>
+      </c>
+      <c r="C241">
+        <v>0.984</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45946.35416666666</v>
+      </c>
+      <c r="B242">
+        <v>3.582</v>
+      </c>
+      <c r="C242">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="D242">
+        <v>35</v>
+      </c>
+      <c r="E242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45946.36458333334</v>
+      </c>
+      <c r="B243">
+        <v>5.215</v>
+      </c>
+      <c r="C243">
+        <v>0.462</v>
+      </c>
+      <c r="D243">
+        <v>36</v>
+      </c>
+      <c r="E243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45946.375</v>
+      </c>
+      <c r="B244">
+        <v>27.662</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45946.38541666666</v>
+      </c>
+      <c r="B245">
+        <v>32.171</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45946.39583333334</v>
+      </c>
+      <c r="B246">
+        <v>19.721</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>39</v>
+      </c>
+      <c r="E246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45946.40625</v>
+      </c>
+      <c r="B247">
+        <v>7.933</v>
+      </c>
+      <c r="C247">
+        <v>2.984</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45946.41666666666</v>
+      </c>
+      <c r="B248">
+        <v>23.151</v>
+      </c>
+      <c r="C248">
+        <v>1.022</v>
+      </c>
+      <c r="D248">
+        <v>41</v>
+      </c>
+      <c r="E248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45946.42708333334</v>
+      </c>
+      <c r="B249">
+        <v>4.242</v>
+      </c>
+      <c r="C249">
+        <v>0.464</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,385 +31,382 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.10.20251</t>
-  </si>
-  <si>
-    <t>23.10.20252</t>
-  </si>
-  <si>
-    <t>23.10.20253</t>
-  </si>
-  <si>
-    <t>23.10.20254</t>
-  </si>
-  <si>
-    <t>23.10.20255</t>
-  </si>
-  <si>
-    <t>23.10.20256</t>
-  </si>
-  <si>
-    <t>23.10.20257</t>
-  </si>
-  <si>
-    <t>23.10.20258</t>
-  </si>
-  <si>
-    <t>23.10.20259</t>
-  </si>
-  <si>
-    <t>23.10.202510</t>
-  </si>
-  <si>
-    <t>23.10.202511</t>
-  </si>
-  <si>
-    <t>23.10.202512</t>
-  </si>
-  <si>
-    <t>23.10.202513</t>
-  </si>
-  <si>
-    <t>23.10.202514</t>
-  </si>
-  <si>
-    <t>23.10.202515</t>
-  </si>
-  <si>
-    <t>23.10.202516</t>
-  </si>
-  <si>
-    <t>23.10.202517</t>
-  </si>
-  <si>
-    <t>23.10.202518</t>
-  </si>
-  <si>
-    <t>23.10.202519</t>
-  </si>
-  <si>
-    <t>23.10.202520</t>
-  </si>
-  <si>
-    <t>23.10.202521</t>
-  </si>
-  <si>
-    <t>23.10.202522</t>
-  </si>
-  <si>
-    <t>23.10.202523</t>
-  </si>
-  <si>
-    <t>23.10.202524</t>
-  </si>
-  <si>
-    <t>23.10.202525</t>
-  </si>
-  <si>
-    <t>23.10.202526</t>
-  </si>
-  <si>
-    <t>23.10.202527</t>
-  </si>
-  <si>
-    <t>23.10.202528</t>
-  </si>
-  <si>
-    <t>23.10.202529</t>
-  </si>
-  <si>
-    <t>23.10.202530</t>
-  </si>
-  <si>
-    <t>23.10.202531</t>
-  </si>
-  <si>
-    <t>23.10.202532</t>
-  </si>
-  <si>
-    <t>23.10.202533</t>
-  </si>
-  <si>
-    <t>23.10.202534</t>
-  </si>
-  <si>
-    <t>23.10.202535</t>
-  </si>
-  <si>
-    <t>23.10.202536</t>
-  </si>
-  <si>
-    <t>23.10.202537</t>
-  </si>
-  <si>
-    <t>23.10.202538</t>
-  </si>
-  <si>
-    <t>23.10.202539</t>
-  </si>
-  <si>
-    <t>23.10.202540</t>
-  </si>
-  <si>
-    <t>23.10.202541</t>
-  </si>
-  <si>
-    <t>23.10.202542</t>
-  </si>
-  <si>
-    <t>23.10.202543</t>
-  </si>
-  <si>
-    <t>23.10.202544</t>
-  </si>
-  <si>
-    <t>23.10.202545</t>
-  </si>
-  <si>
-    <t>23.10.202546</t>
-  </si>
-  <si>
-    <t>23.10.202547</t>
-  </si>
-  <si>
-    <t>23.10.202548</t>
-  </si>
-  <si>
-    <t>23.10.202549</t>
-  </si>
-  <si>
-    <t>23.10.202550</t>
-  </si>
-  <si>
-    <t>23.10.202551</t>
-  </si>
-  <si>
-    <t>23.10.202552</t>
-  </si>
-  <si>
-    <t>23.10.202553</t>
-  </si>
-  <si>
-    <t>23.10.202554</t>
-  </si>
-  <si>
-    <t>23.10.202555</t>
-  </si>
-  <si>
-    <t>23.10.202556</t>
-  </si>
-  <si>
-    <t>23.10.202557</t>
-  </si>
-  <si>
-    <t>23.10.202558</t>
-  </si>
-  <si>
-    <t>23.10.202559</t>
-  </si>
-  <si>
-    <t>23.10.202560</t>
-  </si>
-  <si>
-    <t>23.10.202561</t>
-  </si>
-  <si>
-    <t>23.10.202562</t>
-  </si>
-  <si>
-    <t>23.10.202563</t>
-  </si>
-  <si>
-    <t>23.10.202564</t>
-  </si>
-  <si>
-    <t>23.10.202565</t>
-  </si>
-  <si>
-    <t>23.10.202566</t>
-  </si>
-  <si>
-    <t>23.10.202567</t>
-  </si>
-  <si>
-    <t>23.10.202568</t>
-  </si>
-  <si>
-    <t>23.10.202569</t>
-  </si>
-  <si>
-    <t>23.10.202570</t>
-  </si>
-  <si>
-    <t>23.10.202571</t>
-  </si>
-  <si>
-    <t>23.10.202572</t>
-  </si>
-  <si>
-    <t>23.10.202573</t>
-  </si>
-  <si>
-    <t>23.10.202574</t>
-  </si>
-  <si>
-    <t>23.10.202575</t>
-  </si>
-  <si>
-    <t>23.10.202576</t>
-  </si>
-  <si>
-    <t>23.10.202577</t>
-  </si>
-  <si>
-    <t>23.10.202578</t>
-  </si>
-  <si>
-    <t>23.10.202579</t>
-  </si>
-  <si>
-    <t>23.10.202580</t>
-  </si>
-  <si>
-    <t>23.10.202581</t>
-  </si>
-  <si>
-    <t>23.10.202582</t>
-  </si>
-  <si>
-    <t>23.10.202583</t>
-  </si>
-  <si>
-    <t>23.10.202584</t>
-  </si>
-  <si>
-    <t>23.10.202585</t>
-  </si>
-  <si>
-    <t>23.10.202586</t>
-  </si>
-  <si>
-    <t>23.10.202587</t>
-  </si>
-  <si>
-    <t>23.10.202588</t>
-  </si>
-  <si>
-    <t>23.10.202589</t>
-  </si>
-  <si>
-    <t>23.10.202590</t>
-  </si>
-  <si>
-    <t>23.10.202591</t>
-  </si>
-  <si>
-    <t>23.10.202592</t>
-  </si>
-  <si>
-    <t>23.10.202593</t>
-  </si>
-  <si>
-    <t>23.10.202594</t>
-  </si>
-  <si>
-    <t>23.10.202595</t>
-  </si>
-  <si>
-    <t>23.10.202596</t>
-  </si>
-  <si>
-    <t>24.10.20251</t>
-  </si>
-  <si>
-    <t>24.10.20252</t>
-  </si>
-  <si>
-    <t>24.10.20253</t>
-  </si>
-  <si>
-    <t>24.10.20254</t>
-  </si>
-  <si>
-    <t>24.10.20255</t>
-  </si>
-  <si>
-    <t>24.10.20256</t>
-  </si>
-  <si>
-    <t>24.10.20257</t>
-  </si>
-  <si>
-    <t>24.10.20258</t>
-  </si>
-  <si>
-    <t>24.10.20259</t>
-  </si>
-  <si>
-    <t>24.10.202510</t>
-  </si>
-  <si>
-    <t>24.10.202511</t>
-  </si>
-  <si>
-    <t>24.10.202512</t>
-  </si>
-  <si>
-    <t>24.10.202513</t>
-  </si>
-  <si>
-    <t>24.10.202514</t>
-  </si>
-  <si>
-    <t>24.10.202515</t>
-  </si>
-  <si>
-    <t>24.10.202516</t>
-  </si>
-  <si>
-    <t>24.10.202517</t>
-  </si>
-  <si>
-    <t>24.10.202518</t>
-  </si>
-  <si>
-    <t>24.10.202519</t>
-  </si>
-  <si>
-    <t>24.10.202520</t>
-  </si>
-  <si>
-    <t>24.10.202521</t>
-  </si>
-  <si>
-    <t>24.10.202522</t>
-  </si>
-  <si>
-    <t>24.10.202523</t>
-  </si>
-  <si>
-    <t>24.10.202524</t>
-  </si>
-  <si>
-    <t>24.10.202525</t>
-  </si>
-  <si>
-    <t>24.10.202526</t>
-  </si>
-  <si>
-    <t>24.10.202527</t>
-  </si>
-  <si>
-    <t>24.10.202528</t>
-  </si>
-  <si>
-    <t>24.10.202529</t>
-  </si>
-  <si>
-    <t>24.10.202530</t>
-  </si>
-  <si>
-    <t>24.10.202531</t>
+    <t>07.11.20251</t>
+  </si>
+  <si>
+    <t>07.11.20252</t>
+  </si>
+  <si>
+    <t>07.11.20253</t>
+  </si>
+  <si>
+    <t>07.11.20254</t>
+  </si>
+  <si>
+    <t>07.11.20255</t>
+  </si>
+  <si>
+    <t>07.11.20256</t>
+  </si>
+  <si>
+    <t>07.11.20257</t>
+  </si>
+  <si>
+    <t>07.11.20258</t>
+  </si>
+  <si>
+    <t>07.11.20259</t>
+  </si>
+  <si>
+    <t>07.11.202510</t>
+  </si>
+  <si>
+    <t>07.11.202511</t>
+  </si>
+  <si>
+    <t>07.11.202512</t>
+  </si>
+  <si>
+    <t>07.11.202513</t>
+  </si>
+  <si>
+    <t>07.11.202514</t>
+  </si>
+  <si>
+    <t>07.11.202515</t>
+  </si>
+  <si>
+    <t>07.11.202516</t>
+  </si>
+  <si>
+    <t>07.11.202517</t>
+  </si>
+  <si>
+    <t>07.11.202518</t>
+  </si>
+  <si>
+    <t>07.11.202519</t>
+  </si>
+  <si>
+    <t>07.11.202520</t>
+  </si>
+  <si>
+    <t>07.11.202521</t>
+  </si>
+  <si>
+    <t>07.11.202522</t>
+  </si>
+  <si>
+    <t>07.11.202523</t>
+  </si>
+  <si>
+    <t>07.11.202524</t>
+  </si>
+  <si>
+    <t>07.11.202525</t>
+  </si>
+  <si>
+    <t>07.11.202526</t>
+  </si>
+  <si>
+    <t>07.11.202527</t>
+  </si>
+  <si>
+    <t>07.11.202528</t>
+  </si>
+  <si>
+    <t>07.11.202529</t>
+  </si>
+  <si>
+    <t>07.11.202530</t>
+  </si>
+  <si>
+    <t>07.11.202531</t>
+  </si>
+  <si>
+    <t>07.11.202532</t>
+  </si>
+  <si>
+    <t>07.11.202533</t>
+  </si>
+  <si>
+    <t>07.11.202534</t>
+  </si>
+  <si>
+    <t>07.11.202535</t>
+  </si>
+  <si>
+    <t>07.11.202536</t>
+  </si>
+  <si>
+    <t>07.11.202537</t>
+  </si>
+  <si>
+    <t>07.11.202538</t>
+  </si>
+  <si>
+    <t>07.11.202539</t>
+  </si>
+  <si>
+    <t>07.11.202540</t>
+  </si>
+  <si>
+    <t>07.11.202541</t>
+  </si>
+  <si>
+    <t>07.11.202542</t>
+  </si>
+  <si>
+    <t>07.11.202543</t>
+  </si>
+  <si>
+    <t>07.11.202544</t>
+  </si>
+  <si>
+    <t>07.11.202545</t>
+  </si>
+  <si>
+    <t>07.11.202546</t>
+  </si>
+  <si>
+    <t>07.11.202547</t>
+  </si>
+  <si>
+    <t>07.11.202548</t>
+  </si>
+  <si>
+    <t>07.11.202549</t>
+  </si>
+  <si>
+    <t>07.11.202550</t>
+  </si>
+  <si>
+    <t>07.11.202551</t>
+  </si>
+  <si>
+    <t>07.11.202552</t>
+  </si>
+  <si>
+    <t>07.11.202553</t>
+  </si>
+  <si>
+    <t>07.11.202554</t>
+  </si>
+  <si>
+    <t>07.11.202555</t>
+  </si>
+  <si>
+    <t>07.11.202556</t>
+  </si>
+  <si>
+    <t>07.11.202557</t>
+  </si>
+  <si>
+    <t>07.11.202558</t>
+  </si>
+  <si>
+    <t>07.11.202559</t>
+  </si>
+  <si>
+    <t>07.11.202560</t>
+  </si>
+  <si>
+    <t>07.11.202561</t>
+  </si>
+  <si>
+    <t>07.11.202562</t>
+  </si>
+  <si>
+    <t>07.11.202563</t>
+  </si>
+  <si>
+    <t>07.11.202564</t>
+  </si>
+  <si>
+    <t>07.11.202565</t>
+  </si>
+  <si>
+    <t>07.11.202566</t>
+  </si>
+  <si>
+    <t>07.11.202567</t>
+  </si>
+  <si>
+    <t>07.11.202568</t>
+  </si>
+  <si>
+    <t>07.11.202569</t>
+  </si>
+  <si>
+    <t>07.11.202570</t>
+  </si>
+  <si>
+    <t>07.11.202571</t>
+  </si>
+  <si>
+    <t>07.11.202572</t>
+  </si>
+  <si>
+    <t>07.11.202573</t>
+  </si>
+  <si>
+    <t>07.11.202574</t>
+  </si>
+  <si>
+    <t>07.11.202575</t>
+  </si>
+  <si>
+    <t>07.11.202576</t>
+  </si>
+  <si>
+    <t>07.11.202577</t>
+  </si>
+  <si>
+    <t>07.11.202578</t>
+  </si>
+  <si>
+    <t>07.11.202579</t>
+  </si>
+  <si>
+    <t>07.11.202580</t>
+  </si>
+  <si>
+    <t>07.11.202581</t>
+  </si>
+  <si>
+    <t>07.11.202582</t>
+  </si>
+  <si>
+    <t>07.11.202583</t>
+  </si>
+  <si>
+    <t>07.11.202584</t>
+  </si>
+  <si>
+    <t>07.11.202585</t>
+  </si>
+  <si>
+    <t>07.11.202586</t>
+  </si>
+  <si>
+    <t>07.11.202587</t>
+  </si>
+  <si>
+    <t>07.11.202588</t>
+  </si>
+  <si>
+    <t>07.11.202589</t>
+  </si>
+  <si>
+    <t>07.11.202590</t>
+  </si>
+  <si>
+    <t>07.11.202591</t>
+  </si>
+  <si>
+    <t>07.11.202592</t>
+  </si>
+  <si>
+    <t>07.11.202593</t>
+  </si>
+  <si>
+    <t>07.11.202594</t>
+  </si>
+  <si>
+    <t>07.11.202595</t>
+  </si>
+  <si>
+    <t>07.11.202596</t>
+  </si>
+  <si>
+    <t>08.11.20251</t>
+  </si>
+  <si>
+    <t>08.11.20252</t>
+  </si>
+  <si>
+    <t>08.11.20253</t>
+  </si>
+  <si>
+    <t>08.11.20254</t>
+  </si>
+  <si>
+    <t>08.11.20255</t>
+  </si>
+  <si>
+    <t>08.11.20256</t>
+  </si>
+  <si>
+    <t>08.11.20257</t>
+  </si>
+  <si>
+    <t>08.11.20258</t>
+  </si>
+  <si>
+    <t>08.11.20259</t>
+  </si>
+  <si>
+    <t>08.11.202510</t>
+  </si>
+  <si>
+    <t>08.11.202511</t>
+  </si>
+  <si>
+    <t>08.11.202512</t>
+  </si>
+  <si>
+    <t>08.11.202513</t>
+  </si>
+  <si>
+    <t>08.11.202514</t>
+  </si>
+  <si>
+    <t>08.11.202515</t>
+  </si>
+  <si>
+    <t>08.11.202516</t>
+  </si>
+  <si>
+    <t>08.11.202517</t>
+  </si>
+  <si>
+    <t>08.11.202518</t>
+  </si>
+  <si>
+    <t>08.11.202519</t>
+  </si>
+  <si>
+    <t>08.11.202520</t>
+  </si>
+  <si>
+    <t>08.11.202521</t>
+  </si>
+  <si>
+    <t>08.11.202522</t>
+  </si>
+  <si>
+    <t>08.11.202523</t>
+  </si>
+  <si>
+    <t>08.11.202524</t>
+  </si>
+  <si>
+    <t>08.11.202525</t>
+  </si>
+  <si>
+    <t>08.11.202526</t>
+  </si>
+  <si>
+    <t>08.11.202527</t>
+  </si>
+  <si>
+    <t>08.11.202528</t>
+  </si>
+  <si>
+    <t>08.11.202529</t>
+  </si>
+  <si>
+    <t>08.11.202530</t>
   </si>
 </sst>
 </file>
@@ -771,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,13 +793,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45953</v>
+        <v>45968</v>
       </c>
       <c r="B2">
-        <v>16.815</v>
+        <v>1.168</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>12.721</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -813,13 +810,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45953.01041666666</v>
+        <v>45968.01041666666</v>
       </c>
       <c r="B3">
-        <v>20.219</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.538</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -830,13 +827,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45953.02083333334</v>
+        <v>45968.02083333334</v>
       </c>
       <c r="B4">
-        <v>19.052</v>
+        <v>2.182</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -847,13 +844,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45953.03125</v>
+        <v>45968.03125</v>
       </c>
       <c r="B5">
-        <v>13.493</v>
+        <v>13.849</v>
       </c>
       <c r="C5">
-        <v>0.265</v>
+        <v>0.068</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -864,13 +861,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45953.04166666666</v>
+        <v>45968.04166666666</v>
       </c>
       <c r="B6">
-        <v>10.337</v>
+        <v>1.41</v>
       </c>
       <c r="C6">
-        <v>0.04</v>
+        <v>2.485</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -881,13 +878,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45953.05208333334</v>
+        <v>45968.05208333334</v>
       </c>
       <c r="B7">
-        <v>1.998</v>
+        <v>26.608</v>
       </c>
       <c r="C7">
-        <v>1.359</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -898,10 +895,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45953.0625</v>
+        <v>45968.0625</v>
       </c>
       <c r="B8">
-        <v>6.818</v>
+        <v>46.613</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -915,13 +912,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45953.07291666666</v>
+        <v>45968.07291666666</v>
       </c>
       <c r="B9">
-        <v>5.006</v>
+        <v>73.18300000000001</v>
       </c>
       <c r="C9">
-        <v>0.695</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -932,13 +929,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45953.08333333334</v>
+        <v>45968.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.006</v>
+        <v>37.603</v>
       </c>
       <c r="C10">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -949,13 +946,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45953.09375</v>
+        <v>45968.09375</v>
       </c>
       <c r="B11">
-        <v>10.672</v>
+        <v>51.098</v>
       </c>
       <c r="C11">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -966,13 +963,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45953.10416666666</v>
+        <v>45968.10416666666</v>
       </c>
       <c r="B12">
-        <v>13.106</v>
+        <v>17.131</v>
       </c>
       <c r="C12">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -983,10 +980,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45953.11458333334</v>
+        <v>45968.11458333334</v>
       </c>
       <c r="B13">
-        <v>11.293</v>
+        <v>16.001</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1000,10 +997,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45953.125</v>
+        <v>45968.125</v>
       </c>
       <c r="B14">
-        <v>6.226</v>
+        <v>7.399</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1017,10 +1014,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45953.13541666666</v>
+        <v>45968.13541666666</v>
       </c>
       <c r="B15">
-        <v>15.226</v>
+        <v>16.366</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1034,10 +1031,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45953.14583333334</v>
+        <v>45968.14583333334</v>
       </c>
       <c r="B16">
-        <v>24.727</v>
+        <v>36.113</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1051,10 +1048,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45953.15625</v>
+        <v>45968.15625</v>
       </c>
       <c r="B17">
-        <v>17.047</v>
+        <v>13.395</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1068,13 +1065,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45953.16666666666</v>
+        <v>45968.16666666666</v>
       </c>
       <c r="B18">
-        <v>19.383</v>
+        <v>7.234</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.435</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1085,13 +1082,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45953.17708333334</v>
+        <v>45968.17708333334</v>
       </c>
       <c r="B19">
-        <v>29.228</v>
+        <v>2.954</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4.364</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1102,13 +1099,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45953.1875</v>
+        <v>45968.1875</v>
       </c>
       <c r="B20">
-        <v>11.641</v>
+        <v>16.867</v>
       </c>
       <c r="C20">
-        <v>0.006</v>
+        <v>1.295</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1119,13 +1116,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45953.19791666666</v>
+        <v>45968.19791666666</v>
       </c>
       <c r="B21">
-        <v>2.017</v>
+        <v>0.037</v>
       </c>
       <c r="C21">
-        <v>3.833</v>
+        <v>2.474</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1136,13 +1133,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45953.20833333334</v>
+        <v>45968.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>17.446</v>
+        <v>24.46</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1153,13 +1150,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45953.21875</v>
+        <v>45968.21875</v>
       </c>
       <c r="B23">
-        <v>0.291</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.641</v>
+        <v>10.856</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1170,13 +1167,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45953.22916666666</v>
+        <v>45968.22916666666</v>
       </c>
       <c r="B24">
-        <v>1.904</v>
+        <v>0.004</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1187,13 +1184,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45953.23958333334</v>
+        <v>45968.23958333334</v>
       </c>
       <c r="B25">
-        <v>4.877</v>
+        <v>2.556</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1.044</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1204,13 +1201,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45953.25</v>
+        <v>45968.25</v>
       </c>
       <c r="B26">
-        <v>2.718</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.702</v>
+        <v>21.516</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1221,13 +1218,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45953.26041666666</v>
+        <v>45968.26041666666</v>
       </c>
       <c r="B27">
-        <v>7.673</v>
+        <v>0.146</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>14.033</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45953.27083333334</v>
+        <v>45968.27083333334</v>
       </c>
       <c r="B28">
-        <v>11.775</v>
+        <v>4.128</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1255,10 +1252,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45953.28125</v>
+        <v>45968.28125</v>
       </c>
       <c r="B29">
-        <v>4.73</v>
+        <v>4.832</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1272,13 +1269,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45953.29166666666</v>
+        <v>45968.29166666666</v>
       </c>
       <c r="B30">
-        <v>13.278</v>
+        <v>1.047</v>
       </c>
       <c r="C30">
-        <v>0.06900000000000001</v>
+        <v>3.713</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1289,13 +1286,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45953.30208333334</v>
+        <v>45968.30208333334</v>
       </c>
       <c r="B31">
-        <v>17.29</v>
+        <v>0.08</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1306,13 +1303,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45953.3125</v>
+        <v>45968.3125</v>
       </c>
       <c r="B32">
-        <v>12.009</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2.912</v>
+        <v>14.872</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1323,13 +1320,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45953.32291666666</v>
+        <v>45968.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.6830000000000001</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>7.56</v>
+        <v>16.255</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1340,13 +1337,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45953.33333333334</v>
+        <v>45968.33333333334</v>
       </c>
       <c r="B34">
-        <v>17.16</v>
+        <v>0.041</v>
       </c>
       <c r="C34">
-        <v>0.823</v>
+        <v>25.645</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1357,13 +1354,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45953.34375</v>
+        <v>45968.34375</v>
       </c>
       <c r="B35">
-        <v>16.71</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>22.81</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1374,13 +1371,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45953.35416666666</v>
+        <v>45968.35416666666</v>
       </c>
       <c r="B36">
-        <v>20.049</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4.777</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1391,13 +1388,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45953.36458333334</v>
+        <v>45968.36458333334</v>
       </c>
       <c r="B37">
-        <v>25.469</v>
+        <v>0.257</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2.783</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1408,13 +1405,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45953.375</v>
+        <v>45968.375</v>
       </c>
       <c r="B38">
-        <v>48.882</v>
+        <v>4.134</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1425,13 +1422,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45953.38541666666</v>
+        <v>45968.38541666666</v>
       </c>
       <c r="B39">
-        <v>5.383</v>
+        <v>8.624000000000001</v>
       </c>
       <c r="C39">
-        <v>2.975</v>
+        <v>0.006</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1442,13 +1439,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45953.39583333334</v>
+        <v>45968.39583333334</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2.018</v>
       </c>
       <c r="C40">
-        <v>19.077</v>
+        <v>7.436</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1459,13 +1456,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45953.40625</v>
+        <v>45968.40625</v>
       </c>
       <c r="B41">
-        <v>4.097</v>
+        <v>0.024</v>
       </c>
       <c r="C41">
-        <v>5.078</v>
+        <v>2.635</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1476,13 +1473,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45953.41666666666</v>
+        <v>45968.41666666666</v>
       </c>
       <c r="B42">
-        <v>13.432</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="C42">
-        <v>0.116</v>
+        <v>10.205</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1493,13 +1490,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45953.42708333334</v>
+        <v>45968.42708333334</v>
       </c>
       <c r="B43">
-        <v>20.702</v>
+        <v>0.023</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>10.848</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1510,13 +1507,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45953.4375</v>
+        <v>45968.4375</v>
       </c>
       <c r="B44">
-        <v>4.636</v>
+        <v>0.529</v>
       </c>
       <c r="C44">
-        <v>0.317</v>
+        <v>1.441</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45953.44791666666</v>
+        <v>45968.44791666666</v>
       </c>
       <c r="B45">
-        <v>13.803</v>
+        <v>0.034</v>
       </c>
       <c r="C45">
-        <v>0.181</v>
+        <v>11.063</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1544,13 +1541,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45953.45833333334</v>
+        <v>45968.45833333334</v>
       </c>
       <c r="B46">
-        <v>7.884</v>
+        <v>11.875</v>
       </c>
       <c r="C46">
-        <v>0.063</v>
+        <v>0.553</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1561,13 +1558,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45953.46875</v>
+        <v>45968.46875</v>
       </c>
       <c r="B47">
-        <v>3.127</v>
+        <v>25.105</v>
       </c>
       <c r="C47">
-        <v>2.685</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1578,13 +1575,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45953.47916666666</v>
+        <v>45968.47916666666</v>
       </c>
       <c r="B48">
-        <v>3.794</v>
+        <v>11.266</v>
       </c>
       <c r="C48">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1595,13 +1592,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45953.48958333334</v>
+        <v>45968.48958333334</v>
       </c>
       <c r="B49">
-        <v>0.495</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="C49">
-        <v>3.941</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1612,13 +1609,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45953.5</v>
+        <v>45968.5</v>
       </c>
       <c r="B50">
-        <v>0.18</v>
+        <v>13.874</v>
       </c>
       <c r="C50">
-        <v>21.281</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1629,13 +1626,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45953.51041666666</v>
+        <v>45968.51041666666</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>7.772</v>
       </c>
       <c r="C51">
-        <v>9.305999999999999</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1646,13 +1643,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45953.52083333334</v>
+        <v>45968.52083333334</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1.515</v>
       </c>
       <c r="C52">
-        <v>3.087</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1663,13 +1660,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45953.53125</v>
+        <v>45968.53125</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>8.683</v>
       </c>
       <c r="C53">
-        <v>1.73</v>
+        <v>0.037</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1680,13 +1677,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45953.54166666666</v>
+        <v>45968.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="C54">
-        <v>15.133</v>
+        <v>36.466</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1697,13 +1694,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45953.55208333334</v>
+        <v>45968.55208333334</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>39.044</v>
+        <v>38.852</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1714,13 +1711,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45953.5625</v>
+        <v>45968.5625</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>31.38</v>
+        <v>32.224</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1731,13 +1728,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45953.57291666666</v>
+        <v>45968.57291666666</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>14.491</v>
+        <v>27.172</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1748,13 +1745,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45953.58333333334</v>
+        <v>45968.58333333334</v>
       </c>
       <c r="B58">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1.417</v>
+        <v>55.235</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1765,13 +1762,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45953.59375</v>
+        <v>45968.59375</v>
       </c>
       <c r="B59">
-        <v>3.598</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.776</v>
+        <v>46.299</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1782,13 +1779,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45953.60416666666</v>
+        <v>45968.60416666666</v>
       </c>
       <c r="B60">
-        <v>0.334</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>10.041</v>
+        <v>22.043</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1799,13 +1796,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45953.61458333334</v>
+        <v>45968.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C61">
-        <v>9.682</v>
+        <v>7.356</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1816,13 +1813,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45953.625</v>
+        <v>45968.625</v>
       </c>
       <c r="B62">
-        <v>1.633</v>
+        <v>0.046</v>
       </c>
       <c r="C62">
-        <v>8.417</v>
+        <v>12.212</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1833,13 +1830,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45953.63541666666</v>
+        <v>45968.63541666666</v>
       </c>
       <c r="B63">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.038</v>
+        <v>25.145</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1850,13 +1847,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45953.64583333334</v>
+        <v>45968.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.424</v>
+        <v>0.074</v>
       </c>
       <c r="C64">
-        <v>5.208</v>
+        <v>4.667</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1867,13 +1864,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45953.65625</v>
+        <v>45968.65625</v>
       </c>
       <c r="B65">
-        <v>1.477</v>
+        <v>0.404</v>
       </c>
       <c r="C65">
-        <v>3.921</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1884,13 +1881,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45953.66666666666</v>
+        <v>45968.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="C66">
-        <v>22.65</v>
+        <v>6.912</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1901,13 +1898,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45953.67708333334</v>
+        <v>45968.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.369</v>
+        <v>0.518</v>
       </c>
       <c r="C67">
-        <v>2.292</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1918,13 +1915,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45953.6875</v>
+        <v>45968.6875</v>
       </c>
       <c r="B68">
-        <v>1.95</v>
+        <v>0.02</v>
       </c>
       <c r="C68">
-        <v>2.638</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1935,13 +1932,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45953.69791666666</v>
+        <v>45968.69791666666</v>
       </c>
       <c r="B69">
-        <v>1.602</v>
+        <v>0.272</v>
       </c>
       <c r="C69">
-        <v>4.807</v>
+        <v>8.68</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1952,13 +1949,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45953.70833333334</v>
+        <v>45968.70833333334</v>
       </c>
       <c r="B70">
-        <v>8.352</v>
+        <v>0.139</v>
       </c>
       <c r="C70">
-        <v>1.384</v>
+        <v>6.2</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1969,13 +1966,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45953.71875</v>
+        <v>45968.71875</v>
       </c>
       <c r="B71">
-        <v>0.161</v>
+        <v>0.027</v>
       </c>
       <c r="C71">
-        <v>4.722</v>
+        <v>7.431</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1986,13 +1983,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45953.72916666666</v>
+        <v>45968.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C72">
-        <v>13.82</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2003,13 +2000,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45953.73958333334</v>
+        <v>45968.73958333334</v>
       </c>
       <c r="B73">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>8.711</v>
+        <v>26.926</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2020,13 +2017,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45953.75</v>
+        <v>45968.75</v>
       </c>
       <c r="B74">
-        <v>1.172</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.739</v>
+        <v>60.712</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45953.76041666666</v>
+        <v>45968.76041666666</v>
       </c>
       <c r="B75">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>3.683</v>
+        <v>52.843</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2054,13 +2051,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45953.77083333334</v>
+        <v>45968.77083333334</v>
       </c>
       <c r="B76">
-        <v>3.055</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.235</v>
+        <v>44.829</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2071,13 +2068,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45953.78125</v>
+        <v>45968.78125</v>
       </c>
       <c r="B77">
-        <v>2.979</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>2.802</v>
+        <v>33.782</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2088,13 +2085,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45953.79166666666</v>
+        <v>45968.79166666666</v>
       </c>
       <c r="B78">
-        <v>1.125</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>2.807</v>
+        <v>35.51</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2105,13 +2102,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45953.80208333334</v>
+        <v>45968.80208333334</v>
       </c>
       <c r="B79">
-        <v>4.135</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>31.178</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2122,13 +2119,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45953.8125</v>
+        <v>45968.8125</v>
       </c>
       <c r="B80">
-        <v>7.768</v>
+        <v>0.066</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>7.114</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2139,13 +2136,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45953.82291666666</v>
+        <v>45968.82291666666</v>
       </c>
       <c r="B81">
-        <v>10.842</v>
+        <v>5.977</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2156,10 +2153,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45953.83333333334</v>
+        <v>45968.83333333334</v>
       </c>
       <c r="B82">
-        <v>13.73</v>
+        <v>19.774</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2173,10 +2170,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45953.84375</v>
+        <v>45968.84375</v>
       </c>
       <c r="B83">
-        <v>26.227</v>
+        <v>34.794</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2190,13 +2187,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45953.85416666666</v>
+        <v>45968.85416666666</v>
       </c>
       <c r="B84">
-        <v>3.851</v>
+        <v>25.013</v>
       </c>
       <c r="C84">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2207,13 +2204,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45953.86458333334</v>
+        <v>45968.86458333334</v>
       </c>
       <c r="B85">
-        <v>4.977</v>
+        <v>10.616</v>
       </c>
       <c r="C85">
-        <v>0.073</v>
+        <v>2.91</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2224,13 +2221,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45953.875</v>
+        <v>45968.875</v>
       </c>
       <c r="B86">
-        <v>27.973</v>
+        <v>0.68</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>10.901</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2241,13 +2238,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45953.88541666666</v>
+        <v>45968.88541666666</v>
       </c>
       <c r="B87">
-        <v>21.418</v>
+        <v>0.694</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2258,13 +2255,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45953.89583333334</v>
+        <v>45968.89583333334</v>
       </c>
       <c r="B88">
-        <v>11.213</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>21.386</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2275,13 +2272,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45953.90625</v>
+        <v>45968.90625</v>
       </c>
       <c r="B89">
-        <v>17.18</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.23</v>
+        <v>12.962</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2292,13 +2289,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45953.91666666666</v>
+        <v>45968.91666666666</v>
       </c>
       <c r="B90">
-        <v>5.99</v>
+        <v>1.919</v>
       </c>
       <c r="C90">
-        <v>0.733</v>
+        <v>19.282</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2309,13 +2306,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45953.92708333334</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B91">
-        <v>1.181</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.323</v>
+        <v>10.273</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2326,285 +2323,285 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45953.9375</v>
+        <v>45968.92708333334</v>
       </c>
       <c r="B92">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>2.559</v>
+        <v>10.273</v>
       </c>
       <c r="D92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45953.94791666666</v>
+        <v>45968.9375</v>
       </c>
       <c r="B93">
-        <v>2.314</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.764</v>
+        <v>26.068</v>
       </c>
       <c r="D93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45953.95833333334</v>
+        <v>45968.9375</v>
       </c>
       <c r="B94">
-        <v>0.119</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>3.424</v>
+        <v>26.068</v>
       </c>
       <c r="D94">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45953.96875</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B95">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>2.623</v>
+        <v>14.966</v>
       </c>
       <c r="D95">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45953.96875</v>
+        <v>45968.94791666666</v>
       </c>
       <c r="B96">
-        <v>1.842</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>2.623</v>
+        <v>14.966</v>
       </c>
       <c r="D96">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B97">
-        <v>5.487</v>
+        <v>0.128</v>
       </c>
       <c r="C97">
-        <v>0.536</v>
+        <v>24.187</v>
       </c>
       <c r="D97">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45953.97916666666</v>
+        <v>45968.95833333334</v>
       </c>
       <c r="B98">
-        <v>5.487</v>
+        <v>0.128</v>
       </c>
       <c r="C98">
-        <v>0.536</v>
+        <v>24.187</v>
       </c>
       <c r="D98">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.96875</v>
       </c>
       <c r="B99">
-        <v>1.867</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>6.205</v>
+        <v>17.408</v>
       </c>
       <c r="D99">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45953.98958333334</v>
+        <v>45968.96875</v>
       </c>
       <c r="B100">
-        <v>1.867</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>6.205</v>
+        <v>17.408</v>
       </c>
       <c r="D100">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45954</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B101">
-        <v>3.36</v>
+        <v>0.048</v>
       </c>
       <c r="C101">
-        <v>9.510999999999999</v>
+        <v>2.523</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45954</v>
+        <v>45968.97916666666</v>
       </c>
       <c r="B102">
-        <v>3.36</v>
+        <v>0.048</v>
       </c>
       <c r="C102">
-        <v>9.510999999999999</v>
+        <v>2.523</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B103">
-        <v>1.637</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.984</v>
+        <v>16.913</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45954.01041666666</v>
+        <v>45968.98958333334</v>
       </c>
       <c r="B104">
-        <v>1.637</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.984</v>
+        <v>16.913</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45954.02083333334</v>
+        <v>45969</v>
       </c>
       <c r="B105">
-        <v>0.079</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="C105">
-        <v>1.922</v>
+        <v>0.047</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45954.02083333334</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B106">
-        <v>0.079</v>
+        <v>6.212</v>
       </c>
       <c r="C106">
-        <v>1.922</v>
+        <v>0.498</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45954.03125</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B107">
-        <v>2.171</v>
+        <v>9.334</v>
       </c>
       <c r="C107">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45954.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B108">
-        <v>2.171</v>
+        <v>8.616</v>
       </c>
       <c r="C108">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2615,10 +2612,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45954.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B109">
-        <v>5.691</v>
+        <v>11.112</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2632,10 +2629,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45954.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B110">
-        <v>13.826</v>
+        <v>13.144</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2649,13 +2646,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45954.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B111">
-        <v>15.817</v>
+        <v>3.548</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1.463</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2666,13 +2663,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45954.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B112">
-        <v>16.297</v>
+        <v>1.428</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>3.758</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2683,13 +2680,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45954.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B113">
-        <v>34.057</v>
+        <v>0.094</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>2.057</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2700,13 +2697,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45954.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B114">
-        <v>38.432</v>
+        <v>0.019</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2717,13 +2714,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45954.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B115">
-        <v>19.766</v>
+        <v>1.107</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2734,13 +2731,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45954.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B116">
-        <v>28.14</v>
+        <v>0.731</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>5.566</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2751,13 +2748,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45954.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B117">
-        <v>26.857</v>
+        <v>0.299</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>4.991</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2768,13 +2765,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45954.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B118">
-        <v>5.652</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <v>0.062</v>
+        <v>9.164</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2785,13 +2782,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45954.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B119">
-        <v>2.309</v>
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.164</v>
+        <v>6.924</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2802,13 +2799,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45954.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B120">
-        <v>1.746</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.985</v>
+        <v>8.968999999999999</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2819,13 +2816,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45954.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B121">
-        <v>0.431</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0.734</v>
+        <v>19.656</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2836,13 +2833,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45954.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B122">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0.46</v>
+        <v>14.908</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2853,13 +2850,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45954.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>7.611</v>
+        <v>5.321</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2870,13 +2867,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45954.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B124">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>1.984</v>
+        <v>5.875</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2887,13 +2884,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45954.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B125">
-        <v>9.701000000000001</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>1.067</v>
+        <v>33.339</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2904,13 +2901,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45954.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B126">
-        <v>18.911</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>42.556</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2921,13 +2918,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45954.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B127">
-        <v>18.096</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>38.377</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2938,13 +2935,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45954.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B128">
-        <v>5.451</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>6.555</v>
+        <v>13.999</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2955,13 +2952,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45954.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B129">
-        <v>1.682</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>20.564</v>
+        <v>60.406</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2972,13 +2969,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45954.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>35.693</v>
+        <v>20.337</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -2989,13 +2986,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45954.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B131">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>7.558</v>
+        <v>13.395</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3006,13 +3003,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45954.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B132">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>3.717</v>
+        <v>12.136</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3023,13 +3020,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45954.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B133">
-        <v>2.281</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>1.157</v>
+        <v>7.366</v>
       </c>
       <c r="D133">
         <v>29</v>
@@ -3040,36 +3037,19 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45954.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B134">
-        <v>2.412</v>
+        <v>1.866</v>
       </c>
       <c r="C134">
-        <v>0.863</v>
+        <v>16.943</v>
       </c>
       <c r="D134">
         <v>30</v>
       </c>
       <c r="E134" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2">
-        <v>45954.3125</v>
-      </c>
-      <c r="B135">
-        <v>0.02</v>
-      </c>
-      <c r="C135">
-        <v>1.745</v>
-      </c>
-      <c r="D135">
-        <v>31</v>
-      </c>
-      <c r="E135" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>07.11.20251</t>
-  </si>
-  <si>
-    <t>07.11.20252</t>
-  </si>
-  <si>
-    <t>07.11.20253</t>
-  </si>
-  <si>
-    <t>07.11.20254</t>
-  </si>
-  <si>
-    <t>07.11.20255</t>
-  </si>
-  <si>
-    <t>07.11.20256</t>
-  </si>
-  <si>
-    <t>07.11.20257</t>
-  </si>
-  <si>
-    <t>07.11.20258</t>
-  </si>
-  <si>
-    <t>07.11.20259</t>
-  </si>
-  <si>
-    <t>07.11.202510</t>
-  </si>
-  <si>
-    <t>07.11.202511</t>
-  </si>
-  <si>
-    <t>07.11.202512</t>
-  </si>
-  <si>
-    <t>07.11.202513</t>
-  </si>
-  <si>
-    <t>07.11.202514</t>
-  </si>
-  <si>
-    <t>07.11.202515</t>
-  </si>
-  <si>
-    <t>07.11.202516</t>
-  </si>
-  <si>
-    <t>07.11.202517</t>
-  </si>
-  <si>
-    <t>07.11.202518</t>
-  </si>
-  <si>
-    <t>07.11.202519</t>
-  </si>
-  <si>
-    <t>07.11.202520</t>
-  </si>
-  <si>
-    <t>07.11.202521</t>
-  </si>
-  <si>
-    <t>07.11.202522</t>
-  </si>
-  <si>
-    <t>07.11.202523</t>
-  </si>
-  <si>
-    <t>07.11.202524</t>
-  </si>
-  <si>
-    <t>07.11.202525</t>
-  </si>
-  <si>
-    <t>07.11.202526</t>
-  </si>
-  <si>
-    <t>07.11.202527</t>
-  </si>
-  <si>
-    <t>07.11.202528</t>
-  </si>
-  <si>
-    <t>07.11.202529</t>
-  </si>
-  <si>
-    <t>07.11.202530</t>
-  </si>
-  <si>
-    <t>07.11.202531</t>
-  </si>
-  <si>
-    <t>07.11.202532</t>
-  </si>
-  <si>
-    <t>07.11.202533</t>
-  </si>
-  <si>
-    <t>07.11.202534</t>
-  </si>
-  <si>
-    <t>07.11.202535</t>
-  </si>
-  <si>
-    <t>07.11.202536</t>
-  </si>
-  <si>
-    <t>07.11.202537</t>
-  </si>
-  <si>
-    <t>07.11.202538</t>
-  </si>
-  <si>
-    <t>07.11.202539</t>
-  </si>
-  <si>
-    <t>07.11.202540</t>
-  </si>
-  <si>
-    <t>07.11.202541</t>
-  </si>
-  <si>
-    <t>07.11.202542</t>
-  </si>
-  <si>
-    <t>07.11.202543</t>
-  </si>
-  <si>
-    <t>07.11.202544</t>
-  </si>
-  <si>
-    <t>07.11.202545</t>
-  </si>
-  <si>
-    <t>07.11.202546</t>
-  </si>
-  <si>
-    <t>07.11.202547</t>
-  </si>
-  <si>
-    <t>07.11.202548</t>
-  </si>
-  <si>
-    <t>07.11.202549</t>
-  </si>
-  <si>
-    <t>07.11.202550</t>
-  </si>
-  <si>
-    <t>07.11.202551</t>
-  </si>
-  <si>
-    <t>07.11.202552</t>
-  </si>
-  <si>
-    <t>07.11.202553</t>
-  </si>
-  <si>
-    <t>07.11.202554</t>
-  </si>
-  <si>
-    <t>07.11.202555</t>
-  </si>
-  <si>
-    <t>07.11.202556</t>
-  </si>
-  <si>
-    <t>07.11.202557</t>
-  </si>
-  <si>
-    <t>07.11.202558</t>
-  </si>
-  <si>
-    <t>07.11.202559</t>
-  </si>
-  <si>
-    <t>07.11.202560</t>
-  </si>
-  <si>
-    <t>07.11.202561</t>
-  </si>
-  <si>
-    <t>07.11.202562</t>
-  </si>
-  <si>
-    <t>07.11.202563</t>
-  </si>
-  <si>
-    <t>07.11.202564</t>
-  </si>
-  <si>
-    <t>07.11.202565</t>
-  </si>
-  <si>
-    <t>07.11.202566</t>
-  </si>
-  <si>
-    <t>07.11.202567</t>
-  </si>
-  <si>
-    <t>07.11.202568</t>
-  </si>
-  <si>
-    <t>07.11.202569</t>
-  </si>
-  <si>
-    <t>07.11.202570</t>
-  </si>
-  <si>
-    <t>07.11.202571</t>
-  </si>
-  <si>
-    <t>07.11.202572</t>
-  </si>
-  <si>
-    <t>07.11.202573</t>
-  </si>
-  <si>
-    <t>07.11.202574</t>
-  </si>
-  <si>
-    <t>07.11.202575</t>
-  </si>
-  <si>
-    <t>07.11.202576</t>
-  </si>
-  <si>
-    <t>07.11.202577</t>
-  </si>
-  <si>
-    <t>07.11.202578</t>
-  </si>
-  <si>
-    <t>07.11.202579</t>
-  </si>
-  <si>
-    <t>07.11.202580</t>
-  </si>
-  <si>
-    <t>07.11.202581</t>
-  </si>
-  <si>
-    <t>07.11.202582</t>
-  </si>
-  <si>
-    <t>07.11.202583</t>
-  </si>
-  <si>
-    <t>07.11.202584</t>
-  </si>
-  <si>
-    <t>07.11.202585</t>
-  </si>
-  <si>
-    <t>07.11.202586</t>
-  </si>
-  <si>
-    <t>07.11.202587</t>
-  </si>
-  <si>
-    <t>07.11.202588</t>
-  </si>
-  <si>
-    <t>07.11.202589</t>
-  </si>
-  <si>
-    <t>07.11.202590</t>
-  </si>
-  <si>
-    <t>07.11.202591</t>
-  </si>
-  <si>
-    <t>07.11.202592</t>
-  </si>
-  <si>
-    <t>07.11.202593</t>
-  </si>
-  <si>
-    <t>07.11.202594</t>
-  </si>
-  <si>
-    <t>07.11.202595</t>
-  </si>
-  <si>
-    <t>07.11.202596</t>
-  </si>
-  <si>
     <t>08.11.20251</t>
   </si>
   <si>
@@ -407,6 +119,291 @@
   </si>
   <si>
     <t>08.11.202530</t>
+  </si>
+  <si>
+    <t>08.11.202531</t>
+  </si>
+  <si>
+    <t>08.11.202532</t>
+  </si>
+  <si>
+    <t>08.11.202533</t>
+  </si>
+  <si>
+    <t>08.11.202534</t>
+  </si>
+  <si>
+    <t>08.11.202535</t>
+  </si>
+  <si>
+    <t>08.11.202536</t>
+  </si>
+  <si>
+    <t>08.11.202537</t>
+  </si>
+  <si>
+    <t>08.11.202538</t>
+  </si>
+  <si>
+    <t>08.11.202539</t>
+  </si>
+  <si>
+    <t>08.11.202540</t>
+  </si>
+  <si>
+    <t>08.11.202541</t>
+  </si>
+  <si>
+    <t>08.11.202542</t>
+  </si>
+  <si>
+    <t>08.11.202543</t>
+  </si>
+  <si>
+    <t>08.11.202544</t>
+  </si>
+  <si>
+    <t>08.11.202545</t>
+  </si>
+  <si>
+    <t>08.11.202546</t>
+  </si>
+  <si>
+    <t>08.11.202547</t>
+  </si>
+  <si>
+    <t>08.11.202548</t>
+  </si>
+  <si>
+    <t>08.11.202549</t>
+  </si>
+  <si>
+    <t>08.11.202550</t>
+  </si>
+  <si>
+    <t>08.11.202551</t>
+  </si>
+  <si>
+    <t>08.11.202552</t>
+  </si>
+  <si>
+    <t>08.11.202553</t>
+  </si>
+  <si>
+    <t>08.11.202554</t>
+  </si>
+  <si>
+    <t>08.11.202555</t>
+  </si>
+  <si>
+    <t>08.11.202556</t>
+  </si>
+  <si>
+    <t>08.11.202557</t>
+  </si>
+  <si>
+    <t>08.11.202558</t>
+  </si>
+  <si>
+    <t>08.11.202559</t>
+  </si>
+  <si>
+    <t>08.11.202560</t>
+  </si>
+  <si>
+    <t>08.11.202561</t>
+  </si>
+  <si>
+    <t>08.11.202562</t>
+  </si>
+  <si>
+    <t>08.11.202563</t>
+  </si>
+  <si>
+    <t>08.11.202564</t>
+  </si>
+  <si>
+    <t>08.11.202565</t>
+  </si>
+  <si>
+    <t>08.11.202566</t>
+  </si>
+  <si>
+    <t>08.11.202567</t>
+  </si>
+  <si>
+    <t>08.11.202568</t>
+  </si>
+  <si>
+    <t>08.11.202569</t>
+  </si>
+  <si>
+    <t>08.11.202570</t>
+  </si>
+  <si>
+    <t>08.11.202571</t>
+  </si>
+  <si>
+    <t>08.11.202572</t>
+  </si>
+  <si>
+    <t>08.11.202573</t>
+  </si>
+  <si>
+    <t>08.11.202574</t>
+  </si>
+  <si>
+    <t>08.11.202575</t>
+  </si>
+  <si>
+    <t>08.11.202576</t>
+  </si>
+  <si>
+    <t>08.11.202577</t>
+  </si>
+  <si>
+    <t>08.11.202578</t>
+  </si>
+  <si>
+    <t>08.11.202579</t>
+  </si>
+  <si>
+    <t>08.11.202580</t>
+  </si>
+  <si>
+    <t>08.11.202581</t>
+  </si>
+  <si>
+    <t>08.11.202582</t>
+  </si>
+  <si>
+    <t>08.11.202583</t>
+  </si>
+  <si>
+    <t>08.11.202584</t>
+  </si>
+  <si>
+    <t>08.11.202585</t>
+  </si>
+  <si>
+    <t>08.11.202586</t>
+  </si>
+  <si>
+    <t>08.11.202587</t>
+  </si>
+  <si>
+    <t>08.11.202588</t>
+  </si>
+  <si>
+    <t>08.11.202589</t>
+  </si>
+  <si>
+    <t>08.11.202590</t>
+  </si>
+  <si>
+    <t>08.11.202591</t>
+  </si>
+  <si>
+    <t>08.11.202592</t>
+  </si>
+  <si>
+    <t>08.11.202593</t>
+  </si>
+  <si>
+    <t>08.11.202594</t>
+  </si>
+  <si>
+    <t>08.11.202595</t>
+  </si>
+  <si>
+    <t>08.11.202596</t>
+  </si>
+  <si>
+    <t>09.11.20251</t>
+  </si>
+  <si>
+    <t>09.11.20252</t>
+  </si>
+  <si>
+    <t>09.11.20253</t>
+  </si>
+  <si>
+    <t>09.11.20254</t>
+  </si>
+  <si>
+    <t>09.11.20255</t>
+  </si>
+  <si>
+    <t>09.11.20256</t>
+  </si>
+  <si>
+    <t>09.11.20257</t>
+  </si>
+  <si>
+    <t>09.11.20258</t>
+  </si>
+  <si>
+    <t>09.11.20259</t>
+  </si>
+  <si>
+    <t>09.11.202510</t>
+  </si>
+  <si>
+    <t>09.11.202511</t>
+  </si>
+  <si>
+    <t>09.11.202512</t>
+  </si>
+  <si>
+    <t>09.11.202513</t>
+  </si>
+  <si>
+    <t>09.11.202514</t>
+  </si>
+  <si>
+    <t>09.11.202515</t>
+  </si>
+  <si>
+    <t>09.11.202516</t>
+  </si>
+  <si>
+    <t>09.11.202517</t>
+  </si>
+  <si>
+    <t>09.11.202518</t>
+  </si>
+  <si>
+    <t>09.11.202519</t>
+  </si>
+  <si>
+    <t>09.11.202520</t>
+  </si>
+  <si>
+    <t>09.11.202521</t>
+  </si>
+  <si>
+    <t>09.11.202522</t>
+  </si>
+  <si>
+    <t>09.11.202523</t>
+  </si>
+  <si>
+    <t>09.11.202524</t>
+  </si>
+  <si>
+    <t>09.11.202525</t>
+  </si>
+  <si>
+    <t>09.11.202526</t>
+  </si>
+  <si>
+    <t>09.11.202527</t>
+  </si>
+  <si>
+    <t>09.11.202528</t>
+  </si>
+  <si>
+    <t>09.11.202529</t>
   </si>
 </sst>
 </file>
@@ -768,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,13 +790,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B2">
-        <v>1.168</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="C2">
-        <v>12.721</v>
+        <v>0.047</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -810,13 +807,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45968.01041666666</v>
+        <v>45969.01041666666</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.212</v>
       </c>
       <c r="C3">
-        <v>6.538</v>
+        <v>0.498</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -827,13 +824,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45968.02083333334</v>
+        <v>45969.02083333334</v>
       </c>
       <c r="B4">
-        <v>2.182</v>
+        <v>9.334</v>
       </c>
       <c r="C4">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -844,13 +841,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45968.03125</v>
+        <v>45969.03125</v>
       </c>
       <c r="B5">
-        <v>13.849</v>
+        <v>8.616</v>
       </c>
       <c r="C5">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -861,13 +858,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45968.04166666666</v>
+        <v>45969.04166666666</v>
       </c>
       <c r="B6">
-        <v>1.41</v>
+        <v>11.112</v>
       </c>
       <c r="C6">
-        <v>2.485</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -878,10 +875,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45968.05208333334</v>
+        <v>45969.05208333334</v>
       </c>
       <c r="B7">
-        <v>26.608</v>
+        <v>13.144</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -895,13 +892,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45968.0625</v>
+        <v>45969.0625</v>
       </c>
       <c r="B8">
-        <v>46.613</v>
+        <v>3.548</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.463</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -912,13 +909,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45968.07291666666</v>
+        <v>45969.07291666666</v>
       </c>
       <c r="B9">
-        <v>73.18300000000001</v>
+        <v>1.428</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.758</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -929,13 +926,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45968.08333333334</v>
+        <v>45969.08333333334</v>
       </c>
       <c r="B10">
-        <v>37.603</v>
+        <v>0.094</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.057</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -946,13 +943,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45968.09375</v>
+        <v>45969.09375</v>
       </c>
       <c r="B11">
-        <v>51.098</v>
+        <v>0.019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -963,13 +960,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45968.10416666666</v>
+        <v>45969.10416666666</v>
       </c>
       <c r="B12">
-        <v>17.131</v>
+        <v>1.107</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -980,13 +977,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45968.11458333334</v>
+        <v>45969.11458333334</v>
       </c>
       <c r="B13">
-        <v>16.001</v>
+        <v>0.731</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5.566</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -997,13 +994,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45968.125</v>
+        <v>45969.125</v>
       </c>
       <c r="B14">
-        <v>7.399</v>
+        <v>0.299</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4.991</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1014,13 +1011,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45968.13541666666</v>
+        <v>45969.13541666666</v>
       </c>
       <c r="B15">
-        <v>16.366</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9.164</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1031,13 +1028,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45968.14583333334</v>
+        <v>45969.14583333334</v>
       </c>
       <c r="B16">
-        <v>36.113</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6.924</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1048,13 +1045,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45968.15625</v>
+        <v>45969.15625</v>
       </c>
       <c r="B17">
-        <v>13.395</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8.968999999999999</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1065,13 +1062,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45968.16666666666</v>
+        <v>45969.16666666666</v>
       </c>
       <c r="B18">
-        <v>7.234</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.435</v>
+        <v>19.656</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1082,13 +1079,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45968.17708333334</v>
+        <v>45969.17708333334</v>
       </c>
       <c r="B19">
-        <v>2.954</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4.364</v>
+        <v>14.908</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1099,13 +1096,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45968.1875</v>
+        <v>45969.1875</v>
       </c>
       <c r="B20">
-        <v>16.867</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.295</v>
+        <v>5.321</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1116,13 +1113,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45968.19791666666</v>
+        <v>45969.19791666666</v>
       </c>
       <c r="B21">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.474</v>
+        <v>5.875</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1133,13 +1130,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45968.20833333334</v>
+        <v>45969.20833333334</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>24.46</v>
+        <v>33.339</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1150,13 +1147,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45968.21875</v>
+        <v>45969.21875</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.856</v>
+        <v>42.556</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1167,13 +1164,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45968.22916666666</v>
+        <v>45969.22916666666</v>
       </c>
       <c r="B24">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>4.73</v>
+        <v>38.377</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1184,13 +1181,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45968.23958333334</v>
+        <v>45969.23958333334</v>
       </c>
       <c r="B25">
-        <v>2.556</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1.044</v>
+        <v>13.999</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1201,13 +1198,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45968.25</v>
+        <v>45969.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>21.516</v>
+        <v>60.406</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1218,13 +1215,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45968.26041666666</v>
+        <v>45969.26041666666</v>
       </c>
       <c r="B27">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>14.033</v>
+        <v>20.337</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1235,13 +1232,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45968.27083333334</v>
+        <v>45969.27083333334</v>
       </c>
       <c r="B28">
-        <v>4.128</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>13.395</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1252,13 +1249,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45968.28125</v>
+        <v>45969.28125</v>
       </c>
       <c r="B29">
-        <v>4.832</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>12.136</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1269,13 +1266,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45968.29166666666</v>
+        <v>45969.29166666666</v>
       </c>
       <c r="B30">
-        <v>1.047</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>3.713</v>
+        <v>7.366</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1286,13 +1283,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45968.30208333334</v>
+        <v>45969.30208333334</v>
       </c>
       <c r="B31">
-        <v>0.08</v>
+        <v>1.866</v>
       </c>
       <c r="C31">
-        <v>5.82</v>
+        <v>16.943</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1303,13 +1300,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45968.3125</v>
+        <v>45969.3125</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.204</v>
       </c>
       <c r="C32">
-        <v>14.872</v>
+        <v>3.135</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1320,13 +1317,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45968.32291666666</v>
+        <v>45969.32291666666</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.864</v>
       </c>
       <c r="C33">
-        <v>16.255</v>
+        <v>12.297</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1337,13 +1334,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45968.33333333334</v>
+        <v>45969.33333333334</v>
       </c>
       <c r="B34">
-        <v>0.041</v>
+        <v>21.532</v>
       </c>
       <c r="C34">
-        <v>25.645</v>
+        <v>0.481</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1354,13 +1351,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45968.34375</v>
+        <v>45969.34375</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>46.86</v>
       </c>
       <c r="C35">
-        <v>22.81</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1371,13 +1368,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45968.35416666666</v>
+        <v>45969.35416666666</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>21.981</v>
       </c>
       <c r="C36">
-        <v>4.777</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1388,13 +1385,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45968.36458333334</v>
+        <v>45969.36458333334</v>
       </c>
       <c r="B37">
-        <v>0.257</v>
+        <v>28.526</v>
       </c>
       <c r="C37">
-        <v>2.783</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1405,13 +1402,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45968.375</v>
+        <v>45969.375</v>
       </c>
       <c r="B38">
-        <v>4.134</v>
+        <v>3.272</v>
       </c>
       <c r="C38">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1422,13 +1419,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45968.38541666666</v>
+        <v>45969.38541666666</v>
       </c>
       <c r="B39">
-        <v>8.624000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="C39">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45968.39583333334</v>
+        <v>45969.39583333334</v>
       </c>
       <c r="B40">
-        <v>2.018</v>
+        <v>14.001</v>
       </c>
       <c r="C40">
-        <v>7.436</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1456,13 +1453,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45968.40625</v>
+        <v>45969.40625</v>
       </c>
       <c r="B41">
-        <v>0.024</v>
+        <v>13.29</v>
       </c>
       <c r="C41">
-        <v>2.635</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1473,13 +1470,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45968.41666666666</v>
+        <v>45969.41666666666</v>
       </c>
       <c r="B42">
-        <v>0.6929999999999999</v>
+        <v>1.676</v>
       </c>
       <c r="C42">
-        <v>10.205</v>
+        <v>22.988</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1490,13 +1487,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45968.42708333334</v>
+        <v>45969.42708333334</v>
       </c>
       <c r="B43">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>10.848</v>
+        <v>19.586</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1507,13 +1504,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45968.4375</v>
+        <v>45969.4375</v>
       </c>
       <c r="B44">
-        <v>0.529</v>
+        <v>0.052</v>
       </c>
       <c r="C44">
-        <v>1.441</v>
+        <v>13.749</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45968.44791666666</v>
+        <v>45969.44791666666</v>
       </c>
       <c r="B45">
-        <v>0.034</v>
+        <v>3.04</v>
       </c>
       <c r="C45">
-        <v>11.063</v>
+        <v>3.246</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1541,13 +1538,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45968.45833333334</v>
+        <v>45969.45833333334</v>
       </c>
       <c r="B46">
-        <v>11.875</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.553</v>
+        <v>19.69</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1558,13 +1555,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45968.46875</v>
+        <v>45969.46875</v>
       </c>
       <c r="B47">
-        <v>25.105</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>19.656</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1575,13 +1572,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45968.47916666666</v>
+        <v>45969.47916666666</v>
       </c>
       <c r="B48">
-        <v>11.266</v>
+        <v>0.954</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.067</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1592,13 +1589,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45968.48958333334</v>
+        <v>45969.48958333334</v>
       </c>
       <c r="B49">
-        <v>9.250999999999999</v>
+        <v>1.945</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3.585</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1609,13 +1606,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45968.5</v>
+        <v>45969.5</v>
       </c>
       <c r="B50">
-        <v>13.874</v>
+        <v>1.077</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>2.395</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1626,13 +1623,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45968.51041666666</v>
+        <v>45969.51041666666</v>
       </c>
       <c r="B51">
-        <v>7.772</v>
+        <v>1.007</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>3.997</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1643,13 +1640,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45968.52083333334</v>
+        <v>45969.52083333334</v>
       </c>
       <c r="B52">
-        <v>1.515</v>
+        <v>7.823</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1660,13 +1657,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45968.53125</v>
+        <v>45969.53125</v>
       </c>
       <c r="B53">
-        <v>8.683</v>
+        <v>8.351000000000001</v>
       </c>
       <c r="C53">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1677,13 +1674,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45968.54166666666</v>
+        <v>45969.54166666666</v>
       </c>
       <c r="B54">
-        <v>0.013</v>
+        <v>4.253</v>
       </c>
       <c r="C54">
-        <v>36.466</v>
+        <v>0.896</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1694,13 +1691,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45968.55208333334</v>
+        <v>45969.55208333334</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>3.044</v>
       </c>
       <c r="C55">
-        <v>38.852</v>
+        <v>2.062</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1711,13 +1708,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45968.5625</v>
+        <v>45969.5625</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>5.368</v>
       </c>
       <c r="C56">
-        <v>32.224</v>
+        <v>0.471</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1728,13 +1725,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45968.57291666666</v>
+        <v>45969.57291666666</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>4.974</v>
       </c>
       <c r="C57">
-        <v>27.172</v>
+        <v>0.762</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1745,13 +1742,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45968.58333333334</v>
+        <v>45969.58333333334</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>3.129</v>
       </c>
       <c r="C58">
-        <v>55.235</v>
+        <v>1.833</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1762,13 +1759,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45968.59375</v>
+        <v>45969.59375</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.144</v>
       </c>
       <c r="C59">
-        <v>46.299</v>
+        <v>15.945</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1779,13 +1776,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45968.60416666666</v>
+        <v>45969.60416666666</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>22.043</v>
+        <v>18.451</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1796,13 +1793,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45968.61458333334</v>
+        <v>45969.61458333334</v>
       </c>
       <c r="B61">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>7.356</v>
+        <v>25.108</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1813,13 +1810,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45968.625</v>
+        <v>45969.625</v>
       </c>
       <c r="B62">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>12.212</v>
+        <v>37.958</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1830,13 +1827,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45968.63541666666</v>
+        <v>45969.63541666666</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>25.145</v>
+        <v>46.902</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1847,13 +1844,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45968.64583333334</v>
+        <v>45969.64583333334</v>
       </c>
       <c r="B64">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.667</v>
+        <v>50.968</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1864,13 +1861,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45968.65625</v>
+        <v>45969.65625</v>
       </c>
       <c r="B65">
-        <v>0.404</v>
+        <v>0.026</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>12.468</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1881,13 +1878,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45968.66666666666</v>
+        <v>45969.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.51</v>
+        <v>0.128</v>
       </c>
       <c r="C66">
-        <v>6.912</v>
+        <v>8.068</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1898,13 +1895,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45968.67708333334</v>
+        <v>45969.67708333334</v>
       </c>
       <c r="B67">
-        <v>0.518</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>70.008</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1915,13 +1912,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45968.6875</v>
+        <v>45969.6875</v>
       </c>
       <c r="B68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>101.736</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1932,13 +1929,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45968.69791666666</v>
+        <v>45969.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.272</v>
+        <v>0.064</v>
       </c>
       <c r="C69">
-        <v>8.68</v>
+        <v>35.8</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1949,13 +1946,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45968.70833333334</v>
+        <v>45969.70833333334</v>
       </c>
       <c r="B70">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>6.2</v>
+        <v>32.071</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1966,13 +1963,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45968.71875</v>
+        <v>45969.71875</v>
       </c>
       <c r="B71">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>7.431</v>
+        <v>44.327</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1983,13 +1980,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45968.72916666666</v>
+        <v>45969.72916666666</v>
       </c>
       <c r="B72">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>9.032999999999999</v>
+        <v>59.777</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2000,13 +1997,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45968.73958333334</v>
+        <v>45969.73958333334</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>26.926</v>
+        <v>40.255</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2017,13 +2014,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45968.75</v>
+        <v>45969.75</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.827</v>
       </c>
       <c r="C74">
-        <v>60.712</v>
+        <v>12.549</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2034,13 +2031,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45968.76041666666</v>
+        <v>45969.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>52.843</v>
+        <v>49.195</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2051,13 +2048,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45968.77083333334</v>
+        <v>45969.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>44.829</v>
+        <v>39.369</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2068,13 +2065,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45968.78125</v>
+        <v>45969.78125</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C77">
-        <v>33.782</v>
+        <v>11.437</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2085,13 +2082,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45968.79166666666</v>
+        <v>45969.79166666666</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="C78">
-        <v>35.51</v>
+        <v>0.204</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2102,13 +2099,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45968.80208333334</v>
+        <v>45969.80208333334</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>6.567</v>
       </c>
       <c r="C79">
-        <v>31.178</v>
+        <v>0.089</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45968.8125</v>
+        <v>45969.8125</v>
       </c>
       <c r="B80">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>7.114</v>
+        <v>4.267</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2136,13 +2133,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45968.82291666666</v>
+        <v>45969.82291666666</v>
       </c>
       <c r="B81">
-        <v>5.977</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.001</v>
+        <v>2.275</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2153,13 +2150,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45968.83333333334</v>
+        <v>45969.83333333334</v>
       </c>
       <c r="B82">
-        <v>19.774</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>18.865</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2170,13 +2167,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45968.84375</v>
+        <v>45969.84375</v>
       </c>
       <c r="B83">
-        <v>34.794</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>6.799</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2187,13 +2184,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45968.85416666666</v>
+        <v>45969.85416666666</v>
       </c>
       <c r="B84">
-        <v>25.013</v>
+        <v>0.598</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1.222</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2204,13 +2201,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45968.86458333334</v>
+        <v>45969.86458333334</v>
       </c>
       <c r="B85">
-        <v>10.616</v>
+        <v>6.281</v>
       </c>
       <c r="C85">
-        <v>2.91</v>
+        <v>0.002</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2221,13 +2218,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45968.875</v>
+        <v>45969.875</v>
       </c>
       <c r="B86">
-        <v>0.68</v>
+        <v>37.09</v>
       </c>
       <c r="C86">
-        <v>10.901</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2238,13 +2235,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45968.88541666666</v>
+        <v>45969.88541666666</v>
       </c>
       <c r="B87">
-        <v>0.694</v>
+        <v>57.436</v>
       </c>
       <c r="C87">
-        <v>8.095000000000001</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2255,13 +2252,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45968.89583333334</v>
+        <v>45969.89583333334</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>59.553</v>
       </c>
       <c r="C88">
-        <v>21.386</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45968.90625</v>
+        <v>45969.90625</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>25.54</v>
       </c>
       <c r="C89">
-        <v>12.962</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2289,13 +2286,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45968.91666666666</v>
+        <v>45969.91666666666</v>
       </c>
       <c r="B90">
-        <v>1.919</v>
+        <v>63.154</v>
       </c>
       <c r="C90">
-        <v>19.282</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2306,13 +2303,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>62.835</v>
       </c>
       <c r="C91">
-        <v>10.273</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2323,13 +2320,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45968.92708333334</v>
+        <v>45969.92708333334</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>62.835</v>
       </c>
       <c r="C92">
-        <v>10.273</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>90</v>
@@ -2340,13 +2337,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>34.512</v>
       </c>
       <c r="C93">
-        <v>26.068</v>
+        <v>0</v>
       </c>
       <c r="D93">
         <v>91</v>
@@ -2357,13 +2354,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45968.9375</v>
+        <v>45969.9375</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>34.512</v>
       </c>
       <c r="C94">
-        <v>26.068</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>91</v>
@@ -2374,13 +2371,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="C95">
-        <v>14.966</v>
+        <v>41.195</v>
       </c>
       <c r="D95">
         <v>92</v>
@@ -2391,13 +2388,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45968.94791666666</v>
+        <v>45969.94791666666</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.051</v>
       </c>
       <c r="C96">
-        <v>14.966</v>
+        <v>41.195</v>
       </c>
       <c r="D96">
         <v>92</v>
@@ -2408,13 +2405,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B97">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>24.187</v>
+        <v>36.848</v>
       </c>
       <c r="D97">
         <v>93</v>
@@ -2425,13 +2422,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45968.95833333334</v>
+        <v>45969.95833333334</v>
       </c>
       <c r="B98">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>24.187</v>
+        <v>36.848</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -2442,13 +2439,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>17.408</v>
+        <v>28.94</v>
       </c>
       <c r="D99">
         <v>94</v>
@@ -2459,13 +2456,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45968.96875</v>
+        <v>45969.96875</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>17.408</v>
+        <v>28.94</v>
       </c>
       <c r="D100">
         <v>94</v>
@@ -2476,13 +2473,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B101">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>2.523</v>
+        <v>23.497</v>
       </c>
       <c r="D101">
         <v>95</v>
@@ -2493,13 +2490,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45968.97916666666</v>
+        <v>45969.97916666666</v>
       </c>
       <c r="B102">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>2.523</v>
+        <v>23.497</v>
       </c>
       <c r="D102">
         <v>95</v>
@@ -2510,13 +2507,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>16.913</v>
+        <v>22.461</v>
       </c>
       <c r="D103">
         <v>96</v>
@@ -2527,13 +2524,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45968.98958333334</v>
+        <v>45969.98958333334</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>16.913</v>
+        <v>22.461</v>
       </c>
       <c r="D104">
         <v>96</v>
@@ -2544,13 +2541,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B105">
-        <v>8.191000000000001</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.047</v>
+        <v>7.583</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2561,13 +2558,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45969.01041666666</v>
+        <v>45970.01041666666</v>
       </c>
       <c r="B106">
-        <v>6.212</v>
+        <v>0.12</v>
       </c>
       <c r="C106">
-        <v>0.498</v>
+        <v>11.998</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2578,13 +2575,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45969.02083333334</v>
+        <v>45970.02083333334</v>
       </c>
       <c r="B107">
-        <v>9.334</v>
+        <v>1.23</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -2595,13 +2592,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45969.03125</v>
+        <v>45970.03125</v>
       </c>
       <c r="B108">
-        <v>8.616</v>
+        <v>3.624</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>3.678</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2612,13 +2609,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45969.04166666666</v>
+        <v>45970.04166666666</v>
       </c>
       <c r="B109">
-        <v>11.112</v>
+        <v>3.204</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2629,13 +2626,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45969.05208333334</v>
+        <v>45970.05208333334</v>
       </c>
       <c r="B110">
-        <v>13.144</v>
+        <v>2.952</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2646,13 +2643,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45969.0625</v>
+        <v>45970.0625</v>
       </c>
       <c r="B111">
-        <v>3.548</v>
+        <v>2.939</v>
       </c>
       <c r="C111">
-        <v>1.463</v>
+        <v>1.127</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2663,13 +2660,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45969.07291666666</v>
+        <v>45970.07291666666</v>
       </c>
       <c r="B112">
-        <v>1.428</v>
+        <v>0.145</v>
       </c>
       <c r="C112">
-        <v>3.758</v>
+        <v>3.377</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2680,13 +2677,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45969.08333333334</v>
+        <v>45970.08333333334</v>
       </c>
       <c r="B113">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>2.057</v>
+        <v>43.665</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2697,13 +2694,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45969.09375</v>
+        <v>45970.09375</v>
       </c>
       <c r="B114">
-        <v>0.019</v>
+        <v>0.916</v>
       </c>
       <c r="C114">
-        <v>5.8</v>
+        <v>9.532</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2714,13 +2711,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45969.10416666666</v>
+        <v>45970.10416666666</v>
       </c>
       <c r="B115">
-        <v>1.107</v>
+        <v>0.028</v>
       </c>
       <c r="C115">
-        <v>1.83</v>
+        <v>5.968</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2731,13 +2728,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45969.11458333334</v>
+        <v>45970.11458333334</v>
       </c>
       <c r="B116">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>5.566</v>
+        <v>22.399</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2748,13 +2745,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45969.125</v>
+        <v>45970.125</v>
       </c>
       <c r="B117">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>4.991</v>
+        <v>10.42</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2765,13 +2762,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45969.13541666666</v>
+        <v>45970.13541666666</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>9.164</v>
+        <v>13.868</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2782,13 +2779,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45969.14583333334</v>
+        <v>45970.14583333334</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>6.924</v>
+        <v>22.114</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2799,13 +2796,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45969.15625</v>
+        <v>45970.15625</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>8.968999999999999</v>
+        <v>39.259</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2816,13 +2813,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45969.16666666666</v>
+        <v>45970.16666666666</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>19.656</v>
+        <v>42.196</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2833,13 +2830,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45969.17708333334</v>
+        <v>45970.17708333334</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>14.908</v>
+        <v>57.057</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2850,13 +2847,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45969.1875</v>
+        <v>45970.1875</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>5.321</v>
+        <v>42.629</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2867,13 +2864,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45969.19791666666</v>
+        <v>45970.19791666666</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>5.875</v>
+        <v>26.289</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2884,13 +2881,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45969.20833333334</v>
+        <v>45970.20833333334</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>33.339</v>
+        <v>34.201</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2901,13 +2898,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45969.21875</v>
+        <v>45970.21875</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>42.556</v>
+        <v>36.947</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2918,13 +2915,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45969.22916666666</v>
+        <v>45970.22916666666</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>38.377</v>
+        <v>30.282</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2935,13 +2932,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45969.23958333334</v>
+        <v>45970.23958333334</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>13.999</v>
+        <v>36.687</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2952,13 +2949,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45969.25</v>
+        <v>45970.25</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>60.406</v>
+        <v>49.486</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2969,13 +2966,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45969.26041666666</v>
+        <v>45970.26041666666</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>20.337</v>
+        <v>45.473</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -2986,13 +2983,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45969.27083333334</v>
+        <v>45970.27083333334</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>13.395</v>
+        <v>24.09</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3003,13 +3000,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45969.28125</v>
+        <v>45970.28125</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="C132">
-        <v>12.136</v>
+        <v>4.425</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3020,36 +3017,19 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45969.29166666666</v>
+        <v>45970.29166666666</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>7.366</v>
+        <v>11.828</v>
       </c>
       <c r="D133">
         <v>29</v>
       </c>
       <c r="E133" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2">
-        <v>45969.30208333334</v>
-      </c>
-      <c r="B134">
-        <v>1.866</v>
-      </c>
-      <c r="C134">
-        <v>16.943</v>
-      </c>
-      <c r="D134">
-        <v>30</v>
-      </c>
-      <c r="E134" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="248">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,379 +31,733 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>08.11.20251</t>
-  </si>
-  <si>
-    <t>08.11.20252</t>
-  </si>
-  <si>
-    <t>08.11.20253</t>
-  </si>
-  <si>
-    <t>08.11.20254</t>
-  </si>
-  <si>
-    <t>08.11.20255</t>
-  </si>
-  <si>
-    <t>08.11.20256</t>
-  </si>
-  <si>
-    <t>08.11.20257</t>
-  </si>
-  <si>
-    <t>08.11.20258</t>
-  </si>
-  <si>
-    <t>08.11.20259</t>
-  </si>
-  <si>
-    <t>08.11.202510</t>
-  </si>
-  <si>
-    <t>08.11.202511</t>
-  </si>
-  <si>
-    <t>08.11.202512</t>
-  </si>
-  <si>
-    <t>08.11.202513</t>
-  </si>
-  <si>
-    <t>08.11.202514</t>
-  </si>
-  <si>
-    <t>08.11.202515</t>
-  </si>
-  <si>
-    <t>08.11.202516</t>
-  </si>
-  <si>
-    <t>08.11.202517</t>
-  </si>
-  <si>
-    <t>08.11.202518</t>
-  </si>
-  <si>
-    <t>08.11.202519</t>
-  </si>
-  <si>
-    <t>08.11.202520</t>
-  </si>
-  <si>
-    <t>08.11.202521</t>
-  </si>
-  <si>
-    <t>08.11.202522</t>
-  </si>
-  <si>
-    <t>08.11.202523</t>
-  </si>
-  <si>
-    <t>08.11.202524</t>
-  </si>
-  <si>
-    <t>08.11.202525</t>
-  </si>
-  <si>
-    <t>08.11.202526</t>
-  </si>
-  <si>
-    <t>08.11.202527</t>
-  </si>
-  <si>
-    <t>08.11.202528</t>
-  </si>
-  <si>
-    <t>08.11.202529</t>
-  </si>
-  <si>
-    <t>08.11.202530</t>
-  </si>
-  <si>
-    <t>08.11.202531</t>
-  </si>
-  <si>
-    <t>08.11.202532</t>
-  </si>
-  <si>
-    <t>08.11.202533</t>
-  </si>
-  <si>
-    <t>08.11.202534</t>
-  </si>
-  <si>
-    <t>08.11.202535</t>
-  </si>
-  <si>
-    <t>08.11.202536</t>
-  </si>
-  <si>
-    <t>08.11.202537</t>
-  </si>
-  <si>
-    <t>08.11.202538</t>
-  </si>
-  <si>
-    <t>08.11.202539</t>
-  </si>
-  <si>
-    <t>08.11.202540</t>
-  </si>
-  <si>
-    <t>08.11.202541</t>
-  </si>
-  <si>
-    <t>08.11.202542</t>
-  </si>
-  <si>
-    <t>08.11.202543</t>
-  </si>
-  <si>
-    <t>08.11.202544</t>
-  </si>
-  <si>
-    <t>08.11.202545</t>
-  </si>
-  <si>
-    <t>08.11.202546</t>
-  </si>
-  <si>
-    <t>08.11.202547</t>
-  </si>
-  <si>
-    <t>08.11.202548</t>
-  </si>
-  <si>
-    <t>08.11.202549</t>
-  </si>
-  <si>
-    <t>08.11.202550</t>
-  </si>
-  <si>
-    <t>08.11.202551</t>
-  </si>
-  <si>
-    <t>08.11.202552</t>
-  </si>
-  <si>
-    <t>08.11.202553</t>
-  </si>
-  <si>
-    <t>08.11.202554</t>
-  </si>
-  <si>
-    <t>08.11.202555</t>
-  </si>
-  <si>
-    <t>08.11.202556</t>
-  </si>
-  <si>
-    <t>08.11.202557</t>
-  </si>
-  <si>
-    <t>08.11.202558</t>
-  </si>
-  <si>
-    <t>08.11.202559</t>
-  </si>
-  <si>
-    <t>08.11.202560</t>
-  </si>
-  <si>
-    <t>08.11.202561</t>
-  </si>
-  <si>
-    <t>08.11.202562</t>
-  </si>
-  <si>
-    <t>08.11.202563</t>
-  </si>
-  <si>
-    <t>08.11.202564</t>
-  </si>
-  <si>
-    <t>08.11.202565</t>
-  </si>
-  <si>
-    <t>08.11.202566</t>
-  </si>
-  <si>
-    <t>08.11.202567</t>
-  </si>
-  <si>
-    <t>08.11.202568</t>
-  </si>
-  <si>
-    <t>08.11.202569</t>
-  </si>
-  <si>
-    <t>08.11.202570</t>
-  </si>
-  <si>
-    <t>08.11.202571</t>
-  </si>
-  <si>
-    <t>08.11.202572</t>
-  </si>
-  <si>
-    <t>08.11.202573</t>
-  </si>
-  <si>
-    <t>08.11.202574</t>
-  </si>
-  <si>
-    <t>08.11.202575</t>
-  </si>
-  <si>
-    <t>08.11.202576</t>
-  </si>
-  <si>
-    <t>08.11.202577</t>
-  </si>
-  <si>
-    <t>08.11.202578</t>
-  </si>
-  <si>
-    <t>08.11.202579</t>
-  </si>
-  <si>
-    <t>08.11.202580</t>
-  </si>
-  <si>
-    <t>08.11.202581</t>
-  </si>
-  <si>
-    <t>08.11.202582</t>
-  </si>
-  <si>
-    <t>08.11.202583</t>
-  </si>
-  <si>
-    <t>08.11.202584</t>
-  </si>
-  <si>
-    <t>08.11.202585</t>
-  </si>
-  <si>
-    <t>08.11.202586</t>
-  </si>
-  <si>
-    <t>08.11.202587</t>
-  </si>
-  <si>
-    <t>08.11.202588</t>
-  </si>
-  <si>
-    <t>08.11.202589</t>
-  </si>
-  <si>
-    <t>08.11.202590</t>
-  </si>
-  <si>
-    <t>08.11.202591</t>
-  </si>
-  <si>
-    <t>08.11.202592</t>
-  </si>
-  <si>
-    <t>08.11.202593</t>
-  </si>
-  <si>
-    <t>08.11.202594</t>
-  </si>
-  <si>
-    <t>08.11.202595</t>
-  </si>
-  <si>
-    <t>08.11.202596</t>
-  </si>
-  <si>
-    <t>09.11.20251</t>
-  </si>
-  <si>
-    <t>09.11.20252</t>
-  </si>
-  <si>
-    <t>09.11.20253</t>
-  </si>
-  <si>
-    <t>09.11.20254</t>
-  </si>
-  <si>
-    <t>09.11.20255</t>
-  </si>
-  <si>
-    <t>09.11.20256</t>
-  </si>
-  <si>
-    <t>09.11.20257</t>
-  </si>
-  <si>
-    <t>09.11.20258</t>
-  </si>
-  <si>
-    <t>09.11.20259</t>
-  </si>
-  <si>
-    <t>09.11.202510</t>
-  </si>
-  <si>
-    <t>09.11.202511</t>
-  </si>
-  <si>
-    <t>09.11.202512</t>
-  </si>
-  <si>
-    <t>09.11.202513</t>
-  </si>
-  <si>
-    <t>09.11.202514</t>
-  </si>
-  <si>
-    <t>09.11.202515</t>
-  </si>
-  <si>
-    <t>09.11.202516</t>
-  </si>
-  <si>
-    <t>09.11.202517</t>
-  </si>
-  <si>
-    <t>09.11.202518</t>
-  </si>
-  <si>
-    <t>09.11.202519</t>
-  </si>
-  <si>
-    <t>09.11.202520</t>
-  </si>
-  <si>
-    <t>09.11.202521</t>
-  </si>
-  <si>
-    <t>09.11.202522</t>
-  </si>
-  <si>
-    <t>09.11.202523</t>
-  </si>
-  <si>
-    <t>09.11.202524</t>
-  </si>
-  <si>
-    <t>09.11.202525</t>
-  </si>
-  <si>
-    <t>09.11.202526</t>
-  </si>
-  <si>
-    <t>09.11.202527</t>
-  </si>
-  <si>
-    <t>09.11.202528</t>
-  </si>
-  <si>
-    <t>09.11.202529</t>
+    <t>11.11.20251</t>
+  </si>
+  <si>
+    <t>11.11.20252</t>
+  </si>
+  <si>
+    <t>11.11.20253</t>
+  </si>
+  <si>
+    <t>11.11.20254</t>
+  </si>
+  <si>
+    <t>11.11.20255</t>
+  </si>
+  <si>
+    <t>11.11.20256</t>
+  </si>
+  <si>
+    <t>11.11.20257</t>
+  </si>
+  <si>
+    <t>11.11.20258</t>
+  </si>
+  <si>
+    <t>11.11.20259</t>
+  </si>
+  <si>
+    <t>11.11.202510</t>
+  </si>
+  <si>
+    <t>11.11.202511</t>
+  </si>
+  <si>
+    <t>11.11.202512</t>
+  </si>
+  <si>
+    <t>11.11.202513</t>
+  </si>
+  <si>
+    <t>11.11.202514</t>
+  </si>
+  <si>
+    <t>11.11.202515</t>
+  </si>
+  <si>
+    <t>11.11.202516</t>
+  </si>
+  <si>
+    <t>11.11.202517</t>
+  </si>
+  <si>
+    <t>11.11.202518</t>
+  </si>
+  <si>
+    <t>11.11.202519</t>
+  </si>
+  <si>
+    <t>11.11.202520</t>
+  </si>
+  <si>
+    <t>11.11.202521</t>
+  </si>
+  <si>
+    <t>11.11.202522</t>
+  </si>
+  <si>
+    <t>11.11.202523</t>
+  </si>
+  <si>
+    <t>11.11.202524</t>
+  </si>
+  <si>
+    <t>11.11.202525</t>
+  </si>
+  <si>
+    <t>11.11.202526</t>
+  </si>
+  <si>
+    <t>11.11.202527</t>
+  </si>
+  <si>
+    <t>11.11.202528</t>
+  </si>
+  <si>
+    <t>11.11.202529</t>
+  </si>
+  <si>
+    <t>11.11.202530</t>
+  </si>
+  <si>
+    <t>11.11.202531</t>
+  </si>
+  <si>
+    <t>11.11.202532</t>
+  </si>
+  <si>
+    <t>11.11.202533</t>
+  </si>
+  <si>
+    <t>11.11.202534</t>
+  </si>
+  <si>
+    <t>11.11.202535</t>
+  </si>
+  <si>
+    <t>11.11.202536</t>
+  </si>
+  <si>
+    <t>11.11.202537</t>
+  </si>
+  <si>
+    <t>11.11.202538</t>
+  </si>
+  <si>
+    <t>11.11.202539</t>
+  </si>
+  <si>
+    <t>11.11.202540</t>
+  </si>
+  <si>
+    <t>11.11.202541</t>
+  </si>
+  <si>
+    <t>11.11.202542</t>
+  </si>
+  <si>
+    <t>11.11.202543</t>
+  </si>
+  <si>
+    <t>11.11.202544</t>
+  </si>
+  <si>
+    <t>11.11.202545</t>
+  </si>
+  <si>
+    <t>11.11.202546</t>
+  </si>
+  <si>
+    <t>11.11.202547</t>
+  </si>
+  <si>
+    <t>11.11.202548</t>
+  </si>
+  <si>
+    <t>11.11.202549</t>
+  </si>
+  <si>
+    <t>11.11.202550</t>
+  </si>
+  <si>
+    <t>11.11.202551</t>
+  </si>
+  <si>
+    <t>11.11.202552</t>
+  </si>
+  <si>
+    <t>11.11.202553</t>
+  </si>
+  <si>
+    <t>11.11.202554</t>
+  </si>
+  <si>
+    <t>11.11.202555</t>
+  </si>
+  <si>
+    <t>11.11.202556</t>
+  </si>
+  <si>
+    <t>11.11.202557</t>
+  </si>
+  <si>
+    <t>11.11.202558</t>
+  </si>
+  <si>
+    <t>11.11.202559</t>
+  </si>
+  <si>
+    <t>11.11.202560</t>
+  </si>
+  <si>
+    <t>11.11.202561</t>
+  </si>
+  <si>
+    <t>11.11.202562</t>
+  </si>
+  <si>
+    <t>11.11.202563</t>
+  </si>
+  <si>
+    <t>11.11.202564</t>
+  </si>
+  <si>
+    <t>11.11.202565</t>
+  </si>
+  <si>
+    <t>11.11.202566</t>
+  </si>
+  <si>
+    <t>11.11.202567</t>
+  </si>
+  <si>
+    <t>11.11.202568</t>
+  </si>
+  <si>
+    <t>11.11.202569</t>
+  </si>
+  <si>
+    <t>11.11.202570</t>
+  </si>
+  <si>
+    <t>11.11.202571</t>
+  </si>
+  <si>
+    <t>11.11.202572</t>
+  </si>
+  <si>
+    <t>11.11.202573</t>
+  </si>
+  <si>
+    <t>11.11.202574</t>
+  </si>
+  <si>
+    <t>11.11.202575</t>
+  </si>
+  <si>
+    <t>11.11.202576</t>
+  </si>
+  <si>
+    <t>11.11.202577</t>
+  </si>
+  <si>
+    <t>11.11.202578</t>
+  </si>
+  <si>
+    <t>11.11.202579</t>
+  </si>
+  <si>
+    <t>11.11.202580</t>
+  </si>
+  <si>
+    <t>11.11.202581</t>
+  </si>
+  <si>
+    <t>11.11.202582</t>
+  </si>
+  <si>
+    <t>11.11.202583</t>
+  </si>
+  <si>
+    <t>11.11.202584</t>
+  </si>
+  <si>
+    <t>11.11.202585</t>
+  </si>
+  <si>
+    <t>11.11.202586</t>
+  </si>
+  <si>
+    <t>11.11.202587</t>
+  </si>
+  <si>
+    <t>11.11.202588</t>
+  </si>
+  <si>
+    <t>11.11.202589</t>
+  </si>
+  <si>
+    <t>11.11.202590</t>
+  </si>
+  <si>
+    <t>11.11.202591</t>
+  </si>
+  <si>
+    <t>11.11.202592</t>
+  </si>
+  <si>
+    <t>11.11.202593</t>
+  </si>
+  <si>
+    <t>11.11.202594</t>
+  </si>
+  <si>
+    <t>11.11.202595</t>
+  </si>
+  <si>
+    <t>11.11.202596</t>
+  </si>
+  <si>
+    <t>12.11.20251</t>
+  </si>
+  <si>
+    <t>12.11.20252</t>
+  </si>
+  <si>
+    <t>12.11.20253</t>
+  </si>
+  <si>
+    <t>12.11.20254</t>
+  </si>
+  <si>
+    <t>12.11.20255</t>
+  </si>
+  <si>
+    <t>12.11.20256</t>
+  </si>
+  <si>
+    <t>12.11.20257</t>
+  </si>
+  <si>
+    <t>12.11.20258</t>
+  </si>
+  <si>
+    <t>12.11.20259</t>
+  </si>
+  <si>
+    <t>12.11.202510</t>
+  </si>
+  <si>
+    <t>12.11.202511</t>
+  </si>
+  <si>
+    <t>12.11.202512</t>
+  </si>
+  <si>
+    <t>12.11.202513</t>
+  </si>
+  <si>
+    <t>12.11.202514</t>
+  </si>
+  <si>
+    <t>12.11.202515</t>
+  </si>
+  <si>
+    <t>12.11.202516</t>
+  </si>
+  <si>
+    <t>12.11.202517</t>
+  </si>
+  <si>
+    <t>12.11.202518</t>
+  </si>
+  <si>
+    <t>12.11.202519</t>
+  </si>
+  <si>
+    <t>12.11.202520</t>
+  </si>
+  <si>
+    <t>12.11.202521</t>
+  </si>
+  <si>
+    <t>12.11.202522</t>
+  </si>
+  <si>
+    <t>12.11.202523</t>
+  </si>
+  <si>
+    <t>12.11.202524</t>
+  </si>
+  <si>
+    <t>12.11.202525</t>
+  </si>
+  <si>
+    <t>12.11.202526</t>
+  </si>
+  <si>
+    <t>12.11.202527</t>
+  </si>
+  <si>
+    <t>12.11.202528</t>
+  </si>
+  <si>
+    <t>12.11.202529</t>
+  </si>
+  <si>
+    <t>12.11.202530</t>
+  </si>
+  <si>
+    <t>12.11.202531</t>
+  </si>
+  <si>
+    <t>12.11.202532</t>
+  </si>
+  <si>
+    <t>12.11.202533</t>
+  </si>
+  <si>
+    <t>12.11.202534</t>
+  </si>
+  <si>
+    <t>12.11.202535</t>
+  </si>
+  <si>
+    <t>12.11.202536</t>
+  </si>
+  <si>
+    <t>12.11.202537</t>
+  </si>
+  <si>
+    <t>12.11.202538</t>
+  </si>
+  <si>
+    <t>12.11.202539</t>
+  </si>
+  <si>
+    <t>12.11.202540</t>
+  </si>
+  <si>
+    <t>12.11.202541</t>
+  </si>
+  <si>
+    <t>12.11.202542</t>
+  </si>
+  <si>
+    <t>12.11.202543</t>
+  </si>
+  <si>
+    <t>12.11.202544</t>
+  </si>
+  <si>
+    <t>12.11.202545</t>
+  </si>
+  <si>
+    <t>12.11.202546</t>
+  </si>
+  <si>
+    <t>12.11.202547</t>
+  </si>
+  <si>
+    <t>12.11.202548</t>
+  </si>
+  <si>
+    <t>12.11.202549</t>
+  </si>
+  <si>
+    <t>12.11.202550</t>
+  </si>
+  <si>
+    <t>12.11.202551</t>
+  </si>
+  <si>
+    <t>12.11.202552</t>
+  </si>
+  <si>
+    <t>12.11.202553</t>
+  </si>
+  <si>
+    <t>12.11.202554</t>
+  </si>
+  <si>
+    <t>12.11.202555</t>
+  </si>
+  <si>
+    <t>12.11.202556</t>
+  </si>
+  <si>
+    <t>12.11.202557</t>
+  </si>
+  <si>
+    <t>12.11.202558</t>
+  </si>
+  <si>
+    <t>12.11.202559</t>
+  </si>
+  <si>
+    <t>12.11.202560</t>
+  </si>
+  <si>
+    <t>12.11.202561</t>
+  </si>
+  <si>
+    <t>12.11.202562</t>
+  </si>
+  <si>
+    <t>12.11.202563</t>
+  </si>
+  <si>
+    <t>12.11.202564</t>
+  </si>
+  <si>
+    <t>12.11.202565</t>
+  </si>
+  <si>
+    <t>12.11.202566</t>
+  </si>
+  <si>
+    <t>12.11.202567</t>
+  </si>
+  <si>
+    <t>12.11.202568</t>
+  </si>
+  <si>
+    <t>12.11.202569</t>
+  </si>
+  <si>
+    <t>12.11.202570</t>
+  </si>
+  <si>
+    <t>12.11.202571</t>
+  </si>
+  <si>
+    <t>12.11.202572</t>
+  </si>
+  <si>
+    <t>12.11.202573</t>
+  </si>
+  <si>
+    <t>12.11.202574</t>
+  </si>
+  <si>
+    <t>12.11.202575</t>
+  </si>
+  <si>
+    <t>12.11.202576</t>
+  </si>
+  <si>
+    <t>12.11.202577</t>
+  </si>
+  <si>
+    <t>12.11.202578</t>
+  </si>
+  <si>
+    <t>12.11.202579</t>
+  </si>
+  <si>
+    <t>12.11.202580</t>
+  </si>
+  <si>
+    <t>12.11.202581</t>
+  </si>
+  <si>
+    <t>12.11.202582</t>
+  </si>
+  <si>
+    <t>12.11.202583</t>
+  </si>
+  <si>
+    <t>12.11.202584</t>
+  </si>
+  <si>
+    <t>12.11.202585</t>
+  </si>
+  <si>
+    <t>12.11.202586</t>
+  </si>
+  <si>
+    <t>12.11.202587</t>
+  </si>
+  <si>
+    <t>12.11.202588</t>
+  </si>
+  <si>
+    <t>12.11.202589</t>
+  </si>
+  <si>
+    <t>12.11.202590</t>
+  </si>
+  <si>
+    <t>12.11.202591</t>
+  </si>
+  <si>
+    <t>12.11.202592</t>
+  </si>
+  <si>
+    <t>12.11.202593</t>
+  </si>
+  <si>
+    <t>12.11.202594</t>
+  </si>
+  <si>
+    <t>12.11.202595</t>
+  </si>
+  <si>
+    <t>12.11.202596</t>
+  </si>
+  <si>
+    <t>13.11.20251</t>
+  </si>
+  <si>
+    <t>13.11.20252</t>
+  </si>
+  <si>
+    <t>13.11.20253</t>
+  </si>
+  <si>
+    <t>13.11.20254</t>
+  </si>
+  <si>
+    <t>13.11.20255</t>
+  </si>
+  <si>
+    <t>13.11.20256</t>
+  </si>
+  <si>
+    <t>13.11.20257</t>
+  </si>
+  <si>
+    <t>13.11.20258</t>
+  </si>
+  <si>
+    <t>13.11.20259</t>
+  </si>
+  <si>
+    <t>13.11.202510</t>
+  </si>
+  <si>
+    <t>13.11.202511</t>
+  </si>
+  <si>
+    <t>13.11.202512</t>
+  </si>
+  <si>
+    <t>13.11.202513</t>
+  </si>
+  <si>
+    <t>13.11.202514</t>
+  </si>
+  <si>
+    <t>13.11.202515</t>
+  </si>
+  <si>
+    <t>13.11.202516</t>
+  </si>
+  <si>
+    <t>13.11.202517</t>
+  </si>
+  <si>
+    <t>13.11.202518</t>
+  </si>
+  <si>
+    <t>13.11.202519</t>
+  </si>
+  <si>
+    <t>13.11.202520</t>
+  </si>
+  <si>
+    <t>13.11.202521</t>
+  </si>
+  <si>
+    <t>13.11.202522</t>
+  </si>
+  <si>
+    <t>13.11.202523</t>
+  </si>
+  <si>
+    <t>13.11.202524</t>
+  </si>
+  <si>
+    <t>13.11.202525</t>
+  </si>
+  <si>
+    <t>13.11.202526</t>
+  </si>
+  <si>
+    <t>13.11.202527</t>
+  </si>
+  <si>
+    <t>13.11.202528</t>
+  </si>
+  <si>
+    <t>13.11.202529</t>
+  </si>
+  <si>
+    <t>13.11.202530</t>
+  </si>
+  <si>
+    <t>13.11.202531</t>
+  </si>
+  <si>
+    <t>13.11.202532</t>
+  </si>
+  <si>
+    <t>13.11.202533</t>
+  </si>
+  <si>
+    <t>13.11.202534</t>
+  </si>
+  <si>
+    <t>13.11.202535</t>
+  </si>
+  <si>
+    <t>13.11.202536</t>
+  </si>
+  <si>
+    <t>13.11.202537</t>
+  </si>
+  <si>
+    <t>13.11.202538</t>
+  </si>
+  <si>
+    <t>13.11.202539</t>
+  </si>
+  <si>
+    <t>13.11.202540</t>
+  </si>
+  <si>
+    <t>13.11.202541</t>
+  </si>
+  <si>
+    <t>13.11.202542</t>
+  </si>
+  <si>
+    <t>13.11.202543</t>
+  </si>
+  <si>
+    <t>13.11.202544</t>
+  </si>
+  <si>
+    <t>13.11.202545</t>
+  </si>
+  <si>
+    <t>13.11.202546</t>
+  </si>
+  <si>
+    <t>13.11.202547</t>
+  </si>
+  <si>
+    <t>13.11.202548</t>
+  </si>
+  <si>
+    <t>13.11.202549</t>
+  </si>
+  <si>
+    <t>13.11.202550</t>
+  </si>
+  <si>
+    <t>13.11.202551</t>
   </si>
 </sst>
 </file>
@@ -765,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,13 +1144,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B2">
-        <v>8.191000000000001</v>
+        <v>33.145</v>
       </c>
       <c r="C2">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -807,13 +1161,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45969.01041666666</v>
+        <v>45972.01041666666</v>
       </c>
       <c r="B3">
-        <v>6.212</v>
+        <v>4.643</v>
       </c>
       <c r="C3">
-        <v>0.498</v>
+        <v>3.122</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -824,13 +1178,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45969.02083333334</v>
+        <v>45972.02083333334</v>
       </c>
       <c r="B4">
-        <v>9.334</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.644</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -841,13 +1195,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45969.03125</v>
+        <v>45972.03125</v>
       </c>
       <c r="B5">
-        <v>8.616</v>
+        <v>3.578</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -858,13 +1212,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45969.04166666666</v>
+        <v>45972.04166666666</v>
       </c>
       <c r="B6">
-        <v>11.112</v>
+        <v>0.003</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>25.085</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -875,13 +1229,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45969.05208333334</v>
+        <v>45972.05208333334</v>
       </c>
       <c r="B7">
-        <v>13.144</v>
+        <v>0.018</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14.168</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -892,13 +1246,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45969.0625</v>
+        <v>45972.0625</v>
       </c>
       <c r="B8">
-        <v>3.548</v>
+        <v>1.85</v>
       </c>
       <c r="C8">
-        <v>1.463</v>
+        <v>2.872</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -909,13 +1263,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45969.07291666666</v>
+        <v>45972.07291666666</v>
       </c>
       <c r="B9">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.758</v>
+        <v>19.343</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -926,13 +1280,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45969.08333333334</v>
+        <v>45972.08333333334</v>
       </c>
       <c r="B10">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.057</v>
+        <v>26.124</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -943,13 +1297,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45969.09375</v>
+        <v>45972.09375</v>
       </c>
       <c r="B11">
-        <v>0.019</v>
+        <v>0.152</v>
       </c>
       <c r="C11">
-        <v>5.8</v>
+        <v>6.697</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -960,13 +1314,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45969.10416666666</v>
+        <v>45972.10416666666</v>
       </c>
       <c r="B12">
-        <v>1.107</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.83</v>
+        <v>1.072</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -977,13 +1331,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45969.11458333334</v>
+        <v>45972.11458333334</v>
       </c>
       <c r="B13">
-        <v>0.731</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>5.566</v>
+        <v>2.029</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -994,13 +1348,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45969.125</v>
+        <v>45972.125</v>
       </c>
       <c r="B14">
-        <v>0.299</v>
+        <v>1.33</v>
       </c>
       <c r="C14">
-        <v>4.991</v>
+        <v>0.752</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1011,13 +1365,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45969.13541666666</v>
+        <v>45972.13541666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="C15">
-        <v>9.164</v>
+        <v>1.57</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1028,13 +1382,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45969.14583333334</v>
+        <v>45972.14583333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="C16">
-        <v>6.924</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1045,13 +1399,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45969.15625</v>
+        <v>45972.15625</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C17">
-        <v>8.968999999999999</v>
+        <v>5.381</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1062,13 +1416,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45969.16666666666</v>
+        <v>45972.16666666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="C18">
-        <v>19.656</v>
+        <v>11.307</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1079,13 +1433,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45969.17708333334</v>
+        <v>45972.17708333334</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C19">
-        <v>14.908</v>
+        <v>10.293</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1096,13 +1450,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45969.1875</v>
+        <v>45972.1875</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.778</v>
       </c>
       <c r="C20">
-        <v>5.321</v>
+        <v>5.48</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1113,13 +1467,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45969.19791666666</v>
+        <v>45972.19791666666</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="C21">
-        <v>5.875</v>
+        <v>10.864</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1130,13 +1484,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45969.20833333334</v>
+        <v>45972.20833333334</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.211</v>
       </c>
       <c r="C22">
-        <v>33.339</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1147,13 +1501,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45969.21875</v>
+        <v>45972.21875</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="C23">
-        <v>42.556</v>
+        <v>18.425</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1164,13 +1518,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45969.22916666666</v>
+        <v>45972.22916666666</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>38.377</v>
+        <v>36.517</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1181,13 +1535,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45969.23958333334</v>
+        <v>45972.23958333334</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.392</v>
       </c>
       <c r="C25">
-        <v>13.999</v>
+        <v>11.859</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1198,13 +1552,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45969.25</v>
+        <v>45972.25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>60.406</v>
+        <v>33.74</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1215,13 +1569,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45969.26041666666</v>
+        <v>45972.26041666666</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>20.337</v>
+        <v>48.264</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1232,13 +1586,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45969.27083333334</v>
+        <v>45972.27083333334</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>13.395</v>
+        <v>22.214</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1249,13 +1603,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45969.28125</v>
+        <v>45972.28125</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>12.136</v>
+        <v>44.75</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1266,13 +1620,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45969.29166666666</v>
+        <v>45972.29166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7.366</v>
+        <v>58.128</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1283,13 +1637,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45969.30208333334</v>
+        <v>45972.30208333334</v>
       </c>
       <c r="B31">
-        <v>1.866</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>16.943</v>
+        <v>50.754</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1300,13 +1654,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45969.3125</v>
+        <v>45972.3125</v>
       </c>
       <c r="B32">
-        <v>1.204</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>3.135</v>
+        <v>48.902</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1317,13 +1671,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45969.32291666666</v>
+        <v>45972.32291666666</v>
       </c>
       <c r="B33">
-        <v>0.864</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>12.297</v>
+        <v>12.569</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1334,13 +1688,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45969.33333333334</v>
+        <v>45972.33333333334</v>
       </c>
       <c r="B34">
-        <v>21.532</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.481</v>
+        <v>23.936</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1351,13 +1705,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45969.34375</v>
+        <v>45972.34375</v>
       </c>
       <c r="B35">
-        <v>46.86</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>22.099</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1368,13 +1722,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45969.35416666666</v>
+        <v>45972.35416666666</v>
       </c>
       <c r="B36">
-        <v>21.981</v>
+        <v>0.019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14.428</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -1385,13 +1739,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45969.36458333334</v>
+        <v>45972.36458333334</v>
       </c>
       <c r="B37">
-        <v>28.526</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>30.072</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1402,13 +1756,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45969.375</v>
+        <v>45972.375</v>
       </c>
       <c r="B38">
-        <v>3.272</v>
+        <v>0.151</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>24.135</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1419,13 +1773,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45969.38541666666</v>
+        <v>45972.38541666666</v>
       </c>
       <c r="B39">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>15.917</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1436,13 +1790,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45969.39583333334</v>
+        <v>45972.39583333334</v>
       </c>
       <c r="B40">
-        <v>14.001</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>13.884</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1453,13 +1807,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45969.40625</v>
+        <v>45972.40625</v>
       </c>
       <c r="B41">
-        <v>13.29</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>62.638</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1470,13 +1824,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45969.41666666666</v>
+        <v>45972.41666666666</v>
       </c>
       <c r="B42">
-        <v>1.676</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>22.988</v>
+        <v>67.321</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1487,13 +1841,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45969.42708333334</v>
+        <v>45972.42708333334</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>19.586</v>
+        <v>14.319</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1504,13 +1858,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45969.4375</v>
+        <v>45972.4375</v>
       </c>
       <c r="B44">
-        <v>0.052</v>
+        <v>0.374</v>
       </c>
       <c r="C44">
-        <v>13.749</v>
+        <v>15.429</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -1521,13 +1875,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45969.44791666666</v>
+        <v>45972.44791666666</v>
       </c>
       <c r="B45">
-        <v>3.04</v>
+        <v>0.393</v>
       </c>
       <c r="C45">
-        <v>3.246</v>
+        <v>5.418</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1538,13 +1892,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45969.45833333334</v>
+        <v>45972.45833333334</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="C46">
-        <v>19.69</v>
+        <v>30.065</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1555,13 +1909,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45969.46875</v>
+        <v>45972.46875</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>19.656</v>
+        <v>28.932</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1572,13 +1926,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45969.47916666666</v>
+        <v>45972.47916666666</v>
       </c>
       <c r="B48">
-        <v>0.954</v>
+        <v>2.376</v>
       </c>
       <c r="C48">
-        <v>1.067</v>
+        <v>5.12</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1589,13 +1943,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45969.48958333334</v>
+        <v>45972.48958333334</v>
       </c>
       <c r="B49">
-        <v>1.945</v>
+        <v>1.675</v>
       </c>
       <c r="C49">
-        <v>3.585</v>
+        <v>2.541</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1606,13 +1960,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45969.5</v>
+        <v>45972.5</v>
       </c>
       <c r="B50">
-        <v>1.077</v>
+        <v>0.431</v>
       </c>
       <c r="C50">
-        <v>2.395</v>
+        <v>5.108</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1623,13 +1977,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45969.51041666666</v>
+        <v>45972.51041666666</v>
       </c>
       <c r="B51">
-        <v>1.007</v>
+        <v>2.093</v>
       </c>
       <c r="C51">
-        <v>3.997</v>
+        <v>0.206</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1640,13 +1994,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45969.52083333334</v>
+        <v>45972.52083333334</v>
       </c>
       <c r="B52">
-        <v>7.823</v>
+        <v>8.56</v>
       </c>
       <c r="C52">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -1657,13 +2011,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45969.53125</v>
+        <v>45972.53125</v>
       </c>
       <c r="B53">
-        <v>8.351000000000001</v>
+        <v>9.212</v>
       </c>
       <c r="C53">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -1674,13 +2028,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45969.54166666666</v>
+        <v>45972.54166666666</v>
       </c>
       <c r="B54">
-        <v>4.253</v>
+        <v>0.616</v>
       </c>
       <c r="C54">
-        <v>0.896</v>
+        <v>7.344</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -1691,13 +2045,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45969.55208333334</v>
+        <v>45972.55208333334</v>
       </c>
       <c r="B55">
-        <v>3.044</v>
+        <v>1.811</v>
       </c>
       <c r="C55">
-        <v>2.062</v>
+        <v>2.017</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -1708,13 +2062,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45969.5625</v>
+        <v>45972.5625</v>
       </c>
       <c r="B56">
-        <v>5.368</v>
+        <v>1.094</v>
       </c>
       <c r="C56">
-        <v>0.471</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1725,13 +2079,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45969.57291666666</v>
+        <v>45972.57291666666</v>
       </c>
       <c r="B57">
-        <v>4.974</v>
+        <v>0.95</v>
       </c>
       <c r="C57">
-        <v>0.762</v>
+        <v>2.678</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1742,13 +2096,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45969.58333333334</v>
+        <v>45972.58333333334</v>
       </c>
       <c r="B58">
-        <v>3.129</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>1.833</v>
+        <v>41.501</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1759,13 +2113,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45969.59375</v>
+        <v>45972.59375</v>
       </c>
       <c r="B59">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>15.945</v>
+        <v>21.909</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1776,13 +2130,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45969.60416666666</v>
+        <v>45972.60416666666</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="C60">
-        <v>18.451</v>
+        <v>4.443</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1793,13 +2147,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45969.61458333334</v>
+        <v>45972.61458333334</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2.486</v>
       </c>
       <c r="C61">
-        <v>25.108</v>
+        <v>3.991</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1810,13 +2164,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45969.625</v>
+        <v>45972.625</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>13.502</v>
       </c>
       <c r="C62">
-        <v>37.958</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1827,13 +2181,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45969.63541666666</v>
+        <v>45972.63541666666</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>8.179</v>
       </c>
       <c r="C63">
-        <v>46.902</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1844,13 +2198,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45969.64583333334</v>
+        <v>45972.64583333334</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.298</v>
       </c>
       <c r="C64">
-        <v>50.968</v>
+        <v>1.752</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1861,13 +2215,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45969.65625</v>
+        <v>45972.65625</v>
       </c>
       <c r="B65">
-        <v>0.026</v>
+        <v>6.405</v>
       </c>
       <c r="C65">
-        <v>12.468</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1878,13 +2232,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45969.66666666666</v>
+        <v>45972.66666666666</v>
       </c>
       <c r="B66">
-        <v>0.128</v>
+        <v>7.142</v>
       </c>
       <c r="C66">
-        <v>8.068</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -1895,13 +2249,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45969.67708333334</v>
+        <v>45972.67708333334</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>9.497</v>
       </c>
       <c r="C67">
-        <v>70.008</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>66</v>
@@ -1912,13 +2266,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45969.6875</v>
+        <v>45972.6875</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>6.495</v>
       </c>
       <c r="C68">
-        <v>101.736</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>67</v>
@@ -1929,13 +2283,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45969.69791666666</v>
+        <v>45972.69791666666</v>
       </c>
       <c r="B69">
-        <v>0.064</v>
+        <v>1.006</v>
       </c>
       <c r="C69">
-        <v>35.8</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>68</v>
@@ -1946,13 +2300,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45969.70833333334</v>
+        <v>45972.70833333334</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="C70">
-        <v>32.071</v>
+        <v>4.619</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1963,13 +2317,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45969.71875</v>
+        <v>45972.71875</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>4.286</v>
       </c>
       <c r="C71">
-        <v>44.327</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1980,13 +2334,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45969.72916666666</v>
+        <v>45972.72916666666</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7.967</v>
       </c>
       <c r="C72">
-        <v>59.777</v>
+        <v>0.479</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -1997,13 +2351,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45969.73958333334</v>
+        <v>45972.73958333334</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>14.595</v>
       </c>
       <c r="C73">
-        <v>40.255</v>
+        <v>0.098</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2014,13 +2368,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45969.75</v>
+        <v>45972.75</v>
       </c>
       <c r="B74">
-        <v>0.827</v>
+        <v>0.156</v>
       </c>
       <c r="C74">
-        <v>12.549</v>
+        <v>4.302</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2031,13 +2385,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45969.76041666666</v>
+        <v>45972.76041666666</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>49.195</v>
+        <v>19.571</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2048,13 +2402,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45969.77083333334</v>
+        <v>45972.77083333334</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>39.369</v>
+        <v>22.198</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2065,13 +2419,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45969.78125</v>
+        <v>45972.78125</v>
       </c>
       <c r="B77">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>11.437</v>
+        <v>31.85</v>
       </c>
       <c r="D77">
         <v>76</v>
@@ -2082,13 +2436,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45969.79166666666</v>
+        <v>45972.79166666666</v>
       </c>
       <c r="B78">
-        <v>3.42</v>
+        <v>0.004</v>
       </c>
       <c r="C78">
-        <v>0.204</v>
+        <v>37.789</v>
       </c>
       <c r="D78">
         <v>77</v>
@@ -2099,13 +2453,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45969.80208333334</v>
+        <v>45972.80208333334</v>
       </c>
       <c r="B79">
-        <v>6.567</v>
+        <v>3.631</v>
       </c>
       <c r="C79">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -2116,13 +2470,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45969.8125</v>
+        <v>45972.8125</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>3.868</v>
       </c>
       <c r="C80">
-        <v>4.267</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>79</v>
@@ -2133,13 +2487,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45969.82291666666</v>
+        <v>45972.82291666666</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>6.822</v>
       </c>
       <c r="C81">
-        <v>2.275</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2150,13 +2504,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45969.83333333334</v>
+        <v>45972.83333333334</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>12.565</v>
       </c>
       <c r="C82">
-        <v>18.865</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2167,13 +2521,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45969.84375</v>
+        <v>45972.84375</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>8.464</v>
       </c>
       <c r="C83">
-        <v>6.799</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2184,13 +2538,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45969.85416666666</v>
+        <v>45972.85416666666</v>
       </c>
       <c r="B84">
-        <v>0.598</v>
+        <v>0.272</v>
       </c>
       <c r="C84">
-        <v>1.222</v>
+        <v>15.255</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2201,13 +2555,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45969.86458333334</v>
+        <v>45972.86458333334</v>
       </c>
       <c r="B85">
-        <v>6.281</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.002</v>
+        <v>22.926</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2218,13 +2572,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45969.875</v>
+        <v>45972.875</v>
       </c>
       <c r="B86">
-        <v>37.09</v>
+        <v>1.58</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2.142</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2235,13 +2589,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45969.88541666666</v>
+        <v>45972.88541666666</v>
       </c>
       <c r="B87">
-        <v>57.436</v>
+        <v>0.132</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7.227</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2252,13 +2606,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45969.89583333334</v>
+        <v>45972.89583333334</v>
       </c>
       <c r="B88">
-        <v>59.553</v>
+        <v>2.223</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2269,13 +2623,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45969.90625</v>
+        <v>45972.90625</v>
       </c>
       <c r="B89">
-        <v>25.54</v>
+        <v>0.028</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>12.172</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2286,13 +2640,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45969.91666666666</v>
+        <v>45972.91666666666</v>
       </c>
       <c r="B90">
-        <v>63.154</v>
+        <v>2.246</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1.006</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2303,13 +2657,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B91">
-        <v>62.835</v>
+        <v>8.586</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="D91">
         <v>90</v>
@@ -2320,13 +2674,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45969.92708333334</v>
+        <v>45972.92708333334</v>
       </c>
       <c r="B92">
-        <v>62.835</v>
+        <v>8.586</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.269</v>
       </c>
       <c r="D92">
         <v>90</v>
@@ -2337,13 +2691,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B93">
-        <v>34.512</v>
+        <v>1.47</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>5.534</v>
       </c>
       <c r="D93">
         <v>91</v>
@@ -2354,13 +2708,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45969.9375</v>
+        <v>45972.9375</v>
       </c>
       <c r="B94">
-        <v>34.512</v>
+        <v>1.47</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5.534</v>
       </c>
       <c r="D94">
         <v>91</v>
@@ -2371,13 +2725,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B95">
-        <v>0.051</v>
+        <v>0.19</v>
       </c>
       <c r="C95">
-        <v>41.195</v>
+        <v>2.951</v>
       </c>
       <c r="D95">
         <v>92</v>
@@ -2388,13 +2742,13 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45969.94791666666</v>
+        <v>45972.94791666666</v>
       </c>
       <c r="B96">
-        <v>0.051</v>
+        <v>0.19</v>
       </c>
       <c r="C96">
-        <v>41.195</v>
+        <v>2.951</v>
       </c>
       <c r="D96">
         <v>92</v>
@@ -2405,13 +2759,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="C97">
-        <v>36.848</v>
+        <v>0.744</v>
       </c>
       <c r="D97">
         <v>93</v>
@@ -2422,13 +2776,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45969.95833333334</v>
+        <v>45972.95833333334</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>8.465999999999999</v>
       </c>
       <c r="C98">
-        <v>36.848</v>
+        <v>0.744</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -2439,13 +2793,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>22.386</v>
       </c>
       <c r="C99">
-        <v>28.94</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>94</v>
@@ -2456,13 +2810,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45969.96875</v>
+        <v>45972.96875</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>22.386</v>
       </c>
       <c r="C100">
-        <v>28.94</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>94</v>
@@ -2473,13 +2827,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>7.439</v>
       </c>
       <c r="C101">
-        <v>23.497</v>
+        <v>0</v>
       </c>
       <c r="D101">
         <v>95</v>
@@ -2490,13 +2844,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45969.97916666666</v>
+        <v>45972.97916666666</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>7.439</v>
       </c>
       <c r="C102">
-        <v>23.497</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>95</v>
@@ -2507,13 +2861,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>8.343</v>
       </c>
       <c r="C103">
-        <v>22.461</v>
+        <v>0.045</v>
       </c>
       <c r="D103">
         <v>96</v>
@@ -2524,13 +2878,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45969.98958333334</v>
+        <v>45972.98958333334</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>8.343</v>
       </c>
       <c r="C104">
-        <v>22.461</v>
+        <v>0.045</v>
       </c>
       <c r="D104">
         <v>96</v>
@@ -2541,13 +2895,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.462</v>
       </c>
       <c r="C105">
-        <v>7.583</v>
+        <v>6.549</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2558,13 +2912,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45970.01041666666</v>
+        <v>45973.01041666666</v>
       </c>
       <c r="B106">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>11.998</v>
+        <v>12.712</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2575,13 +2929,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45970.02083333334</v>
+        <v>45973.02083333334</v>
       </c>
       <c r="B107">
-        <v>1.23</v>
+        <v>0.039</v>
       </c>
       <c r="C107">
-        <v>1.44</v>
+        <v>2.185</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -2592,13 +2946,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45970.03125</v>
+        <v>45973.03125</v>
       </c>
       <c r="B108">
-        <v>3.624</v>
+        <v>0.885</v>
       </c>
       <c r="C108">
-        <v>3.678</v>
+        <v>6.25</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -2609,13 +2963,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45970.04166666666</v>
+        <v>45973.04166666666</v>
       </c>
       <c r="B109">
-        <v>3.204</v>
+        <v>0.006</v>
       </c>
       <c r="C109">
-        <v>0.61</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -2626,13 +2980,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45970.05208333334</v>
+        <v>45973.05208333334</v>
       </c>
       <c r="B110">
-        <v>2.952</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.5600000000000001</v>
+        <v>9.541</v>
       </c>
       <c r="D110">
         <v>6</v>
@@ -2643,13 +2997,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45970.0625</v>
+        <v>45973.0625</v>
       </c>
       <c r="B111">
-        <v>2.939</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>1.127</v>
+        <v>18.281</v>
       </c>
       <c r="D111">
         <v>7</v>
@@ -2660,13 +3014,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45970.07291666666</v>
+        <v>45973.07291666666</v>
       </c>
       <c r="B112">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>3.377</v>
+        <v>18.751</v>
       </c>
       <c r="D112">
         <v>8</v>
@@ -2677,13 +3031,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45970.08333333334</v>
+        <v>45973.08333333334</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>0.176</v>
       </c>
       <c r="C113">
-        <v>43.665</v>
+        <v>6.038</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -2694,13 +3048,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45970.09375</v>
+        <v>45973.09375</v>
       </c>
       <c r="B114">
-        <v>0.916</v>
+        <v>0.339</v>
       </c>
       <c r="C114">
-        <v>9.532</v>
+        <v>13.663</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -2711,13 +3065,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45970.10416666666</v>
+        <v>45973.10416666666</v>
       </c>
       <c r="B115">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>5.968</v>
+        <v>16.209</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -2728,13 +3082,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45970.11458333334</v>
+        <v>45973.11458333334</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>22.399</v>
+        <v>13.547</v>
       </c>
       <c r="D116">
         <v>12</v>
@@ -2745,13 +3099,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45970.125</v>
+        <v>45973.125</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>10.42</v>
+        <v>22.825</v>
       </c>
       <c r="D117">
         <v>13</v>
@@ -2762,13 +3116,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45970.13541666666</v>
+        <v>45973.13541666666</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>13.868</v>
+        <v>8.868</v>
       </c>
       <c r="D118">
         <v>14</v>
@@ -2779,13 +3133,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45970.14583333334</v>
+        <v>45973.14583333334</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119">
-        <v>22.114</v>
+        <v>12.821</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -2796,13 +3150,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45970.15625</v>
+        <v>45973.15625</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1.575</v>
       </c>
       <c r="C120">
-        <v>39.259</v>
+        <v>4.218</v>
       </c>
       <c r="D120">
         <v>16</v>
@@ -2813,13 +3167,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45970.16666666666</v>
+        <v>45973.16666666666</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>42.196</v>
+        <v>28.696</v>
       </c>
       <c r="D121">
         <v>17</v>
@@ -2830,13 +3184,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45970.17708333334</v>
+        <v>45973.17708333334</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>8.507</v>
       </c>
       <c r="C122">
-        <v>57.057</v>
+        <v>5.692</v>
       </c>
       <c r="D122">
         <v>18</v>
@@ -2847,13 +3201,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45970.1875</v>
+        <v>45973.1875</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>26.927</v>
       </c>
       <c r="C123">
-        <v>42.629</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>19</v>
@@ -2864,13 +3218,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45970.19791666666</v>
+        <v>45973.19791666666</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>16.623</v>
       </c>
       <c r="C124">
-        <v>26.289</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -2881,13 +3235,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45970.20833333334</v>
+        <v>45973.20833333334</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>4.249</v>
       </c>
       <c r="C125">
-        <v>34.201</v>
+        <v>8.315</v>
       </c>
       <c r="D125">
         <v>21</v>
@@ -2898,13 +3252,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45970.21875</v>
+        <v>45973.21875</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="C126">
-        <v>36.947</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>22</v>
@@ -2915,13 +3269,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45970.22916666666</v>
+        <v>45973.22916666666</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>7.886</v>
       </c>
       <c r="C127">
-        <v>30.282</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -2932,13 +3286,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45970.23958333334</v>
+        <v>45973.23958333334</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>9.647</v>
       </c>
       <c r="C128">
-        <v>36.687</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>24</v>
@@ -2949,13 +3303,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45970.25</v>
+        <v>45973.25</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>0.313</v>
       </c>
       <c r="C129">
-        <v>49.486</v>
+        <v>4.916</v>
       </c>
       <c r="D129">
         <v>25</v>
@@ -2966,13 +3320,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45970.26041666666</v>
+        <v>45973.26041666666</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>3.713</v>
       </c>
       <c r="C130">
-        <v>45.473</v>
+        <v>0.579</v>
       </c>
       <c r="D130">
         <v>26</v>
@@ -2983,13 +3337,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45970.27083333334</v>
+        <v>45973.27083333334</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>8.173999999999999</v>
       </c>
       <c r="C131">
-        <v>24.09</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>27</v>
@@ -3000,13 +3354,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45970.28125</v>
+        <v>45973.28125</v>
       </c>
       <c r="B132">
-        <v>0.499</v>
+        <v>3.469</v>
       </c>
       <c r="C132">
-        <v>4.425</v>
+        <v>3.293</v>
       </c>
       <c r="D132">
         <v>28</v>
@@ -3017,19 +3371,2144 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45970.29166666666</v>
+        <v>45973.29166666666</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C133">
-        <v>11.828</v>
+        <v>11.519</v>
       </c>
       <c r="D133">
         <v>29</v>
       </c>
       <c r="E133" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45973.30208333334</v>
+      </c>
+      <c r="B134">
+        <v>0.02</v>
+      </c>
+      <c r="C134">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45973.3125</v>
+      </c>
+      <c r="B135">
+        <v>12.737</v>
+      </c>
+      <c r="C135">
+        <v>0.02</v>
+      </c>
+      <c r="D135">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45973.32291666666</v>
+      </c>
+      <c r="B136">
+        <v>12.191</v>
+      </c>
+      <c r="C136">
+        <v>0.463</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45973.33333333334</v>
+      </c>
+      <c r="B137">
+        <v>8.66</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45973.34375</v>
+      </c>
+      <c r="B138">
+        <v>7.052</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>34</v>
+      </c>
+      <c r="E138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45973.35416666666</v>
+      </c>
+      <c r="B139">
+        <v>1.922</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45973.36458333334</v>
+      </c>
+      <c r="B140">
+        <v>3.009</v>
+      </c>
+      <c r="C140">
+        <v>0.554</v>
+      </c>
+      <c r="D140">
+        <v>36</v>
+      </c>
+      <c r="E140" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45973.375</v>
+      </c>
+      <c r="B141">
+        <v>10.816</v>
+      </c>
+      <c r="C141">
+        <v>0.146</v>
+      </c>
+      <c r="D141">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45973.38541666666</v>
+      </c>
+      <c r="B142">
+        <v>11.71</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45973.39583333334</v>
+      </c>
+      <c r="B143">
+        <v>1.172</v>
+      </c>
+      <c r="C143">
+        <v>4.192</v>
+      </c>
+      <c r="D143">
+        <v>39</v>
+      </c>
+      <c r="E143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45973.40625</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>39.342</v>
+      </c>
+      <c r="D144">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45973.41666666666</v>
+      </c>
+      <c r="B145">
+        <v>0.119</v>
+      </c>
+      <c r="C145">
+        <v>8.215</v>
+      </c>
+      <c r="D145">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45973.42708333334</v>
+      </c>
+      <c r="B146">
+        <v>0.609</v>
+      </c>
+      <c r="C146">
+        <v>1.131</v>
+      </c>
+      <c r="D146">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45973.4375</v>
+      </c>
+      <c r="B147">
+        <v>1.395</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>43</v>
+      </c>
+      <c r="E147" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45973.44791666666</v>
+      </c>
+      <c r="B148">
+        <v>1.455</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45973.45833333334</v>
+      </c>
+      <c r="B149">
+        <v>7.021</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45973.46875</v>
+      </c>
+      <c r="B150">
+        <v>3.021</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="E150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45973.47916666666</v>
+      </c>
+      <c r="B151">
+        <v>3.158</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45973.48958333334</v>
+      </c>
+      <c r="B152">
+        <v>2.911</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45973.5</v>
+      </c>
+      <c r="B153">
+        <v>7.33</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>49</v>
+      </c>
+      <c r="E153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45973.51041666666</v>
+      </c>
+      <c r="B154">
+        <v>6.05</v>
+      </c>
+      <c r="C154">
+        <v>0.424</v>
+      </c>
+      <c r="D154">
+        <v>50</v>
+      </c>
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45973.52083333334</v>
+      </c>
+      <c r="B155">
+        <v>2.375</v>
+      </c>
+      <c r="C155">
+        <v>1.088</v>
+      </c>
+      <c r="D155">
+        <v>51</v>
+      </c>
+      <c r="E155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45973.53125</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>25.922</v>
+      </c>
+      <c r="D156">
+        <v>52</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45973.54166666666</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>57.141</v>
+      </c>
+      <c r="D157">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45973.55208333334</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>44.729</v>
+      </c>
+      <c r="D158">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45973.5625</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>29.956</v>
+      </c>
+      <c r="D159">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45973.57291666666</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>25.283</v>
+      </c>
+      <c r="D160">
+        <v>56</v>
+      </c>
+      <c r="E160" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45973.58333333334</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>58.018</v>
+      </c>
+      <c r="D161">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45973.59375</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>41.343</v>
+      </c>
+      <c r="D162">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45973.60416666666</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>38.124</v>
+      </c>
+      <c r="D163">
+        <v>59</v>
+      </c>
+      <c r="E163" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45973.61458333334</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>38.828</v>
+      </c>
+      <c r="D164">
+        <v>60</v>
+      </c>
+      <c r="E164" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45973.625</v>
+      </c>
+      <c r="B165">
+        <v>0.604</v>
+      </c>
+      <c r="C165">
+        <v>9.151</v>
+      </c>
+      <c r="D165">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45973.63541666666</v>
+      </c>
+      <c r="B166">
+        <v>0.015</v>
+      </c>
+      <c r="C166">
+        <v>16.341</v>
+      </c>
+      <c r="D166">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45973.64583333334</v>
+      </c>
+      <c r="B167">
+        <v>0.001</v>
+      </c>
+      <c r="C167">
+        <v>7.006</v>
+      </c>
+      <c r="D167">
+        <v>63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45973.65625</v>
+      </c>
+      <c r="B168">
+        <v>1.397</v>
+      </c>
+      <c r="C168">
+        <v>0.273</v>
+      </c>
+      <c r="D168">
+        <v>64</v>
+      </c>
+      <c r="E168" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45973.66666666666</v>
+      </c>
+      <c r="B169">
+        <v>0.008</v>
+      </c>
+      <c r="C169">
+        <v>9.292</v>
+      </c>
+      <c r="D169">
+        <v>65</v>
+      </c>
+      <c r="E169" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45973.67708333334</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>10.517</v>
+      </c>
+      <c r="D170">
+        <v>66</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45973.6875</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>23.863</v>
+      </c>
+      <c r="D171">
+        <v>67</v>
+      </c>
+      <c r="E171" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45973.69791666666</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>23.61</v>
+      </c>
+      <c r="D172">
+        <v>68</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45973.70833333334</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>27.308</v>
+      </c>
+      <c r="D173">
+        <v>69</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45973.71875</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>43.705</v>
+      </c>
+      <c r="D174">
+        <v>70</v>
+      </c>
+      <c r="E174" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45973.72916666666</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>33.78</v>
+      </c>
+      <c r="D175">
+        <v>71</v>
+      </c>
+      <c r="E175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45973.73958333334</v>
+      </c>
+      <c r="B176">
+        <v>0.22</v>
+      </c>
+      <c r="C176">
+        <v>1.196</v>
+      </c>
+      <c r="D176">
+        <v>72</v>
+      </c>
+      <c r="E176" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45973.75</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>22.747</v>
+      </c>
+      <c r="D177">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45973.76041666666</v>
+      </c>
+      <c r="B178">
+        <v>0.014</v>
+      </c>
+      <c r="C178">
+        <v>9.222</v>
+      </c>
+      <c r="D178">
+        <v>74</v>
+      </c>
+      <c r="E178" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45973.77083333334</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>8.85</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45973.78125</v>
+      </c>
+      <c r="B180">
+        <v>0.145</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>76</v>
+      </c>
+      <c r="E180" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45973.79166666666</v>
+      </c>
+      <c r="B181">
+        <v>0.005</v>
+      </c>
+      <c r="C181">
+        <v>26.707</v>
+      </c>
+      <c r="D181">
+        <v>77</v>
+      </c>
+      <c r="E181" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45973.80208333334</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>26.511</v>
+      </c>
+      <c r="D182">
+        <v>78</v>
+      </c>
+      <c r="E182" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45973.8125</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>23.461</v>
+      </c>
+      <c r="D183">
+        <v>79</v>
+      </c>
+      <c r="E183" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45973.82291666666</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>25.329</v>
+      </c>
+      <c r="D184">
+        <v>80</v>
+      </c>
+      <c r="E184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45973.83333333334</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>25.69</v>
+      </c>
+      <c r="D185">
+        <v>81</v>
+      </c>
+      <c r="E185" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45973.84375</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>15.694</v>
+      </c>
+      <c r="D186">
+        <v>82</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45973.85416666666</v>
+      </c>
+      <c r="B187">
+        <v>0.316</v>
+      </c>
+      <c r="C187">
+        <v>7.838</v>
+      </c>
+      <c r="D187">
+        <v>83</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45973.86458333334</v>
+      </c>
+      <c r="B188">
+        <v>0.496</v>
+      </c>
+      <c r="C188">
+        <v>8.01</v>
+      </c>
+      <c r="D188">
+        <v>84</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45973.875</v>
+      </c>
+      <c r="B189">
+        <v>0.278</v>
+      </c>
+      <c r="C189">
+        <v>6.741</v>
+      </c>
+      <c r="D189">
+        <v>85</v>
+      </c>
+      <c r="E189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45973.88541666666</v>
+      </c>
+      <c r="B190">
+        <v>0.005</v>
+      </c>
+      <c r="C190">
+        <v>6.422</v>
+      </c>
+      <c r="D190">
+        <v>86</v>
+      </c>
+      <c r="E190" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45973.89583333334</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>14.218</v>
+      </c>
+      <c r="D191">
+        <v>87</v>
+      </c>
+      <c r="E191" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45973.90625</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>16.156</v>
+      </c>
+      <c r="D192">
+        <v>88</v>
+      </c>
+      <c r="E192" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45973.91666666666</v>
+      </c>
+      <c r="B193">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="C193">
+        <v>2.737</v>
+      </c>
+      <c r="D193">
+        <v>89</v>
+      </c>
+      <c r="E193" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B194">
+        <v>0.015</v>
+      </c>
+      <c r="C194">
+        <v>6.455</v>
+      </c>
+      <c r="D194">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45973.92708333334</v>
+      </c>
+      <c r="B195">
+        <v>0.015</v>
+      </c>
+      <c r="C195">
+        <v>6.455</v>
+      </c>
+      <c r="D195">
+        <v>90</v>
+      </c>
+      <c r="E195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B196">
+        <v>1.938</v>
+      </c>
+      <c r="C196">
+        <v>0.262</v>
+      </c>
+      <c r="D196">
+        <v>91</v>
+      </c>
+      <c r="E196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45973.9375</v>
+      </c>
+      <c r="B197">
+        <v>1.938</v>
+      </c>
+      <c r="C197">
+        <v>0.262</v>
+      </c>
+      <c r="D197">
+        <v>91</v>
+      </c>
+      <c r="E197" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B198">
+        <v>0.356</v>
+      </c>
+      <c r="C198">
+        <v>5.717</v>
+      </c>
+      <c r="D198">
+        <v>92</v>
+      </c>
+      <c r="E198" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45973.94791666666</v>
+      </c>
+      <c r="B199">
+        <v>0.356</v>
+      </c>
+      <c r="C199">
+        <v>5.717</v>
+      </c>
+      <c r="D199">
+        <v>92</v>
+      </c>
+      <c r="E199" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B200">
+        <v>0.573</v>
+      </c>
+      <c r="C200">
+        <v>7.06</v>
+      </c>
+      <c r="D200">
+        <v>93</v>
+      </c>
+      <c r="E200" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45973.95833333334</v>
+      </c>
+      <c r="B201">
+        <v>0.573</v>
+      </c>
+      <c r="C201">
+        <v>7.06</v>
+      </c>
+      <c r="D201">
+        <v>93</v>
+      </c>
+      <c r="E201" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B202">
+        <v>0.121</v>
+      </c>
+      <c r="C202">
+        <v>1.83</v>
+      </c>
+      <c r="D202">
+        <v>94</v>
+      </c>
+      <c r="E202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>45973.96875</v>
+      </c>
+      <c r="B203">
+        <v>0.121</v>
+      </c>
+      <c r="C203">
+        <v>1.83</v>
+      </c>
+      <c r="D203">
+        <v>94</v>
+      </c>
+      <c r="E203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B204">
+        <v>0.46</v>
+      </c>
+      <c r="C204">
+        <v>5.171</v>
+      </c>
+      <c r="D204">
+        <v>95</v>
+      </c>
+      <c r="E204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>45973.97916666666</v>
+      </c>
+      <c r="B205">
+        <v>0.46</v>
+      </c>
+      <c r="C205">
+        <v>5.171</v>
+      </c>
+      <c r="D205">
+        <v>95</v>
+      </c>
+      <c r="E205" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B206">
+        <v>0.906</v>
+      </c>
+      <c r="C206">
+        <v>0.888</v>
+      </c>
+      <c r="D206">
+        <v>96</v>
+      </c>
+      <c r="E206" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>45973.98958333334</v>
+      </c>
+      <c r="B207">
+        <v>0.906</v>
+      </c>
+      <c r="C207">
+        <v>0.888</v>
+      </c>
+      <c r="D207">
+        <v>96</v>
+      </c>
+      <c r="E207" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>45974</v>
+      </c>
+      <c r="B208">
+        <v>1.128</v>
+      </c>
+      <c r="C208">
+        <v>5.703</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>45974.01041666666</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>14.459</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>45974.02083333334</v>
+      </c>
+      <c r="B210">
+        <v>0.173</v>
+      </c>
+      <c r="C210">
+        <v>10.793</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+      <c r="E210" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>45974.03125</v>
+      </c>
+      <c r="B211">
+        <v>0.368</v>
+      </c>
+      <c r="C211">
+        <v>1.33</v>
+      </c>
+      <c r="D211">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>45974.04166666666</v>
+      </c>
+      <c r="B212">
+        <v>1.441</v>
+      </c>
+      <c r="C212">
+        <v>1.047</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>45974.05208333334</v>
+      </c>
+      <c r="B213">
+        <v>0.98</v>
+      </c>
+      <c r="C213">
+        <v>2.255</v>
+      </c>
+      <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>45974.0625</v>
+      </c>
+      <c r="B214">
+        <v>1.168</v>
+      </c>
+      <c r="C214">
+        <v>2.268</v>
+      </c>
+      <c r="D214">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>45974.07291666666</v>
+      </c>
+      <c r="B215">
+        <v>0.065</v>
+      </c>
+      <c r="C215">
+        <v>10.207</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>45974.08333333334</v>
+      </c>
+      <c r="B216">
+        <v>1.048</v>
+      </c>
+      <c r="C216">
+        <v>6.629</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>45974.09375</v>
+      </c>
+      <c r="B217">
+        <v>1.291</v>
+      </c>
+      <c r="C217">
+        <v>2.734</v>
+      </c>
+      <c r="D217">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>45974.10416666666</v>
+      </c>
+      <c r="B218">
+        <v>1.643</v>
+      </c>
+      <c r="C218">
+        <v>7.967</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>45974.11458333334</v>
+      </c>
+      <c r="B219">
+        <v>1.914</v>
+      </c>
+      <c r="C219">
+        <v>1.874</v>
+      </c>
+      <c r="D219">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>45974.125</v>
+      </c>
+      <c r="B220">
+        <v>0.544</v>
+      </c>
+      <c r="C220">
+        <v>7.62</v>
+      </c>
+      <c r="D220">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>45974.13541666666</v>
+      </c>
+      <c r="B221">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="C221">
+        <v>2.464</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>45974.14583333334</v>
+      </c>
+      <c r="B222">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="C222">
+        <v>1.92</v>
+      </c>
+      <c r="D222">
+        <v>15</v>
+      </c>
+      <c r="E222" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>45974.15625</v>
+      </c>
+      <c r="B223">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="C223">
+        <v>0.752</v>
+      </c>
+      <c r="D223">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>45974.16666666666</v>
+      </c>
+      <c r="B224">
+        <v>4.641</v>
+      </c>
+      <c r="C224">
+        <v>3.562</v>
+      </c>
+      <c r="D224">
+        <v>17</v>
+      </c>
+      <c r="E224" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>45974.17708333334</v>
+      </c>
+      <c r="B225">
+        <v>2.858</v>
+      </c>
+      <c r="C225">
+        <v>1.408</v>
+      </c>
+      <c r="D225">
+        <v>18</v>
+      </c>
+      <c r="E225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>45974.1875</v>
+      </c>
+      <c r="B226">
+        <v>1.675</v>
+      </c>
+      <c r="C226">
+        <v>2.767</v>
+      </c>
+      <c r="D226">
+        <v>19</v>
+      </c>
+      <c r="E226" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>45974.19791666666</v>
+      </c>
+      <c r="B227">
+        <v>9.574</v>
+      </c>
+      <c r="C227">
+        <v>3.613</v>
+      </c>
+      <c r="D227">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>45974.20833333334</v>
+      </c>
+      <c r="B228">
+        <v>0.316</v>
+      </c>
+      <c r="C228">
+        <v>10.214</v>
+      </c>
+      <c r="D228">
+        <v>21</v>
+      </c>
+      <c r="E228" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>45974.21875</v>
+      </c>
+      <c r="B229">
+        <v>0.638</v>
+      </c>
+      <c r="C229">
+        <v>6.624</v>
+      </c>
+      <c r="D229">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>45974.22916666666</v>
+      </c>
+      <c r="B230">
+        <v>0.349</v>
+      </c>
+      <c r="C230">
+        <v>3.635</v>
+      </c>
+      <c r="D230">
+        <v>23</v>
+      </c>
+      <c r="E230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>45974.23958333334</v>
+      </c>
+      <c r="B231">
+        <v>0.729</v>
+      </c>
+      <c r="C231">
+        <v>2.401</v>
+      </c>
+      <c r="D231">
+        <v>24</v>
+      </c>
+      <c r="E231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>45974.25</v>
+      </c>
+      <c r="B232">
+        <v>0.153</v>
+      </c>
+      <c r="C232">
+        <v>7.419</v>
+      </c>
+      <c r="D232">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>45974.26041666666</v>
+      </c>
+      <c r="B233">
+        <v>0.177</v>
+      </c>
+      <c r="C233">
+        <v>8.832000000000001</v>
+      </c>
+      <c r="D233">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>45974.27083333334</v>
+      </c>
+      <c r="B234">
+        <v>1.885</v>
+      </c>
+      <c r="C234">
+        <v>0.328</v>
+      </c>
+      <c r="D234">
+        <v>27</v>
+      </c>
+      <c r="E234" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>45974.28125</v>
+      </c>
+      <c r="B235">
+        <v>0.154</v>
+      </c>
+      <c r="C235">
+        <v>4.223</v>
+      </c>
+      <c r="D235">
+        <v>28</v>
+      </c>
+      <c r="E235" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>45974.29166666666</v>
+      </c>
+      <c r="B236">
+        <v>0.11</v>
+      </c>
+      <c r="C236">
+        <v>8.848000000000001</v>
+      </c>
+      <c r="D236">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>45974.30208333334</v>
+      </c>
+      <c r="B237">
+        <v>0.182</v>
+      </c>
+      <c r="C237">
+        <v>1.825</v>
+      </c>
+      <c r="D237">
+        <v>30</v>
+      </c>
+      <c r="E237" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>45974.3125</v>
+      </c>
+      <c r="B238">
+        <v>0.022</v>
+      </c>
+      <c r="C238">
+        <v>1.716</v>
+      </c>
+      <c r="D238">
+        <v>31</v>
+      </c>
+      <c r="E238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>45974.32291666666</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>7.15</v>
+      </c>
+      <c r="D239">
+        <v>32</v>
+      </c>
+      <c r="E239" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>45974.33333333334</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>12.116</v>
+      </c>
+      <c r="D240">
+        <v>33</v>
+      </c>
+      <c r="E240" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>45974.34375</v>
+      </c>
+      <c r="B241">
+        <v>0.724</v>
+      </c>
+      <c r="C241">
+        <v>4.04</v>
+      </c>
+      <c r="D241">
+        <v>34</v>
+      </c>
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>45974.35416666666</v>
+      </c>
+      <c r="B242">
+        <v>0.377</v>
+      </c>
+      <c r="C242">
+        <v>5.137</v>
+      </c>
+      <c r="D242">
+        <v>35</v>
+      </c>
+      <c r="E242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>45974.36458333334</v>
+      </c>
+      <c r="B243">
+        <v>2.339</v>
+      </c>
+      <c r="C243">
+        <v>15.632</v>
+      </c>
+      <c r="D243">
+        <v>36</v>
+      </c>
+      <c r="E243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>45974.375</v>
+      </c>
+      <c r="B244">
+        <v>12.72</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>37</v>
+      </c>
+      <c r="E244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>45974.38541666666</v>
+      </c>
+      <c r="B245">
+        <v>11.021</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>38</v>
+      </c>
+      <c r="E245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>45974.39583333334</v>
+      </c>
+      <c r="B246">
+        <v>14.311</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>39</v>
+      </c>
+      <c r="E246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>45974.40625</v>
+      </c>
+      <c r="B247">
+        <v>14.763</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>40</v>
+      </c>
+      <c r="E247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>45974.41666666666</v>
+      </c>
+      <c r="B248">
+        <v>40.504</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>41</v>
+      </c>
+      <c r="E248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>45974.42708333334</v>
+      </c>
+      <c r="B249">
+        <v>19.167</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>42</v>
+      </c>
+      <c r="E249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>45974.4375</v>
+      </c>
+      <c r="B250">
+        <v>4.112</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>43</v>
+      </c>
+      <c r="E250" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>45974.44791666666</v>
+      </c>
+      <c r="B251">
+        <v>1.847</v>
+      </c>
+      <c r="C251">
+        <v>3.3</v>
+      </c>
+      <c r="D251">
+        <v>44</v>
+      </c>
+      <c r="E251" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>45974.45833333334</v>
+      </c>
+      <c r="B252">
+        <v>0.027</v>
+      </c>
+      <c r="C252">
+        <v>11.228</v>
+      </c>
+      <c r="D252">
+        <v>45</v>
+      </c>
+      <c r="E252" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>45974.46875</v>
+      </c>
+      <c r="B253">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="C253">
+        <v>0.485</v>
+      </c>
+      <c r="D253">
+        <v>46</v>
+      </c>
+      <c r="E253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>45974.47916666666</v>
+      </c>
+      <c r="B254">
+        <v>1.194</v>
+      </c>
+      <c r="C254">
+        <v>13.465</v>
+      </c>
+      <c r="D254">
+        <v>47</v>
+      </c>
+      <c r="E254" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>45974.48958333334</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>38.128</v>
+      </c>
+      <c r="D255">
+        <v>48</v>
+      </c>
+      <c r="E255" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>45974.5</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>28.802</v>
+      </c>
+      <c r="D256">
+        <v>49</v>
+      </c>
+      <c r="E256" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>45974.51041666666</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>34.65</v>
+      </c>
+      <c r="D257">
+        <v>50</v>
+      </c>
+      <c r="E257" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>45974.52083333334</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>48.804</v>
+      </c>
+      <c r="D258">
+        <v>51</v>
+      </c>
+      <c r="E258" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,382 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.11.20251</t>
-  </si>
-  <si>
-    <t>20.11.20252</t>
-  </si>
-  <si>
-    <t>20.11.20253</t>
-  </si>
-  <si>
-    <t>20.11.20254</t>
-  </si>
-  <si>
-    <t>20.11.20255</t>
-  </si>
-  <si>
-    <t>20.11.20256</t>
-  </si>
-  <si>
-    <t>20.11.20257</t>
-  </si>
-  <si>
-    <t>20.11.20258</t>
-  </si>
-  <si>
-    <t>20.11.20259</t>
-  </si>
-  <si>
-    <t>20.11.202510</t>
-  </si>
-  <si>
-    <t>20.11.202511</t>
-  </si>
-  <si>
-    <t>20.11.202512</t>
-  </si>
-  <si>
-    <t>20.11.202513</t>
-  </si>
-  <si>
-    <t>20.11.202514</t>
-  </si>
-  <si>
-    <t>20.11.202515</t>
-  </si>
-  <si>
-    <t>20.11.202516</t>
-  </si>
-  <si>
-    <t>20.11.202517</t>
-  </si>
-  <si>
-    <t>20.11.202518</t>
-  </si>
-  <si>
-    <t>20.11.202519</t>
-  </si>
-  <si>
-    <t>20.11.202520</t>
-  </si>
-  <si>
-    <t>20.11.202521</t>
-  </si>
-  <si>
-    <t>20.11.202522</t>
-  </si>
-  <si>
-    <t>20.11.202523</t>
-  </si>
-  <si>
-    <t>20.11.202524</t>
-  </si>
-  <si>
-    <t>20.11.202525</t>
-  </si>
-  <si>
-    <t>20.11.202526</t>
-  </si>
-  <si>
-    <t>20.11.202527</t>
-  </si>
-  <si>
-    <t>20.11.202528</t>
-  </si>
-  <si>
-    <t>20.11.202529</t>
-  </si>
-  <si>
-    <t>20.11.202530</t>
-  </si>
-  <si>
-    <t>20.11.202531</t>
-  </si>
-  <si>
-    <t>20.11.202532</t>
-  </si>
-  <si>
-    <t>20.11.202533</t>
-  </si>
-  <si>
-    <t>20.11.202534</t>
-  </si>
-  <si>
-    <t>20.11.202535</t>
-  </si>
-  <si>
-    <t>20.11.202536</t>
-  </si>
-  <si>
-    <t>20.11.202537</t>
-  </si>
-  <si>
-    <t>20.11.202538</t>
-  </si>
-  <si>
-    <t>20.11.202539</t>
-  </si>
-  <si>
-    <t>20.11.202540</t>
-  </si>
-  <si>
-    <t>20.11.202541</t>
-  </si>
-  <si>
-    <t>20.11.202542</t>
-  </si>
-  <si>
-    <t>20.11.202543</t>
-  </si>
-  <si>
-    <t>20.11.202544</t>
-  </si>
-  <si>
-    <t>20.11.202545</t>
-  </si>
-  <si>
-    <t>20.11.202546</t>
-  </si>
-  <si>
-    <t>20.11.202547</t>
-  </si>
-  <si>
-    <t>20.11.202548</t>
-  </si>
-  <si>
-    <t>20.11.202549</t>
-  </si>
-  <si>
-    <t>20.11.202550</t>
-  </si>
-  <si>
-    <t>20.11.202551</t>
-  </si>
-  <si>
-    <t>20.11.202552</t>
-  </si>
-  <si>
-    <t>20.11.202553</t>
-  </si>
-  <si>
-    <t>20.11.202554</t>
-  </si>
-  <si>
-    <t>20.11.202555</t>
-  </si>
-  <si>
-    <t>20.11.202556</t>
-  </si>
-  <si>
-    <t>20.11.202557</t>
-  </si>
-  <si>
-    <t>20.11.202558</t>
-  </si>
-  <si>
-    <t>20.11.202559</t>
-  </si>
-  <si>
-    <t>20.11.202560</t>
-  </si>
-  <si>
-    <t>20.11.202561</t>
-  </si>
-  <si>
-    <t>20.11.202562</t>
-  </si>
-  <si>
-    <t>20.11.202563</t>
-  </si>
-  <si>
-    <t>20.11.202564</t>
-  </si>
-  <si>
-    <t>20.11.202565</t>
-  </si>
-  <si>
-    <t>20.11.202566</t>
-  </si>
-  <si>
-    <t>20.11.202567</t>
-  </si>
-  <si>
-    <t>20.11.202568</t>
-  </si>
-  <si>
-    <t>20.11.202569</t>
-  </si>
-  <si>
-    <t>20.11.202570</t>
-  </si>
-  <si>
-    <t>20.11.202571</t>
-  </si>
-  <si>
-    <t>20.11.202572</t>
-  </si>
-  <si>
-    <t>20.11.202573</t>
-  </si>
-  <si>
-    <t>20.11.202574</t>
-  </si>
-  <si>
-    <t>20.11.202575</t>
-  </si>
-  <si>
-    <t>20.11.202576</t>
-  </si>
-  <si>
-    <t>20.11.202577</t>
-  </si>
-  <si>
-    <t>20.11.202578</t>
-  </si>
-  <si>
-    <t>20.11.202579</t>
-  </si>
-  <si>
-    <t>20.11.202580</t>
-  </si>
-  <si>
-    <t>20.11.202581</t>
-  </si>
-  <si>
-    <t>20.11.202582</t>
-  </si>
-  <si>
-    <t>20.11.202583</t>
-  </si>
-  <si>
-    <t>20.11.202584</t>
-  </si>
-  <si>
-    <t>20.11.202585</t>
-  </si>
-  <si>
-    <t>20.11.202586</t>
-  </si>
-  <si>
-    <t>20.11.202587</t>
-  </si>
-  <si>
-    <t>20.11.202588</t>
-  </si>
-  <si>
-    <t>20.11.202589</t>
-  </si>
-  <si>
-    <t>20.11.202590</t>
-  </si>
-  <si>
-    <t>20.11.202591</t>
-  </si>
-  <si>
-    <t>20.11.202592</t>
-  </si>
-  <si>
-    <t>20.11.202593</t>
-  </si>
-  <si>
-    <t>20.11.202594</t>
-  </si>
-  <si>
-    <t>20.11.202595</t>
-  </si>
-  <si>
-    <t>20.11.202596</t>
-  </si>
-  <si>
-    <t>21.11.20251</t>
-  </si>
-  <si>
-    <t>21.11.20252</t>
-  </si>
-  <si>
-    <t>21.11.20253</t>
-  </si>
-  <si>
-    <t>21.11.20254</t>
-  </si>
-  <si>
-    <t>21.11.20255</t>
-  </si>
-  <si>
-    <t>21.11.20256</t>
-  </si>
-  <si>
-    <t>21.11.20257</t>
-  </si>
-  <si>
-    <t>21.11.20258</t>
-  </si>
-  <si>
-    <t>21.11.20259</t>
-  </si>
-  <si>
-    <t>21.11.202510</t>
-  </si>
-  <si>
-    <t>21.11.202511</t>
-  </si>
-  <si>
-    <t>21.11.202512</t>
-  </si>
-  <si>
-    <t>21.11.202513</t>
-  </si>
-  <si>
-    <t>21.11.202514</t>
-  </si>
-  <si>
-    <t>21.11.202515</t>
-  </si>
-  <si>
-    <t>21.11.202516</t>
-  </si>
-  <si>
-    <t>21.11.202517</t>
-  </si>
-  <si>
-    <t>21.11.202518</t>
-  </si>
-  <si>
-    <t>21.11.202519</t>
-  </si>
-  <si>
-    <t>21.11.202520</t>
-  </si>
-  <si>
-    <t>21.11.202521</t>
-  </si>
-  <si>
-    <t>21.11.202522</t>
-  </si>
-  <si>
-    <t>21.11.202523</t>
-  </si>
-  <si>
-    <t>21.11.202524</t>
-  </si>
-  <si>
-    <t>21.11.202525</t>
-  </si>
-  <si>
-    <t>21.11.202526</t>
-  </si>
-  <si>
-    <t>21.11.202527</t>
-  </si>
-  <si>
-    <t>21.11.202528</t>
-  </si>
-  <si>
-    <t>21.11.202529</t>
-  </si>
-  <si>
-    <t>21.11.202530</t>
+    <t>23.11.20251</t>
+  </si>
+  <si>
+    <t>23.11.20252</t>
+  </si>
+  <si>
+    <t>23.11.20253</t>
+  </si>
+  <si>
+    <t>23.11.20254</t>
+  </si>
+  <si>
+    <t>23.11.20255</t>
+  </si>
+  <si>
+    <t>23.11.20256</t>
+  </si>
+  <si>
+    <t>23.11.20257</t>
+  </si>
+  <si>
+    <t>23.11.20258</t>
+  </si>
+  <si>
+    <t>23.11.20259</t>
+  </si>
+  <si>
+    <t>23.11.202510</t>
+  </si>
+  <si>
+    <t>23.11.202511</t>
+  </si>
+  <si>
+    <t>23.11.202512</t>
+  </si>
+  <si>
+    <t>23.11.202513</t>
+  </si>
+  <si>
+    <t>23.11.202514</t>
+  </si>
+  <si>
+    <t>23.11.202515</t>
+  </si>
+  <si>
+    <t>23.11.202516</t>
+  </si>
+  <si>
+    <t>23.11.202517</t>
+  </si>
+  <si>
+    <t>23.11.202518</t>
+  </si>
+  <si>
+    <t>23.11.202519</t>
+  </si>
+  <si>
+    <t>23.11.202520</t>
+  </si>
+  <si>
+    <t>23.11.202521</t>
+  </si>
+  <si>
+    <t>23.11.202522</t>
+  </si>
+  <si>
+    <t>23.11.202523</t>
+  </si>
+  <si>
+    <t>23.11.202524</t>
+  </si>
+  <si>
+    <t>23.11.202525</t>
+  </si>
+  <si>
+    <t>23.11.202526</t>
+  </si>
+  <si>
+    <t>23.11.202527</t>
+  </si>
+  <si>
+    <t>23.11.202528</t>
+  </si>
+  <si>
+    <t>23.11.202529</t>
+  </si>
+  <si>
+    <t>23.11.202530</t>
+  </si>
+  <si>
+    <t>23.11.202531</t>
+  </si>
+  <si>
+    <t>23.11.202532</t>
+  </si>
+  <si>
+    <t>23.11.202533</t>
+  </si>
+  <si>
+    <t>23.11.202534</t>
+  </si>
+  <si>
+    <t>23.11.202535</t>
+  </si>
+  <si>
+    <t>23.11.202536</t>
+  </si>
+  <si>
+    <t>23.11.202537</t>
+  </si>
+  <si>
+    <t>23.11.202538</t>
+  </si>
+  <si>
+    <t>23.11.202539</t>
+  </si>
+  <si>
+    <t>23.11.202540</t>
+  </si>
+  <si>
+    <t>23.11.202541</t>
+  </si>
+  <si>
+    <t>23.11.202542</t>
+  </si>
+  <si>
+    <t>23.11.202543</t>
+  </si>
+  <si>
+    <t>23.11.202544</t>
+  </si>
+  <si>
+    <t>23.11.202545</t>
+  </si>
+  <si>
+    <t>23.11.202546</t>
+  </si>
+  <si>
+    <t>23.11.202547</t>
+  </si>
+  <si>
+    <t>23.11.202548</t>
+  </si>
+  <si>
+    <t>23.11.202549</t>
+  </si>
+  <si>
+    <t>23.11.202550</t>
+  </si>
+  <si>
+    <t>23.11.202551</t>
+  </si>
+  <si>
+    <t>23.11.202552</t>
+  </si>
+  <si>
+    <t>23.11.202553</t>
+  </si>
+  <si>
+    <t>23.11.202554</t>
+  </si>
+  <si>
+    <t>23.11.202555</t>
+  </si>
+  <si>
+    <t>23.11.202556</t>
+  </si>
+  <si>
+    <t>23.11.202557</t>
+  </si>
+  <si>
+    <t>23.11.202558</t>
+  </si>
+  <si>
+    <t>23.11.202559</t>
+  </si>
+  <si>
+    <t>23.11.202560</t>
+  </si>
+  <si>
+    <t>23.11.202561</t>
+  </si>
+  <si>
+    <t>23.11.202562</t>
+  </si>
+  <si>
+    <t>23.11.202563</t>
+  </si>
+  <si>
+    <t>23.11.202564</t>
+  </si>
+  <si>
+    <t>23.11.202565</t>
+  </si>
+  <si>
+    <t>23.11.202566</t>
+  </si>
+  <si>
+    <t>23.11.202567</t>
+  </si>
+  <si>
+    <t>23.11.202568</t>
+  </si>
+  <si>
+    <t>23.11.202569</t>
+  </si>
+  <si>
+    <t>23.11.202570</t>
+  </si>
+  <si>
+    <t>23.11.202571</t>
+  </si>
+  <si>
+    <t>23.11.202572</t>
+  </si>
+  <si>
+    <t>23.11.202573</t>
+  </si>
+  <si>
+    <t>23.11.202574</t>
+  </si>
+  <si>
+    <t>23.11.202575</t>
+  </si>
+  <si>
+    <t>23.11.202576</t>
+  </si>
+  <si>
+    <t>23.11.202577</t>
+  </si>
+  <si>
+    <t>23.11.202578</t>
+  </si>
+  <si>
+    <t>23.11.202579</t>
+  </si>
+  <si>
+    <t>23.11.202580</t>
+  </si>
+  <si>
+    <t>23.11.202581</t>
+  </si>
+  <si>
+    <t>23.11.202582</t>
+  </si>
+  <si>
+    <t>23.11.202583</t>
+  </si>
+  <si>
+    <t>23.11.202584</t>
+  </si>
+  <si>
+    <t>23.11.202585</t>
+  </si>
+  <si>
+    <t>23.11.202586</t>
+  </si>
+  <si>
+    <t>23.11.202587</t>
+  </si>
+  <si>
+    <t>23.11.202588</t>
+  </si>
+  <si>
+    <t>23.11.202589</t>
+  </si>
+  <si>
+    <t>23.11.202590</t>
+  </si>
+  <si>
+    <t>23.11.202591</t>
+  </si>
+  <si>
+    <t>23.11.202592</t>
+  </si>
+  <si>
+    <t>23.11.202593</t>
+  </si>
+  <si>
+    <t>23.11.202594</t>
+  </si>
+  <si>
+    <t>23.11.202595</t>
+  </si>
+  <si>
+    <t>23.11.202596</t>
+  </si>
+  <si>
+    <t>24.11.20251</t>
+  </si>
+  <si>
+    <t>24.11.20252</t>
+  </si>
+  <si>
+    <t>24.11.20253</t>
+  </si>
+  <si>
+    <t>24.11.20254</t>
+  </si>
+  <si>
+    <t>24.11.20255</t>
+  </si>
+  <si>
+    <t>24.11.20256</t>
+  </si>
+  <si>
+    <t>24.11.20257</t>
+  </si>
+  <si>
+    <t>24.11.20258</t>
+  </si>
+  <si>
+    <t>24.11.20259</t>
+  </si>
+  <si>
+    <t>24.11.202510</t>
+  </si>
+  <si>
+    <t>24.11.202511</t>
+  </si>
+  <si>
+    <t>24.11.202512</t>
+  </si>
+  <si>
+    <t>24.11.202513</t>
+  </si>
+  <si>
+    <t>24.11.202514</t>
+  </si>
+  <si>
+    <t>24.11.202515</t>
+  </si>
+  <si>
+    <t>24.11.202516</t>
+  </si>
+  <si>
+    <t>24.11.202517</t>
+  </si>
+  <si>
+    <t>24.11.202518</t>
+  </si>
+  <si>
+    <t>24.11.202519</t>
+  </si>
+  <si>
+    <t>24.11.202520</t>
+  </si>
+  <si>
+    <t>24.11.202521</t>
+  </si>
+  <si>
+    <t>24.11.202522</t>
+  </si>
+  <si>
+    <t>24.11.202523</t>
+  </si>
+  <si>
+    <t>24.11.202524</t>
+  </si>
+  <si>
+    <t>24.11.202525</t>
+  </si>
+  <si>
+    <t>24.11.202526</t>
+  </si>
+  <si>
+    <t>24.11.202527</t>
+  </si>
+  <si>
+    <t>24.11.202528</t>
+  </si>
+  <si>
+    <t>24.11.202529</t>
+  </si>
+  <si>
+    <t>24.11.202530</t>
+  </si>
+  <si>
+    <t>24.11.202531</t>
+  </si>
+  <si>
+    <t>24.11.202532</t>
+  </si>
+  <si>
+    <t>24.11.202533</t>
+  </si>
+  <si>
+    <t>24.11.202534</t>
+  </si>
+  <si>
+    <t>24.11.202535</t>
+  </si>
+  <si>
+    <t>24.11.202536</t>
+  </si>
+  <si>
+    <t>24.11.202537</t>
+  </si>
+  <si>
+    <t>24.11.202538</t>
+  </si>
+  <si>
+    <t>24.11.202539</t>
+  </si>
+  <si>
+    <t>24.11.202540</t>
+  </si>
+  <si>
+    <t>24.11.202541</t>
+  </si>
+  <si>
+    <t>24.11.202542</t>
+  </si>
+  <si>
+    <t>24.11.202543</t>
+  </si>
+  <si>
+    <t>24.11.202544</t>
+  </si>
+  <si>
+    <t>24.11.202545</t>
+  </si>
+  <si>
+    <t>24.11.202546</t>
+  </si>
+  <si>
+    <t>24.11.202547</t>
+  </si>
+  <si>
+    <t>24.11.202548</t>
+  </si>
+  <si>
+    <t>24.11.202549</t>
+  </si>
+  <si>
+    <t>24.11.202550</t>
+  </si>
+  <si>
+    <t>24.11.202551</t>
+  </si>
+  <si>
+    <t>24.11.202552</t>
+  </si>
+  <si>
+    <t>24.11.202553</t>
+  </si>
+  <si>
+    <t>24.11.202554</t>
+  </si>
+  <si>
+    <t>24.11.202555</t>
+  </si>
+  <si>
+    <t>24.11.202556</t>
+  </si>
+  <si>
+    <t>24.11.202557</t>
+  </si>
+  <si>
+    <t>24.11.202558</t>
+  </si>
+  <si>
+    <t>24.11.202559</t>
+  </si>
+  <si>
+    <t>24.11.202560</t>
+  </si>
+  <si>
+    <t>24.11.202561</t>
+  </si>
+  <si>
+    <t>24.11.202562</t>
+  </si>
+  <si>
+    <t>24.11.202563</t>
+  </si>
+  <si>
+    <t>24.11.202564</t>
+  </si>
+  <si>
+    <t>24.11.202565</t>
+  </si>
+  <si>
+    <t>24.11.202566</t>
+  </si>
+  <si>
+    <t>24.11.202567</t>
+  </si>
+  <si>
+    <t>24.11.202568</t>
+  </si>
+  <si>
+    <t>24.11.202569</t>
+  </si>
+  <si>
+    <t>24.11.202570</t>
+  </si>
+  <si>
+    <t>24.11.202571</t>
+  </si>
+  <si>
+    <t>24.11.202572</t>
+  </si>
+  <si>
+    <t>24.11.202573</t>
+  </si>
+  <si>
+    <t>24.11.202574</t>
+  </si>
+  <si>
+    <t>24.11.202575</t>
+  </si>
+  <si>
+    <t>24.11.202576</t>
+  </si>
+  <si>
+    <t>24.11.202577</t>
+  </si>
+  <si>
+    <t>24.11.202578</t>
+  </si>
+  <si>
+    <t>24.11.202579</t>
+  </si>
+  <si>
+    <t>24.11.202580</t>
+  </si>
+  <si>
+    <t>24.11.202581</t>
+  </si>
+  <si>
+    <t>24.11.202582</t>
+  </si>
+  <si>
+    <t>24.11.202583</t>
+  </si>
+  <si>
+    <t>24.11.202584</t>
+  </si>
+  <si>
+    <t>24.11.202585</t>
+  </si>
+  <si>
+    <t>24.11.202586</t>
+  </si>
+  <si>
+    <t>24.11.202587</t>
+  </si>
+  <si>
+    <t>24.11.202588</t>
+  </si>
+  <si>
+    <t>24.11.202589</t>
+  </si>
+  <si>
+    <t>24.11.202590</t>
+  </si>
+  <si>
+    <t>24.11.202591</t>
+  </si>
+  <si>
+    <t>24.11.202592</t>
+  </si>
+  <si>
+    <t>24.11.202593</t>
+  </si>
+  <si>
+    <t>24.11.202594</t>
+  </si>
+  <si>
+    <t>24.11.202595</t>
+  </si>
+  <si>
+    <t>24.11.202596</t>
   </si>
 </sst>
 </file>
@@ -768,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +991,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45981</v>
+        <v>45984.00486111111</v>
       </c>
       <c r="B2">
-        <v>16.66</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -810,10 +1008,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45981.01041666666</v>
+        <v>45984.01527777778</v>
       </c>
       <c r="B3">
-        <v>10.827</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -827,10 +1025,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45981.02083333334</v>
+        <v>45984.02569444444</v>
       </c>
       <c r="B4">
-        <v>14.394</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -844,10 +1042,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45981.03125</v>
+        <v>45984.03611111111</v>
       </c>
       <c r="B5">
-        <v>22.701</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -861,10 +1059,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45981.04166666666</v>
+        <v>45984.04652777778</v>
       </c>
       <c r="B6">
-        <v>31.085</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -878,10 +1076,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45981.05208333334</v>
+        <v>45984.05694444444</v>
       </c>
       <c r="B7">
-        <v>27.597</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -895,10 +1093,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45981.0625</v>
+        <v>45984.06736111111</v>
       </c>
       <c r="B8">
-        <v>13.349</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -912,13 +1110,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45981.07291666666</v>
+        <v>45984.07777777778</v>
       </c>
       <c r="B9">
-        <v>2.898</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -929,13 +1127,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45981.08333333334</v>
+        <v>45984.08819444444</v>
       </c>
       <c r="B10">
-        <v>3.585</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.512</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -946,10 +1144,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45981.09375</v>
+        <v>45984.09861111111</v>
       </c>
       <c r="B11">
-        <v>9.253</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -963,13 +1161,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45981.10416666666</v>
+        <v>45984.10902777778</v>
       </c>
       <c r="B12">
-        <v>6.281</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -980,10 +1178,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45981.11458333334</v>
+        <v>45984.11944444444</v>
       </c>
       <c r="B13">
-        <v>12.35</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -997,13 +1195,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45981.125</v>
+        <v>45984.12986111111</v>
       </c>
       <c r="B14">
-        <v>7.769</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -1014,10 +1212,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45981.13541666666</v>
+        <v>45984.14027777778</v>
       </c>
       <c r="B15">
-        <v>8.343</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1031,13 +1229,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45981.14583333334</v>
+        <v>45984.15069444444</v>
       </c>
       <c r="B16">
-        <v>3.173</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1048,13 +1246,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45981.15625</v>
+        <v>45984.16111111111</v>
       </c>
       <c r="B17">
-        <v>12.742</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1065,13 +1263,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45981.16666666666</v>
+        <v>45984.17152777778</v>
       </c>
       <c r="B18">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>6.341</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1082,13 +1280,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45981.17708333334</v>
+        <v>45984.18194444444</v>
       </c>
       <c r="B19">
-        <v>0.529</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2.714</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1099,13 +1297,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45981.1875</v>
+        <v>45984.19236111111</v>
       </c>
       <c r="B20">
-        <v>1.582</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1.438</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -1116,13 +1314,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45981.19791666666</v>
+        <v>45984.20277777778</v>
       </c>
       <c r="B21">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1133,13 +1331,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45981.20833333334</v>
+        <v>45984.21319444444</v>
       </c>
       <c r="B22">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2.468</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -1150,13 +1348,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45981.21875</v>
+        <v>45984.22361111111</v>
       </c>
       <c r="B23">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>9.063000000000001</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -1167,13 +1365,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45981.22916666666</v>
+        <v>45984.23402777778</v>
       </c>
       <c r="B24">
-        <v>1.536</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.251</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -1184,13 +1382,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45981.23958333334</v>
+        <v>45984.24444444444</v>
       </c>
       <c r="B25">
-        <v>1.594</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>3.513</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -1201,13 +1399,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45981.25</v>
+        <v>45984.25486111111</v>
       </c>
       <c r="B26">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>24.788</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -1218,13 +1416,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45981.26041666666</v>
+        <v>45984.26527777778</v>
       </c>
       <c r="B27">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>18.112</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -1235,13 +1433,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45981.27083333334</v>
+        <v>45984.27569444444</v>
       </c>
       <c r="B28">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3.331</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -1252,13 +1450,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45981.28125</v>
+        <v>45984.28611111111</v>
       </c>
       <c r="B29">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>8.087</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -1269,13 +1467,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45981.29166666666</v>
+        <v>45984.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>17.412</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -1286,13 +1484,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45981.30208333334</v>
+        <v>45984.30694444444</v>
       </c>
       <c r="B31">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>9.241</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -1303,13 +1501,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45981.3125</v>
+        <v>45984.31736111111</v>
       </c>
       <c r="B32">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>5.234</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -1320,13 +1518,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45981.32291666666</v>
+        <v>45984.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>26.423</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -1337,13 +1535,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45981.33333333334</v>
+        <v>45984.33819444444</v>
       </c>
       <c r="B34">
-        <v>3.541</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>1.265</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -1354,13 +1552,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45981.34375</v>
+        <v>45984.34861111111</v>
       </c>
       <c r="B35">
-        <v>2.798</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>9.347</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -1371,10 +1569,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45981.35416666666</v>
+        <v>45984.35902777778</v>
       </c>
       <c r="B36">
-        <v>10.278</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1388,13 +1586,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45981.36458333334</v>
+        <v>45984.36944444444</v>
       </c>
       <c r="B37">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>7.362</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1405,13 +1603,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45981.375</v>
+        <v>45984.37986111111</v>
       </c>
       <c r="B38">
-        <v>6.666</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.287</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -1422,13 +1620,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45981.38541666666</v>
+        <v>45984.39027777778</v>
       </c>
       <c r="B39">
-        <v>10.626</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.458</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -1439,13 +1637,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45981.39583333334</v>
+        <v>45984.40069444444</v>
       </c>
       <c r="B40">
-        <v>5.117</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2.527</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -1456,13 +1654,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45981.40625</v>
+        <v>45984.41111111111</v>
       </c>
       <c r="B41">
-        <v>0.404</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>2.205</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -1473,13 +1671,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45981.41666666666</v>
+        <v>45984.42152777778</v>
       </c>
       <c r="B42">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>5.677</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -1490,13 +1688,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45981.42708333334</v>
+        <v>45984.43194444444</v>
       </c>
       <c r="B43">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>2.881</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -1507,10 +1705,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45981.4375</v>
+        <v>45984.44236111111</v>
       </c>
       <c r="B44">
-        <v>18.993</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1524,13 +1722,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45981.44791666666</v>
+        <v>45984.45277777778</v>
       </c>
       <c r="B45">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.447</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -1541,13 +1739,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45981.45833333334</v>
+        <v>45984.46319444444</v>
       </c>
       <c r="B46">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>11.588</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -1558,13 +1756,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45981.46875</v>
+        <v>45984.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>19.423</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -1575,13 +1773,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45981.47916666666</v>
+        <v>45984.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>5.634</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -1592,13 +1790,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45981.48958333334</v>
+        <v>45984.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>29.819</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -1609,13 +1807,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45981.5</v>
+        <v>45984.50486111111</v>
       </c>
       <c r="B50">
-        <v>0.669</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>22.753</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -1626,13 +1824,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45981.51041666666</v>
+        <v>45984.51527777778</v>
       </c>
       <c r="B51">
-        <v>3.493</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.578</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -1643,10 +1841,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45981.52083333334</v>
+        <v>45984.52569444444</v>
       </c>
       <c r="B52">
-        <v>3.461</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1660,10 +1858,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45981.53125</v>
+        <v>45984.53611111111</v>
       </c>
       <c r="B53">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1677,10 +1875,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45981.54166666666</v>
+        <v>45984.54652777778</v>
       </c>
       <c r="B54">
-        <v>8.475</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1694,10 +1892,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45981.55208333334</v>
+        <v>45984.55694444444</v>
       </c>
       <c r="B55">
-        <v>13.54</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1711,13 +1909,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45981.5625</v>
+        <v>45984.56736111111</v>
       </c>
       <c r="B56">
-        <v>8.698</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -1728,13 +1926,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45981.57291666666</v>
+        <v>45984.57777777778</v>
       </c>
       <c r="B57">
-        <v>27.24</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -1745,13 +1943,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45981.58333333334</v>
+        <v>45984.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6.588</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -1762,13 +1960,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45981.59375</v>
+        <v>45984.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>14.101</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -1779,13 +1977,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45981.60416666666</v>
+        <v>45984.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>13.813</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -1796,13 +1994,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45981.61458333334</v>
+        <v>45984.61944444444</v>
       </c>
       <c r="B61">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5.194</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -1813,13 +2011,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45981.625</v>
+        <v>45984.62986111111</v>
       </c>
       <c r="B62">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>4.492</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -1830,13 +2028,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45981.63541666666</v>
+        <v>45984.64027777778</v>
       </c>
       <c r="B63">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -1847,13 +2045,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45981.64583333334</v>
+        <v>45984.65069444444</v>
       </c>
       <c r="B64">
-        <v>0.784</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>3.524</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -1864,13 +2062,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45981.65625</v>
+        <v>45984.66111111111</v>
       </c>
       <c r="B65">
-        <v>1.695</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -1881,10 +2079,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45981.66666666666</v>
+        <v>45984.67152777778</v>
       </c>
       <c r="B66">
-        <v>11.043</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1898,10 +2096,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45981.67708333334</v>
+        <v>45984.68194444444</v>
       </c>
       <c r="B67">
-        <v>19.895</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1915,10 +2113,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45981.6875</v>
+        <v>45984.69236111111</v>
       </c>
       <c r="B68">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1932,10 +2130,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45981.69791666666</v>
+        <v>45984.70277777778</v>
       </c>
       <c r="B69">
-        <v>9.032</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1949,13 +2147,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45981.70833333334</v>
+        <v>45984.71319444444</v>
       </c>
       <c r="B70">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>18.175</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>69</v>
@@ -1966,13 +2164,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45981.71875</v>
+        <v>45984.72361111111</v>
       </c>
       <c r="B71">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>1.968</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>70</v>
@@ -1983,13 +2181,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45981.72916666666</v>
+        <v>45984.73402777778</v>
       </c>
       <c r="B72">
-        <v>1.228</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.957</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>71</v>
@@ -2000,13 +2198,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45981.73958333334</v>
+        <v>45984.74444444444</v>
       </c>
       <c r="B73">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>13.77</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>72</v>
@@ -2017,13 +2215,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45981.75</v>
+        <v>45984.75486111111</v>
       </c>
       <c r="B74">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>7.753</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>73</v>
@@ -2034,13 +2232,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45981.76041666666</v>
+        <v>45984.76527777778</v>
       </c>
       <c r="B75">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>1.568</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>74</v>
@@ -2051,13 +2249,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45981.77083333334</v>
+        <v>45984.77569444444</v>
       </c>
       <c r="B76">
-        <v>13.723</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>75</v>
@@ -2068,10 +2266,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45981.78125</v>
+        <v>45984.78611111111</v>
       </c>
       <c r="B77">
-        <v>11.189</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2085,10 +2283,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45981.79166666666</v>
+        <v>45984.79652777778</v>
       </c>
       <c r="B78">
-        <v>13.338</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2102,10 +2300,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45981.80208333334</v>
+        <v>45984.80694444444</v>
       </c>
       <c r="B79">
-        <v>21.418</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2119,10 +2317,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45981.8125</v>
+        <v>45984.81736111111</v>
       </c>
       <c r="B80">
-        <v>7.623</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2136,13 +2334,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45981.82291666666</v>
+        <v>45984.82777777778</v>
       </c>
       <c r="B81">
-        <v>3.952</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>80</v>
@@ -2153,13 +2351,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45981.83333333334</v>
+        <v>45984.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>9.182</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>81</v>
@@ -2170,13 +2368,13 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45981.84375</v>
+        <v>45984.84861111111</v>
       </c>
       <c r="B83">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>9.862</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>82</v>
@@ -2187,13 +2385,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45981.85416666666</v>
+        <v>45984.85902777778</v>
       </c>
       <c r="B84">
-        <v>1.204</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>1.428</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>83</v>
@@ -2204,13 +2402,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45981.86458333334</v>
+        <v>45984.86944444444</v>
       </c>
       <c r="B85">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>3.155</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>84</v>
@@ -2221,13 +2419,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45981.875</v>
+        <v>45984.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>26.692</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>85</v>
@@ -2238,13 +2436,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45981.88541666666</v>
+        <v>45984.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>35.734</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>86</v>
@@ -2255,13 +2453,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45981.89583333334</v>
+        <v>45984.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>32.041</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>87</v>
@@ -2272,13 +2470,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45981.90625</v>
+        <v>45984.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>22.142</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>88</v>
@@ -2289,13 +2487,13 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45981.91666666666</v>
+        <v>45984.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>5.112</v>
+        <v>0</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -2306,30 +2504,30 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.92152777778</v>
       </c>
       <c r="B91">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>2.716</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45981.92708333334</v>
+        <v>45984.93194444444</v>
       </c>
       <c r="B92">
-        <v>0.437</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>2.716</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>90</v>
@@ -2340,30 +2538,30 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45981.9375</v>
+        <v>45984.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>7.219</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45981.9375</v>
+        <v>45984.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>7.219</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>91</v>
@@ -2374,30 +2572,30 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>7.648</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45981.94791666666</v>
+        <v>45984.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>7.648</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>92</v>
@@ -2408,30 +2606,30 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>25.885</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45981.95833333334</v>
+        <v>45984.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>25.885</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>93</v>
@@ -2442,30 +2640,30 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45981.96875</v>
+        <v>45984.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45981.96875</v>
+        <v>45984.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <v>94</v>
@@ -2476,30 +2674,30 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>14.903</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45981.97916666666</v>
+        <v>45984.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>14.903</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>95</v>
@@ -2510,30 +2708,30 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>16.396</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45981.98958333334</v>
+        <v>45984.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>16.396</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>96</v>
@@ -2544,512 +2742,1651 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45982</v>
+        <v>45984.99444444444</v>
       </c>
       <c r="B105">
-        <v>2.434</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>6.682</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45982.01041666666</v>
+        <v>45985.00486111111</v>
       </c>
       <c r="B106">
-        <v>13.159</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45982.02083333334</v>
+        <v>45985.01527777778</v>
       </c>
       <c r="B107">
-        <v>14.898</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45982.03125</v>
+        <v>45985.02569444444</v>
       </c>
       <c r="B108">
-        <v>25.861</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45982.04166666666</v>
+        <v>45985.03611111111</v>
       </c>
       <c r="B109">
-        <v>10.729</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45982.05208333334</v>
+        <v>45985.04652777778</v>
       </c>
       <c r="B110">
-        <v>5.204</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>1.382</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45982.0625</v>
+        <v>45985.05694444444</v>
       </c>
       <c r="B111">
-        <v>21.775</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45982.07291666666</v>
+        <v>45985.06736111111</v>
       </c>
       <c r="B112">
-        <v>21.957</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45982.08333333334</v>
+        <v>45985.07777777778</v>
       </c>
       <c r="B113">
-        <v>15.17</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45982.09375</v>
+        <v>45985.08819444444</v>
       </c>
       <c r="B114">
-        <v>21.101</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45982.10416666666</v>
+        <v>45985.09861111111</v>
       </c>
       <c r="B115">
-        <v>15.088</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45982.11458333334</v>
+        <v>45985.10902777778</v>
       </c>
       <c r="B116">
-        <v>15.57</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45982.125</v>
+        <v>45985.11944444444</v>
       </c>
       <c r="B117">
-        <v>7.731</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45982.13541666666</v>
+        <v>45985.12986111111</v>
       </c>
       <c r="B118">
-        <v>19.647</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45982.14583333334</v>
+        <v>45985.14027777778</v>
       </c>
       <c r="B119">
-        <v>33.607</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45982.15625</v>
+        <v>45985.15069444444</v>
       </c>
       <c r="B120">
-        <v>42.088</v>
+        <v>0</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45982.16666666666</v>
+        <v>45985.16111111111</v>
       </c>
       <c r="B121">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45982.17708333334</v>
+        <v>45985.17152777778</v>
       </c>
       <c r="B122">
-        <v>4.052</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45982.1875</v>
+        <v>45985.18194444444</v>
       </c>
       <c r="B123">
-        <v>1.613</v>
+        <v>0</v>
       </c>
       <c r="C123">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45982.19791666666</v>
+        <v>45985.19236111111</v>
       </c>
       <c r="B124">
-        <v>10.796</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45982.20833333334</v>
+        <v>45985.20277777778</v>
       </c>
       <c r="B125">
-        <v>21.301</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0.483</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45982.21875</v>
+        <v>45985.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>10.072</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45982.22916666666</v>
+        <v>45985.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>8.683999999999999</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45982.23958333334</v>
+        <v>45985.23402777778</v>
       </c>
       <c r="B128">
-        <v>0.779</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>1.774</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45982.25</v>
+        <v>45985.24444444444</v>
       </c>
       <c r="B129">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>12.234</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45982.26041666666</v>
+        <v>45985.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>25.384</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45982.27083333334</v>
+        <v>45985.26527777778</v>
       </c>
       <c r="B131">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>7.288</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45982.28125</v>
+        <v>45985.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>14.045</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45982.29166666666</v>
+        <v>45985.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>22.737</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45982.30208333334</v>
+        <v>45985.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>25.189</v>
+        <v>0</v>
       </c>
       <c r="D134">
+        <v>29</v>
+      </c>
+      <c r="E134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45985.30694444444</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>30</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45985.31736111111</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45985.32777777778</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>32</v>
+      </c>
+      <c r="E137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45985.33819444444</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>33</v>
+      </c>
+      <c r="E138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45985.34861111111</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>34</v>
+      </c>
+      <c r="E139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45985.35902777778</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>35</v>
+      </c>
+      <c r="E140" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45985.36944444444</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>36</v>
+      </c>
+      <c r="E141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45985.37986111111</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45985.39027777778</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>38</v>
+      </c>
+      <c r="E143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>45985.40069444444</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>39</v>
+      </c>
+      <c r="E144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>45985.41111111111</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>40</v>
+      </c>
+      <c r="E145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>45985.42152777778</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>45985.43194444444</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>42</v>
+      </c>
+      <c r="E147" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>45985.44236111111</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>43</v>
+      </c>
+      <c r="E148" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>45985.45277777778</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45985.46319444444</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>45</v>
+      </c>
+      <c r="E150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>45985.47361111111</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>46</v>
+      </c>
+      <c r="E151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>45985.48402777778</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>47</v>
+      </c>
+      <c r="E152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>45985.49444444444</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>48</v>
+      </c>
+      <c r="E153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>45985.50486111111</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>49</v>
+      </c>
+      <c r="E154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>45985.51527777778</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>50</v>
+      </c>
+      <c r="E155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45985.52569444444</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>51</v>
+      </c>
+      <c r="E156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45985.53611111111</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>52</v>
+      </c>
+      <c r="E157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45985.54652777778</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>53</v>
+      </c>
+      <c r="E158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45985.55694444444</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45985.56736111111</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>55</v>
+      </c>
+      <c r="E160" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45985.57777777778</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>56</v>
+      </c>
+      <c r="E161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45985.58819444444</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>57</v>
+      </c>
+      <c r="E162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45985.59861111111</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>58</v>
+      </c>
+      <c r="E163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>45985.60902777778</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>59</v>
+      </c>
+      <c r="E164" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>45985.61944444444</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>60</v>
+      </c>
+      <c r="E165" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2">
+        <v>45985.62986111111</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>61</v>
+      </c>
+      <c r="E166" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>45985.64027777778</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>62</v>
+      </c>
+      <c r="E167" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2">
+        <v>45985.65069444444</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>63</v>
+      </c>
+      <c r="E168" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>45985.66111111111</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>64</v>
+      </c>
+      <c r="E169" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2">
+        <v>45985.67152777778</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>65</v>
+      </c>
+      <c r="E170" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>45985.68194444444</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>66</v>
+      </c>
+      <c r="E171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>45985.69236111111</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>67</v>
+      </c>
+      <c r="E172" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>45985.70277777778</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>68</v>
+      </c>
+      <c r="E173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>45985.71319444444</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>69</v>
+      </c>
+      <c r="E174" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>45985.72361111111</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>70</v>
+      </c>
+      <c r="E175" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2">
+        <v>45985.73402777778</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>71</v>
+      </c>
+      <c r="E176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2">
+        <v>45985.74444444444</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>72</v>
+      </c>
+      <c r="E177" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>45985.75486111111</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>73</v>
+      </c>
+      <c r="E178" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2">
+        <v>45985.76527777778</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>74</v>
+      </c>
+      <c r="E179" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2">
+        <v>45985.77569444444</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>75</v>
+      </c>
+      <c r="E180" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2">
+        <v>45985.78611111111</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>76</v>
+      </c>
+      <c r="E181" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>45985.79652777778</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>77</v>
+      </c>
+      <c r="E182" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2">
+        <v>45985.80694444444</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>78</v>
+      </c>
+      <c r="E183" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>45985.81736111111</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>79</v>
+      </c>
+      <c r="E184" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>45985.82777777778</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>80</v>
+      </c>
+      <c r="E185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2">
+        <v>45985.83819444444</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>81</v>
+      </c>
+      <c r="E186" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2">
+        <v>45985.84861111111</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>82</v>
+      </c>
+      <c r="E187" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2">
+        <v>45985.85902777778</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>83</v>
+      </c>
+      <c r="E188" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2">
+        <v>45985.86944444444</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>84</v>
+      </c>
+      <c r="E189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>45985.87986111111</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>85</v>
+      </c>
+      <c r="E190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2">
+        <v>45985.89027777778</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>86</v>
+      </c>
+      <c r="E191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>45985.90069444444</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>87</v>
+      </c>
+      <c r="E192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2">
+        <v>45985.91111111111</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>88</v>
+      </c>
+      <c r="E193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2">
+        <v>45985.92152777778</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>89</v>
+      </c>
+      <c r="E194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2">
+        <v>45985.93194444444</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>90</v>
+      </c>
+      <c r="E195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2">
+        <v>45985.94236111111</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>91</v>
+      </c>
+      <c r="E196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>45985.95277777778</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>92</v>
+      </c>
+      <c r="E197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>45985.96319444444</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>93</v>
+      </c>
+      <c r="E198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2">
+        <v>45985.97361111111</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>94</v>
+      </c>
+      <c r="E199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2">
+        <v>45985.98402777778</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>95</v>
+      </c>
+      <c r="E200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>45985.99444444444</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>96</v>
+      </c>
+      <c r="E201" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="485">
   <si>
     <t>Timestamp (CET)</t>
   </si>
@@ -31,580 +31,1444 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>03.12.20251</t>
-  </si>
-  <si>
-    <t>03.12.20252</t>
-  </si>
-  <si>
-    <t>03.12.20253</t>
-  </si>
-  <si>
-    <t>03.12.20254</t>
-  </si>
-  <si>
-    <t>03.12.20255</t>
-  </si>
-  <si>
-    <t>03.12.20256</t>
-  </si>
-  <si>
-    <t>03.12.20257</t>
-  </si>
-  <si>
-    <t>03.12.20258</t>
-  </si>
-  <si>
-    <t>03.12.20259</t>
-  </si>
-  <si>
-    <t>03.12.202510</t>
-  </si>
-  <si>
-    <t>03.12.202511</t>
-  </si>
-  <si>
-    <t>03.12.202512</t>
-  </si>
-  <si>
-    <t>03.12.202513</t>
-  </si>
-  <si>
-    <t>03.12.202514</t>
-  </si>
-  <si>
-    <t>03.12.202515</t>
-  </si>
-  <si>
-    <t>03.12.202516</t>
-  </si>
-  <si>
-    <t>03.12.202517</t>
-  </si>
-  <si>
-    <t>03.12.202518</t>
-  </si>
-  <si>
-    <t>03.12.202519</t>
-  </si>
-  <si>
-    <t>03.12.202520</t>
-  </si>
-  <si>
-    <t>03.12.202521</t>
-  </si>
-  <si>
-    <t>03.12.202522</t>
-  </si>
-  <si>
-    <t>03.12.202523</t>
-  </si>
-  <si>
-    <t>03.12.202524</t>
-  </si>
-  <si>
-    <t>03.12.202525</t>
-  </si>
-  <si>
-    <t>03.12.202526</t>
-  </si>
-  <si>
-    <t>03.12.202527</t>
-  </si>
-  <si>
-    <t>03.12.202528</t>
-  </si>
-  <si>
-    <t>03.12.202529</t>
-  </si>
-  <si>
-    <t>03.12.202530</t>
-  </si>
-  <si>
-    <t>03.12.202531</t>
-  </si>
-  <si>
-    <t>03.12.202532</t>
-  </si>
-  <si>
-    <t>03.12.202533</t>
-  </si>
-  <si>
-    <t>03.12.202534</t>
-  </si>
-  <si>
-    <t>03.12.202535</t>
-  </si>
-  <si>
-    <t>03.12.202536</t>
-  </si>
-  <si>
-    <t>03.12.202537</t>
-  </si>
-  <si>
-    <t>03.12.202538</t>
-  </si>
-  <si>
-    <t>03.12.202539</t>
-  </si>
-  <si>
-    <t>03.12.202540</t>
-  </si>
-  <si>
-    <t>03.12.202541</t>
-  </si>
-  <si>
-    <t>03.12.202542</t>
-  </si>
-  <si>
-    <t>03.12.202543</t>
-  </si>
-  <si>
-    <t>03.12.202544</t>
-  </si>
-  <si>
-    <t>03.12.202545</t>
-  </si>
-  <si>
-    <t>03.12.202546</t>
-  </si>
-  <si>
-    <t>03.12.202547</t>
-  </si>
-  <si>
-    <t>03.12.202548</t>
-  </si>
-  <si>
-    <t>03.12.202549</t>
-  </si>
-  <si>
-    <t>03.12.202550</t>
-  </si>
-  <si>
-    <t>03.12.202551</t>
-  </si>
-  <si>
-    <t>03.12.202552</t>
-  </si>
-  <si>
-    <t>03.12.202553</t>
-  </si>
-  <si>
-    <t>03.12.202554</t>
-  </si>
-  <si>
-    <t>03.12.202555</t>
-  </si>
-  <si>
-    <t>03.12.202556</t>
-  </si>
-  <si>
-    <t>03.12.202557</t>
-  </si>
-  <si>
-    <t>03.12.202558</t>
-  </si>
-  <si>
-    <t>03.12.202559</t>
-  </si>
-  <si>
-    <t>03.12.202560</t>
-  </si>
-  <si>
-    <t>03.12.202561</t>
-  </si>
-  <si>
-    <t>03.12.202562</t>
-  </si>
-  <si>
-    <t>03.12.202563</t>
-  </si>
-  <si>
-    <t>03.12.202564</t>
-  </si>
-  <si>
-    <t>03.12.202565</t>
-  </si>
-  <si>
-    <t>03.12.202566</t>
-  </si>
-  <si>
-    <t>03.12.202567</t>
-  </si>
-  <si>
-    <t>03.12.202568</t>
-  </si>
-  <si>
-    <t>03.12.202569</t>
-  </si>
-  <si>
-    <t>03.12.202570</t>
-  </si>
-  <si>
-    <t>03.12.202571</t>
-  </si>
-  <si>
-    <t>03.12.202572</t>
-  </si>
-  <si>
-    <t>03.12.202573</t>
-  </si>
-  <si>
-    <t>03.12.202574</t>
-  </si>
-  <si>
-    <t>03.12.202575</t>
-  </si>
-  <si>
-    <t>03.12.202576</t>
-  </si>
-  <si>
-    <t>03.12.202577</t>
-  </si>
-  <si>
-    <t>03.12.202578</t>
-  </si>
-  <si>
-    <t>03.12.202579</t>
-  </si>
-  <si>
-    <t>03.12.202580</t>
-  </si>
-  <si>
-    <t>03.12.202581</t>
-  </si>
-  <si>
-    <t>03.12.202582</t>
-  </si>
-  <si>
-    <t>03.12.202583</t>
-  </si>
-  <si>
-    <t>03.12.202584</t>
-  </si>
-  <si>
-    <t>03.12.202585</t>
-  </si>
-  <si>
-    <t>03.12.202586</t>
-  </si>
-  <si>
-    <t>03.12.202587</t>
-  </si>
-  <si>
-    <t>03.12.202588</t>
-  </si>
-  <si>
-    <t>03.12.202589</t>
-  </si>
-  <si>
-    <t>03.12.202590</t>
-  </si>
-  <si>
-    <t>03.12.202591</t>
-  </si>
-  <si>
-    <t>03.12.202592</t>
-  </si>
-  <si>
-    <t>03.12.202593</t>
-  </si>
-  <si>
-    <t>03.12.202594</t>
-  </si>
-  <si>
-    <t>03.12.202595</t>
-  </si>
-  <si>
-    <t>03.12.202596</t>
-  </si>
-  <si>
-    <t>04.12.20251</t>
-  </si>
-  <si>
-    <t>04.12.20252</t>
-  </si>
-  <si>
-    <t>04.12.20253</t>
-  </si>
-  <si>
-    <t>04.12.20254</t>
-  </si>
-  <si>
-    <t>04.12.20255</t>
-  </si>
-  <si>
-    <t>04.12.20256</t>
-  </si>
-  <si>
-    <t>04.12.20257</t>
-  </si>
-  <si>
-    <t>04.12.20258</t>
-  </si>
-  <si>
-    <t>04.12.20259</t>
-  </si>
-  <si>
-    <t>04.12.202510</t>
-  </si>
-  <si>
-    <t>04.12.202511</t>
-  </si>
-  <si>
-    <t>04.12.202512</t>
-  </si>
-  <si>
-    <t>04.12.202513</t>
-  </si>
-  <si>
-    <t>04.12.202514</t>
-  </si>
-  <si>
-    <t>04.12.202515</t>
-  </si>
-  <si>
-    <t>04.12.202516</t>
-  </si>
-  <si>
-    <t>04.12.202517</t>
-  </si>
-  <si>
-    <t>04.12.202518</t>
-  </si>
-  <si>
-    <t>04.12.202519</t>
-  </si>
-  <si>
-    <t>04.12.202520</t>
-  </si>
-  <si>
-    <t>04.12.202521</t>
-  </si>
-  <si>
-    <t>04.12.202522</t>
-  </si>
-  <si>
-    <t>04.12.202523</t>
-  </si>
-  <si>
-    <t>04.12.202524</t>
-  </si>
-  <si>
-    <t>04.12.202525</t>
-  </si>
-  <si>
-    <t>04.12.202526</t>
-  </si>
-  <si>
-    <t>04.12.202527</t>
-  </si>
-  <si>
-    <t>04.12.202528</t>
-  </si>
-  <si>
-    <t>04.12.202529</t>
-  </si>
-  <si>
-    <t>04.12.202530</t>
-  </si>
-  <si>
-    <t>04.12.202531</t>
-  </si>
-  <si>
-    <t>04.12.202532</t>
-  </si>
-  <si>
-    <t>04.12.202533</t>
-  </si>
-  <si>
-    <t>04.12.202534</t>
-  </si>
-  <si>
-    <t>04.12.202535</t>
-  </si>
-  <si>
-    <t>04.12.202536</t>
-  </si>
-  <si>
-    <t>04.12.202537</t>
-  </si>
-  <si>
-    <t>04.12.202538</t>
-  </si>
-  <si>
-    <t>04.12.202539</t>
-  </si>
-  <si>
-    <t>04.12.202540</t>
-  </si>
-  <si>
-    <t>04.12.202541</t>
-  </si>
-  <si>
-    <t>04.12.202542</t>
-  </si>
-  <si>
-    <t>04.12.202543</t>
-  </si>
-  <si>
-    <t>04.12.202544</t>
-  </si>
-  <si>
-    <t>04.12.202545</t>
-  </si>
-  <si>
-    <t>04.12.202546</t>
-  </si>
-  <si>
-    <t>04.12.202547</t>
-  </si>
-  <si>
-    <t>04.12.202548</t>
-  </si>
-  <si>
-    <t>04.12.202549</t>
-  </si>
-  <si>
-    <t>04.12.202550</t>
-  </si>
-  <si>
-    <t>04.12.202551</t>
-  </si>
-  <si>
-    <t>04.12.202552</t>
-  </si>
-  <si>
-    <t>04.12.202553</t>
-  </si>
-  <si>
-    <t>04.12.202554</t>
-  </si>
-  <si>
-    <t>04.12.202555</t>
-  </si>
-  <si>
-    <t>04.12.202556</t>
-  </si>
-  <si>
-    <t>04.12.202557</t>
-  </si>
-  <si>
-    <t>04.12.202558</t>
-  </si>
-  <si>
-    <t>04.12.202559</t>
-  </si>
-  <si>
-    <t>04.12.202560</t>
-  </si>
-  <si>
-    <t>04.12.202561</t>
-  </si>
-  <si>
-    <t>04.12.202562</t>
-  </si>
-  <si>
-    <t>04.12.202563</t>
-  </si>
-  <si>
-    <t>04.12.202564</t>
-  </si>
-  <si>
-    <t>04.12.202565</t>
-  </si>
-  <si>
-    <t>04.12.202566</t>
-  </si>
-  <si>
-    <t>04.12.202567</t>
-  </si>
-  <si>
-    <t>04.12.202568</t>
-  </si>
-  <si>
-    <t>04.12.202569</t>
-  </si>
-  <si>
-    <t>04.12.202570</t>
-  </si>
-  <si>
-    <t>04.12.202571</t>
-  </si>
-  <si>
-    <t>04.12.202572</t>
-  </si>
-  <si>
-    <t>04.12.202573</t>
-  </si>
-  <si>
-    <t>04.12.202574</t>
-  </si>
-  <si>
-    <t>04.12.202575</t>
-  </si>
-  <si>
-    <t>04.12.202576</t>
-  </si>
-  <si>
-    <t>04.12.202577</t>
-  </si>
-  <si>
-    <t>04.12.202578</t>
-  </si>
-  <si>
-    <t>04.12.202579</t>
-  </si>
-  <si>
-    <t>04.12.202580</t>
-  </si>
-  <si>
-    <t>04.12.202581</t>
-  </si>
-  <si>
-    <t>04.12.202582</t>
-  </si>
-  <si>
-    <t>04.12.202583</t>
-  </si>
-  <si>
-    <t>04.12.202584</t>
-  </si>
-  <si>
-    <t>04.12.202585</t>
-  </si>
-  <si>
-    <t>04.12.202586</t>
-  </si>
-  <si>
-    <t>04.12.202587</t>
-  </si>
-  <si>
-    <t>04.12.202588</t>
-  </si>
-  <si>
-    <t>04.12.202589</t>
-  </si>
-  <si>
-    <t>04.12.202590</t>
-  </si>
-  <si>
-    <t>04.12.202591</t>
-  </si>
-  <si>
-    <t>04.12.202592</t>
-  </si>
-  <si>
-    <t>04.12.202593</t>
-  </si>
-  <si>
-    <t>04.12.202594</t>
-  </si>
-  <si>
-    <t>04.12.202595</t>
-  </si>
-  <si>
-    <t>04.12.202596</t>
+    <t>11.12.20251</t>
+  </si>
+  <si>
+    <t>11.12.20252</t>
+  </si>
+  <si>
+    <t>11.12.20253</t>
+  </si>
+  <si>
+    <t>11.12.20254</t>
+  </si>
+  <si>
+    <t>11.12.20255</t>
+  </si>
+  <si>
+    <t>11.12.20256</t>
+  </si>
+  <si>
+    <t>11.12.20257</t>
+  </si>
+  <si>
+    <t>11.12.20258</t>
+  </si>
+  <si>
+    <t>11.12.20259</t>
+  </si>
+  <si>
+    <t>11.12.202510</t>
+  </si>
+  <si>
+    <t>11.12.202511</t>
+  </si>
+  <si>
+    <t>11.12.202512</t>
+  </si>
+  <si>
+    <t>11.12.202513</t>
+  </si>
+  <si>
+    <t>11.12.202514</t>
+  </si>
+  <si>
+    <t>11.12.202515</t>
+  </si>
+  <si>
+    <t>11.12.202516</t>
+  </si>
+  <si>
+    <t>11.12.202517</t>
+  </si>
+  <si>
+    <t>11.12.202518</t>
+  </si>
+  <si>
+    <t>11.12.202519</t>
+  </si>
+  <si>
+    <t>11.12.202520</t>
+  </si>
+  <si>
+    <t>11.12.202521</t>
+  </si>
+  <si>
+    <t>11.12.202522</t>
+  </si>
+  <si>
+    <t>11.12.202523</t>
+  </si>
+  <si>
+    <t>11.12.202524</t>
+  </si>
+  <si>
+    <t>11.12.202525</t>
+  </si>
+  <si>
+    <t>11.12.202526</t>
+  </si>
+  <si>
+    <t>11.12.202527</t>
+  </si>
+  <si>
+    <t>11.12.202528</t>
+  </si>
+  <si>
+    <t>11.12.202529</t>
+  </si>
+  <si>
+    <t>11.12.202530</t>
+  </si>
+  <si>
+    <t>11.12.202531</t>
+  </si>
+  <si>
+    <t>11.12.202532</t>
+  </si>
+  <si>
+    <t>11.12.202533</t>
+  </si>
+  <si>
+    <t>11.12.202534</t>
+  </si>
+  <si>
+    <t>11.12.202535</t>
+  </si>
+  <si>
+    <t>11.12.202536</t>
+  </si>
+  <si>
+    <t>11.12.202537</t>
+  </si>
+  <si>
+    <t>11.12.202538</t>
+  </si>
+  <si>
+    <t>11.12.202539</t>
+  </si>
+  <si>
+    <t>11.12.202540</t>
+  </si>
+  <si>
+    <t>11.12.202541</t>
+  </si>
+  <si>
+    <t>11.12.202542</t>
+  </si>
+  <si>
+    <t>11.12.202543</t>
+  </si>
+  <si>
+    <t>11.12.202544</t>
+  </si>
+  <si>
+    <t>11.12.202545</t>
+  </si>
+  <si>
+    <t>11.12.202546</t>
+  </si>
+  <si>
+    <t>11.12.202547</t>
+  </si>
+  <si>
+    <t>11.12.202548</t>
+  </si>
+  <si>
+    <t>11.12.202549</t>
+  </si>
+  <si>
+    <t>11.12.202550</t>
+  </si>
+  <si>
+    <t>11.12.202551</t>
+  </si>
+  <si>
+    <t>11.12.202552</t>
+  </si>
+  <si>
+    <t>11.12.202553</t>
+  </si>
+  <si>
+    <t>11.12.202554</t>
+  </si>
+  <si>
+    <t>11.12.202555</t>
+  </si>
+  <si>
+    <t>11.12.202556</t>
+  </si>
+  <si>
+    <t>11.12.202557</t>
+  </si>
+  <si>
+    <t>11.12.202558</t>
+  </si>
+  <si>
+    <t>11.12.202559</t>
+  </si>
+  <si>
+    <t>11.12.202560</t>
+  </si>
+  <si>
+    <t>11.12.202561</t>
+  </si>
+  <si>
+    <t>11.12.202562</t>
+  </si>
+  <si>
+    <t>11.12.202563</t>
+  </si>
+  <si>
+    <t>11.12.202564</t>
+  </si>
+  <si>
+    <t>11.12.202565</t>
+  </si>
+  <si>
+    <t>11.12.202566</t>
+  </si>
+  <si>
+    <t>11.12.202567</t>
+  </si>
+  <si>
+    <t>11.12.202568</t>
+  </si>
+  <si>
+    <t>11.12.202569</t>
+  </si>
+  <si>
+    <t>11.12.202570</t>
+  </si>
+  <si>
+    <t>11.12.202571</t>
+  </si>
+  <si>
+    <t>11.12.202572</t>
+  </si>
+  <si>
+    <t>11.12.202573</t>
+  </si>
+  <si>
+    <t>11.12.202574</t>
+  </si>
+  <si>
+    <t>11.12.202575</t>
+  </si>
+  <si>
+    <t>11.12.202576</t>
+  </si>
+  <si>
+    <t>11.12.202577</t>
+  </si>
+  <si>
+    <t>11.12.202578</t>
+  </si>
+  <si>
+    <t>11.12.202579</t>
+  </si>
+  <si>
+    <t>11.12.202580</t>
+  </si>
+  <si>
+    <t>11.12.202581</t>
+  </si>
+  <si>
+    <t>11.12.202582</t>
+  </si>
+  <si>
+    <t>11.12.202583</t>
+  </si>
+  <si>
+    <t>11.12.202584</t>
+  </si>
+  <si>
+    <t>11.12.202585</t>
+  </si>
+  <si>
+    <t>11.12.202586</t>
+  </si>
+  <si>
+    <t>11.12.202587</t>
+  </si>
+  <si>
+    <t>11.12.202588</t>
+  </si>
+  <si>
+    <t>11.12.202589</t>
+  </si>
+  <si>
+    <t>11.12.202590</t>
+  </si>
+  <si>
+    <t>11.12.202591</t>
+  </si>
+  <si>
+    <t>11.12.202592</t>
+  </si>
+  <si>
+    <t>11.12.202593</t>
+  </si>
+  <si>
+    <t>11.12.202594</t>
+  </si>
+  <si>
+    <t>11.12.202595</t>
+  </si>
+  <si>
+    <t>11.12.202596</t>
+  </si>
+  <si>
+    <t>12.12.20251</t>
+  </si>
+  <si>
+    <t>12.12.20252</t>
+  </si>
+  <si>
+    <t>12.12.20253</t>
+  </si>
+  <si>
+    <t>12.12.20254</t>
+  </si>
+  <si>
+    <t>12.12.20255</t>
+  </si>
+  <si>
+    <t>12.12.20256</t>
+  </si>
+  <si>
+    <t>12.12.20257</t>
+  </si>
+  <si>
+    <t>12.12.20258</t>
+  </si>
+  <si>
+    <t>12.12.20259</t>
+  </si>
+  <si>
+    <t>12.12.202510</t>
+  </si>
+  <si>
+    <t>12.12.202511</t>
+  </si>
+  <si>
+    <t>12.12.202512</t>
+  </si>
+  <si>
+    <t>12.12.202513</t>
+  </si>
+  <si>
+    <t>12.12.202514</t>
+  </si>
+  <si>
+    <t>12.12.202515</t>
+  </si>
+  <si>
+    <t>12.12.202516</t>
+  </si>
+  <si>
+    <t>12.12.202517</t>
+  </si>
+  <si>
+    <t>12.12.202518</t>
+  </si>
+  <si>
+    <t>12.12.202519</t>
+  </si>
+  <si>
+    <t>12.12.202520</t>
+  </si>
+  <si>
+    <t>12.12.202521</t>
+  </si>
+  <si>
+    <t>12.12.202522</t>
+  </si>
+  <si>
+    <t>12.12.202523</t>
+  </si>
+  <si>
+    <t>12.12.202524</t>
+  </si>
+  <si>
+    <t>12.12.202525</t>
+  </si>
+  <si>
+    <t>12.12.202526</t>
+  </si>
+  <si>
+    <t>12.12.202527</t>
+  </si>
+  <si>
+    <t>12.12.202528</t>
+  </si>
+  <si>
+    <t>12.12.202529</t>
+  </si>
+  <si>
+    <t>12.12.202530</t>
+  </si>
+  <si>
+    <t>12.12.202531</t>
+  </si>
+  <si>
+    <t>12.12.202532</t>
+  </si>
+  <si>
+    <t>12.12.202533</t>
+  </si>
+  <si>
+    <t>12.12.202534</t>
+  </si>
+  <si>
+    <t>12.12.202535</t>
+  </si>
+  <si>
+    <t>12.12.202536</t>
+  </si>
+  <si>
+    <t>12.12.202537</t>
+  </si>
+  <si>
+    <t>12.12.202538</t>
+  </si>
+  <si>
+    <t>12.12.202539</t>
+  </si>
+  <si>
+    <t>12.12.202540</t>
+  </si>
+  <si>
+    <t>12.12.202541</t>
+  </si>
+  <si>
+    <t>12.12.202542</t>
+  </si>
+  <si>
+    <t>12.12.202543</t>
+  </si>
+  <si>
+    <t>12.12.202544</t>
+  </si>
+  <si>
+    <t>12.12.202545</t>
+  </si>
+  <si>
+    <t>12.12.202546</t>
+  </si>
+  <si>
+    <t>12.12.202547</t>
+  </si>
+  <si>
+    <t>12.12.202548</t>
+  </si>
+  <si>
+    <t>12.12.202549</t>
+  </si>
+  <si>
+    <t>12.12.202550</t>
+  </si>
+  <si>
+    <t>12.12.202551</t>
+  </si>
+  <si>
+    <t>12.12.202552</t>
+  </si>
+  <si>
+    <t>12.12.202553</t>
+  </si>
+  <si>
+    <t>12.12.202554</t>
+  </si>
+  <si>
+    <t>12.12.202555</t>
+  </si>
+  <si>
+    <t>12.12.202556</t>
+  </si>
+  <si>
+    <t>12.12.202557</t>
+  </si>
+  <si>
+    <t>12.12.202558</t>
+  </si>
+  <si>
+    <t>12.12.202559</t>
+  </si>
+  <si>
+    <t>12.12.202560</t>
+  </si>
+  <si>
+    <t>12.12.202561</t>
+  </si>
+  <si>
+    <t>12.12.202562</t>
+  </si>
+  <si>
+    <t>12.12.202563</t>
+  </si>
+  <si>
+    <t>12.12.202564</t>
+  </si>
+  <si>
+    <t>12.12.202565</t>
+  </si>
+  <si>
+    <t>12.12.202566</t>
+  </si>
+  <si>
+    <t>12.12.202567</t>
+  </si>
+  <si>
+    <t>12.12.202568</t>
+  </si>
+  <si>
+    <t>12.12.202569</t>
+  </si>
+  <si>
+    <t>12.12.202570</t>
+  </si>
+  <si>
+    <t>12.12.202571</t>
+  </si>
+  <si>
+    <t>12.12.202572</t>
+  </si>
+  <si>
+    <t>12.12.202573</t>
+  </si>
+  <si>
+    <t>12.12.202574</t>
+  </si>
+  <si>
+    <t>12.12.202575</t>
+  </si>
+  <si>
+    <t>12.12.202576</t>
+  </si>
+  <si>
+    <t>12.12.202577</t>
+  </si>
+  <si>
+    <t>12.12.202578</t>
+  </si>
+  <si>
+    <t>12.12.202579</t>
+  </si>
+  <si>
+    <t>12.12.202580</t>
+  </si>
+  <si>
+    <t>12.12.202581</t>
+  </si>
+  <si>
+    <t>12.12.202582</t>
+  </si>
+  <si>
+    <t>12.12.202583</t>
+  </si>
+  <si>
+    <t>12.12.202584</t>
+  </si>
+  <si>
+    <t>12.12.202585</t>
+  </si>
+  <si>
+    <t>12.12.202586</t>
+  </si>
+  <si>
+    <t>12.12.202587</t>
+  </si>
+  <si>
+    <t>12.12.202588</t>
+  </si>
+  <si>
+    <t>12.12.202589</t>
+  </si>
+  <si>
+    <t>12.12.202590</t>
+  </si>
+  <si>
+    <t>12.12.202591</t>
+  </si>
+  <si>
+    <t>12.12.202592</t>
+  </si>
+  <si>
+    <t>12.12.202593</t>
+  </si>
+  <si>
+    <t>12.12.202594</t>
+  </si>
+  <si>
+    <t>12.12.202595</t>
+  </si>
+  <si>
+    <t>12.12.202596</t>
+  </si>
+  <si>
+    <t>13.12.20251</t>
+  </si>
+  <si>
+    <t>13.12.20252</t>
+  </si>
+  <si>
+    <t>13.12.20253</t>
+  </si>
+  <si>
+    <t>13.12.20254</t>
+  </si>
+  <si>
+    <t>13.12.20255</t>
+  </si>
+  <si>
+    <t>13.12.20256</t>
+  </si>
+  <si>
+    <t>13.12.20257</t>
+  </si>
+  <si>
+    <t>13.12.20258</t>
+  </si>
+  <si>
+    <t>13.12.20259</t>
+  </si>
+  <si>
+    <t>13.12.202510</t>
+  </si>
+  <si>
+    <t>13.12.202511</t>
+  </si>
+  <si>
+    <t>13.12.202512</t>
+  </si>
+  <si>
+    <t>13.12.202513</t>
+  </si>
+  <si>
+    <t>13.12.202514</t>
+  </si>
+  <si>
+    <t>13.12.202515</t>
+  </si>
+  <si>
+    <t>13.12.202516</t>
+  </si>
+  <si>
+    <t>13.12.202517</t>
+  </si>
+  <si>
+    <t>13.12.202518</t>
+  </si>
+  <si>
+    <t>13.12.202519</t>
+  </si>
+  <si>
+    <t>13.12.202520</t>
+  </si>
+  <si>
+    <t>13.12.202521</t>
+  </si>
+  <si>
+    <t>13.12.202522</t>
+  </si>
+  <si>
+    <t>13.12.202523</t>
+  </si>
+  <si>
+    <t>13.12.202524</t>
+  </si>
+  <si>
+    <t>13.12.202525</t>
+  </si>
+  <si>
+    <t>13.12.202526</t>
+  </si>
+  <si>
+    <t>13.12.202527</t>
+  </si>
+  <si>
+    <t>13.12.202528</t>
+  </si>
+  <si>
+    <t>13.12.202529</t>
+  </si>
+  <si>
+    <t>13.12.202530</t>
+  </si>
+  <si>
+    <t>13.12.202531</t>
+  </si>
+  <si>
+    <t>13.12.202532</t>
+  </si>
+  <si>
+    <t>13.12.202533</t>
+  </si>
+  <si>
+    <t>13.12.202534</t>
+  </si>
+  <si>
+    <t>13.12.202535</t>
+  </si>
+  <si>
+    <t>13.12.202536</t>
+  </si>
+  <si>
+    <t>13.12.202537</t>
+  </si>
+  <si>
+    <t>13.12.202538</t>
+  </si>
+  <si>
+    <t>13.12.202539</t>
+  </si>
+  <si>
+    <t>13.12.202540</t>
+  </si>
+  <si>
+    <t>13.12.202541</t>
+  </si>
+  <si>
+    <t>13.12.202542</t>
+  </si>
+  <si>
+    <t>13.12.202543</t>
+  </si>
+  <si>
+    <t>13.12.202544</t>
+  </si>
+  <si>
+    <t>13.12.202545</t>
+  </si>
+  <si>
+    <t>13.12.202546</t>
+  </si>
+  <si>
+    <t>13.12.202547</t>
+  </si>
+  <si>
+    <t>13.12.202548</t>
+  </si>
+  <si>
+    <t>13.12.202549</t>
+  </si>
+  <si>
+    <t>13.12.202550</t>
+  </si>
+  <si>
+    <t>13.12.202551</t>
+  </si>
+  <si>
+    <t>13.12.202552</t>
+  </si>
+  <si>
+    <t>13.12.202553</t>
+  </si>
+  <si>
+    <t>13.12.202554</t>
+  </si>
+  <si>
+    <t>13.12.202555</t>
+  </si>
+  <si>
+    <t>13.12.202556</t>
+  </si>
+  <si>
+    <t>13.12.202557</t>
+  </si>
+  <si>
+    <t>13.12.202558</t>
+  </si>
+  <si>
+    <t>13.12.202559</t>
+  </si>
+  <si>
+    <t>13.12.202560</t>
+  </si>
+  <si>
+    <t>13.12.202561</t>
+  </si>
+  <si>
+    <t>13.12.202562</t>
+  </si>
+  <si>
+    <t>13.12.202563</t>
+  </si>
+  <si>
+    <t>13.12.202564</t>
+  </si>
+  <si>
+    <t>13.12.202565</t>
+  </si>
+  <si>
+    <t>13.12.202566</t>
+  </si>
+  <si>
+    <t>13.12.202567</t>
+  </si>
+  <si>
+    <t>13.12.202568</t>
+  </si>
+  <si>
+    <t>13.12.202569</t>
+  </si>
+  <si>
+    <t>13.12.202570</t>
+  </si>
+  <si>
+    <t>13.12.202571</t>
+  </si>
+  <si>
+    <t>13.12.202572</t>
+  </si>
+  <si>
+    <t>13.12.202573</t>
+  </si>
+  <si>
+    <t>13.12.202574</t>
+  </si>
+  <si>
+    <t>13.12.202575</t>
+  </si>
+  <si>
+    <t>13.12.202576</t>
+  </si>
+  <si>
+    <t>13.12.202577</t>
+  </si>
+  <si>
+    <t>13.12.202578</t>
+  </si>
+  <si>
+    <t>13.12.202579</t>
+  </si>
+  <si>
+    <t>13.12.202580</t>
+  </si>
+  <si>
+    <t>13.12.202581</t>
+  </si>
+  <si>
+    <t>13.12.202582</t>
+  </si>
+  <si>
+    <t>13.12.202583</t>
+  </si>
+  <si>
+    <t>13.12.202584</t>
+  </si>
+  <si>
+    <t>13.12.202585</t>
+  </si>
+  <si>
+    <t>13.12.202586</t>
+  </si>
+  <si>
+    <t>13.12.202587</t>
+  </si>
+  <si>
+    <t>13.12.202588</t>
+  </si>
+  <si>
+    <t>13.12.202589</t>
+  </si>
+  <si>
+    <t>13.12.202590</t>
+  </si>
+  <si>
+    <t>13.12.202591</t>
+  </si>
+  <si>
+    <t>13.12.202592</t>
+  </si>
+  <si>
+    <t>13.12.202593</t>
+  </si>
+  <si>
+    <t>13.12.202594</t>
+  </si>
+  <si>
+    <t>13.12.202595</t>
+  </si>
+  <si>
+    <t>13.12.202596</t>
+  </si>
+  <si>
+    <t>14.12.20251</t>
+  </si>
+  <si>
+    <t>14.12.20252</t>
+  </si>
+  <si>
+    <t>14.12.20253</t>
+  </si>
+  <si>
+    <t>14.12.20254</t>
+  </si>
+  <si>
+    <t>14.12.20255</t>
+  </si>
+  <si>
+    <t>14.12.20256</t>
+  </si>
+  <si>
+    <t>14.12.20257</t>
+  </si>
+  <si>
+    <t>14.12.20258</t>
+  </si>
+  <si>
+    <t>14.12.20259</t>
+  </si>
+  <si>
+    <t>14.12.202510</t>
+  </si>
+  <si>
+    <t>14.12.202511</t>
+  </si>
+  <si>
+    <t>14.12.202512</t>
+  </si>
+  <si>
+    <t>14.12.202513</t>
+  </si>
+  <si>
+    <t>14.12.202514</t>
+  </si>
+  <si>
+    <t>14.12.202515</t>
+  </si>
+  <si>
+    <t>14.12.202516</t>
+  </si>
+  <si>
+    <t>14.12.202517</t>
+  </si>
+  <si>
+    <t>14.12.202518</t>
+  </si>
+  <si>
+    <t>14.12.202519</t>
+  </si>
+  <si>
+    <t>14.12.202520</t>
+  </si>
+  <si>
+    <t>14.12.202521</t>
+  </si>
+  <si>
+    <t>14.12.202522</t>
+  </si>
+  <si>
+    <t>14.12.202523</t>
+  </si>
+  <si>
+    <t>14.12.202524</t>
+  </si>
+  <si>
+    <t>14.12.202525</t>
+  </si>
+  <si>
+    <t>14.12.202526</t>
+  </si>
+  <si>
+    <t>14.12.202527</t>
+  </si>
+  <si>
+    <t>14.12.202528</t>
+  </si>
+  <si>
+    <t>14.12.202529</t>
+  </si>
+  <si>
+    <t>14.12.202530</t>
+  </si>
+  <si>
+    <t>14.12.202531</t>
+  </si>
+  <si>
+    <t>14.12.202532</t>
+  </si>
+  <si>
+    <t>14.12.202533</t>
+  </si>
+  <si>
+    <t>14.12.202534</t>
+  </si>
+  <si>
+    <t>14.12.202535</t>
+  </si>
+  <si>
+    <t>14.12.202536</t>
+  </si>
+  <si>
+    <t>14.12.202537</t>
+  </si>
+  <si>
+    <t>14.12.202538</t>
+  </si>
+  <si>
+    <t>14.12.202539</t>
+  </si>
+  <si>
+    <t>14.12.202540</t>
+  </si>
+  <si>
+    <t>14.12.202541</t>
+  </si>
+  <si>
+    <t>14.12.202542</t>
+  </si>
+  <si>
+    <t>14.12.202543</t>
+  </si>
+  <si>
+    <t>14.12.202544</t>
+  </si>
+  <si>
+    <t>14.12.202545</t>
+  </si>
+  <si>
+    <t>14.12.202546</t>
+  </si>
+  <si>
+    <t>14.12.202547</t>
+  </si>
+  <si>
+    <t>14.12.202548</t>
+  </si>
+  <si>
+    <t>14.12.202549</t>
+  </si>
+  <si>
+    <t>14.12.202550</t>
+  </si>
+  <si>
+    <t>14.12.202551</t>
+  </si>
+  <si>
+    <t>14.12.202552</t>
+  </si>
+  <si>
+    <t>14.12.202553</t>
+  </si>
+  <si>
+    <t>14.12.202554</t>
+  </si>
+  <si>
+    <t>14.12.202555</t>
+  </si>
+  <si>
+    <t>14.12.202556</t>
+  </si>
+  <si>
+    <t>14.12.202557</t>
+  </si>
+  <si>
+    <t>14.12.202558</t>
+  </si>
+  <si>
+    <t>14.12.202559</t>
+  </si>
+  <si>
+    <t>14.12.202560</t>
+  </si>
+  <si>
+    <t>14.12.202561</t>
+  </si>
+  <si>
+    <t>14.12.202562</t>
+  </si>
+  <si>
+    <t>14.12.202563</t>
+  </si>
+  <si>
+    <t>14.12.202564</t>
+  </si>
+  <si>
+    <t>14.12.202565</t>
+  </si>
+  <si>
+    <t>14.12.202566</t>
+  </si>
+  <si>
+    <t>14.12.202567</t>
+  </si>
+  <si>
+    <t>14.12.202568</t>
+  </si>
+  <si>
+    <t>14.12.202569</t>
+  </si>
+  <si>
+    <t>14.12.202570</t>
+  </si>
+  <si>
+    <t>14.12.202571</t>
+  </si>
+  <si>
+    <t>14.12.202572</t>
+  </si>
+  <si>
+    <t>14.12.202573</t>
+  </si>
+  <si>
+    <t>14.12.202574</t>
+  </si>
+  <si>
+    <t>14.12.202575</t>
+  </si>
+  <si>
+    <t>14.12.202576</t>
+  </si>
+  <si>
+    <t>14.12.202577</t>
+  </si>
+  <si>
+    <t>14.12.202578</t>
+  </si>
+  <si>
+    <t>14.12.202579</t>
+  </si>
+  <si>
+    <t>14.12.202580</t>
+  </si>
+  <si>
+    <t>14.12.202581</t>
+  </si>
+  <si>
+    <t>14.12.202582</t>
+  </si>
+  <si>
+    <t>14.12.202583</t>
+  </si>
+  <si>
+    <t>14.12.202584</t>
+  </si>
+  <si>
+    <t>14.12.202585</t>
+  </si>
+  <si>
+    <t>14.12.202586</t>
+  </si>
+  <si>
+    <t>14.12.202587</t>
+  </si>
+  <si>
+    <t>14.12.202588</t>
+  </si>
+  <si>
+    <t>14.12.202589</t>
+  </si>
+  <si>
+    <t>14.12.202590</t>
+  </si>
+  <si>
+    <t>14.12.202591</t>
+  </si>
+  <si>
+    <t>14.12.202592</t>
+  </si>
+  <si>
+    <t>14.12.202593</t>
+  </si>
+  <si>
+    <t>14.12.202594</t>
+  </si>
+  <si>
+    <t>14.12.202595</t>
+  </si>
+  <si>
+    <t>14.12.202596</t>
+  </si>
+  <si>
+    <t>15.12.20251</t>
+  </si>
+  <si>
+    <t>15.12.20252</t>
+  </si>
+  <si>
+    <t>15.12.20253</t>
+  </si>
+  <si>
+    <t>15.12.20254</t>
+  </si>
+  <si>
+    <t>15.12.20255</t>
+  </si>
+  <si>
+    <t>15.12.20256</t>
+  </si>
+  <si>
+    <t>15.12.20257</t>
+  </si>
+  <si>
+    <t>15.12.20258</t>
+  </si>
+  <si>
+    <t>15.12.20259</t>
+  </si>
+  <si>
+    <t>15.12.202510</t>
+  </si>
+  <si>
+    <t>15.12.202511</t>
+  </si>
+  <si>
+    <t>15.12.202512</t>
+  </si>
+  <si>
+    <t>15.12.202513</t>
+  </si>
+  <si>
+    <t>15.12.202514</t>
+  </si>
+  <si>
+    <t>15.12.202515</t>
+  </si>
+  <si>
+    <t>15.12.202516</t>
+  </si>
+  <si>
+    <t>15.12.202517</t>
+  </si>
+  <si>
+    <t>15.12.202518</t>
+  </si>
+  <si>
+    <t>15.12.202519</t>
+  </si>
+  <si>
+    <t>15.12.202520</t>
+  </si>
+  <si>
+    <t>15.12.202521</t>
+  </si>
+  <si>
+    <t>15.12.202522</t>
+  </si>
+  <si>
+    <t>15.12.202523</t>
+  </si>
+  <si>
+    <t>15.12.202524</t>
+  </si>
+  <si>
+    <t>15.12.202525</t>
+  </si>
+  <si>
+    <t>15.12.202526</t>
+  </si>
+  <si>
+    <t>15.12.202527</t>
+  </si>
+  <si>
+    <t>15.12.202528</t>
+  </si>
+  <si>
+    <t>15.12.202529</t>
+  </si>
+  <si>
+    <t>15.12.202530</t>
+  </si>
+  <si>
+    <t>15.12.202531</t>
+  </si>
+  <si>
+    <t>15.12.202532</t>
+  </si>
+  <si>
+    <t>15.12.202533</t>
+  </si>
+  <si>
+    <t>15.12.202534</t>
+  </si>
+  <si>
+    <t>15.12.202535</t>
+  </si>
+  <si>
+    <t>15.12.202536</t>
+  </si>
+  <si>
+    <t>15.12.202537</t>
+  </si>
+  <si>
+    <t>15.12.202538</t>
+  </si>
+  <si>
+    <t>15.12.202539</t>
+  </si>
+  <si>
+    <t>15.12.202540</t>
+  </si>
+  <si>
+    <t>15.12.202541</t>
+  </si>
+  <si>
+    <t>15.12.202542</t>
+  </si>
+  <si>
+    <t>15.12.202543</t>
+  </si>
+  <si>
+    <t>15.12.202544</t>
+  </si>
+  <si>
+    <t>15.12.202545</t>
+  </si>
+  <si>
+    <t>15.12.202546</t>
+  </si>
+  <si>
+    <t>15.12.202547</t>
+  </si>
+  <si>
+    <t>15.12.202548</t>
+  </si>
+  <si>
+    <t>15.12.202549</t>
+  </si>
+  <si>
+    <t>15.12.202550</t>
+  </si>
+  <si>
+    <t>15.12.202551</t>
+  </si>
+  <si>
+    <t>15.12.202552</t>
+  </si>
+  <si>
+    <t>15.12.202553</t>
+  </si>
+  <si>
+    <t>15.12.202554</t>
+  </si>
+  <si>
+    <t>15.12.202555</t>
+  </si>
+  <si>
+    <t>15.12.202556</t>
+  </si>
+  <si>
+    <t>15.12.202557</t>
+  </si>
+  <si>
+    <t>15.12.202558</t>
+  </si>
+  <si>
+    <t>15.12.202559</t>
+  </si>
+  <si>
+    <t>15.12.202560</t>
+  </si>
+  <si>
+    <t>15.12.202561</t>
+  </si>
+  <si>
+    <t>15.12.202562</t>
+  </si>
+  <si>
+    <t>15.12.202563</t>
+  </si>
+  <si>
+    <t>15.12.202564</t>
+  </si>
+  <si>
+    <t>15.12.202565</t>
+  </si>
+  <si>
+    <t>15.12.202566</t>
+  </si>
+  <si>
+    <t>15.12.202567</t>
+  </si>
+  <si>
+    <t>15.12.202568</t>
+  </si>
+  <si>
+    <t>15.12.202569</t>
+  </si>
+  <si>
+    <t>15.12.202570</t>
+  </si>
+  <si>
+    <t>15.12.202571</t>
+  </si>
+  <si>
+    <t>15.12.202572</t>
+  </si>
+  <si>
+    <t>15.12.202573</t>
+  </si>
+  <si>
+    <t>15.12.202574</t>
+  </si>
+  <si>
+    <t>15.12.202575</t>
+  </si>
+  <si>
+    <t>15.12.202576</t>
+  </si>
+  <si>
+    <t>15.12.202577</t>
+  </si>
+  <si>
+    <t>15.12.202578</t>
+  </si>
+  <si>
+    <t>15.12.202579</t>
+  </si>
+  <si>
+    <t>15.12.202580</t>
+  </si>
+  <si>
+    <t>15.12.202581</t>
+  </si>
+  <si>
+    <t>15.12.202582</t>
+  </si>
+  <si>
+    <t>15.12.202583</t>
+  </si>
+  <si>
+    <t>15.12.202584</t>
+  </si>
+  <si>
+    <t>15.12.202585</t>
+  </si>
+  <si>
+    <t>15.12.202586</t>
+  </si>
+  <si>
+    <t>15.12.202587</t>
+  </si>
+  <si>
+    <t>15.12.202588</t>
+  </si>
+  <si>
+    <t>15.12.202589</t>
+  </si>
+  <si>
+    <t>15.12.202590</t>
+  </si>
+  <si>
+    <t>15.12.202591</t>
+  </si>
+  <si>
+    <t>15.12.202592</t>
+  </si>
+  <si>
+    <t>15.12.202593</t>
+  </si>
+  <si>
+    <t>15.12.202594</t>
+  </si>
+  <si>
+    <t>15.12.202595</t>
+  </si>
+  <si>
+    <t>15.12.202596</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +1855,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45994.00486111111</v>
+        <v>46002.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1872,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45994.01527777778</v>
+        <v>46002.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1889,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45994.02569444444</v>
+        <v>46002.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1906,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45994.03611111111</v>
+        <v>46002.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1923,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45994.04652777778</v>
+        <v>46002.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1940,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45994.05694444444</v>
+        <v>46002.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1957,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45994.06736111111</v>
+        <v>46002.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1974,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45994.07777777778</v>
+        <v>46002.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1991,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45994.08819444444</v>
+        <v>46002.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +2008,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45994.09861111111</v>
+        <v>46002.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +2025,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45994.10902777778</v>
+        <v>46002.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +2042,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45994.11944444444</v>
+        <v>46002.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +2059,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>45994.12986111111</v>
+        <v>46002.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +2076,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>45994.14027777778</v>
+        <v>46002.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +2093,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>45994.15069444444</v>
+        <v>46002.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +2110,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45994.16111111111</v>
+        <v>46002.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +2127,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45994.17152777778</v>
+        <v>46002.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +2144,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>45994.18194444444</v>
+        <v>46002.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +2161,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>45994.19236111111</v>
+        <v>46002.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +2178,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>45994.20277777778</v>
+        <v>46002.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +2195,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>45994.21319444444</v>
+        <v>46002.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +2212,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>45994.22361111111</v>
+        <v>46002.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +2229,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>45994.23402777778</v>
+        <v>46002.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +2246,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>45994.24444444444</v>
+        <v>46002.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +2263,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>45994.25486111111</v>
+        <v>46002.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +2280,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>45994.26527777778</v>
+        <v>46002.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +2297,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>45994.27569444444</v>
+        <v>46002.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +2314,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>45994.28611111111</v>
+        <v>46002.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +2331,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>45994.29652777778</v>
+        <v>46002.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +2348,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>45994.30694444444</v>
+        <v>46002.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +2365,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>45994.31736111111</v>
+        <v>46002.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +2382,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>45994.32777777778</v>
+        <v>46002.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +2399,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>45994.33819444444</v>
+        <v>46002.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +2416,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>45994.34861111111</v>
+        <v>46002.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +2433,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>45994.35902777778</v>
+        <v>46002.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +2450,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>45994.36944444444</v>
+        <v>46002.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +2467,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>45994.37986111111</v>
+        <v>46002.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +2484,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>45994.39027777778</v>
+        <v>46002.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +2501,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>45994.40069444444</v>
+        <v>46002.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +2518,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>45994.41111111111</v>
+        <v>46002.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +2535,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>45994.42152777778</v>
+        <v>46002.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +2552,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45994.43194444444</v>
+        <v>46002.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +2569,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45994.44236111111</v>
+        <v>46002.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +2586,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45994.45277777778</v>
+        <v>46002.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +2603,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45994.46319444444</v>
+        <v>46002.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +2620,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45994.47361111111</v>
+        <v>46002.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +2637,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45994.48402777778</v>
+        <v>46002.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +2654,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45994.49444444444</v>
+        <v>46002.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +2671,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45994.50486111111</v>
+        <v>46002.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +2688,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45994.51527777778</v>
+        <v>46002.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +2705,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45994.52569444444</v>
+        <v>46002.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +2722,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>45994.53611111111</v>
+        <v>46002.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +2739,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>45994.54652777778</v>
+        <v>46002.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +2756,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>45994.55694444444</v>
+        <v>46002.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +2773,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>45994.56736111111</v>
+        <v>46002.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +2790,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>45994.57777777778</v>
+        <v>46002.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +2807,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>45994.58819444444</v>
+        <v>46002.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +2824,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>45994.59861111111</v>
+        <v>46002.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +2841,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>45994.60902777778</v>
+        <v>46002.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +2858,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>45994.61944444444</v>
+        <v>46002.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2875,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>45994.62986111111</v>
+        <v>46002.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2892,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>45994.64027777778</v>
+        <v>46002.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2909,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>45994.65069444444</v>
+        <v>46002.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2926,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>45994.66111111111</v>
+        <v>46002.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2943,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>45994.67152777778</v>
+        <v>46002.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2960,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>45994.68194444444</v>
+        <v>46002.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2977,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>45994.69236111111</v>
+        <v>46002.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2994,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>45994.70277777778</v>
+        <v>46002.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +3011,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>45994.71319444444</v>
+        <v>46002.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +3028,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>45994.72361111111</v>
+        <v>46002.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +3045,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>45994.73402777778</v>
+        <v>46002.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +3062,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>45994.74444444444</v>
+        <v>46002.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +3079,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>45994.75486111111</v>
+        <v>46002.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +3096,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>45994.76527777778</v>
+        <v>46002.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +3113,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>45994.77569444444</v>
+        <v>46002.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +3130,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>45994.78611111111</v>
+        <v>46002.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +3147,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>45994.79652777778</v>
+        <v>46002.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +3164,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>45994.80694444444</v>
+        <v>46002.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +3181,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>45994.81736111111</v>
+        <v>46002.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +3198,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>45994.82777777778</v>
+        <v>46002.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +3215,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45994.83819444444</v>
+        <v>46002.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +3232,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>45994.84861111111</v>
+        <v>46002.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +3249,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>45994.85902777778</v>
+        <v>46002.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +3266,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>45994.86944444444</v>
+        <v>46002.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +3283,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>45994.87986111111</v>
+        <v>46002.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +3300,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>45994.89027777778</v>
+        <v>46002.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +3317,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>45994.90069444444</v>
+        <v>46002.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +3334,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>45994.91111111111</v>
+        <v>46002.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +3351,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>45994.92152777778</v>
+        <v>46002.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +3368,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>45994.92152777778</v>
+        <v>46002.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +3385,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>45994.93194444444</v>
+        <v>46002.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +3402,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>45994.93194444444</v>
+        <v>46002.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +3419,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>45994.94236111111</v>
+        <v>46002.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +3436,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>45994.94236111111</v>
+        <v>46002.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +3453,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>45994.95277777778</v>
+        <v>46002.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +3470,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>45994.95277777778</v>
+        <v>46002.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +3487,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>45994.96319444444</v>
+        <v>46002.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +3504,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>45994.96319444444</v>
+        <v>46002.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +3521,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>45994.97361111111</v>
+        <v>46002.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +3538,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>45994.97361111111</v>
+        <v>46002.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +3555,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>45994.98402777778</v>
+        <v>46002.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +3572,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>45994.98402777778</v>
+        <v>46002.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +3589,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>45994.99444444444</v>
+        <v>46002.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +3606,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>45994.99444444444</v>
+        <v>46002.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +3623,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>45995.00486111111</v>
+        <v>46003.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +3640,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>45995.01527777778</v>
+        <v>46003.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +3657,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>45995.02569444444</v>
+        <v>46003.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +3674,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>45995.03611111111</v>
+        <v>46003.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +3691,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>45995.04652777778</v>
+        <v>46003.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +3708,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>45995.05694444444</v>
+        <v>46003.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +3725,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>45995.06736111111</v>
+        <v>46003.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +3742,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45995.07777777778</v>
+        <v>46003.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +3759,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45995.08819444444</v>
+        <v>46003.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +3776,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45995.09861111111</v>
+        <v>46003.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +3793,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45995.10902777778</v>
+        <v>46003.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +3810,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45995.11944444444</v>
+        <v>46003.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +3827,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45995.12986111111</v>
+        <v>46003.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +3844,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45995.14027777778</v>
+        <v>46003.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +3861,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45995.15069444444</v>
+        <v>46003.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3878,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>45995.16111111111</v>
+        <v>46003.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3895,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>45995.17152777778</v>
+        <v>46003.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3912,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>45995.18194444444</v>
+        <v>46003.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3929,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>45995.19236111111</v>
+        <v>46003.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3946,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>45995.20277777778</v>
+        <v>46003.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3963,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>45995.21319444444</v>
+        <v>46003.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3980,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>45995.22361111111</v>
+        <v>46003.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3997,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>45995.23402777778</v>
+        <v>46003.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +4014,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>45995.24444444444</v>
+        <v>46003.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +4031,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>45995.25486111111</v>
+        <v>46003.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +4048,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>45995.26527777778</v>
+        <v>46003.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +4065,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>45995.27569444444</v>
+        <v>46003.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +4082,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>45995.28611111111</v>
+        <v>46003.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +4099,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>45995.29652777778</v>
+        <v>46003.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +4116,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>45995.30694444444</v>
+        <v>46003.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +4133,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>45995.31736111111</v>
+        <v>46003.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +4150,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>45995.32777777778</v>
+        <v>46003.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +4167,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>45995.33819444444</v>
+        <v>46003.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +4184,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>45995.34861111111</v>
+        <v>46003.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +4201,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>45995.35902777778</v>
+        <v>46003.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +4218,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>45995.36944444444</v>
+        <v>46003.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +4235,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>45995.37986111111</v>
+        <v>46003.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +4252,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>45995.39027777778</v>
+        <v>46003.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +4269,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>45995.40069444444</v>
+        <v>46003.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +4286,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>45995.41111111111</v>
+        <v>46003.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +4303,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>45995.42152777778</v>
+        <v>46003.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +4320,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>45995.43194444444</v>
+        <v>46003.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +4337,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>45995.44236111111</v>
+        <v>46003.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +4354,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>45995.45277777778</v>
+        <v>46003.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +4371,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>45995.46319444444</v>
+        <v>46003.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +4388,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>45995.47361111111</v>
+        <v>46003.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +4405,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>45995.48402777778</v>
+        <v>46003.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +4422,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>45995.49444444444</v>
+        <v>46003.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +4439,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>45995.50486111111</v>
+        <v>46003.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +4456,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>45995.51527777778</v>
+        <v>46003.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +4473,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>45995.52569444444</v>
+        <v>46003.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +4490,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>45995.53611111111</v>
+        <v>46003.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +4507,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>45995.54652777778</v>
+        <v>46003.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +4524,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>45995.55694444444</v>
+        <v>46003.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +4541,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>45995.56736111111</v>
+        <v>46003.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +4558,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>45995.57777777778</v>
+        <v>46003.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +4575,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>45995.58819444444</v>
+        <v>46003.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +4592,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>45995.59861111111</v>
+        <v>46003.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +4609,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>45995.60902777778</v>
+        <v>46003.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +4626,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>45995.61944444444</v>
+        <v>46003.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +4643,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>45995.62986111111</v>
+        <v>46003.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +4660,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>45995.64027777778</v>
+        <v>46003.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +4677,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>45995.65069444444</v>
+        <v>46003.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +4694,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>45995.66111111111</v>
+        <v>46003.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +4711,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>45995.67152777778</v>
+        <v>46003.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +4728,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>45995.68194444444</v>
+        <v>46003.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +4745,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>45995.69236111111</v>
+        <v>46003.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +4762,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>45995.70277777778</v>
+        <v>46003.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +4779,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>45995.71319444444</v>
+        <v>46003.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +4796,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>45995.72361111111</v>
+        <v>46003.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +4813,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>45995.73402777778</v>
+        <v>46003.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +4830,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>45995.74444444444</v>
+        <v>46003.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +4847,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>45995.75486111111</v>
+        <v>46003.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4864,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>45995.76527777778</v>
+        <v>46003.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4881,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>45995.77569444444</v>
+        <v>46003.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4898,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>45995.78611111111</v>
+        <v>46003.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4915,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>45995.79652777778</v>
+        <v>46003.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4932,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>45995.80694444444</v>
+        <v>46003.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4949,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>45995.81736111111</v>
+        <v>46003.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4966,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>45995.82777777778</v>
+        <v>46003.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4983,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>45995.83819444444</v>
+        <v>46003.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +5000,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>45995.84861111111</v>
+        <v>46003.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +5017,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>45995.85902777778</v>
+        <v>46003.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +5034,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>45995.86944444444</v>
+        <v>46003.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +5051,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>45995.87986111111</v>
+        <v>46003.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +5068,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>45995.89027777778</v>
+        <v>46003.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +5085,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>45995.90069444444</v>
+        <v>46003.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +5102,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>45995.91111111111</v>
+        <v>46003.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +5119,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>45995.92152777778</v>
+        <v>46003.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +5136,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>45995.93194444444</v>
+        <v>46003.92152777778</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4281,15 +5145,15 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E195" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>45995.94236111111</v>
+        <v>46003.93194444444</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4298,15 +5162,15 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E196" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>45995.95277777778</v>
+        <v>46003.93194444444</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4315,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>45995.96319444444</v>
+        <v>46003.94236111111</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4332,15 +5196,15 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>45995.97361111111</v>
+        <v>46003.94236111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4349,15 +5213,15 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>45995.98402777778</v>
+        <v>46003.95277777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4366,15 +5230,15 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E200" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>45995.99444444444</v>
+        <v>46003.95277777778</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -4383,10 +5247,5314 @@
         <v>0</v>
       </c>
       <c r="D201">
+        <v>92</v>
+      </c>
+      <c r="E201" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2">
+        <v>46003.96319444444</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>93</v>
+      </c>
+      <c r="E202" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>46003.96319444444</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>93</v>
+      </c>
+      <c r="E203" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>46003.97361111111</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>94</v>
+      </c>
+      <c r="E204" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>46003.97361111111</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>94</v>
+      </c>
+      <c r="E205" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2">
+        <v>46003.98402777778</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>95</v>
+      </c>
+      <c r="E206" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2">
+        <v>46003.98402777778</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>95</v>
+      </c>
+      <c r="E207" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2">
+        <v>46003.99444444444</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
         <v>96</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E208" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>46003.99444444444</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>96</v>
+      </c>
+      <c r="E209" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>46004.00486111111</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2">
+        <v>46004.01527777778</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2">
+        <v>46004.02569444444</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2">
+        <v>46004.03611111111</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2">
+        <v>46004.04652777778</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2">
+        <v>46004.05694444444</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>6</v>
+      </c>
+      <c r="E215" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>46004.06736111111</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>46004.07777777778</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2">
+        <v>46004.08819444444</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2">
+        <v>46004.09861111111</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2">
+        <v>46004.10902777778</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
+      </c>
+      <c r="E220" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2">
+        <v>46004.11944444444</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2">
+        <v>46004.12986111111</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2">
+        <v>46004.14027777778</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2">
+        <v>46004.15069444444</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>15</v>
+      </c>
+      <c r="E224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2">
+        <v>46004.16111111111</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>16</v>
+      </c>
+      <c r="E225" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2">
+        <v>46004.17152777778</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>17</v>
+      </c>
+      <c r="E226" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2">
+        <v>46004.18194444444</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>18</v>
+      </c>
+      <c r="E227" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2">
+        <v>46004.19236111111</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>19</v>
+      </c>
+      <c r="E228" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2">
+        <v>46004.20277777778</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2">
+        <v>46004.21319444444</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>21</v>
+      </c>
+      <c r="E230" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2">
+        <v>46004.22361111111</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>22</v>
+      </c>
+      <c r="E231" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2">
+        <v>46004.23402777778</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>23</v>
+      </c>
+      <c r="E232" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2">
+        <v>46004.24444444444</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>24</v>
+      </c>
+      <c r="E233" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2">
+        <v>46004.25486111111</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>25</v>
+      </c>
+      <c r="E234" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2">
+        <v>46004.26527777778</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>26</v>
+      </c>
+      <c r="E235" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2">
+        <v>46004.27569444444</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>27</v>
+      </c>
+      <c r="E236" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2">
+        <v>46004.28611111111</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>28</v>
+      </c>
+      <c r="E237" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2">
+        <v>46004.29652777778</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>29</v>
+      </c>
+      <c r="E238" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2">
+        <v>46004.30694444444</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>30</v>
+      </c>
+      <c r="E239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2">
+        <v>46004.31736111111</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>31</v>
+      </c>
+      <c r="E240" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2">
+        <v>46004.32777777778</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>32</v>
+      </c>
+      <c r="E241" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2">
+        <v>46004.33819444444</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>33</v>
+      </c>
+      <c r="E242" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2">
+        <v>46004.34861111111</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>34</v>
+      </c>
+      <c r="E243" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2">
+        <v>46004.35902777778</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>35</v>
+      </c>
+      <c r="E244" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2">
+        <v>46004.36944444444</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>36</v>
+      </c>
+      <c r="E245" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2">
+        <v>46004.37986111111</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>37</v>
+      </c>
+      <c r="E246" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2">
+        <v>46004.39027777778</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>38</v>
+      </c>
+      <c r="E247" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2">
+        <v>46004.40069444444</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>39</v>
+      </c>
+      <c r="E248" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2">
+        <v>46004.41111111111</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>40</v>
+      </c>
+      <c r="E249" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2">
+        <v>46004.42152777778</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>41</v>
+      </c>
+      <c r="E250" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2">
+        <v>46004.43194444444</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>42</v>
+      </c>
+      <c r="E251" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2">
+        <v>46004.44236111111</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>43</v>
+      </c>
+      <c r="E252" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2">
+        <v>46004.45277777778</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>44</v>
+      </c>
+      <c r="E253" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2">
+        <v>46004.46319444444</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>45</v>
+      </c>
+      <c r="E254" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2">
+        <v>46004.47361111111</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>46</v>
+      </c>
+      <c r="E255" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2">
+        <v>46004.48402777778</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>47</v>
+      </c>
+      <c r="E256" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2">
+        <v>46004.49444444444</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>48</v>
+      </c>
+      <c r="E257" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2">
+        <v>46004.50486111111</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>49</v>
+      </c>
+      <c r="E258" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2">
+        <v>46004.51527777778</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>50</v>
+      </c>
+      <c r="E259" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2">
+        <v>46004.52569444444</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>51</v>
+      </c>
+      <c r="E260" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2">
+        <v>46004.53611111111</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>52</v>
+      </c>
+      <c r="E261" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>46004.54652777778</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>53</v>
+      </c>
+      <c r="E262" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>46004.55694444444</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>54</v>
+      </c>
+      <c r="E263" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>46004.56736111111</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>55</v>
+      </c>
+      <c r="E264" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2">
+        <v>46004.57777777778</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>56</v>
+      </c>
+      <c r="E265" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2">
+        <v>46004.58819444444</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>57</v>
+      </c>
+      <c r="E266" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2">
+        <v>46004.59861111111</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>58</v>
+      </c>
+      <c r="E267" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2">
+        <v>46004.60902777778</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>59</v>
+      </c>
+      <c r="E268" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>46004.61944444444</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>60</v>
+      </c>
+      <c r="E269" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>46004.62986111111</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>61</v>
+      </c>
+      <c r="E270" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2">
+        <v>46004.64027777778</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>62</v>
+      </c>
+      <c r="E271" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>46004.65069444444</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>63</v>
+      </c>
+      <c r="E272" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2">
+        <v>46004.66111111111</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>64</v>
+      </c>
+      <c r="E273" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2">
+        <v>46004.67152777778</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>65</v>
+      </c>
+      <c r="E274" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2">
+        <v>46004.68194444444</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>66</v>
+      </c>
+      <c r="E275" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2">
+        <v>46004.69236111111</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>67</v>
+      </c>
+      <c r="E276" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>46004.70277777778</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>68</v>
+      </c>
+      <c r="E277" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>46004.71319444444</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>69</v>
+      </c>
+      <c r="E278" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>46004.72361111111</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>70</v>
+      </c>
+      <c r="E279" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2">
+        <v>46004.73402777778</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>71</v>
+      </c>
+      <c r="E280" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2">
+        <v>46004.74444444444</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>72</v>
+      </c>
+      <c r="E281" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2">
+        <v>46004.75486111111</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>73</v>
+      </c>
+      <c r="E282" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2">
+        <v>46004.76527777778</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>74</v>
+      </c>
+      <c r="E283" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2">
+        <v>46004.77569444444</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>75</v>
+      </c>
+      <c r="E284" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2">
+        <v>46004.78611111111</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>76</v>
+      </c>
+      <c r="E285" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2">
+        <v>46004.79652777778</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>77</v>
+      </c>
+      <c r="E286" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2">
+        <v>46004.80694444444</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>78</v>
+      </c>
+      <c r="E287" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2">
+        <v>46004.81736111111</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>79</v>
+      </c>
+      <c r="E288" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>46004.82777777778</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>80</v>
+      </c>
+      <c r="E289" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2">
+        <v>46004.83819444444</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>81</v>
+      </c>
+      <c r="E290" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>46004.84861111111</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>82</v>
+      </c>
+      <c r="E291" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2">
+        <v>46004.85902777778</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>83</v>
+      </c>
+      <c r="E292" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>46004.86944444444</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>84</v>
+      </c>
+      <c r="E293" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>46004.87986111111</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>85</v>
+      </c>
+      <c r="E294" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="2">
+        <v>46004.89027777778</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>86</v>
+      </c>
+      <c r="E295" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="2">
+        <v>46004.90069444444</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>87</v>
+      </c>
+      <c r="E296" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="2">
+        <v>46004.91111111111</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>88</v>
+      </c>
+      <c r="E297" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="2">
+        <v>46004.92152777778</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>89</v>
+      </c>
+      <c r="E298" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>46004.92152777778</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>89</v>
+      </c>
+      <c r="E299" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>46004.93194444444</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>90</v>
+      </c>
+      <c r="E300" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>46004.93194444444</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>90</v>
+      </c>
+      <c r="E301" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="2">
+        <v>46004.94236111111</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>91</v>
+      </c>
+      <c r="E302" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="2">
+        <v>46004.94236111111</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>91</v>
+      </c>
+      <c r="E303" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="2">
+        <v>46004.95277777778</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>92</v>
+      </c>
+      <c r="E304" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>46004.95277777778</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>92</v>
+      </c>
+      <c r="E305" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>46004.96319444444</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>93</v>
+      </c>
+      <c r="E306" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="2">
+        <v>46004.96319444444</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>93</v>
+      </c>
+      <c r="E307" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="2">
+        <v>46004.97361111111</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>94</v>
+      </c>
+      <c r="E308" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="2">
+        <v>46004.97361111111</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>94</v>
+      </c>
+      <c r="E309" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>46004.98402777778</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>95</v>
+      </c>
+      <c r="E310" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="2">
+        <v>46004.98402777778</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>95</v>
+      </c>
+      <c r="E311" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>46004.99444444444</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>96</v>
+      </c>
+      <c r="E312" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="2">
+        <v>46004.99444444444</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>96</v>
+      </c>
+      <c r="E313" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="2">
+        <v>46005.00486111111</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>46005.01527777778</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>46005.02569444444</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>3</v>
+      </c>
+      <c r="E316" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="2">
+        <v>46005.03611111111</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="2">
+        <v>46005.04652777778</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>5</v>
+      </c>
+      <c r="E318" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2">
+        <v>46005.05694444444</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>6</v>
+      </c>
+      <c r="E319" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2">
+        <v>46005.06736111111</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>7</v>
+      </c>
+      <c r="E320" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2">
+        <v>46005.07777777778</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2">
+        <v>46005.08819444444</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="2">
+        <v>46005.09861111111</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>10</v>
+      </c>
+      <c r="E323" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>46005.10902777778</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>11</v>
+      </c>
+      <c r="E324" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>46005.11944444444</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>12</v>
+      </c>
+      <c r="E325" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>46005.12986111111</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>13</v>
+      </c>
+      <c r="E326" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>46005.14027777778</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>14</v>
+      </c>
+      <c r="E327" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>46005.15069444444</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>15</v>
+      </c>
+      <c r="E328" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>46005.16111111111</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>16</v>
+      </c>
+      <c r="E329" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>46005.17152777778</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>17</v>
+      </c>
+      <c r="E330" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>46005.18194444444</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>18</v>
+      </c>
+      <c r="E331" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>46005.19236111111</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>19</v>
+      </c>
+      <c r="E332" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>46005.20277777778</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>20</v>
+      </c>
+      <c r="E333" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>46005.21319444444</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>21</v>
+      </c>
+      <c r="E334" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>46005.22361111111</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>22</v>
+      </c>
+      <c r="E335" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>46005.23402777778</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>23</v>
+      </c>
+      <c r="E336" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>46005.24444444444</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>24</v>
+      </c>
+      <c r="E337" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>46005.25486111111</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>25</v>
+      </c>
+      <c r="E338" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>46005.26527777778</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>26</v>
+      </c>
+      <c r="E339" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>46005.27569444444</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>27</v>
+      </c>
+      <c r="E340" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>46005.28611111111</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>28</v>
+      </c>
+      <c r="E341" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>46005.29652777778</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>29</v>
+      </c>
+      <c r="E342" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>46005.30694444444</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>30</v>
+      </c>
+      <c r="E343" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>46005.31736111111</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>31</v>
+      </c>
+      <c r="E344" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>46005.32777777778</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>32</v>
+      </c>
+      <c r="E345" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>46005.33819444444</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>33</v>
+      </c>
+      <c r="E346" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>46005.34861111111</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>34</v>
+      </c>
+      <c r="E347" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>46005.35902777778</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>35</v>
+      </c>
+      <c r="E348" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>46005.36944444444</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>36</v>
+      </c>
+      <c r="E349" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>46005.37986111111</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>37</v>
+      </c>
+      <c r="E350" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>46005.39027777778</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>38</v>
+      </c>
+      <c r="E351" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>46005.40069444444</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>39</v>
+      </c>
+      <c r="E352" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>46005.41111111111</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>40</v>
+      </c>
+      <c r="E353" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>46005.42152777778</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>41</v>
+      </c>
+      <c r="E354" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>46005.43194444444</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>42</v>
+      </c>
+      <c r="E355" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>46005.44236111111</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>43</v>
+      </c>
+      <c r="E356" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>46005.45277777778</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>44</v>
+      </c>
+      <c r="E357" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>46005.46319444444</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>45</v>
+      </c>
+      <c r="E358" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>46005.47361111111</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="D359">
+        <v>46</v>
+      </c>
+      <c r="E359" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>46005.48402777778</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>47</v>
+      </c>
+      <c r="E360" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>46005.49444444444</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>48</v>
+      </c>
+      <c r="E361" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>46005.50486111111</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="D362">
+        <v>49</v>
+      </c>
+      <c r="E362" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>46005.51527777778</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="D363">
+        <v>50</v>
+      </c>
+      <c r="E363" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="2">
+        <v>46005.52569444444</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="D364">
+        <v>51</v>
+      </c>
+      <c r="E364" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>46005.53611111111</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+      <c r="D365">
+        <v>52</v>
+      </c>
+      <c r="E365" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>46005.54652777778</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>53</v>
+      </c>
+      <c r="E366" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>46005.55694444444</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
+      <c r="D367">
+        <v>54</v>
+      </c>
+      <c r="E367" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>46005.56736111111</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>55</v>
+      </c>
+      <c r="E368" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>46005.57777777778</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>56</v>
+      </c>
+      <c r="E369" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>46005.58819444444</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>0</v>
+      </c>
+      <c r="D370">
+        <v>57</v>
+      </c>
+      <c r="E370" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>46005.59861111111</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>58</v>
+      </c>
+      <c r="E371" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>46005.60902777778</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>59</v>
+      </c>
+      <c r="E372" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>46005.61944444444</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>60</v>
+      </c>
+      <c r="E373" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>46005.62986111111</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>0</v>
+      </c>
+      <c r="D374">
+        <v>61</v>
+      </c>
+      <c r="E374" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>46005.64027777778</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>62</v>
+      </c>
+      <c r="E375" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>46005.65069444444</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>63</v>
+      </c>
+      <c r="E376" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>46005.66111111111</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>0</v>
+      </c>
+      <c r="D377">
+        <v>64</v>
+      </c>
+      <c r="E377" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>46005.67152777778</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+      <c r="D378">
+        <v>65</v>
+      </c>
+      <c r="E378" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>46005.68194444444</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>66</v>
+      </c>
+      <c r="E379" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>46005.69236111111</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>67</v>
+      </c>
+      <c r="E380" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>46005.70277777778</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>68</v>
+      </c>
+      <c r="E381" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>46005.71319444444</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>69</v>
+      </c>
+      <c r="E382" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>46005.72361111111</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>70</v>
+      </c>
+      <c r="E383" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="2">
+        <v>46005.73402777778</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>71</v>
+      </c>
+      <c r="E384" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="2">
+        <v>46005.74444444444</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>72</v>
+      </c>
+      <c r="E385" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="2">
+        <v>46005.75486111111</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>73</v>
+      </c>
+      <c r="E386" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2">
+        <v>46005.76527777778</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <v>74</v>
+      </c>
+      <c r="E387" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>46005.77569444444</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>75</v>
+      </c>
+      <c r="E388" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>46005.78611111111</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>76</v>
+      </c>
+      <c r="E389" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="2">
+        <v>46005.79652777778</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>77</v>
+      </c>
+      <c r="E390" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>46005.80694444444</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>78</v>
+      </c>
+      <c r="E391" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>46005.81736111111</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>79</v>
+      </c>
+      <c r="E392" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>46005.82777777778</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>80</v>
+      </c>
+      <c r="E393" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>46005.83819444444</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>81</v>
+      </c>
+      <c r="E394" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="2">
+        <v>46005.84861111111</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>82</v>
+      </c>
+      <c r="E395" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>46005.85902777778</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <v>83</v>
+      </c>
+      <c r="E396" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>46005.86944444444</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>84</v>
+      </c>
+      <c r="E397" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>46005.87986111111</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>85</v>
+      </c>
+      <c r="E398" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>46005.89027777778</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>86</v>
+      </c>
+      <c r="E399" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="2">
+        <v>46005.90069444444</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>87</v>
+      </c>
+      <c r="E400" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="2">
+        <v>46005.91111111111</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>88</v>
+      </c>
+      <c r="E401" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>46005.92152777778</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>89</v>
+      </c>
+      <c r="E402" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="2">
+        <v>46005.92152777778</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>89</v>
+      </c>
+      <c r="E403" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>46005.93194444444</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>90</v>
+      </c>
+      <c r="E404" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="2">
+        <v>46005.93194444444</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>90</v>
+      </c>
+      <c r="E405" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="2">
+        <v>46005.94236111111</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>91</v>
+      </c>
+      <c r="E406" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="2">
+        <v>46005.94236111111</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>91</v>
+      </c>
+      <c r="E407" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="2">
+        <v>46005.95277777778</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>92</v>
+      </c>
+      <c r="E408" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="2">
+        <v>46005.95277777778</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>92</v>
+      </c>
+      <c r="E409" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="2">
+        <v>46005.96319444444</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>93</v>
+      </c>
+      <c r="E410" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="2">
+        <v>46005.96319444444</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>93</v>
+      </c>
+      <c r="E411" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="2">
+        <v>46005.97361111111</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>94</v>
+      </c>
+      <c r="E412" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="2">
+        <v>46005.97361111111</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>94</v>
+      </c>
+      <c r="E413" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="2">
+        <v>46005.98402777778</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>95</v>
+      </c>
+      <c r="E414" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="2">
+        <v>46005.98402777778</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>95</v>
+      </c>
+      <c r="E415" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="2">
+        <v>46005.99444444444</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>96</v>
+      </c>
+      <c r="E416" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="2">
+        <v>46005.99444444444</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>96</v>
+      </c>
+      <c r="E417" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="2">
+        <v>46006.00486111111</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="2">
+        <v>46006.01527777778</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+      <c r="E419" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="2">
+        <v>46006.02569444444</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>3</v>
+      </c>
+      <c r="E420" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="2">
+        <v>46006.03611111111</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>4</v>
+      </c>
+      <c r="E421" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="2">
+        <v>46006.04652777778</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>5</v>
+      </c>
+      <c r="E422" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="2">
+        <v>46006.05694444444</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="2">
+        <v>46006.06736111111</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="2">
+        <v>46006.07777777778</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <v>8</v>
+      </c>
+      <c r="E425" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="2">
+        <v>46006.08819444444</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>9</v>
+      </c>
+      <c r="E426" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="2">
+        <v>46006.09861111111</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>10</v>
+      </c>
+      <c r="E427" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="2">
+        <v>46006.10902777778</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>11</v>
+      </c>
+      <c r="E428" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="2">
+        <v>46006.11944444444</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>12</v>
+      </c>
+      <c r="E429" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="2">
+        <v>46006.12986111111</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>13</v>
+      </c>
+      <c r="E430" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="2">
+        <v>46006.14027777778</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>14</v>
+      </c>
+      <c r="E431" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="2">
+        <v>46006.15069444444</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>15</v>
+      </c>
+      <c r="E432" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="2">
+        <v>46006.16111111111</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>16</v>
+      </c>
+      <c r="E433" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="2">
+        <v>46006.17152777778</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>17</v>
+      </c>
+      <c r="E434" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="2">
+        <v>46006.18194444444</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>18</v>
+      </c>
+      <c r="E435" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="2">
+        <v>46006.19236111111</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>19</v>
+      </c>
+      <c r="E436" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="2">
+        <v>46006.20277777778</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>20</v>
+      </c>
+      <c r="E437" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="2">
+        <v>46006.21319444444</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>21</v>
+      </c>
+      <c r="E438" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="2">
+        <v>46006.22361111111</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>22</v>
+      </c>
+      <c r="E439" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="2">
+        <v>46006.23402777778</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>23</v>
+      </c>
+      <c r="E440" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="2">
+        <v>46006.24444444444</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>24</v>
+      </c>
+      <c r="E441" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="2">
+        <v>46006.25486111111</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>25</v>
+      </c>
+      <c r="E442" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="2">
+        <v>46006.26527777778</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>26</v>
+      </c>
+      <c r="E443" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="2">
+        <v>46006.27569444444</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>27</v>
+      </c>
+      <c r="E444" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="2">
+        <v>46006.28611111111</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>28</v>
+      </c>
+      <c r="E445" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="2">
+        <v>46006.29652777778</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>29</v>
+      </c>
+      <c r="E446" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="2">
+        <v>46006.30694444444</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <v>30</v>
+      </c>
+      <c r="E447" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="2">
+        <v>46006.31736111111</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>31</v>
+      </c>
+      <c r="E448" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="2">
+        <v>46006.32777777778</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>32</v>
+      </c>
+      <c r="E449" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="2">
+        <v>46006.33819444444</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>33</v>
+      </c>
+      <c r="E450" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="2">
+        <v>46006.34861111111</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>34</v>
+      </c>
+      <c r="E451" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="2">
+        <v>46006.35902777778</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>35</v>
+      </c>
+      <c r="E452" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="2">
+        <v>46006.36944444444</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>36</v>
+      </c>
+      <c r="E453" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="2">
+        <v>46006.37986111111</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>37</v>
+      </c>
+      <c r="E454" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="2">
+        <v>46006.39027777778</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>38</v>
+      </c>
+      <c r="E455" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="2">
+        <v>46006.40069444444</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <v>39</v>
+      </c>
+      <c r="E456" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="2">
+        <v>46006.41111111111</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>40</v>
+      </c>
+      <c r="E457" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="2">
+        <v>46006.42152777778</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>41</v>
+      </c>
+      <c r="E458" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="2">
+        <v>46006.43194444444</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>42</v>
+      </c>
+      <c r="E459" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="2">
+        <v>46006.44236111111</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>43</v>
+      </c>
+      <c r="E460" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="2">
+        <v>46006.45277777778</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>44</v>
+      </c>
+      <c r="E461" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="2">
+        <v>46006.46319444444</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>45</v>
+      </c>
+      <c r="E462" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="2">
+        <v>46006.47361111111</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <v>46</v>
+      </c>
+      <c r="E463" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="2">
+        <v>46006.48402777778</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>47</v>
+      </c>
+      <c r="E464" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="2">
+        <v>46006.49444444444</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>48</v>
+      </c>
+      <c r="E465" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="2">
+        <v>46006.50486111111</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>49</v>
+      </c>
+      <c r="E466" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="2">
+        <v>46006.51527777778</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>50</v>
+      </c>
+      <c r="E467" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="2">
+        <v>46006.52569444444</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <v>51</v>
+      </c>
+      <c r="E468" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="2">
+        <v>46006.53611111111</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>52</v>
+      </c>
+      <c r="E469" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="2">
+        <v>46006.54652777778</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>53</v>
+      </c>
+      <c r="E470" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="2">
+        <v>46006.55694444444</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>54</v>
+      </c>
+      <c r="E471" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="2">
+        <v>46006.56736111111</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>55</v>
+      </c>
+      <c r="E472" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="2">
+        <v>46006.57777777778</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>56</v>
+      </c>
+      <c r="E473" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="2">
+        <v>46006.58819444444</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>57</v>
+      </c>
+      <c r="E474" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="2">
+        <v>46006.59861111111</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>58</v>
+      </c>
+      <c r="E475" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="2">
+        <v>46006.60902777778</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>59</v>
+      </c>
+      <c r="E476" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="2">
+        <v>46006.61944444444</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>60</v>
+      </c>
+      <c r="E477" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="2">
+        <v>46006.62986111111</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>61</v>
+      </c>
+      <c r="E478" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="2">
+        <v>46006.64027777778</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>62</v>
+      </c>
+      <c r="E479" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="2">
+        <v>46006.65069444444</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>63</v>
+      </c>
+      <c r="E480" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="2">
+        <v>46006.66111111111</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>64</v>
+      </c>
+      <c r="E481" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="2">
+        <v>46006.67152777778</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482">
+        <v>65</v>
+      </c>
+      <c r="E482" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="2">
+        <v>46006.68194444444</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>66</v>
+      </c>
+      <c r="E483" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="2">
+        <v>46006.69236111111</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484">
+        <v>67</v>
+      </c>
+      <c r="E484" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="2">
+        <v>46006.70277777778</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>68</v>
+      </c>
+      <c r="E485" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="2">
+        <v>46006.71319444444</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>69</v>
+      </c>
+      <c r="E486" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="2">
+        <v>46006.72361111111</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>70</v>
+      </c>
+      <c r="E487" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="2">
+        <v>46006.73402777778</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>71</v>
+      </c>
+      <c r="E488" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="2">
+        <v>46006.74444444444</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489">
+        <v>72</v>
+      </c>
+      <c r="E489" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="2">
+        <v>46006.75486111111</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>73</v>
+      </c>
+      <c r="E490" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="2">
+        <v>46006.76527777778</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>74</v>
+      </c>
+      <c r="E491" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="2">
+        <v>46006.77569444444</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>75</v>
+      </c>
+      <c r="E492" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="2">
+        <v>46006.78611111111</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>76</v>
+      </c>
+      <c r="E493" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="2">
+        <v>46006.79652777778</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>77</v>
+      </c>
+      <c r="E494" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>46006.80694444444</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>78</v>
+      </c>
+      <c r="E495" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>46006.81736111111</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>79</v>
+      </c>
+      <c r="E496" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>46006.82777777778</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>80</v>
+      </c>
+      <c r="E497" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>46006.83819444444</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>81</v>
+      </c>
+      <c r="E498" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>46006.84861111111</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>82</v>
+      </c>
+      <c r="E499" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>46006.85902777778</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
+        <v>83</v>
+      </c>
+      <c r="E500" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>46006.86944444444</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501">
+        <v>84</v>
+      </c>
+      <c r="E501" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>46006.87986111111</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502">
+        <v>85</v>
+      </c>
+      <c r="E502" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>46006.89027777778</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503">
+        <v>86</v>
+      </c>
+      <c r="E503" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>46006.90069444444</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>87</v>
+      </c>
+      <c r="E504" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
+        <v>46006.91111111111</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>88</v>
+      </c>
+      <c r="E505" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2">
+        <v>46006.92152777778</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506">
+        <v>89</v>
+      </c>
+      <c r="E506" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="2">
+        <v>46006.93194444444</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507">
+        <v>90</v>
+      </c>
+      <c r="E507" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="2">
+        <v>46006.94236111111</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508">
+        <v>91</v>
+      </c>
+      <c r="E508" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="2">
+        <v>46006.95277777778</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509">
+        <v>92</v>
+      </c>
+      <c r="E509" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2">
+        <v>46006.96319444444</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510">
+        <v>93</v>
+      </c>
+      <c r="E510" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="2">
+        <v>46006.97361111111</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511">
+        <v>94</v>
+      </c>
+      <c r="E511" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2">
+        <v>46006.98402777778</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512">
+        <v>95</v>
+      </c>
+      <c r="E512" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="2">
+        <v>46006.99444444444</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513">
+        <v>96</v>
+      </c>
+      <c r="E513" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.12.20251</t>
-  </si>
-  <si>
-    <t>30.12.20252</t>
-  </si>
-  <si>
-    <t>30.12.20253</t>
-  </si>
-  <si>
-    <t>30.12.20254</t>
-  </si>
-  <si>
-    <t>30.12.20255</t>
-  </si>
-  <si>
-    <t>30.12.20256</t>
-  </si>
-  <si>
-    <t>30.12.20257</t>
-  </si>
-  <si>
-    <t>30.12.20258</t>
-  </si>
-  <si>
-    <t>30.12.20259</t>
-  </si>
-  <si>
-    <t>30.12.202510</t>
-  </si>
-  <si>
-    <t>30.12.202511</t>
-  </si>
-  <si>
-    <t>30.12.202512</t>
-  </si>
-  <si>
-    <t>30.12.202513</t>
-  </si>
-  <si>
-    <t>30.12.202514</t>
-  </si>
-  <si>
-    <t>30.12.202515</t>
-  </si>
-  <si>
-    <t>30.12.202516</t>
-  </si>
-  <si>
-    <t>30.12.202517</t>
-  </si>
-  <si>
-    <t>30.12.202518</t>
-  </si>
-  <si>
-    <t>30.12.202519</t>
-  </si>
-  <si>
-    <t>30.12.202520</t>
-  </si>
-  <si>
-    <t>30.12.202521</t>
-  </si>
-  <si>
-    <t>30.12.202522</t>
-  </si>
-  <si>
-    <t>30.12.202523</t>
-  </si>
-  <si>
-    <t>30.12.202524</t>
-  </si>
-  <si>
-    <t>30.12.202525</t>
-  </si>
-  <si>
-    <t>30.12.202526</t>
-  </si>
-  <si>
-    <t>30.12.202527</t>
-  </si>
-  <si>
-    <t>30.12.202528</t>
-  </si>
-  <si>
-    <t>30.12.202529</t>
-  </si>
-  <si>
-    <t>30.12.202530</t>
-  </si>
-  <si>
-    <t>30.12.202531</t>
-  </si>
-  <si>
-    <t>30.12.202532</t>
-  </si>
-  <si>
-    <t>30.12.202533</t>
-  </si>
-  <si>
-    <t>30.12.202534</t>
-  </si>
-  <si>
-    <t>30.12.202535</t>
-  </si>
-  <si>
-    <t>30.12.202536</t>
-  </si>
-  <si>
-    <t>30.12.202537</t>
-  </si>
-  <si>
-    <t>30.12.202538</t>
-  </si>
-  <si>
-    <t>30.12.202539</t>
-  </si>
-  <si>
-    <t>30.12.202540</t>
-  </si>
-  <si>
-    <t>30.12.202541</t>
-  </si>
-  <si>
-    <t>30.12.202542</t>
-  </si>
-  <si>
-    <t>30.12.202543</t>
-  </si>
-  <si>
-    <t>30.12.202544</t>
-  </si>
-  <si>
-    <t>30.12.202545</t>
-  </si>
-  <si>
-    <t>30.12.202546</t>
-  </si>
-  <si>
-    <t>30.12.202547</t>
-  </si>
-  <si>
-    <t>30.12.202548</t>
-  </si>
-  <si>
-    <t>30.12.202549</t>
-  </si>
-  <si>
-    <t>30.12.202550</t>
-  </si>
-  <si>
-    <t>30.12.202551</t>
-  </si>
-  <si>
-    <t>30.12.202552</t>
-  </si>
-  <si>
-    <t>30.12.202553</t>
-  </si>
-  <si>
-    <t>30.12.202554</t>
-  </si>
-  <si>
-    <t>30.12.202555</t>
-  </si>
-  <si>
-    <t>30.12.202556</t>
-  </si>
-  <si>
-    <t>30.12.202557</t>
-  </si>
-  <si>
-    <t>30.12.202558</t>
-  </si>
-  <si>
-    <t>30.12.202559</t>
-  </si>
-  <si>
-    <t>30.12.202560</t>
-  </si>
-  <si>
-    <t>30.12.202561</t>
-  </si>
-  <si>
-    <t>30.12.202562</t>
-  </si>
-  <si>
-    <t>30.12.202563</t>
-  </si>
-  <si>
-    <t>30.12.202564</t>
-  </si>
-  <si>
-    <t>30.12.202565</t>
-  </si>
-  <si>
-    <t>30.12.202566</t>
-  </si>
-  <si>
-    <t>30.12.202567</t>
-  </si>
-  <si>
-    <t>30.12.202568</t>
-  </si>
-  <si>
-    <t>30.12.202569</t>
-  </si>
-  <si>
-    <t>30.12.202570</t>
-  </si>
-  <si>
-    <t>30.12.202571</t>
-  </si>
-  <si>
-    <t>30.12.202572</t>
-  </si>
-  <si>
-    <t>30.12.202573</t>
-  </si>
-  <si>
-    <t>30.12.202574</t>
-  </si>
-  <si>
-    <t>30.12.202575</t>
-  </si>
-  <si>
-    <t>30.12.202576</t>
-  </si>
-  <si>
-    <t>30.12.202577</t>
-  </si>
-  <si>
-    <t>30.12.202578</t>
-  </si>
-  <si>
-    <t>30.12.202579</t>
-  </si>
-  <si>
-    <t>30.12.202580</t>
-  </si>
-  <si>
-    <t>30.12.202581</t>
-  </si>
-  <si>
-    <t>30.12.202582</t>
-  </si>
-  <si>
-    <t>30.12.202583</t>
-  </si>
-  <si>
-    <t>30.12.202584</t>
-  </si>
-  <si>
-    <t>30.12.202585</t>
-  </si>
-  <si>
-    <t>30.12.202586</t>
-  </si>
-  <si>
-    <t>30.12.202587</t>
-  </si>
-  <si>
-    <t>30.12.202588</t>
-  </si>
-  <si>
-    <t>30.12.202589</t>
-  </si>
-  <si>
-    <t>30.12.202590</t>
-  </si>
-  <si>
-    <t>30.12.202591</t>
-  </si>
-  <si>
-    <t>30.12.202592</t>
-  </si>
-  <si>
-    <t>30.12.202593</t>
-  </si>
-  <si>
-    <t>30.12.202594</t>
-  </si>
-  <si>
-    <t>30.12.202595</t>
-  </si>
-  <si>
-    <t>30.12.202596</t>
-  </si>
-  <si>
-    <t>31.12.20251</t>
-  </si>
-  <si>
-    <t>31.12.20252</t>
-  </si>
-  <si>
-    <t>31.12.20253</t>
-  </si>
-  <si>
-    <t>31.12.20254</t>
-  </si>
-  <si>
-    <t>31.12.20255</t>
-  </si>
-  <si>
-    <t>31.12.20256</t>
-  </si>
-  <si>
-    <t>31.12.20257</t>
-  </si>
-  <si>
-    <t>31.12.20258</t>
-  </si>
-  <si>
-    <t>31.12.20259</t>
-  </si>
-  <si>
-    <t>31.12.202510</t>
-  </si>
-  <si>
-    <t>31.12.202511</t>
-  </si>
-  <si>
-    <t>31.12.202512</t>
-  </si>
-  <si>
-    <t>31.12.202513</t>
-  </si>
-  <si>
-    <t>31.12.202514</t>
-  </si>
-  <si>
-    <t>31.12.202515</t>
-  </si>
-  <si>
-    <t>31.12.202516</t>
-  </si>
-  <si>
-    <t>31.12.202517</t>
-  </si>
-  <si>
-    <t>31.12.202518</t>
-  </si>
-  <si>
-    <t>31.12.202519</t>
-  </si>
-  <si>
-    <t>31.12.202520</t>
-  </si>
-  <si>
-    <t>31.12.202521</t>
-  </si>
-  <si>
-    <t>31.12.202522</t>
-  </si>
-  <si>
-    <t>31.12.202523</t>
-  </si>
-  <si>
-    <t>31.12.202524</t>
-  </si>
-  <si>
-    <t>31.12.202525</t>
-  </si>
-  <si>
-    <t>31.12.202526</t>
-  </si>
-  <si>
-    <t>31.12.202527</t>
-  </si>
-  <si>
-    <t>31.12.202528</t>
-  </si>
-  <si>
-    <t>31.12.202529</t>
-  </si>
-  <si>
-    <t>31.12.202530</t>
-  </si>
-  <si>
-    <t>31.12.202531</t>
-  </si>
-  <si>
-    <t>31.12.202532</t>
-  </si>
-  <si>
-    <t>31.12.202533</t>
-  </si>
-  <si>
-    <t>31.12.202534</t>
-  </si>
-  <si>
-    <t>31.12.202535</t>
-  </si>
-  <si>
-    <t>31.12.202536</t>
-  </si>
-  <si>
-    <t>31.12.202537</t>
-  </si>
-  <si>
-    <t>31.12.202538</t>
-  </si>
-  <si>
-    <t>31.12.202539</t>
-  </si>
-  <si>
-    <t>31.12.202540</t>
-  </si>
-  <si>
-    <t>31.12.202541</t>
-  </si>
-  <si>
-    <t>31.12.202542</t>
-  </si>
-  <si>
-    <t>31.12.202543</t>
-  </si>
-  <si>
-    <t>31.12.202544</t>
-  </si>
-  <si>
-    <t>31.12.202545</t>
-  </si>
-  <si>
-    <t>31.12.202546</t>
-  </si>
-  <si>
-    <t>31.12.202547</t>
-  </si>
-  <si>
-    <t>31.12.202548</t>
-  </si>
-  <si>
-    <t>31.12.202549</t>
-  </si>
-  <si>
-    <t>31.12.202550</t>
-  </si>
-  <si>
-    <t>31.12.202551</t>
-  </si>
-  <si>
-    <t>31.12.202552</t>
-  </si>
-  <si>
-    <t>31.12.202553</t>
-  </si>
-  <si>
-    <t>31.12.202554</t>
-  </si>
-  <si>
-    <t>31.12.202555</t>
-  </si>
-  <si>
-    <t>31.12.202556</t>
-  </si>
-  <si>
-    <t>31.12.202557</t>
-  </si>
-  <si>
-    <t>31.12.202558</t>
-  </si>
-  <si>
-    <t>31.12.202559</t>
-  </si>
-  <si>
-    <t>31.12.202560</t>
-  </si>
-  <si>
-    <t>31.12.202561</t>
-  </si>
-  <si>
-    <t>31.12.202562</t>
-  </si>
-  <si>
-    <t>31.12.202563</t>
-  </si>
-  <si>
-    <t>31.12.202564</t>
-  </si>
-  <si>
-    <t>31.12.202565</t>
-  </si>
-  <si>
-    <t>31.12.202566</t>
-  </si>
-  <si>
-    <t>31.12.202567</t>
-  </si>
-  <si>
-    <t>31.12.202568</t>
-  </si>
-  <si>
-    <t>31.12.202569</t>
-  </si>
-  <si>
-    <t>31.12.202570</t>
-  </si>
-  <si>
-    <t>31.12.202571</t>
-  </si>
-  <si>
-    <t>31.12.202572</t>
-  </si>
-  <si>
-    <t>31.12.202573</t>
-  </si>
-  <si>
-    <t>31.12.202574</t>
-  </si>
-  <si>
-    <t>31.12.202575</t>
-  </si>
-  <si>
-    <t>31.12.202576</t>
-  </si>
-  <si>
-    <t>31.12.202577</t>
-  </si>
-  <si>
-    <t>31.12.202578</t>
-  </si>
-  <si>
-    <t>31.12.202579</t>
-  </si>
-  <si>
-    <t>31.12.202580</t>
-  </si>
-  <si>
-    <t>31.12.202581</t>
-  </si>
-  <si>
-    <t>31.12.202582</t>
-  </si>
-  <si>
-    <t>31.12.202583</t>
-  </si>
-  <si>
-    <t>31.12.202584</t>
-  </si>
-  <si>
-    <t>31.12.202585</t>
-  </si>
-  <si>
-    <t>31.12.202586</t>
-  </si>
-  <si>
-    <t>31.12.202587</t>
-  </si>
-  <si>
-    <t>31.12.202588</t>
-  </si>
-  <si>
-    <t>31.12.202589</t>
-  </si>
-  <si>
-    <t>31.12.202590</t>
-  </si>
-  <si>
-    <t>31.12.202591</t>
-  </si>
-  <si>
-    <t>31.12.202592</t>
-  </si>
-  <si>
-    <t>31.12.202593</t>
-  </si>
-  <si>
-    <t>31.12.202594</t>
-  </si>
-  <si>
-    <t>31.12.202595</t>
-  </si>
-  <si>
-    <t>31.12.202596</t>
+    <t>21.01.20261</t>
+  </si>
+  <si>
+    <t>21.01.20262</t>
+  </si>
+  <si>
+    <t>21.01.20263</t>
+  </si>
+  <si>
+    <t>21.01.20264</t>
+  </si>
+  <si>
+    <t>21.01.20265</t>
+  </si>
+  <si>
+    <t>21.01.20266</t>
+  </si>
+  <si>
+    <t>21.01.20267</t>
+  </si>
+  <si>
+    <t>21.01.20268</t>
+  </si>
+  <si>
+    <t>21.01.20269</t>
+  </si>
+  <si>
+    <t>21.01.202610</t>
+  </si>
+  <si>
+    <t>21.01.202611</t>
+  </si>
+  <si>
+    <t>21.01.202612</t>
+  </si>
+  <si>
+    <t>21.01.202613</t>
+  </si>
+  <si>
+    <t>21.01.202614</t>
+  </si>
+  <si>
+    <t>21.01.202615</t>
+  </si>
+  <si>
+    <t>21.01.202616</t>
+  </si>
+  <si>
+    <t>21.01.202617</t>
+  </si>
+  <si>
+    <t>21.01.202618</t>
+  </si>
+  <si>
+    <t>21.01.202619</t>
+  </si>
+  <si>
+    <t>21.01.202620</t>
+  </si>
+  <si>
+    <t>21.01.202621</t>
+  </si>
+  <si>
+    <t>21.01.202622</t>
+  </si>
+  <si>
+    <t>21.01.202623</t>
+  </si>
+  <si>
+    <t>21.01.202624</t>
+  </si>
+  <si>
+    <t>21.01.202625</t>
+  </si>
+  <si>
+    <t>21.01.202626</t>
+  </si>
+  <si>
+    <t>21.01.202627</t>
+  </si>
+  <si>
+    <t>21.01.202628</t>
+  </si>
+  <si>
+    <t>21.01.202629</t>
+  </si>
+  <si>
+    <t>21.01.202630</t>
+  </si>
+  <si>
+    <t>21.01.202631</t>
+  </si>
+  <si>
+    <t>21.01.202632</t>
+  </si>
+  <si>
+    <t>21.01.202633</t>
+  </si>
+  <si>
+    <t>21.01.202634</t>
+  </si>
+  <si>
+    <t>21.01.202635</t>
+  </si>
+  <si>
+    <t>21.01.202636</t>
+  </si>
+  <si>
+    <t>21.01.202637</t>
+  </si>
+  <si>
+    <t>21.01.202638</t>
+  </si>
+  <si>
+    <t>21.01.202639</t>
+  </si>
+  <si>
+    <t>21.01.202640</t>
+  </si>
+  <si>
+    <t>21.01.202641</t>
+  </si>
+  <si>
+    <t>21.01.202642</t>
+  </si>
+  <si>
+    <t>21.01.202643</t>
+  </si>
+  <si>
+    <t>21.01.202644</t>
+  </si>
+  <si>
+    <t>21.01.202645</t>
+  </si>
+  <si>
+    <t>21.01.202646</t>
+  </si>
+  <si>
+    <t>21.01.202647</t>
+  </si>
+  <si>
+    <t>21.01.202648</t>
+  </si>
+  <si>
+    <t>21.01.202649</t>
+  </si>
+  <si>
+    <t>21.01.202650</t>
+  </si>
+  <si>
+    <t>21.01.202651</t>
+  </si>
+  <si>
+    <t>21.01.202652</t>
+  </si>
+  <si>
+    <t>21.01.202653</t>
+  </si>
+  <si>
+    <t>21.01.202654</t>
+  </si>
+  <si>
+    <t>21.01.202655</t>
+  </si>
+  <si>
+    <t>21.01.202656</t>
+  </si>
+  <si>
+    <t>21.01.202657</t>
+  </si>
+  <si>
+    <t>21.01.202658</t>
+  </si>
+  <si>
+    <t>21.01.202659</t>
+  </si>
+  <si>
+    <t>21.01.202660</t>
+  </si>
+  <si>
+    <t>21.01.202661</t>
+  </si>
+  <si>
+    <t>21.01.202662</t>
+  </si>
+  <si>
+    <t>21.01.202663</t>
+  </si>
+  <si>
+    <t>21.01.202664</t>
+  </si>
+  <si>
+    <t>21.01.202665</t>
+  </si>
+  <si>
+    <t>21.01.202666</t>
+  </si>
+  <si>
+    <t>21.01.202667</t>
+  </si>
+  <si>
+    <t>21.01.202668</t>
+  </si>
+  <si>
+    <t>21.01.202669</t>
+  </si>
+  <si>
+    <t>21.01.202670</t>
+  </si>
+  <si>
+    <t>21.01.202671</t>
+  </si>
+  <si>
+    <t>21.01.202672</t>
+  </si>
+  <si>
+    <t>21.01.202673</t>
+  </si>
+  <si>
+    <t>21.01.202674</t>
+  </si>
+  <si>
+    <t>21.01.202675</t>
+  </si>
+  <si>
+    <t>21.01.202676</t>
+  </si>
+  <si>
+    <t>21.01.202677</t>
+  </si>
+  <si>
+    <t>21.01.202678</t>
+  </si>
+  <si>
+    <t>21.01.202679</t>
+  </si>
+  <si>
+    <t>21.01.202680</t>
+  </si>
+  <si>
+    <t>21.01.202681</t>
+  </si>
+  <si>
+    <t>21.01.202682</t>
+  </si>
+  <si>
+    <t>21.01.202683</t>
+  </si>
+  <si>
+    <t>21.01.202684</t>
+  </si>
+  <si>
+    <t>21.01.202685</t>
+  </si>
+  <si>
+    <t>21.01.202686</t>
+  </si>
+  <si>
+    <t>21.01.202687</t>
+  </si>
+  <si>
+    <t>21.01.202688</t>
+  </si>
+  <si>
+    <t>21.01.202689</t>
+  </si>
+  <si>
+    <t>21.01.202690</t>
+  </si>
+  <si>
+    <t>21.01.202691</t>
+  </si>
+  <si>
+    <t>21.01.202692</t>
+  </si>
+  <si>
+    <t>21.01.202693</t>
+  </si>
+  <si>
+    <t>21.01.202694</t>
+  </si>
+  <si>
+    <t>21.01.202695</t>
+  </si>
+  <si>
+    <t>21.01.202696</t>
+  </si>
+  <si>
+    <t>22.01.20261</t>
+  </si>
+  <si>
+    <t>22.01.20262</t>
+  </si>
+  <si>
+    <t>22.01.20263</t>
+  </si>
+  <si>
+    <t>22.01.20264</t>
+  </si>
+  <si>
+    <t>22.01.20265</t>
+  </si>
+  <si>
+    <t>22.01.20266</t>
+  </si>
+  <si>
+    <t>22.01.20267</t>
+  </si>
+  <si>
+    <t>22.01.20268</t>
+  </si>
+  <si>
+    <t>22.01.20269</t>
+  </si>
+  <si>
+    <t>22.01.202610</t>
+  </si>
+  <si>
+    <t>22.01.202611</t>
+  </si>
+  <si>
+    <t>22.01.202612</t>
+  </si>
+  <si>
+    <t>22.01.202613</t>
+  </si>
+  <si>
+    <t>22.01.202614</t>
+  </si>
+  <si>
+    <t>22.01.202615</t>
+  </si>
+  <si>
+    <t>22.01.202616</t>
+  </si>
+  <si>
+    <t>22.01.202617</t>
+  </si>
+  <si>
+    <t>22.01.202618</t>
+  </si>
+  <si>
+    <t>22.01.202619</t>
+  </si>
+  <si>
+    <t>22.01.202620</t>
+  </si>
+  <si>
+    <t>22.01.202621</t>
+  </si>
+  <si>
+    <t>22.01.202622</t>
+  </si>
+  <si>
+    <t>22.01.202623</t>
+  </si>
+  <si>
+    <t>22.01.202624</t>
+  </si>
+  <si>
+    <t>22.01.202625</t>
+  </si>
+  <si>
+    <t>22.01.202626</t>
+  </si>
+  <si>
+    <t>22.01.202627</t>
+  </si>
+  <si>
+    <t>22.01.202628</t>
+  </si>
+  <si>
+    <t>22.01.202629</t>
+  </si>
+  <si>
+    <t>22.01.202630</t>
+  </si>
+  <si>
+    <t>22.01.202631</t>
+  </si>
+  <si>
+    <t>22.01.202632</t>
+  </si>
+  <si>
+    <t>22.01.202633</t>
+  </si>
+  <si>
+    <t>22.01.202634</t>
+  </si>
+  <si>
+    <t>22.01.202635</t>
+  </si>
+  <si>
+    <t>22.01.202636</t>
+  </si>
+  <si>
+    <t>22.01.202637</t>
+  </si>
+  <si>
+    <t>22.01.202638</t>
+  </si>
+  <si>
+    <t>22.01.202639</t>
+  </si>
+  <si>
+    <t>22.01.202640</t>
+  </si>
+  <si>
+    <t>22.01.202641</t>
+  </si>
+  <si>
+    <t>22.01.202642</t>
+  </si>
+  <si>
+    <t>22.01.202643</t>
+  </si>
+  <si>
+    <t>22.01.202644</t>
+  </si>
+  <si>
+    <t>22.01.202645</t>
+  </si>
+  <si>
+    <t>22.01.202646</t>
+  </si>
+  <si>
+    <t>22.01.202647</t>
+  </si>
+  <si>
+    <t>22.01.202648</t>
+  </si>
+  <si>
+    <t>22.01.202649</t>
+  </si>
+  <si>
+    <t>22.01.202650</t>
+  </si>
+  <si>
+    <t>22.01.202651</t>
+  </si>
+  <si>
+    <t>22.01.202652</t>
+  </si>
+  <si>
+    <t>22.01.202653</t>
+  </si>
+  <si>
+    <t>22.01.202654</t>
+  </si>
+  <si>
+    <t>22.01.202655</t>
+  </si>
+  <si>
+    <t>22.01.202656</t>
+  </si>
+  <si>
+    <t>22.01.202657</t>
+  </si>
+  <si>
+    <t>22.01.202658</t>
+  </si>
+  <si>
+    <t>22.01.202659</t>
+  </si>
+  <si>
+    <t>22.01.202660</t>
+  </si>
+  <si>
+    <t>22.01.202661</t>
+  </si>
+  <si>
+    <t>22.01.202662</t>
+  </si>
+  <si>
+    <t>22.01.202663</t>
+  </si>
+  <si>
+    <t>22.01.202664</t>
+  </si>
+  <si>
+    <t>22.01.202665</t>
+  </si>
+  <si>
+    <t>22.01.202666</t>
+  </si>
+  <si>
+    <t>22.01.202667</t>
+  </si>
+  <si>
+    <t>22.01.202668</t>
+  </si>
+  <si>
+    <t>22.01.202669</t>
+  </si>
+  <si>
+    <t>22.01.202670</t>
+  </si>
+  <si>
+    <t>22.01.202671</t>
+  </si>
+  <si>
+    <t>22.01.202672</t>
+  </si>
+  <si>
+    <t>22.01.202673</t>
+  </si>
+  <si>
+    <t>22.01.202674</t>
+  </si>
+  <si>
+    <t>22.01.202675</t>
+  </si>
+  <si>
+    <t>22.01.202676</t>
+  </si>
+  <si>
+    <t>22.01.202677</t>
+  </si>
+  <si>
+    <t>22.01.202678</t>
+  </si>
+  <si>
+    <t>22.01.202679</t>
+  </si>
+  <si>
+    <t>22.01.202680</t>
+  </si>
+  <si>
+    <t>22.01.202681</t>
+  </si>
+  <si>
+    <t>22.01.202682</t>
+  </si>
+  <si>
+    <t>22.01.202683</t>
+  </si>
+  <si>
+    <t>22.01.202684</t>
+  </si>
+  <si>
+    <t>22.01.202685</t>
+  </si>
+  <si>
+    <t>22.01.202686</t>
+  </si>
+  <si>
+    <t>22.01.202687</t>
+  </si>
+  <si>
+    <t>22.01.202688</t>
+  </si>
+  <si>
+    <t>22.01.202689</t>
+  </si>
+  <si>
+    <t>22.01.202690</t>
+  </si>
+  <si>
+    <t>22.01.202691</t>
+  </si>
+  <si>
+    <t>22.01.202692</t>
+  </si>
+  <si>
+    <t>22.01.202693</t>
+  </si>
+  <si>
+    <t>22.01.202694</t>
+  </si>
+  <si>
+    <t>22.01.202695</t>
+  </si>
+  <si>
+    <t>22.01.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46021.00486111111</v>
+        <v>46043.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46021.01527777778</v>
+        <v>46043.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46021.02569444444</v>
+        <v>46043.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46021.03611111111</v>
+        <v>46043.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46021.04652777778</v>
+        <v>46043.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46021.05694444444</v>
+        <v>46043.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46021.06736111111</v>
+        <v>46043.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46021.07777777778</v>
+        <v>46043.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46021.08819444444</v>
+        <v>46043.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46021.09861111111</v>
+        <v>46043.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46021.10902777778</v>
+        <v>46043.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46021.11944444444</v>
+        <v>46043.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46021.12986111111</v>
+        <v>46043.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46021.14027777778</v>
+        <v>46043.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46021.15069444444</v>
+        <v>46043.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46021.16111111111</v>
+        <v>46043.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46021.17152777778</v>
+        <v>46043.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46021.18194444444</v>
+        <v>46043.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46021.19236111111</v>
+        <v>46043.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46021.20277777778</v>
+        <v>46043.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46021.21319444444</v>
+        <v>46043.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46021.22361111111</v>
+        <v>46043.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46021.23402777778</v>
+        <v>46043.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46021.24444444444</v>
+        <v>46043.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46021.25486111111</v>
+        <v>46043.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46021.26527777778</v>
+        <v>46043.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46021.27569444444</v>
+        <v>46043.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46021.28611111111</v>
+        <v>46043.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46021.29652777778</v>
+        <v>46043.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46021.30694444444</v>
+        <v>46043.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46021.31736111111</v>
+        <v>46043.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46021.32777777778</v>
+        <v>46043.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46021.33819444444</v>
+        <v>46043.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46021.34861111111</v>
+        <v>46043.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46021.35902777778</v>
+        <v>46043.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46021.36944444444</v>
+        <v>46043.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46021.37986111111</v>
+        <v>46043.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46021.39027777778</v>
+        <v>46043.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46021.40069444444</v>
+        <v>46043.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46021.41111111111</v>
+        <v>46043.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46021.42152777778</v>
+        <v>46043.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46021.43194444444</v>
+        <v>46043.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46021.44236111111</v>
+        <v>46043.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46021.45277777778</v>
+        <v>46043.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46021.46319444444</v>
+        <v>46043.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46021.47361111111</v>
+        <v>46043.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46021.48402777778</v>
+        <v>46043.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46021.49444444444</v>
+        <v>46043.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46021.50486111111</v>
+        <v>46043.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46021.51527777778</v>
+        <v>46043.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46021.52569444444</v>
+        <v>46043.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46021.53611111111</v>
+        <v>46043.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46021.54652777778</v>
+        <v>46043.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46021.55694444444</v>
+        <v>46043.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46021.56736111111</v>
+        <v>46043.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46021.57777777778</v>
+        <v>46043.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46021.58819444444</v>
+        <v>46043.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46021.59861111111</v>
+        <v>46043.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46021.60902777778</v>
+        <v>46043.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46021.61944444444</v>
+        <v>46043.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46021.62986111111</v>
+        <v>46043.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46021.64027777778</v>
+        <v>46043.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46021.65069444444</v>
+        <v>46043.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46021.66111111111</v>
+        <v>46043.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46021.67152777778</v>
+        <v>46043.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46021.68194444444</v>
+        <v>46043.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46021.69236111111</v>
+        <v>46043.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46021.70277777778</v>
+        <v>46043.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46021.71319444444</v>
+        <v>46043.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46021.72361111111</v>
+        <v>46043.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46021.73402777778</v>
+        <v>46043.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46021.74444444444</v>
+        <v>46043.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46021.75486111111</v>
+        <v>46043.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46021.76527777778</v>
+        <v>46043.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46021.77569444444</v>
+        <v>46043.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46021.78611111111</v>
+        <v>46043.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46021.79652777778</v>
+        <v>46043.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46021.80694444444</v>
+        <v>46043.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46021.81736111111</v>
+        <v>46043.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46021.82777777778</v>
+        <v>46043.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46021.83819444444</v>
+        <v>46043.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46021.84861111111</v>
+        <v>46043.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46021.85902777778</v>
+        <v>46043.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46021.86944444444</v>
+        <v>46043.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46021.87986111111</v>
+        <v>46043.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46021.89027777778</v>
+        <v>46043.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46021.90069444444</v>
+        <v>46043.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46021.91111111111</v>
+        <v>46043.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46021.92152777778</v>
+        <v>46043.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46021.92152777778</v>
+        <v>46043.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46021.93194444444</v>
+        <v>46043.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46021.93194444444</v>
+        <v>46043.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46021.94236111111</v>
+        <v>46043.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46021.94236111111</v>
+        <v>46043.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46021.95277777778</v>
+        <v>46043.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46021.95277777778</v>
+        <v>46043.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46021.96319444444</v>
+        <v>46043.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46021.96319444444</v>
+        <v>46043.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46021.97361111111</v>
+        <v>46043.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46021.97361111111</v>
+        <v>46043.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46021.98402777778</v>
+        <v>46043.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46021.98402777778</v>
+        <v>46043.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46021.99444444444</v>
+        <v>46043.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46021.99444444444</v>
+        <v>46043.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46022.00486111111</v>
+        <v>46044.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46022.01527777778</v>
+        <v>46044.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46022.02569444444</v>
+        <v>46044.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46022.03611111111</v>
+        <v>46044.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46022.04652777778</v>
+        <v>46044.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46022.05694444444</v>
+        <v>46044.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46022.06736111111</v>
+        <v>46044.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46022.07777777778</v>
+        <v>46044.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46022.08819444444</v>
+        <v>46044.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46022.09861111111</v>
+        <v>46044.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46022.10902777778</v>
+        <v>46044.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46022.11944444444</v>
+        <v>46044.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46022.12986111111</v>
+        <v>46044.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46022.14027777778</v>
+        <v>46044.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46022.15069444444</v>
+        <v>46044.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46022.16111111111</v>
+        <v>46044.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46022.17152777778</v>
+        <v>46044.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46022.18194444444</v>
+        <v>46044.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46022.19236111111</v>
+        <v>46044.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46022.20277777778</v>
+        <v>46044.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46022.21319444444</v>
+        <v>46044.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46022.22361111111</v>
+        <v>46044.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46022.23402777778</v>
+        <v>46044.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46022.24444444444</v>
+        <v>46044.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46022.25486111111</v>
+        <v>46044.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46022.26527777778</v>
+        <v>46044.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46022.27569444444</v>
+        <v>46044.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46022.28611111111</v>
+        <v>46044.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46022.29652777778</v>
+        <v>46044.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46022.30694444444</v>
+        <v>46044.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46022.31736111111</v>
+        <v>46044.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46022.32777777778</v>
+        <v>46044.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46022.33819444444</v>
+        <v>46044.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46022.34861111111</v>
+        <v>46044.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46022.35902777778</v>
+        <v>46044.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46022.36944444444</v>
+        <v>46044.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46022.37986111111</v>
+        <v>46044.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46022.39027777778</v>
+        <v>46044.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46022.40069444444</v>
+        <v>46044.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46022.41111111111</v>
+        <v>46044.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46022.42152777778</v>
+        <v>46044.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46022.43194444444</v>
+        <v>46044.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46022.44236111111</v>
+        <v>46044.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46022.45277777778</v>
+        <v>46044.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46022.46319444444</v>
+        <v>46044.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46022.47361111111</v>
+        <v>46044.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46022.48402777778</v>
+        <v>46044.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46022.49444444444</v>
+        <v>46044.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46022.50486111111</v>
+        <v>46044.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46022.51527777778</v>
+        <v>46044.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46022.52569444444</v>
+        <v>46044.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46022.53611111111</v>
+        <v>46044.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46022.54652777778</v>
+        <v>46044.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46022.55694444444</v>
+        <v>46044.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46022.56736111111</v>
+        <v>46044.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46022.57777777778</v>
+        <v>46044.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46022.58819444444</v>
+        <v>46044.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46022.59861111111</v>
+        <v>46044.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46022.60902777778</v>
+        <v>46044.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46022.61944444444</v>
+        <v>46044.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46022.62986111111</v>
+        <v>46044.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46022.64027777778</v>
+        <v>46044.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46022.65069444444</v>
+        <v>46044.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46022.66111111111</v>
+        <v>46044.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46022.67152777778</v>
+        <v>46044.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46022.68194444444</v>
+        <v>46044.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46022.69236111111</v>
+        <v>46044.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46022.70277777778</v>
+        <v>46044.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46022.71319444444</v>
+        <v>46044.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46022.72361111111</v>
+        <v>46044.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46022.73402777778</v>
+        <v>46044.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46022.74444444444</v>
+        <v>46044.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46022.75486111111</v>
+        <v>46044.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46022.76527777778</v>
+        <v>46044.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46022.77569444444</v>
+        <v>46044.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46022.78611111111</v>
+        <v>46044.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46022.79652777778</v>
+        <v>46044.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46022.80694444444</v>
+        <v>46044.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46022.81736111111</v>
+        <v>46044.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46022.82777777778</v>
+        <v>46044.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46022.83819444444</v>
+        <v>46044.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46022.84861111111</v>
+        <v>46044.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46022.85902777778</v>
+        <v>46044.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46022.86944444444</v>
+        <v>46044.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46022.87986111111</v>
+        <v>46044.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46022.89027777778</v>
+        <v>46044.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46022.90069444444</v>
+        <v>46044.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46022.91111111111</v>
+        <v>46044.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46022.92152777778</v>
+        <v>46044.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46022.93194444444</v>
+        <v>46044.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46022.94236111111</v>
+        <v>46044.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46022.95277777778</v>
+        <v>46044.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46022.96319444444</v>
+        <v>46044.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46022.97361111111</v>
+        <v>46044.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46022.98402777778</v>
+        <v>46044.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46022.99444444444</v>
+        <v>46044.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>21.01.20261</t>
-  </si>
-  <si>
-    <t>21.01.20262</t>
-  </si>
-  <si>
-    <t>21.01.20263</t>
-  </si>
-  <si>
-    <t>21.01.20264</t>
-  </si>
-  <si>
-    <t>21.01.20265</t>
-  </si>
-  <si>
-    <t>21.01.20266</t>
-  </si>
-  <si>
-    <t>21.01.20267</t>
-  </si>
-  <si>
-    <t>21.01.20268</t>
-  </si>
-  <si>
-    <t>21.01.20269</t>
-  </si>
-  <si>
-    <t>21.01.202610</t>
-  </si>
-  <si>
-    <t>21.01.202611</t>
-  </si>
-  <si>
-    <t>21.01.202612</t>
-  </si>
-  <si>
-    <t>21.01.202613</t>
-  </si>
-  <si>
-    <t>21.01.202614</t>
-  </si>
-  <si>
-    <t>21.01.202615</t>
-  </si>
-  <si>
-    <t>21.01.202616</t>
-  </si>
-  <si>
-    <t>21.01.202617</t>
-  </si>
-  <si>
-    <t>21.01.202618</t>
-  </si>
-  <si>
-    <t>21.01.202619</t>
-  </si>
-  <si>
-    <t>21.01.202620</t>
-  </si>
-  <si>
-    <t>21.01.202621</t>
-  </si>
-  <si>
-    <t>21.01.202622</t>
-  </si>
-  <si>
-    <t>21.01.202623</t>
-  </si>
-  <si>
-    <t>21.01.202624</t>
-  </si>
-  <si>
-    <t>21.01.202625</t>
-  </si>
-  <si>
-    <t>21.01.202626</t>
-  </si>
-  <si>
-    <t>21.01.202627</t>
-  </si>
-  <si>
-    <t>21.01.202628</t>
-  </si>
-  <si>
-    <t>21.01.202629</t>
-  </si>
-  <si>
-    <t>21.01.202630</t>
-  </si>
-  <si>
-    <t>21.01.202631</t>
-  </si>
-  <si>
-    <t>21.01.202632</t>
-  </si>
-  <si>
-    <t>21.01.202633</t>
-  </si>
-  <si>
-    <t>21.01.202634</t>
-  </si>
-  <si>
-    <t>21.01.202635</t>
-  </si>
-  <si>
-    <t>21.01.202636</t>
-  </si>
-  <si>
-    <t>21.01.202637</t>
-  </si>
-  <si>
-    <t>21.01.202638</t>
-  </si>
-  <si>
-    <t>21.01.202639</t>
-  </si>
-  <si>
-    <t>21.01.202640</t>
-  </si>
-  <si>
-    <t>21.01.202641</t>
-  </si>
-  <si>
-    <t>21.01.202642</t>
-  </si>
-  <si>
-    <t>21.01.202643</t>
-  </si>
-  <si>
-    <t>21.01.202644</t>
-  </si>
-  <si>
-    <t>21.01.202645</t>
-  </si>
-  <si>
-    <t>21.01.202646</t>
-  </si>
-  <si>
-    <t>21.01.202647</t>
-  </si>
-  <si>
-    <t>21.01.202648</t>
-  </si>
-  <si>
-    <t>21.01.202649</t>
-  </si>
-  <si>
-    <t>21.01.202650</t>
-  </si>
-  <si>
-    <t>21.01.202651</t>
-  </si>
-  <si>
-    <t>21.01.202652</t>
-  </si>
-  <si>
-    <t>21.01.202653</t>
-  </si>
-  <si>
-    <t>21.01.202654</t>
-  </si>
-  <si>
-    <t>21.01.202655</t>
-  </si>
-  <si>
-    <t>21.01.202656</t>
-  </si>
-  <si>
-    <t>21.01.202657</t>
-  </si>
-  <si>
-    <t>21.01.202658</t>
-  </si>
-  <si>
-    <t>21.01.202659</t>
-  </si>
-  <si>
-    <t>21.01.202660</t>
-  </si>
-  <si>
-    <t>21.01.202661</t>
-  </si>
-  <si>
-    <t>21.01.202662</t>
-  </si>
-  <si>
-    <t>21.01.202663</t>
-  </si>
-  <si>
-    <t>21.01.202664</t>
-  </si>
-  <si>
-    <t>21.01.202665</t>
-  </si>
-  <si>
-    <t>21.01.202666</t>
-  </si>
-  <si>
-    <t>21.01.202667</t>
-  </si>
-  <si>
-    <t>21.01.202668</t>
-  </si>
-  <si>
-    <t>21.01.202669</t>
-  </si>
-  <si>
-    <t>21.01.202670</t>
-  </si>
-  <si>
-    <t>21.01.202671</t>
-  </si>
-  <si>
-    <t>21.01.202672</t>
-  </si>
-  <si>
-    <t>21.01.202673</t>
-  </si>
-  <si>
-    <t>21.01.202674</t>
-  </si>
-  <si>
-    <t>21.01.202675</t>
-  </si>
-  <si>
-    <t>21.01.202676</t>
-  </si>
-  <si>
-    <t>21.01.202677</t>
-  </si>
-  <si>
-    <t>21.01.202678</t>
-  </si>
-  <si>
-    <t>21.01.202679</t>
-  </si>
-  <si>
-    <t>21.01.202680</t>
-  </si>
-  <si>
-    <t>21.01.202681</t>
-  </si>
-  <si>
-    <t>21.01.202682</t>
-  </si>
-  <si>
-    <t>21.01.202683</t>
-  </si>
-  <si>
-    <t>21.01.202684</t>
-  </si>
-  <si>
-    <t>21.01.202685</t>
-  </si>
-  <si>
-    <t>21.01.202686</t>
-  </si>
-  <si>
-    <t>21.01.202687</t>
-  </si>
-  <si>
-    <t>21.01.202688</t>
-  </si>
-  <si>
-    <t>21.01.202689</t>
-  </si>
-  <si>
-    <t>21.01.202690</t>
-  </si>
-  <si>
-    <t>21.01.202691</t>
-  </si>
-  <si>
-    <t>21.01.202692</t>
-  </si>
-  <si>
-    <t>21.01.202693</t>
-  </si>
-  <si>
-    <t>21.01.202694</t>
-  </si>
-  <si>
-    <t>21.01.202695</t>
-  </si>
-  <si>
-    <t>21.01.202696</t>
-  </si>
-  <si>
-    <t>22.01.20261</t>
-  </si>
-  <si>
-    <t>22.01.20262</t>
-  </si>
-  <si>
-    <t>22.01.20263</t>
-  </si>
-  <si>
-    <t>22.01.20264</t>
-  </si>
-  <si>
-    <t>22.01.20265</t>
-  </si>
-  <si>
-    <t>22.01.20266</t>
-  </si>
-  <si>
-    <t>22.01.20267</t>
-  </si>
-  <si>
-    <t>22.01.20268</t>
-  </si>
-  <si>
-    <t>22.01.20269</t>
-  </si>
-  <si>
-    <t>22.01.202610</t>
-  </si>
-  <si>
-    <t>22.01.202611</t>
-  </si>
-  <si>
-    <t>22.01.202612</t>
-  </si>
-  <si>
-    <t>22.01.202613</t>
-  </si>
-  <si>
-    <t>22.01.202614</t>
-  </si>
-  <si>
-    <t>22.01.202615</t>
-  </si>
-  <si>
-    <t>22.01.202616</t>
-  </si>
-  <si>
-    <t>22.01.202617</t>
-  </si>
-  <si>
-    <t>22.01.202618</t>
-  </si>
-  <si>
-    <t>22.01.202619</t>
-  </si>
-  <si>
-    <t>22.01.202620</t>
-  </si>
-  <si>
-    <t>22.01.202621</t>
-  </si>
-  <si>
-    <t>22.01.202622</t>
-  </si>
-  <si>
-    <t>22.01.202623</t>
-  </si>
-  <si>
-    <t>22.01.202624</t>
-  </si>
-  <si>
-    <t>22.01.202625</t>
-  </si>
-  <si>
-    <t>22.01.202626</t>
-  </si>
-  <si>
-    <t>22.01.202627</t>
-  </si>
-  <si>
-    <t>22.01.202628</t>
-  </si>
-  <si>
-    <t>22.01.202629</t>
-  </si>
-  <si>
-    <t>22.01.202630</t>
-  </si>
-  <si>
-    <t>22.01.202631</t>
-  </si>
-  <si>
-    <t>22.01.202632</t>
-  </si>
-  <si>
-    <t>22.01.202633</t>
-  </si>
-  <si>
-    <t>22.01.202634</t>
-  </si>
-  <si>
-    <t>22.01.202635</t>
-  </si>
-  <si>
-    <t>22.01.202636</t>
-  </si>
-  <si>
-    <t>22.01.202637</t>
-  </si>
-  <si>
-    <t>22.01.202638</t>
-  </si>
-  <si>
-    <t>22.01.202639</t>
-  </si>
-  <si>
-    <t>22.01.202640</t>
-  </si>
-  <si>
-    <t>22.01.202641</t>
-  </si>
-  <si>
-    <t>22.01.202642</t>
-  </si>
-  <si>
-    <t>22.01.202643</t>
-  </si>
-  <si>
-    <t>22.01.202644</t>
-  </si>
-  <si>
-    <t>22.01.202645</t>
-  </si>
-  <si>
-    <t>22.01.202646</t>
-  </si>
-  <si>
-    <t>22.01.202647</t>
-  </si>
-  <si>
-    <t>22.01.202648</t>
-  </si>
-  <si>
-    <t>22.01.202649</t>
-  </si>
-  <si>
-    <t>22.01.202650</t>
-  </si>
-  <si>
-    <t>22.01.202651</t>
-  </si>
-  <si>
-    <t>22.01.202652</t>
-  </si>
-  <si>
-    <t>22.01.202653</t>
-  </si>
-  <si>
-    <t>22.01.202654</t>
-  </si>
-  <si>
-    <t>22.01.202655</t>
-  </si>
-  <si>
-    <t>22.01.202656</t>
-  </si>
-  <si>
-    <t>22.01.202657</t>
-  </si>
-  <si>
-    <t>22.01.202658</t>
-  </si>
-  <si>
-    <t>22.01.202659</t>
-  </si>
-  <si>
-    <t>22.01.202660</t>
-  </si>
-  <si>
-    <t>22.01.202661</t>
-  </si>
-  <si>
-    <t>22.01.202662</t>
-  </si>
-  <si>
-    <t>22.01.202663</t>
-  </si>
-  <si>
-    <t>22.01.202664</t>
-  </si>
-  <si>
-    <t>22.01.202665</t>
-  </si>
-  <si>
-    <t>22.01.202666</t>
-  </si>
-  <si>
-    <t>22.01.202667</t>
-  </si>
-  <si>
-    <t>22.01.202668</t>
-  </si>
-  <si>
-    <t>22.01.202669</t>
-  </si>
-  <si>
-    <t>22.01.202670</t>
-  </si>
-  <si>
-    <t>22.01.202671</t>
-  </si>
-  <si>
-    <t>22.01.202672</t>
-  </si>
-  <si>
-    <t>22.01.202673</t>
-  </si>
-  <si>
-    <t>22.01.202674</t>
-  </si>
-  <si>
-    <t>22.01.202675</t>
-  </si>
-  <si>
-    <t>22.01.202676</t>
-  </si>
-  <si>
-    <t>22.01.202677</t>
-  </si>
-  <si>
-    <t>22.01.202678</t>
-  </si>
-  <si>
-    <t>22.01.202679</t>
-  </si>
-  <si>
-    <t>22.01.202680</t>
-  </si>
-  <si>
-    <t>22.01.202681</t>
-  </si>
-  <si>
-    <t>22.01.202682</t>
-  </si>
-  <si>
-    <t>22.01.202683</t>
-  </si>
-  <si>
-    <t>22.01.202684</t>
-  </si>
-  <si>
-    <t>22.01.202685</t>
-  </si>
-  <si>
-    <t>22.01.202686</t>
-  </si>
-  <si>
-    <t>22.01.202687</t>
-  </si>
-  <si>
-    <t>22.01.202688</t>
-  </si>
-  <si>
-    <t>22.01.202689</t>
-  </si>
-  <si>
-    <t>22.01.202690</t>
-  </si>
-  <si>
-    <t>22.01.202691</t>
-  </si>
-  <si>
-    <t>22.01.202692</t>
-  </si>
-  <si>
-    <t>22.01.202693</t>
-  </si>
-  <si>
-    <t>22.01.202694</t>
-  </si>
-  <si>
-    <t>22.01.202695</t>
-  </si>
-  <si>
-    <t>22.01.202696</t>
+    <t>23.01.20261</t>
+  </si>
+  <si>
+    <t>23.01.20262</t>
+  </si>
+  <si>
+    <t>23.01.20263</t>
+  </si>
+  <si>
+    <t>23.01.20264</t>
+  </si>
+  <si>
+    <t>23.01.20265</t>
+  </si>
+  <si>
+    <t>23.01.20266</t>
+  </si>
+  <si>
+    <t>23.01.20267</t>
+  </si>
+  <si>
+    <t>23.01.20268</t>
+  </si>
+  <si>
+    <t>23.01.20269</t>
+  </si>
+  <si>
+    <t>23.01.202610</t>
+  </si>
+  <si>
+    <t>23.01.202611</t>
+  </si>
+  <si>
+    <t>23.01.202612</t>
+  </si>
+  <si>
+    <t>23.01.202613</t>
+  </si>
+  <si>
+    <t>23.01.202614</t>
+  </si>
+  <si>
+    <t>23.01.202615</t>
+  </si>
+  <si>
+    <t>23.01.202616</t>
+  </si>
+  <si>
+    <t>23.01.202617</t>
+  </si>
+  <si>
+    <t>23.01.202618</t>
+  </si>
+  <si>
+    <t>23.01.202619</t>
+  </si>
+  <si>
+    <t>23.01.202620</t>
+  </si>
+  <si>
+    <t>23.01.202621</t>
+  </si>
+  <si>
+    <t>23.01.202622</t>
+  </si>
+  <si>
+    <t>23.01.202623</t>
+  </si>
+  <si>
+    <t>23.01.202624</t>
+  </si>
+  <si>
+    <t>23.01.202625</t>
+  </si>
+  <si>
+    <t>23.01.202626</t>
+  </si>
+  <si>
+    <t>23.01.202627</t>
+  </si>
+  <si>
+    <t>23.01.202628</t>
+  </si>
+  <si>
+    <t>23.01.202629</t>
+  </si>
+  <si>
+    <t>23.01.202630</t>
+  </si>
+  <si>
+    <t>23.01.202631</t>
+  </si>
+  <si>
+    <t>23.01.202632</t>
+  </si>
+  <si>
+    <t>23.01.202633</t>
+  </si>
+  <si>
+    <t>23.01.202634</t>
+  </si>
+  <si>
+    <t>23.01.202635</t>
+  </si>
+  <si>
+    <t>23.01.202636</t>
+  </si>
+  <si>
+    <t>23.01.202637</t>
+  </si>
+  <si>
+    <t>23.01.202638</t>
+  </si>
+  <si>
+    <t>23.01.202639</t>
+  </si>
+  <si>
+    <t>23.01.202640</t>
+  </si>
+  <si>
+    <t>23.01.202641</t>
+  </si>
+  <si>
+    <t>23.01.202642</t>
+  </si>
+  <si>
+    <t>23.01.202643</t>
+  </si>
+  <si>
+    <t>23.01.202644</t>
+  </si>
+  <si>
+    <t>23.01.202645</t>
+  </si>
+  <si>
+    <t>23.01.202646</t>
+  </si>
+  <si>
+    <t>23.01.202647</t>
+  </si>
+  <si>
+    <t>23.01.202648</t>
+  </si>
+  <si>
+    <t>23.01.202649</t>
+  </si>
+  <si>
+    <t>23.01.202650</t>
+  </si>
+  <si>
+    <t>23.01.202651</t>
+  </si>
+  <si>
+    <t>23.01.202652</t>
+  </si>
+  <si>
+    <t>23.01.202653</t>
+  </si>
+  <si>
+    <t>23.01.202654</t>
+  </si>
+  <si>
+    <t>23.01.202655</t>
+  </si>
+  <si>
+    <t>23.01.202656</t>
+  </si>
+  <si>
+    <t>23.01.202657</t>
+  </si>
+  <si>
+    <t>23.01.202658</t>
+  </si>
+  <si>
+    <t>23.01.202659</t>
+  </si>
+  <si>
+    <t>23.01.202660</t>
+  </si>
+  <si>
+    <t>23.01.202661</t>
+  </si>
+  <si>
+    <t>23.01.202662</t>
+  </si>
+  <si>
+    <t>23.01.202663</t>
+  </si>
+  <si>
+    <t>23.01.202664</t>
+  </si>
+  <si>
+    <t>23.01.202665</t>
+  </si>
+  <si>
+    <t>23.01.202666</t>
+  </si>
+  <si>
+    <t>23.01.202667</t>
+  </si>
+  <si>
+    <t>23.01.202668</t>
+  </si>
+  <si>
+    <t>23.01.202669</t>
+  </si>
+  <si>
+    <t>23.01.202670</t>
+  </si>
+  <si>
+    <t>23.01.202671</t>
+  </si>
+  <si>
+    <t>23.01.202672</t>
+  </si>
+  <si>
+    <t>23.01.202673</t>
+  </si>
+  <si>
+    <t>23.01.202674</t>
+  </si>
+  <si>
+    <t>23.01.202675</t>
+  </si>
+  <si>
+    <t>23.01.202676</t>
+  </si>
+  <si>
+    <t>23.01.202677</t>
+  </si>
+  <si>
+    <t>23.01.202678</t>
+  </si>
+  <si>
+    <t>23.01.202679</t>
+  </si>
+  <si>
+    <t>23.01.202680</t>
+  </si>
+  <si>
+    <t>23.01.202681</t>
+  </si>
+  <si>
+    <t>23.01.202682</t>
+  </si>
+  <si>
+    <t>23.01.202683</t>
+  </si>
+  <si>
+    <t>23.01.202684</t>
+  </si>
+  <si>
+    <t>23.01.202685</t>
+  </si>
+  <si>
+    <t>23.01.202686</t>
+  </si>
+  <si>
+    <t>23.01.202687</t>
+  </si>
+  <si>
+    <t>23.01.202688</t>
+  </si>
+  <si>
+    <t>23.01.202689</t>
+  </si>
+  <si>
+    <t>23.01.202690</t>
+  </si>
+  <si>
+    <t>23.01.202691</t>
+  </si>
+  <si>
+    <t>23.01.202692</t>
+  </si>
+  <si>
+    <t>23.01.202693</t>
+  </si>
+  <si>
+    <t>23.01.202694</t>
+  </si>
+  <si>
+    <t>23.01.202695</t>
+  </si>
+  <si>
+    <t>23.01.202696</t>
+  </si>
+  <si>
+    <t>24.01.20261</t>
+  </si>
+  <si>
+    <t>24.01.20262</t>
+  </si>
+  <si>
+    <t>24.01.20263</t>
+  </si>
+  <si>
+    <t>24.01.20264</t>
+  </si>
+  <si>
+    <t>24.01.20265</t>
+  </si>
+  <si>
+    <t>24.01.20266</t>
+  </si>
+  <si>
+    <t>24.01.20267</t>
+  </si>
+  <si>
+    <t>24.01.20268</t>
+  </si>
+  <si>
+    <t>24.01.20269</t>
+  </si>
+  <si>
+    <t>24.01.202610</t>
+  </si>
+  <si>
+    <t>24.01.202611</t>
+  </si>
+  <si>
+    <t>24.01.202612</t>
+  </si>
+  <si>
+    <t>24.01.202613</t>
+  </si>
+  <si>
+    <t>24.01.202614</t>
+  </si>
+  <si>
+    <t>24.01.202615</t>
+  </si>
+  <si>
+    <t>24.01.202616</t>
+  </si>
+  <si>
+    <t>24.01.202617</t>
+  </si>
+  <si>
+    <t>24.01.202618</t>
+  </si>
+  <si>
+    <t>24.01.202619</t>
+  </si>
+  <si>
+    <t>24.01.202620</t>
+  </si>
+  <si>
+    <t>24.01.202621</t>
+  </si>
+  <si>
+    <t>24.01.202622</t>
+  </si>
+  <si>
+    <t>24.01.202623</t>
+  </si>
+  <si>
+    <t>24.01.202624</t>
+  </si>
+  <si>
+    <t>24.01.202625</t>
+  </si>
+  <si>
+    <t>24.01.202626</t>
+  </si>
+  <si>
+    <t>24.01.202627</t>
+  </si>
+  <si>
+    <t>24.01.202628</t>
+  </si>
+  <si>
+    <t>24.01.202629</t>
+  </si>
+  <si>
+    <t>24.01.202630</t>
+  </si>
+  <si>
+    <t>24.01.202631</t>
+  </si>
+  <si>
+    <t>24.01.202632</t>
+  </si>
+  <si>
+    <t>24.01.202633</t>
+  </si>
+  <si>
+    <t>24.01.202634</t>
+  </si>
+  <si>
+    <t>24.01.202635</t>
+  </si>
+  <si>
+    <t>24.01.202636</t>
+  </si>
+  <si>
+    <t>24.01.202637</t>
+  </si>
+  <si>
+    <t>24.01.202638</t>
+  </si>
+  <si>
+    <t>24.01.202639</t>
+  </si>
+  <si>
+    <t>24.01.202640</t>
+  </si>
+  <si>
+    <t>24.01.202641</t>
+  </si>
+  <si>
+    <t>24.01.202642</t>
+  </si>
+  <si>
+    <t>24.01.202643</t>
+  </si>
+  <si>
+    <t>24.01.202644</t>
+  </si>
+  <si>
+    <t>24.01.202645</t>
+  </si>
+  <si>
+    <t>24.01.202646</t>
+  </si>
+  <si>
+    <t>24.01.202647</t>
+  </si>
+  <si>
+    <t>24.01.202648</t>
+  </si>
+  <si>
+    <t>24.01.202649</t>
+  </si>
+  <si>
+    <t>24.01.202650</t>
+  </si>
+  <si>
+    <t>24.01.202651</t>
+  </si>
+  <si>
+    <t>24.01.202652</t>
+  </si>
+  <si>
+    <t>24.01.202653</t>
+  </si>
+  <si>
+    <t>24.01.202654</t>
+  </si>
+  <si>
+    <t>24.01.202655</t>
+  </si>
+  <si>
+    <t>24.01.202656</t>
+  </si>
+  <si>
+    <t>24.01.202657</t>
+  </si>
+  <si>
+    <t>24.01.202658</t>
+  </si>
+  <si>
+    <t>24.01.202659</t>
+  </si>
+  <si>
+    <t>24.01.202660</t>
+  </si>
+  <si>
+    <t>24.01.202661</t>
+  </si>
+  <si>
+    <t>24.01.202662</t>
+  </si>
+  <si>
+    <t>24.01.202663</t>
+  </si>
+  <si>
+    <t>24.01.202664</t>
+  </si>
+  <si>
+    <t>24.01.202665</t>
+  </si>
+  <si>
+    <t>24.01.202666</t>
+  </si>
+  <si>
+    <t>24.01.202667</t>
+  </si>
+  <si>
+    <t>24.01.202668</t>
+  </si>
+  <si>
+    <t>24.01.202669</t>
+  </si>
+  <si>
+    <t>24.01.202670</t>
+  </si>
+  <si>
+    <t>24.01.202671</t>
+  </si>
+  <si>
+    <t>24.01.202672</t>
+  </si>
+  <si>
+    <t>24.01.202673</t>
+  </si>
+  <si>
+    <t>24.01.202674</t>
+  </si>
+  <si>
+    <t>24.01.202675</t>
+  </si>
+  <si>
+    <t>24.01.202676</t>
+  </si>
+  <si>
+    <t>24.01.202677</t>
+  </si>
+  <si>
+    <t>24.01.202678</t>
+  </si>
+  <si>
+    <t>24.01.202679</t>
+  </si>
+  <si>
+    <t>24.01.202680</t>
+  </si>
+  <si>
+    <t>24.01.202681</t>
+  </si>
+  <si>
+    <t>24.01.202682</t>
+  </si>
+  <si>
+    <t>24.01.202683</t>
+  </si>
+  <si>
+    <t>24.01.202684</t>
+  </si>
+  <si>
+    <t>24.01.202685</t>
+  </si>
+  <si>
+    <t>24.01.202686</t>
+  </si>
+  <si>
+    <t>24.01.202687</t>
+  </si>
+  <si>
+    <t>24.01.202688</t>
+  </si>
+  <si>
+    <t>24.01.202689</t>
+  </si>
+  <si>
+    <t>24.01.202690</t>
+  </si>
+  <si>
+    <t>24.01.202691</t>
+  </si>
+  <si>
+    <t>24.01.202692</t>
+  </si>
+  <si>
+    <t>24.01.202693</t>
+  </si>
+  <si>
+    <t>24.01.202694</t>
+  </si>
+  <si>
+    <t>24.01.202695</t>
+  </si>
+  <si>
+    <t>24.01.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46043.00486111111</v>
+        <v>46045.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46043.01527777778</v>
+        <v>46045.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46043.02569444444</v>
+        <v>46045.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46043.03611111111</v>
+        <v>46045.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46043.04652777778</v>
+        <v>46045.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46043.05694444444</v>
+        <v>46045.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46043.06736111111</v>
+        <v>46045.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46043.07777777778</v>
+        <v>46045.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46043.08819444444</v>
+        <v>46045.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46043.09861111111</v>
+        <v>46045.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46043.10902777778</v>
+        <v>46045.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46043.11944444444</v>
+        <v>46045.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46043.12986111111</v>
+        <v>46045.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46043.14027777778</v>
+        <v>46045.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46043.15069444444</v>
+        <v>46045.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46043.16111111111</v>
+        <v>46045.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46043.17152777778</v>
+        <v>46045.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46043.18194444444</v>
+        <v>46045.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46043.19236111111</v>
+        <v>46045.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46043.20277777778</v>
+        <v>46045.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46043.21319444444</v>
+        <v>46045.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46043.22361111111</v>
+        <v>46045.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46043.23402777778</v>
+        <v>46045.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46043.24444444444</v>
+        <v>46045.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46043.25486111111</v>
+        <v>46045.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46043.26527777778</v>
+        <v>46045.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46043.27569444444</v>
+        <v>46045.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46043.28611111111</v>
+        <v>46045.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46043.29652777778</v>
+        <v>46045.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46043.30694444444</v>
+        <v>46045.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46043.31736111111</v>
+        <v>46045.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46043.32777777778</v>
+        <v>46045.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46043.33819444444</v>
+        <v>46045.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46043.34861111111</v>
+        <v>46045.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46043.35902777778</v>
+        <v>46045.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46043.36944444444</v>
+        <v>46045.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46043.37986111111</v>
+        <v>46045.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46043.39027777778</v>
+        <v>46045.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46043.40069444444</v>
+        <v>46045.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46043.41111111111</v>
+        <v>46045.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46043.42152777778</v>
+        <v>46045.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46043.43194444444</v>
+        <v>46045.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46043.44236111111</v>
+        <v>46045.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46043.45277777778</v>
+        <v>46045.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46043.46319444444</v>
+        <v>46045.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46043.47361111111</v>
+        <v>46045.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46043.48402777778</v>
+        <v>46045.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46043.49444444444</v>
+        <v>46045.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46043.50486111111</v>
+        <v>46045.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46043.51527777778</v>
+        <v>46045.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46043.52569444444</v>
+        <v>46045.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46043.53611111111</v>
+        <v>46045.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46043.54652777778</v>
+        <v>46045.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46043.55694444444</v>
+        <v>46045.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46043.56736111111</v>
+        <v>46045.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46043.57777777778</v>
+        <v>46045.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46043.58819444444</v>
+        <v>46045.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46043.59861111111</v>
+        <v>46045.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46043.60902777778</v>
+        <v>46045.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46043.61944444444</v>
+        <v>46045.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46043.62986111111</v>
+        <v>46045.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46043.64027777778</v>
+        <v>46045.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46043.65069444444</v>
+        <v>46045.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46043.66111111111</v>
+        <v>46045.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46043.67152777778</v>
+        <v>46045.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46043.68194444444</v>
+        <v>46045.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46043.69236111111</v>
+        <v>46045.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46043.70277777778</v>
+        <v>46045.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46043.71319444444</v>
+        <v>46045.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46043.72361111111</v>
+        <v>46045.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46043.73402777778</v>
+        <v>46045.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46043.74444444444</v>
+        <v>46045.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46043.75486111111</v>
+        <v>46045.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46043.76527777778</v>
+        <v>46045.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46043.77569444444</v>
+        <v>46045.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46043.78611111111</v>
+        <v>46045.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46043.79652777778</v>
+        <v>46045.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46043.80694444444</v>
+        <v>46045.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46043.81736111111</v>
+        <v>46045.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46043.82777777778</v>
+        <v>46045.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46043.83819444444</v>
+        <v>46045.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46043.84861111111</v>
+        <v>46045.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46043.85902777778</v>
+        <v>46045.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46043.86944444444</v>
+        <v>46045.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46043.87986111111</v>
+        <v>46045.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46043.89027777778</v>
+        <v>46045.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46043.90069444444</v>
+        <v>46045.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46043.91111111111</v>
+        <v>46045.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46043.92152777778</v>
+        <v>46045.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46043.92152777778</v>
+        <v>46045.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46043.93194444444</v>
+        <v>46045.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46043.93194444444</v>
+        <v>46045.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46043.94236111111</v>
+        <v>46045.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46043.94236111111</v>
+        <v>46045.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46043.95277777778</v>
+        <v>46045.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46043.95277777778</v>
+        <v>46045.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46043.96319444444</v>
+        <v>46045.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46043.96319444444</v>
+        <v>46045.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46043.97361111111</v>
+        <v>46045.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46043.97361111111</v>
+        <v>46045.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46043.98402777778</v>
+        <v>46045.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46043.98402777778</v>
+        <v>46045.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46043.99444444444</v>
+        <v>46045.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46043.99444444444</v>
+        <v>46045.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46044.00486111111</v>
+        <v>46046.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46044.01527777778</v>
+        <v>46046.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46044.02569444444</v>
+        <v>46046.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46044.03611111111</v>
+        <v>46046.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46044.04652777778</v>
+        <v>46046.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46044.05694444444</v>
+        <v>46046.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46044.06736111111</v>
+        <v>46046.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46044.07777777778</v>
+        <v>46046.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46044.08819444444</v>
+        <v>46046.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46044.09861111111</v>
+        <v>46046.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46044.10902777778</v>
+        <v>46046.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46044.11944444444</v>
+        <v>46046.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46044.12986111111</v>
+        <v>46046.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46044.14027777778</v>
+        <v>46046.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46044.15069444444</v>
+        <v>46046.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46044.16111111111</v>
+        <v>46046.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46044.17152777778</v>
+        <v>46046.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46044.18194444444</v>
+        <v>46046.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46044.19236111111</v>
+        <v>46046.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46044.20277777778</v>
+        <v>46046.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46044.21319444444</v>
+        <v>46046.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46044.22361111111</v>
+        <v>46046.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46044.23402777778</v>
+        <v>46046.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46044.24444444444</v>
+        <v>46046.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46044.25486111111</v>
+        <v>46046.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46044.26527777778</v>
+        <v>46046.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46044.27569444444</v>
+        <v>46046.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46044.28611111111</v>
+        <v>46046.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46044.29652777778</v>
+        <v>46046.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46044.30694444444</v>
+        <v>46046.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46044.31736111111</v>
+        <v>46046.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46044.32777777778</v>
+        <v>46046.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46044.33819444444</v>
+        <v>46046.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46044.34861111111</v>
+        <v>46046.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46044.35902777778</v>
+        <v>46046.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46044.36944444444</v>
+        <v>46046.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46044.37986111111</v>
+        <v>46046.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46044.39027777778</v>
+        <v>46046.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46044.40069444444</v>
+        <v>46046.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46044.41111111111</v>
+        <v>46046.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46044.42152777778</v>
+        <v>46046.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46044.43194444444</v>
+        <v>46046.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46044.44236111111</v>
+        <v>46046.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46044.45277777778</v>
+        <v>46046.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46044.46319444444</v>
+        <v>46046.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46044.47361111111</v>
+        <v>46046.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46044.48402777778</v>
+        <v>46046.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46044.49444444444</v>
+        <v>46046.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46044.50486111111</v>
+        <v>46046.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46044.51527777778</v>
+        <v>46046.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46044.52569444444</v>
+        <v>46046.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46044.53611111111</v>
+        <v>46046.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46044.54652777778</v>
+        <v>46046.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46044.55694444444</v>
+        <v>46046.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46044.56736111111</v>
+        <v>46046.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46044.57777777778</v>
+        <v>46046.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46044.58819444444</v>
+        <v>46046.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46044.59861111111</v>
+        <v>46046.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46044.60902777778</v>
+        <v>46046.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46044.61944444444</v>
+        <v>46046.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46044.62986111111</v>
+        <v>46046.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46044.64027777778</v>
+        <v>46046.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46044.65069444444</v>
+        <v>46046.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46044.66111111111</v>
+        <v>46046.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46044.67152777778</v>
+        <v>46046.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46044.68194444444</v>
+        <v>46046.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46044.69236111111</v>
+        <v>46046.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46044.70277777778</v>
+        <v>46046.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46044.71319444444</v>
+        <v>46046.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46044.72361111111</v>
+        <v>46046.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46044.73402777778</v>
+        <v>46046.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46044.74444444444</v>
+        <v>46046.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46044.75486111111</v>
+        <v>46046.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46044.76527777778</v>
+        <v>46046.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46044.77569444444</v>
+        <v>46046.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46044.78611111111</v>
+        <v>46046.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46044.79652777778</v>
+        <v>46046.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46044.80694444444</v>
+        <v>46046.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46044.81736111111</v>
+        <v>46046.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46044.82777777778</v>
+        <v>46046.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46044.83819444444</v>
+        <v>46046.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46044.84861111111</v>
+        <v>46046.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46044.85902777778</v>
+        <v>46046.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46044.86944444444</v>
+        <v>46046.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46044.87986111111</v>
+        <v>46046.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46044.89027777778</v>
+        <v>46046.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46044.90069444444</v>
+        <v>46046.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46044.91111111111</v>
+        <v>46046.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46044.92152777778</v>
+        <v>46046.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46044.93194444444</v>
+        <v>46046.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46044.94236111111</v>
+        <v>46046.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46044.95277777778</v>
+        <v>46046.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46044.96319444444</v>
+        <v>46046.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46044.97361111111</v>
+        <v>46046.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46044.98402777778</v>
+        <v>46046.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46044.99444444444</v>
+        <v>46046.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.01.20261</t>
-  </si>
-  <si>
-    <t>23.01.20262</t>
-  </si>
-  <si>
-    <t>23.01.20263</t>
-  </si>
-  <si>
-    <t>23.01.20264</t>
-  </si>
-  <si>
-    <t>23.01.20265</t>
-  </si>
-  <si>
-    <t>23.01.20266</t>
-  </si>
-  <si>
-    <t>23.01.20267</t>
-  </si>
-  <si>
-    <t>23.01.20268</t>
-  </si>
-  <si>
-    <t>23.01.20269</t>
-  </si>
-  <si>
-    <t>23.01.202610</t>
-  </si>
-  <si>
-    <t>23.01.202611</t>
-  </si>
-  <si>
-    <t>23.01.202612</t>
-  </si>
-  <si>
-    <t>23.01.202613</t>
-  </si>
-  <si>
-    <t>23.01.202614</t>
-  </si>
-  <si>
-    <t>23.01.202615</t>
-  </si>
-  <si>
-    <t>23.01.202616</t>
-  </si>
-  <si>
-    <t>23.01.202617</t>
-  </si>
-  <si>
-    <t>23.01.202618</t>
-  </si>
-  <si>
-    <t>23.01.202619</t>
-  </si>
-  <si>
-    <t>23.01.202620</t>
-  </si>
-  <si>
-    <t>23.01.202621</t>
-  </si>
-  <si>
-    <t>23.01.202622</t>
-  </si>
-  <si>
-    <t>23.01.202623</t>
-  </si>
-  <si>
-    <t>23.01.202624</t>
-  </si>
-  <si>
-    <t>23.01.202625</t>
-  </si>
-  <si>
-    <t>23.01.202626</t>
-  </si>
-  <si>
-    <t>23.01.202627</t>
-  </si>
-  <si>
-    <t>23.01.202628</t>
-  </si>
-  <si>
-    <t>23.01.202629</t>
-  </si>
-  <si>
-    <t>23.01.202630</t>
-  </si>
-  <si>
-    <t>23.01.202631</t>
-  </si>
-  <si>
-    <t>23.01.202632</t>
-  </si>
-  <si>
-    <t>23.01.202633</t>
-  </si>
-  <si>
-    <t>23.01.202634</t>
-  </si>
-  <si>
-    <t>23.01.202635</t>
-  </si>
-  <si>
-    <t>23.01.202636</t>
-  </si>
-  <si>
-    <t>23.01.202637</t>
-  </si>
-  <si>
-    <t>23.01.202638</t>
-  </si>
-  <si>
-    <t>23.01.202639</t>
-  </si>
-  <si>
-    <t>23.01.202640</t>
-  </si>
-  <si>
-    <t>23.01.202641</t>
-  </si>
-  <si>
-    <t>23.01.202642</t>
-  </si>
-  <si>
-    <t>23.01.202643</t>
-  </si>
-  <si>
-    <t>23.01.202644</t>
-  </si>
-  <si>
-    <t>23.01.202645</t>
-  </si>
-  <si>
-    <t>23.01.202646</t>
-  </si>
-  <si>
-    <t>23.01.202647</t>
-  </si>
-  <si>
-    <t>23.01.202648</t>
-  </si>
-  <si>
-    <t>23.01.202649</t>
-  </si>
-  <si>
-    <t>23.01.202650</t>
-  </si>
-  <si>
-    <t>23.01.202651</t>
-  </si>
-  <si>
-    <t>23.01.202652</t>
-  </si>
-  <si>
-    <t>23.01.202653</t>
-  </si>
-  <si>
-    <t>23.01.202654</t>
-  </si>
-  <si>
-    <t>23.01.202655</t>
-  </si>
-  <si>
-    <t>23.01.202656</t>
-  </si>
-  <si>
-    <t>23.01.202657</t>
-  </si>
-  <si>
-    <t>23.01.202658</t>
-  </si>
-  <si>
-    <t>23.01.202659</t>
-  </si>
-  <si>
-    <t>23.01.202660</t>
-  </si>
-  <si>
-    <t>23.01.202661</t>
-  </si>
-  <si>
-    <t>23.01.202662</t>
-  </si>
-  <si>
-    <t>23.01.202663</t>
-  </si>
-  <si>
-    <t>23.01.202664</t>
-  </si>
-  <si>
-    <t>23.01.202665</t>
-  </si>
-  <si>
-    <t>23.01.202666</t>
-  </si>
-  <si>
-    <t>23.01.202667</t>
-  </si>
-  <si>
-    <t>23.01.202668</t>
-  </si>
-  <si>
-    <t>23.01.202669</t>
-  </si>
-  <si>
-    <t>23.01.202670</t>
-  </si>
-  <si>
-    <t>23.01.202671</t>
-  </si>
-  <si>
-    <t>23.01.202672</t>
-  </si>
-  <si>
-    <t>23.01.202673</t>
-  </si>
-  <si>
-    <t>23.01.202674</t>
-  </si>
-  <si>
-    <t>23.01.202675</t>
-  </si>
-  <si>
-    <t>23.01.202676</t>
-  </si>
-  <si>
-    <t>23.01.202677</t>
-  </si>
-  <si>
-    <t>23.01.202678</t>
-  </si>
-  <si>
-    <t>23.01.202679</t>
-  </si>
-  <si>
-    <t>23.01.202680</t>
-  </si>
-  <si>
-    <t>23.01.202681</t>
-  </si>
-  <si>
-    <t>23.01.202682</t>
-  </si>
-  <si>
-    <t>23.01.202683</t>
-  </si>
-  <si>
-    <t>23.01.202684</t>
-  </si>
-  <si>
-    <t>23.01.202685</t>
-  </si>
-  <si>
-    <t>23.01.202686</t>
-  </si>
-  <si>
-    <t>23.01.202687</t>
-  </si>
-  <si>
-    <t>23.01.202688</t>
-  </si>
-  <si>
-    <t>23.01.202689</t>
-  </si>
-  <si>
-    <t>23.01.202690</t>
-  </si>
-  <si>
-    <t>23.01.202691</t>
-  </si>
-  <si>
-    <t>23.01.202692</t>
-  </si>
-  <si>
-    <t>23.01.202693</t>
-  </si>
-  <si>
-    <t>23.01.202694</t>
-  </si>
-  <si>
-    <t>23.01.202695</t>
-  </si>
-  <si>
-    <t>23.01.202696</t>
-  </si>
-  <si>
-    <t>24.01.20261</t>
-  </si>
-  <si>
-    <t>24.01.20262</t>
-  </si>
-  <si>
-    <t>24.01.20263</t>
-  </si>
-  <si>
-    <t>24.01.20264</t>
-  </si>
-  <si>
-    <t>24.01.20265</t>
-  </si>
-  <si>
-    <t>24.01.20266</t>
-  </si>
-  <si>
-    <t>24.01.20267</t>
-  </si>
-  <si>
-    <t>24.01.20268</t>
-  </si>
-  <si>
-    <t>24.01.20269</t>
-  </si>
-  <si>
-    <t>24.01.202610</t>
-  </si>
-  <si>
-    <t>24.01.202611</t>
-  </si>
-  <si>
-    <t>24.01.202612</t>
-  </si>
-  <si>
-    <t>24.01.202613</t>
-  </si>
-  <si>
-    <t>24.01.202614</t>
-  </si>
-  <si>
-    <t>24.01.202615</t>
-  </si>
-  <si>
-    <t>24.01.202616</t>
-  </si>
-  <si>
-    <t>24.01.202617</t>
-  </si>
-  <si>
-    <t>24.01.202618</t>
-  </si>
-  <si>
-    <t>24.01.202619</t>
-  </si>
-  <si>
-    <t>24.01.202620</t>
-  </si>
-  <si>
-    <t>24.01.202621</t>
-  </si>
-  <si>
-    <t>24.01.202622</t>
-  </si>
-  <si>
-    <t>24.01.202623</t>
-  </si>
-  <si>
-    <t>24.01.202624</t>
-  </si>
-  <si>
-    <t>24.01.202625</t>
-  </si>
-  <si>
-    <t>24.01.202626</t>
-  </si>
-  <si>
-    <t>24.01.202627</t>
-  </si>
-  <si>
-    <t>24.01.202628</t>
-  </si>
-  <si>
-    <t>24.01.202629</t>
-  </si>
-  <si>
-    <t>24.01.202630</t>
-  </si>
-  <si>
-    <t>24.01.202631</t>
-  </si>
-  <si>
-    <t>24.01.202632</t>
-  </si>
-  <si>
-    <t>24.01.202633</t>
-  </si>
-  <si>
-    <t>24.01.202634</t>
-  </si>
-  <si>
-    <t>24.01.202635</t>
-  </si>
-  <si>
-    <t>24.01.202636</t>
-  </si>
-  <si>
-    <t>24.01.202637</t>
-  </si>
-  <si>
-    <t>24.01.202638</t>
-  </si>
-  <si>
-    <t>24.01.202639</t>
-  </si>
-  <si>
-    <t>24.01.202640</t>
-  </si>
-  <si>
-    <t>24.01.202641</t>
-  </si>
-  <si>
-    <t>24.01.202642</t>
-  </si>
-  <si>
-    <t>24.01.202643</t>
-  </si>
-  <si>
-    <t>24.01.202644</t>
-  </si>
-  <si>
-    <t>24.01.202645</t>
-  </si>
-  <si>
-    <t>24.01.202646</t>
-  </si>
-  <si>
-    <t>24.01.202647</t>
-  </si>
-  <si>
-    <t>24.01.202648</t>
-  </si>
-  <si>
-    <t>24.01.202649</t>
-  </si>
-  <si>
-    <t>24.01.202650</t>
-  </si>
-  <si>
-    <t>24.01.202651</t>
-  </si>
-  <si>
-    <t>24.01.202652</t>
-  </si>
-  <si>
-    <t>24.01.202653</t>
-  </si>
-  <si>
-    <t>24.01.202654</t>
-  </si>
-  <si>
-    <t>24.01.202655</t>
-  </si>
-  <si>
-    <t>24.01.202656</t>
-  </si>
-  <si>
-    <t>24.01.202657</t>
-  </si>
-  <si>
-    <t>24.01.202658</t>
-  </si>
-  <si>
-    <t>24.01.202659</t>
-  </si>
-  <si>
-    <t>24.01.202660</t>
-  </si>
-  <si>
-    <t>24.01.202661</t>
-  </si>
-  <si>
-    <t>24.01.202662</t>
-  </si>
-  <si>
-    <t>24.01.202663</t>
-  </si>
-  <si>
-    <t>24.01.202664</t>
-  </si>
-  <si>
-    <t>24.01.202665</t>
-  </si>
-  <si>
-    <t>24.01.202666</t>
-  </si>
-  <si>
-    <t>24.01.202667</t>
-  </si>
-  <si>
-    <t>24.01.202668</t>
-  </si>
-  <si>
-    <t>24.01.202669</t>
-  </si>
-  <si>
-    <t>24.01.202670</t>
-  </si>
-  <si>
-    <t>24.01.202671</t>
-  </si>
-  <si>
-    <t>24.01.202672</t>
-  </si>
-  <si>
-    <t>24.01.202673</t>
-  </si>
-  <si>
-    <t>24.01.202674</t>
-  </si>
-  <si>
-    <t>24.01.202675</t>
-  </si>
-  <si>
-    <t>24.01.202676</t>
-  </si>
-  <si>
-    <t>24.01.202677</t>
-  </si>
-  <si>
-    <t>24.01.202678</t>
-  </si>
-  <si>
-    <t>24.01.202679</t>
-  </si>
-  <si>
-    <t>24.01.202680</t>
-  </si>
-  <si>
-    <t>24.01.202681</t>
-  </si>
-  <si>
-    <t>24.01.202682</t>
-  </si>
-  <si>
-    <t>24.01.202683</t>
-  </si>
-  <si>
-    <t>24.01.202684</t>
-  </si>
-  <si>
-    <t>24.01.202685</t>
-  </si>
-  <si>
-    <t>24.01.202686</t>
-  </si>
-  <si>
-    <t>24.01.202687</t>
-  </si>
-  <si>
-    <t>24.01.202688</t>
-  </si>
-  <si>
-    <t>24.01.202689</t>
-  </si>
-  <si>
-    <t>24.01.202690</t>
-  </si>
-  <si>
-    <t>24.01.202691</t>
-  </si>
-  <si>
-    <t>24.01.202692</t>
-  </si>
-  <si>
-    <t>24.01.202693</t>
-  </si>
-  <si>
-    <t>24.01.202694</t>
-  </si>
-  <si>
-    <t>24.01.202695</t>
-  </si>
-  <si>
-    <t>24.01.202696</t>
+    <t>25.01.20261</t>
+  </si>
+  <si>
+    <t>25.01.20262</t>
+  </si>
+  <si>
+    <t>25.01.20263</t>
+  </si>
+  <si>
+    <t>25.01.20264</t>
+  </si>
+  <si>
+    <t>25.01.20265</t>
+  </si>
+  <si>
+    <t>25.01.20266</t>
+  </si>
+  <si>
+    <t>25.01.20267</t>
+  </si>
+  <si>
+    <t>25.01.20268</t>
+  </si>
+  <si>
+    <t>25.01.20269</t>
+  </si>
+  <si>
+    <t>25.01.202610</t>
+  </si>
+  <si>
+    <t>25.01.202611</t>
+  </si>
+  <si>
+    <t>25.01.202612</t>
+  </si>
+  <si>
+    <t>25.01.202613</t>
+  </si>
+  <si>
+    <t>25.01.202614</t>
+  </si>
+  <si>
+    <t>25.01.202615</t>
+  </si>
+  <si>
+    <t>25.01.202616</t>
+  </si>
+  <si>
+    <t>25.01.202617</t>
+  </si>
+  <si>
+    <t>25.01.202618</t>
+  </si>
+  <si>
+    <t>25.01.202619</t>
+  </si>
+  <si>
+    <t>25.01.202620</t>
+  </si>
+  <si>
+    <t>25.01.202621</t>
+  </si>
+  <si>
+    <t>25.01.202622</t>
+  </si>
+  <si>
+    <t>25.01.202623</t>
+  </si>
+  <si>
+    <t>25.01.202624</t>
+  </si>
+  <si>
+    <t>25.01.202625</t>
+  </si>
+  <si>
+    <t>25.01.202626</t>
+  </si>
+  <si>
+    <t>25.01.202627</t>
+  </si>
+  <si>
+    <t>25.01.202628</t>
+  </si>
+  <si>
+    <t>25.01.202629</t>
+  </si>
+  <si>
+    <t>25.01.202630</t>
+  </si>
+  <si>
+    <t>25.01.202631</t>
+  </si>
+  <si>
+    <t>25.01.202632</t>
+  </si>
+  <si>
+    <t>25.01.202633</t>
+  </si>
+  <si>
+    <t>25.01.202634</t>
+  </si>
+  <si>
+    <t>25.01.202635</t>
+  </si>
+  <si>
+    <t>25.01.202636</t>
+  </si>
+  <si>
+    <t>25.01.202637</t>
+  </si>
+  <si>
+    <t>25.01.202638</t>
+  </si>
+  <si>
+    <t>25.01.202639</t>
+  </si>
+  <si>
+    <t>25.01.202640</t>
+  </si>
+  <si>
+    <t>25.01.202641</t>
+  </si>
+  <si>
+    <t>25.01.202642</t>
+  </si>
+  <si>
+    <t>25.01.202643</t>
+  </si>
+  <si>
+    <t>25.01.202644</t>
+  </si>
+  <si>
+    <t>25.01.202645</t>
+  </si>
+  <si>
+    <t>25.01.202646</t>
+  </si>
+  <si>
+    <t>25.01.202647</t>
+  </si>
+  <si>
+    <t>25.01.202648</t>
+  </si>
+  <si>
+    <t>25.01.202649</t>
+  </si>
+  <si>
+    <t>25.01.202650</t>
+  </si>
+  <si>
+    <t>25.01.202651</t>
+  </si>
+  <si>
+    <t>25.01.202652</t>
+  </si>
+  <si>
+    <t>25.01.202653</t>
+  </si>
+  <si>
+    <t>25.01.202654</t>
+  </si>
+  <si>
+    <t>25.01.202655</t>
+  </si>
+  <si>
+    <t>25.01.202656</t>
+  </si>
+  <si>
+    <t>25.01.202657</t>
+  </si>
+  <si>
+    <t>25.01.202658</t>
+  </si>
+  <si>
+    <t>25.01.202659</t>
+  </si>
+  <si>
+    <t>25.01.202660</t>
+  </si>
+  <si>
+    <t>25.01.202661</t>
+  </si>
+  <si>
+    <t>25.01.202662</t>
+  </si>
+  <si>
+    <t>25.01.202663</t>
+  </si>
+  <si>
+    <t>25.01.202664</t>
+  </si>
+  <si>
+    <t>25.01.202665</t>
+  </si>
+  <si>
+    <t>25.01.202666</t>
+  </si>
+  <si>
+    <t>25.01.202667</t>
+  </si>
+  <si>
+    <t>25.01.202668</t>
+  </si>
+  <si>
+    <t>25.01.202669</t>
+  </si>
+  <si>
+    <t>25.01.202670</t>
+  </si>
+  <si>
+    <t>25.01.202671</t>
+  </si>
+  <si>
+    <t>25.01.202672</t>
+  </si>
+  <si>
+    <t>25.01.202673</t>
+  </si>
+  <si>
+    <t>25.01.202674</t>
+  </si>
+  <si>
+    <t>25.01.202675</t>
+  </si>
+  <si>
+    <t>25.01.202676</t>
+  </si>
+  <si>
+    <t>25.01.202677</t>
+  </si>
+  <si>
+    <t>25.01.202678</t>
+  </si>
+  <si>
+    <t>25.01.202679</t>
+  </si>
+  <si>
+    <t>25.01.202680</t>
+  </si>
+  <si>
+    <t>25.01.202681</t>
+  </si>
+  <si>
+    <t>25.01.202682</t>
+  </si>
+  <si>
+    <t>25.01.202683</t>
+  </si>
+  <si>
+    <t>25.01.202684</t>
+  </si>
+  <si>
+    <t>25.01.202685</t>
+  </si>
+  <si>
+    <t>25.01.202686</t>
+  </si>
+  <si>
+    <t>25.01.202687</t>
+  </si>
+  <si>
+    <t>25.01.202688</t>
+  </si>
+  <si>
+    <t>25.01.202689</t>
+  </si>
+  <si>
+    <t>25.01.202690</t>
+  </si>
+  <si>
+    <t>25.01.202691</t>
+  </si>
+  <si>
+    <t>25.01.202692</t>
+  </si>
+  <si>
+    <t>25.01.202693</t>
+  </si>
+  <si>
+    <t>25.01.202694</t>
+  </si>
+  <si>
+    <t>25.01.202695</t>
+  </si>
+  <si>
+    <t>25.01.202696</t>
+  </si>
+  <si>
+    <t>26.01.20261</t>
+  </si>
+  <si>
+    <t>26.01.20262</t>
+  </si>
+  <si>
+    <t>26.01.20263</t>
+  </si>
+  <si>
+    <t>26.01.20264</t>
+  </si>
+  <si>
+    <t>26.01.20265</t>
+  </si>
+  <si>
+    <t>26.01.20266</t>
+  </si>
+  <si>
+    <t>26.01.20267</t>
+  </si>
+  <si>
+    <t>26.01.20268</t>
+  </si>
+  <si>
+    <t>26.01.20269</t>
+  </si>
+  <si>
+    <t>26.01.202610</t>
+  </si>
+  <si>
+    <t>26.01.202611</t>
+  </si>
+  <si>
+    <t>26.01.202612</t>
+  </si>
+  <si>
+    <t>26.01.202613</t>
+  </si>
+  <si>
+    <t>26.01.202614</t>
+  </si>
+  <si>
+    <t>26.01.202615</t>
+  </si>
+  <si>
+    <t>26.01.202616</t>
+  </si>
+  <si>
+    <t>26.01.202617</t>
+  </si>
+  <si>
+    <t>26.01.202618</t>
+  </si>
+  <si>
+    <t>26.01.202619</t>
+  </si>
+  <si>
+    <t>26.01.202620</t>
+  </si>
+  <si>
+    <t>26.01.202621</t>
+  </si>
+  <si>
+    <t>26.01.202622</t>
+  </si>
+  <si>
+    <t>26.01.202623</t>
+  </si>
+  <si>
+    <t>26.01.202624</t>
+  </si>
+  <si>
+    <t>26.01.202625</t>
+  </si>
+  <si>
+    <t>26.01.202626</t>
+  </si>
+  <si>
+    <t>26.01.202627</t>
+  </si>
+  <si>
+    <t>26.01.202628</t>
+  </si>
+  <si>
+    <t>26.01.202629</t>
+  </si>
+  <si>
+    <t>26.01.202630</t>
+  </si>
+  <si>
+    <t>26.01.202631</t>
+  </si>
+  <si>
+    <t>26.01.202632</t>
+  </si>
+  <si>
+    <t>26.01.202633</t>
+  </si>
+  <si>
+    <t>26.01.202634</t>
+  </si>
+  <si>
+    <t>26.01.202635</t>
+  </si>
+  <si>
+    <t>26.01.202636</t>
+  </si>
+  <si>
+    <t>26.01.202637</t>
+  </si>
+  <si>
+    <t>26.01.202638</t>
+  </si>
+  <si>
+    <t>26.01.202639</t>
+  </si>
+  <si>
+    <t>26.01.202640</t>
+  </si>
+  <si>
+    <t>26.01.202641</t>
+  </si>
+  <si>
+    <t>26.01.202642</t>
+  </si>
+  <si>
+    <t>26.01.202643</t>
+  </si>
+  <si>
+    <t>26.01.202644</t>
+  </si>
+  <si>
+    <t>26.01.202645</t>
+  </si>
+  <si>
+    <t>26.01.202646</t>
+  </si>
+  <si>
+    <t>26.01.202647</t>
+  </si>
+  <si>
+    <t>26.01.202648</t>
+  </si>
+  <si>
+    <t>26.01.202649</t>
+  </si>
+  <si>
+    <t>26.01.202650</t>
+  </si>
+  <si>
+    <t>26.01.202651</t>
+  </si>
+  <si>
+    <t>26.01.202652</t>
+  </si>
+  <si>
+    <t>26.01.202653</t>
+  </si>
+  <si>
+    <t>26.01.202654</t>
+  </si>
+  <si>
+    <t>26.01.202655</t>
+  </si>
+  <si>
+    <t>26.01.202656</t>
+  </si>
+  <si>
+    <t>26.01.202657</t>
+  </si>
+  <si>
+    <t>26.01.202658</t>
+  </si>
+  <si>
+    <t>26.01.202659</t>
+  </si>
+  <si>
+    <t>26.01.202660</t>
+  </si>
+  <si>
+    <t>26.01.202661</t>
+  </si>
+  <si>
+    <t>26.01.202662</t>
+  </si>
+  <si>
+    <t>26.01.202663</t>
+  </si>
+  <si>
+    <t>26.01.202664</t>
+  </si>
+  <si>
+    <t>26.01.202665</t>
+  </si>
+  <si>
+    <t>26.01.202666</t>
+  </si>
+  <si>
+    <t>26.01.202667</t>
+  </si>
+  <si>
+    <t>26.01.202668</t>
+  </si>
+  <si>
+    <t>26.01.202669</t>
+  </si>
+  <si>
+    <t>26.01.202670</t>
+  </si>
+  <si>
+    <t>26.01.202671</t>
+  </si>
+  <si>
+    <t>26.01.202672</t>
+  </si>
+  <si>
+    <t>26.01.202673</t>
+  </si>
+  <si>
+    <t>26.01.202674</t>
+  </si>
+  <si>
+    <t>26.01.202675</t>
+  </si>
+  <si>
+    <t>26.01.202676</t>
+  </si>
+  <si>
+    <t>26.01.202677</t>
+  </si>
+  <si>
+    <t>26.01.202678</t>
+  </si>
+  <si>
+    <t>26.01.202679</t>
+  </si>
+  <si>
+    <t>26.01.202680</t>
+  </si>
+  <si>
+    <t>26.01.202681</t>
+  </si>
+  <si>
+    <t>26.01.202682</t>
+  </si>
+  <si>
+    <t>26.01.202683</t>
+  </si>
+  <si>
+    <t>26.01.202684</t>
+  </si>
+  <si>
+    <t>26.01.202685</t>
+  </si>
+  <si>
+    <t>26.01.202686</t>
+  </si>
+  <si>
+    <t>26.01.202687</t>
+  </si>
+  <si>
+    <t>26.01.202688</t>
+  </si>
+  <si>
+    <t>26.01.202689</t>
+  </si>
+  <si>
+    <t>26.01.202690</t>
+  </si>
+  <si>
+    <t>26.01.202691</t>
+  </si>
+  <si>
+    <t>26.01.202692</t>
+  </si>
+  <si>
+    <t>26.01.202693</t>
+  </si>
+  <si>
+    <t>26.01.202694</t>
+  </si>
+  <si>
+    <t>26.01.202695</t>
+  </si>
+  <si>
+    <t>26.01.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46045.00486111111</v>
+        <v>46047.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46045.01527777778</v>
+        <v>46047.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46045.02569444444</v>
+        <v>46047.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46045.03611111111</v>
+        <v>46047.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46045.04652777778</v>
+        <v>46047.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46045.05694444444</v>
+        <v>46047.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46045.06736111111</v>
+        <v>46047.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46045.07777777778</v>
+        <v>46047.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46045.08819444444</v>
+        <v>46047.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46045.09861111111</v>
+        <v>46047.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46045.10902777778</v>
+        <v>46047.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46045.11944444444</v>
+        <v>46047.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46045.12986111111</v>
+        <v>46047.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46045.14027777778</v>
+        <v>46047.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46045.15069444444</v>
+        <v>46047.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46045.16111111111</v>
+        <v>46047.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46045.17152777778</v>
+        <v>46047.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46045.18194444444</v>
+        <v>46047.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46045.19236111111</v>
+        <v>46047.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46045.20277777778</v>
+        <v>46047.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46045.21319444444</v>
+        <v>46047.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46045.22361111111</v>
+        <v>46047.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46045.23402777778</v>
+        <v>46047.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46045.24444444444</v>
+        <v>46047.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46045.25486111111</v>
+        <v>46047.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46045.26527777778</v>
+        <v>46047.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46045.27569444444</v>
+        <v>46047.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46045.28611111111</v>
+        <v>46047.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46045.29652777778</v>
+        <v>46047.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46045.30694444444</v>
+        <v>46047.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46045.31736111111</v>
+        <v>46047.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46045.32777777778</v>
+        <v>46047.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46045.33819444444</v>
+        <v>46047.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46045.34861111111</v>
+        <v>46047.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46045.35902777778</v>
+        <v>46047.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46045.36944444444</v>
+        <v>46047.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46045.37986111111</v>
+        <v>46047.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46045.39027777778</v>
+        <v>46047.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46045.40069444444</v>
+        <v>46047.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46045.41111111111</v>
+        <v>46047.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46045.42152777778</v>
+        <v>46047.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46045.43194444444</v>
+        <v>46047.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46045.44236111111</v>
+        <v>46047.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46045.45277777778</v>
+        <v>46047.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46045.46319444444</v>
+        <v>46047.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46045.47361111111</v>
+        <v>46047.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46045.48402777778</v>
+        <v>46047.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46045.49444444444</v>
+        <v>46047.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46045.50486111111</v>
+        <v>46047.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46045.51527777778</v>
+        <v>46047.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46045.52569444444</v>
+        <v>46047.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46045.53611111111</v>
+        <v>46047.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46045.54652777778</v>
+        <v>46047.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46045.55694444444</v>
+        <v>46047.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46045.56736111111</v>
+        <v>46047.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46045.57777777778</v>
+        <v>46047.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46045.58819444444</v>
+        <v>46047.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46045.59861111111</v>
+        <v>46047.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46045.60902777778</v>
+        <v>46047.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46045.61944444444</v>
+        <v>46047.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46045.62986111111</v>
+        <v>46047.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46045.64027777778</v>
+        <v>46047.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46045.65069444444</v>
+        <v>46047.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46045.66111111111</v>
+        <v>46047.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46045.67152777778</v>
+        <v>46047.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46045.68194444444</v>
+        <v>46047.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46045.69236111111</v>
+        <v>46047.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46045.70277777778</v>
+        <v>46047.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46045.71319444444</v>
+        <v>46047.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46045.72361111111</v>
+        <v>46047.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46045.73402777778</v>
+        <v>46047.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46045.74444444444</v>
+        <v>46047.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46045.75486111111</v>
+        <v>46047.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46045.76527777778</v>
+        <v>46047.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46045.77569444444</v>
+        <v>46047.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46045.78611111111</v>
+        <v>46047.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46045.79652777778</v>
+        <v>46047.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46045.80694444444</v>
+        <v>46047.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46045.81736111111</v>
+        <v>46047.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46045.82777777778</v>
+        <v>46047.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46045.83819444444</v>
+        <v>46047.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46045.84861111111</v>
+        <v>46047.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46045.85902777778</v>
+        <v>46047.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46045.86944444444</v>
+        <v>46047.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46045.87986111111</v>
+        <v>46047.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46045.89027777778</v>
+        <v>46047.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46045.90069444444</v>
+        <v>46047.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46045.91111111111</v>
+        <v>46047.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46045.92152777778</v>
+        <v>46047.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46045.92152777778</v>
+        <v>46047.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46045.93194444444</v>
+        <v>46047.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46045.93194444444</v>
+        <v>46047.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46045.94236111111</v>
+        <v>46047.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46045.94236111111</v>
+        <v>46047.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46045.95277777778</v>
+        <v>46047.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46045.95277777778</v>
+        <v>46047.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46045.96319444444</v>
+        <v>46047.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46045.96319444444</v>
+        <v>46047.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46045.97361111111</v>
+        <v>46047.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46045.97361111111</v>
+        <v>46047.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46045.98402777778</v>
+        <v>46047.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46045.98402777778</v>
+        <v>46047.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46045.99444444444</v>
+        <v>46047.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46045.99444444444</v>
+        <v>46047.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46046.00486111111</v>
+        <v>46048.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46046.01527777778</v>
+        <v>46048.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46046.02569444444</v>
+        <v>46048.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46046.03611111111</v>
+        <v>46048.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46046.04652777778</v>
+        <v>46048.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46046.05694444444</v>
+        <v>46048.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46046.06736111111</v>
+        <v>46048.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46046.07777777778</v>
+        <v>46048.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46046.08819444444</v>
+        <v>46048.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46046.09861111111</v>
+        <v>46048.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46046.10902777778</v>
+        <v>46048.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46046.11944444444</v>
+        <v>46048.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46046.12986111111</v>
+        <v>46048.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46046.14027777778</v>
+        <v>46048.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46046.15069444444</v>
+        <v>46048.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46046.16111111111</v>
+        <v>46048.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46046.17152777778</v>
+        <v>46048.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46046.18194444444</v>
+        <v>46048.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46046.19236111111</v>
+        <v>46048.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46046.20277777778</v>
+        <v>46048.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46046.21319444444</v>
+        <v>46048.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46046.22361111111</v>
+        <v>46048.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46046.23402777778</v>
+        <v>46048.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46046.24444444444</v>
+        <v>46048.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46046.25486111111</v>
+        <v>46048.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46046.26527777778</v>
+        <v>46048.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46046.27569444444</v>
+        <v>46048.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46046.28611111111</v>
+        <v>46048.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46046.29652777778</v>
+        <v>46048.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46046.30694444444</v>
+        <v>46048.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46046.31736111111</v>
+        <v>46048.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46046.32777777778</v>
+        <v>46048.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46046.33819444444</v>
+        <v>46048.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46046.34861111111</v>
+        <v>46048.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46046.35902777778</v>
+        <v>46048.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46046.36944444444</v>
+        <v>46048.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46046.37986111111</v>
+        <v>46048.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46046.39027777778</v>
+        <v>46048.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46046.40069444444</v>
+        <v>46048.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46046.41111111111</v>
+        <v>46048.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46046.42152777778</v>
+        <v>46048.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46046.43194444444</v>
+        <v>46048.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46046.44236111111</v>
+        <v>46048.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46046.45277777778</v>
+        <v>46048.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46046.46319444444</v>
+        <v>46048.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46046.47361111111</v>
+        <v>46048.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46046.48402777778</v>
+        <v>46048.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46046.49444444444</v>
+        <v>46048.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46046.50486111111</v>
+        <v>46048.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46046.51527777778</v>
+        <v>46048.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46046.52569444444</v>
+        <v>46048.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46046.53611111111</v>
+        <v>46048.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46046.54652777778</v>
+        <v>46048.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46046.55694444444</v>
+        <v>46048.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46046.56736111111</v>
+        <v>46048.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46046.57777777778</v>
+        <v>46048.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46046.58819444444</v>
+        <v>46048.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46046.59861111111</v>
+        <v>46048.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46046.60902777778</v>
+        <v>46048.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46046.61944444444</v>
+        <v>46048.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46046.62986111111</v>
+        <v>46048.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46046.64027777778</v>
+        <v>46048.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46046.65069444444</v>
+        <v>46048.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46046.66111111111</v>
+        <v>46048.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46046.67152777778</v>
+        <v>46048.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46046.68194444444</v>
+        <v>46048.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46046.69236111111</v>
+        <v>46048.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46046.70277777778</v>
+        <v>46048.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46046.71319444444</v>
+        <v>46048.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46046.72361111111</v>
+        <v>46048.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46046.73402777778</v>
+        <v>46048.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46046.74444444444</v>
+        <v>46048.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46046.75486111111</v>
+        <v>46048.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46046.76527777778</v>
+        <v>46048.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46046.77569444444</v>
+        <v>46048.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46046.78611111111</v>
+        <v>46048.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46046.79652777778</v>
+        <v>46048.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46046.80694444444</v>
+        <v>46048.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46046.81736111111</v>
+        <v>46048.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46046.82777777778</v>
+        <v>46048.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46046.83819444444</v>
+        <v>46048.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46046.84861111111</v>
+        <v>46048.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46046.85902777778</v>
+        <v>46048.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46046.86944444444</v>
+        <v>46048.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46046.87986111111</v>
+        <v>46048.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46046.89027777778</v>
+        <v>46048.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46046.90069444444</v>
+        <v>46048.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46046.91111111111</v>
+        <v>46048.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46046.92152777778</v>
+        <v>46048.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46046.93194444444</v>
+        <v>46048.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46046.94236111111</v>
+        <v>46048.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46046.95277777778</v>
+        <v>46048.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46046.96319444444</v>
+        <v>46048.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46046.97361111111</v>
+        <v>46048.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46046.98402777778</v>
+        <v>46048.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46046.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>25.01.20261</t>
-  </si>
-  <si>
-    <t>25.01.20262</t>
-  </si>
-  <si>
-    <t>25.01.20263</t>
-  </si>
-  <si>
-    <t>25.01.20264</t>
-  </si>
-  <si>
-    <t>25.01.20265</t>
-  </si>
-  <si>
-    <t>25.01.20266</t>
-  </si>
-  <si>
-    <t>25.01.20267</t>
-  </si>
-  <si>
-    <t>25.01.20268</t>
-  </si>
-  <si>
-    <t>25.01.20269</t>
-  </si>
-  <si>
-    <t>25.01.202610</t>
-  </si>
-  <si>
-    <t>25.01.202611</t>
-  </si>
-  <si>
-    <t>25.01.202612</t>
-  </si>
-  <si>
-    <t>25.01.202613</t>
-  </si>
-  <si>
-    <t>25.01.202614</t>
-  </si>
-  <si>
-    <t>25.01.202615</t>
-  </si>
-  <si>
-    <t>25.01.202616</t>
-  </si>
-  <si>
-    <t>25.01.202617</t>
-  </si>
-  <si>
-    <t>25.01.202618</t>
-  </si>
-  <si>
-    <t>25.01.202619</t>
-  </si>
-  <si>
-    <t>25.01.202620</t>
-  </si>
-  <si>
-    <t>25.01.202621</t>
-  </si>
-  <si>
-    <t>25.01.202622</t>
-  </si>
-  <si>
-    <t>25.01.202623</t>
-  </si>
-  <si>
-    <t>25.01.202624</t>
-  </si>
-  <si>
-    <t>25.01.202625</t>
-  </si>
-  <si>
-    <t>25.01.202626</t>
-  </si>
-  <si>
-    <t>25.01.202627</t>
-  </si>
-  <si>
-    <t>25.01.202628</t>
-  </si>
-  <si>
-    <t>25.01.202629</t>
-  </si>
-  <si>
-    <t>25.01.202630</t>
-  </si>
-  <si>
-    <t>25.01.202631</t>
-  </si>
-  <si>
-    <t>25.01.202632</t>
-  </si>
-  <si>
-    <t>25.01.202633</t>
-  </si>
-  <si>
-    <t>25.01.202634</t>
-  </si>
-  <si>
-    <t>25.01.202635</t>
-  </si>
-  <si>
-    <t>25.01.202636</t>
-  </si>
-  <si>
-    <t>25.01.202637</t>
-  </si>
-  <si>
-    <t>25.01.202638</t>
-  </si>
-  <si>
-    <t>25.01.202639</t>
-  </si>
-  <si>
-    <t>25.01.202640</t>
-  </si>
-  <si>
-    <t>25.01.202641</t>
-  </si>
-  <si>
-    <t>25.01.202642</t>
-  </si>
-  <si>
-    <t>25.01.202643</t>
-  </si>
-  <si>
-    <t>25.01.202644</t>
-  </si>
-  <si>
-    <t>25.01.202645</t>
-  </si>
-  <si>
-    <t>25.01.202646</t>
-  </si>
-  <si>
-    <t>25.01.202647</t>
-  </si>
-  <si>
-    <t>25.01.202648</t>
-  </si>
-  <si>
-    <t>25.01.202649</t>
-  </si>
-  <si>
-    <t>25.01.202650</t>
-  </si>
-  <si>
-    <t>25.01.202651</t>
-  </si>
-  <si>
-    <t>25.01.202652</t>
-  </si>
-  <si>
-    <t>25.01.202653</t>
-  </si>
-  <si>
-    <t>25.01.202654</t>
-  </si>
-  <si>
-    <t>25.01.202655</t>
-  </si>
-  <si>
-    <t>25.01.202656</t>
-  </si>
-  <si>
-    <t>25.01.202657</t>
-  </si>
-  <si>
-    <t>25.01.202658</t>
-  </si>
-  <si>
-    <t>25.01.202659</t>
-  </si>
-  <si>
-    <t>25.01.202660</t>
-  </si>
-  <si>
-    <t>25.01.202661</t>
-  </si>
-  <si>
-    <t>25.01.202662</t>
-  </si>
-  <si>
-    <t>25.01.202663</t>
-  </si>
-  <si>
-    <t>25.01.202664</t>
-  </si>
-  <si>
-    <t>25.01.202665</t>
-  </si>
-  <si>
-    <t>25.01.202666</t>
-  </si>
-  <si>
-    <t>25.01.202667</t>
-  </si>
-  <si>
-    <t>25.01.202668</t>
-  </si>
-  <si>
-    <t>25.01.202669</t>
-  </si>
-  <si>
-    <t>25.01.202670</t>
-  </si>
-  <si>
-    <t>25.01.202671</t>
-  </si>
-  <si>
-    <t>25.01.202672</t>
-  </si>
-  <si>
-    <t>25.01.202673</t>
-  </si>
-  <si>
-    <t>25.01.202674</t>
-  </si>
-  <si>
-    <t>25.01.202675</t>
-  </si>
-  <si>
-    <t>25.01.202676</t>
-  </si>
-  <si>
-    <t>25.01.202677</t>
-  </si>
-  <si>
-    <t>25.01.202678</t>
-  </si>
-  <si>
-    <t>25.01.202679</t>
-  </si>
-  <si>
-    <t>25.01.202680</t>
-  </si>
-  <si>
-    <t>25.01.202681</t>
-  </si>
-  <si>
-    <t>25.01.202682</t>
-  </si>
-  <si>
-    <t>25.01.202683</t>
-  </si>
-  <si>
-    <t>25.01.202684</t>
-  </si>
-  <si>
-    <t>25.01.202685</t>
-  </si>
-  <si>
-    <t>25.01.202686</t>
-  </si>
-  <si>
-    <t>25.01.202687</t>
-  </si>
-  <si>
-    <t>25.01.202688</t>
-  </si>
-  <si>
-    <t>25.01.202689</t>
-  </si>
-  <si>
-    <t>25.01.202690</t>
-  </si>
-  <si>
-    <t>25.01.202691</t>
-  </si>
-  <si>
-    <t>25.01.202692</t>
-  </si>
-  <si>
-    <t>25.01.202693</t>
-  </si>
-  <si>
-    <t>25.01.202694</t>
-  </si>
-  <si>
-    <t>25.01.202695</t>
-  </si>
-  <si>
-    <t>25.01.202696</t>
-  </si>
-  <si>
     <t>26.01.20261</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>26.01.202696</t>
+  </si>
+  <si>
+    <t>27.01.20261</t>
+  </si>
+  <si>
+    <t>27.01.20262</t>
+  </si>
+  <si>
+    <t>27.01.20263</t>
+  </si>
+  <si>
+    <t>27.01.20264</t>
+  </si>
+  <si>
+    <t>27.01.20265</t>
+  </si>
+  <si>
+    <t>27.01.20266</t>
+  </si>
+  <si>
+    <t>27.01.20267</t>
+  </si>
+  <si>
+    <t>27.01.20268</t>
+  </si>
+  <si>
+    <t>27.01.20269</t>
+  </si>
+  <si>
+    <t>27.01.202610</t>
+  </si>
+  <si>
+    <t>27.01.202611</t>
+  </si>
+  <si>
+    <t>27.01.202612</t>
+  </si>
+  <si>
+    <t>27.01.202613</t>
+  </si>
+  <si>
+    <t>27.01.202614</t>
+  </si>
+  <si>
+    <t>27.01.202615</t>
+  </si>
+  <si>
+    <t>27.01.202616</t>
+  </si>
+  <si>
+    <t>27.01.202617</t>
+  </si>
+  <si>
+    <t>27.01.202618</t>
+  </si>
+  <si>
+    <t>27.01.202619</t>
+  </si>
+  <si>
+    <t>27.01.202620</t>
+  </si>
+  <si>
+    <t>27.01.202621</t>
+  </si>
+  <si>
+    <t>27.01.202622</t>
+  </si>
+  <si>
+    <t>27.01.202623</t>
+  </si>
+  <si>
+    <t>27.01.202624</t>
+  </si>
+  <si>
+    <t>27.01.202625</t>
+  </si>
+  <si>
+    <t>27.01.202626</t>
+  </si>
+  <si>
+    <t>27.01.202627</t>
+  </si>
+  <si>
+    <t>27.01.202628</t>
+  </si>
+  <si>
+    <t>27.01.202629</t>
+  </si>
+  <si>
+    <t>27.01.202630</t>
+  </si>
+  <si>
+    <t>27.01.202631</t>
+  </si>
+  <si>
+    <t>27.01.202632</t>
+  </si>
+  <si>
+    <t>27.01.202633</t>
+  </si>
+  <si>
+    <t>27.01.202634</t>
+  </si>
+  <si>
+    <t>27.01.202635</t>
+  </si>
+  <si>
+    <t>27.01.202636</t>
+  </si>
+  <si>
+    <t>27.01.202637</t>
+  </si>
+  <si>
+    <t>27.01.202638</t>
+  </si>
+  <si>
+    <t>27.01.202639</t>
+  </si>
+  <si>
+    <t>27.01.202640</t>
+  </si>
+  <si>
+    <t>27.01.202641</t>
+  </si>
+  <si>
+    <t>27.01.202642</t>
+  </si>
+  <si>
+    <t>27.01.202643</t>
+  </si>
+  <si>
+    <t>27.01.202644</t>
+  </si>
+  <si>
+    <t>27.01.202645</t>
+  </si>
+  <si>
+    <t>27.01.202646</t>
+  </si>
+  <si>
+    <t>27.01.202647</t>
+  </si>
+  <si>
+    <t>27.01.202648</t>
+  </si>
+  <si>
+    <t>27.01.202649</t>
+  </si>
+  <si>
+    <t>27.01.202650</t>
+  </si>
+  <si>
+    <t>27.01.202651</t>
+  </si>
+  <si>
+    <t>27.01.202652</t>
+  </si>
+  <si>
+    <t>27.01.202653</t>
+  </si>
+  <si>
+    <t>27.01.202654</t>
+  </si>
+  <si>
+    <t>27.01.202655</t>
+  </si>
+  <si>
+    <t>27.01.202656</t>
+  </si>
+  <si>
+    <t>27.01.202657</t>
+  </si>
+  <si>
+    <t>27.01.202658</t>
+  </si>
+  <si>
+    <t>27.01.202659</t>
+  </si>
+  <si>
+    <t>27.01.202660</t>
+  </si>
+  <si>
+    <t>27.01.202661</t>
+  </si>
+  <si>
+    <t>27.01.202662</t>
+  </si>
+  <si>
+    <t>27.01.202663</t>
+  </si>
+  <si>
+    <t>27.01.202664</t>
+  </si>
+  <si>
+    <t>27.01.202665</t>
+  </si>
+  <si>
+    <t>27.01.202666</t>
+  </si>
+  <si>
+    <t>27.01.202667</t>
+  </si>
+  <si>
+    <t>27.01.202668</t>
+  </si>
+  <si>
+    <t>27.01.202669</t>
+  </si>
+  <si>
+    <t>27.01.202670</t>
+  </si>
+  <si>
+    <t>27.01.202671</t>
+  </si>
+  <si>
+    <t>27.01.202672</t>
+  </si>
+  <si>
+    <t>27.01.202673</t>
+  </si>
+  <si>
+    <t>27.01.202674</t>
+  </si>
+  <si>
+    <t>27.01.202675</t>
+  </si>
+  <si>
+    <t>27.01.202676</t>
+  </si>
+  <si>
+    <t>27.01.202677</t>
+  </si>
+  <si>
+    <t>27.01.202678</t>
+  </si>
+  <si>
+    <t>27.01.202679</t>
+  </si>
+  <si>
+    <t>27.01.202680</t>
+  </si>
+  <si>
+    <t>27.01.202681</t>
+  </si>
+  <si>
+    <t>27.01.202682</t>
+  </si>
+  <si>
+    <t>27.01.202683</t>
+  </si>
+  <si>
+    <t>27.01.202684</t>
+  </si>
+  <si>
+    <t>27.01.202685</t>
+  </si>
+  <si>
+    <t>27.01.202686</t>
+  </si>
+  <si>
+    <t>27.01.202687</t>
+  </si>
+  <si>
+    <t>27.01.202688</t>
+  </si>
+  <si>
+    <t>27.01.202689</t>
+  </si>
+  <si>
+    <t>27.01.202690</t>
+  </si>
+  <si>
+    <t>27.01.202691</t>
+  </si>
+  <si>
+    <t>27.01.202692</t>
+  </si>
+  <si>
+    <t>27.01.202693</t>
+  </si>
+  <si>
+    <t>27.01.202694</t>
+  </si>
+  <si>
+    <t>27.01.202695</t>
+  </si>
+  <si>
+    <t>27.01.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46047.00486111111</v>
+        <v>46048.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46047.01527777778</v>
+        <v>46048.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46047.02569444444</v>
+        <v>46048.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46047.03611111111</v>
+        <v>46048.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46047.04652777778</v>
+        <v>46048.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46047.05694444444</v>
+        <v>46048.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46047.06736111111</v>
+        <v>46048.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46047.07777777778</v>
+        <v>46048.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46047.08819444444</v>
+        <v>46048.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46047.09861111111</v>
+        <v>46048.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46047.10902777778</v>
+        <v>46048.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46047.11944444444</v>
+        <v>46048.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46047.12986111111</v>
+        <v>46048.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46047.14027777778</v>
+        <v>46048.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46047.15069444444</v>
+        <v>46048.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46047.16111111111</v>
+        <v>46048.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46047.17152777778</v>
+        <v>46048.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46047.18194444444</v>
+        <v>46048.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46047.19236111111</v>
+        <v>46048.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46047.20277777778</v>
+        <v>46048.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46047.21319444444</v>
+        <v>46048.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46047.22361111111</v>
+        <v>46048.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46047.23402777778</v>
+        <v>46048.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46047.24444444444</v>
+        <v>46048.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46047.25486111111</v>
+        <v>46048.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46047.26527777778</v>
+        <v>46048.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46047.27569444444</v>
+        <v>46048.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46047.28611111111</v>
+        <v>46048.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46047.29652777778</v>
+        <v>46048.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46047.30694444444</v>
+        <v>46048.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46047.31736111111</v>
+        <v>46048.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46047.32777777778</v>
+        <v>46048.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46047.33819444444</v>
+        <v>46048.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46047.34861111111</v>
+        <v>46048.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46047.35902777778</v>
+        <v>46048.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46047.36944444444</v>
+        <v>46048.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46047.37986111111</v>
+        <v>46048.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46047.39027777778</v>
+        <v>46048.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46047.40069444444</v>
+        <v>46048.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46047.41111111111</v>
+        <v>46048.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46047.42152777778</v>
+        <v>46048.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46047.43194444444</v>
+        <v>46048.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46047.44236111111</v>
+        <v>46048.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46047.45277777778</v>
+        <v>46048.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46047.46319444444</v>
+        <v>46048.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46047.47361111111</v>
+        <v>46048.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46047.48402777778</v>
+        <v>46048.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46047.49444444444</v>
+        <v>46048.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46047.50486111111</v>
+        <v>46048.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46047.51527777778</v>
+        <v>46048.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46047.52569444444</v>
+        <v>46048.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46047.53611111111</v>
+        <v>46048.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46047.54652777778</v>
+        <v>46048.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46047.55694444444</v>
+        <v>46048.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46047.56736111111</v>
+        <v>46048.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46047.57777777778</v>
+        <v>46048.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46047.58819444444</v>
+        <v>46048.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46047.59861111111</v>
+        <v>46048.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46047.60902777778</v>
+        <v>46048.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46047.61944444444</v>
+        <v>46048.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46047.62986111111</v>
+        <v>46048.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46047.64027777778</v>
+        <v>46048.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46047.65069444444</v>
+        <v>46048.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46047.66111111111</v>
+        <v>46048.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46047.67152777778</v>
+        <v>46048.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46047.68194444444</v>
+        <v>46048.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46047.69236111111</v>
+        <v>46048.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46047.70277777778</v>
+        <v>46048.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46047.71319444444</v>
+        <v>46048.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46047.72361111111</v>
+        <v>46048.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46047.73402777778</v>
+        <v>46048.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46047.74444444444</v>
+        <v>46048.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46047.75486111111</v>
+        <v>46048.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46047.76527777778</v>
+        <v>46048.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46047.77569444444</v>
+        <v>46048.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46047.78611111111</v>
+        <v>46048.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46047.79652777778</v>
+        <v>46048.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46047.80694444444</v>
+        <v>46048.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46047.81736111111</v>
+        <v>46048.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46047.82777777778</v>
+        <v>46048.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46047.83819444444</v>
+        <v>46048.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46047.84861111111</v>
+        <v>46048.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46047.85902777778</v>
+        <v>46048.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46047.86944444444</v>
+        <v>46048.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46047.87986111111</v>
+        <v>46048.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46047.89027777778</v>
+        <v>46048.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46047.90069444444</v>
+        <v>46048.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46047.91111111111</v>
+        <v>46048.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46047.92152777778</v>
+        <v>46048.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46047.92152777778</v>
+        <v>46048.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46047.93194444444</v>
+        <v>46048.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46047.93194444444</v>
+        <v>46048.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46047.94236111111</v>
+        <v>46048.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46047.94236111111</v>
+        <v>46048.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46047.95277777778</v>
+        <v>46048.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46047.95277777778</v>
+        <v>46048.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46047.96319444444</v>
+        <v>46048.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46047.96319444444</v>
+        <v>46048.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46047.97361111111</v>
+        <v>46048.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46047.97361111111</v>
+        <v>46048.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46047.98402777778</v>
+        <v>46048.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46047.98402777778</v>
+        <v>46048.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46047.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46047.99444444444</v>
+        <v>46048.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46048.00486111111</v>
+        <v>46049.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46048.01527777778</v>
+        <v>46049.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46048.02569444444</v>
+        <v>46049.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46048.03611111111</v>
+        <v>46049.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46048.04652777778</v>
+        <v>46049.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46048.05694444444</v>
+        <v>46049.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46048.06736111111</v>
+        <v>46049.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46048.07777777778</v>
+        <v>46049.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46048.08819444444</v>
+        <v>46049.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46048.09861111111</v>
+        <v>46049.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46048.10902777778</v>
+        <v>46049.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46048.11944444444</v>
+        <v>46049.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46048.12986111111</v>
+        <v>46049.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46048.14027777778</v>
+        <v>46049.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46048.15069444444</v>
+        <v>46049.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46048.16111111111</v>
+        <v>46049.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46048.17152777778</v>
+        <v>46049.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46048.18194444444</v>
+        <v>46049.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46048.19236111111</v>
+        <v>46049.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46048.20277777778</v>
+        <v>46049.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46048.21319444444</v>
+        <v>46049.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46048.22361111111</v>
+        <v>46049.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46048.23402777778</v>
+        <v>46049.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46048.24444444444</v>
+        <v>46049.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46048.25486111111</v>
+        <v>46049.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46048.26527777778</v>
+        <v>46049.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46048.27569444444</v>
+        <v>46049.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46048.28611111111</v>
+        <v>46049.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46048.29652777778</v>
+        <v>46049.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46048.30694444444</v>
+        <v>46049.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46048.31736111111</v>
+        <v>46049.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46048.32777777778</v>
+        <v>46049.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46048.33819444444</v>
+        <v>46049.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46048.34861111111</v>
+        <v>46049.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46048.35902777778</v>
+        <v>46049.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46048.36944444444</v>
+        <v>46049.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46048.37986111111</v>
+        <v>46049.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46048.39027777778</v>
+        <v>46049.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46048.40069444444</v>
+        <v>46049.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46048.41111111111</v>
+        <v>46049.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46048.42152777778</v>
+        <v>46049.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46048.43194444444</v>
+        <v>46049.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46048.44236111111</v>
+        <v>46049.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46048.45277777778</v>
+        <v>46049.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46048.46319444444</v>
+        <v>46049.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46048.47361111111</v>
+        <v>46049.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46048.48402777778</v>
+        <v>46049.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46048.49444444444</v>
+        <v>46049.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46048.50486111111</v>
+        <v>46049.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46048.51527777778</v>
+        <v>46049.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46048.52569444444</v>
+        <v>46049.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46048.53611111111</v>
+        <v>46049.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46048.54652777778</v>
+        <v>46049.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46048.55694444444</v>
+        <v>46049.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46048.56736111111</v>
+        <v>46049.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46048.57777777778</v>
+        <v>46049.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46048.58819444444</v>
+        <v>46049.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46048.59861111111</v>
+        <v>46049.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46048.60902777778</v>
+        <v>46049.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46048.61944444444</v>
+        <v>46049.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46048.62986111111</v>
+        <v>46049.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46048.64027777778</v>
+        <v>46049.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46048.65069444444</v>
+        <v>46049.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46048.66111111111</v>
+        <v>46049.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46048.67152777778</v>
+        <v>46049.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46048.68194444444</v>
+        <v>46049.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46048.69236111111</v>
+        <v>46049.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46048.70277777778</v>
+        <v>46049.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46048.71319444444</v>
+        <v>46049.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46048.72361111111</v>
+        <v>46049.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46048.73402777778</v>
+        <v>46049.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46048.74444444444</v>
+        <v>46049.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46048.75486111111</v>
+        <v>46049.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46048.76527777778</v>
+        <v>46049.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46048.77569444444</v>
+        <v>46049.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46048.78611111111</v>
+        <v>46049.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46048.79652777778</v>
+        <v>46049.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46048.80694444444</v>
+        <v>46049.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46048.81736111111</v>
+        <v>46049.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46048.82777777778</v>
+        <v>46049.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46048.83819444444</v>
+        <v>46049.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46048.84861111111</v>
+        <v>46049.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46048.85902777778</v>
+        <v>46049.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46048.86944444444</v>
+        <v>46049.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46048.87986111111</v>
+        <v>46049.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46048.89027777778</v>
+        <v>46049.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46048.90069444444</v>
+        <v>46049.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46048.91111111111</v>
+        <v>46049.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46048.92152777778</v>
+        <v>46049.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46048.93194444444</v>
+        <v>46049.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46048.94236111111</v>
+        <v>46049.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46048.95277777778</v>
+        <v>46049.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46048.96319444444</v>
+        <v>46049.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46048.97361111111</v>
+        <v>46049.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46048.98402777778</v>
+        <v>46049.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46048.99444444444</v>
+        <v>46049.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>16.02.20261</t>
-  </si>
-  <si>
-    <t>16.02.20262</t>
-  </si>
-  <si>
-    <t>16.02.20263</t>
-  </si>
-  <si>
-    <t>16.02.20264</t>
-  </si>
-  <si>
-    <t>16.02.20265</t>
-  </si>
-  <si>
-    <t>16.02.20266</t>
-  </si>
-  <si>
-    <t>16.02.20267</t>
-  </si>
-  <si>
-    <t>16.02.20268</t>
-  </si>
-  <si>
-    <t>16.02.20269</t>
-  </si>
-  <si>
-    <t>16.02.202610</t>
-  </si>
-  <si>
-    <t>16.02.202611</t>
-  </si>
-  <si>
-    <t>16.02.202612</t>
-  </si>
-  <si>
-    <t>16.02.202613</t>
-  </si>
-  <si>
-    <t>16.02.202614</t>
-  </si>
-  <si>
-    <t>16.02.202615</t>
-  </si>
-  <si>
-    <t>16.02.202616</t>
-  </si>
-  <si>
-    <t>16.02.202617</t>
-  </si>
-  <si>
-    <t>16.02.202618</t>
-  </si>
-  <si>
-    <t>16.02.202619</t>
-  </si>
-  <si>
-    <t>16.02.202620</t>
-  </si>
-  <si>
-    <t>16.02.202621</t>
-  </si>
-  <si>
-    <t>16.02.202622</t>
-  </si>
-  <si>
-    <t>16.02.202623</t>
-  </si>
-  <si>
-    <t>16.02.202624</t>
-  </si>
-  <si>
-    <t>16.02.202625</t>
-  </si>
-  <si>
-    <t>16.02.202626</t>
-  </si>
-  <si>
-    <t>16.02.202627</t>
-  </si>
-  <si>
-    <t>16.02.202628</t>
-  </si>
-  <si>
-    <t>16.02.202629</t>
-  </si>
-  <si>
-    <t>16.02.202630</t>
-  </si>
-  <si>
-    <t>16.02.202631</t>
-  </si>
-  <si>
-    <t>16.02.202632</t>
-  </si>
-  <si>
-    <t>16.02.202633</t>
-  </si>
-  <si>
-    <t>16.02.202634</t>
-  </si>
-  <si>
-    <t>16.02.202635</t>
-  </si>
-  <si>
-    <t>16.02.202636</t>
-  </si>
-  <si>
-    <t>16.02.202637</t>
-  </si>
-  <si>
-    <t>16.02.202638</t>
-  </si>
-  <si>
-    <t>16.02.202639</t>
-  </si>
-  <si>
-    <t>16.02.202640</t>
-  </si>
-  <si>
-    <t>16.02.202641</t>
-  </si>
-  <si>
-    <t>16.02.202642</t>
-  </si>
-  <si>
-    <t>16.02.202643</t>
-  </si>
-  <si>
-    <t>16.02.202644</t>
-  </si>
-  <si>
-    <t>16.02.202645</t>
-  </si>
-  <si>
-    <t>16.02.202646</t>
-  </si>
-  <si>
-    <t>16.02.202647</t>
-  </si>
-  <si>
-    <t>16.02.202648</t>
-  </si>
-  <si>
-    <t>16.02.202649</t>
-  </si>
-  <si>
-    <t>16.02.202650</t>
-  </si>
-  <si>
-    <t>16.02.202651</t>
-  </si>
-  <si>
-    <t>16.02.202652</t>
-  </si>
-  <si>
-    <t>16.02.202653</t>
-  </si>
-  <si>
-    <t>16.02.202654</t>
-  </si>
-  <si>
-    <t>16.02.202655</t>
-  </si>
-  <si>
-    <t>16.02.202656</t>
-  </si>
-  <si>
-    <t>16.02.202657</t>
-  </si>
-  <si>
-    <t>16.02.202658</t>
-  </si>
-  <si>
-    <t>16.02.202659</t>
-  </si>
-  <si>
-    <t>16.02.202660</t>
-  </si>
-  <si>
-    <t>16.02.202661</t>
-  </si>
-  <si>
-    <t>16.02.202662</t>
-  </si>
-  <si>
-    <t>16.02.202663</t>
-  </si>
-  <si>
-    <t>16.02.202664</t>
-  </si>
-  <si>
-    <t>16.02.202665</t>
-  </si>
-  <si>
-    <t>16.02.202666</t>
-  </si>
-  <si>
-    <t>16.02.202667</t>
-  </si>
-  <si>
-    <t>16.02.202668</t>
-  </si>
-  <si>
-    <t>16.02.202669</t>
-  </si>
-  <si>
-    <t>16.02.202670</t>
-  </si>
-  <si>
-    <t>16.02.202671</t>
-  </si>
-  <si>
-    <t>16.02.202672</t>
-  </si>
-  <si>
-    <t>16.02.202673</t>
-  </si>
-  <si>
-    <t>16.02.202674</t>
-  </si>
-  <si>
-    <t>16.02.202675</t>
-  </si>
-  <si>
-    <t>16.02.202676</t>
-  </si>
-  <si>
-    <t>16.02.202677</t>
-  </si>
-  <si>
-    <t>16.02.202678</t>
-  </si>
-  <si>
-    <t>16.02.202679</t>
-  </si>
-  <si>
-    <t>16.02.202680</t>
-  </si>
-  <si>
-    <t>16.02.202681</t>
-  </si>
-  <si>
-    <t>16.02.202682</t>
-  </si>
-  <si>
-    <t>16.02.202683</t>
-  </si>
-  <si>
-    <t>16.02.202684</t>
-  </si>
-  <si>
-    <t>16.02.202685</t>
-  </si>
-  <si>
-    <t>16.02.202686</t>
-  </si>
-  <si>
-    <t>16.02.202687</t>
-  </si>
-  <si>
-    <t>16.02.202688</t>
-  </si>
-  <si>
-    <t>16.02.202689</t>
-  </si>
-  <si>
-    <t>16.02.202690</t>
-  </si>
-  <si>
-    <t>16.02.202691</t>
-  </si>
-  <si>
-    <t>16.02.202692</t>
-  </si>
-  <si>
-    <t>16.02.202693</t>
-  </si>
-  <si>
-    <t>16.02.202694</t>
-  </si>
-  <si>
-    <t>16.02.202695</t>
-  </si>
-  <si>
-    <t>16.02.202696</t>
-  </si>
-  <si>
     <t>17.02.20261</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>17.02.202696</t>
+  </si>
+  <si>
+    <t>18.02.20261</t>
+  </si>
+  <si>
+    <t>18.02.20262</t>
+  </si>
+  <si>
+    <t>18.02.20263</t>
+  </si>
+  <si>
+    <t>18.02.20264</t>
+  </si>
+  <si>
+    <t>18.02.20265</t>
+  </si>
+  <si>
+    <t>18.02.20266</t>
+  </si>
+  <si>
+    <t>18.02.20267</t>
+  </si>
+  <si>
+    <t>18.02.20268</t>
+  </si>
+  <si>
+    <t>18.02.20269</t>
+  </si>
+  <si>
+    <t>18.02.202610</t>
+  </si>
+  <si>
+    <t>18.02.202611</t>
+  </si>
+  <si>
+    <t>18.02.202612</t>
+  </si>
+  <si>
+    <t>18.02.202613</t>
+  </si>
+  <si>
+    <t>18.02.202614</t>
+  </si>
+  <si>
+    <t>18.02.202615</t>
+  </si>
+  <si>
+    <t>18.02.202616</t>
+  </si>
+  <si>
+    <t>18.02.202617</t>
+  </si>
+  <si>
+    <t>18.02.202618</t>
+  </si>
+  <si>
+    <t>18.02.202619</t>
+  </si>
+  <si>
+    <t>18.02.202620</t>
+  </si>
+  <si>
+    <t>18.02.202621</t>
+  </si>
+  <si>
+    <t>18.02.202622</t>
+  </si>
+  <si>
+    <t>18.02.202623</t>
+  </si>
+  <si>
+    <t>18.02.202624</t>
+  </si>
+  <si>
+    <t>18.02.202625</t>
+  </si>
+  <si>
+    <t>18.02.202626</t>
+  </si>
+  <si>
+    <t>18.02.202627</t>
+  </si>
+  <si>
+    <t>18.02.202628</t>
+  </si>
+  <si>
+    <t>18.02.202629</t>
+  </si>
+  <si>
+    <t>18.02.202630</t>
+  </si>
+  <si>
+    <t>18.02.202631</t>
+  </si>
+  <si>
+    <t>18.02.202632</t>
+  </si>
+  <si>
+    <t>18.02.202633</t>
+  </si>
+  <si>
+    <t>18.02.202634</t>
+  </si>
+  <si>
+    <t>18.02.202635</t>
+  </si>
+  <si>
+    <t>18.02.202636</t>
+  </si>
+  <si>
+    <t>18.02.202637</t>
+  </si>
+  <si>
+    <t>18.02.202638</t>
+  </si>
+  <si>
+    <t>18.02.202639</t>
+  </si>
+  <si>
+    <t>18.02.202640</t>
+  </si>
+  <si>
+    <t>18.02.202641</t>
+  </si>
+  <si>
+    <t>18.02.202642</t>
+  </si>
+  <si>
+    <t>18.02.202643</t>
+  </si>
+  <si>
+    <t>18.02.202644</t>
+  </si>
+  <si>
+    <t>18.02.202645</t>
+  </si>
+  <si>
+    <t>18.02.202646</t>
+  </si>
+  <si>
+    <t>18.02.202647</t>
+  </si>
+  <si>
+    <t>18.02.202648</t>
+  </si>
+  <si>
+    <t>18.02.202649</t>
+  </si>
+  <si>
+    <t>18.02.202650</t>
+  </si>
+  <si>
+    <t>18.02.202651</t>
+  </si>
+  <si>
+    <t>18.02.202652</t>
+  </si>
+  <si>
+    <t>18.02.202653</t>
+  </si>
+  <si>
+    <t>18.02.202654</t>
+  </si>
+  <si>
+    <t>18.02.202655</t>
+  </si>
+  <si>
+    <t>18.02.202656</t>
+  </si>
+  <si>
+    <t>18.02.202657</t>
+  </si>
+  <si>
+    <t>18.02.202658</t>
+  </si>
+  <si>
+    <t>18.02.202659</t>
+  </si>
+  <si>
+    <t>18.02.202660</t>
+  </si>
+  <si>
+    <t>18.02.202661</t>
+  </si>
+  <si>
+    <t>18.02.202662</t>
+  </si>
+  <si>
+    <t>18.02.202663</t>
+  </si>
+  <si>
+    <t>18.02.202664</t>
+  </si>
+  <si>
+    <t>18.02.202665</t>
+  </si>
+  <si>
+    <t>18.02.202666</t>
+  </si>
+  <si>
+    <t>18.02.202667</t>
+  </si>
+  <si>
+    <t>18.02.202668</t>
+  </si>
+  <si>
+    <t>18.02.202669</t>
+  </si>
+  <si>
+    <t>18.02.202670</t>
+  </si>
+  <si>
+    <t>18.02.202671</t>
+  </si>
+  <si>
+    <t>18.02.202672</t>
+  </si>
+  <si>
+    <t>18.02.202673</t>
+  </si>
+  <si>
+    <t>18.02.202674</t>
+  </si>
+  <si>
+    <t>18.02.202675</t>
+  </si>
+  <si>
+    <t>18.02.202676</t>
+  </si>
+  <si>
+    <t>18.02.202677</t>
+  </si>
+  <si>
+    <t>18.02.202678</t>
+  </si>
+  <si>
+    <t>18.02.202679</t>
+  </si>
+  <si>
+    <t>18.02.202680</t>
+  </si>
+  <si>
+    <t>18.02.202681</t>
+  </si>
+  <si>
+    <t>18.02.202682</t>
+  </si>
+  <si>
+    <t>18.02.202683</t>
+  </si>
+  <si>
+    <t>18.02.202684</t>
+  </si>
+  <si>
+    <t>18.02.202685</t>
+  </si>
+  <si>
+    <t>18.02.202686</t>
+  </si>
+  <si>
+    <t>18.02.202687</t>
+  </si>
+  <si>
+    <t>18.02.202688</t>
+  </si>
+  <si>
+    <t>18.02.202689</t>
+  </si>
+  <si>
+    <t>18.02.202690</t>
+  </si>
+  <si>
+    <t>18.02.202691</t>
+  </si>
+  <si>
+    <t>18.02.202692</t>
+  </si>
+  <si>
+    <t>18.02.202693</t>
+  </si>
+  <si>
+    <t>18.02.202694</t>
+  </si>
+  <si>
+    <t>18.02.202695</t>
+  </si>
+  <si>
+    <t>18.02.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46069.00486111111</v>
+        <v>46070.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46069.01527777778</v>
+        <v>46070.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46069.02569444444</v>
+        <v>46070.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46069.03611111111</v>
+        <v>46070.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46069.04652777778</v>
+        <v>46070.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46069.05694444444</v>
+        <v>46070.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46069.06736111111</v>
+        <v>46070.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46069.07777777778</v>
+        <v>46070.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46069.08819444444</v>
+        <v>46070.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46069.09861111111</v>
+        <v>46070.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46069.10902777778</v>
+        <v>46070.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46069.11944444444</v>
+        <v>46070.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46069.12986111111</v>
+        <v>46070.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46069.14027777778</v>
+        <v>46070.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46069.15069444444</v>
+        <v>46070.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46069.16111111111</v>
+        <v>46070.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46069.17152777778</v>
+        <v>46070.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46069.18194444444</v>
+        <v>46070.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46069.19236111111</v>
+        <v>46070.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46069.20277777778</v>
+        <v>46070.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46069.21319444444</v>
+        <v>46070.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46069.22361111111</v>
+        <v>46070.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46069.23402777778</v>
+        <v>46070.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46069.24444444444</v>
+        <v>46070.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46069.25486111111</v>
+        <v>46070.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46069.26527777778</v>
+        <v>46070.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46069.27569444444</v>
+        <v>46070.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46069.28611111111</v>
+        <v>46070.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46069.29652777778</v>
+        <v>46070.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46069.30694444444</v>
+        <v>46070.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46069.31736111111</v>
+        <v>46070.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46069.32777777778</v>
+        <v>46070.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46069.33819444444</v>
+        <v>46070.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46069.34861111111</v>
+        <v>46070.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46069.35902777778</v>
+        <v>46070.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46069.36944444444</v>
+        <v>46070.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46069.37986111111</v>
+        <v>46070.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46069.39027777778</v>
+        <v>46070.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46069.40069444444</v>
+        <v>46070.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46069.41111111111</v>
+        <v>46070.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46069.42152777778</v>
+        <v>46070.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46069.43194444444</v>
+        <v>46070.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46069.44236111111</v>
+        <v>46070.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46069.45277777778</v>
+        <v>46070.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46069.46319444444</v>
+        <v>46070.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46069.47361111111</v>
+        <v>46070.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46069.48402777778</v>
+        <v>46070.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46069.49444444444</v>
+        <v>46070.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46069.50486111111</v>
+        <v>46070.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46069.51527777778</v>
+        <v>46070.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46069.52569444444</v>
+        <v>46070.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46069.53611111111</v>
+        <v>46070.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46069.54652777778</v>
+        <v>46070.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46069.55694444444</v>
+        <v>46070.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46069.56736111111</v>
+        <v>46070.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46069.57777777778</v>
+        <v>46070.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46069.58819444444</v>
+        <v>46070.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46069.59861111111</v>
+        <v>46070.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46069.60902777778</v>
+        <v>46070.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46069.61944444444</v>
+        <v>46070.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46069.62986111111</v>
+        <v>46070.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46069.64027777778</v>
+        <v>46070.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46069.65069444444</v>
+        <v>46070.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46069.66111111111</v>
+        <v>46070.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46069.67152777778</v>
+        <v>46070.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46069.68194444444</v>
+        <v>46070.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46069.69236111111</v>
+        <v>46070.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46069.70277777778</v>
+        <v>46070.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46069.71319444444</v>
+        <v>46070.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46069.72361111111</v>
+        <v>46070.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46069.73402777778</v>
+        <v>46070.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46069.74444444444</v>
+        <v>46070.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46069.75486111111</v>
+        <v>46070.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46069.76527777778</v>
+        <v>46070.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46069.77569444444</v>
+        <v>46070.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46069.78611111111</v>
+        <v>46070.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46069.79652777778</v>
+        <v>46070.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46069.80694444444</v>
+        <v>46070.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46069.81736111111</v>
+        <v>46070.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46069.82777777778</v>
+        <v>46070.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46069.83819444444</v>
+        <v>46070.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46069.84861111111</v>
+        <v>46070.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46069.85902777778</v>
+        <v>46070.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46069.86944444444</v>
+        <v>46070.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46069.87986111111</v>
+        <v>46070.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46069.89027777778</v>
+        <v>46070.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46069.90069444444</v>
+        <v>46070.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46069.91111111111</v>
+        <v>46070.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46069.92152777778</v>
+        <v>46070.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46069.92152777778</v>
+        <v>46070.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46069.93194444444</v>
+        <v>46070.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46069.93194444444</v>
+        <v>46070.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46069.94236111111</v>
+        <v>46070.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46069.94236111111</v>
+        <v>46070.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46069.95277777778</v>
+        <v>46070.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46069.95277777778</v>
+        <v>46070.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46069.96319444444</v>
+        <v>46070.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46069.96319444444</v>
+        <v>46070.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46069.97361111111</v>
+        <v>46070.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46069.97361111111</v>
+        <v>46070.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46069.98402777778</v>
+        <v>46070.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46069.98402777778</v>
+        <v>46070.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46069.99444444444</v>
+        <v>46070.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46069.99444444444</v>
+        <v>46070.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46070.00486111111</v>
+        <v>46071.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46070.01527777778</v>
+        <v>46071.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46070.02569444444</v>
+        <v>46071.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46070.03611111111</v>
+        <v>46071.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46070.04652777778</v>
+        <v>46071.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46070.05694444444</v>
+        <v>46071.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46070.06736111111</v>
+        <v>46071.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46070.07777777778</v>
+        <v>46071.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46070.08819444444</v>
+        <v>46071.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46070.09861111111</v>
+        <v>46071.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46070.10902777778</v>
+        <v>46071.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46070.11944444444</v>
+        <v>46071.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46070.12986111111</v>
+        <v>46071.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46070.14027777778</v>
+        <v>46071.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46070.15069444444</v>
+        <v>46071.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46070.16111111111</v>
+        <v>46071.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46070.17152777778</v>
+        <v>46071.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46070.18194444444</v>
+        <v>46071.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46070.19236111111</v>
+        <v>46071.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46070.20277777778</v>
+        <v>46071.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46070.21319444444</v>
+        <v>46071.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46070.22361111111</v>
+        <v>46071.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46070.23402777778</v>
+        <v>46071.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46070.24444444444</v>
+        <v>46071.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46070.25486111111</v>
+        <v>46071.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46070.26527777778</v>
+        <v>46071.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46070.27569444444</v>
+        <v>46071.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46070.28611111111</v>
+        <v>46071.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46070.29652777778</v>
+        <v>46071.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46070.30694444444</v>
+        <v>46071.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46070.31736111111</v>
+        <v>46071.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46070.32777777778</v>
+        <v>46071.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46070.33819444444</v>
+        <v>46071.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46070.34861111111</v>
+        <v>46071.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46070.35902777778</v>
+        <v>46071.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46070.36944444444</v>
+        <v>46071.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46070.37986111111</v>
+        <v>46071.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46070.39027777778</v>
+        <v>46071.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46070.40069444444</v>
+        <v>46071.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46070.41111111111</v>
+        <v>46071.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46070.42152777778</v>
+        <v>46071.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46070.43194444444</v>
+        <v>46071.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46070.44236111111</v>
+        <v>46071.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46070.45277777778</v>
+        <v>46071.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46070.46319444444</v>
+        <v>46071.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46070.47361111111</v>
+        <v>46071.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46070.48402777778</v>
+        <v>46071.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46070.49444444444</v>
+        <v>46071.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46070.50486111111</v>
+        <v>46071.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46070.51527777778</v>
+        <v>46071.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46070.52569444444</v>
+        <v>46071.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46070.53611111111</v>
+        <v>46071.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46070.54652777778</v>
+        <v>46071.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46070.55694444444</v>
+        <v>46071.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46070.56736111111</v>
+        <v>46071.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46070.57777777778</v>
+        <v>46071.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46070.58819444444</v>
+        <v>46071.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46070.59861111111</v>
+        <v>46071.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46070.60902777778</v>
+        <v>46071.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46070.61944444444</v>
+        <v>46071.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46070.62986111111</v>
+        <v>46071.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46070.64027777778</v>
+        <v>46071.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46070.65069444444</v>
+        <v>46071.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46070.66111111111</v>
+        <v>46071.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46070.67152777778</v>
+        <v>46071.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46070.68194444444</v>
+        <v>46071.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46070.69236111111</v>
+        <v>46071.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46070.70277777778</v>
+        <v>46071.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46070.71319444444</v>
+        <v>46071.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46070.72361111111</v>
+        <v>46071.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46070.73402777778</v>
+        <v>46071.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46070.74444444444</v>
+        <v>46071.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46070.75486111111</v>
+        <v>46071.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46070.76527777778</v>
+        <v>46071.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46070.77569444444</v>
+        <v>46071.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46070.78611111111</v>
+        <v>46071.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46070.79652777778</v>
+        <v>46071.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46070.80694444444</v>
+        <v>46071.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46070.81736111111</v>
+        <v>46071.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46070.82777777778</v>
+        <v>46071.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46070.83819444444</v>
+        <v>46071.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46070.84861111111</v>
+        <v>46071.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46070.85902777778</v>
+        <v>46071.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46070.86944444444</v>
+        <v>46071.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46070.87986111111</v>
+        <v>46071.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46070.89027777778</v>
+        <v>46071.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46070.90069444444</v>
+        <v>46071.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46070.91111111111</v>
+        <v>46071.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46070.92152777778</v>
+        <v>46071.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46070.93194444444</v>
+        <v>46071.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46070.94236111111</v>
+        <v>46071.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46070.95277777778</v>
+        <v>46071.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46070.96319444444</v>
+        <v>46071.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46070.97361111111</v>
+        <v>46071.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46070.98402777778</v>
+        <v>46071.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46070.99444444444</v>
+        <v>46071.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>17.02.20261</t>
-  </si>
-  <si>
-    <t>17.02.20262</t>
-  </si>
-  <si>
-    <t>17.02.20263</t>
-  </si>
-  <si>
-    <t>17.02.20264</t>
-  </si>
-  <si>
-    <t>17.02.20265</t>
-  </si>
-  <si>
-    <t>17.02.20266</t>
-  </si>
-  <si>
-    <t>17.02.20267</t>
-  </si>
-  <si>
-    <t>17.02.20268</t>
-  </si>
-  <si>
-    <t>17.02.20269</t>
-  </si>
-  <si>
-    <t>17.02.202610</t>
-  </si>
-  <si>
-    <t>17.02.202611</t>
-  </si>
-  <si>
-    <t>17.02.202612</t>
-  </si>
-  <si>
-    <t>17.02.202613</t>
-  </si>
-  <si>
-    <t>17.02.202614</t>
-  </si>
-  <si>
-    <t>17.02.202615</t>
-  </si>
-  <si>
-    <t>17.02.202616</t>
-  </si>
-  <si>
-    <t>17.02.202617</t>
-  </si>
-  <si>
-    <t>17.02.202618</t>
-  </si>
-  <si>
-    <t>17.02.202619</t>
-  </si>
-  <si>
-    <t>17.02.202620</t>
-  </si>
-  <si>
-    <t>17.02.202621</t>
-  </si>
-  <si>
-    <t>17.02.202622</t>
-  </si>
-  <si>
-    <t>17.02.202623</t>
-  </si>
-  <si>
-    <t>17.02.202624</t>
-  </si>
-  <si>
-    <t>17.02.202625</t>
-  </si>
-  <si>
-    <t>17.02.202626</t>
-  </si>
-  <si>
-    <t>17.02.202627</t>
-  </si>
-  <si>
-    <t>17.02.202628</t>
-  </si>
-  <si>
-    <t>17.02.202629</t>
-  </si>
-  <si>
-    <t>17.02.202630</t>
-  </si>
-  <si>
-    <t>17.02.202631</t>
-  </si>
-  <si>
-    <t>17.02.202632</t>
-  </si>
-  <si>
-    <t>17.02.202633</t>
-  </si>
-  <si>
-    <t>17.02.202634</t>
-  </si>
-  <si>
-    <t>17.02.202635</t>
-  </si>
-  <si>
-    <t>17.02.202636</t>
-  </si>
-  <si>
-    <t>17.02.202637</t>
-  </si>
-  <si>
-    <t>17.02.202638</t>
-  </si>
-  <si>
-    <t>17.02.202639</t>
-  </si>
-  <si>
-    <t>17.02.202640</t>
-  </si>
-  <si>
-    <t>17.02.202641</t>
-  </si>
-  <si>
-    <t>17.02.202642</t>
-  </si>
-  <si>
-    <t>17.02.202643</t>
-  </si>
-  <si>
-    <t>17.02.202644</t>
-  </si>
-  <si>
-    <t>17.02.202645</t>
-  </si>
-  <si>
-    <t>17.02.202646</t>
-  </si>
-  <si>
-    <t>17.02.202647</t>
-  </si>
-  <si>
-    <t>17.02.202648</t>
-  </si>
-  <si>
-    <t>17.02.202649</t>
-  </si>
-  <si>
-    <t>17.02.202650</t>
-  </si>
-  <si>
-    <t>17.02.202651</t>
-  </si>
-  <si>
-    <t>17.02.202652</t>
-  </si>
-  <si>
-    <t>17.02.202653</t>
-  </si>
-  <si>
-    <t>17.02.202654</t>
-  </si>
-  <si>
-    <t>17.02.202655</t>
-  </si>
-  <si>
-    <t>17.02.202656</t>
-  </si>
-  <si>
-    <t>17.02.202657</t>
-  </si>
-  <si>
-    <t>17.02.202658</t>
-  </si>
-  <si>
-    <t>17.02.202659</t>
-  </si>
-  <si>
-    <t>17.02.202660</t>
-  </si>
-  <si>
-    <t>17.02.202661</t>
-  </si>
-  <si>
-    <t>17.02.202662</t>
-  </si>
-  <si>
-    <t>17.02.202663</t>
-  </si>
-  <si>
-    <t>17.02.202664</t>
-  </si>
-  <si>
-    <t>17.02.202665</t>
-  </si>
-  <si>
-    <t>17.02.202666</t>
-  </si>
-  <si>
-    <t>17.02.202667</t>
-  </si>
-  <si>
-    <t>17.02.202668</t>
-  </si>
-  <si>
-    <t>17.02.202669</t>
-  </si>
-  <si>
-    <t>17.02.202670</t>
-  </si>
-  <si>
-    <t>17.02.202671</t>
-  </si>
-  <si>
-    <t>17.02.202672</t>
-  </si>
-  <si>
-    <t>17.02.202673</t>
-  </si>
-  <si>
-    <t>17.02.202674</t>
-  </si>
-  <si>
-    <t>17.02.202675</t>
-  </si>
-  <si>
-    <t>17.02.202676</t>
-  </si>
-  <si>
-    <t>17.02.202677</t>
-  </si>
-  <si>
-    <t>17.02.202678</t>
-  </si>
-  <si>
-    <t>17.02.202679</t>
-  </si>
-  <si>
-    <t>17.02.202680</t>
-  </si>
-  <si>
-    <t>17.02.202681</t>
-  </si>
-  <si>
-    <t>17.02.202682</t>
-  </si>
-  <si>
-    <t>17.02.202683</t>
-  </si>
-  <si>
-    <t>17.02.202684</t>
-  </si>
-  <si>
-    <t>17.02.202685</t>
-  </si>
-  <si>
-    <t>17.02.202686</t>
-  </si>
-  <si>
-    <t>17.02.202687</t>
-  </si>
-  <si>
-    <t>17.02.202688</t>
-  </si>
-  <si>
-    <t>17.02.202689</t>
-  </si>
-  <si>
-    <t>17.02.202690</t>
-  </si>
-  <si>
-    <t>17.02.202691</t>
-  </si>
-  <si>
-    <t>17.02.202692</t>
-  </si>
-  <si>
-    <t>17.02.202693</t>
-  </si>
-  <si>
-    <t>17.02.202694</t>
-  </si>
-  <si>
-    <t>17.02.202695</t>
-  </si>
-  <si>
-    <t>17.02.202696</t>
-  </si>
-  <si>
-    <t>18.02.20261</t>
-  </si>
-  <si>
-    <t>18.02.20262</t>
-  </si>
-  <si>
-    <t>18.02.20263</t>
-  </si>
-  <si>
-    <t>18.02.20264</t>
-  </si>
-  <si>
-    <t>18.02.20265</t>
-  </si>
-  <si>
-    <t>18.02.20266</t>
-  </si>
-  <si>
-    <t>18.02.20267</t>
-  </si>
-  <si>
-    <t>18.02.20268</t>
-  </si>
-  <si>
-    <t>18.02.20269</t>
-  </si>
-  <si>
-    <t>18.02.202610</t>
-  </si>
-  <si>
-    <t>18.02.202611</t>
-  </si>
-  <si>
-    <t>18.02.202612</t>
-  </si>
-  <si>
-    <t>18.02.202613</t>
-  </si>
-  <si>
-    <t>18.02.202614</t>
-  </si>
-  <si>
-    <t>18.02.202615</t>
-  </si>
-  <si>
-    <t>18.02.202616</t>
-  </si>
-  <si>
-    <t>18.02.202617</t>
-  </si>
-  <si>
-    <t>18.02.202618</t>
-  </si>
-  <si>
-    <t>18.02.202619</t>
-  </si>
-  <si>
-    <t>18.02.202620</t>
-  </si>
-  <si>
-    <t>18.02.202621</t>
-  </si>
-  <si>
-    <t>18.02.202622</t>
-  </si>
-  <si>
-    <t>18.02.202623</t>
-  </si>
-  <si>
-    <t>18.02.202624</t>
-  </si>
-  <si>
-    <t>18.02.202625</t>
-  </si>
-  <si>
-    <t>18.02.202626</t>
-  </si>
-  <si>
-    <t>18.02.202627</t>
-  </si>
-  <si>
-    <t>18.02.202628</t>
-  </si>
-  <si>
-    <t>18.02.202629</t>
-  </si>
-  <si>
-    <t>18.02.202630</t>
-  </si>
-  <si>
-    <t>18.02.202631</t>
-  </si>
-  <si>
-    <t>18.02.202632</t>
-  </si>
-  <si>
-    <t>18.02.202633</t>
-  </si>
-  <si>
-    <t>18.02.202634</t>
-  </si>
-  <si>
-    <t>18.02.202635</t>
-  </si>
-  <si>
-    <t>18.02.202636</t>
-  </si>
-  <si>
-    <t>18.02.202637</t>
-  </si>
-  <si>
-    <t>18.02.202638</t>
-  </si>
-  <si>
-    <t>18.02.202639</t>
-  </si>
-  <si>
-    <t>18.02.202640</t>
-  </si>
-  <si>
-    <t>18.02.202641</t>
-  </si>
-  <si>
-    <t>18.02.202642</t>
-  </si>
-  <si>
-    <t>18.02.202643</t>
-  </si>
-  <si>
-    <t>18.02.202644</t>
-  </si>
-  <si>
-    <t>18.02.202645</t>
-  </si>
-  <si>
-    <t>18.02.202646</t>
-  </si>
-  <si>
-    <t>18.02.202647</t>
-  </si>
-  <si>
-    <t>18.02.202648</t>
-  </si>
-  <si>
-    <t>18.02.202649</t>
-  </si>
-  <si>
-    <t>18.02.202650</t>
-  </si>
-  <si>
-    <t>18.02.202651</t>
-  </si>
-  <si>
-    <t>18.02.202652</t>
-  </si>
-  <si>
-    <t>18.02.202653</t>
-  </si>
-  <si>
-    <t>18.02.202654</t>
-  </si>
-  <si>
-    <t>18.02.202655</t>
-  </si>
-  <si>
-    <t>18.02.202656</t>
-  </si>
-  <si>
-    <t>18.02.202657</t>
-  </si>
-  <si>
-    <t>18.02.202658</t>
-  </si>
-  <si>
-    <t>18.02.202659</t>
-  </si>
-  <si>
-    <t>18.02.202660</t>
-  </si>
-  <si>
-    <t>18.02.202661</t>
-  </si>
-  <si>
-    <t>18.02.202662</t>
-  </si>
-  <si>
-    <t>18.02.202663</t>
-  </si>
-  <si>
-    <t>18.02.202664</t>
-  </si>
-  <si>
-    <t>18.02.202665</t>
-  </si>
-  <si>
-    <t>18.02.202666</t>
-  </si>
-  <si>
-    <t>18.02.202667</t>
-  </si>
-  <si>
-    <t>18.02.202668</t>
-  </si>
-  <si>
-    <t>18.02.202669</t>
-  </si>
-  <si>
-    <t>18.02.202670</t>
-  </si>
-  <si>
-    <t>18.02.202671</t>
-  </si>
-  <si>
-    <t>18.02.202672</t>
-  </si>
-  <si>
-    <t>18.02.202673</t>
-  </si>
-  <si>
-    <t>18.02.202674</t>
-  </si>
-  <si>
-    <t>18.02.202675</t>
-  </si>
-  <si>
-    <t>18.02.202676</t>
-  </si>
-  <si>
-    <t>18.02.202677</t>
-  </si>
-  <si>
-    <t>18.02.202678</t>
-  </si>
-  <si>
-    <t>18.02.202679</t>
-  </si>
-  <si>
-    <t>18.02.202680</t>
-  </si>
-  <si>
-    <t>18.02.202681</t>
-  </si>
-  <si>
-    <t>18.02.202682</t>
-  </si>
-  <si>
-    <t>18.02.202683</t>
-  </si>
-  <si>
-    <t>18.02.202684</t>
-  </si>
-  <si>
-    <t>18.02.202685</t>
-  </si>
-  <si>
-    <t>18.02.202686</t>
-  </si>
-  <si>
-    <t>18.02.202687</t>
-  </si>
-  <si>
-    <t>18.02.202688</t>
-  </si>
-  <si>
-    <t>18.02.202689</t>
-  </si>
-  <si>
-    <t>18.02.202690</t>
-  </si>
-  <si>
-    <t>18.02.202691</t>
-  </si>
-  <si>
-    <t>18.02.202692</t>
-  </si>
-  <si>
-    <t>18.02.202693</t>
-  </si>
-  <si>
-    <t>18.02.202694</t>
-  </si>
-  <si>
-    <t>18.02.202695</t>
-  </si>
-  <si>
-    <t>18.02.202696</t>
+    <t>19.02.20261</t>
+  </si>
+  <si>
+    <t>19.02.20262</t>
+  </si>
+  <si>
+    <t>19.02.20263</t>
+  </si>
+  <si>
+    <t>19.02.20264</t>
+  </si>
+  <si>
+    <t>19.02.20265</t>
+  </si>
+  <si>
+    <t>19.02.20266</t>
+  </si>
+  <si>
+    <t>19.02.20267</t>
+  </si>
+  <si>
+    <t>19.02.20268</t>
+  </si>
+  <si>
+    <t>19.02.20269</t>
+  </si>
+  <si>
+    <t>19.02.202610</t>
+  </si>
+  <si>
+    <t>19.02.202611</t>
+  </si>
+  <si>
+    <t>19.02.202612</t>
+  </si>
+  <si>
+    <t>19.02.202613</t>
+  </si>
+  <si>
+    <t>19.02.202614</t>
+  </si>
+  <si>
+    <t>19.02.202615</t>
+  </si>
+  <si>
+    <t>19.02.202616</t>
+  </si>
+  <si>
+    <t>19.02.202617</t>
+  </si>
+  <si>
+    <t>19.02.202618</t>
+  </si>
+  <si>
+    <t>19.02.202619</t>
+  </si>
+  <si>
+    <t>19.02.202620</t>
+  </si>
+  <si>
+    <t>19.02.202621</t>
+  </si>
+  <si>
+    <t>19.02.202622</t>
+  </si>
+  <si>
+    <t>19.02.202623</t>
+  </si>
+  <si>
+    <t>19.02.202624</t>
+  </si>
+  <si>
+    <t>19.02.202625</t>
+  </si>
+  <si>
+    <t>19.02.202626</t>
+  </si>
+  <si>
+    <t>19.02.202627</t>
+  </si>
+  <si>
+    <t>19.02.202628</t>
+  </si>
+  <si>
+    <t>19.02.202629</t>
+  </si>
+  <si>
+    <t>19.02.202630</t>
+  </si>
+  <si>
+    <t>19.02.202631</t>
+  </si>
+  <si>
+    <t>19.02.202632</t>
+  </si>
+  <si>
+    <t>19.02.202633</t>
+  </si>
+  <si>
+    <t>19.02.202634</t>
+  </si>
+  <si>
+    <t>19.02.202635</t>
+  </si>
+  <si>
+    <t>19.02.202636</t>
+  </si>
+  <si>
+    <t>19.02.202637</t>
+  </si>
+  <si>
+    <t>19.02.202638</t>
+  </si>
+  <si>
+    <t>19.02.202639</t>
+  </si>
+  <si>
+    <t>19.02.202640</t>
+  </si>
+  <si>
+    <t>19.02.202641</t>
+  </si>
+  <si>
+    <t>19.02.202642</t>
+  </si>
+  <si>
+    <t>19.02.202643</t>
+  </si>
+  <si>
+    <t>19.02.202644</t>
+  </si>
+  <si>
+    <t>19.02.202645</t>
+  </si>
+  <si>
+    <t>19.02.202646</t>
+  </si>
+  <si>
+    <t>19.02.202647</t>
+  </si>
+  <si>
+    <t>19.02.202648</t>
+  </si>
+  <si>
+    <t>19.02.202649</t>
+  </si>
+  <si>
+    <t>19.02.202650</t>
+  </si>
+  <si>
+    <t>19.02.202651</t>
+  </si>
+  <si>
+    <t>19.02.202652</t>
+  </si>
+  <si>
+    <t>19.02.202653</t>
+  </si>
+  <si>
+    <t>19.02.202654</t>
+  </si>
+  <si>
+    <t>19.02.202655</t>
+  </si>
+  <si>
+    <t>19.02.202656</t>
+  </si>
+  <si>
+    <t>19.02.202657</t>
+  </si>
+  <si>
+    <t>19.02.202658</t>
+  </si>
+  <si>
+    <t>19.02.202659</t>
+  </si>
+  <si>
+    <t>19.02.202660</t>
+  </si>
+  <si>
+    <t>19.02.202661</t>
+  </si>
+  <si>
+    <t>19.02.202662</t>
+  </si>
+  <si>
+    <t>19.02.202663</t>
+  </si>
+  <si>
+    <t>19.02.202664</t>
+  </si>
+  <si>
+    <t>19.02.202665</t>
+  </si>
+  <si>
+    <t>19.02.202666</t>
+  </si>
+  <si>
+    <t>19.02.202667</t>
+  </si>
+  <si>
+    <t>19.02.202668</t>
+  </si>
+  <si>
+    <t>19.02.202669</t>
+  </si>
+  <si>
+    <t>19.02.202670</t>
+  </si>
+  <si>
+    <t>19.02.202671</t>
+  </si>
+  <si>
+    <t>19.02.202672</t>
+  </si>
+  <si>
+    <t>19.02.202673</t>
+  </si>
+  <si>
+    <t>19.02.202674</t>
+  </si>
+  <si>
+    <t>19.02.202675</t>
+  </si>
+  <si>
+    <t>19.02.202676</t>
+  </si>
+  <si>
+    <t>19.02.202677</t>
+  </si>
+  <si>
+    <t>19.02.202678</t>
+  </si>
+  <si>
+    <t>19.02.202679</t>
+  </si>
+  <si>
+    <t>19.02.202680</t>
+  </si>
+  <si>
+    <t>19.02.202681</t>
+  </si>
+  <si>
+    <t>19.02.202682</t>
+  </si>
+  <si>
+    <t>19.02.202683</t>
+  </si>
+  <si>
+    <t>19.02.202684</t>
+  </si>
+  <si>
+    <t>19.02.202685</t>
+  </si>
+  <si>
+    <t>19.02.202686</t>
+  </si>
+  <si>
+    <t>19.02.202687</t>
+  </si>
+  <si>
+    <t>19.02.202688</t>
+  </si>
+  <si>
+    <t>19.02.202689</t>
+  </si>
+  <si>
+    <t>19.02.202690</t>
+  </si>
+  <si>
+    <t>19.02.202691</t>
+  </si>
+  <si>
+    <t>19.02.202692</t>
+  </si>
+  <si>
+    <t>19.02.202693</t>
+  </si>
+  <si>
+    <t>19.02.202694</t>
+  </si>
+  <si>
+    <t>19.02.202695</t>
+  </si>
+  <si>
+    <t>19.02.202696</t>
+  </si>
+  <si>
+    <t>20.02.20261</t>
+  </si>
+  <si>
+    <t>20.02.20262</t>
+  </si>
+  <si>
+    <t>20.02.20263</t>
+  </si>
+  <si>
+    <t>20.02.20264</t>
+  </si>
+  <si>
+    <t>20.02.20265</t>
+  </si>
+  <si>
+    <t>20.02.20266</t>
+  </si>
+  <si>
+    <t>20.02.20267</t>
+  </si>
+  <si>
+    <t>20.02.20268</t>
+  </si>
+  <si>
+    <t>20.02.20269</t>
+  </si>
+  <si>
+    <t>20.02.202610</t>
+  </si>
+  <si>
+    <t>20.02.202611</t>
+  </si>
+  <si>
+    <t>20.02.202612</t>
+  </si>
+  <si>
+    <t>20.02.202613</t>
+  </si>
+  <si>
+    <t>20.02.202614</t>
+  </si>
+  <si>
+    <t>20.02.202615</t>
+  </si>
+  <si>
+    <t>20.02.202616</t>
+  </si>
+  <si>
+    <t>20.02.202617</t>
+  </si>
+  <si>
+    <t>20.02.202618</t>
+  </si>
+  <si>
+    <t>20.02.202619</t>
+  </si>
+  <si>
+    <t>20.02.202620</t>
+  </si>
+  <si>
+    <t>20.02.202621</t>
+  </si>
+  <si>
+    <t>20.02.202622</t>
+  </si>
+  <si>
+    <t>20.02.202623</t>
+  </si>
+  <si>
+    <t>20.02.202624</t>
+  </si>
+  <si>
+    <t>20.02.202625</t>
+  </si>
+  <si>
+    <t>20.02.202626</t>
+  </si>
+  <si>
+    <t>20.02.202627</t>
+  </si>
+  <si>
+    <t>20.02.202628</t>
+  </si>
+  <si>
+    <t>20.02.202629</t>
+  </si>
+  <si>
+    <t>20.02.202630</t>
+  </si>
+  <si>
+    <t>20.02.202631</t>
+  </si>
+  <si>
+    <t>20.02.202632</t>
+  </si>
+  <si>
+    <t>20.02.202633</t>
+  </si>
+  <si>
+    <t>20.02.202634</t>
+  </si>
+  <si>
+    <t>20.02.202635</t>
+  </si>
+  <si>
+    <t>20.02.202636</t>
+  </si>
+  <si>
+    <t>20.02.202637</t>
+  </si>
+  <si>
+    <t>20.02.202638</t>
+  </si>
+  <si>
+    <t>20.02.202639</t>
+  </si>
+  <si>
+    <t>20.02.202640</t>
+  </si>
+  <si>
+    <t>20.02.202641</t>
+  </si>
+  <si>
+    <t>20.02.202642</t>
+  </si>
+  <si>
+    <t>20.02.202643</t>
+  </si>
+  <si>
+    <t>20.02.202644</t>
+  </si>
+  <si>
+    <t>20.02.202645</t>
+  </si>
+  <si>
+    <t>20.02.202646</t>
+  </si>
+  <si>
+    <t>20.02.202647</t>
+  </si>
+  <si>
+    <t>20.02.202648</t>
+  </si>
+  <si>
+    <t>20.02.202649</t>
+  </si>
+  <si>
+    <t>20.02.202650</t>
+  </si>
+  <si>
+    <t>20.02.202651</t>
+  </si>
+  <si>
+    <t>20.02.202652</t>
+  </si>
+  <si>
+    <t>20.02.202653</t>
+  </si>
+  <si>
+    <t>20.02.202654</t>
+  </si>
+  <si>
+    <t>20.02.202655</t>
+  </si>
+  <si>
+    <t>20.02.202656</t>
+  </si>
+  <si>
+    <t>20.02.202657</t>
+  </si>
+  <si>
+    <t>20.02.202658</t>
+  </si>
+  <si>
+    <t>20.02.202659</t>
+  </si>
+  <si>
+    <t>20.02.202660</t>
+  </si>
+  <si>
+    <t>20.02.202661</t>
+  </si>
+  <si>
+    <t>20.02.202662</t>
+  </si>
+  <si>
+    <t>20.02.202663</t>
+  </si>
+  <si>
+    <t>20.02.202664</t>
+  </si>
+  <si>
+    <t>20.02.202665</t>
+  </si>
+  <si>
+    <t>20.02.202666</t>
+  </si>
+  <si>
+    <t>20.02.202667</t>
+  </si>
+  <si>
+    <t>20.02.202668</t>
+  </si>
+  <si>
+    <t>20.02.202669</t>
+  </si>
+  <si>
+    <t>20.02.202670</t>
+  </si>
+  <si>
+    <t>20.02.202671</t>
+  </si>
+  <si>
+    <t>20.02.202672</t>
+  </si>
+  <si>
+    <t>20.02.202673</t>
+  </si>
+  <si>
+    <t>20.02.202674</t>
+  </si>
+  <si>
+    <t>20.02.202675</t>
+  </si>
+  <si>
+    <t>20.02.202676</t>
+  </si>
+  <si>
+    <t>20.02.202677</t>
+  </si>
+  <si>
+    <t>20.02.202678</t>
+  </si>
+  <si>
+    <t>20.02.202679</t>
+  </si>
+  <si>
+    <t>20.02.202680</t>
+  </si>
+  <si>
+    <t>20.02.202681</t>
+  </si>
+  <si>
+    <t>20.02.202682</t>
+  </si>
+  <si>
+    <t>20.02.202683</t>
+  </si>
+  <si>
+    <t>20.02.202684</t>
+  </si>
+  <si>
+    <t>20.02.202685</t>
+  </si>
+  <si>
+    <t>20.02.202686</t>
+  </si>
+  <si>
+    <t>20.02.202687</t>
+  </si>
+  <si>
+    <t>20.02.202688</t>
+  </si>
+  <si>
+    <t>20.02.202689</t>
+  </si>
+  <si>
+    <t>20.02.202690</t>
+  </si>
+  <si>
+    <t>20.02.202691</t>
+  </si>
+  <si>
+    <t>20.02.202692</t>
+  </si>
+  <si>
+    <t>20.02.202693</t>
+  </si>
+  <si>
+    <t>20.02.202694</t>
+  </si>
+  <si>
+    <t>20.02.202695</t>
+  </si>
+  <si>
+    <t>20.02.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46070.00486111111</v>
+        <v>46072.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46070.01527777778</v>
+        <v>46072.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46070.02569444444</v>
+        <v>46072.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46070.03611111111</v>
+        <v>46072.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46070.04652777778</v>
+        <v>46072.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46070.05694444444</v>
+        <v>46072.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46070.06736111111</v>
+        <v>46072.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46070.07777777778</v>
+        <v>46072.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46070.08819444444</v>
+        <v>46072.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46070.09861111111</v>
+        <v>46072.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46070.10902777778</v>
+        <v>46072.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46070.11944444444</v>
+        <v>46072.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46070.12986111111</v>
+        <v>46072.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46070.14027777778</v>
+        <v>46072.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46070.15069444444</v>
+        <v>46072.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46070.16111111111</v>
+        <v>46072.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46070.17152777778</v>
+        <v>46072.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46070.18194444444</v>
+        <v>46072.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46070.19236111111</v>
+        <v>46072.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46070.20277777778</v>
+        <v>46072.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46070.21319444444</v>
+        <v>46072.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46070.22361111111</v>
+        <v>46072.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46070.23402777778</v>
+        <v>46072.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46070.24444444444</v>
+        <v>46072.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46070.25486111111</v>
+        <v>46072.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46070.26527777778</v>
+        <v>46072.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46070.27569444444</v>
+        <v>46072.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46070.28611111111</v>
+        <v>46072.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46070.29652777778</v>
+        <v>46072.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46070.30694444444</v>
+        <v>46072.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46070.31736111111</v>
+        <v>46072.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46070.32777777778</v>
+        <v>46072.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46070.33819444444</v>
+        <v>46072.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46070.34861111111</v>
+        <v>46072.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46070.35902777778</v>
+        <v>46072.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46070.36944444444</v>
+        <v>46072.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46070.37986111111</v>
+        <v>46072.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46070.39027777778</v>
+        <v>46072.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46070.40069444444</v>
+        <v>46072.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46070.41111111111</v>
+        <v>46072.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46070.42152777778</v>
+        <v>46072.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46070.43194444444</v>
+        <v>46072.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46070.44236111111</v>
+        <v>46072.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46070.45277777778</v>
+        <v>46072.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46070.46319444444</v>
+        <v>46072.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46070.47361111111</v>
+        <v>46072.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46070.48402777778</v>
+        <v>46072.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46070.49444444444</v>
+        <v>46072.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46070.50486111111</v>
+        <v>46072.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46070.51527777778</v>
+        <v>46072.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46070.52569444444</v>
+        <v>46072.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46070.53611111111</v>
+        <v>46072.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46070.54652777778</v>
+        <v>46072.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46070.55694444444</v>
+        <v>46072.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46070.56736111111</v>
+        <v>46072.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46070.57777777778</v>
+        <v>46072.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46070.58819444444</v>
+        <v>46072.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46070.59861111111</v>
+        <v>46072.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46070.60902777778</v>
+        <v>46072.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46070.61944444444</v>
+        <v>46072.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46070.62986111111</v>
+        <v>46072.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46070.64027777778</v>
+        <v>46072.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46070.65069444444</v>
+        <v>46072.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46070.66111111111</v>
+        <v>46072.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46070.67152777778</v>
+        <v>46072.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46070.68194444444</v>
+        <v>46072.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46070.69236111111</v>
+        <v>46072.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46070.70277777778</v>
+        <v>46072.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46070.71319444444</v>
+        <v>46072.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46070.72361111111</v>
+        <v>46072.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46070.73402777778</v>
+        <v>46072.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46070.74444444444</v>
+        <v>46072.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46070.75486111111</v>
+        <v>46072.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46070.76527777778</v>
+        <v>46072.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46070.77569444444</v>
+        <v>46072.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46070.78611111111</v>
+        <v>46072.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46070.79652777778</v>
+        <v>46072.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46070.80694444444</v>
+        <v>46072.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46070.81736111111</v>
+        <v>46072.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46070.82777777778</v>
+        <v>46072.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46070.83819444444</v>
+        <v>46072.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46070.84861111111</v>
+        <v>46072.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46070.85902777778</v>
+        <v>46072.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46070.86944444444</v>
+        <v>46072.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46070.87986111111</v>
+        <v>46072.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46070.89027777778</v>
+        <v>46072.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46070.90069444444</v>
+        <v>46072.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46070.91111111111</v>
+        <v>46072.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46070.92152777778</v>
+        <v>46072.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46070.92152777778</v>
+        <v>46072.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46070.93194444444</v>
+        <v>46072.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46070.93194444444</v>
+        <v>46072.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46070.94236111111</v>
+        <v>46072.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46070.94236111111</v>
+        <v>46072.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46070.95277777778</v>
+        <v>46072.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46070.95277777778</v>
+        <v>46072.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46070.96319444444</v>
+        <v>46072.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46070.96319444444</v>
+        <v>46072.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46070.97361111111</v>
+        <v>46072.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46070.97361111111</v>
+        <v>46072.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46070.98402777778</v>
+        <v>46072.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46070.98402777778</v>
+        <v>46072.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46070.99444444444</v>
+        <v>46072.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46070.99444444444</v>
+        <v>46072.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46071.00486111111</v>
+        <v>46073.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46071.01527777778</v>
+        <v>46073.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46071.02569444444</v>
+        <v>46073.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46071.03611111111</v>
+        <v>46073.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46071.04652777778</v>
+        <v>46073.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46071.05694444444</v>
+        <v>46073.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46071.06736111111</v>
+        <v>46073.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46071.07777777778</v>
+        <v>46073.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46071.08819444444</v>
+        <v>46073.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46071.09861111111</v>
+        <v>46073.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46071.10902777778</v>
+        <v>46073.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46071.11944444444</v>
+        <v>46073.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46071.12986111111</v>
+        <v>46073.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46071.14027777778</v>
+        <v>46073.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46071.15069444444</v>
+        <v>46073.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46071.16111111111</v>
+        <v>46073.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46071.17152777778</v>
+        <v>46073.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46071.18194444444</v>
+        <v>46073.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46071.19236111111</v>
+        <v>46073.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46071.20277777778</v>
+        <v>46073.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46071.21319444444</v>
+        <v>46073.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46071.22361111111</v>
+        <v>46073.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46071.23402777778</v>
+        <v>46073.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46071.24444444444</v>
+        <v>46073.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46071.25486111111</v>
+        <v>46073.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46071.26527777778</v>
+        <v>46073.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46071.27569444444</v>
+        <v>46073.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46071.28611111111</v>
+        <v>46073.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46071.29652777778</v>
+        <v>46073.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46071.30694444444</v>
+        <v>46073.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46071.31736111111</v>
+        <v>46073.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46071.32777777778</v>
+        <v>46073.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46071.33819444444</v>
+        <v>46073.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46071.34861111111</v>
+        <v>46073.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46071.35902777778</v>
+        <v>46073.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46071.36944444444</v>
+        <v>46073.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46071.37986111111</v>
+        <v>46073.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46071.39027777778</v>
+        <v>46073.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46071.40069444444</v>
+        <v>46073.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46071.41111111111</v>
+        <v>46073.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46071.42152777778</v>
+        <v>46073.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46071.43194444444</v>
+        <v>46073.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46071.44236111111</v>
+        <v>46073.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46071.45277777778</v>
+        <v>46073.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46071.46319444444</v>
+        <v>46073.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46071.47361111111</v>
+        <v>46073.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46071.48402777778</v>
+        <v>46073.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46071.49444444444</v>
+        <v>46073.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46071.50486111111</v>
+        <v>46073.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46071.51527777778</v>
+        <v>46073.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46071.52569444444</v>
+        <v>46073.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46071.53611111111</v>
+        <v>46073.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46071.54652777778</v>
+        <v>46073.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46071.55694444444</v>
+        <v>46073.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46071.56736111111</v>
+        <v>46073.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46071.57777777778</v>
+        <v>46073.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46071.58819444444</v>
+        <v>46073.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46071.59861111111</v>
+        <v>46073.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46071.60902777778</v>
+        <v>46073.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46071.61944444444</v>
+        <v>46073.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46071.62986111111</v>
+        <v>46073.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46071.64027777778</v>
+        <v>46073.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46071.65069444444</v>
+        <v>46073.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46071.66111111111</v>
+        <v>46073.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46071.67152777778</v>
+        <v>46073.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46071.68194444444</v>
+        <v>46073.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46071.69236111111</v>
+        <v>46073.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46071.70277777778</v>
+        <v>46073.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46071.71319444444</v>
+        <v>46073.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46071.72361111111</v>
+        <v>46073.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46071.73402777778</v>
+        <v>46073.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46071.74444444444</v>
+        <v>46073.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46071.75486111111</v>
+        <v>46073.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46071.76527777778</v>
+        <v>46073.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46071.77569444444</v>
+        <v>46073.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46071.78611111111</v>
+        <v>46073.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46071.79652777778</v>
+        <v>46073.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46071.80694444444</v>
+        <v>46073.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46071.81736111111</v>
+        <v>46073.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46071.82777777778</v>
+        <v>46073.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46071.83819444444</v>
+        <v>46073.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46071.84861111111</v>
+        <v>46073.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46071.85902777778</v>
+        <v>46073.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46071.86944444444</v>
+        <v>46073.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46071.87986111111</v>
+        <v>46073.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46071.89027777778</v>
+        <v>46073.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46071.90069444444</v>
+        <v>46073.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46071.91111111111</v>
+        <v>46073.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46071.92152777778</v>
+        <v>46073.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46071.93194444444</v>
+        <v>46073.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46071.94236111111</v>
+        <v>46073.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46071.95277777778</v>
+        <v>46073.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46071.96319444444</v>
+        <v>46073.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46071.97361111111</v>
+        <v>46073.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46071.98402777778</v>
+        <v>46073.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46071.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,294 +31,6 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.02.20261</t>
-  </si>
-  <si>
-    <t>19.02.20262</t>
-  </si>
-  <si>
-    <t>19.02.20263</t>
-  </si>
-  <si>
-    <t>19.02.20264</t>
-  </si>
-  <si>
-    <t>19.02.20265</t>
-  </si>
-  <si>
-    <t>19.02.20266</t>
-  </si>
-  <si>
-    <t>19.02.20267</t>
-  </si>
-  <si>
-    <t>19.02.20268</t>
-  </si>
-  <si>
-    <t>19.02.20269</t>
-  </si>
-  <si>
-    <t>19.02.202610</t>
-  </si>
-  <si>
-    <t>19.02.202611</t>
-  </si>
-  <si>
-    <t>19.02.202612</t>
-  </si>
-  <si>
-    <t>19.02.202613</t>
-  </si>
-  <si>
-    <t>19.02.202614</t>
-  </si>
-  <si>
-    <t>19.02.202615</t>
-  </si>
-  <si>
-    <t>19.02.202616</t>
-  </si>
-  <si>
-    <t>19.02.202617</t>
-  </si>
-  <si>
-    <t>19.02.202618</t>
-  </si>
-  <si>
-    <t>19.02.202619</t>
-  </si>
-  <si>
-    <t>19.02.202620</t>
-  </si>
-  <si>
-    <t>19.02.202621</t>
-  </si>
-  <si>
-    <t>19.02.202622</t>
-  </si>
-  <si>
-    <t>19.02.202623</t>
-  </si>
-  <si>
-    <t>19.02.202624</t>
-  </si>
-  <si>
-    <t>19.02.202625</t>
-  </si>
-  <si>
-    <t>19.02.202626</t>
-  </si>
-  <si>
-    <t>19.02.202627</t>
-  </si>
-  <si>
-    <t>19.02.202628</t>
-  </si>
-  <si>
-    <t>19.02.202629</t>
-  </si>
-  <si>
-    <t>19.02.202630</t>
-  </si>
-  <si>
-    <t>19.02.202631</t>
-  </si>
-  <si>
-    <t>19.02.202632</t>
-  </si>
-  <si>
-    <t>19.02.202633</t>
-  </si>
-  <si>
-    <t>19.02.202634</t>
-  </si>
-  <si>
-    <t>19.02.202635</t>
-  </si>
-  <si>
-    <t>19.02.202636</t>
-  </si>
-  <si>
-    <t>19.02.202637</t>
-  </si>
-  <si>
-    <t>19.02.202638</t>
-  </si>
-  <si>
-    <t>19.02.202639</t>
-  </si>
-  <si>
-    <t>19.02.202640</t>
-  </si>
-  <si>
-    <t>19.02.202641</t>
-  </si>
-  <si>
-    <t>19.02.202642</t>
-  </si>
-  <si>
-    <t>19.02.202643</t>
-  </si>
-  <si>
-    <t>19.02.202644</t>
-  </si>
-  <si>
-    <t>19.02.202645</t>
-  </si>
-  <si>
-    <t>19.02.202646</t>
-  </si>
-  <si>
-    <t>19.02.202647</t>
-  </si>
-  <si>
-    <t>19.02.202648</t>
-  </si>
-  <si>
-    <t>19.02.202649</t>
-  </si>
-  <si>
-    <t>19.02.202650</t>
-  </si>
-  <si>
-    <t>19.02.202651</t>
-  </si>
-  <si>
-    <t>19.02.202652</t>
-  </si>
-  <si>
-    <t>19.02.202653</t>
-  </si>
-  <si>
-    <t>19.02.202654</t>
-  </si>
-  <si>
-    <t>19.02.202655</t>
-  </si>
-  <si>
-    <t>19.02.202656</t>
-  </si>
-  <si>
-    <t>19.02.202657</t>
-  </si>
-  <si>
-    <t>19.02.202658</t>
-  </si>
-  <si>
-    <t>19.02.202659</t>
-  </si>
-  <si>
-    <t>19.02.202660</t>
-  </si>
-  <si>
-    <t>19.02.202661</t>
-  </si>
-  <si>
-    <t>19.02.202662</t>
-  </si>
-  <si>
-    <t>19.02.202663</t>
-  </si>
-  <si>
-    <t>19.02.202664</t>
-  </si>
-  <si>
-    <t>19.02.202665</t>
-  </si>
-  <si>
-    <t>19.02.202666</t>
-  </si>
-  <si>
-    <t>19.02.202667</t>
-  </si>
-  <si>
-    <t>19.02.202668</t>
-  </si>
-  <si>
-    <t>19.02.202669</t>
-  </si>
-  <si>
-    <t>19.02.202670</t>
-  </si>
-  <si>
-    <t>19.02.202671</t>
-  </si>
-  <si>
-    <t>19.02.202672</t>
-  </si>
-  <si>
-    <t>19.02.202673</t>
-  </si>
-  <si>
-    <t>19.02.202674</t>
-  </si>
-  <si>
-    <t>19.02.202675</t>
-  </si>
-  <si>
-    <t>19.02.202676</t>
-  </si>
-  <si>
-    <t>19.02.202677</t>
-  </si>
-  <si>
-    <t>19.02.202678</t>
-  </si>
-  <si>
-    <t>19.02.202679</t>
-  </si>
-  <si>
-    <t>19.02.202680</t>
-  </si>
-  <si>
-    <t>19.02.202681</t>
-  </si>
-  <si>
-    <t>19.02.202682</t>
-  </si>
-  <si>
-    <t>19.02.202683</t>
-  </si>
-  <si>
-    <t>19.02.202684</t>
-  </si>
-  <si>
-    <t>19.02.202685</t>
-  </si>
-  <si>
-    <t>19.02.202686</t>
-  </si>
-  <si>
-    <t>19.02.202687</t>
-  </si>
-  <si>
-    <t>19.02.202688</t>
-  </si>
-  <si>
-    <t>19.02.202689</t>
-  </si>
-  <si>
-    <t>19.02.202690</t>
-  </si>
-  <si>
-    <t>19.02.202691</t>
-  </si>
-  <si>
-    <t>19.02.202692</t>
-  </si>
-  <si>
-    <t>19.02.202693</t>
-  </si>
-  <si>
-    <t>19.02.202694</t>
-  </si>
-  <si>
-    <t>19.02.202695</t>
-  </si>
-  <si>
-    <t>19.02.202696</t>
-  </si>
-  <si>
     <t>20.02.20261</t>
   </si>
   <si>
@@ -605,6 +317,294 @@
   </si>
   <si>
     <t>20.02.202696</t>
+  </si>
+  <si>
+    <t>21.02.20261</t>
+  </si>
+  <si>
+    <t>21.02.20262</t>
+  </si>
+  <si>
+    <t>21.02.20263</t>
+  </si>
+  <si>
+    <t>21.02.20264</t>
+  </si>
+  <si>
+    <t>21.02.20265</t>
+  </si>
+  <si>
+    <t>21.02.20266</t>
+  </si>
+  <si>
+    <t>21.02.20267</t>
+  </si>
+  <si>
+    <t>21.02.20268</t>
+  </si>
+  <si>
+    <t>21.02.20269</t>
+  </si>
+  <si>
+    <t>21.02.202610</t>
+  </si>
+  <si>
+    <t>21.02.202611</t>
+  </si>
+  <si>
+    <t>21.02.202612</t>
+  </si>
+  <si>
+    <t>21.02.202613</t>
+  </si>
+  <si>
+    <t>21.02.202614</t>
+  </si>
+  <si>
+    <t>21.02.202615</t>
+  </si>
+  <si>
+    <t>21.02.202616</t>
+  </si>
+  <si>
+    <t>21.02.202617</t>
+  </si>
+  <si>
+    <t>21.02.202618</t>
+  </si>
+  <si>
+    <t>21.02.202619</t>
+  </si>
+  <si>
+    <t>21.02.202620</t>
+  </si>
+  <si>
+    <t>21.02.202621</t>
+  </si>
+  <si>
+    <t>21.02.202622</t>
+  </si>
+  <si>
+    <t>21.02.202623</t>
+  </si>
+  <si>
+    <t>21.02.202624</t>
+  </si>
+  <si>
+    <t>21.02.202625</t>
+  </si>
+  <si>
+    <t>21.02.202626</t>
+  </si>
+  <si>
+    <t>21.02.202627</t>
+  </si>
+  <si>
+    <t>21.02.202628</t>
+  </si>
+  <si>
+    <t>21.02.202629</t>
+  </si>
+  <si>
+    <t>21.02.202630</t>
+  </si>
+  <si>
+    <t>21.02.202631</t>
+  </si>
+  <si>
+    <t>21.02.202632</t>
+  </si>
+  <si>
+    <t>21.02.202633</t>
+  </si>
+  <si>
+    <t>21.02.202634</t>
+  </si>
+  <si>
+    <t>21.02.202635</t>
+  </si>
+  <si>
+    <t>21.02.202636</t>
+  </si>
+  <si>
+    <t>21.02.202637</t>
+  </si>
+  <si>
+    <t>21.02.202638</t>
+  </si>
+  <si>
+    <t>21.02.202639</t>
+  </si>
+  <si>
+    <t>21.02.202640</t>
+  </si>
+  <si>
+    <t>21.02.202641</t>
+  </si>
+  <si>
+    <t>21.02.202642</t>
+  </si>
+  <si>
+    <t>21.02.202643</t>
+  </si>
+  <si>
+    <t>21.02.202644</t>
+  </si>
+  <si>
+    <t>21.02.202645</t>
+  </si>
+  <si>
+    <t>21.02.202646</t>
+  </si>
+  <si>
+    <t>21.02.202647</t>
+  </si>
+  <si>
+    <t>21.02.202648</t>
+  </si>
+  <si>
+    <t>21.02.202649</t>
+  </si>
+  <si>
+    <t>21.02.202650</t>
+  </si>
+  <si>
+    <t>21.02.202651</t>
+  </si>
+  <si>
+    <t>21.02.202652</t>
+  </si>
+  <si>
+    <t>21.02.202653</t>
+  </si>
+  <si>
+    <t>21.02.202654</t>
+  </si>
+  <si>
+    <t>21.02.202655</t>
+  </si>
+  <si>
+    <t>21.02.202656</t>
+  </si>
+  <si>
+    <t>21.02.202657</t>
+  </si>
+  <si>
+    <t>21.02.202658</t>
+  </si>
+  <si>
+    <t>21.02.202659</t>
+  </si>
+  <si>
+    <t>21.02.202660</t>
+  </si>
+  <si>
+    <t>21.02.202661</t>
+  </si>
+  <si>
+    <t>21.02.202662</t>
+  </si>
+  <si>
+    <t>21.02.202663</t>
+  </si>
+  <si>
+    <t>21.02.202664</t>
+  </si>
+  <si>
+    <t>21.02.202665</t>
+  </si>
+  <si>
+    <t>21.02.202666</t>
+  </si>
+  <si>
+    <t>21.02.202667</t>
+  </si>
+  <si>
+    <t>21.02.202668</t>
+  </si>
+  <si>
+    <t>21.02.202669</t>
+  </si>
+  <si>
+    <t>21.02.202670</t>
+  </si>
+  <si>
+    <t>21.02.202671</t>
+  </si>
+  <si>
+    <t>21.02.202672</t>
+  </si>
+  <si>
+    <t>21.02.202673</t>
+  </si>
+  <si>
+    <t>21.02.202674</t>
+  </si>
+  <si>
+    <t>21.02.202675</t>
+  </si>
+  <si>
+    <t>21.02.202676</t>
+  </si>
+  <si>
+    <t>21.02.202677</t>
+  </si>
+  <si>
+    <t>21.02.202678</t>
+  </si>
+  <si>
+    <t>21.02.202679</t>
+  </si>
+  <si>
+    <t>21.02.202680</t>
+  </si>
+  <si>
+    <t>21.02.202681</t>
+  </si>
+  <si>
+    <t>21.02.202682</t>
+  </si>
+  <si>
+    <t>21.02.202683</t>
+  </si>
+  <si>
+    <t>21.02.202684</t>
+  </si>
+  <si>
+    <t>21.02.202685</t>
+  </si>
+  <si>
+    <t>21.02.202686</t>
+  </si>
+  <si>
+    <t>21.02.202687</t>
+  </si>
+  <si>
+    <t>21.02.202688</t>
+  </si>
+  <si>
+    <t>21.02.202689</t>
+  </si>
+  <si>
+    <t>21.02.202690</t>
+  </si>
+  <si>
+    <t>21.02.202691</t>
+  </si>
+  <si>
+    <t>21.02.202692</t>
+  </si>
+  <si>
+    <t>21.02.202693</t>
+  </si>
+  <si>
+    <t>21.02.202694</t>
+  </si>
+  <si>
+    <t>21.02.202695</t>
+  </si>
+  <si>
+    <t>21.02.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46072.00486111111</v>
+        <v>46073.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46072.01527777778</v>
+        <v>46073.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46072.02569444444</v>
+        <v>46073.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46072.03611111111</v>
+        <v>46073.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46072.04652777778</v>
+        <v>46073.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46072.05694444444</v>
+        <v>46073.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46072.06736111111</v>
+        <v>46073.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46072.07777777778</v>
+        <v>46073.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46072.08819444444</v>
+        <v>46073.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46072.09861111111</v>
+        <v>46073.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46072.10902777778</v>
+        <v>46073.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46072.11944444444</v>
+        <v>46073.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46072.12986111111</v>
+        <v>46073.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46072.14027777778</v>
+        <v>46073.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46072.15069444444</v>
+        <v>46073.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46072.16111111111</v>
+        <v>46073.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46072.17152777778</v>
+        <v>46073.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46072.18194444444</v>
+        <v>46073.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46072.19236111111</v>
+        <v>46073.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46072.20277777778</v>
+        <v>46073.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46072.21319444444</v>
+        <v>46073.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46072.22361111111</v>
+        <v>46073.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46072.23402777778</v>
+        <v>46073.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46072.24444444444</v>
+        <v>46073.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46072.25486111111</v>
+        <v>46073.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46072.26527777778</v>
+        <v>46073.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46072.27569444444</v>
+        <v>46073.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46072.28611111111</v>
+        <v>46073.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46072.29652777778</v>
+        <v>46073.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46072.30694444444</v>
+        <v>46073.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46072.31736111111</v>
+        <v>46073.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46072.32777777778</v>
+        <v>46073.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46072.33819444444</v>
+        <v>46073.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46072.34861111111</v>
+        <v>46073.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46072.35902777778</v>
+        <v>46073.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46072.36944444444</v>
+        <v>46073.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46072.37986111111</v>
+        <v>46073.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46072.39027777778</v>
+        <v>46073.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46072.40069444444</v>
+        <v>46073.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46072.41111111111</v>
+        <v>46073.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46072.42152777778</v>
+        <v>46073.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46072.43194444444</v>
+        <v>46073.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46072.44236111111</v>
+        <v>46073.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46072.45277777778</v>
+        <v>46073.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46072.46319444444</v>
+        <v>46073.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46072.47361111111</v>
+        <v>46073.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46072.48402777778</v>
+        <v>46073.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46072.49444444444</v>
+        <v>46073.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46072.50486111111</v>
+        <v>46073.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46072.51527777778</v>
+        <v>46073.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46072.52569444444</v>
+        <v>46073.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46072.53611111111</v>
+        <v>46073.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46072.54652777778</v>
+        <v>46073.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46072.55694444444</v>
+        <v>46073.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46072.56736111111</v>
+        <v>46073.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46072.57777777778</v>
+        <v>46073.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46072.58819444444</v>
+        <v>46073.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46072.59861111111</v>
+        <v>46073.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46072.60902777778</v>
+        <v>46073.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46072.61944444444</v>
+        <v>46073.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46072.62986111111</v>
+        <v>46073.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46072.64027777778</v>
+        <v>46073.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46072.65069444444</v>
+        <v>46073.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46072.66111111111</v>
+        <v>46073.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46072.67152777778</v>
+        <v>46073.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46072.68194444444</v>
+        <v>46073.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46072.69236111111</v>
+        <v>46073.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46072.70277777778</v>
+        <v>46073.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46072.71319444444</v>
+        <v>46073.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46072.72361111111</v>
+        <v>46073.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46072.73402777778</v>
+        <v>46073.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46072.74444444444</v>
+        <v>46073.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46072.75486111111</v>
+        <v>46073.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46072.76527777778</v>
+        <v>46073.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46072.77569444444</v>
+        <v>46073.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46072.78611111111</v>
+        <v>46073.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46072.79652777778</v>
+        <v>46073.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46072.80694444444</v>
+        <v>46073.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46072.81736111111</v>
+        <v>46073.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46072.82777777778</v>
+        <v>46073.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46072.83819444444</v>
+        <v>46073.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46072.84861111111</v>
+        <v>46073.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46072.85902777778</v>
+        <v>46073.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46072.86944444444</v>
+        <v>46073.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46072.87986111111</v>
+        <v>46073.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46072.89027777778</v>
+        <v>46073.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46072.90069444444</v>
+        <v>46073.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46072.91111111111</v>
+        <v>46073.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46072.92152777778</v>
+        <v>46073.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46072.92152777778</v>
+        <v>46073.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46072.93194444444</v>
+        <v>46073.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46072.93194444444</v>
+        <v>46073.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46072.94236111111</v>
+        <v>46073.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46072.94236111111</v>
+        <v>46073.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46072.95277777778</v>
+        <v>46073.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46072.95277777778</v>
+        <v>46073.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46072.96319444444</v>
+        <v>46073.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46072.96319444444</v>
+        <v>46073.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46072.97361111111</v>
+        <v>46073.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46072.97361111111</v>
+        <v>46073.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46072.98402777778</v>
+        <v>46073.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46072.98402777778</v>
+        <v>46073.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46072.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46072.99444444444</v>
+        <v>46073.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46073.00486111111</v>
+        <v>46074.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46073.01527777778</v>
+        <v>46074.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46073.02569444444</v>
+        <v>46074.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46073.03611111111</v>
+        <v>46074.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46073.04652777778</v>
+        <v>46074.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46073.05694444444</v>
+        <v>46074.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46073.06736111111</v>
+        <v>46074.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46073.07777777778</v>
+        <v>46074.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46073.08819444444</v>
+        <v>46074.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46073.09861111111</v>
+        <v>46074.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46073.10902777778</v>
+        <v>46074.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46073.11944444444</v>
+        <v>46074.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46073.12986111111</v>
+        <v>46074.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46073.14027777778</v>
+        <v>46074.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46073.15069444444</v>
+        <v>46074.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46073.16111111111</v>
+        <v>46074.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46073.17152777778</v>
+        <v>46074.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46073.18194444444</v>
+        <v>46074.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46073.19236111111</v>
+        <v>46074.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46073.20277777778</v>
+        <v>46074.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46073.21319444444</v>
+        <v>46074.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46073.22361111111</v>
+        <v>46074.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46073.23402777778</v>
+        <v>46074.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46073.24444444444</v>
+        <v>46074.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46073.25486111111</v>
+        <v>46074.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46073.26527777778</v>
+        <v>46074.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46073.27569444444</v>
+        <v>46074.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46073.28611111111</v>
+        <v>46074.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46073.29652777778</v>
+        <v>46074.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46073.30694444444</v>
+        <v>46074.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46073.31736111111</v>
+        <v>46074.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46073.32777777778</v>
+        <v>46074.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46073.33819444444</v>
+        <v>46074.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46073.34861111111</v>
+        <v>46074.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46073.35902777778</v>
+        <v>46074.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46073.36944444444</v>
+        <v>46074.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46073.37986111111</v>
+        <v>46074.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46073.39027777778</v>
+        <v>46074.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46073.40069444444</v>
+        <v>46074.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46073.41111111111</v>
+        <v>46074.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46073.42152777778</v>
+        <v>46074.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46073.43194444444</v>
+        <v>46074.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46073.44236111111</v>
+        <v>46074.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46073.45277777778</v>
+        <v>46074.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46073.46319444444</v>
+        <v>46074.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46073.47361111111</v>
+        <v>46074.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46073.48402777778</v>
+        <v>46074.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46073.49444444444</v>
+        <v>46074.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46073.50486111111</v>
+        <v>46074.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46073.51527777778</v>
+        <v>46074.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46073.52569444444</v>
+        <v>46074.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46073.53611111111</v>
+        <v>46074.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46073.54652777778</v>
+        <v>46074.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46073.55694444444</v>
+        <v>46074.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46073.56736111111</v>
+        <v>46074.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46073.57777777778</v>
+        <v>46074.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46073.58819444444</v>
+        <v>46074.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46073.59861111111</v>
+        <v>46074.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46073.60902777778</v>
+        <v>46074.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46073.61944444444</v>
+        <v>46074.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46073.62986111111</v>
+        <v>46074.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46073.64027777778</v>
+        <v>46074.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46073.65069444444</v>
+        <v>46074.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46073.66111111111</v>
+        <v>46074.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46073.67152777778</v>
+        <v>46074.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46073.68194444444</v>
+        <v>46074.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46073.69236111111</v>
+        <v>46074.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46073.70277777778</v>
+        <v>46074.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46073.71319444444</v>
+        <v>46074.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46073.72361111111</v>
+        <v>46074.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46073.73402777778</v>
+        <v>46074.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46073.74444444444</v>
+        <v>46074.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46073.75486111111</v>
+        <v>46074.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46073.76527777778</v>
+        <v>46074.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46073.77569444444</v>
+        <v>46074.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46073.78611111111</v>
+        <v>46074.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46073.79652777778</v>
+        <v>46074.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46073.80694444444</v>
+        <v>46074.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46073.81736111111</v>
+        <v>46074.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46073.82777777778</v>
+        <v>46074.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46073.83819444444</v>
+        <v>46074.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46073.84861111111</v>
+        <v>46074.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46073.85902777778</v>
+        <v>46074.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46073.86944444444</v>
+        <v>46074.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46073.87986111111</v>
+        <v>46074.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46073.89027777778</v>
+        <v>46074.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46073.90069444444</v>
+        <v>46074.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46073.91111111111</v>
+        <v>46074.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46073.92152777778</v>
+        <v>46074.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46073.93194444444</v>
+        <v>46074.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46073.94236111111</v>
+        <v>46074.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46073.95277777778</v>
+        <v>46074.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46073.96319444444</v>
+        <v>46074.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46073.97361111111</v>
+        <v>46074.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46073.98402777778</v>
+        <v>46074.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46073.99444444444</v>
+        <v>46074.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>

--- a/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
+++ b/data_fetching/Entsoe/IGCC_Netting_Flows_Historical.xlsx
@@ -31,580 +31,580 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>20.02.20261</t>
-  </si>
-  <si>
-    <t>20.02.20262</t>
-  </si>
-  <si>
-    <t>20.02.20263</t>
-  </si>
-  <si>
-    <t>20.02.20264</t>
-  </si>
-  <si>
-    <t>20.02.20265</t>
-  </si>
-  <si>
-    <t>20.02.20266</t>
-  </si>
-  <si>
-    <t>20.02.20267</t>
-  </si>
-  <si>
-    <t>20.02.20268</t>
-  </si>
-  <si>
-    <t>20.02.20269</t>
-  </si>
-  <si>
-    <t>20.02.202610</t>
-  </si>
-  <si>
-    <t>20.02.202611</t>
-  </si>
-  <si>
-    <t>20.02.202612</t>
-  </si>
-  <si>
-    <t>20.02.202613</t>
-  </si>
-  <si>
-    <t>20.02.202614</t>
-  </si>
-  <si>
-    <t>20.02.202615</t>
-  </si>
-  <si>
-    <t>20.02.202616</t>
-  </si>
-  <si>
-    <t>20.02.202617</t>
-  </si>
-  <si>
-    <t>20.02.202618</t>
-  </si>
-  <si>
-    <t>20.02.202619</t>
-  </si>
-  <si>
-    <t>20.02.202620</t>
-  </si>
-  <si>
-    <t>20.02.202621</t>
-  </si>
-  <si>
-    <t>20.02.202622</t>
-  </si>
-  <si>
-    <t>20.02.202623</t>
-  </si>
-  <si>
-    <t>20.02.202624</t>
-  </si>
-  <si>
-    <t>20.02.202625</t>
-  </si>
-  <si>
-    <t>20.02.202626</t>
-  </si>
-  <si>
-    <t>20.02.202627</t>
-  </si>
-  <si>
-    <t>20.02.202628</t>
-  </si>
-  <si>
-    <t>20.02.202629</t>
-  </si>
-  <si>
-    <t>20.02.202630</t>
-  </si>
-  <si>
-    <t>20.02.202631</t>
-  </si>
-  <si>
-    <t>20.02.202632</t>
-  </si>
-  <si>
-    <t>20.02.202633</t>
-  </si>
-  <si>
-    <t>20.02.202634</t>
-  </si>
-  <si>
-    <t>20.02.202635</t>
-  </si>
-  <si>
-    <t>20.02.202636</t>
-  </si>
-  <si>
-    <t>20.02.202637</t>
-  </si>
-  <si>
-    <t>20.02.202638</t>
-  </si>
-  <si>
-    <t>20.02.202639</t>
-  </si>
-  <si>
-    <t>20.02.202640</t>
-  </si>
-  <si>
-    <t>20.02.202641</t>
-  </si>
-  <si>
-    <t>20.02.202642</t>
-  </si>
-  <si>
-    <t>20.02.202643</t>
-  </si>
-  <si>
-    <t>20.02.202644</t>
-  </si>
-  <si>
-    <t>20.02.202645</t>
-  </si>
-  <si>
-    <t>20.02.202646</t>
-  </si>
-  <si>
-    <t>20.02.202647</t>
-  </si>
-  <si>
-    <t>20.02.202648</t>
-  </si>
-  <si>
-    <t>20.02.202649</t>
-  </si>
-  <si>
-    <t>20.02.202650</t>
-  </si>
-  <si>
-    <t>20.02.202651</t>
-  </si>
-  <si>
-    <t>20.02.202652</t>
-  </si>
-  <si>
-    <t>20.02.202653</t>
-  </si>
-  <si>
-    <t>20.02.202654</t>
-  </si>
-  <si>
-    <t>20.02.202655</t>
-  </si>
-  <si>
-    <t>20.02.202656</t>
-  </si>
-  <si>
-    <t>20.02.202657</t>
-  </si>
-  <si>
-    <t>20.02.202658</t>
-  </si>
-  <si>
-    <t>20.02.202659</t>
-  </si>
-  <si>
-    <t>20.02.202660</t>
-  </si>
-  <si>
-    <t>20.02.202661</t>
-  </si>
-  <si>
-    <t>20.02.202662</t>
-  </si>
-  <si>
-    <t>20.02.202663</t>
-  </si>
-  <si>
-    <t>20.02.202664</t>
-  </si>
-  <si>
-    <t>20.02.202665</t>
-  </si>
-  <si>
-    <t>20.02.202666</t>
-  </si>
-  <si>
-    <t>20.02.202667</t>
-  </si>
-  <si>
-    <t>20.02.202668</t>
-  </si>
-  <si>
-    <t>20.02.202669</t>
-  </si>
-  <si>
-    <t>20.02.202670</t>
-  </si>
-  <si>
-    <t>20.02.202671</t>
-  </si>
-  <si>
-    <t>20.02.202672</t>
-  </si>
-  <si>
-    <t>20.02.202673</t>
-  </si>
-  <si>
-    <t>20.02.202674</t>
-  </si>
-  <si>
-    <t>20.02.202675</t>
-  </si>
-  <si>
-    <t>20.02.202676</t>
-  </si>
-  <si>
-    <t>20.02.202677</t>
-  </si>
-  <si>
-    <t>20.02.202678</t>
-  </si>
-  <si>
-    <t>20.02.202679</t>
-  </si>
-  <si>
-    <t>20.02.202680</t>
-  </si>
-  <si>
-    <t>20.02.202681</t>
-  </si>
-  <si>
-    <t>20.02.202682</t>
-  </si>
-  <si>
-    <t>20.02.202683</t>
-  </si>
-  <si>
-    <t>20.02.202684</t>
-  </si>
-  <si>
-    <t>20.02.202685</t>
-  </si>
-  <si>
-    <t>20.02.202686</t>
-  </si>
-  <si>
-    <t>20.02.202687</t>
-  </si>
-  <si>
-    <t>20.02.202688</t>
-  </si>
-  <si>
-    <t>20.02.202689</t>
-  </si>
-  <si>
-    <t>20.02.202690</t>
-  </si>
-  <si>
-    <t>20.02.202691</t>
-  </si>
-  <si>
-    <t>20.02.202692</t>
-  </si>
-  <si>
-    <t>20.02.202693</t>
-  </si>
-  <si>
-    <t>20.02.202694</t>
-  </si>
-  <si>
-    <t>20.02.202695</t>
-  </si>
-  <si>
-    <t>20.02.202696</t>
-  </si>
-  <si>
-    <t>21.02.20261</t>
-  </si>
-  <si>
-    <t>21.02.20262</t>
-  </si>
-  <si>
-    <t>21.02.20263</t>
-  </si>
-  <si>
-    <t>21.02.20264</t>
-  </si>
-  <si>
-    <t>21.02.20265</t>
-  </si>
-  <si>
-    <t>21.02.20266</t>
-  </si>
-  <si>
-    <t>21.02.20267</t>
-  </si>
-  <si>
-    <t>21.02.20268</t>
-  </si>
-  <si>
-    <t>21.02.20269</t>
-  </si>
-  <si>
-    <t>21.02.202610</t>
-  </si>
-  <si>
-    <t>21.02.202611</t>
-  </si>
-  <si>
-    <t>21.02.202612</t>
-  </si>
-  <si>
-    <t>21.02.202613</t>
-  </si>
-  <si>
-    <t>21.02.202614</t>
-  </si>
-  <si>
-    <t>21.02.202615</t>
-  </si>
-  <si>
-    <t>21.02.202616</t>
-  </si>
-  <si>
-    <t>21.02.202617</t>
-  </si>
-  <si>
-    <t>21.02.202618</t>
-  </si>
-  <si>
-    <t>21.02.202619</t>
-  </si>
-  <si>
-    <t>21.02.202620</t>
-  </si>
-  <si>
-    <t>21.02.202621</t>
-  </si>
-  <si>
-    <t>21.02.202622</t>
-  </si>
-  <si>
-    <t>21.02.202623</t>
-  </si>
-  <si>
-    <t>21.02.202624</t>
-  </si>
-  <si>
-    <t>21.02.202625</t>
-  </si>
-  <si>
-    <t>21.02.202626</t>
-  </si>
-  <si>
-    <t>21.02.202627</t>
-  </si>
-  <si>
-    <t>21.02.202628</t>
-  </si>
-  <si>
-    <t>21.02.202629</t>
-  </si>
-  <si>
-    <t>21.02.202630</t>
-  </si>
-  <si>
-    <t>21.02.202631</t>
-  </si>
-  <si>
-    <t>21.02.202632</t>
-  </si>
-  <si>
-    <t>21.02.202633</t>
-  </si>
-  <si>
-    <t>21.02.202634</t>
-  </si>
-  <si>
-    <t>21.02.202635</t>
-  </si>
-  <si>
-    <t>21.02.202636</t>
-  </si>
-  <si>
-    <t>21.02.202637</t>
-  </si>
-  <si>
-    <t>21.02.202638</t>
-  </si>
-  <si>
-    <t>21.02.202639</t>
-  </si>
-  <si>
-    <t>21.02.202640</t>
-  </si>
-  <si>
-    <t>21.02.202641</t>
-  </si>
-  <si>
-    <t>21.02.202642</t>
-  </si>
-  <si>
-    <t>21.02.202643</t>
-  </si>
-  <si>
-    <t>21.02.202644</t>
-  </si>
-  <si>
-    <t>21.02.202645</t>
-  </si>
-  <si>
-    <t>21.02.202646</t>
-  </si>
-  <si>
-    <t>21.02.202647</t>
-  </si>
-  <si>
-    <t>21.02.202648</t>
-  </si>
-  <si>
-    <t>21.02.202649</t>
-  </si>
-  <si>
-    <t>21.02.202650</t>
-  </si>
-  <si>
-    <t>21.02.202651</t>
-  </si>
-  <si>
-    <t>21.02.202652</t>
-  </si>
-  <si>
-    <t>21.02.202653</t>
-  </si>
-  <si>
-    <t>21.02.202654</t>
-  </si>
-  <si>
-    <t>21.02.202655</t>
-  </si>
-  <si>
-    <t>21.02.202656</t>
-  </si>
-  <si>
-    <t>21.02.202657</t>
-  </si>
-  <si>
-    <t>21.02.202658</t>
-  </si>
-  <si>
-    <t>21.02.202659</t>
-  </si>
-  <si>
-    <t>21.02.202660</t>
-  </si>
-  <si>
-    <t>21.02.202661</t>
-  </si>
-  <si>
-    <t>21.02.202662</t>
-  </si>
-  <si>
-    <t>21.02.202663</t>
-  </si>
-  <si>
-    <t>21.02.202664</t>
-  </si>
-  <si>
-    <t>21.02.202665</t>
-  </si>
-  <si>
-    <t>21.02.202666</t>
-  </si>
-  <si>
-    <t>21.02.202667</t>
-  </si>
-  <si>
-    <t>21.02.202668</t>
-  </si>
-  <si>
-    <t>21.02.202669</t>
-  </si>
-  <si>
-    <t>21.02.202670</t>
-  </si>
-  <si>
-    <t>21.02.202671</t>
-  </si>
-  <si>
-    <t>21.02.202672</t>
-  </si>
-  <si>
-    <t>21.02.202673</t>
-  </si>
-  <si>
-    <t>21.02.202674</t>
-  </si>
-  <si>
-    <t>21.02.202675</t>
-  </si>
-  <si>
-    <t>21.02.202676</t>
-  </si>
-  <si>
-    <t>21.02.202677</t>
-  </si>
-  <si>
-    <t>21.02.202678</t>
-  </si>
-  <si>
-    <t>21.02.202679</t>
-  </si>
-  <si>
-    <t>21.02.202680</t>
-  </si>
-  <si>
-    <t>21.02.202681</t>
-  </si>
-  <si>
-    <t>21.02.202682</t>
-  </si>
-  <si>
-    <t>21.02.202683</t>
-  </si>
-  <si>
-    <t>21.02.202684</t>
-  </si>
-  <si>
-    <t>21.02.202685</t>
-  </si>
-  <si>
-    <t>21.02.202686</t>
-  </si>
-  <si>
-    <t>21.02.202687</t>
-  </si>
-  <si>
-    <t>21.02.202688</t>
-  </si>
-  <si>
-    <t>21.02.202689</t>
-  </si>
-  <si>
-    <t>21.02.202690</t>
-  </si>
-  <si>
-    <t>21.02.202691</t>
-  </si>
-  <si>
-    <t>21.02.202692</t>
-  </si>
-  <si>
-    <t>21.02.202693</t>
-  </si>
-  <si>
-    <t>21.02.202694</t>
-  </si>
-  <si>
-    <t>21.02.202695</t>
-  </si>
-  <si>
-    <t>21.02.202696</t>
+    <t>25.02.20261</t>
+  </si>
+  <si>
+    <t>25.02.20262</t>
+  </si>
+  <si>
+    <t>25.02.20263</t>
+  </si>
+  <si>
+    <t>25.02.20264</t>
+  </si>
+  <si>
+    <t>25.02.20265</t>
+  </si>
+  <si>
+    <t>25.02.20266</t>
+  </si>
+  <si>
+    <t>25.02.20267</t>
+  </si>
+  <si>
+    <t>25.02.20268</t>
+  </si>
+  <si>
+    <t>25.02.20269</t>
+  </si>
+  <si>
+    <t>25.02.202610</t>
+  </si>
+  <si>
+    <t>25.02.202611</t>
+  </si>
+  <si>
+    <t>25.02.202612</t>
+  </si>
+  <si>
+    <t>25.02.202613</t>
+  </si>
+  <si>
+    <t>25.02.202614</t>
+  </si>
+  <si>
+    <t>25.02.202615</t>
+  </si>
+  <si>
+    <t>25.02.202616</t>
+  </si>
+  <si>
+    <t>25.02.202617</t>
+  </si>
+  <si>
+    <t>25.02.202618</t>
+  </si>
+  <si>
+    <t>25.02.202619</t>
+  </si>
+  <si>
+    <t>25.02.202620</t>
+  </si>
+  <si>
+    <t>25.02.202621</t>
+  </si>
+  <si>
+    <t>25.02.202622</t>
+  </si>
+  <si>
+    <t>25.02.202623</t>
+  </si>
+  <si>
+    <t>25.02.202624</t>
+  </si>
+  <si>
+    <t>25.02.202625</t>
+  </si>
+  <si>
+    <t>25.02.202626</t>
+  </si>
+  <si>
+    <t>25.02.202627</t>
+  </si>
+  <si>
+    <t>25.02.202628</t>
+  </si>
+  <si>
+    <t>25.02.202629</t>
+  </si>
+  <si>
+    <t>25.02.202630</t>
+  </si>
+  <si>
+    <t>25.02.202631</t>
+  </si>
+  <si>
+    <t>25.02.202632</t>
+  </si>
+  <si>
+    <t>25.02.202633</t>
+  </si>
+  <si>
+    <t>25.02.202634</t>
+  </si>
+  <si>
+    <t>25.02.202635</t>
+  </si>
+  <si>
+    <t>25.02.202636</t>
+  </si>
+  <si>
+    <t>25.02.202637</t>
+  </si>
+  <si>
+    <t>25.02.202638</t>
+  </si>
+  <si>
+    <t>25.02.202639</t>
+  </si>
+  <si>
+    <t>25.02.202640</t>
+  </si>
+  <si>
+    <t>25.02.202641</t>
+  </si>
+  <si>
+    <t>25.02.202642</t>
+  </si>
+  <si>
+    <t>25.02.202643</t>
+  </si>
+  <si>
+    <t>25.02.202644</t>
+  </si>
+  <si>
+    <t>25.02.202645</t>
+  </si>
+  <si>
+    <t>25.02.202646</t>
+  </si>
+  <si>
+    <t>25.02.202647</t>
+  </si>
+  <si>
+    <t>25.02.202648</t>
+  </si>
+  <si>
+    <t>25.02.202649</t>
+  </si>
+  <si>
+    <t>25.02.202650</t>
+  </si>
+  <si>
+    <t>25.02.202651</t>
+  </si>
+  <si>
+    <t>25.02.202652</t>
+  </si>
+  <si>
+    <t>25.02.202653</t>
+  </si>
+  <si>
+    <t>25.02.202654</t>
+  </si>
+  <si>
+    <t>25.02.202655</t>
+  </si>
+  <si>
+    <t>25.02.202656</t>
+  </si>
+  <si>
+    <t>25.02.202657</t>
+  </si>
+  <si>
+    <t>25.02.202658</t>
+  </si>
+  <si>
+    <t>25.02.202659</t>
+  </si>
+  <si>
+    <t>25.02.202660</t>
+  </si>
+  <si>
+    <t>25.02.202661</t>
+  </si>
+  <si>
+    <t>25.02.202662</t>
+  </si>
+  <si>
+    <t>25.02.202663</t>
+  </si>
+  <si>
+    <t>25.02.202664</t>
+  </si>
+  <si>
+    <t>25.02.202665</t>
+  </si>
+  <si>
+    <t>25.02.202666</t>
+  </si>
+  <si>
+    <t>25.02.202667</t>
+  </si>
+  <si>
+    <t>25.02.202668</t>
+  </si>
+  <si>
+    <t>25.02.202669</t>
+  </si>
+  <si>
+    <t>25.02.202670</t>
+  </si>
+  <si>
+    <t>25.02.202671</t>
+  </si>
+  <si>
+    <t>25.02.202672</t>
+  </si>
+  <si>
+    <t>25.02.202673</t>
+  </si>
+  <si>
+    <t>25.02.202674</t>
+  </si>
+  <si>
+    <t>25.02.202675</t>
+  </si>
+  <si>
+    <t>25.02.202676</t>
+  </si>
+  <si>
+    <t>25.02.202677</t>
+  </si>
+  <si>
+    <t>25.02.202678</t>
+  </si>
+  <si>
+    <t>25.02.202679</t>
+  </si>
+  <si>
+    <t>25.02.202680</t>
+  </si>
+  <si>
+    <t>25.02.202681</t>
+  </si>
+  <si>
+    <t>25.02.202682</t>
+  </si>
+  <si>
+    <t>25.02.202683</t>
+  </si>
+  <si>
+    <t>25.02.202684</t>
+  </si>
+  <si>
+    <t>25.02.202685</t>
+  </si>
+  <si>
+    <t>25.02.202686</t>
+  </si>
+  <si>
+    <t>25.02.202687</t>
+  </si>
+  <si>
+    <t>25.02.202688</t>
+  </si>
+  <si>
+    <t>25.02.202689</t>
+  </si>
+  <si>
+    <t>25.02.202690</t>
+  </si>
+  <si>
+    <t>25.02.202691</t>
+  </si>
+  <si>
+    <t>25.02.202692</t>
+  </si>
+  <si>
+    <t>25.02.202693</t>
+  </si>
+  <si>
+    <t>25.02.202694</t>
+  </si>
+  <si>
+    <t>25.02.202695</t>
+  </si>
+  <si>
+    <t>25.02.202696</t>
+  </si>
+  <si>
+    <t>26.02.20261</t>
+  </si>
+  <si>
+    <t>26.02.20262</t>
+  </si>
+  <si>
+    <t>26.02.20263</t>
+  </si>
+  <si>
+    <t>26.02.20264</t>
+  </si>
+  <si>
+    <t>26.02.20265</t>
+  </si>
+  <si>
+    <t>26.02.20266</t>
+  </si>
+  <si>
+    <t>26.02.20267</t>
+  </si>
+  <si>
+    <t>26.02.20268</t>
+  </si>
+  <si>
+    <t>26.02.20269</t>
+  </si>
+  <si>
+    <t>26.02.202610</t>
+  </si>
+  <si>
+    <t>26.02.202611</t>
+  </si>
+  <si>
+    <t>26.02.202612</t>
+  </si>
+  <si>
+    <t>26.02.202613</t>
+  </si>
+  <si>
+    <t>26.02.202614</t>
+  </si>
+  <si>
+    <t>26.02.202615</t>
+  </si>
+  <si>
+    <t>26.02.202616</t>
+  </si>
+  <si>
+    <t>26.02.202617</t>
+  </si>
+  <si>
+    <t>26.02.202618</t>
+  </si>
+  <si>
+    <t>26.02.202619</t>
+  </si>
+  <si>
+    <t>26.02.202620</t>
+  </si>
+  <si>
+    <t>26.02.202621</t>
+  </si>
+  <si>
+    <t>26.02.202622</t>
+  </si>
+  <si>
+    <t>26.02.202623</t>
+  </si>
+  <si>
+    <t>26.02.202624</t>
+  </si>
+  <si>
+    <t>26.02.202625</t>
+  </si>
+  <si>
+    <t>26.02.202626</t>
+  </si>
+  <si>
+    <t>26.02.202627</t>
+  </si>
+  <si>
+    <t>26.02.202628</t>
+  </si>
+  <si>
+    <t>26.02.202629</t>
+  </si>
+  <si>
+    <t>26.02.202630</t>
+  </si>
+  <si>
+    <t>26.02.202631</t>
+  </si>
+  <si>
+    <t>26.02.202632</t>
+  </si>
+  <si>
+    <t>26.02.202633</t>
+  </si>
+  <si>
+    <t>26.02.202634</t>
+  </si>
+  <si>
+    <t>26.02.202635</t>
+  </si>
+  <si>
+    <t>26.02.202636</t>
+  </si>
+  <si>
+    <t>26.02.202637</t>
+  </si>
+  <si>
+    <t>26.02.202638</t>
+  </si>
+  <si>
+    <t>26.02.202639</t>
+  </si>
+  <si>
+    <t>26.02.202640</t>
+  </si>
+  <si>
+    <t>26.02.202641</t>
+  </si>
+  <si>
+    <t>26.02.202642</t>
+  </si>
+  <si>
+    <t>26.02.202643</t>
+  </si>
+  <si>
+    <t>26.02.202644</t>
+  </si>
+  <si>
+    <t>26.02.202645</t>
+  </si>
+  <si>
+    <t>26.02.202646</t>
+  </si>
+  <si>
+    <t>26.02.202647</t>
+  </si>
+  <si>
+    <t>26.02.202648</t>
+  </si>
+  <si>
+    <t>26.02.202649</t>
+  </si>
+  <si>
+    <t>26.02.202650</t>
+  </si>
+  <si>
+    <t>26.02.202651</t>
+  </si>
+  <si>
+    <t>26.02.202652</t>
+  </si>
+  <si>
+    <t>26.02.202653</t>
+  </si>
+  <si>
+    <t>26.02.202654</t>
+  </si>
+  <si>
+    <t>26.02.202655</t>
+  </si>
+  <si>
+    <t>26.02.202656</t>
+  </si>
+  <si>
+    <t>26.02.202657</t>
+  </si>
+  <si>
+    <t>26.02.202658</t>
+  </si>
+  <si>
+    <t>26.02.202659</t>
+  </si>
+  <si>
+    <t>26.02.202660</t>
+  </si>
+  <si>
+    <t>26.02.202661</t>
+  </si>
+  <si>
+    <t>26.02.202662</t>
+  </si>
+  <si>
+    <t>26.02.202663</t>
+  </si>
+  <si>
+    <t>26.02.202664</t>
+  </si>
+  <si>
+    <t>26.02.202665</t>
+  </si>
+  <si>
+    <t>26.02.202666</t>
+  </si>
+  <si>
+    <t>26.02.202667</t>
+  </si>
+  <si>
+    <t>26.02.202668</t>
+  </si>
+  <si>
+    <t>26.02.202669</t>
+  </si>
+  <si>
+    <t>26.02.202670</t>
+  </si>
+  <si>
+    <t>26.02.202671</t>
+  </si>
+  <si>
+    <t>26.02.202672</t>
+  </si>
+  <si>
+    <t>26.02.202673</t>
+  </si>
+  <si>
+    <t>26.02.202674</t>
+  </si>
+  <si>
+    <t>26.02.202675</t>
+  </si>
+  <si>
+    <t>26.02.202676</t>
+  </si>
+  <si>
+    <t>26.02.202677</t>
+  </si>
+  <si>
+    <t>26.02.202678</t>
+  </si>
+  <si>
+    <t>26.02.202679</t>
+  </si>
+  <si>
+    <t>26.02.202680</t>
+  </si>
+  <si>
+    <t>26.02.202681</t>
+  </si>
+  <si>
+    <t>26.02.202682</t>
+  </si>
+  <si>
+    <t>26.02.202683</t>
+  </si>
+  <si>
+    <t>26.02.202684</t>
+  </si>
+  <si>
+    <t>26.02.202685</t>
+  </si>
+  <si>
+    <t>26.02.202686</t>
+  </si>
+  <si>
+    <t>26.02.202687</t>
+  </si>
+  <si>
+    <t>26.02.202688</t>
+  </si>
+  <si>
+    <t>26.02.202689</t>
+  </si>
+  <si>
+    <t>26.02.202690</t>
+  </si>
+  <si>
+    <t>26.02.202691</t>
+  </si>
+  <si>
+    <t>26.02.202692</t>
+  </si>
+  <si>
+    <t>26.02.202693</t>
+  </si>
+  <si>
+    <t>26.02.202694</t>
+  </si>
+  <si>
+    <t>26.02.202695</t>
+  </si>
+  <si>
+    <t>26.02.202696</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>46073.00486111111</v>
+        <v>46078.00486111111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>46073.01527777778</v>
+        <v>46078.01527777778</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>46073.02569444444</v>
+        <v>46078.02569444444</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>46073.03611111111</v>
+        <v>46078.03611111111</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>46073.04652777778</v>
+        <v>46078.04652777778</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>46073.05694444444</v>
+        <v>46078.05694444444</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>46073.06736111111</v>
+        <v>46078.06736111111</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>46073.07777777778</v>
+        <v>46078.07777777778</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>46073.08819444444</v>
+        <v>46078.08819444444</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>46073.09861111111</v>
+        <v>46078.09861111111</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>46073.10902777778</v>
+        <v>46078.10902777778</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>46073.11944444444</v>
+        <v>46078.11944444444</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>46073.12986111111</v>
+        <v>46078.12986111111</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>46073.14027777778</v>
+        <v>46078.14027777778</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>46073.15069444444</v>
+        <v>46078.15069444444</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>46073.16111111111</v>
+        <v>46078.16111111111</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>46073.17152777778</v>
+        <v>46078.17152777778</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>46073.18194444444</v>
+        <v>46078.18194444444</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>46073.19236111111</v>
+        <v>46078.19236111111</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>46073.20277777778</v>
+        <v>46078.20277777778</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>46073.21319444444</v>
+        <v>46078.21319444444</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>46073.22361111111</v>
+        <v>46078.22361111111</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>46073.23402777778</v>
+        <v>46078.23402777778</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>46073.24444444444</v>
+        <v>46078.24444444444</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>46073.25486111111</v>
+        <v>46078.25486111111</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>46073.26527777778</v>
+        <v>46078.26527777778</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>46073.27569444444</v>
+        <v>46078.27569444444</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>46073.28611111111</v>
+        <v>46078.28611111111</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>46073.29652777778</v>
+        <v>46078.29652777778</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>46073.30694444444</v>
+        <v>46078.30694444444</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>46073.31736111111</v>
+        <v>46078.31736111111</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>46073.32777777778</v>
+        <v>46078.32777777778</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>46073.33819444444</v>
+        <v>46078.33819444444</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>46073.34861111111</v>
+        <v>46078.34861111111</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>46073.35902777778</v>
+        <v>46078.35902777778</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>46073.36944444444</v>
+        <v>46078.36944444444</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>46073.37986111111</v>
+        <v>46078.37986111111</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>46073.39027777778</v>
+        <v>46078.39027777778</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>46073.40069444444</v>
+        <v>46078.40069444444</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>46073.41111111111</v>
+        <v>46078.41111111111</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>46073.42152777778</v>
+        <v>46078.42152777778</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>46073.43194444444</v>
+        <v>46078.43194444444</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>46073.44236111111</v>
+        <v>46078.44236111111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>46073.45277777778</v>
+        <v>46078.45277777778</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>46073.46319444444</v>
+        <v>46078.46319444444</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>46073.47361111111</v>
+        <v>46078.47361111111</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>46073.48402777778</v>
+        <v>46078.48402777778</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>46073.49444444444</v>
+        <v>46078.49444444444</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>46073.50486111111</v>
+        <v>46078.50486111111</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>46073.51527777778</v>
+        <v>46078.51527777778</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>46073.52569444444</v>
+        <v>46078.52569444444</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>46073.53611111111</v>
+        <v>46078.53611111111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>46073.54652777778</v>
+        <v>46078.54652777778</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>46073.55694444444</v>
+        <v>46078.55694444444</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>46073.56736111111</v>
+        <v>46078.56736111111</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>46073.57777777778</v>
+        <v>46078.57777777778</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>46073.58819444444</v>
+        <v>46078.58819444444</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>46073.59861111111</v>
+        <v>46078.59861111111</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>46073.60902777778</v>
+        <v>46078.60902777778</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>46073.61944444444</v>
+        <v>46078.61944444444</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>46073.62986111111</v>
+        <v>46078.62986111111</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>46073.64027777778</v>
+        <v>46078.64027777778</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>46073.65069444444</v>
+        <v>46078.65069444444</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>46073.66111111111</v>
+        <v>46078.66111111111</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>46073.67152777778</v>
+        <v>46078.67152777778</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>46073.68194444444</v>
+        <v>46078.68194444444</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>46073.69236111111</v>
+        <v>46078.69236111111</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>46073.70277777778</v>
+        <v>46078.70277777778</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>46073.71319444444</v>
+        <v>46078.71319444444</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>46073.72361111111</v>
+        <v>46078.72361111111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>46073.73402777778</v>
+        <v>46078.73402777778</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>46073.74444444444</v>
+        <v>46078.74444444444</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>46073.75486111111</v>
+        <v>46078.75486111111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>46073.76527777778</v>
+        <v>46078.76527777778</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>46073.77569444444</v>
+        <v>46078.77569444444</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>46073.78611111111</v>
+        <v>46078.78611111111</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>46073.79652777778</v>
+        <v>46078.79652777778</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>46073.80694444444</v>
+        <v>46078.80694444444</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>46073.81736111111</v>
+        <v>46078.81736111111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>46073.82777777778</v>
+        <v>46078.82777777778</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>46073.83819444444</v>
+        <v>46078.83819444444</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>46073.84861111111</v>
+        <v>46078.84861111111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>46073.85902777778</v>
+        <v>46078.85902777778</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>46073.86944444444</v>
+        <v>46078.86944444444</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>46073.87986111111</v>
+        <v>46078.87986111111</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>46073.89027777778</v>
+        <v>46078.89027777778</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>46073.90069444444</v>
+        <v>46078.90069444444</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>46073.91111111111</v>
+        <v>46078.91111111111</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>46073.92152777778</v>
+        <v>46078.92152777778</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>46073.92152777778</v>
+        <v>46078.92152777778</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>46073.93194444444</v>
+        <v>46078.93194444444</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>46073.93194444444</v>
+        <v>46078.93194444444</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>46073.94236111111</v>
+        <v>46078.94236111111</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>46073.94236111111</v>
+        <v>46078.94236111111</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>46073.95277777778</v>
+        <v>46078.95277777778</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>46073.95277777778</v>
+        <v>46078.95277777778</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>46073.96319444444</v>
+        <v>46078.96319444444</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>46073.96319444444</v>
+        <v>46078.96319444444</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>46073.97361111111</v>
+        <v>46078.97361111111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>46073.97361111111</v>
+        <v>46078.97361111111</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>46073.98402777778</v>
+        <v>46078.98402777778</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>46073.98402777778</v>
+        <v>46078.98402777778</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>46073.99444444444</v>
+        <v>46078.99444444444</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>46073.99444444444</v>
+        <v>46078.99444444444</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>46074.00486111111</v>
+        <v>46079.00486111111</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>46074.01527777778</v>
+        <v>46079.01527777778</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>46074.02569444444</v>
+        <v>46079.02569444444</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>46074.03611111111</v>
+        <v>46079.03611111111</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>46074.04652777778</v>
+        <v>46079.04652777778</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>46074.05694444444</v>
+        <v>46079.05694444444</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>46074.06736111111</v>
+        <v>46079.06736111111</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>46074.07777777778</v>
+        <v>46079.07777777778</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>46074.08819444444</v>
+        <v>46079.08819444444</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>46074.09861111111</v>
+        <v>46079.09861111111</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>46074.10902777778</v>
+        <v>46079.10902777778</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>46074.11944444444</v>
+        <v>46079.11944444444</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>46074.12986111111</v>
+        <v>46079.12986111111</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>46074.14027777778</v>
+        <v>46079.14027777778</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>46074.15069444444</v>
+        <v>46079.15069444444</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>46074.16111111111</v>
+        <v>46079.16111111111</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>46074.17152777778</v>
+        <v>46079.17152777778</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>46074.18194444444</v>
+        <v>46079.18194444444</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>46074.19236111111</v>
+        <v>46079.19236111111</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>46074.20277777778</v>
+        <v>46079.20277777778</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>46074.21319444444</v>
+        <v>46079.21319444444</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>46074.22361111111</v>
+        <v>46079.22361111111</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>46074.23402777778</v>
+        <v>46079.23402777778</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>46074.24444444444</v>
+        <v>46079.24444444444</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>46074.25486111111</v>
+        <v>46079.25486111111</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>46074.26527777778</v>
+        <v>46079.26527777778</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>46074.27569444444</v>
+        <v>46079.27569444444</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>46074.28611111111</v>
+        <v>46079.28611111111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>46074.29652777778</v>
+        <v>46079.29652777778</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>46074.30694444444</v>
+        <v>46079.30694444444</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>46074.31736111111</v>
+        <v>46079.31736111111</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>46074.32777777778</v>
+        <v>46079.32777777778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>46074.33819444444</v>
+        <v>46079.33819444444</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>46074.34861111111</v>
+        <v>46079.34861111111</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>46074.35902777778</v>
+        <v>46079.35902777778</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>46074.36944444444</v>
+        <v>46079.36944444444</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>46074.37986111111</v>
+        <v>46079.37986111111</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>46074.39027777778</v>
+        <v>46079.39027777778</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>46074.40069444444</v>
+        <v>46079.40069444444</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>46074.41111111111</v>
+        <v>46079.41111111111</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>46074.42152777778</v>
+        <v>46079.42152777778</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>46074.43194444444</v>
+        <v>46079.43194444444</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>46074.44236111111</v>
+        <v>46079.44236111111</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2">
-        <v>46074.45277777778</v>
+        <v>46079.45277777778</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2">
-        <v>46074.46319444444</v>
+        <v>46079.46319444444</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2">
-        <v>46074.47361111111</v>
+        <v>46079.47361111111</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2">
-        <v>46074.48402777778</v>
+        <v>46079.48402777778</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2">
-        <v>46074.49444444444</v>
+        <v>46079.49444444444</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2">
-        <v>46074.50486111111</v>
+        <v>46079.50486111111</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2">
-        <v>46074.51527777778</v>
+        <v>46079.51527777778</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2">
-        <v>46074.52569444444</v>
+        <v>46079.52569444444</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2">
-        <v>46074.53611111111</v>
+        <v>46079.53611111111</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2">
-        <v>46074.54652777778</v>
+        <v>46079.54652777778</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2">
-        <v>46074.55694444444</v>
+        <v>46079.55694444444</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2">
-        <v>46074.56736111111</v>
+        <v>46079.56736111111</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2">
-        <v>46074.57777777778</v>
+        <v>46079.57777777778</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2">
-        <v>46074.58819444444</v>
+        <v>46079.58819444444</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2">
-        <v>46074.59861111111</v>
+        <v>46079.59861111111</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2">
-        <v>46074.60902777778</v>
+        <v>46079.60902777778</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2">
-        <v>46074.61944444444</v>
+        <v>46079.61944444444</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2">
-        <v>46074.62986111111</v>
+        <v>46079.62986111111</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2">
-        <v>46074.64027777778</v>
+        <v>46079.64027777778</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2">
-        <v>46074.65069444444</v>
+        <v>46079.65069444444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2">
-        <v>46074.66111111111</v>
+        <v>46079.66111111111</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2">
-        <v>46074.67152777778</v>
+        <v>46079.67152777778</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2">
-        <v>46074.68194444444</v>
+        <v>46079.68194444444</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2">
-        <v>46074.69236111111</v>
+        <v>46079.69236111111</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2">
-        <v>46074.70277777778</v>
+        <v>46079.70277777778</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2">
-        <v>46074.71319444444</v>
+        <v>46079.71319444444</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2">
-        <v>46074.72361111111</v>
+        <v>46079.72361111111</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2">
-        <v>46074.73402777778</v>
+        <v>46079.73402777778</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2">
-        <v>46074.74444444444</v>
+        <v>46079.74444444444</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2">
-        <v>46074.75486111111</v>
+        <v>46079.75486111111</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2">
-        <v>46074.76527777778</v>
+        <v>46079.76527777778</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2">
-        <v>46074.77569444444</v>
+        <v>46079.77569444444</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2">
-        <v>46074.78611111111</v>
+        <v>46079.78611111111</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2">
-        <v>46074.79652777778</v>
+        <v>46079.79652777778</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2">
-        <v>46074.80694444444</v>
+        <v>46079.80694444444</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2">
-        <v>46074.81736111111</v>
+        <v>46079.81736111111</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2">
-        <v>46074.82777777778</v>
+        <v>46079.82777777778</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2">
-        <v>46074.83819444444</v>
+        <v>46079.83819444444</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2">
-        <v>46074.84861111111</v>
+        <v>46079.84861111111</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2">
-        <v>46074.85902777778</v>
+        <v>46079.85902777778</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2">
-        <v>46074.86944444444</v>
+        <v>46079.86944444444</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2">
-        <v>46074.87986111111</v>
+        <v>46079.87986111111</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2">
-        <v>46074.89027777778</v>
+        <v>46079.89027777778</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2">
-        <v>46074.90069444444</v>
+        <v>46079.90069444444</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2">
-        <v>46074.91111111111</v>
+        <v>46079.91111111111</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2">
-        <v>46074.92152777778</v>
+        <v>46079.92152777778</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2">
-        <v>46074.93194444444</v>
+        <v>46079.93194444444</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2">
-        <v>46074.94236111111</v>
+        <v>46079.94236111111</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2">
-        <v>46074.95277777778</v>
+        <v>46079.95277777778</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2">
-        <v>46074.96319444444</v>
+        <v>46079.96319444444</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2">
-        <v>46074.97361111111</v>
+        <v>46079.97361111111</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2">
-        <v>46074.98402777778</v>
+        <v>46079.98402777778</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2">
-        <v>46074.99444444444</v>
+        <v>46079.99444444444</v>
       </c>
       <c r="B201">
         <v>0</v>
